--- a/progression_2019_2020_IPT_MPSI.xlsx
+++ b/progression_2019_2020_IPT_MPSI.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6400" yWindow="460" windowWidth="25600" windowHeight="14160" activeTab="1"/>
+    <workbookView xWindow="6400" yWindow="460" windowWidth="25600" windowHeight="14160"/>
   </bookViews>
   <sheets>
     <sheet name="Semanier MPSI IPT 2019-2020" sheetId="12" r:id="rId1"/>
@@ -2286,8 +2286,8 @@
   </sheetPr>
   <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36:D40"/>
+    <sheetView tabSelected="1" topLeftCell="D31" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3432,7 +3432,9 @@
       <c r="H35" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="I35" s="21"/>
+      <c r="I35" s="21">
+        <v>15</v>
+      </c>
       <c r="J35" s="68" t="s">
         <v>18</v>
       </c>
@@ -3640,7 +3642,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>

--- a/progression_2019_2020_IPT_MPSI.xlsx
+++ b/progression_2019_2020_IPT_MPSI.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6400" yWindow="460" windowWidth="25600" windowHeight="14160"/>
+    <workbookView xWindow="-31960" yWindow="-1120" windowWidth="25600" windowHeight="14160"/>
   </bookViews>
   <sheets>
     <sheet name="Semanier MPSI IPT 2019-2020" sheetId="12" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="64">
   <si>
     <t>Cours</t>
   </si>
@@ -101,9 +101,6 @@
   </si>
   <si>
     <t>DM</t>
-  </si>
-  <si>
-    <t>Supports</t>
   </si>
   <si>
     <t>N° TP</t>
@@ -219,6 +216,15 @@
   </si>
   <si>
     <t>Cycle 3</t>
+  </si>
+  <si>
+    <t>Supports TD</t>
+  </si>
+  <si>
+    <t>Supports TP</t>
+  </si>
+  <si>
+    <t>Compétences</t>
   </si>
 </sst>
 </file>
@@ -2284,10 +2290,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N41"/>
+  <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D31" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2300,13 +2306,14 @@
     <col min="8" max="8" width="37.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="37.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="10.83203125" style="1"/>
-    <col min="14" max="14" width="41.33203125" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="10.83203125" style="1"/>
+    <col min="11" max="12" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.33203125" style="1" customWidth="1"/>
+    <col min="14" max="15" width="10.83203125" style="1"/>
+    <col min="16" max="16" width="41.33203125" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="26" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" ht="26" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>19</v>
       </c>
@@ -2332,25 +2339,31 @@
         <v>2</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="L1" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="N1" s="32" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="50" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1" s="32" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="50" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2361,32 +2374,34 @@
         <v>1</v>
       </c>
       <c r="D2" s="49" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E2" s="26">
         <v>1</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G2" s="26">
         <v>1</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I2" s="11">
         <v>1</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K2" s="5"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="34"/>
-    </row>
-    <row r="3" spans="1:14" ht="50" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="34"/>
+    </row>
+    <row r="3" spans="1:16" ht="50" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2400,26 +2415,28 @@
         <v>2</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G3" s="26">
         <v>2</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I3" s="11">
         <v>1</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K3" s="5"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="34"/>
-    </row>
-    <row r="4" spans="1:14" ht="50" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="34"/>
+    </row>
+    <row r="4" spans="1:16" ht="50" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2433,26 +2450,28 @@
         <v>2</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G4" s="26">
         <v>2</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I4" s="11">
         <v>2</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K4" s="5"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="34"/>
-    </row>
-    <row r="5" spans="1:14" ht="50" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="34"/>
+    </row>
+    <row r="5" spans="1:16" ht="50" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2478,14 +2497,16 @@
         <v>2</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K5" s="5"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="34"/>
-    </row>
-    <row r="6" spans="1:14" ht="50" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="34"/>
+    </row>
+    <row r="6" spans="1:16" ht="50" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2499,26 +2520,28 @@
         <v>4</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G6" s="26">
         <v>4</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I6" s="11">
         <v>3</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K6" s="5"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="34"/>
-    </row>
-    <row r="7" spans="1:14" ht="50" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="34"/>
+    </row>
+    <row r="7" spans="1:16" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2532,26 +2555,28 @@
         <v>4</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G7" s="26">
         <v>4</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I7" s="11">
         <v>3</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K7" s="5"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="32"/>
-    </row>
-    <row r="8" spans="1:14" ht="50" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="32"/>
+    </row>
+    <row r="8" spans="1:16" ht="50" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2565,27 +2590,27 @@
         <v>5</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G8" s="26">
         <v>5</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I8" s="11">
         <v>4</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="N8" s="34"/>
-    </row>
-    <row r="9" spans="1:14" ht="50" customHeight="1" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="P8" s="34"/>
+    </row>
+    <row r="9" spans="1:16" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="40" t="s">
         <v>10</v>
       </c>
@@ -2600,10 +2625,12 @@
       <c r="J9" s="41"/>
       <c r="K9" s="41"/>
       <c r="L9" s="41"/>
-      <c r="M9" s="48"/>
-      <c r="N9" s="32"/>
-    </row>
-    <row r="10" spans="1:14" ht="50" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M9" s="41"/>
+      <c r="N9" s="41"/>
+      <c r="O9" s="48"/>
+      <c r="P9" s="32"/>
+    </row>
+    <row r="10" spans="1:16" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2615,32 +2642,34 @@
         <v>1</v>
       </c>
       <c r="D10" s="49" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E10" s="26">
         <v>5</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G10" s="26">
         <v>5</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I10" s="11">
         <v>4</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K10" s="5"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="32"/>
-    </row>
-    <row r="11" spans="1:14" ht="50" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="32"/>
+    </row>
+    <row r="11" spans="1:16" ht="50" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2654,26 +2683,28 @@
         <v>6</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G11" s="26">
         <v>6</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I11" s="11">
         <v>5</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K11" s="5"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="34"/>
-    </row>
-    <row r="12" spans="1:14" ht="50" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="34"/>
+    </row>
+    <row r="12" spans="1:16" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2687,25 +2718,27 @@
         <v>6</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G12" s="26">
         <v>6</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I12" s="11">
         <v>5</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K12" s="5"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" ht="50" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" ht="50" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2719,26 +2752,28 @@
         <v>7</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G13" s="26">
         <v>7</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I13" s="11">
         <v>6</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K13" s="5"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="34"/>
-    </row>
-    <row r="14" spans="1:14" ht="50" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="34"/>
+    </row>
+    <row r="14" spans="1:16" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2752,25 +2787,27 @@
         <v>7</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G14" s="26">
         <v>7</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I14" s="11">
         <v>6</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K14" s="5"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" ht="50" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" ht="50" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2784,28 +2821,30 @@
         <v>8</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G15" s="26">
         <v>8</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I15" s="11">
         <v>7</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K15" s="5"/>
-      <c r="L15" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="M15" s="3"/>
-      <c r="N15" s="34"/>
-    </row>
-    <row r="16" spans="1:14" ht="50" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="O15" s="3"/>
+      <c r="P15" s="34"/>
+    </row>
+    <row r="16" spans="1:16" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2819,26 +2858,28 @@
         <v>8</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G16" s="26">
         <v>8</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I16" s="11">
         <v>7</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K16" s="5"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="32"/>
-    </row>
-    <row r="17" spans="1:14" ht="50" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="32"/>
+    </row>
+    <row r="17" spans="1:16" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="40" t="s">
         <v>11</v>
       </c>
@@ -2853,10 +2894,12 @@
       <c r="J17" s="41"/>
       <c r="K17" s="41"/>
       <c r="L17" s="41"/>
-      <c r="M17" s="48"/>
-      <c r="N17" s="32"/>
-    </row>
-    <row r="18" spans="1:14" ht="50" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M17" s="41"/>
+      <c r="N17" s="41"/>
+      <c r="O17" s="48"/>
+      <c r="P17" s="32"/>
+    </row>
+    <row r="18" spans="1:16" ht="50" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -2868,32 +2911,34 @@
         <v>2</v>
       </c>
       <c r="D18" s="55" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E18" s="28">
         <v>1</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G18" s="28">
         <v>1</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I18" s="13">
         <v>8</v>
       </c>
       <c r="J18" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K18" s="5"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="27"/>
-      <c r="N18" s="34"/>
-    </row>
-    <row r="19" spans="1:14" ht="50" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="27"/>
+      <c r="P18" s="34"/>
+    </row>
+    <row r="19" spans="1:16" ht="50" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -2907,26 +2952,28 @@
         <v>1</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G19" s="28">
         <v>1</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I19" s="13">
         <v>8</v>
       </c>
       <c r="J19" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K19" s="5"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27"/>
-      <c r="N19" s="34"/>
-    </row>
-    <row r="20" spans="1:14" ht="50" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="34"/>
+    </row>
+    <row r="20" spans="1:16" ht="50" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -2940,26 +2987,28 @@
         <v>2</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G20" s="28">
         <v>2</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I20" s="13">
         <v>9</v>
       </c>
       <c r="J20" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K20" s="5"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="34"/>
-    </row>
-    <row r="21" spans="1:14" ht="50" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="34"/>
+    </row>
+    <row r="21" spans="1:16" ht="50" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -2973,26 +3022,28 @@
         <v>2</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G21" s="28">
         <v>2</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I21" s="13">
         <v>9</v>
       </c>
       <c r="J21" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K21" s="5"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="34"/>
-    </row>
-    <row r="22" spans="1:14" ht="50" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="34"/>
+    </row>
+    <row r="22" spans="1:16" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -3004,32 +3055,34 @@
         <v>3</v>
       </c>
       <c r="D22" s="59" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E22" s="36">
         <v>1</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G22" s="36">
         <v>1</v>
       </c>
       <c r="H22" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I22" s="15">
         <v>10</v>
       </c>
       <c r="J22" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K22" s="5"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="32"/>
-    </row>
-    <row r="23" spans="1:14" ht="50" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="32"/>
+    </row>
+    <row r="23" spans="1:16" ht="50" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -3043,28 +3096,30 @@
         <v>2</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G23" s="36">
         <v>2</v>
       </c>
       <c r="H23" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I23" s="15">
         <v>10</v>
       </c>
       <c r="J23" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K23" s="5"/>
-      <c r="L23" s="4" t="s">
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="M23" s="3"/>
-      <c r="N23" s="34"/>
-    </row>
-    <row r="24" spans="1:14" ht="50" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O23" s="3"/>
+      <c r="P23" s="34"/>
+    </row>
+    <row r="24" spans="1:16" ht="50" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>19</v>
       </c>
@@ -3078,26 +3133,28 @@
         <v>2</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G24" s="36">
         <v>2</v>
       </c>
       <c r="H24" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I24" s="15">
         <v>11</v>
       </c>
       <c r="J24" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K24" s="5"/>
-      <c r="L24" s="27"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="34"/>
-    </row>
-    <row r="25" spans="1:14" ht="50" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="27"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="34"/>
+    </row>
+    <row r="25" spans="1:16" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="40" t="s">
         <v>12</v>
       </c>
@@ -3113,9 +3170,11 @@
       <c r="K25" s="41"/>
       <c r="L25" s="41"/>
       <c r="M25" s="41"/>
-      <c r="N25" s="32"/>
-    </row>
-    <row r="26" spans="1:14" ht="50" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N25" s="41"/>
+      <c r="O25" s="41"/>
+      <c r="P25" s="32"/>
+    </row>
+    <row r="26" spans="1:16" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>19</v>
       </c>
@@ -3127,32 +3186,34 @@
         <v>3</v>
       </c>
       <c r="D26" s="59" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E26" s="29">
         <v>3</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G26" s="36">
         <v>3</v>
       </c>
       <c r="H26" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I26" s="15">
         <v>11</v>
       </c>
       <c r="J26" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K26" s="5"/>
-      <c r="L26" s="27"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="32"/>
-    </row>
-    <row r="27" spans="1:14" ht="50" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="27"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="32"/>
+    </row>
+    <row r="27" spans="1:16" ht="50" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>20</v>
       </c>
@@ -3166,25 +3227,27 @@
         <v>3</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G27" s="36">
         <v>3</v>
       </c>
       <c r="H27" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I27" s="15">
         <v>12</v>
       </c>
       <c r="J27" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K27" s="5"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="34"/>
-    </row>
-    <row r="28" spans="1:14" ht="50" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L27" s="5"/>
+      <c r="M27" s="74"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="34"/>
+    </row>
+    <row r="28" spans="1:16" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>21</v>
       </c>
@@ -3198,26 +3261,28 @@
         <v>4</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G28" s="29">
         <v>4</v>
       </c>
       <c r="H28" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I28" s="15">
         <v>12</v>
       </c>
       <c r="J28" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K28" s="5"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="32"/>
-    </row>
-    <row r="29" spans="1:14" ht="50" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="32"/>
+    </row>
+    <row r="29" spans="1:16" ht="50" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>22</v>
       </c>
@@ -3231,26 +3296,28 @@
         <v>4</v>
       </c>
       <c r="F29" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G29" s="36">
         <v>4</v>
       </c>
       <c r="H29" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I29" s="15">
         <v>13</v>
       </c>
       <c r="J29" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K29" s="5"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="34"/>
-    </row>
-    <row r="30" spans="1:14" ht="50" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="34"/>
+    </row>
+    <row r="30" spans="1:16" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>23</v>
       </c>
@@ -3262,34 +3329,36 @@
         <v>4</v>
       </c>
       <c r="D30" s="37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E30" s="30">
         <v>1</v>
       </c>
       <c r="F30" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G30" s="30">
         <v>1</v>
       </c>
       <c r="H30" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I30" s="15">
         <v>13</v>
       </c>
       <c r="J30" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K30" s="5"/>
-      <c r="L30" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="M30" s="4"/>
-      <c r="N30" s="32"/>
-    </row>
-    <row r="31" spans="1:14" ht="50" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="O30" s="4"/>
+      <c r="P30" s="32"/>
+    </row>
+    <row r="31" spans="1:16" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>24</v>
       </c>
@@ -3303,26 +3372,28 @@
         <v>2</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G31" s="30">
         <v>2</v>
       </c>
       <c r="H31" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I31" s="18">
         <v>14</v>
       </c>
       <c r="J31" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K31" s="73"/>
-      <c r="L31" s="27"/>
-      <c r="M31" s="27"/>
-      <c r="N31" s="32"/>
-    </row>
-    <row r="32" spans="1:14" ht="50" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L31" s="73"/>
+      <c r="M31" s="73"/>
+      <c r="N31" s="27"/>
+      <c r="O31" s="27"/>
+      <c r="P31" s="32"/>
+    </row>
+    <row r="32" spans="1:16" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="44" t="s">
         <v>14</v>
       </c>
@@ -3338,9 +3409,11 @@
       <c r="K32" s="45"/>
       <c r="L32" s="45"/>
       <c r="M32" s="45"/>
-      <c r="N32" s="32"/>
-    </row>
-    <row r="33" spans="1:14" ht="50" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N32" s="45"/>
+      <c r="O32" s="45"/>
+      <c r="P32" s="32"/>
+    </row>
+    <row r="33" spans="1:16" ht="50" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>25</v>
       </c>
@@ -3352,32 +3425,34 @@
         <v>4</v>
       </c>
       <c r="D33" s="37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E33" s="30">
         <v>2</v>
       </c>
       <c r="F33" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G33" s="30">
         <v>2</v>
       </c>
       <c r="H33" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I33" s="18">
         <v>14</v>
       </c>
       <c r="J33" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K33" s="72"/>
-      <c r="L33" s="6"/>
-      <c r="M33" s="6"/>
-      <c r="N33" s="34"/>
-    </row>
-    <row r="34" spans="1:14" ht="50" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L33" s="72"/>
+      <c r="M33" s="72"/>
+      <c r="N33" s="6"/>
+      <c r="O33" s="6"/>
+      <c r="P33" s="34"/>
+    </row>
+    <row r="34" spans="1:16" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>26</v>
       </c>
@@ -3391,26 +3466,28 @@
         <v>3</v>
       </c>
       <c r="F34" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G34" s="30">
         <v>3</v>
       </c>
       <c r="H34" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I34" s="18">
         <v>15</v>
       </c>
       <c r="J34" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K34" s="73"/>
-      <c r="L34" s="4"/>
-      <c r="M34" s="6"/>
-      <c r="N34" s="32"/>
-    </row>
-    <row r="35" spans="1:14" ht="50" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L34" s="73"/>
+      <c r="M34" s="73"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="6"/>
+      <c r="P34" s="32"/>
+    </row>
+    <row r="35" spans="1:16" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <v>27</v>
       </c>
@@ -3424,13 +3501,13 @@
         <v>4</v>
       </c>
       <c r="F35" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G35" s="30">
         <v>4</v>
       </c>
       <c r="H35" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I35" s="21">
         <v>15</v>
@@ -3439,10 +3516,12 @@
         <v>18</v>
       </c>
       <c r="K35" s="73"/>
-      <c r="M35" s="4"/>
-      <c r="N35" s="33"/>
-    </row>
-    <row r="36" spans="1:14" ht="50" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L35" s="73"/>
+      <c r="M35" s="74"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="33"/>
+    </row>
+    <row r="36" spans="1:16" ht="50" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>28</v>
       </c>
@@ -3454,13 +3533,13 @@
         <v>5</v>
       </c>
       <c r="D36" s="46" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E36" s="31">
         <v>1</v>
       </c>
       <c r="F36" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G36" s="31"/>
       <c r="H36" s="20"/>
@@ -3468,14 +3547,16 @@
         <v>15</v>
       </c>
       <c r="J36" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K36" s="73"/>
-      <c r="L36" s="7"/>
-      <c r="M36" s="7"/>
-      <c r="N36" s="34"/>
-    </row>
-    <row r="37" spans="1:14" ht="50" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L36" s="73"/>
+      <c r="M36" s="73"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="7"/>
+      <c r="P36" s="34"/>
+    </row>
+    <row r="37" spans="1:16" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
         <v>29</v>
       </c>
@@ -3489,7 +3570,7 @@
         <v>1</v>
       </c>
       <c r="F37" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G37" s="31"/>
       <c r="H37" s="20"/>
@@ -3497,16 +3578,18 @@
         <v>15</v>
       </c>
       <c r="J37" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K37" s="73"/>
-      <c r="L37" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="M37" s="4"/>
-      <c r="N37" s="33"/>
-    </row>
-    <row r="38" spans="1:14" ht="50" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L37" s="73"/>
+      <c r="M37" s="73"/>
+      <c r="N37" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="O37" s="4"/>
+      <c r="P37" s="33"/>
+    </row>
+    <row r="38" spans="1:16" ht="50" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>30</v>
       </c>
@@ -3520,7 +3603,7 @@
         <v>1</v>
       </c>
       <c r="F38" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G38" s="31"/>
       <c r="H38" s="20"/>
@@ -3528,14 +3611,16 @@
         <v>15</v>
       </c>
       <c r="J38" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K38" s="5"/>
-      <c r="L38" s="4"/>
-      <c r="M38" s="4"/>
-      <c r="N38" s="34"/>
-    </row>
-    <row r="39" spans="1:14" ht="50" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="4"/>
+      <c r="P38" s="34"/>
+    </row>
+    <row r="39" spans="1:16" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
         <v>31</v>
       </c>
@@ -3549,7 +3634,7 @@
         <v>1</v>
       </c>
       <c r="F39" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G39" s="31"/>
       <c r="H39" s="20"/>
@@ -3557,14 +3642,16 @@
         <v>15</v>
       </c>
       <c r="J39" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K39" s="5"/>
-      <c r="L39" s="27"/>
-      <c r="M39" s="27"/>
-      <c r="N39" s="33"/>
-    </row>
-    <row r="40" spans="1:14" ht="50" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="27"/>
+      <c r="O39" s="27"/>
+      <c r="P39" s="33"/>
+    </row>
+    <row r="40" spans="1:16" ht="50" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>32</v>
       </c>
@@ -3578,7 +3665,7 @@
         <v>1</v>
       </c>
       <c r="F40" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G40" s="31"/>
       <c r="H40" s="20"/>
@@ -3586,12 +3673,14 @@
         <v>15</v>
       </c>
       <c r="J40" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K40" s="74"/>
-      <c r="N40" s="34"/>
-    </row>
-    <row r="41" spans="1:14" ht="34" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L40" s="74"/>
+      <c r="M40" s="74"/>
+      <c r="P40" s="34"/>
+    </row>
+    <row r="41" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="44" t="s">
         <v>15</v>
       </c>
@@ -3607,6 +3696,8 @@
       <c r="K41" s="45"/>
       <c r="L41" s="45"/>
       <c r="M41" s="45"/>
+      <c r="N41" s="45"/>
+      <c r="O41" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -3616,15 +3707,15 @@
     <mergeCell ref="C36:C40"/>
     <mergeCell ref="C18:C21"/>
     <mergeCell ref="D18:D21"/>
-    <mergeCell ref="A9:M9"/>
-    <mergeCell ref="A17:M17"/>
+    <mergeCell ref="A9:O9"/>
+    <mergeCell ref="A17:O17"/>
     <mergeCell ref="C2:C8"/>
     <mergeCell ref="D2:D8"/>
     <mergeCell ref="D10:D16"/>
     <mergeCell ref="C10:C16"/>
-    <mergeCell ref="A41:M41"/>
-    <mergeCell ref="A32:M32"/>
-    <mergeCell ref="A25:M25"/>
+    <mergeCell ref="A41:O41"/>
+    <mergeCell ref="A32:O32"/>
+    <mergeCell ref="A25:O25"/>
     <mergeCell ref="D22:D24"/>
     <mergeCell ref="C22:C24"/>
     <mergeCell ref="D26:D29"/>
@@ -3667,23 +3758,23 @@
         <v>3</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="38" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="38" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="38" customHeight="1" x14ac:dyDescent="0.15">
@@ -3691,7 +3782,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="38" customHeight="1" x14ac:dyDescent="0.15">
@@ -3699,7 +3790,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/progression_2019_2020_IPT_MPSI.xlsx
+++ b/progression_2019_2020_IPT_MPSI.xlsx
@@ -1,28 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28109"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emiliendurif/Documents/prepa/MPSI/ipt_mpsi_lamartin/Informatique_MPSI/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Informatique_MPSI\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93FE4698-6955-47DC-9DFA-F4C88FB34861}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-31960" yWindow="-1120" windowWidth="25600" windowHeight="14160"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Semanier MPSI IPT 2019-2020" sheetId="12" r:id="rId1"/>
     <sheet name="Cycles MPSI IPT" sheetId="11" r:id="rId2"/>
+    <sheet name="Competences" sheetId="14" r:id="rId3"/>
+    <sheet name="Programme" sheetId="13" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Cycles MPSI IPT'!$A$3:$B$7</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Semanier MPSI IPT 2019-2020'!$A$18:$H$20</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -32,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="292">
   <si>
     <t>Cours</t>
   </si>
@@ -112,28 +120,18 @@
     <t>DS4</t>
   </si>
   <si>
-    <t>Architecture et algorithmique</t>
-  </si>
-  <si>
     <t>Architecture matérielle et logicielle et Introduction à l'algorithmique</t>
   </si>
   <si>
     <t>Démontage d'un PC et étude des composants</t>
   </si>
   <si>
-    <t>Expressions, types et variables en
-Python</t>
-  </si>
-  <si>
     <t>Instructions conditionnelles et boucles</t>
   </si>
   <si>
     <t>Tracé de fonction</t>
   </si>
   <si>
-    <t>Analyse algorithmique</t>
-  </si>
-  <si>
     <t>Tableaux</t>
   </si>
   <si>
@@ -225,13 +223,718 @@
   </si>
   <si>
     <t>Compétences</t>
+  </si>
+  <si>
+    <t>Image entete</t>
+  </si>
+  <si>
+    <t>Fond_ARCH</t>
+  </si>
+  <si>
+    <t>Fond_ALG</t>
+  </si>
+  <si>
+    <t>Simulation numérique</t>
+  </si>
+  <si>
+    <t>Fond_DB</t>
+  </si>
+  <si>
+    <t>Fond_SIMU</t>
+  </si>
+  <si>
+    <t>Chapitre correspondant au TP</t>
+  </si>
+  <si>
+    <t>1-1</t>
+  </si>
+  <si>
+    <t>1-2</t>
+  </si>
+  <si>
+    <t>1-3</t>
+  </si>
+  <si>
+    <t>1-4</t>
+  </si>
+  <si>
+    <t>1-5;1-6</t>
+  </si>
+  <si>
+    <t>1-7</t>
+  </si>
+  <si>
+    <t>2-1</t>
+  </si>
+  <si>
+    <t>2-2</t>
+  </si>
+  <si>
+    <t>3-1</t>
+  </si>
+  <si>
+    <t>3-2</t>
+  </si>
+  <si>
+    <t>3-3</t>
+  </si>
+  <si>
+    <t>3-4</t>
+  </si>
+  <si>
+    <t>4-1;4-2</t>
+  </si>
+  <si>
+    <t>4-1;4-2;4-3;4-4</t>
+  </si>
+  <si>
+    <t>CI 1 - Découverte de l'informatique</t>
+  </si>
+  <si>
+    <t>Déc - C1</t>
+  </si>
+  <si>
+    <t>Manipuler en mode « utilisateur » les principales fonctions d’un système d’exploitation et d’un environnement de développement</t>
+  </si>
+  <si>
+    <t>Se familiariser aux principaux composants d’une machine numérique telle que l’ordinateur personnel, une tablette, etc : sources d’énergie, mémoire vive, mémoire de masse, unité centrale, périphériques d’entrée-sortie, ports de communication avec d’autres composants numériques</t>
+  </si>
+  <si>
+    <t>Se familiariser à la manipulation d’un système d’exploitation (gestion des ressources, essentiellement : organisation des fichiers, arborescence, droits d’accès, de modification, entrées/sorties)</t>
+  </si>
+  <si>
+    <t>Se familiariser à la manipulation d’un environnement de développement</t>
+  </si>
+  <si>
+    <t>Déc - C2</t>
+  </si>
+  <si>
+    <t>Appréhender les limitations intrinsèques à la manipulation informatique des nombres</t>
+  </si>
+  <si>
+    <t>Déc - C3</t>
+  </si>
+  <si>
+    <t>Initier un sens critique au sujet de la qualité et de la précision des résultats de calculs numériques sur ordinateur</t>
+  </si>
+  <si>
+    <t>On introduit ou rappelle brièvement le principe de la représentation binaire ainsi que ses limites.</t>
+  </si>
+  <si>
+    <t>Principe de la représentation des nombres entiers en mémoire</t>
+  </si>
+  <si>
+    <t>On se limite à la définition de l’écriture en virgule flottante normalisée et on explique le codage d’un nombre réel en général sans entrer dans les cas particuliers comme les
+non-nombres « not a number » ou les infinis.</t>
+  </si>
+  <si>
+    <t>Principe de la représentation des nombres réels en mémoire</t>
+  </si>
+  <si>
+    <t>On illustre, sur des exemples simples, pouvant être illustrés au moyen d’une calculatrice, les phénomènes de dépassement de capacité (ou « overflow ») de séquences de calculs conduisant à des résultats faux et erreurs d’arrondis. On illustre aussi le problème de la comparaison à zéro, par exemple dans une équation du second degré.</t>
+  </si>
+  <si>
+    <t>CI 2 - Algorithmique et programmation</t>
+  </si>
+  <si>
+    <t>Alg - C1</t>
+  </si>
+  <si>
+    <t>Comprendre un algorithme et expliquer ce qu’il fait</t>
+  </si>
+  <si>
+    <t>Alg - C2</t>
+  </si>
+  <si>
+    <t>Modifier un algorithme existant pour obtenir un résultat différent</t>
+  </si>
+  <si>
+    <t>Alg - C3</t>
+  </si>
+  <si>
+    <t>Concevoir un algorithme répondant à un problème précisément posé</t>
+  </si>
+  <si>
+    <t>Alg - C4</t>
+  </si>
+  <si>
+    <t>Expliquer le fonctionnement d’un algorithme</t>
+  </si>
+  <si>
+    <t>Alg - C5</t>
+  </si>
+  <si>
+    <t>Écrire des instructions conditionnelles avec alternatives, éventuellement imbriquées</t>
+  </si>
+  <si>
+    <t>Alg - C6</t>
+  </si>
+  <si>
+    <t>Justifier qu’une itération (ou boucle) produit l’effet attendu au moyen d’un invariant</t>
+  </si>
+  <si>
+    <t>Alg - C7</t>
+  </si>
+  <si>
+    <t>Démontrer qu’une boucle se termine effectivement</t>
+  </si>
+  <si>
+    <t>Alg - C8</t>
+  </si>
+  <si>
+    <t>S’interroger sur l’efficacité algorithmique temporelle d’un algorithme</t>
+  </si>
+  <si>
+    <t>Recherche dans une liste, recherche du maximum dans une liste de nombres, calcul de la moyenne et de la variance.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recherche par dichotomie dans un tableau trié.
+Recherche par dichotomie du zéro d’une fonction continue et monotone. </t>
+  </si>
+  <si>
+    <t>Méthodes des rectangles et des trapèzes pour le calcul approché d’une intégrale sur un segment.</t>
+  </si>
+  <si>
+    <t>Recherche d’un mot dans une chaîne de caractères.</t>
+  </si>
+  <si>
+    <t>On se limite ici à l’algorithme « naïf », en estimant sa complexité.</t>
+  </si>
+  <si>
+    <t>Alg - C9</t>
+  </si>
+  <si>
+    <t>Choisir un type de données en fonction d’un problème à résoudre</t>
+  </si>
+  <si>
+    <t>Alg - C10</t>
+  </si>
+  <si>
+    <t>Concevoir l’en-tête (ou la spécification) d’une fonction, puis la fonction elle-même</t>
+  </si>
+  <si>
+    <t>Alg - C11</t>
+  </si>
+  <si>
+    <t>Traduire un algorithme dans un langage de programmation</t>
+  </si>
+  <si>
+    <t>Alg - C12</t>
+  </si>
+  <si>
+    <t>Gérer efficacement un ensemble de fichiers correspondant à des versions successives d’un fichier source</t>
+  </si>
+  <si>
+    <t>Alg - C13</t>
+  </si>
+  <si>
+    <t>Rechercher une information au sein d’une documentation en ligne, analyser des exemples fournis dans cette documentation</t>
+  </si>
+  <si>
+    <t>Alg - C14</t>
+  </si>
+  <si>
+    <t>Documenter une fonction, un programme plus complexe.</t>
+  </si>
+  <si>
+    <t>Variables : notion de type et de valeur d’une variable, types simples.</t>
+  </si>
+  <si>
+    <t>Les types simples présentés sont les entiers, flottants, booléens et chaînes de caractères.</t>
+  </si>
+  <si>
+    <t>Expressions et instructions simples : affectation, opérateurs usuels, distinction entre expression et instruction</t>
+  </si>
+  <si>
+    <t>Les expressions considérées sont à valeurs numériques, booléennes ou de type chaîne de caractères.</t>
+  </si>
+  <si>
+    <t>Instructions conditionnelles : expressions booléennes et opérateurs logiques simples, instruction if. Variantes avec alternative (else).</t>
+  </si>
+  <si>
+    <t>Les étudiants devront être capables de structurer et comprendre plusieurs niveaux d’alternatives implantées par des instructions conditionnelles imbriquées.</t>
+  </si>
+  <si>
+    <t>Instructions itératives : boucles for, boucles conditionnelles while.</t>
+  </si>
+  <si>
+    <t>Les sorties de boucle (instruction break) peuvent être présentées et se justifient uniquement lorsqu’elles contribuent à simplifier notablement la programmation sans réelle perte de lisibilité des conditions d’arrêt.</t>
+  </si>
+  <si>
+    <t>Fonctions : notion de fonction (au sens informatique), définition dans le langage utilisé, paramètres (ou arguments) et résultats, portée des variables.</t>
+  </si>
+  <si>
+    <t>On distingue les variables locales des variables globales et on décourage l’utilisation des variables globales autant que possible. La récursivité sera présentée plus tard.</t>
+  </si>
+  <si>
+    <t>Manipulation de quelques structures de données : chaînes de caractères (création, accès à un caractère, concaténation), listes (création, ajout d’un élément, suppression
+d’un élément, accès à un élément, extraction d’une partie de liste), tableaux à une ou plusieurs dimensions.</t>
+  </si>
+  <si>
+    <t>On met en évidence le fait que certaines opérations d’apparence simple cachent un important travail pour le processeur.
+On met à profit la structure de tableau d’entiers à deux dimensions pour introduire la notion d’image ponctuelle (« bitmap »).
+Les algorithmes de traitement d’image seront abordés plus tard.</t>
+  </si>
+  <si>
+    <t>Fichiers : notion de chemin d’accès, lecture et écriture de données numériques ou de type chaîne de caractères depuis ou vers un fichier.</t>
+  </si>
+  <si>
+    <t>On encourage l’utilisation de fichiers en tant que supports de données ou de résultats avant divers traitements, par exemple graphiques. L’utilisation de bases de données sera étudiée plus tard.</t>
+  </si>
+  <si>
+    <t>CI 3 - Ingénierie numérique et simulation</t>
+  </si>
+  <si>
+    <t>Ing - C1</t>
+  </si>
+  <si>
+    <t>Réaliser un programme complet structuré allant de la prise en compte de données expérimentales à la mise en forme des résultats permettant de résoudre un problème scientifique donné</t>
+  </si>
+  <si>
+    <t>Ing - C2</t>
+  </si>
+  <si>
+    <t>Étudier l’effet d’une variation des paramètres sur le temps de calcul, sur la précision des résultats, sur la forme des solutions pour des programmes d'ingénierie numérique choisis, tout en contextualisant l'observation du temps de calcul par rapport à la complexité algorithmique de ces programmes</t>
+  </si>
+  <si>
+    <t>Ing - C3</t>
+  </si>
+  <si>
+    <t>Utiliser les bibliothèques de calcul standard pour résoudre un problème scientifique mis en équation lors des enseignements de chimie, physique, mathématiques, sciences industrielles et de l’ingénieur</t>
+  </si>
+  <si>
+    <t>Ing - C4</t>
+  </si>
+  <si>
+    <t>Utiliser les bibliothèques standard pour afficher les résultats sous forme graphique,</t>
+  </si>
+  <si>
+    <t>Ing - C5</t>
+  </si>
+  <si>
+    <t>Tenir compte des aspects pratiques comme l’impact des erreurs d’arrondi sur les résultats, le temps de calcul ou le stockage en mémoire.</t>
+  </si>
+  <si>
+    <t>Bibliothèques logicielles : utilisation de quelques fonctions d’une bibliothèque et de leur documentation en ligne.</t>
+  </si>
+  <si>
+    <t>On met en évidence l’intérêt de faire appel aux bibliothèques, évitant de devoir réinventer des solutions à des problèmes bien connus. La recherche des spécifications des bibliothèques joue un rôle essentiel pour le développement de solutions fiables aux problèmes posés.</t>
+  </si>
+  <si>
+    <t>Problème stationnaire à une dimension, linéaire ou non conduisant à la résolution approchée d’une équation algébrique ou transcendante. Méthode de dichotomie, méthode de Newton.</t>
+  </si>
+  <si>
+    <t>On souligne les différences du comportement informatique des deux algorithmes en termes de rapidité. On illustre à nouveau le problème du test d’arrêt (inadéquation de la comparaison à zéro).</t>
+  </si>
+  <si>
+    <t>Problème dynamique à une dimension,  linéaire ou non, conduisant à la résolution approchée d’une équation différentielle ordinaire par la méthode d’Euler.</t>
+  </si>
+  <si>
+    <t>On compare les résultats obtenus avec les fonctions de résolution approchée fournies par une bibliothèque numérique. On met en évidence l’impact du pas de
+discrétisation et du nombre d’itérations sur la qualité des résultats et sur le temps de calcul.</t>
+  </si>
+  <si>
+    <t>Problème discret multidimensionnel, linéaire, conduisant à la résolution d’un système linéaire inversible (ou de Cramer) par la méthode de Gauss avec recherche partielle du pivot.</t>
+  </si>
+  <si>
+    <t>La méthode de Gauss étant introduite dans le cours de mathématiques, il est nécessaire de se coordonner avec le professeur de mathématiques pour traiter cette question. Il
+ne s’agit pas de présenter cet algorithme mais de l’exécuter pour étudier sa mise en oeuvre et les problèmes que pose cette démarche. On souligne la complexité de l’algorithme en fonction de la taille des matrices et son impact sur le temps de calcul.</t>
+  </si>
+  <si>
+    <t>CI 4 - Bases de données</t>
+  </si>
+  <si>
+    <t>BDD - C1</t>
+  </si>
+  <si>
+    <t>Utiliser une application offrant une interface graphique pour créer une base de données et l’alimenter</t>
+  </si>
+  <si>
+    <t>BDD - C2</t>
+  </si>
+  <si>
+    <t>Utiliser une application offrant une interface graphique pour lancer des requêtes sur une base de données</t>
+  </si>
+  <si>
+    <t>BDD - C3</t>
+  </si>
+  <si>
+    <t>Distinguer les rôles respectifs des machines client, serveur, et éventuellement serveur de données</t>
+  </si>
+  <si>
+    <t>BDD - C4</t>
+  </si>
+  <si>
+    <t>Traduire dans le langage de l’algèbre relationnelle des requêtes écrites en langage courant</t>
+  </si>
+  <si>
+    <t>BDD - C5</t>
+  </si>
+  <si>
+    <t>Concevoir une base constituée de plusieurs tables, et utiliser les jointures symétriques pour effectuer des requêtes croisées</t>
+  </si>
+  <si>
+    <t>Vocabulaire des bases de données : relation, attribut, domaine, schéma de relation ; notion de clé primaire.</t>
+  </si>
+  <si>
+    <t>Ces concepts sont présentés dans une perspective applicative, à partir d’exemples.</t>
+  </si>
+  <si>
+    <t>Opérateurs usuels sur les ensembles dans un contexte de bases de données : union, intersection, différence.
+Opérateurs spécifiques de l'algèbre relationnelle : projection, sélection (ou restriction), renommage, jointure, produit et division cartésiennes ; fonctions d'agrégation : min, max, somme, moyenne, comptage.</t>
+  </si>
+  <si>
+    <t>Ces concepts sont présentés dans une perspective applicative. Les seules jointures présentées seront les jointures symétriques, simples (utilisant JOIN … ON …=...).</t>
+  </si>
+  <si>
+    <t>Concept de client-serveur. Brève extension au cas de l’architecture trois-tiers.</t>
+  </si>
+  <si>
+    <t>On se limite à présenter ce concept dans la perspective applicative d’utilisation de bases de données.</t>
+  </si>
+  <si>
+    <t>Partie 5 - Algorithme et programmation - Suite</t>
+  </si>
+  <si>
+    <t>Alg - C15</t>
+  </si>
+  <si>
+    <t>Récursivité - Avantages et inconvénients</t>
+  </si>
+  <si>
+    <t>Alg - C16</t>
+  </si>
+  <si>
+    <t>Piles - Algorithmes de manipulation : fonctions «push» et «pop».</t>
+  </si>
+  <si>
+    <t>Alg - C17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tris d’un tableau à une dimension de
+valeurs numériques. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tri par insertion, tri rapide (ou « quicksort »), tri par fusion.
+Application à la recherche de la médiane d’une liste de nombres. 
+On étudie et on compare ces algorithmes de tri du point de vue des complexités temporelles dans le meilleur et dans le pire cas. </t>
+  </si>
+  <si>
+    <t>Analyse des algorithmes</t>
+  </si>
+  <si>
+    <t>Fond_ANA</t>
+  </si>
+  <si>
+    <t>Expressions, types et variables en Python</t>
+  </si>
+  <si>
+    <t>AA.C1</t>
+  </si>
+  <si>
+    <t>AA.C2</t>
+  </si>
+  <si>
+    <t>AA.C3</t>
+  </si>
+  <si>
+    <t>AA.C4</t>
+  </si>
+  <si>
+    <t>AA.C5</t>
+  </si>
+  <si>
+    <t>AA.C6</t>
+  </si>
+  <si>
+    <t>AN.C1</t>
+  </si>
+  <si>
+    <t>AN.C2</t>
+  </si>
+  <si>
+    <t>AN.C3</t>
+  </si>
+  <si>
+    <t>AN.S1</t>
+  </si>
+  <si>
+    <t>AN.S2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recherche par dichotomie dans un tableau trié. 
+Recherche par dichotomie du zéro d’une fonction continue et monotone. </t>
+  </si>
+  <si>
+    <t>AN.S3</t>
+  </si>
+  <si>
+    <t>AN.S4</t>
+  </si>
+  <si>
+    <t>Recherche d’un mot dans une chaîne de caractères. On se limite ici à l’algorithme « naïf », en estimant sa complexité.</t>
+  </si>
+  <si>
+    <t>AA.C7</t>
+  </si>
+  <si>
+    <t>AA.C9</t>
+  </si>
+  <si>
+    <t>AA.C8</t>
+  </si>
+  <si>
+    <t>AA.C10</t>
+  </si>
+  <si>
+    <t>AA.C11</t>
+  </si>
+  <si>
+    <t>AA.C12</t>
+  </si>
+  <si>
+    <t>AA.S1</t>
+  </si>
+  <si>
+    <t>AA.S2</t>
+  </si>
+  <si>
+    <t>AA.S3</t>
+  </si>
+  <si>
+    <t>AA.S4</t>
+  </si>
+  <si>
+    <t>AA.S5</t>
+  </si>
+  <si>
+    <t>AA.S6</t>
+  </si>
+  <si>
+    <t>Manipulation de quelques structures de données : chaînes de caractères (création, accès à un caractère, concaténation), listes (création, ajout d’un élément, suppression d’un élément, accès à un élément, extraction d’une partie de liste), tableaux à une ou plusieurs dimensions.</t>
+  </si>
+  <si>
+    <t>AA.S7</t>
+  </si>
+  <si>
+    <t>AA.S8</t>
+  </si>
+  <si>
+    <t>AA.S9</t>
+  </si>
+  <si>
+    <t>AA.S10</t>
+  </si>
+  <si>
+    <t>SN.C1</t>
+  </si>
+  <si>
+    <t>SN.C2</t>
+  </si>
+  <si>
+    <t>SN.C3</t>
+  </si>
+  <si>
+    <t>SN.C4</t>
+  </si>
+  <si>
+    <t>SN.C5</t>
+  </si>
+  <si>
+    <t>SN.S1</t>
+  </si>
+  <si>
+    <t>SN.S2</t>
+  </si>
+  <si>
+    <t>SN.S3</t>
+  </si>
+  <si>
+    <t>SN.S4</t>
+  </si>
+  <si>
+    <t>BDD.C1</t>
+  </si>
+  <si>
+    <t>BDD.C2</t>
+  </si>
+  <si>
+    <t>BDD.C3</t>
+  </si>
+  <si>
+    <t>BDD.C4</t>
+  </si>
+  <si>
+    <t>BDD.C5</t>
+  </si>
+  <si>
+    <t>BDD.S1</t>
+  </si>
+  <si>
+    <t>Opérateurs usuels sur les ensembles dans un contexte de bases de données : union, intersection, différence.</t>
+  </si>
+  <si>
+    <t>Opérateurs spécifiques de l'algèbre relationnelle : projection, sélection (ou restriction), renommage, jointure, produit et division cartésiennes ; fonctions d'agrégation : min, max, somme, moyenne, comptage.</t>
+  </si>
+  <si>
+    <t>BDD.S2</t>
+  </si>
+  <si>
+    <t>BDD.S3</t>
+  </si>
+  <si>
+    <t>BDD.S4</t>
+  </si>
+  <si>
+    <t>AL.C1</t>
+  </si>
+  <si>
+    <t>AL.C2</t>
+  </si>
+  <si>
+    <t>AL.C3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tris d’un tableau à une dimension de valeurs numériques. </t>
+  </si>
+  <si>
+    <t>AA.C13</t>
+  </si>
+  <si>
+    <t>AA.C14</t>
+  </si>
+  <si>
+    <t>AA.S11</t>
+  </si>
+  <si>
+    <t>AA.S12</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Nom long</t>
+  </si>
+  <si>
+    <t>Nom court</t>
+  </si>
+  <si>
+    <t>Manipuler un OS ou un IDE</t>
+  </si>
+  <si>
+    <t>Se familiariser aux principaux composants d'une machine numérique</t>
+  </si>
+  <si>
+    <t>Se familiariser à la manipulation d'un OS</t>
+  </si>
+  <si>
+    <t>Se familiariser à la manipulation d'un IDE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recherche par dichotomie. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recherche d’un mot dans une chaîne de caractères. </t>
+  </si>
+  <si>
+    <t>Rechercher une information au sein d’une documentation</t>
+  </si>
+  <si>
+    <t>Expressions et instructions simples</t>
+  </si>
+  <si>
+    <t>Instructions conditionnelles</t>
+  </si>
+  <si>
+    <t>Instructions itératives</t>
+  </si>
+  <si>
+    <t>Notion de fonction informatique</t>
+  </si>
+  <si>
+    <t>Manipulation de quelques structures de données.</t>
+  </si>
+  <si>
+    <t>Réaliser un programme complet structuré</t>
+  </si>
+  <si>
+    <t>Utiliser les bibliothèques de calcul standard</t>
+  </si>
+  <si>
+    <t>Utiliser les bibliothèques standard pour afficher les résultats sous forme graphique</t>
+  </si>
+  <si>
+    <t>Bibliothèques logicielles</t>
+  </si>
+  <si>
+    <t>Problème stationnaire à une dimension. Méthode de dichotomie, méthode de Newton.</t>
+  </si>
+  <si>
+    <t>Problème dynamique à une dimension,  linéaire ou non. Méthode d’Euler.</t>
+  </si>
+  <si>
+    <t>Problème discret multidimensionnel linéaire. Méthode de Gauss avec recherche partielle du pivot.</t>
+  </si>
+  <si>
+    <t>Problèmes</t>
+  </si>
+  <si>
+    <t>Architecture matérielle et initiation à l'algorithmique</t>
+  </si>
+  <si>
+    <t>BDD.S1; BDD.S2</t>
+  </si>
+  <si>
+    <t>BDD.C4; BDD.C5; BDD.S2; BDD.S3</t>
+  </si>
+  <si>
+    <t>BDD.C1; BDD.C2; BDD.C5; BDD.S2; BDD.S3</t>
+  </si>
+  <si>
+    <t>BDD.C3; BDD.S4</t>
+  </si>
+  <si>
+    <t>SN.C1; SN.C2; SN.C3; SN.C4; SN.C5; SN.S1; SN.S3</t>
+  </si>
+  <si>
+    <t>SN.C1; SN.C2; SN.C3; SN.C4; SN.C5; SN.S1; SN.S2</t>
+  </si>
+  <si>
+    <t>SN.C1; SN.C2; SN.C3; SN.C4; SN.C5; SN.S1; SN.S4</t>
+  </si>
+  <si>
+    <t>AA.C1; AA.S1; AA.S3; AA.S3</t>
+  </si>
+  <si>
+    <t>AA.C2: AA.C3; AA.S4; AA.S5</t>
+  </si>
+  <si>
+    <t>SN.C1; SN.C2; SN.C3; SN.C4; SN.C5; SN.S1; AN.S3</t>
+  </si>
+  <si>
+    <t>AN.C1; AN.C2; AN.S1; AN.S2; AN.S4</t>
+  </si>
+  <si>
+    <t>AN.C3; AN.S1; AN.S2; AN.S4</t>
+  </si>
+  <si>
+    <t>AA.C4; AA.C5; AA.C6; AA.C7; AA.C8; AA.S8; AA.S9</t>
+  </si>
+  <si>
+    <t>AA.C9; AA.S12</t>
+  </si>
+  <si>
+    <t>AA.C9; AA.S11</t>
+  </si>
+  <si>
+    <t>AA.C4; AA.C5; AA.C6; AA.C7; AA.C8; AA.C9; AA.S6; AA.S7; AA.S10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="16">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -288,8 +991,42 @@
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -332,8 +1069,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -441,6 +1184,164 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="654">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1098,7 +1999,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1196,9 +2097,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1208,19 +2106,151 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1229,98 +2259,99 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="654">
@@ -1971,13 +3002,13 @@
     <cellStyle name="Lien hypertexte visité" xfId="651" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="653" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 2 2" xfId="2"/>
-    <cellStyle name="Normal 3" xfId="3"/>
-    <cellStyle name="Normal 4" xfId="4"/>
-    <cellStyle name="Normal 4 2" xfId="5"/>
-    <cellStyle name="Normal 4 3" xfId="6"/>
-    <cellStyle name="Normal 5" xfId="7"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000087020000}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000088020000}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000089020000}"/>
+    <cellStyle name="Normal 4" xfId="4" xr:uid="{00000000-0005-0000-0000-00008A020000}"/>
+    <cellStyle name="Normal 4 2" xfId="5" xr:uid="{00000000-0005-0000-0000-00008B020000}"/>
+    <cellStyle name="Normal 4 3" xfId="6" xr:uid="{00000000-0005-0000-0000-00008C020000}"/>
+    <cellStyle name="Normal 5" xfId="7" xr:uid="{00000000-0005-0000-0000-00008D020000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1995,6 +3026,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2286,34 +3320,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P41"/>
+  <dimension ref="A1:W53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="26" customHeight="1"/>
   <cols>
-    <col min="1" max="3" width="10.83203125" style="1"/>
-    <col min="4" max="4" width="34.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="10.81640625" style="1"/>
+    <col min="4" max="4" width="20.26953125" style="1" customWidth="1"/>
     <col min="5" max="5" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="37.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="37.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="37.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.33203125" style="1" customWidth="1"/>
-    <col min="14" max="15" width="10.83203125" style="1"/>
-    <col min="16" max="16" width="41.33203125" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="10.83203125" style="1"/>
+    <col min="6" max="6" width="37.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.6328125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="37.36328125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="5.453125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="37.36328125" style="1" customWidth="1"/>
+    <col min="11" max="12" width="8.36328125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="32.7265625" style="1" customWidth="1"/>
+    <col min="14" max="17" width="10.81640625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="41.36328125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="10.81640625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="10.81640625" style="1"/>
+    <col min="21" max="21" width="10.81640625" style="1" customWidth="1"/>
+    <col min="22" max="23" width="58.453125" style="116" customWidth="1"/>
+    <col min="24" max="16384" width="10.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="26" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:23" ht="26" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>19</v>
       </c>
@@ -2345,13 +3383,13 @@
         <v>1</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>13</v>
@@ -2359,49 +3397,66 @@
       <c r="O1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="32" t="s">
+      <c r="P1" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="R1" s="32" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="50" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" ht="26" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="9">
         <v>43711</v>
       </c>
-      <c r="C2" s="51">
+      <c r="C2" s="68">
         <v>1</v>
       </c>
-      <c r="D2" s="49" t="s">
-        <v>26</v>
+      <c r="D2" s="71" t="s">
+        <v>275</v>
       </c>
       <c r="E2" s="26">
         <v>1</v>
       </c>
-      <c r="F2" s="11" t="s">
-        <v>27</v>
+      <c r="F2" s="114" t="s">
+        <v>26</v>
       </c>
       <c r="G2" s="26">
         <v>1</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I2" s="11">
         <v>1</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
+      <c r="M2" s="115" t="s">
+        <v>283</v>
+      </c>
       <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="34"/>
-    </row>
-    <row r="3" spans="1:16" ht="50" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O2" s="42"/>
+      <c r="P2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q2" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="R2" s="33"/>
+      <c r="U2" s="112"/>
+      <c r="V2" s="117"/>
+      <c r="W2" s="117"/>
+    </row>
+    <row r="3" spans="1:23" ht="26" customHeight="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2409,34 +3464,45 @@
         <f>B2+7</f>
         <v>43718</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="54"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="72"/>
       <c r="E3" s="26">
         <v>2</v>
       </c>
-      <c r="F3" s="11" t="s">
-        <v>29</v>
+      <c r="F3" s="114" t="s">
+        <v>191</v>
       </c>
       <c r="G3" s="26">
         <v>2</v>
       </c>
-      <c r="H3" s="11" t="s">
-        <v>29</v>
+      <c r="H3" s="114" t="s">
+        <v>191</v>
       </c>
       <c r="I3" s="11">
         <v>1</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
+      <c r="M3" s="115" t="s">
+        <v>291</v>
+      </c>
       <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="34"/>
-    </row>
-    <row r="4" spans="1:16" ht="50" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O3" s="42"/>
+      <c r="P3" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q3" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="R3" s="33"/>
+      <c r="U3" s="112"/>
+      <c r="V3" s="117"/>
+      <c r="W3" s="117"/>
+    </row>
+    <row r="4" spans="1:23" ht="26" customHeight="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2444,34 +3510,45 @@
         <f>B3+7</f>
         <v>43725</v>
       </c>
-      <c r="C4" s="52"/>
-      <c r="D4" s="54"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="72"/>
       <c r="E4" s="26">
         <v>2</v>
       </c>
-      <c r="F4" s="11" t="s">
-        <v>29</v>
+      <c r="F4" s="114" t="s">
+        <v>191</v>
       </c>
       <c r="G4" s="26">
         <v>2</v>
       </c>
-      <c r="H4" s="11" t="s">
-        <v>29</v>
+      <c r="H4" s="114" t="s">
+        <v>191</v>
       </c>
       <c r="I4" s="11">
         <v>2</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
+      <c r="M4" s="115" t="s">
+        <v>291</v>
+      </c>
       <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="34"/>
-    </row>
-    <row r="5" spans="1:16" ht="50" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O4" s="42"/>
+      <c r="P4" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q4" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="R4" s="33"/>
+      <c r="U4" s="112"/>
+      <c r="V4" s="117"/>
+      <c r="W4" s="117"/>
+    </row>
+    <row r="5" spans="1:23" ht="26" customHeight="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2479,8 +3556,8 @@
         <f t="shared" ref="B5:B8" si="0">B4+7</f>
         <v>43732</v>
       </c>
-      <c r="C5" s="52"/>
-      <c r="D5" s="54"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="72"/>
       <c r="E5" s="26">
         <v>3</v>
       </c>
@@ -2497,16 +3574,27 @@
         <v>2</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
+      <c r="M5" s="115" t="s">
+        <v>288</v>
+      </c>
       <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="34"/>
-    </row>
-    <row r="6" spans="1:16" ht="50" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O5" s="42"/>
+      <c r="P5" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q5" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="R5" s="33"/>
+      <c r="U5" s="112"/>
+      <c r="V5" s="117"/>
+      <c r="W5" s="117"/>
+    </row>
+    <row r="6" spans="1:23" ht="26" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2514,34 +3602,43 @@
         <f>B5+7</f>
         <v>43739</v>
       </c>
-      <c r="C6" s="52"/>
-      <c r="D6" s="54"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="72"/>
       <c r="E6" s="26">
         <v>4</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G6" s="26">
         <v>4</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I6" s="11">
         <v>3</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
       <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="34"/>
-    </row>
-    <row r="7" spans="1:16" ht="50" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O6" s="42"/>
+      <c r="P6" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q6" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="R6" s="33"/>
+      <c r="U6" s="112"/>
+      <c r="V6" s="117"/>
+      <c r="W6" s="117"/>
+    </row>
+    <row r="7" spans="1:23" ht="26" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2549,34 +3646,43 @@
         <f t="shared" si="0"/>
         <v>43746</v>
       </c>
-      <c r="C7" s="52"/>
-      <c r="D7" s="54"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="72"/>
       <c r="E7" s="26">
         <v>4</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G7" s="26">
         <v>4</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I7" s="11">
         <v>3</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
       <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="32"/>
-    </row>
-    <row r="8" spans="1:16" ht="50" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O7" s="36"/>
+      <c r="P7" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q7" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="R7" s="32"/>
+      <c r="U7" s="112"/>
+      <c r="V7" s="117"/>
+      <c r="W7" s="117"/>
+    </row>
+    <row r="8" spans="1:23" ht="26" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2584,53 +3690,70 @@
         <f t="shared" si="0"/>
         <v>43753</v>
       </c>
-      <c r="C8" s="53"/>
-      <c r="D8" s="50"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="73"/>
       <c r="E8" s="26">
         <v>5</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G8" s="26">
         <v>5</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I8" s="11">
         <v>4</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
+      </c>
+      <c r="M8" s="120" t="s">
+        <v>290</v>
       </c>
       <c r="N8" s="4"/>
-      <c r="O8" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="P8" s="34"/>
-    </row>
-    <row r="9" spans="1:16" ht="50" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="40" t="s">
+      <c r="O8" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q8" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="R8" s="33"/>
+      <c r="U8" s="112"/>
+      <c r="V8" s="117"/>
+      <c r="W8" s="117"/>
+    </row>
+    <row r="9" spans="1:23" ht="26" customHeight="1">
+      <c r="A9" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="41"/>
-      <c r="N9" s="41"/>
-      <c r="O9" s="48"/>
-      <c r="P9" s="32"/>
-    </row>
-    <row r="10" spans="1:16" ht="50" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="57"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="57"/>
+      <c r="M9" s="57"/>
+      <c r="N9" s="57"/>
+      <c r="O9" s="57"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="41"/>
+      <c r="R9" s="32"/>
+      <c r="U9" s="112"/>
+      <c r="V9" s="117"/>
+      <c r="W9" s="117"/>
+    </row>
+    <row r="10" spans="1:23" ht="26" customHeight="1">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2638,38 +3761,49 @@
         <f>B8+21</f>
         <v>43774</v>
       </c>
-      <c r="C10" s="51">
+      <c r="C10" s="68">
         <v>1</v>
       </c>
-      <c r="D10" s="49" t="s">
-        <v>26</v>
+      <c r="D10" s="71" t="s">
+        <v>275</v>
       </c>
       <c r="E10" s="26">
         <v>5</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G10" s="26">
         <v>5</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I10" s="11">
         <v>4</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
+      <c r="M10" s="120" t="s">
+        <v>290</v>
+      </c>
       <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="32"/>
-    </row>
-    <row r="11" spans="1:16" ht="50" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O10" s="42"/>
+      <c r="P10" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q10" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="R10" s="32"/>
+      <c r="U10" s="112"/>
+      <c r="V10" s="117"/>
+      <c r="W10" s="117"/>
+    </row>
+    <row r="11" spans="1:23" ht="26" customHeight="1">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2677,34 +3811,45 @@
         <f t="shared" ref="B11:B16" si="1">B10+7</f>
         <v>43781</v>
       </c>
-      <c r="C11" s="52"/>
-      <c r="D11" s="54"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="72"/>
       <c r="E11" s="26">
         <v>6</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G11" s="26">
         <v>6</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I11" s="11">
         <v>5</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
+      <c r="M11" s="120" t="s">
+        <v>290</v>
+      </c>
       <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="34"/>
-    </row>
-    <row r="12" spans="1:16" ht="50" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O11" s="42"/>
+      <c r="P11" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q11" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="R11" s="33"/>
+      <c r="U11" s="112"/>
+      <c r="V11" s="117"/>
+      <c r="W11" s="117"/>
+    </row>
+    <row r="12" spans="1:23" ht="26" customHeight="1">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2712,33 +3857,44 @@
         <f t="shared" si="1"/>
         <v>43788</v>
       </c>
-      <c r="C12" s="52"/>
-      <c r="D12" s="54"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="72"/>
       <c r="E12" s="26">
         <v>6</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G12" s="26">
         <v>6</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I12" s="11">
         <v>5</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
+      <c r="M12" s="120" t="s">
+        <v>290</v>
+      </c>
       <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:16" ht="50" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O12" s="42"/>
+      <c r="P12" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q12" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="U12" s="112"/>
+      <c r="V12" s="117"/>
+      <c r="W12" s="117"/>
+    </row>
+    <row r="13" spans="1:23" ht="26" customHeight="1">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2746,34 +3902,45 @@
         <f t="shared" si="1"/>
         <v>43795</v>
       </c>
-      <c r="C13" s="52"/>
-      <c r="D13" s="54"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="72"/>
       <c r="E13" s="26">
         <v>7</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G13" s="26">
         <v>7</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I13" s="11">
         <v>6</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
+      <c r="M13" s="120" t="s">
+        <v>289</v>
+      </c>
       <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="34"/>
-    </row>
-    <row r="14" spans="1:16" ht="50" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O13" s="42"/>
+      <c r="P13" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q13" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="R13" s="33"/>
+      <c r="U13" s="112"/>
+      <c r="V13" s="117"/>
+      <c r="W13" s="117"/>
+    </row>
+    <row r="14" spans="1:23" ht="26" customHeight="1">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2781,33 +3948,44 @@
         <f t="shared" si="1"/>
         <v>43802</v>
       </c>
-      <c r="C14" s="52"/>
-      <c r="D14" s="54"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="72"/>
       <c r="E14" s="26">
         <v>7</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G14" s="26">
         <v>7</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I14" s="11">
         <v>6</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
+      <c r="M14" s="120" t="s">
+        <v>289</v>
+      </c>
       <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:16" ht="50" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O14" s="42"/>
+      <c r="P14" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q14" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="U14" s="112"/>
+      <c r="V14" s="117"/>
+      <c r="W14" s="117"/>
+    </row>
+    <row r="15" spans="1:23" ht="26" customHeight="1">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2815,36 +3993,47 @@
         <f t="shared" si="1"/>
         <v>43809</v>
       </c>
-      <c r="C15" s="52"/>
-      <c r="D15" s="54"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="72"/>
       <c r="E15" s="26">
         <v>8</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G15" s="26">
         <v>8</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I15" s="11">
         <v>7</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
+      <c r="M15" s="115" t="s">
+        <v>284</v>
+      </c>
       <c r="N15" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="O15" s="3"/>
-      <c r="P15" s="34"/>
-    </row>
-    <row r="16" spans="1:16" ht="50" customHeight="1" x14ac:dyDescent="0.15">
+        <v>54</v>
+      </c>
+      <c r="O15" s="42"/>
+      <c r="P15" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q15" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="R15" s="33"/>
+      <c r="U15" s="112"/>
+      <c r="V15" s="117"/>
+      <c r="W15" s="117"/>
+    </row>
+    <row r="16" spans="1:23" ht="26" customHeight="1">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2852,54 +4041,70 @@
         <f t="shared" si="1"/>
         <v>43816</v>
       </c>
-      <c r="C16" s="53"/>
-      <c r="D16" s="50"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="73"/>
       <c r="E16" s="26">
         <v>8</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G16" s="26">
         <v>8</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I16" s="11">
         <v>7</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
+      <c r="M16" s="115" t="s">
+        <v>284</v>
+      </c>
       <c r="N16" s="3"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="32"/>
-    </row>
-    <row r="17" spans="1:16" ht="50" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="40" t="s">
+      <c r="O16" s="36"/>
+      <c r="P16" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q16" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="R16" s="32"/>
+      <c r="U16" s="112"/>
+      <c r="V16" s="117"/>
+      <c r="W16" s="117"/>
+    </row>
+    <row r="17" spans="1:23" ht="26" customHeight="1">
+      <c r="A17" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="41"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="41"/>
-      <c r="K17" s="41"/>
-      <c r="L17" s="41"/>
-      <c r="M17" s="41"/>
-      <c r="N17" s="41"/>
-      <c r="O17" s="48"/>
-      <c r="P17" s="32"/>
-    </row>
-    <row r="18" spans="1:16" ht="50" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="57"/>
+      <c r="M17" s="57"/>
+      <c r="N17" s="57"/>
+      <c r="O17" s="57"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="41"/>
+      <c r="R17" s="32"/>
+      <c r="U17" s="112"/>
+      <c r="V17" s="117"/>
+      <c r="W17" s="117"/>
+    </row>
+    <row r="18" spans="1:23" ht="26" customHeight="1">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -2907,38 +4112,49 @@
         <f>B16+21</f>
         <v>43837</v>
       </c>
-      <c r="C18" s="57">
+      <c r="C18" s="81">
         <v>2</v>
       </c>
-      <c r="D18" s="55" t="s">
-        <v>32</v>
+      <c r="D18" s="84" t="s">
+        <v>189</v>
       </c>
       <c r="E18" s="28">
         <v>1</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G18" s="28">
         <v>1</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I18" s="13">
         <v>8</v>
       </c>
       <c r="J18" s="13" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
+      <c r="M18" s="115" t="s">
+        <v>286</v>
+      </c>
       <c r="N18" s="27"/>
-      <c r="O18" s="27"/>
-      <c r="P18" s="34"/>
-    </row>
-    <row r="19" spans="1:16" ht="50" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O18" s="43"/>
+      <c r="P18" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q18" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="R18" s="33"/>
+      <c r="U18" s="112"/>
+      <c r="V18" s="117"/>
+      <c r="W18" s="117"/>
+    </row>
+    <row r="19" spans="1:23" ht="26" customHeight="1">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -2946,34 +4162,45 @@
         <f>B18+7</f>
         <v>43844</v>
       </c>
-      <c r="C19" s="56"/>
-      <c r="D19" s="42"/>
+      <c r="C19" s="82"/>
+      <c r="D19" s="85"/>
       <c r="E19" s="28">
         <v>1</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G19" s="28">
         <v>1</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I19" s="13">
         <v>8</v>
       </c>
       <c r="J19" s="13" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
+      <c r="M19" s="115" t="s">
+        <v>286</v>
+      </c>
       <c r="N19" s="27"/>
-      <c r="O19" s="27"/>
-      <c r="P19" s="34"/>
-    </row>
-    <row r="20" spans="1:16" ht="50" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O19" s="43"/>
+      <c r="P19" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q19" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="R19" s="33"/>
+      <c r="U19" s="112"/>
+      <c r="V19" s="117"/>
+      <c r="W19" s="117"/>
+    </row>
+    <row r="20" spans="1:23" ht="26" customHeight="1">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -2981,34 +4208,45 @@
         <f t="shared" ref="B20:B40" si="2">B19+7</f>
         <v>43851</v>
       </c>
-      <c r="C20" s="56"/>
-      <c r="D20" s="42"/>
+      <c r="C20" s="82"/>
+      <c r="D20" s="85"/>
       <c r="E20" s="28">
         <v>2</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G20" s="28">
         <v>2</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I20" s="13">
         <v>9</v>
       </c>
       <c r="J20" s="13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
+      <c r="M20" s="115" t="s">
+        <v>287</v>
+      </c>
       <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="34"/>
-    </row>
-    <row r="21" spans="1:16" ht="50" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O20" s="42"/>
+      <c r="P20" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q20" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="R20" s="33"/>
+      <c r="U20" s="112"/>
+      <c r="V20" s="117"/>
+      <c r="W20" s="117"/>
+    </row>
+    <row r="21" spans="1:23" ht="26" customHeight="1">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -3016,34 +4254,45 @@
         <f>B20+7</f>
         <v>43858</v>
       </c>
-      <c r="C21" s="58"/>
-      <c r="D21" s="43"/>
+      <c r="C21" s="83"/>
+      <c r="D21" s="86"/>
       <c r="E21" s="28">
         <v>2</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G21" s="28">
         <v>2</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I21" s="13">
         <v>9</v>
       </c>
       <c r="J21" s="13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
+      <c r="M21" s="115" t="s">
+        <v>287</v>
+      </c>
       <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="34"/>
-    </row>
-    <row r="22" spans="1:16" ht="50" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O21" s="42"/>
+      <c r="P21" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q21" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="R21" s="33"/>
+      <c r="U21" s="112"/>
+      <c r="V21" s="117"/>
+      <c r="W21" s="117"/>
+    </row>
+    <row r="22" spans="1:23" ht="26" customHeight="1">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -3051,38 +4300,49 @@
         <f>B21+7</f>
         <v>43865</v>
       </c>
-      <c r="C22" s="62">
+      <c r="C22" s="61">
         <v>3</v>
       </c>
-      <c r="D22" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="E22" s="36">
+      <c r="D22" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" s="35">
         <v>1</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="G22" s="36">
+        <v>41</v>
+      </c>
+      <c r="G22" s="35">
         <v>1</v>
       </c>
       <c r="H22" s="15" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I22" s="15">
         <v>10</v>
       </c>
       <c r="J22" s="15" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
+      <c r="M22" s="115" t="s">
+        <v>285</v>
+      </c>
       <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="32"/>
-    </row>
-    <row r="23" spans="1:16" ht="50" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O22" s="42"/>
+      <c r="P22" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q22" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="R22" s="32"/>
+      <c r="U22" s="112"/>
+      <c r="V22" s="117"/>
+      <c r="W22" s="117"/>
+    </row>
+    <row r="23" spans="1:23" ht="26" customHeight="1">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -3090,36 +4350,44 @@
         <f>B22+7</f>
         <v>43872</v>
       </c>
-      <c r="C23" s="63"/>
-      <c r="D23" s="60"/>
-      <c r="E23" s="36">
+      <c r="C23" s="62"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="35">
         <v>2</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="G23" s="36">
+        <v>42</v>
+      </c>
+      <c r="G23" s="35">
         <v>2</v>
       </c>
       <c r="H23" s="15" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I23" s="15">
         <v>10</v>
       </c>
       <c r="J23" s="15" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
+      <c r="M23" s="115" t="s">
+        <v>280</v>
+      </c>
       <c r="N23" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="O23" s="3"/>
-      <c r="P23" s="34"/>
-    </row>
-    <row r="24" spans="1:16" ht="50" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O23" s="42"/>
+      <c r="P23" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q23" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="R23" s="33"/>
+    </row>
+    <row r="24" spans="1:23" ht="26" customHeight="1">
       <c r="A24" s="1">
         <v>19</v>
       </c>
@@ -3127,54 +4395,65 @@
         <f>B23+7</f>
         <v>43879</v>
       </c>
-      <c r="C24" s="64"/>
-      <c r="D24" s="61"/>
-      <c r="E24" s="35">
+      <c r="C24" s="63"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="34">
         <v>2</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="G24" s="36">
+        <v>42</v>
+      </c>
+      <c r="G24" s="35">
         <v>2</v>
       </c>
       <c r="H24" s="15" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I24" s="15">
         <v>11</v>
       </c>
       <c r="J24" s="15" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
+      <c r="M24" s="115" t="s">
+        <v>280</v>
+      </c>
       <c r="N24" s="27"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="34"/>
-    </row>
-    <row r="25" spans="1:16" ht="50" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="40" t="s">
+      <c r="O24" s="42"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="R24" s="33"/>
+    </row>
+    <row r="25" spans="1:23" ht="26" customHeight="1">
+      <c r="A25" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="41"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="41"/>
-      <c r="K25" s="41"/>
-      <c r="L25" s="41"/>
-      <c r="M25" s="41"/>
-      <c r="N25" s="41"/>
-      <c r="O25" s="41"/>
-      <c r="P25" s="32"/>
-    </row>
-    <row r="26" spans="1:16" ht="50" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="57"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="57"/>
+      <c r="H25" s="57"/>
+      <c r="I25" s="57"/>
+      <c r="J25" s="57"/>
+      <c r="K25" s="57"/>
+      <c r="L25" s="57"/>
+      <c r="M25" s="57"/>
+      <c r="N25" s="57"/>
+      <c r="O25" s="57"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="50"/>
+      <c r="R25" s="32"/>
+      <c r="U25" s="112"/>
+      <c r="V25" s="117"/>
+      <c r="W25" s="117"/>
+    </row>
+    <row r="26" spans="1:23" ht="26" customHeight="1">
       <c r="A26" s="1">
         <v>19</v>
       </c>
@@ -3182,38 +4461,49 @@
         <f>B24+21</f>
         <v>43900</v>
       </c>
-      <c r="C26" s="62">
+      <c r="C26" s="61">
         <v>3</v>
       </c>
-      <c r="D26" s="59" t="s">
-        <v>43</v>
+      <c r="D26" s="58" t="s">
+        <v>64</v>
       </c>
       <c r="E26" s="29">
         <v>3</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="G26" s="36">
+        <v>43</v>
+      </c>
+      <c r="G26" s="35">
         <v>3</v>
       </c>
       <c r="H26" s="15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I26" s="15">
         <v>11</v>
       </c>
       <c r="J26" s="15" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
+      <c r="M26" s="115" t="s">
+        <v>281</v>
+      </c>
       <c r="N26" s="27"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="32"/>
-    </row>
-    <row r="27" spans="1:16" ht="50" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O26" s="42"/>
+      <c r="P26" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q26" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="R26" s="32"/>
+      <c r="U26" s="112"/>
+      <c r="V26" s="117"/>
+      <c r="W26" s="117"/>
+    </row>
+    <row r="27" spans="1:23" ht="26" customHeight="1">
       <c r="A27" s="1">
         <v>20</v>
       </c>
@@ -3221,33 +4511,42 @@
         <f t="shared" si="2"/>
         <v>43907</v>
       </c>
-      <c r="C27" s="63"/>
-      <c r="D27" s="60"/>
-      <c r="E27" s="36">
+      <c r="C27" s="62"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="35">
         <v>3</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="G27" s="36">
+        <v>43</v>
+      </c>
+      <c r="G27" s="35">
         <v>3</v>
       </c>
       <c r="H27" s="15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I27" s="15">
         <v>12</v>
       </c>
       <c r="J27" s="15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
-      <c r="M27" s="74"/>
-      <c r="O27" s="4"/>
-      <c r="P27" s="34"/>
-    </row>
-    <row r="28" spans="1:16" ht="50" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M27" s="119" t="s">
+        <v>281</v>
+      </c>
+      <c r="O27" s="36"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="R27" s="33"/>
+      <c r="U27" s="112"/>
+      <c r="V27" s="117"/>
+      <c r="W27" s="117"/>
+    </row>
+    <row r="28" spans="1:23" ht="26" customHeight="1">
       <c r="A28" s="1">
         <v>21</v>
       </c>
@@ -3255,34 +4554,45 @@
         <f t="shared" si="2"/>
         <v>43914</v>
       </c>
-      <c r="C28" s="63"/>
-      <c r="D28" s="60"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="59"/>
       <c r="E28" s="29">
         <v>4</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G28" s="29">
         <v>4</v>
       </c>
       <c r="H28" s="15" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I28" s="15">
         <v>12</v>
       </c>
       <c r="J28" s="15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
+      <c r="M28" s="115" t="s">
+        <v>282</v>
+      </c>
       <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="32"/>
-    </row>
-    <row r="29" spans="1:16" ht="50" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O28" s="36"/>
+      <c r="P28" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q28" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="R28" s="32"/>
+      <c r="U28" s="112"/>
+      <c r="V28" s="117"/>
+      <c r="W28" s="117"/>
+    </row>
+    <row r="29" spans="1:23" ht="26" customHeight="1">
       <c r="A29" s="1">
         <v>22</v>
       </c>
@@ -3290,34 +4600,43 @@
         <f t="shared" si="2"/>
         <v>43921</v>
       </c>
-      <c r="C29" s="64"/>
-      <c r="D29" s="61"/>
-      <c r="E29" s="36">
+      <c r="C29" s="63"/>
+      <c r="D29" s="60"/>
+      <c r="E29" s="35">
         <v>4</v>
       </c>
       <c r="F29" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="G29" s="36">
+        <v>44</v>
+      </c>
+      <c r="G29" s="35">
         <v>4</v>
       </c>
       <c r="H29" s="15" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I29" s="15">
         <v>13</v>
       </c>
       <c r="J29" s="15" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
+      <c r="M29" s="115" t="s">
+        <v>282</v>
+      </c>
       <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="34"/>
-    </row>
-    <row r="30" spans="1:16" ht="50" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O29" s="42"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="R29" s="33"/>
+      <c r="U29" s="112"/>
+      <c r="V29" s="117"/>
+      <c r="W29" s="117"/>
+    </row>
+    <row r="30" spans="1:23" ht="26" customHeight="1">
       <c r="A30" s="1">
         <v>23</v>
       </c>
@@ -3325,40 +4644,51 @@
         <f t="shared" si="2"/>
         <v>43928</v>
       </c>
-      <c r="C30" s="65">
+      <c r="C30" s="64">
         <v>4</v>
       </c>
-      <c r="D30" s="37" t="s">
-        <v>48</v>
+      <c r="D30" s="66" t="s">
+        <v>45</v>
       </c>
       <c r="E30" s="30">
         <v>1</v>
       </c>
       <c r="F30" s="16" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G30" s="30">
         <v>1</v>
       </c>
       <c r="H30" s="16" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I30" s="15">
         <v>13</v>
       </c>
       <c r="J30" s="15" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
+      <c r="M30" s="115" t="s">
+        <v>276</v>
+      </c>
       <c r="N30" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="O30" s="4"/>
-      <c r="P30" s="32"/>
-    </row>
-    <row r="31" spans="1:16" ht="50" customHeight="1" x14ac:dyDescent="0.15">
+        <v>55</v>
+      </c>
+      <c r="O30" s="36"/>
+      <c r="P30" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q30" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="R30" s="32"/>
+      <c r="U30" s="112"/>
+      <c r="V30" s="117"/>
+      <c r="W30" s="117"/>
+    </row>
+    <row r="31" spans="1:23" ht="26" customHeight="1">
       <c r="A31" s="1">
         <v>24</v>
       </c>
@@ -3366,54 +4696,70 @@
         <f t="shared" si="2"/>
         <v>43935</v>
       </c>
-      <c r="C31" s="67"/>
-      <c r="D31" s="39"/>
+      <c r="C31" s="65"/>
+      <c r="D31" s="67"/>
       <c r="E31" s="30">
         <v>2</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G31" s="30">
         <v>2</v>
       </c>
       <c r="H31" s="16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I31" s="18">
         <v>14</v>
       </c>
       <c r="J31" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="K31" s="73"/>
-      <c r="L31" s="73"/>
-      <c r="M31" s="73"/>
+        <v>47</v>
+      </c>
+      <c r="K31" s="39"/>
+      <c r="L31" s="39"/>
+      <c r="M31" s="115" t="s">
+        <v>278</v>
+      </c>
       <c r="N31" s="27"/>
-      <c r="O31" s="27"/>
-      <c r="P31" s="32"/>
-    </row>
-    <row r="32" spans="1:16" ht="50" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="44" t="s">
+      <c r="O31" s="43"/>
+      <c r="P31" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q31" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="R31" s="32"/>
+      <c r="U31" s="112"/>
+      <c r="V31" s="117"/>
+      <c r="W31" s="117"/>
+    </row>
+    <row r="32" spans="1:23" ht="26" customHeight="1">
+      <c r="A32" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="B32" s="45"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="45"/>
-      <c r="I32" s="45"/>
-      <c r="J32" s="45"/>
-      <c r="K32" s="45"/>
-      <c r="L32" s="45"/>
-      <c r="M32" s="45"/>
-      <c r="N32" s="45"/>
-      <c r="O32" s="45"/>
-      <c r="P32" s="32"/>
-    </row>
-    <row r="33" spans="1:16" ht="50" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="55"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="55"/>
+      <c r="E32" s="55"/>
+      <c r="F32" s="55"/>
+      <c r="G32" s="55"/>
+      <c r="H32" s="55"/>
+      <c r="I32" s="55"/>
+      <c r="J32" s="55"/>
+      <c r="K32" s="55"/>
+      <c r="L32" s="55"/>
+      <c r="M32" s="55"/>
+      <c r="N32" s="55"/>
+      <c r="O32" s="55"/>
+      <c r="P32" s="47"/>
+      <c r="Q32" s="51"/>
+      <c r="R32" s="32"/>
+      <c r="U32" s="112"/>
+      <c r="V32" s="117"/>
+      <c r="W32" s="117"/>
+    </row>
+    <row r="33" spans="1:23" ht="26" customHeight="1">
       <c r="A33" s="1">
         <v>25</v>
       </c>
@@ -3421,38 +4767,44 @@
         <f>B31+21</f>
         <v>43956</v>
       </c>
-      <c r="C33" s="65">
+      <c r="C33" s="64">
         <v>4</v>
       </c>
-      <c r="D33" s="37" t="s">
-        <v>48</v>
+      <c r="D33" s="66" t="s">
+        <v>45</v>
       </c>
       <c r="E33" s="30">
         <v>2</v>
       </c>
       <c r="F33" s="16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G33" s="30">
         <v>2</v>
       </c>
       <c r="H33" s="16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I33" s="18">
         <v>14</v>
       </c>
       <c r="J33" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="K33" s="72"/>
-      <c r="L33" s="72"/>
-      <c r="M33" s="72"/>
+        <v>47</v>
+      </c>
+      <c r="K33" s="38"/>
+      <c r="L33" s="38"/>
+      <c r="M33" s="115" t="s">
+        <v>278</v>
+      </c>
       <c r="N33" s="6"/>
-      <c r="O33" s="6"/>
-      <c r="P33" s="34"/>
-    </row>
-    <row r="34" spans="1:16" ht="50" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O33" s="44"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="R33" s="33"/>
+    </row>
+    <row r="34" spans="1:23" ht="26" customHeight="1">
       <c r="A34" s="1">
         <v>26</v>
       </c>
@@ -3460,34 +4812,42 @@
         <f t="shared" si="2"/>
         <v>43963</v>
       </c>
-      <c r="C34" s="66"/>
-      <c r="D34" s="38"/>
+      <c r="C34" s="75"/>
+      <c r="D34" s="74"/>
       <c r="E34" s="30">
         <v>3</v>
       </c>
       <c r="F34" s="16" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G34" s="30">
         <v>3</v>
       </c>
       <c r="H34" s="16" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I34" s="18">
         <v>15</v>
       </c>
       <c r="J34" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="K34" s="73"/>
-      <c r="L34" s="73"/>
-      <c r="M34" s="73"/>
+        <v>48</v>
+      </c>
+      <c r="K34" s="39"/>
+      <c r="L34" s="39"/>
+      <c r="M34" s="118" t="s">
+        <v>279</v>
+      </c>
       <c r="N34" s="4"/>
-      <c r="O34" s="6"/>
-      <c r="P34" s="32"/>
-    </row>
-    <row r="35" spans="1:16" ht="50" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O34" s="44"/>
+      <c r="P34" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q34" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="R34" s="32"/>
+    </row>
+    <row r="35" spans="1:23" ht="26" customHeight="1">
       <c r="A35" s="1">
         <v>27</v>
       </c>
@@ -3495,33 +4855,39 @@
         <f t="shared" si="2"/>
         <v>43970</v>
       </c>
-      <c r="C35" s="67"/>
-      <c r="D35" s="39"/>
+      <c r="C35" s="65"/>
+      <c r="D35" s="67"/>
       <c r="E35" s="30">
         <v>4</v>
       </c>
       <c r="F35" s="16" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G35" s="30">
         <v>4</v>
       </c>
       <c r="H35" s="16" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I35" s="21">
         <v>15</v>
       </c>
-      <c r="J35" s="68" t="s">
+      <c r="J35" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="K35" s="73"/>
-      <c r="L35" s="73"/>
-      <c r="M35" s="74"/>
-      <c r="O35" s="4"/>
-      <c r="P35" s="33"/>
-    </row>
-    <row r="36" spans="1:16" ht="50" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K35" s="39"/>
+      <c r="L35" s="39"/>
+      <c r="M35" s="119" t="s">
+        <v>277</v>
+      </c>
+      <c r="O35" s="36"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="R35" s="46"/>
+    </row>
+    <row r="36" spans="1:23" ht="26" customHeight="1">
       <c r="A36" s="1">
         <v>28</v>
       </c>
@@ -3529,17 +4895,17 @@
         <f t="shared" si="2"/>
         <v>43977</v>
       </c>
-      <c r="C36" s="69">
+      <c r="C36" s="78">
         <v>5</v>
       </c>
-      <c r="D36" s="46" t="s">
-        <v>54</v>
+      <c r="D36" s="76" t="s">
+        <v>51</v>
       </c>
       <c r="E36" s="31">
         <v>1</v>
       </c>
       <c r="F36" s="20" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G36" s="31"/>
       <c r="H36" s="20"/>
@@ -3547,16 +4913,23 @@
         <v>15</v>
       </c>
       <c r="J36" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="K36" s="73"/>
-      <c r="L36" s="73"/>
-      <c r="M36" s="73"/>
+        <v>48</v>
+      </c>
+      <c r="K36" s="39"/>
+      <c r="L36" s="39"/>
+      <c r="M36" s="39"/>
       <c r="N36" s="7"/>
-      <c r="O36" s="7"/>
-      <c r="P36" s="34"/>
-    </row>
-    <row r="37" spans="1:16" ht="50" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O36" s="45"/>
+      <c r="P36" s="7"/>
+      <c r="Q36" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="R36" s="33"/>
+      <c r="U36" s="112"/>
+      <c r="V36" s="117"/>
+      <c r="W36" s="117"/>
+    </row>
+    <row r="37" spans="1:23" ht="26" customHeight="1">
       <c r="A37" s="1">
         <v>29</v>
       </c>
@@ -3564,13 +4937,13 @@
         <f t="shared" si="2"/>
         <v>43984</v>
       </c>
-      <c r="C37" s="70"/>
-      <c r="D37" s="47"/>
+      <c r="C37" s="79"/>
+      <c r="D37" s="77"/>
       <c r="E37" s="31">
         <v>1</v>
       </c>
       <c r="F37" s="20" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G37" s="31"/>
       <c r="H37" s="20"/>
@@ -3578,18 +4951,25 @@
         <v>15</v>
       </c>
       <c r="J37" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="K37" s="73"/>
-      <c r="L37" s="73"/>
-      <c r="M37" s="73"/>
+        <v>48</v>
+      </c>
+      <c r="K37" s="39"/>
+      <c r="L37" s="39"/>
+      <c r="M37" s="39"/>
       <c r="N37" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="O37" s="4"/>
-      <c r="P37" s="33"/>
-    </row>
-    <row r="38" spans="1:16" ht="50" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O37" s="36"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="R37" s="46"/>
+      <c r="U37" s="112"/>
+      <c r="V37" s="117"/>
+      <c r="W37" s="117"/>
+    </row>
+    <row r="38" spans="1:23" ht="26" customHeight="1">
       <c r="A38" s="1">
         <v>30</v>
       </c>
@@ -3597,13 +4977,13 @@
         <f t="shared" si="2"/>
         <v>43991</v>
       </c>
-      <c r="C38" s="70"/>
-      <c r="D38" s="47"/>
+      <c r="C38" s="79"/>
+      <c r="D38" s="77"/>
       <c r="E38" s="31">
         <v>1</v>
       </c>
       <c r="F38" s="20" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G38" s="31"/>
       <c r="H38" s="20"/>
@@ -3611,16 +4991,23 @@
         <v>15</v>
       </c>
       <c r="J38" s="18" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
       <c r="M38" s="5"/>
       <c r="N38" s="4"/>
-      <c r="O38" s="4"/>
-      <c r="P38" s="34"/>
-    </row>
-    <row r="39" spans="1:16" ht="50" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O38" s="36"/>
+      <c r="P38" s="4"/>
+      <c r="Q38" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="R38" s="33"/>
+      <c r="U38" s="112"/>
+      <c r="V38" s="117"/>
+      <c r="W38" s="117"/>
+    </row>
+    <row r="39" spans="1:23" ht="26" customHeight="1">
       <c r="A39" s="1">
         <v>31</v>
       </c>
@@ -3628,13 +5015,13 @@
         <f t="shared" si="2"/>
         <v>43998</v>
       </c>
-      <c r="C39" s="70"/>
-      <c r="D39" s="47"/>
+      <c r="C39" s="79"/>
+      <c r="D39" s="77"/>
       <c r="E39" s="31">
         <v>1</v>
       </c>
       <c r="F39" s="20" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G39" s="31"/>
       <c r="H39" s="20"/>
@@ -3642,16 +5029,23 @@
         <v>15</v>
       </c>
       <c r="J39" s="18" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K39" s="5"/>
       <c r="L39" s="5"/>
       <c r="M39" s="5"/>
       <c r="N39" s="27"/>
-      <c r="O39" s="27"/>
-      <c r="P39" s="33"/>
-    </row>
-    <row r="40" spans="1:16" ht="50" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O39" s="43"/>
+      <c r="P39" s="27"/>
+      <c r="Q39" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="R39" s="46"/>
+      <c r="U39" s="112"/>
+      <c r="V39" s="117"/>
+      <c r="W39" s="117"/>
+    </row>
+    <row r="40" spans="1:23" ht="26" customHeight="1">
       <c r="A40" s="1">
         <v>32</v>
       </c>
@@ -3659,13 +5053,13 @@
         <f t="shared" si="2"/>
         <v>44005</v>
       </c>
-      <c r="C40" s="71"/>
-      <c r="D40" s="47"/>
+      <c r="C40" s="80"/>
+      <c r="D40" s="77"/>
       <c r="E40" s="31">
         <v>1</v>
       </c>
       <c r="F40" s="20" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G40" s="31"/>
       <c r="H40" s="20"/>
@@ -3673,38 +5067,106 @@
         <v>15</v>
       </c>
       <c r="J40" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="K40" s="74"/>
-      <c r="L40" s="74"/>
-      <c r="M40" s="74"/>
-      <c r="P40" s="34"/>
-    </row>
-    <row r="41" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="K40" s="40"/>
+      <c r="L40" s="40"/>
+      <c r="M40" s="40"/>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="R40" s="33"/>
+      <c r="U40" s="112"/>
+      <c r="V40" s="117"/>
+      <c r="W40" s="117"/>
+    </row>
+    <row r="41" spans="1:23" ht="26" customHeight="1">
+      <c r="A41" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="B41" s="45"/>
-      <c r="C41" s="45"/>
-      <c r="D41" s="45"/>
-      <c r="E41" s="45"/>
-      <c r="F41" s="45"/>
-      <c r="G41" s="45"/>
-      <c r="H41" s="45"/>
-      <c r="I41" s="45"/>
-      <c r="J41" s="45"/>
-      <c r="K41" s="45"/>
-      <c r="L41" s="45"/>
-      <c r="M41" s="45"/>
-      <c r="N41" s="45"/>
-      <c r="O41" s="45"/>
+      <c r="B41" s="55"/>
+      <c r="C41" s="55"/>
+      <c r="D41" s="55"/>
+      <c r="E41" s="55"/>
+      <c r="F41" s="55"/>
+      <c r="G41" s="55"/>
+      <c r="H41" s="55"/>
+      <c r="I41" s="55"/>
+      <c r="J41" s="55"/>
+      <c r="K41" s="55"/>
+      <c r="L41" s="55"/>
+      <c r="M41" s="55"/>
+      <c r="N41" s="55"/>
+      <c r="O41" s="55"/>
+      <c r="P41" s="47"/>
+      <c r="Q41" s="51"/>
+      <c r="U41" s="112"/>
+      <c r="V41" s="117"/>
+      <c r="W41" s="117"/>
+    </row>
+    <row r="42" spans="1:23" ht="26" customHeight="1">
+      <c r="U42" s="112"/>
+      <c r="V42" s="117"/>
+      <c r="W42" s="117"/>
+    </row>
+    <row r="43" spans="1:23" ht="26" customHeight="1">
+      <c r="U43" s="112"/>
+      <c r="V43" s="117"/>
+      <c r="W43" s="117"/>
+    </row>
+    <row r="44" spans="1:23" ht="26" customHeight="1">
+      <c r="U44" s="112"/>
+      <c r="V44" s="117"/>
+      <c r="W44" s="117"/>
+    </row>
+    <row r="45" spans="1:23" ht="26" customHeight="1">
+      <c r="U45" s="112"/>
+      <c r="V45" s="117"/>
+      <c r="W45" s="117"/>
+    </row>
+    <row r="46" spans="1:23" ht="26" customHeight="1">
+      <c r="U46" s="112"/>
+      <c r="V46" s="117"/>
+      <c r="W46" s="117"/>
+    </row>
+    <row r="47" spans="1:23" ht="26" customHeight="1">
+      <c r="U47" s="112"/>
+      <c r="V47" s="117"/>
+      <c r="W47" s="117"/>
+    </row>
+    <row r="48" spans="1:23" ht="26" customHeight="1">
+      <c r="U48" s="112"/>
+      <c r="V48" s="117"/>
+      <c r="W48" s="117"/>
+    </row>
+    <row r="49" spans="21:23" ht="26" customHeight="1">
+      <c r="U49" s="112"/>
+      <c r="V49" s="117"/>
+      <c r="W49" s="117"/>
+    </row>
+    <row r="50" spans="21:23" ht="26" customHeight="1">
+      <c r="U50" s="112"/>
+      <c r="V50" s="117"/>
+      <c r="W50" s="117"/>
+    </row>
+    <row r="51" spans="21:23" ht="26" customHeight="1">
+      <c r="U51" s="112"/>
+      <c r="V51" s="117"/>
+      <c r="W51" s="117"/>
+    </row>
+    <row r="52" spans="21:23" ht="26" customHeight="1">
+      <c r="U52" s="112"/>
+      <c r="V52" s="117"/>
+      <c r="W52" s="117"/>
+    </row>
+    <row r="53" spans="21:23" ht="26" customHeight="1">
+      <c r="U53" s="112"/>
+      <c r="V53" s="117"/>
+      <c r="W53" s="117"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="D36:D40"/>
-    <mergeCell ref="C36:C40"/>
     <mergeCell ref="C18:C21"/>
     <mergeCell ref="D18:D21"/>
     <mergeCell ref="A9:O9"/>
@@ -3722,6 +5184,10 @@
     <mergeCell ref="C26:C29"/>
     <mergeCell ref="C30:C31"/>
     <mergeCell ref="D30:D31"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="D36:D40"/>
+    <mergeCell ref="C36:C40"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3730,22 +5196,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="2"/>
-    <col min="2" max="2" width="70.5" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="10.81640625" style="2"/>
+    <col min="2" max="2" width="70.453125" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="10.81640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="2" spans="1:2" ht="32" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" ht="21" customHeight="1"/>
+    <row r="2" spans="1:2" ht="31">
       <c r="A2" s="8" t="s">
         <v>4</v>
       </c>
@@ -3753,44 +5219,44 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="38" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" ht="38" customHeight="1">
       <c r="A3" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="38" customHeight="1" x14ac:dyDescent="0.15">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="38" customHeight="1">
       <c r="A4" s="22" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="38" customHeight="1" x14ac:dyDescent="0.15">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="38" customHeight="1">
       <c r="A5" s="23" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="38" customHeight="1" x14ac:dyDescent="0.15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="38" customHeight="1">
       <c r="A6" s="24" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="38" customHeight="1" x14ac:dyDescent="0.15">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="38" customHeight="1">
       <c r="A7" s="25" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>54</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -3798,4 +5264,1270 @@
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2CABC09-258C-4DA4-863D-66ACD0950ECB}">
+  <dimension ref="A1:C66"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20:C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12"/>
+  <cols>
+    <col min="1" max="1" width="10.90625" style="112"/>
+    <col min="2" max="2" width="75.81640625" style="113" customWidth="1"/>
+    <col min="3" max="3" width="100.54296875" style="113" customWidth="1"/>
+    <col min="4" max="16384" width="10.90625" style="112"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="112" t="s">
+        <v>252</v>
+      </c>
+      <c r="B1" s="113" t="s">
+        <v>253</v>
+      </c>
+      <c r="C1" s="113" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="24">
+      <c r="A2" s="112" t="s">
+        <v>192</v>
+      </c>
+      <c r="B2" s="113" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="113" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="36">
+      <c r="A3" s="112" t="s">
+        <v>213</v>
+      </c>
+      <c r="B3" s="113" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="113" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="24">
+      <c r="A4" s="112" t="s">
+        <v>214</v>
+      </c>
+      <c r="B4" s="113" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="113" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="112" t="s">
+        <v>215</v>
+      </c>
+      <c r="B5" s="113" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="113" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="112" t="s">
+        <v>193</v>
+      </c>
+      <c r="B7" s="113" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" s="113" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="24">
+      <c r="A8" s="112" t="s">
+        <v>194</v>
+      </c>
+      <c r="B8" s="113" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" s="113" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="112" t="s">
+        <v>216</v>
+      </c>
+      <c r="B9" s="113" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="113" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="112" t="s">
+        <v>217</v>
+      </c>
+      <c r="B10" s="113" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="113" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="112" t="s">
+        <v>195</v>
+      </c>
+      <c r="B13" s="113" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13" s="113" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="112" t="s">
+        <v>196</v>
+      </c>
+      <c r="B14" s="113" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14" s="113" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="112" t="s">
+        <v>197</v>
+      </c>
+      <c r="B15" s="113" t="s">
+        <v>103</v>
+      </c>
+      <c r="C15" s="113" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="112" t="s">
+        <v>207</v>
+      </c>
+      <c r="B16" s="113" t="s">
+        <v>105</v>
+      </c>
+      <c r="C16" s="113" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="112" t="s">
+        <v>209</v>
+      </c>
+      <c r="B17" s="113" t="s">
+        <v>107</v>
+      </c>
+      <c r="C17" s="113" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="112" t="s">
+        <v>198</v>
+      </c>
+      <c r="B18" s="113" t="s">
+        <v>109</v>
+      </c>
+      <c r="C18" s="113" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="112" t="s">
+        <v>199</v>
+      </c>
+      <c r="B19" s="113" t="s">
+        <v>111</v>
+      </c>
+      <c r="C19" s="113" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="112" t="s">
+        <v>200</v>
+      </c>
+      <c r="B20" s="113" t="s">
+        <v>113</v>
+      </c>
+      <c r="C20" s="113" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="24">
+      <c r="A21" s="112" t="s">
+        <v>201</v>
+      </c>
+      <c r="B21" s="113" t="s">
+        <v>114</v>
+      </c>
+      <c r="C21" s="113" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="24">
+      <c r="A22" s="112" t="s">
+        <v>202</v>
+      </c>
+      <c r="B22" s="113" t="s">
+        <v>203</v>
+      </c>
+      <c r="C22" s="113" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="112" t="s">
+        <v>204</v>
+      </c>
+      <c r="B23" s="113" t="s">
+        <v>116</v>
+      </c>
+      <c r="C23" s="113" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="24">
+      <c r="A24" s="112" t="s">
+        <v>205</v>
+      </c>
+      <c r="B24" s="113" t="s">
+        <v>206</v>
+      </c>
+      <c r="C24" s="113" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="121" t="s">
+        <v>208</v>
+      </c>
+      <c r="B27" s="122" t="s">
+        <v>120</v>
+      </c>
+      <c r="C27" s="122" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="121" t="s">
+        <v>210</v>
+      </c>
+      <c r="B28" s="122" t="s">
+        <v>122</v>
+      </c>
+      <c r="C28" s="122" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="121" t="s">
+        <v>211</v>
+      </c>
+      <c r="B29" s="122" t="s">
+        <v>124</v>
+      </c>
+      <c r="C29" s="122" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="121" t="s">
+        <v>212</v>
+      </c>
+      <c r="B30" s="122" t="s">
+        <v>126</v>
+      </c>
+      <c r="C30" s="122" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="24">
+      <c r="A31" s="121" t="s">
+        <v>248</v>
+      </c>
+      <c r="B31" s="122" t="s">
+        <v>128</v>
+      </c>
+      <c r="C31" s="122" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="121" t="s">
+        <v>249</v>
+      </c>
+      <c r="B32" s="122" t="s">
+        <v>130</v>
+      </c>
+      <c r="C32" s="122" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="112" t="s">
+        <v>218</v>
+      </c>
+      <c r="B33" s="113" t="s">
+        <v>131</v>
+      </c>
+      <c r="C33" s="113" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="112" t="s">
+        <v>220</v>
+      </c>
+      <c r="B34" s="113" t="s">
+        <v>133</v>
+      </c>
+      <c r="C34" s="113" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="24">
+      <c r="A35" s="112" t="s">
+        <v>221</v>
+      </c>
+      <c r="B35" s="113" t="s">
+        <v>135</v>
+      </c>
+      <c r="C35" s="113" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="112" t="s">
+        <v>222</v>
+      </c>
+      <c r="B36" s="113" t="s">
+        <v>137</v>
+      </c>
+      <c r="C36" s="113" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="24">
+      <c r="A37" s="112" t="s">
+        <v>223</v>
+      </c>
+      <c r="B37" s="113" t="s">
+        <v>139</v>
+      </c>
+      <c r="C37" s="113" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="36">
+      <c r="A38" s="112" t="s">
+        <v>250</v>
+      </c>
+      <c r="B38" s="113" t="s">
+        <v>219</v>
+      </c>
+      <c r="C38" s="113" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="24">
+      <c r="A39" s="112" t="s">
+        <v>251</v>
+      </c>
+      <c r="B39" s="113" t="s">
+        <v>143</v>
+      </c>
+      <c r="C39" s="113" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="24">
+      <c r="A42" s="112" t="s">
+        <v>224</v>
+      </c>
+      <c r="B42" s="113" t="s">
+        <v>147</v>
+      </c>
+      <c r="C42" s="113" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="36">
+      <c r="A43" s="112" t="s">
+        <v>225</v>
+      </c>
+      <c r="B43" s="113" t="s">
+        <v>149</v>
+      </c>
+      <c r="C43" s="113" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="24">
+      <c r="A44" s="112" t="s">
+        <v>226</v>
+      </c>
+      <c r="B44" s="113" t="s">
+        <v>151</v>
+      </c>
+      <c r="C44" s="113" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="112" t="s">
+        <v>227</v>
+      </c>
+      <c r="B45" s="113" t="s">
+        <v>153</v>
+      </c>
+      <c r="C45" s="113" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="24">
+      <c r="A46" s="112" t="s">
+        <v>228</v>
+      </c>
+      <c r="B46" s="113" t="s">
+        <v>155</v>
+      </c>
+      <c r="C46" s="113" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="24">
+      <c r="A47" s="112" t="s">
+        <v>229</v>
+      </c>
+      <c r="B47" s="113" t="s">
+        <v>156</v>
+      </c>
+      <c r="C47" s="113" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="24">
+      <c r="A48" s="112" t="s">
+        <v>230</v>
+      </c>
+      <c r="B48" s="113" t="s">
+        <v>158</v>
+      </c>
+      <c r="C48" s="113" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="24">
+      <c r="A49" s="112" t="s">
+        <v>231</v>
+      </c>
+      <c r="B49" s="113" t="s">
+        <v>160</v>
+      </c>
+      <c r="C49" s="113" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="24">
+      <c r="A50" s="112" t="s">
+        <v>232</v>
+      </c>
+      <c r="B50" s="113" t="s">
+        <v>162</v>
+      </c>
+      <c r="C50" s="113" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="112" t="s">
+        <v>233</v>
+      </c>
+      <c r="B53" s="113" t="s">
+        <v>166</v>
+      </c>
+      <c r="C53" s="113" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="112" t="s">
+        <v>234</v>
+      </c>
+      <c r="B54" s="113" t="s">
+        <v>168</v>
+      </c>
+      <c r="C54" s="113" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="112" t="s">
+        <v>235</v>
+      </c>
+      <c r="B55" s="113" t="s">
+        <v>170</v>
+      </c>
+      <c r="C55" s="113" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="112" t="s">
+        <v>236</v>
+      </c>
+      <c r="B56" s="113" t="s">
+        <v>172</v>
+      </c>
+      <c r="C56" s="113" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="24">
+      <c r="A57" s="112" t="s">
+        <v>237</v>
+      </c>
+      <c r="B57" s="113" t="s">
+        <v>174</v>
+      </c>
+      <c r="C57" s="113" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="112" t="s">
+        <v>238</v>
+      </c>
+      <c r="B58" s="113" t="s">
+        <v>175</v>
+      </c>
+      <c r="C58" s="113" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="112" t="s">
+        <v>241</v>
+      </c>
+      <c r="B59" s="113" t="s">
+        <v>239</v>
+      </c>
+      <c r="C59" s="113" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="24">
+      <c r="A60" s="112" t="s">
+        <v>242</v>
+      </c>
+      <c r="B60" s="113" t="s">
+        <v>240</v>
+      </c>
+      <c r="C60" s="113" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="112" t="s">
+        <v>243</v>
+      </c>
+      <c r="B61" s="113" t="s">
+        <v>179</v>
+      </c>
+      <c r="C61" s="113" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="112" t="s">
+        <v>244</v>
+      </c>
+      <c r="B63" s="113" t="s">
+        <v>183</v>
+      </c>
+      <c r="C63" s="113" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="112" t="s">
+        <v>245</v>
+      </c>
+      <c r="B64" s="113" t="s">
+        <v>185</v>
+      </c>
+      <c r="C64" s="113" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="112" t="s">
+        <v>246</v>
+      </c>
+      <c r="B65" s="113" t="s">
+        <v>247</v>
+      </c>
+      <c r="C65" s="113" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="48">
+      <c r="B66" s="113" t="s">
+        <v>188</v>
+      </c>
+      <c r="C66" s="113" t="s">
+        <v>188</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="15" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BACDCA5C-5FBA-4813-BA98-6342B0A4D0CB}">
+  <dimension ref="A1:D65"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5"/>
+  <cols>
+    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="47.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="14.5">
+      <c r="A1" s="87" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="89"/>
+    </row>
+    <row r="2" spans="1:4" ht="21">
+      <c r="A2" s="90" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="91" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="91"/>
+      <c r="D2" s="92"/>
+    </row>
+    <row r="3" spans="1:4" ht="42">
+      <c r="A3" s="90"/>
+      <c r="B3" s="91"/>
+      <c r="C3" s="91" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" s="92"/>
+    </row>
+    <row r="4" spans="1:4" ht="31.5">
+      <c r="A4" s="90"/>
+      <c r="B4" s="91"/>
+      <c r="C4" s="91" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="92"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="90"/>
+      <c r="B5" s="91"/>
+      <c r="C5" s="91" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="92"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="90"/>
+      <c r="B6" s="91"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="92"/>
+    </row>
+    <row r="7" spans="1:4" ht="21">
+      <c r="A7" s="90" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" s="91" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" s="91"/>
+      <c r="D7" s="92"/>
+    </row>
+    <row r="8" spans="1:4" ht="21">
+      <c r="A8" s="90" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" s="91" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" s="91"/>
+      <c r="D8" s="92" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="42">
+      <c r="A9" s="90"/>
+      <c r="B9" s="91"/>
+      <c r="C9" s="91" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" s="92" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="53" thickBot="1">
+      <c r="A10" s="93"/>
+      <c r="B10" s="94"/>
+      <c r="C10" s="94" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" s="95" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="13" thickBot="1">
+      <c r="A11" s="96"/>
+      <c r="B11" s="97"/>
+      <c r="C11" s="97"/>
+      <c r="D11" s="97"/>
+    </row>
+    <row r="12" spans="1:4" ht="14.5">
+      <c r="A12" s="87" t="s">
+        <v>97</v>
+      </c>
+      <c r="B12" s="88"/>
+      <c r="C12" s="88"/>
+      <c r="D12" s="89"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="90" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" s="91" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13" s="91"/>
+      <c r="D13" s="92"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="90" t="s">
+        <v>100</v>
+      </c>
+      <c r="B14" s="91" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14" s="91"/>
+      <c r="D14" s="92"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="90" t="s">
+        <v>102</v>
+      </c>
+      <c r="B15" s="91" t="s">
+        <v>103</v>
+      </c>
+      <c r="C15" s="91"/>
+      <c r="D15" s="92"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="90" t="s">
+        <v>104</v>
+      </c>
+      <c r="B16" s="91" t="s">
+        <v>105</v>
+      </c>
+      <c r="C16" s="91"/>
+      <c r="D16" s="92"/>
+    </row>
+    <row r="17" spans="1:4" ht="21">
+      <c r="A17" s="90" t="s">
+        <v>106</v>
+      </c>
+      <c r="B17" s="91" t="s">
+        <v>107</v>
+      </c>
+      <c r="C17" s="91"/>
+      <c r="D17" s="92"/>
+    </row>
+    <row r="18" spans="1:4" ht="21">
+      <c r="A18" s="90" t="s">
+        <v>108</v>
+      </c>
+      <c r="B18" s="91" t="s">
+        <v>109</v>
+      </c>
+      <c r="C18" s="91"/>
+      <c r="D18" s="92"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="90" t="s">
+        <v>110</v>
+      </c>
+      <c r="B19" s="91" t="s">
+        <v>111</v>
+      </c>
+      <c r="C19" s="91"/>
+      <c r="D19" s="92"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="90" t="s">
+        <v>112</v>
+      </c>
+      <c r="B20" s="91" t="s">
+        <v>113</v>
+      </c>
+      <c r="C20" s="91"/>
+      <c r="D20" s="92"/>
+    </row>
+    <row r="21" spans="1:4" ht="21">
+      <c r="A21" s="90"/>
+      <c r="B21" s="91"/>
+      <c r="C21" s="91" t="s">
+        <v>114</v>
+      </c>
+      <c r="D21" s="92"/>
+    </row>
+    <row r="22" spans="1:4" ht="21">
+      <c r="A22" s="90"/>
+      <c r="B22" s="91"/>
+      <c r="C22" s="91" t="s">
+        <v>115</v>
+      </c>
+      <c r="D22" s="92"/>
+    </row>
+    <row r="23" spans="1:4" ht="21">
+      <c r="A23" s="90"/>
+      <c r="B23" s="91"/>
+      <c r="C23" s="91" t="s">
+        <v>116</v>
+      </c>
+      <c r="D23" s="92"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="90"/>
+      <c r="B24" s="91"/>
+      <c r="C24" s="91" t="s">
+        <v>117</v>
+      </c>
+      <c r="D24" s="92"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="90"/>
+      <c r="B25" s="91"/>
+      <c r="C25" s="91" t="s">
+        <v>118</v>
+      </c>
+      <c r="D25" s="92"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="90"/>
+      <c r="B26" s="91"/>
+      <c r="C26" s="91"/>
+      <c r="D26" s="92"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="90" t="s">
+        <v>119</v>
+      </c>
+      <c r="B27" s="91" t="s">
+        <v>120</v>
+      </c>
+      <c r="C27" s="91"/>
+      <c r="D27" s="92"/>
+    </row>
+    <row r="28" spans="1:4" ht="21">
+      <c r="A28" s="90" t="s">
+        <v>121</v>
+      </c>
+      <c r="B28" s="91" t="s">
+        <v>122</v>
+      </c>
+      <c r="C28" s="91"/>
+      <c r="D28" s="92"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="90" t="s">
+        <v>123</v>
+      </c>
+      <c r="B29" s="91" t="s">
+        <v>124</v>
+      </c>
+      <c r="C29" s="91"/>
+      <c r="D29" s="92"/>
+    </row>
+    <row r="30" spans="1:4" ht="21">
+      <c r="A30" s="90" t="s">
+        <v>125</v>
+      </c>
+      <c r="B30" s="91" t="s">
+        <v>126</v>
+      </c>
+      <c r="C30" s="91"/>
+      <c r="D30" s="92"/>
+    </row>
+    <row r="31" spans="1:4" ht="21">
+      <c r="A31" s="90" t="s">
+        <v>127</v>
+      </c>
+      <c r="B31" s="91" t="s">
+        <v>128</v>
+      </c>
+      <c r="C31" s="91"/>
+      <c r="D31" s="92"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="90" t="s">
+        <v>129</v>
+      </c>
+      <c r="B32" s="91" t="s">
+        <v>130</v>
+      </c>
+      <c r="C32" s="91"/>
+      <c r="D32" s="92"/>
+    </row>
+    <row r="33" spans="1:4" ht="21">
+      <c r="A33" s="90"/>
+      <c r="B33" s="91"/>
+      <c r="C33" s="91" t="s">
+        <v>131</v>
+      </c>
+      <c r="D33" s="92" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="21">
+      <c r="A34" s="90"/>
+      <c r="B34" s="91"/>
+      <c r="C34" s="91" t="s">
+        <v>133</v>
+      </c>
+      <c r="D34" s="92" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="31.5">
+      <c r="A35" s="90"/>
+      <c r="B35" s="91"/>
+      <c r="C35" s="91" t="s">
+        <v>135</v>
+      </c>
+      <c r="D35" s="92" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="31.5">
+      <c r="A36" s="90"/>
+      <c r="B36" s="91"/>
+      <c r="C36" s="91" t="s">
+        <v>137</v>
+      </c>
+      <c r="D36" s="92" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="31.5">
+      <c r="A37" s="90"/>
+      <c r="B37" s="91"/>
+      <c r="C37" s="91" t="s">
+        <v>139</v>
+      </c>
+      <c r="D37" s="92" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="52.5">
+      <c r="A38" s="90"/>
+      <c r="B38" s="91"/>
+      <c r="C38" s="91" t="s">
+        <v>141</v>
+      </c>
+      <c r="D38" s="92" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="32" thickBot="1">
+      <c r="A39" s="93"/>
+      <c r="B39" s="94"/>
+      <c r="C39" s="94" t="s">
+        <v>143</v>
+      </c>
+      <c r="D39" s="95" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="13" thickBot="1">
+      <c r="A40" s="96"/>
+      <c r="B40" s="97"/>
+      <c r="C40" s="97"/>
+      <c r="D40" s="97"/>
+    </row>
+    <row r="41" spans="1:4" ht="14.5">
+      <c r="A41" s="98" t="s">
+        <v>145</v>
+      </c>
+      <c r="B41" s="99"/>
+      <c r="C41" s="99"/>
+      <c r="D41" s="100"/>
+    </row>
+    <row r="42" spans="1:4" ht="31.5">
+      <c r="A42" s="90" t="s">
+        <v>146</v>
+      </c>
+      <c r="B42" s="101" t="s">
+        <v>147</v>
+      </c>
+      <c r="C42" s="101"/>
+      <c r="D42" s="102"/>
+    </row>
+    <row r="43" spans="1:4" ht="42">
+      <c r="A43" s="90" t="s">
+        <v>148</v>
+      </c>
+      <c r="B43" s="101" t="s">
+        <v>149</v>
+      </c>
+      <c r="C43" s="101"/>
+      <c r="D43" s="102"/>
+    </row>
+    <row r="44" spans="1:4" ht="31.5">
+      <c r="A44" s="90" t="s">
+        <v>150</v>
+      </c>
+      <c r="B44" s="101" t="s">
+        <v>151</v>
+      </c>
+      <c r="C44" s="101"/>
+      <c r="D44" s="102"/>
+    </row>
+    <row r="45" spans="1:4" ht="21">
+      <c r="A45" s="90" t="s">
+        <v>152</v>
+      </c>
+      <c r="B45" s="101" t="s">
+        <v>153</v>
+      </c>
+      <c r="C45" s="101"/>
+      <c r="D45" s="102"/>
+    </row>
+    <row r="46" spans="1:4" ht="21">
+      <c r="A46" s="90" t="s">
+        <v>154</v>
+      </c>
+      <c r="B46" s="101" t="s">
+        <v>155</v>
+      </c>
+      <c r="C46" s="101"/>
+      <c r="D46" s="102"/>
+    </row>
+    <row r="47" spans="1:4" ht="42">
+      <c r="A47" s="90"/>
+      <c r="B47" s="101"/>
+      <c r="C47" s="101" t="s">
+        <v>156</v>
+      </c>
+      <c r="D47" s="102" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="31.5">
+      <c r="A48" s="90"/>
+      <c r="B48" s="101"/>
+      <c r="C48" s="101" t="s">
+        <v>158</v>
+      </c>
+      <c r="D48" s="102" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="52.5">
+      <c r="A49" s="90"/>
+      <c r="B49" s="101"/>
+      <c r="C49" s="101" t="s">
+        <v>160</v>
+      </c>
+      <c r="D49" s="102" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="74" thickBot="1">
+      <c r="A50" s="93"/>
+      <c r="B50" s="103"/>
+      <c r="C50" s="103" t="s">
+        <v>162</v>
+      </c>
+      <c r="D50" s="104" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15" thickBot="1">
+      <c r="A51" s="96"/>
+      <c r="B51" s="105"/>
+      <c r="C51" s="105"/>
+      <c r="D51" s="105"/>
+    </row>
+    <row r="52" spans="1:4" ht="15" thickBot="1">
+      <c r="A52" s="106" t="s">
+        <v>164</v>
+      </c>
+      <c r="B52" s="107"/>
+      <c r="C52" s="107"/>
+      <c r="D52" s="108"/>
+    </row>
+    <row r="53" spans="1:4" ht="21">
+      <c r="A53" s="109" t="s">
+        <v>165</v>
+      </c>
+      <c r="B53" s="110" t="s">
+        <v>166</v>
+      </c>
+      <c r="C53" s="110"/>
+      <c r="D53" s="110"/>
+    </row>
+    <row r="54" spans="1:4" ht="21">
+      <c r="A54" s="111" t="s">
+        <v>167</v>
+      </c>
+      <c r="B54" s="91" t="s">
+        <v>168</v>
+      </c>
+      <c r="C54" s="91"/>
+      <c r="D54" s="91"/>
+    </row>
+    <row r="55" spans="1:4" ht="21">
+      <c r="A55" s="111" t="s">
+        <v>169</v>
+      </c>
+      <c r="B55" s="91" t="s">
+        <v>170</v>
+      </c>
+      <c r="C55" s="91"/>
+      <c r="D55" s="91"/>
+    </row>
+    <row r="56" spans="1:4" ht="21">
+      <c r="A56" s="111" t="s">
+        <v>171</v>
+      </c>
+      <c r="B56" s="91" t="s">
+        <v>172</v>
+      </c>
+      <c r="C56" s="91"/>
+      <c r="D56" s="91"/>
+    </row>
+    <row r="57" spans="1:4" ht="21">
+      <c r="A57" s="111" t="s">
+        <v>173</v>
+      </c>
+      <c r="B57" s="91" t="s">
+        <v>174</v>
+      </c>
+      <c r="C57" s="91"/>
+      <c r="D57" s="91"/>
+    </row>
+    <row r="58" spans="1:4" ht="21">
+      <c r="A58" s="111"/>
+      <c r="B58" s="91"/>
+      <c r="C58" s="91" t="s">
+        <v>175</v>
+      </c>
+      <c r="D58" s="91" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="52.5">
+      <c r="A59" s="111"/>
+      <c r="B59" s="91"/>
+      <c r="C59" s="91" t="s">
+        <v>177</v>
+      </c>
+      <c r="D59" s="91" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="21.5" thickBot="1">
+      <c r="A60" s="111"/>
+      <c r="B60" s="91"/>
+      <c r="C60" s="91" t="s">
+        <v>179</v>
+      </c>
+      <c r="D60" s="91" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="15" thickBot="1">
+      <c r="A61" s="96"/>
+      <c r="B61" s="105"/>
+      <c r="C61" s="105"/>
+      <c r="D61" s="105"/>
+    </row>
+    <row r="62" spans="1:4" ht="15" thickBot="1">
+      <c r="A62" s="106" t="s">
+        <v>181</v>
+      </c>
+      <c r="B62" s="107"/>
+      <c r="C62" s="107"/>
+      <c r="D62" s="108"/>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="109" t="s">
+        <v>182</v>
+      </c>
+      <c r="B63" s="110" t="s">
+        <v>183</v>
+      </c>
+      <c r="C63" s="110"/>
+      <c r="D63" s="110"/>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="111" t="s">
+        <v>184</v>
+      </c>
+      <c r="B64" s="91" t="s">
+        <v>185</v>
+      </c>
+      <c r="C64" s="91"/>
+      <c r="D64" s="91"/>
+    </row>
+    <row r="65" spans="1:4" ht="42">
+      <c r="A65" s="111" t="s">
+        <v>186</v>
+      </c>
+      <c r="B65" s="91" t="s">
+        <v>187</v>
+      </c>
+      <c r="C65" s="91" t="s">
+        <v>188</v>
+      </c>
+      <c r="D65" s="91"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="A62:D62"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/progression_2019_2020_IPT_MPSI.xlsx
+++ b/progression_2019_2020_IPT_MPSI.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28109"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Informatique_MPSI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emiliendurif/Documents/prepa/MPSI/ipt_mpsi_lamartin/Informatique_MPSI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93FE4698-6955-47DC-9DFA-F4C88FB34861}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-32900" yWindow="-1120" windowWidth="31960" windowHeight="20280"/>
   </bookViews>
   <sheets>
     <sheet name="Semanier MPSI IPT 2019-2020" sheetId="12" r:id="rId1"/>
@@ -22,25 +21,25 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Cycles MPSI IPT'!$A$3:$B$7</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Semanier MPSI IPT 2019-2020'!$A$18:$H$20</definedName>
   </definedNames>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
       </xcalcf:calcFeatures>
     </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="293">
   <si>
     <t>Cours</t>
   </si>
@@ -220,9 +219,6 @@
   </si>
   <si>
     <t>Supports TP</t>
-  </si>
-  <si>
-    <t>Compétences</t>
   </si>
   <si>
     <t>Image entete</t>
@@ -928,13 +924,19 @@
   </si>
   <si>
     <t>AA.C4; AA.C5; AA.C6; AA.C7; AA.C8; AA.C9; AA.S6; AA.S7; AA.S10</t>
+  </si>
+  <si>
+    <t>Compétences cours</t>
+  </si>
+  <si>
+    <t>Compétences TP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1186,14 +1188,14 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1201,98 +1203,98 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1300,21 +1302,21 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1322,23 +1324,23 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1999,7 +2001,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2158,114 +2160,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2286,15 +2180,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2309,15 +2194,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2352,6 +2228,135 @@
     <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="654">
@@ -3002,13 +3007,13 @@
     <cellStyle name="Lien hypertexte visité" xfId="651" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="653" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000087020000}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000088020000}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000089020000}"/>
-    <cellStyle name="Normal 4" xfId="4" xr:uid="{00000000-0005-0000-0000-00008A020000}"/>
-    <cellStyle name="Normal 4 2" xfId="5" xr:uid="{00000000-0005-0000-0000-00008B020000}"/>
-    <cellStyle name="Normal 4 3" xfId="6" xr:uid="{00000000-0005-0000-0000-00008C020000}"/>
-    <cellStyle name="Normal 5" xfId="7" xr:uid="{00000000-0005-0000-0000-00008D020000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2 2" xfId="2"/>
+    <cellStyle name="Normal 3" xfId="3"/>
+    <cellStyle name="Normal 4" xfId="4"/>
+    <cellStyle name="Normal 4 2" xfId="5"/>
+    <cellStyle name="Normal 4 3" xfId="6"/>
+    <cellStyle name="Normal 5" xfId="7"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -3320,38 +3325,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:W53"/>
+  <dimension ref="A1:X53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="26" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="26" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="10.81640625" style="1"/>
-    <col min="4" max="4" width="20.26953125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="10.83203125" style="1"/>
+    <col min="4" max="4" width="20.33203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="37.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.6328125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="37.36328125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="5.453125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="37.36328125" style="1" customWidth="1"/>
-    <col min="11" max="12" width="8.36328125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="32.7265625" style="1" customWidth="1"/>
-    <col min="14" max="17" width="10.81640625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="41.36328125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="10.81640625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="10.81640625" style="1"/>
-    <col min="21" max="21" width="10.81640625" style="1" customWidth="1"/>
-    <col min="22" max="23" width="58.453125" style="116" customWidth="1"/>
-    <col min="24" max="16384" width="10.81640625" style="1"/>
+    <col min="6" max="6" width="37.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="37.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="37.33203125" style="1" customWidth="1"/>
+    <col min="11" max="12" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="32.6640625" style="1" customWidth="1"/>
+    <col min="15" max="18" width="10.83203125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="41.33203125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="10.83203125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.83203125" style="1"/>
+    <col min="22" max="22" width="10.83203125" style="1" customWidth="1"/>
+    <col min="23" max="24" width="58.5" style="74" customWidth="1"/>
+    <col min="25" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="26" customHeight="1">
+    <row r="1" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>19</v>
       </c>
@@ -3389,41 +3394,44 @@
         <v>59</v>
       </c>
       <c r="M1" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q1" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="N1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="P1" s="41" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="R1" s="32" t="s">
+      <c r="R1" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="S1" s="32" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="26" customHeight="1">
+    <row r="2" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="9">
         <v>43711</v>
       </c>
-      <c r="C2" s="68">
+      <c r="C2" s="89">
         <v>1</v>
       </c>
-      <c r="D2" s="71" t="s">
-        <v>275</v>
+      <c r="D2" s="92" t="s">
+        <v>274</v>
       </c>
       <c r="E2" s="26">
         <v>1</v>
       </c>
-      <c r="F2" s="114" t="s">
+      <c r="F2" s="123" t="s">
         <v>26</v>
       </c>
       <c r="G2" s="26">
@@ -3440,23 +3448,26 @@
       </c>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
-      <c r="M2" s="115" t="s">
-        <v>283</v>
-      </c>
-      <c r="N2" s="3"/>
-      <c r="O2" s="42"/>
-      <c r="P2" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q2" s="48" t="s">
-        <v>68</v>
-      </c>
-      <c r="R2" s="33"/>
-      <c r="U2" s="112"/>
-      <c r="V2" s="117"/>
-      <c r="W2" s="117"/>
-    </row>
-    <row r="3" spans="1:23" ht="26" customHeight="1">
+      <c r="M2" s="73" t="s">
+        <v>282</v>
+      </c>
+      <c r="N2" s="73" t="s">
+        <v>282</v>
+      </c>
+      <c r="O2" s="3"/>
+      <c r="P2" s="42"/>
+      <c r="Q2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="R2" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="S2" s="33"/>
+      <c r="V2" s="70"/>
+      <c r="W2" s="75"/>
+      <c r="X2" s="75"/>
+    </row>
+    <row r="3" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -3464,19 +3475,19 @@
         <f>B2+7</f>
         <v>43718</v>
       </c>
-      <c r="C3" s="69"/>
-      <c r="D3" s="72"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="93"/>
       <c r="E3" s="26">
         <v>2</v>
       </c>
-      <c r="F3" s="114" t="s">
-        <v>191</v>
+      <c r="F3" s="72" t="s">
+        <v>190</v>
       </c>
       <c r="G3" s="26">
         <v>2</v>
       </c>
-      <c r="H3" s="114" t="s">
-        <v>191</v>
+      <c r="H3" s="72" t="s">
+        <v>190</v>
       </c>
       <c r="I3" s="11">
         <v>1</v>
@@ -3486,23 +3497,26 @@
       </c>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
-      <c r="M3" s="115" t="s">
-        <v>291</v>
-      </c>
-      <c r="N3" s="3"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q3" s="48" t="s">
-        <v>68</v>
-      </c>
-      <c r="R3" s="33"/>
-      <c r="U3" s="112"/>
-      <c r="V3" s="117"/>
-      <c r="W3" s="117"/>
-    </row>
-    <row r="4" spans="1:23" ht="26" customHeight="1">
+      <c r="M3" s="73" t="s">
+        <v>290</v>
+      </c>
+      <c r="N3" s="73" t="s">
+        <v>282</v>
+      </c>
+      <c r="O3" s="3"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="R3" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="S3" s="33"/>
+      <c r="V3" s="70"/>
+      <c r="W3" s="75"/>
+      <c r="X3" s="75"/>
+    </row>
+    <row r="4" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -3510,19 +3524,19 @@
         <f>B3+7</f>
         <v>43725</v>
       </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="72"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="93"/>
       <c r="E4" s="26">
         <v>2</v>
       </c>
-      <c r="F4" s="114" t="s">
-        <v>191</v>
+      <c r="F4" s="72" t="s">
+        <v>190</v>
       </c>
       <c r="G4" s="26">
         <v>2</v>
       </c>
-      <c r="H4" s="114" t="s">
-        <v>191</v>
+      <c r="H4" s="72" t="s">
+        <v>190</v>
       </c>
       <c r="I4" s="11">
         <v>2</v>
@@ -3532,23 +3546,26 @@
       </c>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
-      <c r="M4" s="115" t="s">
-        <v>291</v>
-      </c>
-      <c r="N4" s="3"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q4" s="48" t="s">
-        <v>68</v>
-      </c>
-      <c r="R4" s="33"/>
-      <c r="U4" s="112"/>
-      <c r="V4" s="117"/>
-      <c r="W4" s="117"/>
-    </row>
-    <row r="5" spans="1:23" ht="26" customHeight="1">
+      <c r="M4" s="73" t="s">
+        <v>290</v>
+      </c>
+      <c r="N4" s="73" t="s">
+        <v>282</v>
+      </c>
+      <c r="O4" s="3"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="R4" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="S4" s="33"/>
+      <c r="V4" s="70"/>
+      <c r="W4" s="75"/>
+      <c r="X4" s="75"/>
+    </row>
+    <row r="5" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -3556,8 +3573,8 @@
         <f t="shared" ref="B5:B8" si="0">B4+7</f>
         <v>43732</v>
       </c>
-      <c r="C5" s="69"/>
-      <c r="D5" s="72"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="93"/>
       <c r="E5" s="26">
         <v>3</v>
       </c>
@@ -3578,23 +3595,26 @@
       </c>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
-      <c r="M5" s="115" t="s">
-        <v>288</v>
-      </c>
-      <c r="N5" s="3"/>
-      <c r="O5" s="42"/>
-      <c r="P5" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q5" s="48" t="s">
-        <v>68</v>
-      </c>
-      <c r="R5" s="33"/>
-      <c r="U5" s="112"/>
-      <c r="V5" s="117"/>
-      <c r="W5" s="117"/>
-    </row>
-    <row r="6" spans="1:23" ht="26" customHeight="1">
+      <c r="M5" s="73" t="s">
+        <v>287</v>
+      </c>
+      <c r="N5" s="73" t="s">
+        <v>282</v>
+      </c>
+      <c r="O5" s="3"/>
+      <c r="P5" s="42"/>
+      <c r="Q5" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="R5" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="S5" s="33"/>
+      <c r="V5" s="70"/>
+      <c r="W5" s="75"/>
+      <c r="X5" s="75"/>
+    </row>
+    <row r="6" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3602,8 +3622,8 @@
         <f>B5+7</f>
         <v>43739</v>
       </c>
-      <c r="C6" s="69"/>
-      <c r="D6" s="72"/>
+      <c r="C6" s="90"/>
+      <c r="D6" s="93"/>
       <c r="E6" s="26">
         <v>4</v>
       </c>
@@ -3625,20 +3645,23 @@
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="42"/>
-      <c r="P6" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q6" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="R6" s="33"/>
-      <c r="U6" s="112"/>
-      <c r="V6" s="117"/>
-      <c r="W6" s="117"/>
-    </row>
-    <row r="7" spans="1:23" ht="26" customHeight="1">
+      <c r="N6" s="73" t="s">
+        <v>290</v>
+      </c>
+      <c r="O6" s="3"/>
+      <c r="P6" s="42"/>
+      <c r="Q6" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="R6" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="S6" s="33"/>
+      <c r="V6" s="70"/>
+      <c r="W6" s="75"/>
+      <c r="X6" s="75"/>
+    </row>
+    <row r="7" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3646,8 +3669,8 @@
         <f t="shared" si="0"/>
         <v>43746</v>
       </c>
-      <c r="C7" s="69"/>
-      <c r="D7" s="72"/>
+      <c r="C7" s="90"/>
+      <c r="D7" s="93"/>
       <c r="E7" s="26">
         <v>4</v>
       </c>
@@ -3669,20 +3692,23 @@
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="36"/>
-      <c r="P7" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q7" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="R7" s="32"/>
-      <c r="U7" s="112"/>
-      <c r="V7" s="117"/>
-      <c r="W7" s="117"/>
-    </row>
-    <row r="8" spans="1:23" ht="26" customHeight="1">
+      <c r="N7" s="73" t="s">
+        <v>290</v>
+      </c>
+      <c r="O7" s="4"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="R7" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="S7" s="32"/>
+      <c r="V7" s="70"/>
+      <c r="W7" s="75"/>
+      <c r="X7" s="75"/>
+    </row>
+    <row r="8" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3690,8 +3716,8 @@
         <f t="shared" si="0"/>
         <v>43753</v>
       </c>
-      <c r="C8" s="70"/>
-      <c r="D8" s="73"/>
+      <c r="C8" s="91"/>
+      <c r="D8" s="94"/>
       <c r="E8" s="26">
         <v>5</v>
       </c>
@@ -3710,50 +3736,54 @@
       <c r="J8" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="M8" s="120" t="s">
-        <v>290</v>
-      </c>
-      <c r="N8" s="4"/>
-      <c r="O8" s="36" t="s">
+      <c r="M8" s="78" t="s">
+        <v>289</v>
+      </c>
+      <c r="N8" s="73" t="s">
+        <v>287</v>
+      </c>
+      <c r="O8" s="4"/>
+      <c r="P8" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="P8" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q8" s="48" t="s">
-        <v>70</v>
-      </c>
-      <c r="R8" s="33"/>
-      <c r="U8" s="112"/>
-      <c r="V8" s="117"/>
-      <c r="W8" s="117"/>
-    </row>
-    <row r="9" spans="1:23" ht="26" customHeight="1">
-      <c r="A9" s="56" t="s">
+      <c r="Q8" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="R8" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="S8" s="33"/>
+      <c r="V8" s="70"/>
+      <c r="W8" s="75"/>
+      <c r="X8" s="75"/>
+    </row>
+    <row r="9" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="57"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="57"/>
-      <c r="K9" s="57"/>
-      <c r="L9" s="57"/>
-      <c r="M9" s="57"/>
-      <c r="N9" s="57"/>
-      <c r="O9" s="57"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="41"/>
-      <c r="R9" s="32"/>
-      <c r="U9" s="112"/>
-      <c r="V9" s="117"/>
-      <c r="W9" s="117"/>
-    </row>
-    <row r="10" spans="1:23" ht="26" customHeight="1">
+      <c r="B9" s="88"/>
+      <c r="C9" s="88"/>
+      <c r="D9" s="88"/>
+      <c r="E9" s="88"/>
+      <c r="F9" s="88"/>
+      <c r="G9" s="88"/>
+      <c r="H9" s="88"/>
+      <c r="I9" s="88"/>
+      <c r="J9" s="88"/>
+      <c r="K9" s="88"/>
+      <c r="L9" s="88"/>
+      <c r="M9" s="88"/>
+      <c r="N9" s="88"/>
+      <c r="O9" s="88"/>
+      <c r="P9" s="88"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="41"/>
+      <c r="S9" s="32"/>
+      <c r="V9" s="70"/>
+      <c r="W9" s="75"/>
+      <c r="X9" s="75"/>
+    </row>
+    <row r="10" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -3761,11 +3791,11 @@
         <f>B8+21</f>
         <v>43774</v>
       </c>
-      <c r="C10" s="68">
+      <c r="C10" s="89">
         <v>1</v>
       </c>
-      <c r="D10" s="71" t="s">
-        <v>275</v>
+      <c r="D10" s="92" t="s">
+        <v>274</v>
       </c>
       <c r="E10" s="26">
         <v>5</v>
@@ -3787,23 +3817,26 @@
       </c>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
-      <c r="M10" s="120" t="s">
-        <v>290</v>
-      </c>
-      <c r="N10" s="3"/>
-      <c r="O10" s="42"/>
-      <c r="P10" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q10" s="48" t="s">
-        <v>70</v>
-      </c>
-      <c r="R10" s="32"/>
-      <c r="U10" s="112"/>
-      <c r="V10" s="117"/>
-      <c r="W10" s="117"/>
-    </row>
-    <row r="11" spans="1:23" ht="26" customHeight="1">
+      <c r="M10" s="78" t="s">
+        <v>289</v>
+      </c>
+      <c r="N10" s="73" t="s">
+        <v>287</v>
+      </c>
+      <c r="O10" s="3"/>
+      <c r="P10" s="42"/>
+      <c r="Q10" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="R10" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="S10" s="32"/>
+      <c r="V10" s="70"/>
+      <c r="W10" s="75"/>
+      <c r="X10" s="75"/>
+    </row>
+    <row r="11" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -3811,8 +3844,8 @@
         <f t="shared" ref="B11:B16" si="1">B10+7</f>
         <v>43781</v>
       </c>
-      <c r="C11" s="69"/>
-      <c r="D11" s="72"/>
+      <c r="C11" s="90"/>
+      <c r="D11" s="93"/>
       <c r="E11" s="26">
         <v>6</v>
       </c>
@@ -3833,23 +3866,24 @@
       </c>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
-      <c r="M11" s="120" t="s">
-        <v>290</v>
-      </c>
-      <c r="N11" s="3"/>
-      <c r="O11" s="42"/>
-      <c r="P11" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q11" s="48" t="s">
-        <v>71</v>
-      </c>
-      <c r="R11" s="33"/>
-      <c r="U11" s="112"/>
-      <c r="V11" s="117"/>
-      <c r="W11" s="117"/>
-    </row>
-    <row r="12" spans="1:23" ht="26" customHeight="1">
+      <c r="M11" s="78" t="s">
+        <v>289</v>
+      </c>
+      <c r="N11" s="5"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="42"/>
+      <c r="Q11" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="R11" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="S11" s="33"/>
+      <c r="V11" s="70"/>
+      <c r="W11" s="75"/>
+      <c r="X11" s="75"/>
+    </row>
+    <row r="12" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -3857,8 +3891,8 @@
         <f t="shared" si="1"/>
         <v>43788</v>
       </c>
-      <c r="C12" s="69"/>
-      <c r="D12" s="72"/>
+      <c r="C12" s="90"/>
+      <c r="D12" s="93"/>
       <c r="E12" s="26">
         <v>6</v>
       </c>
@@ -3879,22 +3913,23 @@
       </c>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
-      <c r="M12" s="120" t="s">
-        <v>290</v>
-      </c>
-      <c r="N12" s="3"/>
-      <c r="O12" s="42"/>
-      <c r="P12" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q12" s="48" t="s">
-        <v>71</v>
-      </c>
-      <c r="U12" s="112"/>
-      <c r="V12" s="117"/>
-      <c r="W12" s="117"/>
-    </row>
-    <row r="13" spans="1:23" ht="26" customHeight="1">
+      <c r="M12" s="78" t="s">
+        <v>289</v>
+      </c>
+      <c r="N12" s="5"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="42"/>
+      <c r="Q12" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="R12" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="V12" s="70"/>
+      <c r="W12" s="75"/>
+      <c r="X12" s="75"/>
+    </row>
+    <row r="13" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -3902,8 +3937,8 @@
         <f t="shared" si="1"/>
         <v>43795</v>
       </c>
-      <c r="C13" s="69"/>
-      <c r="D13" s="72"/>
+      <c r="C13" s="90"/>
+      <c r="D13" s="93"/>
       <c r="E13" s="26">
         <v>7</v>
       </c>
@@ -3924,23 +3959,26 @@
       </c>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
-      <c r="M13" s="120" t="s">
+      <c r="M13" s="78" t="s">
+        <v>288</v>
+      </c>
+      <c r="N13" s="78" t="s">
         <v>289</v>
       </c>
-      <c r="N13" s="3"/>
-      <c r="O13" s="42"/>
-      <c r="P13" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q13" s="48" t="s">
-        <v>72</v>
-      </c>
-      <c r="R13" s="33"/>
-      <c r="U13" s="112"/>
-      <c r="V13" s="117"/>
-      <c r="W13" s="117"/>
-    </row>
-    <row r="14" spans="1:23" ht="26" customHeight="1">
+      <c r="O13" s="3"/>
+      <c r="P13" s="42"/>
+      <c r="Q13" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="R13" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="S13" s="33"/>
+      <c r="V13" s="70"/>
+      <c r="W13" s="75"/>
+      <c r="X13" s="75"/>
+    </row>
+    <row r="14" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -3948,8 +3986,8 @@
         <f t="shared" si="1"/>
         <v>43802</v>
       </c>
-      <c r="C14" s="69"/>
-      <c r="D14" s="72"/>
+      <c r="C14" s="90"/>
+      <c r="D14" s="93"/>
       <c r="E14" s="26">
         <v>7</v>
       </c>
@@ -3970,22 +4008,25 @@
       </c>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
-      <c r="M14" s="120" t="s">
+      <c r="M14" s="78" t="s">
+        <v>288</v>
+      </c>
+      <c r="N14" s="78" t="s">
         <v>289</v>
       </c>
-      <c r="N14" s="3"/>
-      <c r="O14" s="42"/>
-      <c r="P14" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q14" s="48" t="s">
-        <v>72</v>
-      </c>
-      <c r="U14" s="112"/>
-      <c r="V14" s="117"/>
-      <c r="W14" s="117"/>
-    </row>
-    <row r="15" spans="1:23" ht="26" customHeight="1">
+      <c r="O14" s="3"/>
+      <c r="P14" s="42"/>
+      <c r="Q14" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="R14" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="V14" s="70"/>
+      <c r="W14" s="75"/>
+      <c r="X14" s="75"/>
+    </row>
+    <row r="15" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -3993,8 +4034,8 @@
         <f t="shared" si="1"/>
         <v>43809</v>
       </c>
-      <c r="C15" s="69"/>
-      <c r="D15" s="72"/>
+      <c r="C15" s="90"/>
+      <c r="D15" s="93"/>
       <c r="E15" s="26">
         <v>8</v>
       </c>
@@ -4015,25 +4056,28 @@
       </c>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
-      <c r="M15" s="115" t="s">
-        <v>284</v>
-      </c>
-      <c r="N15" s="4" t="s">
+      <c r="M15" s="73" t="s">
+        <v>283</v>
+      </c>
+      <c r="N15" s="78" t="s">
+        <v>288</v>
+      </c>
+      <c r="O15" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="O15" s="42"/>
-      <c r="P15" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q15" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="R15" s="33"/>
-      <c r="U15" s="112"/>
-      <c r="V15" s="117"/>
-      <c r="W15" s="117"/>
-    </row>
-    <row r="16" spans="1:23" ht="26" customHeight="1">
+      <c r="P15" s="42"/>
+      <c r="Q15" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="R15" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="S15" s="33"/>
+      <c r="V15" s="70"/>
+      <c r="W15" s="75"/>
+      <c r="X15" s="75"/>
+    </row>
+    <row r="16" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -4041,8 +4085,8 @@
         <f t="shared" si="1"/>
         <v>43816</v>
       </c>
-      <c r="C16" s="70"/>
-      <c r="D16" s="73"/>
+      <c r="C16" s="91"/>
+      <c r="D16" s="94"/>
       <c r="E16" s="26">
         <v>8</v>
       </c>
@@ -4063,48 +4107,52 @@
       </c>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
-      <c r="M16" s="115" t="s">
-        <v>284</v>
-      </c>
-      <c r="N16" s="3"/>
-      <c r="O16" s="36"/>
-      <c r="P16" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q16" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="R16" s="32"/>
-      <c r="U16" s="112"/>
-      <c r="V16" s="117"/>
-      <c r="W16" s="117"/>
-    </row>
-    <row r="17" spans="1:23" ht="26" customHeight="1">
-      <c r="A17" s="56" t="s">
+      <c r="M16" s="73" t="s">
+        <v>283</v>
+      </c>
+      <c r="N16" s="78" t="s">
+        <v>288</v>
+      </c>
+      <c r="O16" s="3"/>
+      <c r="P16" s="36"/>
+      <c r="Q16" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="R16" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="S16" s="32"/>
+      <c r="V16" s="70"/>
+      <c r="W16" s="75"/>
+      <c r="X16" s="75"/>
+    </row>
+    <row r="17" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="57"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="57"/>
-      <c r="I17" s="57"/>
-      <c r="J17" s="57"/>
-      <c r="K17" s="57"/>
-      <c r="L17" s="57"/>
-      <c r="M17" s="57"/>
-      <c r="N17" s="57"/>
-      <c r="O17" s="57"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="41"/>
-      <c r="R17" s="32"/>
-      <c r="U17" s="112"/>
-      <c r="V17" s="117"/>
-      <c r="W17" s="117"/>
-    </row>
-    <row r="18" spans="1:23" ht="26" customHeight="1">
+      <c r="B17" s="88"/>
+      <c r="C17" s="88"/>
+      <c r="D17" s="88"/>
+      <c r="E17" s="88"/>
+      <c r="F17" s="88"/>
+      <c r="G17" s="88"/>
+      <c r="H17" s="88"/>
+      <c r="I17" s="88"/>
+      <c r="J17" s="88"/>
+      <c r="K17" s="88"/>
+      <c r="L17" s="88"/>
+      <c r="M17" s="88"/>
+      <c r="N17" s="88"/>
+      <c r="O17" s="88"/>
+      <c r="P17" s="88"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="41"/>
+      <c r="S17" s="32"/>
+      <c r="V17" s="70"/>
+      <c r="W17" s="75"/>
+      <c r="X17" s="75"/>
+    </row>
+    <row r="18" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -4116,7 +4164,7 @@
         <v>2</v>
       </c>
       <c r="D18" s="84" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E18" s="28">
         <v>1</v>
@@ -4138,23 +4186,26 @@
       </c>
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
-      <c r="M18" s="115" t="s">
-        <v>286</v>
-      </c>
-      <c r="N18" s="27"/>
-      <c r="O18" s="43"/>
-      <c r="P18" s="27" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q18" s="49" t="s">
-        <v>74</v>
-      </c>
-      <c r="R18" s="33"/>
-      <c r="U18" s="112"/>
-      <c r="V18" s="117"/>
-      <c r="W18" s="117"/>
-    </row>
-    <row r="19" spans="1:23" ht="26" customHeight="1">
+      <c r="M18" s="73" t="s">
+        <v>285</v>
+      </c>
+      <c r="N18" s="73" t="s">
+        <v>285</v>
+      </c>
+      <c r="O18" s="27"/>
+      <c r="P18" s="43"/>
+      <c r="Q18" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="R18" s="49" t="s">
+        <v>73</v>
+      </c>
+      <c r="S18" s="33"/>
+      <c r="V18" s="70"/>
+      <c r="W18" s="75"/>
+      <c r="X18" s="75"/>
+    </row>
+    <row r="19" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -4184,23 +4235,26 @@
       </c>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
-      <c r="M19" s="115" t="s">
-        <v>286</v>
-      </c>
-      <c r="N19" s="27"/>
-      <c r="O19" s="43"/>
-      <c r="P19" s="27" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q19" s="49" t="s">
-        <v>74</v>
-      </c>
-      <c r="R19" s="33"/>
-      <c r="U19" s="112"/>
-      <c r="V19" s="117"/>
-      <c r="W19" s="117"/>
-    </row>
-    <row r="20" spans="1:23" ht="26" customHeight="1">
+      <c r="M19" s="73" t="s">
+        <v>285</v>
+      </c>
+      <c r="N19" s="73" t="s">
+        <v>285</v>
+      </c>
+      <c r="O19" s="27"/>
+      <c r="P19" s="43"/>
+      <c r="Q19" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="R19" s="49" t="s">
+        <v>73</v>
+      </c>
+      <c r="S19" s="33"/>
+      <c r="V19" s="70"/>
+      <c r="W19" s="75"/>
+      <c r="X19" s="75"/>
+    </row>
+    <row r="20" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -4230,23 +4284,26 @@
       </c>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
-      <c r="M20" s="115" t="s">
-        <v>287</v>
-      </c>
-      <c r="N20" s="3"/>
-      <c r="O20" s="42"/>
-      <c r="P20" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q20" s="49" t="s">
-        <v>75</v>
-      </c>
-      <c r="R20" s="33"/>
-      <c r="U20" s="112"/>
-      <c r="V20" s="117"/>
-      <c r="W20" s="117"/>
-    </row>
-    <row r="21" spans="1:23" ht="26" customHeight="1">
+      <c r="M20" s="73" t="s">
+        <v>286</v>
+      </c>
+      <c r="N20" s="73" t="s">
+        <v>286</v>
+      </c>
+      <c r="O20" s="3"/>
+      <c r="P20" s="42"/>
+      <c r="Q20" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="R20" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="S20" s="33"/>
+      <c r="V20" s="70"/>
+      <c r="W20" s="75"/>
+      <c r="X20" s="75"/>
+    </row>
+    <row r="21" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -4276,23 +4333,26 @@
       </c>
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
-      <c r="M21" s="115" t="s">
-        <v>287</v>
-      </c>
-      <c r="N21" s="3"/>
-      <c r="O21" s="42"/>
-      <c r="P21" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q21" s="49" t="s">
-        <v>75</v>
-      </c>
-      <c r="R21" s="33"/>
-      <c r="U21" s="112"/>
-      <c r="V21" s="117"/>
-      <c r="W21" s="117"/>
-    </row>
-    <row r="22" spans="1:23" ht="26" customHeight="1">
+      <c r="M21" s="73" t="s">
+        <v>286</v>
+      </c>
+      <c r="N21" s="73" t="s">
+        <v>286</v>
+      </c>
+      <c r="O21" s="3"/>
+      <c r="P21" s="42"/>
+      <c r="Q21" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="R21" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="S21" s="33"/>
+      <c r="V21" s="70"/>
+      <c r="W21" s="75"/>
+      <c r="X21" s="75"/>
+    </row>
+    <row r="22" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -4300,11 +4360,11 @@
         <f>B21+7</f>
         <v>43865</v>
       </c>
-      <c r="C22" s="61">
+      <c r="C22" s="100">
         <v>3</v>
       </c>
-      <c r="D22" s="58" t="s">
-        <v>64</v>
+      <c r="D22" s="97" t="s">
+        <v>63</v>
       </c>
       <c r="E22" s="35">
         <v>1</v>
@@ -4326,23 +4386,26 @@
       </c>
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
-      <c r="M22" s="115" t="s">
-        <v>285</v>
-      </c>
-      <c r="N22" s="3"/>
-      <c r="O22" s="42"/>
-      <c r="P22" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q22" s="52" t="s">
-        <v>76</v>
-      </c>
-      <c r="R22" s="32"/>
-      <c r="U22" s="112"/>
-      <c r="V22" s="117"/>
-      <c r="W22" s="117"/>
-    </row>
-    <row r="23" spans="1:23" ht="26" customHeight="1">
+      <c r="M22" s="73" t="s">
+        <v>284</v>
+      </c>
+      <c r="N22" s="73" t="s">
+        <v>284</v>
+      </c>
+      <c r="O22" s="3"/>
+      <c r="P22" s="42"/>
+      <c r="Q22" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="R22" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="S22" s="32"/>
+      <c r="V22" s="70"/>
+      <c r="W22" s="75"/>
+      <c r="X22" s="75"/>
+    </row>
+    <row r="23" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -4350,8 +4413,8 @@
         <f>B22+7</f>
         <v>43872</v>
       </c>
-      <c r="C23" s="62"/>
-      <c r="D23" s="59"/>
+      <c r="C23" s="101"/>
+      <c r="D23" s="98"/>
       <c r="E23" s="35">
         <v>2</v>
       </c>
@@ -4372,22 +4435,25 @@
       </c>
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
-      <c r="M23" s="115" t="s">
-        <v>280</v>
-      </c>
-      <c r="N23" s="4" t="s">
+      <c r="M23" s="73" t="s">
+        <v>279</v>
+      </c>
+      <c r="N23" s="73" t="s">
+        <v>284</v>
+      </c>
+      <c r="O23" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="O23" s="42"/>
-      <c r="P23" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q23" s="52" t="s">
-        <v>76</v>
-      </c>
-      <c r="R23" s="33"/>
-    </row>
-    <row r="24" spans="1:23" ht="26" customHeight="1">
+      <c r="P23" s="42"/>
+      <c r="Q23" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="R23" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="S23" s="33"/>
+    </row>
+    <row r="24" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>19</v>
       </c>
@@ -4395,8 +4461,8 @@
         <f>B23+7</f>
         <v>43879</v>
       </c>
-      <c r="C24" s="63"/>
-      <c r="D24" s="60"/>
+      <c r="C24" s="102"/>
+      <c r="D24" s="99"/>
       <c r="E24" s="34">
         <v>2</v>
       </c>
@@ -4417,43 +4483,47 @@
       </c>
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
-      <c r="M24" s="115" t="s">
-        <v>280</v>
-      </c>
-      <c r="N24" s="27"/>
-      <c r="O24" s="42"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="52" t="s">
-        <v>77</v>
-      </c>
-      <c r="R24" s="33"/>
-    </row>
-    <row r="25" spans="1:23" ht="26" customHeight="1">
-      <c r="A25" s="56" t="s">
+      <c r="M24" s="73" t="s">
+        <v>279</v>
+      </c>
+      <c r="N24" s="73" t="s">
+        <v>279</v>
+      </c>
+      <c r="O24" s="27"/>
+      <c r="P24" s="42"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="S24" s="33"/>
+    </row>
+    <row r="25" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="57"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="57"/>
-      <c r="G25" s="57"/>
-      <c r="H25" s="57"/>
-      <c r="I25" s="57"/>
-      <c r="J25" s="57"/>
-      <c r="K25" s="57"/>
-      <c r="L25" s="57"/>
-      <c r="M25" s="57"/>
-      <c r="N25" s="57"/>
-      <c r="O25" s="57"/>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="50"/>
-      <c r="R25" s="32"/>
-      <c r="U25" s="112"/>
-      <c r="V25" s="117"/>
-      <c r="W25" s="117"/>
-    </row>
-    <row r="26" spans="1:23" ht="26" customHeight="1">
+      <c r="B25" s="88"/>
+      <c r="C25" s="88"/>
+      <c r="D25" s="88"/>
+      <c r="E25" s="88"/>
+      <c r="F25" s="88"/>
+      <c r="G25" s="88"/>
+      <c r="H25" s="88"/>
+      <c r="I25" s="88"/>
+      <c r="J25" s="88"/>
+      <c r="K25" s="88"/>
+      <c r="L25" s="88"/>
+      <c r="M25" s="88"/>
+      <c r="N25" s="88"/>
+      <c r="O25" s="88"/>
+      <c r="P25" s="88"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="50"/>
+      <c r="S25" s="32"/>
+      <c r="V25" s="70"/>
+      <c r="W25" s="75"/>
+      <c r="X25" s="75"/>
+    </row>
+    <row r="26" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>19</v>
       </c>
@@ -4461,11 +4531,11 @@
         <f>B24+21</f>
         <v>43900</v>
       </c>
-      <c r="C26" s="61">
+      <c r="C26" s="100">
         <v>3</v>
       </c>
-      <c r="D26" s="58" t="s">
-        <v>64</v>
+      <c r="D26" s="97" t="s">
+        <v>63</v>
       </c>
       <c r="E26" s="29">
         <v>3</v>
@@ -4487,23 +4557,26 @@
       </c>
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
-      <c r="M26" s="115" t="s">
-        <v>281</v>
-      </c>
-      <c r="N26" s="27"/>
-      <c r="O26" s="42"/>
-      <c r="P26" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q26" s="52" t="s">
-        <v>77</v>
-      </c>
-      <c r="R26" s="32"/>
-      <c r="U26" s="112"/>
-      <c r="V26" s="117"/>
-      <c r="W26" s="117"/>
-    </row>
-    <row r="27" spans="1:23" ht="26" customHeight="1">
+      <c r="M26" s="73" t="s">
+        <v>280</v>
+      </c>
+      <c r="N26" s="73" t="s">
+        <v>280</v>
+      </c>
+      <c r="O26" s="27"/>
+      <c r="P26" s="42"/>
+      <c r="Q26" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="R26" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="S26" s="32"/>
+      <c r="V26" s="70"/>
+      <c r="W26" s="75"/>
+      <c r="X26" s="75"/>
+    </row>
+    <row r="27" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>20</v>
       </c>
@@ -4511,8 +4584,8 @@
         <f t="shared" si="2"/>
         <v>43907</v>
       </c>
-      <c r="C27" s="62"/>
-      <c r="D27" s="59"/>
+      <c r="C27" s="101"/>
+      <c r="D27" s="98"/>
       <c r="E27" s="35">
         <v>3</v>
       </c>
@@ -4533,20 +4606,23 @@
       </c>
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
-      <c r="M27" s="119" t="s">
-        <v>281</v>
-      </c>
-      <c r="O27" s="36"/>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="52" t="s">
-        <v>78</v>
-      </c>
-      <c r="R27" s="33"/>
-      <c r="U27" s="112"/>
-      <c r="V27" s="117"/>
-      <c r="W27" s="117"/>
-    </row>
-    <row r="28" spans="1:23" ht="26" customHeight="1">
+      <c r="M27" s="77" t="s">
+        <v>280</v>
+      </c>
+      <c r="N27" s="73" t="s">
+        <v>280</v>
+      </c>
+      <c r="P27" s="36"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="S27" s="33"/>
+      <c r="V27" s="70"/>
+      <c r="W27" s="75"/>
+      <c r="X27" s="75"/>
+    </row>
+    <row r="28" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>21</v>
       </c>
@@ -4554,8 +4630,8 @@
         <f t="shared" si="2"/>
         <v>43914</v>
       </c>
-      <c r="C28" s="62"/>
-      <c r="D28" s="59"/>
+      <c r="C28" s="101"/>
+      <c r="D28" s="98"/>
       <c r="E28" s="29">
         <v>4</v>
       </c>
@@ -4576,23 +4652,26 @@
       </c>
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
-      <c r="M28" s="115" t="s">
-        <v>282</v>
-      </c>
-      <c r="N28" s="4"/>
-      <c r="O28" s="36"/>
-      <c r="P28" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q28" s="52" t="s">
-        <v>78</v>
-      </c>
-      <c r="R28" s="32"/>
-      <c r="U28" s="112"/>
-      <c r="V28" s="117"/>
-      <c r="W28" s="117"/>
-    </row>
-    <row r="29" spans="1:23" ht="26" customHeight="1">
+      <c r="M28" s="73" t="s">
+        <v>281</v>
+      </c>
+      <c r="N28" s="73" t="s">
+        <v>280</v>
+      </c>
+      <c r="O28" s="4"/>
+      <c r="P28" s="36"/>
+      <c r="Q28" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="R28" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="S28" s="32"/>
+      <c r="V28" s="70"/>
+      <c r="W28" s="75"/>
+      <c r="X28" s="75"/>
+    </row>
+    <row r="29" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>22</v>
       </c>
@@ -4600,8 +4679,8 @@
         <f t="shared" si="2"/>
         <v>43921</v>
       </c>
-      <c r="C29" s="63"/>
-      <c r="D29" s="60"/>
+      <c r="C29" s="102"/>
+      <c r="D29" s="99"/>
       <c r="E29" s="35">
         <v>4</v>
       </c>
@@ -4622,21 +4701,24 @@
       </c>
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
-      <c r="M29" s="115" t="s">
-        <v>282</v>
-      </c>
-      <c r="N29" s="3"/>
-      <c r="O29" s="42"/>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="52" t="s">
-        <v>79</v>
-      </c>
-      <c r="R29" s="33"/>
-      <c r="U29" s="112"/>
-      <c r="V29" s="117"/>
-      <c r="W29" s="117"/>
-    </row>
-    <row r="30" spans="1:23" ht="26" customHeight="1">
+      <c r="M29" s="73" t="s">
+        <v>281</v>
+      </c>
+      <c r="N29" s="73" t="s">
+        <v>281</v>
+      </c>
+      <c r="O29" s="3"/>
+      <c r="P29" s="42"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="S29" s="33"/>
+      <c r="V29" s="70"/>
+      <c r="W29" s="75"/>
+      <c r="X29" s="75"/>
+    </row>
+    <row r="30" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>23</v>
       </c>
@@ -4644,10 +4726,10 @@
         <f t="shared" si="2"/>
         <v>43928</v>
       </c>
-      <c r="C30" s="64">
+      <c r="C30" s="103">
         <v>4</v>
       </c>
-      <c r="D30" s="66" t="s">
+      <c r="D30" s="105" t="s">
         <v>45</v>
       </c>
       <c r="E30" s="30">
@@ -4670,25 +4752,28 @@
       </c>
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
-      <c r="M30" s="115" t="s">
-        <v>276</v>
-      </c>
-      <c r="N30" s="4" t="s">
+      <c r="M30" s="73" t="s">
+        <v>275</v>
+      </c>
+      <c r="N30" s="73" t="s">
+        <v>281</v>
+      </c>
+      <c r="O30" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="O30" s="36"/>
-      <c r="P30" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q30" s="52" t="s">
-        <v>79</v>
-      </c>
-      <c r="R30" s="32"/>
-      <c r="U30" s="112"/>
-      <c r="V30" s="117"/>
-      <c r="W30" s="117"/>
-    </row>
-    <row r="31" spans="1:23" ht="26" customHeight="1">
+      <c r="P30" s="36"/>
+      <c r="Q30" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="R30" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="S30" s="32"/>
+      <c r="V30" s="70"/>
+      <c r="W30" s="75"/>
+      <c r="X30" s="75"/>
+    </row>
+    <row r="31" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>24</v>
       </c>
@@ -4696,8 +4781,8 @@
         <f t="shared" si="2"/>
         <v>43935</v>
       </c>
-      <c r="C31" s="65"/>
-      <c r="D31" s="67"/>
+      <c r="C31" s="104"/>
+      <c r="D31" s="106"/>
       <c r="E31" s="30">
         <v>2</v>
       </c>
@@ -4718,48 +4803,52 @@
       </c>
       <c r="K31" s="39"/>
       <c r="L31" s="39"/>
-      <c r="M31" s="115" t="s">
-        <v>278</v>
-      </c>
-      <c r="N31" s="27"/>
-      <c r="O31" s="43"/>
-      <c r="P31" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q31" s="53" t="s">
-        <v>80</v>
-      </c>
-      <c r="R31" s="32"/>
-      <c r="U31" s="112"/>
-      <c r="V31" s="117"/>
-      <c r="W31" s="117"/>
-    </row>
-    <row r="32" spans="1:23" ht="26" customHeight="1">
-      <c r="A32" s="54" t="s">
+      <c r="M31" s="73" t="s">
+        <v>277</v>
+      </c>
+      <c r="N31" s="73" t="s">
+        <v>277</v>
+      </c>
+      <c r="O31" s="27"/>
+      <c r="P31" s="43"/>
+      <c r="Q31" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="R31" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="S31" s="32"/>
+      <c r="V31" s="70"/>
+      <c r="W31" s="75"/>
+      <c r="X31" s="75"/>
+    </row>
+    <row r="32" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="B32" s="55"/>
-      <c r="C32" s="55"/>
-      <c r="D32" s="55"/>
-      <c r="E32" s="55"/>
-      <c r="F32" s="55"/>
-      <c r="G32" s="55"/>
-      <c r="H32" s="55"/>
-      <c r="I32" s="55"/>
-      <c r="J32" s="55"/>
-      <c r="K32" s="55"/>
-      <c r="L32" s="55"/>
-      <c r="M32" s="55"/>
-      <c r="N32" s="55"/>
-      <c r="O32" s="55"/>
-      <c r="P32" s="47"/>
-      <c r="Q32" s="51"/>
-      <c r="R32" s="32"/>
-      <c r="U32" s="112"/>
-      <c r="V32" s="117"/>
-      <c r="W32" s="117"/>
-    </row>
-    <row r="33" spans="1:23" ht="26" customHeight="1">
+      <c r="B32" s="96"/>
+      <c r="C32" s="96"/>
+      <c r="D32" s="96"/>
+      <c r="E32" s="96"/>
+      <c r="F32" s="96"/>
+      <c r="G32" s="96"/>
+      <c r="H32" s="96"/>
+      <c r="I32" s="96"/>
+      <c r="J32" s="96"/>
+      <c r="K32" s="96"/>
+      <c r="L32" s="96"/>
+      <c r="M32" s="96"/>
+      <c r="N32" s="96"/>
+      <c r="O32" s="96"/>
+      <c r="P32" s="96"/>
+      <c r="Q32" s="47"/>
+      <c r="R32" s="51"/>
+      <c r="S32" s="32"/>
+      <c r="V32" s="70"/>
+      <c r="W32" s="75"/>
+      <c r="X32" s="75"/>
+    </row>
+    <row r="33" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>25</v>
       </c>
@@ -4767,10 +4856,10 @@
         <f>B31+21</f>
         <v>43956</v>
       </c>
-      <c r="C33" s="64">
+      <c r="C33" s="103">
         <v>4</v>
       </c>
-      <c r="D33" s="66" t="s">
+      <c r="D33" s="105" t="s">
         <v>45</v>
       </c>
       <c r="E33" s="30">
@@ -4793,18 +4882,21 @@
       </c>
       <c r="K33" s="38"/>
       <c r="L33" s="38"/>
-      <c r="M33" s="115" t="s">
-        <v>278</v>
-      </c>
-      <c r="N33" s="6"/>
-      <c r="O33" s="44"/>
-      <c r="P33" s="3"/>
-      <c r="Q33" s="53" t="s">
-        <v>80</v>
-      </c>
-      <c r="R33" s="33"/>
-    </row>
-    <row r="34" spans="1:23" ht="26" customHeight="1">
+      <c r="M33" s="73" t="s">
+        <v>277</v>
+      </c>
+      <c r="N33" s="73" t="s">
+        <v>277</v>
+      </c>
+      <c r="O33" s="6"/>
+      <c r="P33" s="44"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="S33" s="33"/>
+    </row>
+    <row r="34" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>26</v>
       </c>
@@ -4812,8 +4904,8 @@
         <f t="shared" si="2"/>
         <v>43963</v>
       </c>
-      <c r="C34" s="75"/>
-      <c r="D34" s="74"/>
+      <c r="C34" s="108"/>
+      <c r="D34" s="107"/>
       <c r="E34" s="30">
         <v>3</v>
       </c>
@@ -4834,20 +4926,23 @@
       </c>
       <c r="K34" s="39"/>
       <c r="L34" s="39"/>
-      <c r="M34" s="118" t="s">
-        <v>279</v>
-      </c>
-      <c r="N34" s="4"/>
-      <c r="O34" s="44"/>
-      <c r="P34" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q34" s="53" t="s">
-        <v>81</v>
-      </c>
-      <c r="R34" s="32"/>
-    </row>
-    <row r="35" spans="1:23" ht="26" customHeight="1">
+      <c r="M34" s="76" t="s">
+        <v>278</v>
+      </c>
+      <c r="N34" s="76" t="s">
+        <v>278</v>
+      </c>
+      <c r="O34" s="4"/>
+      <c r="P34" s="44"/>
+      <c r="Q34" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="R34" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="S34" s="32"/>
+    </row>
+    <row r="35" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <v>27</v>
       </c>
@@ -4855,8 +4950,8 @@
         <f t="shared" si="2"/>
         <v>43970</v>
       </c>
-      <c r="C35" s="65"/>
-      <c r="D35" s="67"/>
+      <c r="C35" s="104"/>
+      <c r="D35" s="106"/>
       <c r="E35" s="30">
         <v>4</v>
       </c>
@@ -4877,17 +4972,20 @@
       </c>
       <c r="K35" s="39"/>
       <c r="L35" s="39"/>
-      <c r="M35" s="119" t="s">
-        <v>277</v>
-      </c>
-      <c r="O35" s="36"/>
-      <c r="P35" s="4"/>
-      <c r="Q35" s="53" t="s">
-        <v>81</v>
-      </c>
-      <c r="R35" s="46"/>
-    </row>
-    <row r="36" spans="1:23" ht="26" customHeight="1">
+      <c r="M35" s="77" t="s">
+        <v>276</v>
+      </c>
+      <c r="N35" s="77" t="s">
+        <v>276</v>
+      </c>
+      <c r="P35" s="36"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="S35" s="46"/>
+    </row>
+    <row r="36" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>28</v>
       </c>
@@ -4895,10 +4993,10 @@
         <f t="shared" si="2"/>
         <v>43977</v>
       </c>
-      <c r="C36" s="78">
+      <c r="C36" s="111">
         <v>5</v>
       </c>
-      <c r="D36" s="76" t="s">
+      <c r="D36" s="109" t="s">
         <v>51</v>
       </c>
       <c r="E36" s="31">
@@ -4918,18 +5016,19 @@
       <c r="K36" s="39"/>
       <c r="L36" s="39"/>
       <c r="M36" s="39"/>
-      <c r="N36" s="7"/>
-      <c r="O36" s="45"/>
-      <c r="P36" s="7"/>
-      <c r="Q36" s="53" t="s">
-        <v>81</v>
-      </c>
-      <c r="R36" s="33"/>
-      <c r="U36" s="112"/>
-      <c r="V36" s="117"/>
-      <c r="W36" s="117"/>
-    </row>
-    <row r="37" spans="1:23" ht="26" customHeight="1">
+      <c r="N36" s="39"/>
+      <c r="O36" s="7"/>
+      <c r="P36" s="45"/>
+      <c r="Q36" s="7"/>
+      <c r="R36" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="S36" s="33"/>
+      <c r="V36" s="70"/>
+      <c r="W36" s="75"/>
+      <c r="X36" s="75"/>
+    </row>
+    <row r="37" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
         <v>29</v>
       </c>
@@ -4937,8 +5036,8 @@
         <f t="shared" si="2"/>
         <v>43984</v>
       </c>
-      <c r="C37" s="79"/>
-      <c r="D37" s="77"/>
+      <c r="C37" s="112"/>
+      <c r="D37" s="110"/>
       <c r="E37" s="31">
         <v>1</v>
       </c>
@@ -4956,20 +5055,21 @@
       <c r="K37" s="39"/>
       <c r="L37" s="39"/>
       <c r="M37" s="39"/>
-      <c r="N37" s="4" t="s">
+      <c r="N37" s="39"/>
+      <c r="O37" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="O37" s="36"/>
-      <c r="P37" s="4"/>
-      <c r="Q37" s="53" t="s">
-        <v>81</v>
-      </c>
-      <c r="R37" s="46"/>
-      <c r="U37" s="112"/>
-      <c r="V37" s="117"/>
-      <c r="W37" s="117"/>
-    </row>
-    <row r="38" spans="1:23" ht="26" customHeight="1">
+      <c r="P37" s="36"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="S37" s="46"/>
+      <c r="V37" s="70"/>
+      <c r="W37" s="75"/>
+      <c r="X37" s="75"/>
+    </row>
+    <row r="38" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>30</v>
       </c>
@@ -4977,8 +5077,8 @@
         <f t="shared" si="2"/>
         <v>43991</v>
       </c>
-      <c r="C38" s="79"/>
-      <c r="D38" s="77"/>
+      <c r="C38" s="112"/>
+      <c r="D38" s="110"/>
       <c r="E38" s="31">
         <v>1</v>
       </c>
@@ -4996,18 +5096,19 @@
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
       <c r="M38" s="5"/>
-      <c r="N38" s="4"/>
-      <c r="O38" s="36"/>
-      <c r="P38" s="4"/>
-      <c r="Q38" s="53" t="s">
-        <v>81</v>
-      </c>
-      <c r="R38" s="33"/>
-      <c r="U38" s="112"/>
-      <c r="V38" s="117"/>
-      <c r="W38" s="117"/>
-    </row>
-    <row r="39" spans="1:23" ht="26" customHeight="1">
+      <c r="N38" s="5"/>
+      <c r="O38" s="4"/>
+      <c r="P38" s="36"/>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="S38" s="33"/>
+      <c r="V38" s="70"/>
+      <c r="W38" s="75"/>
+      <c r="X38" s="75"/>
+    </row>
+    <row r="39" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
         <v>31</v>
       </c>
@@ -5015,8 +5116,8 @@
         <f t="shared" si="2"/>
         <v>43998</v>
       </c>
-      <c r="C39" s="79"/>
-      <c r="D39" s="77"/>
+      <c r="C39" s="112"/>
+      <c r="D39" s="110"/>
       <c r="E39" s="31">
         <v>1</v>
       </c>
@@ -5034,18 +5135,19 @@
       <c r="K39" s="5"/>
       <c r="L39" s="5"/>
       <c r="M39" s="5"/>
-      <c r="N39" s="27"/>
-      <c r="O39" s="43"/>
-      <c r="P39" s="27"/>
-      <c r="Q39" s="53" t="s">
-        <v>81</v>
-      </c>
-      <c r="R39" s="46"/>
-      <c r="U39" s="112"/>
-      <c r="V39" s="117"/>
-      <c r="W39" s="117"/>
-    </row>
-    <row r="40" spans="1:23" ht="26" customHeight="1">
+      <c r="N39" s="5"/>
+      <c r="O39" s="27"/>
+      <c r="P39" s="43"/>
+      <c r="Q39" s="27"/>
+      <c r="R39" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="S39" s="46"/>
+      <c r="V39" s="70"/>
+      <c r="W39" s="75"/>
+      <c r="X39" s="75"/>
+    </row>
+    <row r="40" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>32</v>
       </c>
@@ -5053,8 +5155,8 @@
         <f t="shared" si="2"/>
         <v>44005</v>
       </c>
-      <c r="C40" s="80"/>
-      <c r="D40" s="77"/>
+      <c r="C40" s="113"/>
+      <c r="D40" s="110"/>
       <c r="E40" s="31">
         <v>1</v>
       </c>
@@ -5072,112 +5174,106 @@
       <c r="K40" s="40"/>
       <c r="L40" s="40"/>
       <c r="M40" s="40"/>
-      <c r="P40" s="3"/>
-      <c r="Q40" s="53" t="s">
-        <v>81</v>
-      </c>
-      <c r="R40" s="33"/>
-      <c r="U40" s="112"/>
-      <c r="V40" s="117"/>
-      <c r="W40" s="117"/>
-    </row>
-    <row r="41" spans="1:23" ht="26" customHeight="1">
-      <c r="A41" s="54" t="s">
+      <c r="N40" s="40"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="S40" s="33"/>
+      <c r="V40" s="70"/>
+      <c r="W40" s="75"/>
+      <c r="X40" s="75"/>
+    </row>
+    <row r="41" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="B41" s="55"/>
-      <c r="C41" s="55"/>
-      <c r="D41" s="55"/>
-      <c r="E41" s="55"/>
-      <c r="F41" s="55"/>
-      <c r="G41" s="55"/>
-      <c r="H41" s="55"/>
-      <c r="I41" s="55"/>
-      <c r="J41" s="55"/>
-      <c r="K41" s="55"/>
-      <c r="L41" s="55"/>
-      <c r="M41" s="55"/>
-      <c r="N41" s="55"/>
-      <c r="O41" s="55"/>
-      <c r="P41" s="47"/>
-      <c r="Q41" s="51"/>
-      <c r="U41" s="112"/>
-      <c r="V41" s="117"/>
-      <c r="W41" s="117"/>
-    </row>
-    <row r="42" spans="1:23" ht="26" customHeight="1">
-      <c r="U42" s="112"/>
-      <c r="V42" s="117"/>
-      <c r="W42" s="117"/>
-    </row>
-    <row r="43" spans="1:23" ht="26" customHeight="1">
-      <c r="U43" s="112"/>
-      <c r="V43" s="117"/>
-      <c r="W43" s="117"/>
-    </row>
-    <row r="44" spans="1:23" ht="26" customHeight="1">
-      <c r="U44" s="112"/>
-      <c r="V44" s="117"/>
-      <c r="W44" s="117"/>
-    </row>
-    <row r="45" spans="1:23" ht="26" customHeight="1">
-      <c r="U45" s="112"/>
-      <c r="V45" s="117"/>
-      <c r="W45" s="117"/>
-    </row>
-    <row r="46" spans="1:23" ht="26" customHeight="1">
-      <c r="U46" s="112"/>
-      <c r="V46" s="117"/>
-      <c r="W46" s="117"/>
-    </row>
-    <row r="47" spans="1:23" ht="26" customHeight="1">
-      <c r="U47" s="112"/>
-      <c r="V47" s="117"/>
-      <c r="W47" s="117"/>
-    </row>
-    <row r="48" spans="1:23" ht="26" customHeight="1">
-      <c r="U48" s="112"/>
-      <c r="V48" s="117"/>
-      <c r="W48" s="117"/>
-    </row>
-    <row r="49" spans="21:23" ht="26" customHeight="1">
-      <c r="U49" s="112"/>
-      <c r="V49" s="117"/>
-      <c r="W49" s="117"/>
-    </row>
-    <row r="50" spans="21:23" ht="26" customHeight="1">
-      <c r="U50" s="112"/>
-      <c r="V50" s="117"/>
-      <c r="W50" s="117"/>
-    </row>
-    <row r="51" spans="21:23" ht="26" customHeight="1">
-      <c r="U51" s="112"/>
-      <c r="V51" s="117"/>
-      <c r="W51" s="117"/>
-    </row>
-    <row r="52" spans="21:23" ht="26" customHeight="1">
-      <c r="U52" s="112"/>
-      <c r="V52" s="117"/>
-      <c r="W52" s="117"/>
-    </row>
-    <row r="53" spans="21:23" ht="26" customHeight="1">
-      <c r="U53" s="112"/>
-      <c r="V53" s="117"/>
-      <c r="W53" s="117"/>
+      <c r="B41" s="96"/>
+      <c r="C41" s="96"/>
+      <c r="D41" s="96"/>
+      <c r="E41" s="96"/>
+      <c r="F41" s="96"/>
+      <c r="G41" s="96"/>
+      <c r="H41" s="96"/>
+      <c r="I41" s="96"/>
+      <c r="J41" s="96"/>
+      <c r="K41" s="96"/>
+      <c r="L41" s="96"/>
+      <c r="M41" s="96"/>
+      <c r="N41" s="96"/>
+      <c r="O41" s="96"/>
+      <c r="P41" s="96"/>
+      <c r="Q41" s="47"/>
+      <c r="R41" s="51"/>
+      <c r="V41" s="70"/>
+      <c r="W41" s="75"/>
+      <c r="X41" s="75"/>
+    </row>
+    <row r="42" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V42" s="70"/>
+      <c r="W42" s="75"/>
+      <c r="X42" s="75"/>
+    </row>
+    <row r="43" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V43" s="70"/>
+      <c r="W43" s="75"/>
+      <c r="X43" s="75"/>
+    </row>
+    <row r="44" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V44" s="70"/>
+      <c r="W44" s="75"/>
+      <c r="X44" s="75"/>
+    </row>
+    <row r="45" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V45" s="70"/>
+      <c r="W45" s="75"/>
+      <c r="X45" s="75"/>
+    </row>
+    <row r="46" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V46" s="70"/>
+      <c r="W46" s="75"/>
+      <c r="X46" s="75"/>
+    </row>
+    <row r="47" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V47" s="70"/>
+      <c r="W47" s="75"/>
+      <c r="X47" s="75"/>
+    </row>
+    <row r="48" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V48" s="70"/>
+      <c r="W48" s="75"/>
+      <c r="X48" s="75"/>
+    </row>
+    <row r="49" spans="22:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V49" s="70"/>
+      <c r="W49" s="75"/>
+      <c r="X49" s="75"/>
+    </row>
+    <row r="50" spans="22:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V50" s="70"/>
+      <c r="W50" s="75"/>
+      <c r="X50" s="75"/>
+    </row>
+    <row r="51" spans="22:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V51" s="70"/>
+      <c r="W51" s="75"/>
+      <c r="X51" s="75"/>
+    </row>
+    <row r="52" spans="22:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V52" s="70"/>
+      <c r="W52" s="75"/>
+      <c r="X52" s="75"/>
+    </row>
+    <row r="53" spans="22:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V53" s="70"/>
+      <c r="W53" s="75"/>
+      <c r="X53" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="D18:D21"/>
-    <mergeCell ref="A9:O9"/>
-    <mergeCell ref="A17:O17"/>
-    <mergeCell ref="C2:C8"/>
-    <mergeCell ref="D2:D8"/>
-    <mergeCell ref="D10:D16"/>
-    <mergeCell ref="C10:C16"/>
-    <mergeCell ref="A41:O41"/>
-    <mergeCell ref="A32:O32"/>
-    <mergeCell ref="A25:O25"/>
+    <mergeCell ref="A41:P41"/>
+    <mergeCell ref="A32:P32"/>
+    <mergeCell ref="A25:P25"/>
     <mergeCell ref="D22:D24"/>
     <mergeCell ref="C22:C24"/>
     <mergeCell ref="D26:D29"/>
@@ -5188,6 +5284,14 @@
     <mergeCell ref="C33:C35"/>
     <mergeCell ref="D36:D40"/>
     <mergeCell ref="C36:C40"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="A9:P9"/>
+    <mergeCell ref="A17:P17"/>
+    <mergeCell ref="C2:C8"/>
+    <mergeCell ref="D2:D8"/>
+    <mergeCell ref="D10:D16"/>
+    <mergeCell ref="C10:C16"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5196,22 +5300,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" style="2"/>
-    <col min="2" max="2" width="70.453125" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="10.81640625" style="2"/>
+    <col min="1" max="1" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="70.5" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="21" customHeight="1"/>
-    <row r="2" spans="1:2" ht="31">
+    <row r="1" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="2" spans="1:2" ht="32" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
         <v>4</v>
       </c>
@@ -5219,23 +5323,23 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="38" customHeight="1">
+    <row r="3" spans="1:2" ht="38" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="38" customHeight="1">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="38" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="22" t="s">
         <v>56</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="38" customHeight="1">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="38" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="23" t="s">
         <v>57</v>
       </c>
@@ -5243,7 +5347,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="38" customHeight="1">
+    <row r="6" spans="1:2" ht="38" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="24" t="s">
         <v>6</v>
       </c>
@@ -5251,12 +5355,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="38" customHeight="1">
+    <row r="7" spans="1:2" ht="38" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="25" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -5267,632 +5371,632 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2CABC09-258C-4DA4-863D-66ACD0950ECB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C66"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <selection activeCell="C20" sqref="C20:C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.90625" style="112"/>
-    <col min="2" max="2" width="75.81640625" style="113" customWidth="1"/>
-    <col min="3" max="3" width="100.54296875" style="113" customWidth="1"/>
-    <col min="4" max="16384" width="10.90625" style="112"/>
+    <col min="1" max="1" width="10.83203125" style="70"/>
+    <col min="2" max="2" width="75.83203125" style="71" customWidth="1"/>
+    <col min="3" max="3" width="100.5" style="71" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="70"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="112" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" s="70" t="s">
+        <v>251</v>
+      </c>
+      <c r="B1" s="71" t="s">
         <v>252</v>
       </c>
-      <c r="B1" s="113" t="s">
+      <c r="C1" s="71" t="s">
         <v>253</v>
       </c>
-      <c r="C1" s="113" t="s">
+    </row>
+    <row r="2" spans="1:3" ht="24" x14ac:dyDescent="0.15">
+      <c r="A2" s="70" t="s">
+        <v>191</v>
+      </c>
+      <c r="B2" s="71" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="71" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="24">
-      <c r="A2" s="112" t="s">
+    <row r="3" spans="1:3" ht="36" x14ac:dyDescent="0.15">
+      <c r="A3" s="70" t="s">
+        <v>212</v>
+      </c>
+      <c r="B3" s="71" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="71" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="24" x14ac:dyDescent="0.15">
+      <c r="A4" s="70" t="s">
+        <v>213</v>
+      </c>
+      <c r="B4" s="71" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="71" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="70" t="s">
+        <v>214</v>
+      </c>
+      <c r="B5" s="71" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="71" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="70" t="s">
         <v>192</v>
       </c>
-      <c r="B2" s="113" t="s">
-        <v>84</v>
-      </c>
-      <c r="C2" s="113" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="36">
-      <c r="A3" s="112" t="s">
-        <v>213</v>
-      </c>
-      <c r="B3" s="113" t="s">
-        <v>85</v>
-      </c>
-      <c r="C3" s="113" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="24">
-      <c r="A4" s="112" t="s">
-        <v>214</v>
-      </c>
-      <c r="B4" s="113" t="s">
-        <v>86</v>
-      </c>
-      <c r="C4" s="113" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="112" t="s">
+      <c r="B7" s="71" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="71" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="70" t="s">
+        <v>193</v>
+      </c>
+      <c r="B8" s="71" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="71" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="70" t="s">
         <v>215</v>
       </c>
-      <c r="B5" s="113" t="s">
-        <v>87</v>
-      </c>
-      <c r="C5" s="113" t="s">
+      <c r="B9" s="71" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" s="71" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="70" t="s">
+        <v>216</v>
+      </c>
+      <c r="B10" s="71" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" s="71" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" s="70" t="s">
+        <v>194</v>
+      </c>
+      <c r="B13" s="71" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" s="71" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" s="70" t="s">
+        <v>195</v>
+      </c>
+      <c r="B14" s="71" t="s">
+        <v>100</v>
+      </c>
+      <c r="C14" s="71" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" s="70" t="s">
+        <v>196</v>
+      </c>
+      <c r="B15" s="71" t="s">
+        <v>102</v>
+      </c>
+      <c r="C15" s="71" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" s="70" t="s">
+        <v>206</v>
+      </c>
+      <c r="B16" s="71" t="s">
+        <v>104</v>
+      </c>
+      <c r="C16" s="71" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="70" t="s">
+        <v>208</v>
+      </c>
+      <c r="B17" s="71" t="s">
+        <v>106</v>
+      </c>
+      <c r="C17" s="71" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" s="70" t="s">
+        <v>197</v>
+      </c>
+      <c r="B18" s="71" t="s">
+        <v>108</v>
+      </c>
+      <c r="C18" s="71" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" s="70" t="s">
+        <v>198</v>
+      </c>
+      <c r="B19" s="71" t="s">
+        <v>110</v>
+      </c>
+      <c r="C19" s="71" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" s="70" t="s">
+        <v>199</v>
+      </c>
+      <c r="B20" s="71" t="s">
+        <v>112</v>
+      </c>
+      <c r="C20" s="71" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" s="70" t="s">
+        <v>200</v>
+      </c>
+      <c r="B21" s="71" t="s">
+        <v>113</v>
+      </c>
+      <c r="C21" s="71" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="24" x14ac:dyDescent="0.15">
+      <c r="A22" s="70" t="s">
+        <v>201</v>
+      </c>
+      <c r="B22" s="71" t="s">
+        <v>202</v>
+      </c>
+      <c r="C22" s="71" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="112" t="s">
-        <v>193</v>
-      </c>
-      <c r="B7" s="113" t="s">
-        <v>89</v>
-      </c>
-      <c r="C7" s="113" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="24">
-      <c r="A8" s="112" t="s">
-        <v>194</v>
-      </c>
-      <c r="B8" s="113" t="s">
-        <v>91</v>
-      </c>
-      <c r="C8" s="113" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="112" t="s">
-        <v>216</v>
-      </c>
-      <c r="B9" s="113" t="s">
-        <v>93</v>
-      </c>
-      <c r="C9" s="113" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="112" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A23" s="70" t="s">
+        <v>203</v>
+      </c>
+      <c r="B23" s="71" t="s">
+        <v>115</v>
+      </c>
+      <c r="C23" s="71" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A24" s="70" t="s">
+        <v>204</v>
+      </c>
+      <c r="B24" s="71" t="s">
+        <v>205</v>
+      </c>
+      <c r="C24" s="71" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A27" s="79" t="s">
+        <v>207</v>
+      </c>
+      <c r="B27" s="80" t="s">
+        <v>119</v>
+      </c>
+      <c r="C27" s="80" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A28" s="79" t="s">
+        <v>209</v>
+      </c>
+      <c r="B28" s="80" t="s">
+        <v>121</v>
+      </c>
+      <c r="C28" s="80" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A29" s="79" t="s">
+        <v>210</v>
+      </c>
+      <c r="B29" s="80" t="s">
+        <v>123</v>
+      </c>
+      <c r="C29" s="80" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A30" s="79" t="s">
+        <v>211</v>
+      </c>
+      <c r="B30" s="80" t="s">
+        <v>125</v>
+      </c>
+      <c r="C30" s="80" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="24" x14ac:dyDescent="0.15">
+      <c r="A31" s="79" t="s">
+        <v>247</v>
+      </c>
+      <c r="B31" s="80" t="s">
+        <v>127</v>
+      </c>
+      <c r="C31" s="80" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A32" s="79" t="s">
+        <v>248</v>
+      </c>
+      <c r="B32" s="80" t="s">
+        <v>129</v>
+      </c>
+      <c r="C32" s="80" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A33" s="70" t="s">
         <v>217</v>
       </c>
-      <c r="B10" s="113" t="s">
-        <v>95</v>
-      </c>
-      <c r="C10" s="113" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="112" t="s">
-        <v>195</v>
-      </c>
-      <c r="B13" s="113" t="s">
-        <v>99</v>
-      </c>
-      <c r="C13" s="113" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="112" t="s">
-        <v>196</v>
-      </c>
-      <c r="B14" s="113" t="s">
-        <v>101</v>
-      </c>
-      <c r="C14" s="113" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="112" t="s">
-        <v>197</v>
-      </c>
-      <c r="B15" s="113" t="s">
-        <v>103</v>
-      </c>
-      <c r="C15" s="113" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="112" t="s">
-        <v>207</v>
-      </c>
-      <c r="B16" s="113" t="s">
-        <v>105</v>
-      </c>
-      <c r="C16" s="113" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="112" t="s">
-        <v>209</v>
-      </c>
-      <c r="B17" s="113" t="s">
-        <v>107</v>
-      </c>
-      <c r="C17" s="113" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="112" t="s">
-        <v>198</v>
-      </c>
-      <c r="B18" s="113" t="s">
-        <v>109</v>
-      </c>
-      <c r="C18" s="113" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="112" t="s">
-        <v>199</v>
-      </c>
-      <c r="B19" s="113" t="s">
-        <v>111</v>
-      </c>
-      <c r="C19" s="113" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="112" t="s">
-        <v>200</v>
-      </c>
-      <c r="B20" s="113" t="s">
-        <v>113</v>
-      </c>
-      <c r="C20" s="113" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="24">
-      <c r="A21" s="112" t="s">
-        <v>201</v>
-      </c>
-      <c r="B21" s="113" t="s">
-        <v>114</v>
-      </c>
-      <c r="C21" s="113" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="24">
-      <c r="A22" s="112" t="s">
-        <v>202</v>
-      </c>
-      <c r="B22" s="113" t="s">
-        <v>203</v>
-      </c>
-      <c r="C22" s="113" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="112" t="s">
-        <v>204</v>
-      </c>
-      <c r="B23" s="113" t="s">
-        <v>116</v>
-      </c>
-      <c r="C23" s="113" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="24">
-      <c r="A24" s="112" t="s">
-        <v>205</v>
-      </c>
-      <c r="B24" s="113" t="s">
-        <v>206</v>
-      </c>
-      <c r="C24" s="113" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="121" t="s">
-        <v>208</v>
-      </c>
-      <c r="B27" s="122" t="s">
-        <v>120</v>
-      </c>
-      <c r="C27" s="122" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="121" t="s">
-        <v>210</v>
-      </c>
-      <c r="B28" s="122" t="s">
-        <v>122</v>
-      </c>
-      <c r="C28" s="122" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="121" t="s">
-        <v>211</v>
-      </c>
-      <c r="B29" s="122" t="s">
-        <v>124</v>
-      </c>
-      <c r="C29" s="122" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="121" t="s">
-        <v>212</v>
-      </c>
-      <c r="B30" s="122" t="s">
-        <v>126</v>
-      </c>
-      <c r="C30" s="122" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="24">
-      <c r="A31" s="121" t="s">
-        <v>248</v>
-      </c>
-      <c r="B31" s="122" t="s">
-        <v>128</v>
-      </c>
-      <c r="C31" s="122" t="s">
+      <c r="B33" s="71" t="s">
+        <v>130</v>
+      </c>
+      <c r="C33" s="71" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A34" s="70" t="s">
+        <v>219</v>
+      </c>
+      <c r="B34" s="71" t="s">
+        <v>132</v>
+      </c>
+      <c r="C34" s="71" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="121" t="s">
+    <row r="35" spans="1:3" ht="24" x14ac:dyDescent="0.15">
+      <c r="A35" s="70" t="s">
+        <v>220</v>
+      </c>
+      <c r="B35" s="71" t="s">
+        <v>134</v>
+      </c>
+      <c r="C35" s="71" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A36" s="70" t="s">
+        <v>221</v>
+      </c>
+      <c r="B36" s="71" t="s">
+        <v>136</v>
+      </c>
+      <c r="C36" s="71" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="24" x14ac:dyDescent="0.15">
+      <c r="A37" s="70" t="s">
+        <v>222</v>
+      </c>
+      <c r="B37" s="71" t="s">
+        <v>138</v>
+      </c>
+      <c r="C37" s="71" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="36" x14ac:dyDescent="0.15">
+      <c r="A38" s="70" t="s">
         <v>249</v>
       </c>
-      <c r="B32" s="122" t="s">
-        <v>130</v>
-      </c>
-      <c r="C32" s="122" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="112" t="s">
+      <c r="B38" s="71" t="s">
         <v>218</v>
       </c>
-      <c r="B33" s="113" t="s">
-        <v>131</v>
-      </c>
-      <c r="C33" s="113" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="112" t="s">
-        <v>220</v>
-      </c>
-      <c r="B34" s="113" t="s">
-        <v>133</v>
-      </c>
-      <c r="C34" s="113" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="24">
-      <c r="A35" s="112" t="s">
-        <v>221</v>
-      </c>
-      <c r="B35" s="113" t="s">
-        <v>135</v>
-      </c>
-      <c r="C35" s="113" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="112" t="s">
-        <v>222</v>
-      </c>
-      <c r="B36" s="113" t="s">
-        <v>137</v>
-      </c>
-      <c r="C36" s="113" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="24">
-      <c r="A37" s="112" t="s">
+      <c r="C38" s="71" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="24" x14ac:dyDescent="0.15">
+      <c r="A39" s="70" t="s">
+        <v>250</v>
+      </c>
+      <c r="B39" s="71" t="s">
+        <v>142</v>
+      </c>
+      <c r="C39" s="71" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="24" x14ac:dyDescent="0.15">
+      <c r="A42" s="70" t="s">
         <v>223</v>
       </c>
-      <c r="B37" s="113" t="s">
-        <v>139</v>
-      </c>
-      <c r="C37" s="113" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="36">
-      <c r="A38" s="112" t="s">
-        <v>250</v>
-      </c>
-      <c r="B38" s="113" t="s">
-        <v>219</v>
-      </c>
-      <c r="C38" s="113" t="s">
+      <c r="B42" s="71" t="s">
+        <v>146</v>
+      </c>
+      <c r="C42" s="71" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="24">
-      <c r="A39" s="112" t="s">
-        <v>251</v>
-      </c>
-      <c r="B39" s="113" t="s">
-        <v>143</v>
-      </c>
-      <c r="C39" s="113" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="24">
-      <c r="A42" s="112" t="s">
+    <row r="43" spans="1:3" ht="36" x14ac:dyDescent="0.15">
+      <c r="A43" s="70" t="s">
         <v>224</v>
       </c>
-      <c r="B42" s="113" t="s">
-        <v>147</v>
-      </c>
-      <c r="C42" s="113" t="s">
+      <c r="B43" s="71" t="s">
+        <v>148</v>
+      </c>
+      <c r="C43" s="71" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="24" x14ac:dyDescent="0.15">
+      <c r="A44" s="70" t="s">
+        <v>225</v>
+      </c>
+      <c r="B44" s="71" t="s">
+        <v>150</v>
+      </c>
+      <c r="C44" s="71" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="36">
-      <c r="A43" s="112" t="s">
-        <v>225</v>
-      </c>
-      <c r="B43" s="113" t="s">
-        <v>149</v>
-      </c>
-      <c r="C43" s="113" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="24">
-      <c r="A44" s="112" t="s">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A45" s="70" t="s">
         <v>226</v>
       </c>
-      <c r="B44" s="113" t="s">
-        <v>151</v>
-      </c>
-      <c r="C44" s="113" t="s">
+      <c r="B45" s="71" t="s">
+        <v>152</v>
+      </c>
+      <c r="C45" s="71" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="112" t="s">
+    <row r="46" spans="1:3" ht="24" x14ac:dyDescent="0.15">
+      <c r="A46" s="70" t="s">
         <v>227</v>
       </c>
-      <c r="B45" s="113" t="s">
-        <v>153</v>
-      </c>
-      <c r="C45" s="113" t="s">
+      <c r="B46" s="71" t="s">
+        <v>154</v>
+      </c>
+      <c r="C46" s="71" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A47" s="70" t="s">
+        <v>228</v>
+      </c>
+      <c r="B47" s="71" t="s">
+        <v>155</v>
+      </c>
+      <c r="C47" s="71" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="24">
-      <c r="A46" s="112" t="s">
-        <v>228</v>
-      </c>
-      <c r="B46" s="113" t="s">
-        <v>155</v>
-      </c>
-      <c r="C46" s="113" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="24">
-      <c r="A47" s="112" t="s">
+    <row r="48" spans="1:3" ht="24" x14ac:dyDescent="0.15">
+      <c r="A48" s="70" t="s">
         <v>229</v>
       </c>
-      <c r="B47" s="113" t="s">
-        <v>156</v>
-      </c>
-      <c r="C47" s="113" t="s">
+      <c r="B48" s="71" t="s">
+        <v>157</v>
+      </c>
+      <c r="C48" s="71" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="24">
-      <c r="A48" s="112" t="s">
+    <row r="49" spans="1:3" ht="24" x14ac:dyDescent="0.15">
+      <c r="A49" s="70" t="s">
         <v>230</v>
       </c>
-      <c r="B48" s="113" t="s">
-        <v>158</v>
-      </c>
-      <c r="C48" s="113" t="s">
+      <c r="B49" s="71" t="s">
+        <v>159</v>
+      </c>
+      <c r="C49" s="71" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="24">
-      <c r="A49" s="112" t="s">
+    <row r="50" spans="1:3" ht="24" x14ac:dyDescent="0.15">
+      <c r="A50" s="70" t="s">
         <v>231</v>
       </c>
-      <c r="B49" s="113" t="s">
-        <v>160</v>
-      </c>
-      <c r="C49" s="113" t="s">
+      <c r="B50" s="71" t="s">
+        <v>161</v>
+      </c>
+      <c r="C50" s="71" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="24">
-      <c r="A50" s="112" t="s">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A53" s="70" t="s">
         <v>232</v>
       </c>
-      <c r="B50" s="113" t="s">
-        <v>162</v>
-      </c>
-      <c r="C50" s="113" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="112" t="s">
+      <c r="B53" s="71" t="s">
+        <v>165</v>
+      </c>
+      <c r="C53" s="71" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A54" s="70" t="s">
         <v>233</v>
       </c>
-      <c r="B53" s="113" t="s">
-        <v>166</v>
-      </c>
-      <c r="C53" s="113" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="112" t="s">
+      <c r="B54" s="71" t="s">
+        <v>167</v>
+      </c>
+      <c r="C54" s="71" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A55" s="70" t="s">
         <v>234</v>
       </c>
-      <c r="B54" s="113" t="s">
-        <v>168</v>
-      </c>
-      <c r="C54" s="113" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="112" t="s">
+      <c r="B55" s="71" t="s">
+        <v>169</v>
+      </c>
+      <c r="C55" s="71" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A56" s="70" t="s">
         <v>235</v>
       </c>
-      <c r="B55" s="113" t="s">
-        <v>170</v>
-      </c>
-      <c r="C55" s="113" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="112" t="s">
+      <c r="B56" s="71" t="s">
+        <v>171</v>
+      </c>
+      <c r="C56" s="71" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="24" x14ac:dyDescent="0.15">
+      <c r="A57" s="70" t="s">
         <v>236</v>
       </c>
-      <c r="B56" s="113" t="s">
-        <v>172</v>
-      </c>
-      <c r="C56" s="113" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="24">
-      <c r="A57" s="112" t="s">
+      <c r="B57" s="71" t="s">
+        <v>173</v>
+      </c>
+      <c r="C57" s="71" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A58" s="70" t="s">
         <v>237</v>
       </c>
-      <c r="B57" s="113" t="s">
+      <c r="B58" s="71" t="s">
         <v>174</v>
       </c>
-      <c r="C57" s="113" t="s">
+      <c r="C58" s="71" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="112" t="s">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A59" s="70" t="s">
+        <v>240</v>
+      </c>
+      <c r="B59" s="71" t="s">
         <v>238</v>
       </c>
-      <c r="B58" s="113" t="s">
-        <v>175</v>
-      </c>
-      <c r="C58" s="113" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="112" t="s">
+      <c r="C59" s="71" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="24" x14ac:dyDescent="0.15">
+      <c r="A60" s="70" t="s">
         <v>241</v>
       </c>
-      <c r="B59" s="113" t="s">
+      <c r="B60" s="71" t="s">
         <v>239</v>
       </c>
-      <c r="C59" s="113" t="s">
+      <c r="C60" s="71" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="24">
-      <c r="A60" s="112" t="s">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A61" s="70" t="s">
         <v>242</v>
       </c>
-      <c r="B60" s="113" t="s">
-        <v>240</v>
-      </c>
-      <c r="C60" s="113" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="112" t="s">
+      <c r="B61" s="71" t="s">
+        <v>178</v>
+      </c>
+      <c r="C61" s="71" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A63" s="70" t="s">
         <v>243</v>
       </c>
-      <c r="B61" s="113" t="s">
-        <v>179</v>
-      </c>
-      <c r="C61" s="113" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="112" t="s">
+      <c r="B63" s="71" t="s">
+        <v>182</v>
+      </c>
+      <c r="C63" s="71" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A64" s="70" t="s">
         <v>244</v>
       </c>
-      <c r="B63" s="113" t="s">
-        <v>183</v>
-      </c>
-      <c r="C63" s="113" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" s="112" t="s">
+      <c r="B64" s="71" t="s">
+        <v>184</v>
+      </c>
+      <c r="C64" s="71" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A65" s="70" t="s">
         <v>245</v>
       </c>
-      <c r="B64" s="113" t="s">
-        <v>185</v>
-      </c>
-      <c r="C64" s="113" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" s="112" t="s">
+      <c r="B65" s="71" t="s">
         <v>246</v>
       </c>
-      <c r="B65" s="113" t="s">
-        <v>247</v>
-      </c>
-      <c r="C65" s="113" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="48">
-      <c r="B66" s="113" t="s">
-        <v>188</v>
-      </c>
-      <c r="C66" s="113" t="s">
-        <v>188</v>
+      <c r="C65" s="71" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="48" x14ac:dyDescent="0.15">
+      <c r="B66" s="71" t="s">
+        <v>187</v>
+      </c>
+      <c r="C66" s="71" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -5903,622 +6007,622 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BACDCA5C-5FBA-4813-BA98-6342B0A4D0CB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="47.36328125" customWidth="1"/>
+    <col min="2" max="4" width="47.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.5">
-      <c r="A1" s="87" t="s">
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A1" s="114" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="116"/>
+    </row>
+    <row r="2" spans="1:4" ht="22" x14ac:dyDescent="0.15">
+      <c r="A2" s="54" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="89"/>
-    </row>
-    <row r="2" spans="1:4" ht="21">
-      <c r="A2" s="90" t="s">
+      <c r="B2" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="91" t="s">
+      <c r="C2" s="55"/>
+      <c r="D2" s="56"/>
+    </row>
+    <row r="3" spans="1:4" ht="44" x14ac:dyDescent="0.15">
+      <c r="A3" s="54"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="91"/>
-      <c r="D2" s="92"/>
-    </row>
-    <row r="3" spans="1:4" ht="42">
-      <c r="A3" s="90"/>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91" t="s">
+      <c r="D3" s="56"/>
+    </row>
+    <row r="4" spans="1:4" ht="33" x14ac:dyDescent="0.15">
+      <c r="A4" s="54"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="D3" s="92"/>
-    </row>
-    <row r="4" spans="1:4" ht="31.5">
-      <c r="A4" s="90"/>
-      <c r="B4" s="91"/>
-      <c r="C4" s="91" t="s">
+      <c r="D4" s="56"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="54"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="D4" s="92"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="90"/>
-      <c r="B5" s="91"/>
-      <c r="C5" s="91" t="s">
+      <c r="D5" s="56"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="54"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="56"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="54" t="s">
         <v>87</v>
       </c>
-      <c r="D5" s="92"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="90"/>
-      <c r="B6" s="91"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="92"/>
-    </row>
-    <row r="7" spans="1:4" ht="21">
-      <c r="A7" s="90" t="s">
+      <c r="B7" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="B7" s="91" t="s">
+      <c r="C7" s="55"/>
+      <c r="D7" s="56"/>
+    </row>
+    <row r="8" spans="1:4" ht="22" x14ac:dyDescent="0.15">
+      <c r="A8" s="54" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="91"/>
-      <c r="D7" s="92"/>
-    </row>
-    <row r="8" spans="1:4" ht="21">
-      <c r="A8" s="90" t="s">
+      <c r="B8" s="55" t="s">
         <v>90</v>
       </c>
-      <c r="B8" s="91" t="s">
+      <c r="C8" s="55"/>
+      <c r="D8" s="56" t="s">
         <v>91</v>
       </c>
-      <c r="C8" s="91"/>
-      <c r="D8" s="92" t="s">
+    </row>
+    <row r="9" spans="1:4" ht="33" x14ac:dyDescent="0.15">
+      <c r="A9" s="54"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="55" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="42">
-      <c r="A9" s="90"/>
-      <c r="B9" s="91"/>
-      <c r="C9" s="91" t="s">
+      <c r="D9" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="D9" s="92" t="s">
+    </row>
+    <row r="10" spans="1:4" ht="56" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="57"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="58" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="53" thickBot="1">
-      <c r="A10" s="93"/>
-      <c r="B10" s="94"/>
-      <c r="C10" s="94" t="s">
+      <c r="D10" s="59" t="s">
         <v>95</v>
       </c>
-      <c r="D10" s="95" t="s">
+    </row>
+    <row r="11" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="60"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="61"/>
+    </row>
+    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A12" s="114" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="13" thickBot="1">
-      <c r="A11" s="96"/>
-      <c r="B11" s="97"/>
-      <c r="C11" s="97"/>
-      <c r="D11" s="97"/>
-    </row>
-    <row r="12" spans="1:4" ht="14.5">
-      <c r="A12" s="87" t="s">
+      <c r="B12" s="115"/>
+      <c r="C12" s="115"/>
+      <c r="D12" s="116"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="B12" s="88"/>
-      <c r="C12" s="88"/>
-      <c r="D12" s="89"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="90" t="s">
+      <c r="B13" s="55" t="s">
         <v>98</v>
       </c>
-      <c r="B13" s="91" t="s">
+      <c r="C13" s="55"/>
+      <c r="D13" s="56"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" s="54" t="s">
         <v>99</v>
       </c>
-      <c r="C13" s="91"/>
-      <c r="D13" s="92"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="90" t="s">
+      <c r="B14" s="55" t="s">
         <v>100</v>
       </c>
-      <c r="B14" s="91" t="s">
+      <c r="C14" s="55"/>
+      <c r="D14" s="56"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" s="54" t="s">
         <v>101</v>
       </c>
-      <c r="C14" s="91"/>
-      <c r="D14" s="92"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="90" t="s">
+      <c r="B15" s="55" t="s">
         <v>102</v>
       </c>
-      <c r="B15" s="91" t="s">
+      <c r="C15" s="55"/>
+      <c r="D15" s="56"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" s="54" t="s">
         <v>103</v>
       </c>
-      <c r="C15" s="91"/>
-      <c r="D15" s="92"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="90" t="s">
+      <c r="B16" s="55" t="s">
         <v>104</v>
       </c>
-      <c r="B16" s="91" t="s">
+      <c r="C16" s="55"/>
+      <c r="D16" s="56"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" s="54" t="s">
         <v>105</v>
       </c>
-      <c r="C16" s="91"/>
-      <c r="D16" s="92"/>
-    </row>
-    <row r="17" spans="1:4" ht="21">
-      <c r="A17" s="90" t="s">
+      <c r="B17" s="55" t="s">
         <v>106</v>
       </c>
-      <c r="B17" s="91" t="s">
+      <c r="C17" s="55"/>
+      <c r="D17" s="56"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" s="54" t="s">
         <v>107</v>
       </c>
-      <c r="C17" s="91"/>
-      <c r="D17" s="92"/>
-    </row>
-    <row r="18" spans="1:4" ht="21">
-      <c r="A18" s="90" t="s">
+      <c r="B18" s="55" t="s">
         <v>108</v>
       </c>
-      <c r="B18" s="91" t="s">
+      <c r="C18" s="55"/>
+      <c r="D18" s="56"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19" s="54" t="s">
         <v>109</v>
       </c>
-      <c r="C18" s="91"/>
-      <c r="D18" s="92"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="90" t="s">
+      <c r="B19" s="55" t="s">
         <v>110</v>
       </c>
-      <c r="B19" s="91" t="s">
+      <c r="C19" s="55"/>
+      <c r="D19" s="56"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20" s="54" t="s">
         <v>111</v>
       </c>
-      <c r="C19" s="91"/>
-      <c r="D19" s="92"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="90" t="s">
+      <c r="B20" s="55" t="s">
         <v>112</v>
       </c>
-      <c r="B20" s="91" t="s">
+      <c r="C20" s="55"/>
+      <c r="D20" s="56"/>
+    </row>
+    <row r="21" spans="1:4" ht="22" x14ac:dyDescent="0.15">
+      <c r="A21" s="54"/>
+      <c r="B21" s="55"/>
+      <c r="C21" s="55" t="s">
         <v>113</v>
       </c>
-      <c r="C20" s="91"/>
-      <c r="D20" s="92"/>
-    </row>
-    <row r="21" spans="1:4" ht="21">
-      <c r="A21" s="90"/>
-      <c r="B21" s="91"/>
-      <c r="C21" s="91" t="s">
+      <c r="D21" s="56"/>
+    </row>
+    <row r="22" spans="1:4" ht="22" x14ac:dyDescent="0.15">
+      <c r="A22" s="54"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="55" t="s">
         <v>114</v>
       </c>
-      <c r="D21" s="92"/>
-    </row>
-    <row r="22" spans="1:4" ht="21">
-      <c r="A22" s="90"/>
-      <c r="B22" s="91"/>
-      <c r="C22" s="91" t="s">
+      <c r="D22" s="56"/>
+    </row>
+    <row r="23" spans="1:4" ht="22" x14ac:dyDescent="0.15">
+      <c r="A23" s="54"/>
+      <c r="B23" s="55"/>
+      <c r="C23" s="55" t="s">
         <v>115</v>
       </c>
-      <c r="D22" s="92"/>
-    </row>
-    <row r="23" spans="1:4" ht="21">
-      <c r="A23" s="90"/>
-      <c r="B23" s="91"/>
-      <c r="C23" s="91" t="s">
+      <c r="D23" s="56"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A24" s="54"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="55" t="s">
         <v>116</v>
       </c>
-      <c r="D23" s="92"/>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="90"/>
-      <c r="B24" s="91"/>
-      <c r="C24" s="91" t="s">
+      <c r="D24" s="56"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A25" s="54"/>
+      <c r="B25" s="55"/>
+      <c r="C25" s="55" t="s">
         <v>117</v>
       </c>
-      <c r="D24" s="92"/>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="90"/>
-      <c r="B25" s="91"/>
-      <c r="C25" s="91" t="s">
+      <c r="D25" s="56"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A26" s="54"/>
+      <c r="B26" s="55"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="56"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A27" s="54" t="s">
         <v>118</v>
       </c>
-      <c r="D25" s="92"/>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="90"/>
-      <c r="B26" s="91"/>
-      <c r="C26" s="91"/>
-      <c r="D26" s="92"/>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="90" t="s">
+      <c r="B27" s="55" t="s">
         <v>119</v>
       </c>
-      <c r="B27" s="91" t="s">
+      <c r="C27" s="55"/>
+      <c r="D27" s="56"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A28" s="54" t="s">
         <v>120</v>
       </c>
-      <c r="C27" s="91"/>
-      <c r="D27" s="92"/>
-    </row>
-    <row r="28" spans="1:4" ht="21">
-      <c r="A28" s="90" t="s">
+      <c r="B28" s="55" t="s">
         <v>121</v>
       </c>
-      <c r="B28" s="91" t="s">
+      <c r="C28" s="55"/>
+      <c r="D28" s="56"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A29" s="54" t="s">
         <v>122</v>
       </c>
-      <c r="C28" s="91"/>
-      <c r="D28" s="92"/>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="90" t="s">
+      <c r="B29" s="55" t="s">
         <v>123</v>
       </c>
-      <c r="B29" s="91" t="s">
+      <c r="C29" s="55"/>
+      <c r="D29" s="56"/>
+    </row>
+    <row r="30" spans="1:4" ht="22" x14ac:dyDescent="0.15">
+      <c r="A30" s="54" t="s">
         <v>124</v>
       </c>
-      <c r="C29" s="91"/>
-      <c r="D29" s="92"/>
-    </row>
-    <row r="30" spans="1:4" ht="21">
-      <c r="A30" s="90" t="s">
+      <c r="B30" s="55" t="s">
         <v>125</v>
       </c>
-      <c r="B30" s="91" t="s">
+      <c r="C30" s="55"/>
+      <c r="D30" s="56"/>
+    </row>
+    <row r="31" spans="1:4" ht="22" x14ac:dyDescent="0.15">
+      <c r="A31" s="54" t="s">
         <v>126</v>
       </c>
-      <c r="C30" s="91"/>
-      <c r="D30" s="92"/>
-    </row>
-    <row r="31" spans="1:4" ht="21">
-      <c r="A31" s="90" t="s">
+      <c r="B31" s="55" t="s">
         <v>127</v>
       </c>
-      <c r="B31" s="91" t="s">
+      <c r="C31" s="55"/>
+      <c r="D31" s="56"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A32" s="54" t="s">
         <v>128</v>
       </c>
-      <c r="C31" s="91"/>
-      <c r="D31" s="92"/>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="90" t="s">
+      <c r="B32" s="55" t="s">
         <v>129</v>
       </c>
-      <c r="B32" s="91" t="s">
+      <c r="C32" s="55"/>
+      <c r="D32" s="56"/>
+    </row>
+    <row r="33" spans="1:4" ht="22" x14ac:dyDescent="0.15">
+      <c r="A33" s="54"/>
+      <c r="B33" s="55"/>
+      <c r="C33" s="55" t="s">
         <v>130</v>
       </c>
-      <c r="C32" s="91"/>
-      <c r="D32" s="92"/>
-    </row>
-    <row r="33" spans="1:4" ht="21">
-      <c r="A33" s="90"/>
-      <c r="B33" s="91"/>
-      <c r="C33" s="91" t="s">
+      <c r="D33" s="56" t="s">
         <v>131</v>
       </c>
-      <c r="D33" s="92" t="s">
+    </row>
+    <row r="34" spans="1:4" ht="22" x14ac:dyDescent="0.15">
+      <c r="A34" s="54"/>
+      <c r="B34" s="55"/>
+      <c r="C34" s="55" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" ht="21">
-      <c r="A34" s="90"/>
-      <c r="B34" s="91"/>
-      <c r="C34" s="91" t="s">
+      <c r="D34" s="56" t="s">
         <v>133</v>
       </c>
-      <c r="D34" s="92" t="s">
+    </row>
+    <row r="35" spans="1:4" ht="22" x14ac:dyDescent="0.15">
+      <c r="A35" s="54"/>
+      <c r="B35" s="55"/>
+      <c r="C35" s="55" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" ht="31.5">
-      <c r="A35" s="90"/>
-      <c r="B35" s="91"/>
-      <c r="C35" s="91" t="s">
+      <c r="D35" s="56" t="s">
         <v>135</v>
       </c>
-      <c r="D35" s="92" t="s">
+    </row>
+    <row r="36" spans="1:4" ht="33" x14ac:dyDescent="0.15">
+      <c r="A36" s="54"/>
+      <c r="B36" s="55"/>
+      <c r="C36" s="55" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" ht="31.5">
-      <c r="A36" s="90"/>
-      <c r="B36" s="91"/>
-      <c r="C36" s="91" t="s">
+      <c r="D36" s="56" t="s">
         <v>137</v>
       </c>
-      <c r="D36" s="92" t="s">
+    </row>
+    <row r="37" spans="1:4" ht="22" x14ac:dyDescent="0.15">
+      <c r="A37" s="54"/>
+      <c r="B37" s="55"/>
+      <c r="C37" s="55" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" ht="31.5">
-      <c r="A37" s="90"/>
-      <c r="B37" s="91"/>
-      <c r="C37" s="91" t="s">
+      <c r="D37" s="56" t="s">
         <v>139</v>
       </c>
-      <c r="D37" s="92" t="s">
+    </row>
+    <row r="38" spans="1:4" ht="55" x14ac:dyDescent="0.15">
+      <c r="A38" s="54"/>
+      <c r="B38" s="55"/>
+      <c r="C38" s="55" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" ht="52.5">
-      <c r="A38" s="90"/>
-      <c r="B38" s="91"/>
-      <c r="C38" s="91" t="s">
+      <c r="D38" s="56" t="s">
         <v>141</v>
       </c>
-      <c r="D38" s="92" t="s">
+    </row>
+    <row r="39" spans="1:4" ht="34" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="57"/>
+      <c r="B39" s="58"/>
+      <c r="C39" s="58" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" ht="32" thickBot="1">
-      <c r="A39" s="93"/>
-      <c r="B39" s="94"/>
-      <c r="C39" s="94" t="s">
+      <c r="D39" s="59" t="s">
         <v>143</v>
       </c>
-      <c r="D39" s="95" t="s">
+    </row>
+    <row r="40" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="60"/>
+      <c r="B40" s="61"/>
+      <c r="C40" s="61"/>
+      <c r="D40" s="61"/>
+    </row>
+    <row r="41" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A41" s="117" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" ht="13" thickBot="1">
-      <c r="A40" s="96"/>
-      <c r="B40" s="97"/>
-      <c r="C40" s="97"/>
-      <c r="D40" s="97"/>
-    </row>
-    <row r="41" spans="1:4" ht="14.5">
-      <c r="A41" s="98" t="s">
+      <c r="B41" s="118"/>
+      <c r="C41" s="118"/>
+      <c r="D41" s="119"/>
+    </row>
+    <row r="42" spans="1:4" ht="33" x14ac:dyDescent="0.15">
+      <c r="A42" s="54" t="s">
         <v>145</v>
       </c>
-      <c r="B41" s="99"/>
-      <c r="C41" s="99"/>
-      <c r="D41" s="100"/>
-    </row>
-    <row r="42" spans="1:4" ht="31.5">
-      <c r="A42" s="90" t="s">
+      <c r="B42" s="62" t="s">
         <v>146</v>
       </c>
-      <c r="B42" s="101" t="s">
+      <c r="C42" s="62"/>
+      <c r="D42" s="63"/>
+    </row>
+    <row r="43" spans="1:4" ht="44" x14ac:dyDescent="0.15">
+      <c r="A43" s="54" t="s">
         <v>147</v>
       </c>
-      <c r="C42" s="101"/>
-      <c r="D42" s="102"/>
-    </row>
-    <row r="43" spans="1:4" ht="42">
-      <c r="A43" s="90" t="s">
+      <c r="B43" s="62" t="s">
         <v>148</v>
       </c>
-      <c r="B43" s="101" t="s">
+      <c r="C43" s="62"/>
+      <c r="D43" s="63"/>
+    </row>
+    <row r="44" spans="1:4" ht="33" x14ac:dyDescent="0.15">
+      <c r="A44" s="54" t="s">
         <v>149</v>
       </c>
-      <c r="C43" s="101"/>
-      <c r="D43" s="102"/>
-    </row>
-    <row r="44" spans="1:4" ht="31.5">
-      <c r="A44" s="90" t="s">
+      <c r="B44" s="62" t="s">
         <v>150</v>
       </c>
-      <c r="B44" s="101" t="s">
+      <c r="C44" s="62"/>
+      <c r="D44" s="63"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A45" s="54" t="s">
         <v>151</v>
       </c>
-      <c r="C44" s="101"/>
-      <c r="D44" s="102"/>
-    </row>
-    <row r="45" spans="1:4" ht="21">
-      <c r="A45" s="90" t="s">
+      <c r="B45" s="62" t="s">
         <v>152</v>
       </c>
-      <c r="B45" s="101" t="s">
+      <c r="C45" s="62"/>
+      <c r="D45" s="63"/>
+    </row>
+    <row r="46" spans="1:4" ht="22" x14ac:dyDescent="0.15">
+      <c r="A46" s="54" t="s">
         <v>153</v>
       </c>
-      <c r="C45" s="101"/>
-      <c r="D45" s="102"/>
-    </row>
-    <row r="46" spans="1:4" ht="21">
-      <c r="A46" s="90" t="s">
+      <c r="B46" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="B46" s="101" t="s">
+      <c r="C46" s="62"/>
+      <c r="D46" s="63"/>
+    </row>
+    <row r="47" spans="1:4" ht="44" x14ac:dyDescent="0.15">
+      <c r="A47" s="54"/>
+      <c r="B47" s="62"/>
+      <c r="C47" s="62" t="s">
         <v>155</v>
       </c>
-      <c r="C46" s="101"/>
-      <c r="D46" s="102"/>
-    </row>
-    <row r="47" spans="1:4" ht="42">
-      <c r="A47" s="90"/>
-      <c r="B47" s="101"/>
-      <c r="C47" s="101" t="s">
+      <c r="D47" s="63" t="s">
         <v>156</v>
       </c>
-      <c r="D47" s="102" t="s">
+    </row>
+    <row r="48" spans="1:4" ht="33" x14ac:dyDescent="0.15">
+      <c r="A48" s="54"/>
+      <c r="B48" s="62"/>
+      <c r="C48" s="62" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" ht="31.5">
-      <c r="A48" s="90"/>
-      <c r="B48" s="101"/>
-      <c r="C48" s="101" t="s">
+      <c r="D48" s="63" t="s">
         <v>158</v>
       </c>
-      <c r="D48" s="102" t="s">
+    </row>
+    <row r="49" spans="1:4" ht="44" x14ac:dyDescent="0.15">
+      <c r="A49" s="54"/>
+      <c r="B49" s="62"/>
+      <c r="C49" s="62" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" ht="52.5">
-      <c r="A49" s="90"/>
-      <c r="B49" s="101"/>
-      <c r="C49" s="101" t="s">
+      <c r="D49" s="63" t="s">
         <v>160</v>
       </c>
-      <c r="D49" s="102" t="s">
+    </row>
+    <row r="50" spans="1:4" ht="67" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="57"/>
+      <c r="B50" s="64"/>
+      <c r="C50" s="64" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" ht="74" thickBot="1">
-      <c r="A50" s="93"/>
-      <c r="B50" s="103"/>
-      <c r="C50" s="103" t="s">
+      <c r="D50" s="65" t="s">
         <v>162</v>
       </c>
-      <c r="D50" s="104" t="s">
+    </row>
+    <row r="51" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="60"/>
+      <c r="B51" s="66"/>
+      <c r="C51" s="66"/>
+      <c r="D51" s="66"/>
+    </row>
+    <row r="52" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="120" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" ht="15" thickBot="1">
-      <c r="A51" s="96"/>
-      <c r="B51" s="105"/>
-      <c r="C51" s="105"/>
-      <c r="D51" s="105"/>
-    </row>
-    <row r="52" spans="1:4" ht="15" thickBot="1">
-      <c r="A52" s="106" t="s">
+      <c r="B52" s="121"/>
+      <c r="C52" s="121"/>
+      <c r="D52" s="122"/>
+    </row>
+    <row r="53" spans="1:4" ht="22" x14ac:dyDescent="0.15">
+      <c r="A53" s="67" t="s">
         <v>164</v>
       </c>
-      <c r="B52" s="107"/>
-      <c r="C52" s="107"/>
-      <c r="D52" s="108"/>
-    </row>
-    <row r="53" spans="1:4" ht="21">
-      <c r="A53" s="109" t="s">
+      <c r="B53" s="68" t="s">
         <v>165</v>
       </c>
-      <c r="B53" s="110" t="s">
+      <c r="C53" s="68"/>
+      <c r="D53" s="68"/>
+    </row>
+    <row r="54" spans="1:4" ht="22" x14ac:dyDescent="0.15">
+      <c r="A54" s="69" t="s">
         <v>166</v>
       </c>
-      <c r="C53" s="110"/>
-      <c r="D53" s="110"/>
-    </row>
-    <row r="54" spans="1:4" ht="21">
-      <c r="A54" s="111" t="s">
+      <c r="B54" s="55" t="s">
         <v>167</v>
       </c>
-      <c r="B54" s="91" t="s">
+      <c r="C54" s="55"/>
+      <c r="D54" s="55"/>
+    </row>
+    <row r="55" spans="1:4" ht="22" x14ac:dyDescent="0.15">
+      <c r="A55" s="69" t="s">
         <v>168</v>
       </c>
-      <c r="C54" s="91"/>
-      <c r="D54" s="91"/>
-    </row>
-    <row r="55" spans="1:4" ht="21">
-      <c r="A55" s="111" t="s">
+      <c r="B55" s="55" t="s">
         <v>169</v>
       </c>
-      <c r="B55" s="91" t="s">
+      <c r="C55" s="55"/>
+      <c r="D55" s="55"/>
+    </row>
+    <row r="56" spans="1:4" ht="22" x14ac:dyDescent="0.15">
+      <c r="A56" s="69" t="s">
         <v>170</v>
       </c>
-      <c r="C55" s="91"/>
-      <c r="D55" s="91"/>
-    </row>
-    <row r="56" spans="1:4" ht="21">
-      <c r="A56" s="111" t="s">
+      <c r="B56" s="55" t="s">
         <v>171</v>
       </c>
-      <c r="B56" s="91" t="s">
+      <c r="C56" s="55"/>
+      <c r="D56" s="55"/>
+    </row>
+    <row r="57" spans="1:4" ht="22" x14ac:dyDescent="0.15">
+      <c r="A57" s="69" t="s">
         <v>172</v>
       </c>
-      <c r="C56" s="91"/>
-      <c r="D56" s="91"/>
-    </row>
-    <row r="57" spans="1:4" ht="21">
-      <c r="A57" s="111" t="s">
+      <c r="B57" s="55" t="s">
         <v>173</v>
       </c>
-      <c r="B57" s="91" t="s">
+      <c r="C57" s="55"/>
+      <c r="D57" s="55"/>
+    </row>
+    <row r="58" spans="1:4" ht="22" x14ac:dyDescent="0.15">
+      <c r="A58" s="69"/>
+      <c r="B58" s="55"/>
+      <c r="C58" s="55" t="s">
         <v>174</v>
       </c>
-      <c r="C57" s="91"/>
-      <c r="D57" s="91"/>
-    </row>
-    <row r="58" spans="1:4" ht="21">
-      <c r="A58" s="111"/>
-      <c r="B58" s="91"/>
-      <c r="C58" s="91" t="s">
+      <c r="D58" s="55" t="s">
         <v>175</v>
       </c>
-      <c r="D58" s="91" t="s">
+    </row>
+    <row r="59" spans="1:4" ht="55" x14ac:dyDescent="0.15">
+      <c r="A59" s="69"/>
+      <c r="B59" s="55"/>
+      <c r="C59" s="55" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" ht="52.5">
-      <c r="A59" s="111"/>
-      <c r="B59" s="91"/>
-      <c r="C59" s="91" t="s">
+      <c r="D59" s="55" t="s">
         <v>177</v>
       </c>
-      <c r="D59" s="91" t="s">
+    </row>
+    <row r="60" spans="1:4" ht="23" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="69"/>
+      <c r="B60" s="55"/>
+      <c r="C60" s="55" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" ht="21.5" thickBot="1">
-      <c r="A60" s="111"/>
-      <c r="B60" s="91"/>
-      <c r="C60" s="91" t="s">
+      <c r="D60" s="55" t="s">
         <v>179</v>
       </c>
-      <c r="D60" s="91" t="s">
+    </row>
+    <row r="61" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="60"/>
+      <c r="B61" s="66"/>
+      <c r="C61" s="66"/>
+      <c r="D61" s="66"/>
+    </row>
+    <row r="62" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="120" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" ht="15" thickBot="1">
-      <c r="A61" s="96"/>
-      <c r="B61" s="105"/>
-      <c r="C61" s="105"/>
-      <c r="D61" s="105"/>
-    </row>
-    <row r="62" spans="1:4" ht="15" thickBot="1">
-      <c r="A62" s="106" t="s">
+      <c r="B62" s="121"/>
+      <c r="C62" s="121"/>
+      <c r="D62" s="122"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A63" s="67" t="s">
         <v>181</v>
       </c>
-      <c r="B62" s="107"/>
-      <c r="C62" s="107"/>
-      <c r="D62" s="108"/>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="109" t="s">
+      <c r="B63" s="68" t="s">
         <v>182</v>
       </c>
-      <c r="B63" s="110" t="s">
+      <c r="C63" s="68"/>
+      <c r="D63" s="68"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A64" s="69" t="s">
         <v>183</v>
       </c>
-      <c r="C63" s="110"/>
-      <c r="D63" s="110"/>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" s="111" t="s">
+      <c r="B64" s="55" t="s">
         <v>184</v>
       </c>
-      <c r="B64" s="91" t="s">
+      <c r="C64" s="55"/>
+      <c r="D64" s="55"/>
+    </row>
+    <row r="65" spans="1:4" ht="44" x14ac:dyDescent="0.15">
+      <c r="A65" s="69" t="s">
         <v>185</v>
       </c>
-      <c r="C64" s="91"/>
-      <c r="D64" s="91"/>
-    </row>
-    <row r="65" spans="1:4" ht="42">
-      <c r="A65" s="111" t="s">
+      <c r="B65" s="55" t="s">
         <v>186</v>
       </c>
-      <c r="B65" s="91" t="s">
+      <c r="C65" s="55" t="s">
         <v>187</v>
       </c>
-      <c r="C65" s="91" t="s">
-        <v>188</v>
-      </c>
-      <c r="D65" s="91"/>
+      <c r="D65" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/progression_2019_2020_IPT_MPSI.xlsx
+++ b/progression_2019_2020_IPT_MPSI.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28109"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emiliendurif/Documents/prepa/MPSI/ipt_mpsi_lamartin/Informatique_MPSI/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Informatique_MPSI\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C209D9D7-7605-46B1-A67A-660C67043770}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-32900" yWindow="-1120" windowWidth="31960" windowHeight="20280"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Semanier MPSI IPT 2019-2020" sheetId="12" r:id="rId1"/>
@@ -21,25 +22,25 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Cycles MPSI IPT'!$A$3:$B$7</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Semanier MPSI IPT 2019-2020'!$A$18:$H$20</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="294">
   <si>
     <t>Cours</t>
   </si>
@@ -930,13 +931,16 @@
   </si>
   <si>
     <t>Compétences TP</t>
+  </si>
+  <si>
+    <t>AA.C1; AA.S1; AA.S2; AA.S3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="16">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2229,6 +2233,72 @@
     <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="1" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2247,12 +2317,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2269,63 +2333,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2354,9 +2361,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="654">
@@ -3007,13 +3011,13 @@
     <cellStyle name="Lien hypertexte visité" xfId="651" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="653" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 2 2" xfId="2"/>
-    <cellStyle name="Normal 3" xfId="3"/>
-    <cellStyle name="Normal 4" xfId="4"/>
-    <cellStyle name="Normal 4 2" xfId="5"/>
-    <cellStyle name="Normal 4 3" xfId="6"/>
-    <cellStyle name="Normal 5" xfId="7"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000087020000}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000088020000}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000089020000}"/>
+    <cellStyle name="Normal 4" xfId="4" xr:uid="{00000000-0005-0000-0000-00008A020000}"/>
+    <cellStyle name="Normal 4 2" xfId="5" xr:uid="{00000000-0005-0000-0000-00008B020000}"/>
+    <cellStyle name="Normal 4 3" xfId="6" xr:uid="{00000000-0005-0000-0000-00008C020000}"/>
+    <cellStyle name="Normal 5" xfId="7" xr:uid="{00000000-0005-0000-0000-00008D020000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -3325,38 +3329,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:X53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="26" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="26" customHeight="1"/>
   <cols>
-    <col min="1" max="3" width="10.83203125" style="1"/>
-    <col min="4" max="4" width="20.33203125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="10.81640625" style="1"/>
+    <col min="4" max="4" width="20.36328125" style="1" customWidth="1"/>
     <col min="5" max="5" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="37.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="37.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="37.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="37.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.6328125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="37.36328125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="5.453125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="37.36328125" style="1" customWidth="1"/>
     <col min="11" max="12" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="32.6640625" style="1" customWidth="1"/>
-    <col min="15" max="18" width="10.83203125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="41.33203125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="10.83203125" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.83203125" style="1"/>
-    <col min="22" max="22" width="10.83203125" style="1" customWidth="1"/>
-    <col min="23" max="24" width="58.5" style="74" customWidth="1"/>
-    <col min="25" max="16384" width="10.83203125" style="1"/>
+    <col min="13" max="14" width="32.6328125" style="1" customWidth="1"/>
+    <col min="15" max="18" width="10.81640625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="41.36328125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="10.81640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.81640625" style="1"/>
+    <col min="22" max="22" width="10.81640625" style="1" customWidth="1"/>
+    <col min="23" max="24" width="58.453125" style="74" customWidth="1"/>
+    <col min="25" max="16384" width="10.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:24" ht="26" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>19</v>
       </c>
@@ -3415,23 +3419,23 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" ht="26" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="9">
         <v>43711</v>
       </c>
-      <c r="C2" s="89">
+      <c r="C2" s="109">
         <v>1</v>
       </c>
-      <c r="D2" s="92" t="s">
+      <c r="D2" s="112" t="s">
         <v>274</v>
       </c>
       <c r="E2" s="26">
         <v>1</v>
       </c>
-      <c r="F2" s="123" t="s">
+      <c r="F2" s="81" t="s">
         <v>26</v>
       </c>
       <c r="G2" s="26">
@@ -3449,10 +3453,10 @@
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
       <c r="M2" s="73" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="N2" s="73" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="O2" s="3"/>
       <c r="P2" s="42"/>
@@ -3467,7 +3471,7 @@
       <c r="W2" s="75"/>
       <c r="X2" s="75"/>
     </row>
-    <row r="3" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" ht="26" customHeight="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -3475,8 +3479,8 @@
         <f>B2+7</f>
         <v>43718</v>
       </c>
-      <c r="C3" s="90"/>
-      <c r="D3" s="93"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="113"/>
       <c r="E3" s="26">
         <v>2</v>
       </c>
@@ -3501,7 +3505,7 @@
         <v>290</v>
       </c>
       <c r="N3" s="73" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="O3" s="3"/>
       <c r="P3" s="42"/>
@@ -3516,7 +3520,7 @@
       <c r="W3" s="75"/>
       <c r="X3" s="75"/>
     </row>
-    <row r="4" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" ht="26" customHeight="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -3524,8 +3528,8 @@
         <f>B3+7</f>
         <v>43725</v>
       </c>
-      <c r="C4" s="90"/>
-      <c r="D4" s="93"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="113"/>
       <c r="E4" s="26">
         <v>2</v>
       </c>
@@ -3565,7 +3569,7 @@
       <c r="W4" s="75"/>
       <c r="X4" s="75"/>
     </row>
-    <row r="5" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" ht="26" customHeight="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -3573,8 +3577,8 @@
         <f t="shared" ref="B5:B8" si="0">B4+7</f>
         <v>43732</v>
       </c>
-      <c r="C5" s="90"/>
-      <c r="D5" s="93"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="113"/>
       <c r="E5" s="26">
         <v>3</v>
       </c>
@@ -3614,7 +3618,7 @@
       <c r="W5" s="75"/>
       <c r="X5" s="75"/>
     </row>
-    <row r="6" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" ht="26" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3622,8 +3626,8 @@
         <f>B5+7</f>
         <v>43739</v>
       </c>
-      <c r="C6" s="90"/>
-      <c r="D6" s="93"/>
+      <c r="C6" s="110"/>
+      <c r="D6" s="113"/>
       <c r="E6" s="26">
         <v>4</v>
       </c>
@@ -3661,7 +3665,7 @@
       <c r="W6" s="75"/>
       <c r="X6" s="75"/>
     </row>
-    <row r="7" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:24" ht="26" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3669,8 +3673,8 @@
         <f t="shared" si="0"/>
         <v>43746</v>
       </c>
-      <c r="C7" s="90"/>
-      <c r="D7" s="93"/>
+      <c r="C7" s="110"/>
+      <c r="D7" s="113"/>
       <c r="E7" s="26">
         <v>4</v>
       </c>
@@ -3708,7 +3712,7 @@
       <c r="W7" s="75"/>
       <c r="X7" s="75"/>
     </row>
-    <row r="8" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" ht="26" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3716,8 +3720,8 @@
         <f t="shared" si="0"/>
         <v>43753</v>
       </c>
-      <c r="C8" s="91"/>
-      <c r="D8" s="94"/>
+      <c r="C8" s="111"/>
+      <c r="D8" s="114"/>
       <c r="E8" s="26">
         <v>5</v>
       </c>
@@ -3757,25 +3761,25 @@
       <c r="W8" s="75"/>
       <c r="X8" s="75"/>
     </row>
-    <row r="9" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="87" t="s">
+    <row r="9" spans="1:24" ht="26" customHeight="1">
+      <c r="A9" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="88"/>
-      <c r="C9" s="88"/>
-      <c r="D9" s="88"/>
-      <c r="E9" s="88"/>
-      <c r="F9" s="88"/>
-      <c r="G9" s="88"/>
-      <c r="H9" s="88"/>
-      <c r="I9" s="88"/>
-      <c r="J9" s="88"/>
-      <c r="K9" s="88"/>
-      <c r="L9" s="88"/>
-      <c r="M9" s="88"/>
-      <c r="N9" s="88"/>
-      <c r="O9" s="88"/>
-      <c r="P9" s="88"/>
+      <c r="B9" s="85"/>
+      <c r="C9" s="85"/>
+      <c r="D9" s="85"/>
+      <c r="E9" s="85"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="85"/>
+      <c r="I9" s="85"/>
+      <c r="J9" s="85"/>
+      <c r="K9" s="85"/>
+      <c r="L9" s="85"/>
+      <c r="M9" s="85"/>
+      <c r="N9" s="85"/>
+      <c r="O9" s="85"/>
+      <c r="P9" s="85"/>
       <c r="Q9" s="4"/>
       <c r="R9" s="41"/>
       <c r="S9" s="32"/>
@@ -3783,7 +3787,7 @@
       <c r="W9" s="75"/>
       <c r="X9" s="75"/>
     </row>
-    <row r="10" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:24" ht="26" customHeight="1">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -3791,10 +3795,10 @@
         <f>B8+21</f>
         <v>43774</v>
       </c>
-      <c r="C10" s="89">
+      <c r="C10" s="109">
         <v>1</v>
       </c>
-      <c r="D10" s="92" t="s">
+      <c r="D10" s="112" t="s">
         <v>274</v>
       </c>
       <c r="E10" s="26">
@@ -3836,7 +3840,7 @@
       <c r="W10" s="75"/>
       <c r="X10" s="75"/>
     </row>
-    <row r="11" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" ht="26" customHeight="1">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -3844,8 +3848,8 @@
         <f t="shared" ref="B11:B16" si="1">B10+7</f>
         <v>43781</v>
       </c>
-      <c r="C11" s="90"/>
-      <c r="D11" s="93"/>
+      <c r="C11" s="110"/>
+      <c r="D11" s="113"/>
       <c r="E11" s="26">
         <v>6</v>
       </c>
@@ -3883,7 +3887,7 @@
       <c r="W11" s="75"/>
       <c r="X11" s="75"/>
     </row>
-    <row r="12" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:24" ht="26" customHeight="1">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -3891,8 +3895,8 @@
         <f t="shared" si="1"/>
         <v>43788</v>
       </c>
-      <c r="C12" s="90"/>
-      <c r="D12" s="93"/>
+      <c r="C12" s="110"/>
+      <c r="D12" s="113"/>
       <c r="E12" s="26">
         <v>6</v>
       </c>
@@ -3929,7 +3933,7 @@
       <c r="W12" s="75"/>
       <c r="X12" s="75"/>
     </row>
-    <row r="13" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" ht="26" customHeight="1">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -3937,8 +3941,8 @@
         <f t="shared" si="1"/>
         <v>43795</v>
       </c>
-      <c r="C13" s="90"/>
-      <c r="D13" s="93"/>
+      <c r="C13" s="110"/>
+      <c r="D13" s="113"/>
       <c r="E13" s="26">
         <v>7</v>
       </c>
@@ -3978,7 +3982,7 @@
       <c r="W13" s="75"/>
       <c r="X13" s="75"/>
     </row>
-    <row r="14" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:24" ht="26" customHeight="1">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -3986,8 +3990,8 @@
         <f t="shared" si="1"/>
         <v>43802</v>
       </c>
-      <c r="C14" s="90"/>
-      <c r="D14" s="93"/>
+      <c r="C14" s="110"/>
+      <c r="D14" s="113"/>
       <c r="E14" s="26">
         <v>7</v>
       </c>
@@ -4026,7 +4030,7 @@
       <c r="W14" s="75"/>
       <c r="X14" s="75"/>
     </row>
-    <row r="15" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" ht="26" customHeight="1">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -4034,8 +4038,8 @@
         <f t="shared" si="1"/>
         <v>43809</v>
       </c>
-      <c r="C15" s="90"/>
-      <c r="D15" s="93"/>
+      <c r="C15" s="110"/>
+      <c r="D15" s="113"/>
       <c r="E15" s="26">
         <v>8</v>
       </c>
@@ -4077,7 +4081,7 @@
       <c r="W15" s="75"/>
       <c r="X15" s="75"/>
     </row>
-    <row r="16" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:24" ht="26" customHeight="1">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -4085,8 +4089,8 @@
         <f t="shared" si="1"/>
         <v>43816</v>
       </c>
-      <c r="C16" s="91"/>
-      <c r="D16" s="94"/>
+      <c r="C16" s="111"/>
+      <c r="D16" s="114"/>
       <c r="E16" s="26">
         <v>8</v>
       </c>
@@ -4126,25 +4130,25 @@
       <c r="W16" s="75"/>
       <c r="X16" s="75"/>
     </row>
-    <row r="17" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="87" t="s">
+    <row r="17" spans="1:24" ht="26" customHeight="1">
+      <c r="A17" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="88"/>
-      <c r="C17" s="88"/>
-      <c r="D17" s="88"/>
-      <c r="E17" s="88"/>
-      <c r="F17" s="88"/>
-      <c r="G17" s="88"/>
-      <c r="H17" s="88"/>
-      <c r="I17" s="88"/>
-      <c r="J17" s="88"/>
-      <c r="K17" s="88"/>
-      <c r="L17" s="88"/>
-      <c r="M17" s="88"/>
-      <c r="N17" s="88"/>
-      <c r="O17" s="88"/>
-      <c r="P17" s="88"/>
+      <c r="B17" s="85"/>
+      <c r="C17" s="85"/>
+      <c r="D17" s="85"/>
+      <c r="E17" s="85"/>
+      <c r="F17" s="85"/>
+      <c r="G17" s="85"/>
+      <c r="H17" s="85"/>
+      <c r="I17" s="85"/>
+      <c r="J17" s="85"/>
+      <c r="K17" s="85"/>
+      <c r="L17" s="85"/>
+      <c r="M17" s="85"/>
+      <c r="N17" s="85"/>
+      <c r="O17" s="85"/>
+      <c r="P17" s="85"/>
       <c r="Q17" s="4"/>
       <c r="R17" s="41"/>
       <c r="S17" s="32"/>
@@ -4152,7 +4156,7 @@
       <c r="W17" s="75"/>
       <c r="X17" s="75"/>
     </row>
-    <row r="18" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" ht="26" customHeight="1">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -4160,10 +4164,10 @@
         <f>B16+21</f>
         <v>43837</v>
       </c>
-      <c r="C18" s="81">
+      <c r="C18" s="103">
         <v>2</v>
       </c>
-      <c r="D18" s="84" t="s">
+      <c r="D18" s="106" t="s">
         <v>188</v>
       </c>
       <c r="E18" s="28">
@@ -4205,7 +4209,7 @@
       <c r="W18" s="75"/>
       <c r="X18" s="75"/>
     </row>
-    <row r="19" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" ht="26" customHeight="1">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -4213,8 +4217,8 @@
         <f>B18+7</f>
         <v>43844</v>
       </c>
-      <c r="C19" s="82"/>
-      <c r="D19" s="85"/>
+      <c r="C19" s="104"/>
+      <c r="D19" s="107"/>
       <c r="E19" s="28">
         <v>1</v>
       </c>
@@ -4254,7 +4258,7 @@
       <c r="W19" s="75"/>
       <c r="X19" s="75"/>
     </row>
-    <row r="20" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" ht="26" customHeight="1">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -4262,8 +4266,8 @@
         <f t="shared" ref="B20:B40" si="2">B19+7</f>
         <v>43851</v>
       </c>
-      <c r="C20" s="82"/>
-      <c r="D20" s="85"/>
+      <c r="C20" s="104"/>
+      <c r="D20" s="107"/>
       <c r="E20" s="28">
         <v>2</v>
       </c>
@@ -4303,7 +4307,7 @@
       <c r="W20" s="75"/>
       <c r="X20" s="75"/>
     </row>
-    <row r="21" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" ht="26" customHeight="1">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -4311,8 +4315,8 @@
         <f>B20+7</f>
         <v>43858</v>
       </c>
-      <c r="C21" s="83"/>
-      <c r="D21" s="86"/>
+      <c r="C21" s="105"/>
+      <c r="D21" s="108"/>
       <c r="E21" s="28">
         <v>2</v>
       </c>
@@ -4352,7 +4356,7 @@
       <c r="W21" s="75"/>
       <c r="X21" s="75"/>
     </row>
-    <row r="22" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:24" ht="26" customHeight="1">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -4360,10 +4364,10 @@
         <f>B21+7</f>
         <v>43865</v>
       </c>
-      <c r="C22" s="100">
+      <c r="C22" s="89">
         <v>3</v>
       </c>
-      <c r="D22" s="97" t="s">
+      <c r="D22" s="86" t="s">
         <v>63</v>
       </c>
       <c r="E22" s="35">
@@ -4405,7 +4409,7 @@
       <c r="W22" s="75"/>
       <c r="X22" s="75"/>
     </row>
-    <row r="23" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" ht="26" customHeight="1">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -4413,8 +4417,8 @@
         <f>B22+7</f>
         <v>43872</v>
       </c>
-      <c r="C23" s="101"/>
-      <c r="D23" s="98"/>
+      <c r="C23" s="90"/>
+      <c r="D23" s="87"/>
       <c r="E23" s="35">
         <v>2</v>
       </c>
@@ -4453,7 +4457,7 @@
       </c>
       <c r="S23" s="33"/>
     </row>
-    <row r="24" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" ht="26" customHeight="1">
       <c r="A24" s="1">
         <v>19</v>
       </c>
@@ -4461,8 +4465,8 @@
         <f>B23+7</f>
         <v>43879</v>
       </c>
-      <c r="C24" s="102"/>
-      <c r="D24" s="99"/>
+      <c r="C24" s="91"/>
+      <c r="D24" s="88"/>
       <c r="E24" s="34">
         <v>2</v>
       </c>
@@ -4497,25 +4501,25 @@
       </c>
       <c r="S24" s="33"/>
     </row>
-    <row r="25" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="87" t="s">
+    <row r="25" spans="1:24" ht="26" customHeight="1">
+      <c r="A25" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="88"/>
-      <c r="C25" s="88"/>
-      <c r="D25" s="88"/>
-      <c r="E25" s="88"/>
-      <c r="F25" s="88"/>
-      <c r="G25" s="88"/>
-      <c r="H25" s="88"/>
-      <c r="I25" s="88"/>
-      <c r="J25" s="88"/>
-      <c r="K25" s="88"/>
-      <c r="L25" s="88"/>
-      <c r="M25" s="88"/>
-      <c r="N25" s="88"/>
-      <c r="O25" s="88"/>
-      <c r="P25" s="88"/>
+      <c r="B25" s="85"/>
+      <c r="C25" s="85"/>
+      <c r="D25" s="85"/>
+      <c r="E25" s="85"/>
+      <c r="F25" s="85"/>
+      <c r="G25" s="85"/>
+      <c r="H25" s="85"/>
+      <c r="I25" s="85"/>
+      <c r="J25" s="85"/>
+      <c r="K25" s="85"/>
+      <c r="L25" s="85"/>
+      <c r="M25" s="85"/>
+      <c r="N25" s="85"/>
+      <c r="O25" s="85"/>
+      <c r="P25" s="85"/>
       <c r="Q25" s="4"/>
       <c r="R25" s="50"/>
       <c r="S25" s="32"/>
@@ -4523,7 +4527,7 @@
       <c r="W25" s="75"/>
       <c r="X25" s="75"/>
     </row>
-    <row r="26" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:24" ht="26" customHeight="1">
       <c r="A26" s="1">
         <v>19</v>
       </c>
@@ -4531,10 +4535,10 @@
         <f>B24+21</f>
         <v>43900</v>
       </c>
-      <c r="C26" s="100">
+      <c r="C26" s="89">
         <v>3</v>
       </c>
-      <c r="D26" s="97" t="s">
+      <c r="D26" s="86" t="s">
         <v>63</v>
       </c>
       <c r="E26" s="29">
@@ -4576,7 +4580,7 @@
       <c r="W26" s="75"/>
       <c r="X26" s="75"/>
     </row>
-    <row r="27" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" ht="26" customHeight="1">
       <c r="A27" s="1">
         <v>20</v>
       </c>
@@ -4584,8 +4588,8 @@
         <f t="shared" si="2"/>
         <v>43907</v>
       </c>
-      <c r="C27" s="101"/>
-      <c r="D27" s="98"/>
+      <c r="C27" s="90"/>
+      <c r="D27" s="87"/>
       <c r="E27" s="35">
         <v>3</v>
       </c>
@@ -4622,7 +4626,7 @@
       <c r="W27" s="75"/>
       <c r="X27" s="75"/>
     </row>
-    <row r="28" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:24" ht="26" customHeight="1">
       <c r="A28" s="1">
         <v>21</v>
       </c>
@@ -4630,8 +4634,8 @@
         <f t="shared" si="2"/>
         <v>43914</v>
       </c>
-      <c r="C28" s="101"/>
-      <c r="D28" s="98"/>
+      <c r="C28" s="90"/>
+      <c r="D28" s="87"/>
       <c r="E28" s="29">
         <v>4</v>
       </c>
@@ -4671,7 +4675,7 @@
       <c r="W28" s="75"/>
       <c r="X28" s="75"/>
     </row>
-    <row r="29" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" ht="26" customHeight="1">
       <c r="A29" s="1">
         <v>22</v>
       </c>
@@ -4679,8 +4683,8 @@
         <f t="shared" si="2"/>
         <v>43921</v>
       </c>
-      <c r="C29" s="102"/>
-      <c r="D29" s="99"/>
+      <c r="C29" s="91"/>
+      <c r="D29" s="88"/>
       <c r="E29" s="35">
         <v>4</v>
       </c>
@@ -4718,7 +4722,7 @@
       <c r="W29" s="75"/>
       <c r="X29" s="75"/>
     </row>
-    <row r="30" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:24" ht="26" customHeight="1">
       <c r="A30" s="1">
         <v>23</v>
       </c>
@@ -4726,10 +4730,10 @@
         <f t="shared" si="2"/>
         <v>43928</v>
       </c>
-      <c r="C30" s="103">
+      <c r="C30" s="92">
         <v>4</v>
       </c>
-      <c r="D30" s="105" t="s">
+      <c r="D30" s="94" t="s">
         <v>45</v>
       </c>
       <c r="E30" s="30">
@@ -4773,7 +4777,7 @@
       <c r="W30" s="75"/>
       <c r="X30" s="75"/>
     </row>
-    <row r="31" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:24" ht="26" customHeight="1">
       <c r="A31" s="1">
         <v>24</v>
       </c>
@@ -4781,8 +4785,8 @@
         <f t="shared" si="2"/>
         <v>43935</v>
       </c>
-      <c r="C31" s="104"/>
-      <c r="D31" s="106"/>
+      <c r="C31" s="93"/>
+      <c r="D31" s="95"/>
       <c r="E31" s="30">
         <v>2</v>
       </c>
@@ -4822,25 +4826,25 @@
       <c r="W31" s="75"/>
       <c r="X31" s="75"/>
     </row>
-    <row r="32" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="95" t="s">
+    <row r="32" spans="1:24" ht="26" customHeight="1">
+      <c r="A32" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="B32" s="96"/>
-      <c r="C32" s="96"/>
-      <c r="D32" s="96"/>
-      <c r="E32" s="96"/>
-      <c r="F32" s="96"/>
-      <c r="G32" s="96"/>
-      <c r="H32" s="96"/>
-      <c r="I32" s="96"/>
-      <c r="J32" s="96"/>
-      <c r="K32" s="96"/>
-      <c r="L32" s="96"/>
-      <c r="M32" s="96"/>
-      <c r="N32" s="96"/>
-      <c r="O32" s="96"/>
-      <c r="P32" s="96"/>
+      <c r="B32" s="83"/>
+      <c r="C32" s="83"/>
+      <c r="D32" s="83"/>
+      <c r="E32" s="83"/>
+      <c r="F32" s="83"/>
+      <c r="G32" s="83"/>
+      <c r="H32" s="83"/>
+      <c r="I32" s="83"/>
+      <c r="J32" s="83"/>
+      <c r="K32" s="83"/>
+      <c r="L32" s="83"/>
+      <c r="M32" s="83"/>
+      <c r="N32" s="83"/>
+      <c r="O32" s="83"/>
+      <c r="P32" s="83"/>
       <c r="Q32" s="47"/>
       <c r="R32" s="51"/>
       <c r="S32" s="32"/>
@@ -4848,7 +4852,7 @@
       <c r="W32" s="75"/>
       <c r="X32" s="75"/>
     </row>
-    <row r="33" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" ht="26" customHeight="1">
       <c r="A33" s="1">
         <v>25</v>
       </c>
@@ -4856,10 +4860,10 @@
         <f>B31+21</f>
         <v>43956</v>
       </c>
-      <c r="C33" s="103">
+      <c r="C33" s="92">
         <v>4</v>
       </c>
-      <c r="D33" s="105" t="s">
+      <c r="D33" s="94" t="s">
         <v>45</v>
       </c>
       <c r="E33" s="30">
@@ -4896,7 +4900,7 @@
       </c>
       <c r="S33" s="33"/>
     </row>
-    <row r="34" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:24" ht="26" customHeight="1">
       <c r="A34" s="1">
         <v>26</v>
       </c>
@@ -4904,8 +4908,8 @@
         <f t="shared" si="2"/>
         <v>43963</v>
       </c>
-      <c r="C34" s="108"/>
-      <c r="D34" s="107"/>
+      <c r="C34" s="97"/>
+      <c r="D34" s="96"/>
       <c r="E34" s="30">
         <v>3</v>
       </c>
@@ -4942,7 +4946,7 @@
       </c>
       <c r="S34" s="32"/>
     </row>
-    <row r="35" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:24" ht="26" customHeight="1">
       <c r="A35" s="1">
         <v>27</v>
       </c>
@@ -4950,8 +4954,8 @@
         <f t="shared" si="2"/>
         <v>43970</v>
       </c>
-      <c r="C35" s="104"/>
-      <c r="D35" s="106"/>
+      <c r="C35" s="93"/>
+      <c r="D35" s="95"/>
       <c r="E35" s="30">
         <v>4</v>
       </c>
@@ -4985,7 +4989,7 @@
       </c>
       <c r="S35" s="46"/>
     </row>
-    <row r="36" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:24" ht="26" customHeight="1">
       <c r="A36" s="1">
         <v>28</v>
       </c>
@@ -4993,10 +4997,10 @@
         <f t="shared" si="2"/>
         <v>43977</v>
       </c>
-      <c r="C36" s="111">
+      <c r="C36" s="100">
         <v>5</v>
       </c>
-      <c r="D36" s="109" t="s">
+      <c r="D36" s="98" t="s">
         <v>51</v>
       </c>
       <c r="E36" s="31">
@@ -5028,7 +5032,7 @@
       <c r="W36" s="75"/>
       <c r="X36" s="75"/>
     </row>
-    <row r="37" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:24" ht="26" customHeight="1">
       <c r="A37" s="1">
         <v>29</v>
       </c>
@@ -5036,8 +5040,8 @@
         <f t="shared" si="2"/>
         <v>43984</v>
       </c>
-      <c r="C37" s="112"/>
-      <c r="D37" s="110"/>
+      <c r="C37" s="101"/>
+      <c r="D37" s="99"/>
       <c r="E37" s="31">
         <v>1</v>
       </c>
@@ -5069,7 +5073,7 @@
       <c r="W37" s="75"/>
       <c r="X37" s="75"/>
     </row>
-    <row r="38" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24" ht="26" customHeight="1">
       <c r="A38" s="1">
         <v>30</v>
       </c>
@@ -5077,8 +5081,8 @@
         <f t="shared" si="2"/>
         <v>43991</v>
       </c>
-      <c r="C38" s="112"/>
-      <c r="D38" s="110"/>
+      <c r="C38" s="101"/>
+      <c r="D38" s="99"/>
       <c r="E38" s="31">
         <v>1</v>
       </c>
@@ -5108,7 +5112,7 @@
       <c r="W38" s="75"/>
       <c r="X38" s="75"/>
     </row>
-    <row r="39" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:24" ht="26" customHeight="1">
       <c r="A39" s="1">
         <v>31</v>
       </c>
@@ -5116,8 +5120,8 @@
         <f t="shared" si="2"/>
         <v>43998</v>
       </c>
-      <c r="C39" s="112"/>
-      <c r="D39" s="110"/>
+      <c r="C39" s="101"/>
+      <c r="D39" s="99"/>
       <c r="E39" s="31">
         <v>1</v>
       </c>
@@ -5147,7 +5151,7 @@
       <c r="W39" s="75"/>
       <c r="X39" s="75"/>
     </row>
-    <row r="40" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:24" ht="26" customHeight="1">
       <c r="A40" s="1">
         <v>32</v>
       </c>
@@ -5155,8 +5159,8 @@
         <f t="shared" si="2"/>
         <v>44005</v>
       </c>
-      <c r="C40" s="113"/>
-      <c r="D40" s="110"/>
+      <c r="C40" s="102"/>
+      <c r="D40" s="99"/>
       <c r="E40" s="31">
         <v>1</v>
       </c>
@@ -5184,93 +5188,101 @@
       <c r="W40" s="75"/>
       <c r="X40" s="75"/>
     </row>
-    <row r="41" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="95" t="s">
+    <row r="41" spans="1:24" ht="26" customHeight="1">
+      <c r="A41" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="B41" s="96"/>
-      <c r="C41" s="96"/>
-      <c r="D41" s="96"/>
-      <c r="E41" s="96"/>
-      <c r="F41" s="96"/>
-      <c r="G41" s="96"/>
-      <c r="H41" s="96"/>
-      <c r="I41" s="96"/>
-      <c r="J41" s="96"/>
-      <c r="K41" s="96"/>
-      <c r="L41" s="96"/>
-      <c r="M41" s="96"/>
-      <c r="N41" s="96"/>
-      <c r="O41" s="96"/>
-      <c r="P41" s="96"/>
+      <c r="B41" s="83"/>
+      <c r="C41" s="83"/>
+      <c r="D41" s="83"/>
+      <c r="E41" s="83"/>
+      <c r="F41" s="83"/>
+      <c r="G41" s="83"/>
+      <c r="H41" s="83"/>
+      <c r="I41" s="83"/>
+      <c r="J41" s="83"/>
+      <c r="K41" s="83"/>
+      <c r="L41" s="83"/>
+      <c r="M41" s="83"/>
+      <c r="N41" s="83"/>
+      <c r="O41" s="83"/>
+      <c r="P41" s="83"/>
       <c r="Q41" s="47"/>
       <c r="R41" s="51"/>
       <c r="V41" s="70"/>
       <c r="W41" s="75"/>
       <c r="X41" s="75"/>
     </row>
-    <row r="42" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:24" ht="26" customHeight="1">
       <c r="V42" s="70"/>
       <c r="W42" s="75"/>
       <c r="X42" s="75"/>
     </row>
-    <row r="43" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:24" ht="26" customHeight="1">
       <c r="V43" s="70"/>
       <c r="W43" s="75"/>
       <c r="X43" s="75"/>
     </row>
-    <row r="44" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:24" ht="26" customHeight="1">
       <c r="V44" s="70"/>
       <c r="W44" s="75"/>
       <c r="X44" s="75"/>
     </row>
-    <row r="45" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:24" ht="26" customHeight="1">
       <c r="V45" s="70"/>
       <c r="W45" s="75"/>
       <c r="X45" s="75"/>
     </row>
-    <row r="46" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:24" ht="26" customHeight="1">
       <c r="V46" s="70"/>
       <c r="W46" s="75"/>
       <c r="X46" s="75"/>
     </row>
-    <row r="47" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:24" ht="26" customHeight="1">
       <c r="V47" s="70"/>
       <c r="W47" s="75"/>
       <c r="X47" s="75"/>
     </row>
-    <row r="48" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:24" ht="26" customHeight="1">
       <c r="V48" s="70"/>
       <c r="W48" s="75"/>
       <c r="X48" s="75"/>
     </row>
-    <row r="49" spans="22:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="22:24" ht="26" customHeight="1">
       <c r="V49" s="70"/>
       <c r="W49" s="75"/>
       <c r="X49" s="75"/>
     </row>
-    <row r="50" spans="22:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="22:24" ht="26" customHeight="1">
       <c r="V50" s="70"/>
       <c r="W50" s="75"/>
       <c r="X50" s="75"/>
     </row>
-    <row r="51" spans="22:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="22:24" ht="26" customHeight="1">
       <c r="V51" s="70"/>
       <c r="W51" s="75"/>
       <c r="X51" s="75"/>
     </row>
-    <row r="52" spans="22:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="22:24" ht="26" customHeight="1">
       <c r="V52" s="70"/>
       <c r="W52" s="75"/>
       <c r="X52" s="75"/>
     </row>
-    <row r="53" spans="22:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="22:24" ht="26" customHeight="1">
       <c r="V53" s="70"/>
       <c r="W53" s="75"/>
       <c r="X53" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="A9:P9"/>
+    <mergeCell ref="A17:P17"/>
+    <mergeCell ref="C2:C8"/>
+    <mergeCell ref="D2:D8"/>
+    <mergeCell ref="D10:D16"/>
+    <mergeCell ref="C10:C16"/>
     <mergeCell ref="A41:P41"/>
     <mergeCell ref="A32:P32"/>
     <mergeCell ref="A25:P25"/>
@@ -5284,14 +5296,6 @@
     <mergeCell ref="C33:C35"/>
     <mergeCell ref="D36:D40"/>
     <mergeCell ref="C36:C40"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="D18:D21"/>
-    <mergeCell ref="A9:P9"/>
-    <mergeCell ref="A17:P17"/>
-    <mergeCell ref="C2:C8"/>
-    <mergeCell ref="D2:D8"/>
-    <mergeCell ref="D10:D16"/>
-    <mergeCell ref="C10:C16"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5300,22 +5304,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="2"/>
-    <col min="2" max="2" width="70.5" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="10.81640625" style="2"/>
+    <col min="2" max="2" width="70.453125" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="10.81640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="2" spans="1:2" ht="32" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" ht="21" customHeight="1"/>
+    <row r="2" spans="1:2" ht="31">
       <c r="A2" s="8" t="s">
         <v>4</v>
       </c>
@@ -5323,7 +5327,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="38" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" ht="38" customHeight="1">
       <c r="A3" s="10" t="s">
         <v>3</v>
       </c>
@@ -5331,7 +5335,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="38" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" ht="38" customHeight="1">
       <c r="A4" s="22" t="s">
         <v>56</v>
       </c>
@@ -5339,7 +5343,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="38" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2" ht="38" customHeight="1">
       <c r="A5" s="23" t="s">
         <v>57</v>
       </c>
@@ -5347,7 +5351,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="38" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2" ht="38" customHeight="1">
       <c r="A6" s="24" t="s">
         <v>6</v>
       </c>
@@ -5355,7 +5359,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="38" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" ht="38" customHeight="1">
       <c r="A7" s="25" t="s">
         <v>7</v>
       </c>
@@ -5371,22 +5375,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C66"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20:C21"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="70"/>
-    <col min="2" max="2" width="75.83203125" style="71" customWidth="1"/>
-    <col min="3" max="3" width="100.5" style="71" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="70"/>
+    <col min="1" max="1" width="10.81640625" style="70"/>
+    <col min="2" max="2" width="75.81640625" style="71" customWidth="1"/>
+    <col min="3" max="3" width="100.453125" style="71" customWidth="1"/>
+    <col min="4" max="16384" width="10.81640625" style="70"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" s="70" t="s">
         <v>251</v>
       </c>
@@ -5397,7 +5401,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="24" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" ht="24">
       <c r="A2" s="70" t="s">
         <v>191</v>
       </c>
@@ -5408,7 +5412,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="36" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" ht="36">
       <c r="A3" s="70" t="s">
         <v>212</v>
       </c>
@@ -5419,7 +5423,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="24" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" ht="24">
       <c r="A4" s="70" t="s">
         <v>213</v>
       </c>
@@ -5430,7 +5434,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3">
       <c r="A5" s="70" t="s">
         <v>214</v>
       </c>
@@ -5441,7 +5445,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3">
       <c r="A7" s="70" t="s">
         <v>192</v>
       </c>
@@ -5452,7 +5456,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" ht="24">
       <c r="A8" s="70" t="s">
         <v>193</v>
       </c>
@@ -5463,7 +5467,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3">
       <c r="A9" s="70" t="s">
         <v>215</v>
       </c>
@@ -5474,7 +5478,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3">
       <c r="A10" s="70" t="s">
         <v>216</v>
       </c>
@@ -5485,7 +5489,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3">
       <c r="A13" s="70" t="s">
         <v>194</v>
       </c>
@@ -5496,7 +5500,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3">
       <c r="A14" s="70" t="s">
         <v>195</v>
       </c>
@@ -5507,7 +5511,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3">
       <c r="A15" s="70" t="s">
         <v>196</v>
       </c>
@@ -5518,7 +5522,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3">
       <c r="A16" s="70" t="s">
         <v>206</v>
       </c>
@@ -5529,7 +5533,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3">
       <c r="A17" s="70" t="s">
         <v>208</v>
       </c>
@@ -5540,7 +5544,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3">
       <c r="A18" s="70" t="s">
         <v>197</v>
       </c>
@@ -5551,7 +5555,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3">
       <c r="A19" s="70" t="s">
         <v>198</v>
       </c>
@@ -5562,7 +5566,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3">
       <c r="A20" s="70" t="s">
         <v>199</v>
       </c>
@@ -5573,7 +5577,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3" ht="24">
       <c r="A21" s="70" t="s">
         <v>200</v>
       </c>
@@ -5584,7 +5588,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="24" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3" ht="24">
       <c r="A22" s="70" t="s">
         <v>201</v>
       </c>
@@ -5595,7 +5599,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3">
       <c r="A23" s="70" t="s">
         <v>203</v>
       </c>
@@ -5606,7 +5610,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3" ht="24">
       <c r="A24" s="70" t="s">
         <v>204</v>
       </c>
@@ -5617,7 +5621,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:3">
       <c r="A27" s="79" t="s">
         <v>207</v>
       </c>
@@ -5628,7 +5632,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:3">
       <c r="A28" s="79" t="s">
         <v>209</v>
       </c>
@@ -5639,7 +5643,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:3">
       <c r="A29" s="79" t="s">
         <v>210</v>
       </c>
@@ -5650,7 +5654,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:3">
       <c r="A30" s="79" t="s">
         <v>211</v>
       </c>
@@ -5661,7 +5665,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="24" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:3" ht="24">
       <c r="A31" s="79" t="s">
         <v>247</v>
       </c>
@@ -5672,7 +5676,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:3">
       <c r="A32" s="79" t="s">
         <v>248</v>
       </c>
@@ -5683,7 +5687,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:3">
       <c r="A33" s="70" t="s">
         <v>217</v>
       </c>
@@ -5694,7 +5698,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:3">
       <c r="A34" s="70" t="s">
         <v>219</v>
       </c>
@@ -5705,7 +5709,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="24" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:3" ht="24">
       <c r="A35" s="70" t="s">
         <v>220</v>
       </c>
@@ -5716,7 +5720,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:3">
       <c r="A36" s="70" t="s">
         <v>221</v>
       </c>
@@ -5727,7 +5731,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="24" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:3" ht="24">
       <c r="A37" s="70" t="s">
         <v>222</v>
       </c>
@@ -5738,7 +5742,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="36" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:3" ht="36">
       <c r="A38" s="70" t="s">
         <v>249</v>
       </c>
@@ -5749,7 +5753,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="24" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:3" ht="24">
       <c r="A39" s="70" t="s">
         <v>250</v>
       </c>
@@ -5760,7 +5764,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="24" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:3" ht="24">
       <c r="A42" s="70" t="s">
         <v>223</v>
       </c>
@@ -5771,7 +5775,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="36" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:3" ht="36">
       <c r="A43" s="70" t="s">
         <v>224</v>
       </c>
@@ -5782,7 +5786,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="24" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:3" ht="24">
       <c r="A44" s="70" t="s">
         <v>225</v>
       </c>
@@ -5793,7 +5797,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:3">
       <c r="A45" s="70" t="s">
         <v>226</v>
       </c>
@@ -5804,7 +5808,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="24" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:3" ht="24">
       <c r="A46" s="70" t="s">
         <v>227</v>
       </c>
@@ -5815,7 +5819,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:3" ht="24">
       <c r="A47" s="70" t="s">
         <v>228</v>
       </c>
@@ -5826,7 +5830,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="24" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:3" ht="24">
       <c r="A48" s="70" t="s">
         <v>229</v>
       </c>
@@ -5837,7 +5841,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="24" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:3" ht="24">
       <c r="A49" s="70" t="s">
         <v>230</v>
       </c>
@@ -5848,7 +5852,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="24" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:3" ht="24">
       <c r="A50" s="70" t="s">
         <v>231</v>
       </c>
@@ -5859,7 +5863,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:3">
       <c r="A53" s="70" t="s">
         <v>232</v>
       </c>
@@ -5870,7 +5874,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:3">
       <c r="A54" s="70" t="s">
         <v>233</v>
       </c>
@@ -5881,7 +5885,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:3">
       <c r="A55" s="70" t="s">
         <v>234</v>
       </c>
@@ -5892,7 +5896,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:3">
       <c r="A56" s="70" t="s">
         <v>235</v>
       </c>
@@ -5903,7 +5907,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="24" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:3" ht="24">
       <c r="A57" s="70" t="s">
         <v>236</v>
       </c>
@@ -5914,7 +5918,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:3">
       <c r="A58" s="70" t="s">
         <v>237</v>
       </c>
@@ -5925,7 +5929,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:3">
       <c r="A59" s="70" t="s">
         <v>240</v>
       </c>
@@ -5936,7 +5940,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="24" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:3" ht="24">
       <c r="A60" s="70" t="s">
         <v>241</v>
       </c>
@@ -5947,7 +5951,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:3">
       <c r="A61" s="70" t="s">
         <v>242</v>
       </c>
@@ -5958,7 +5962,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:3">
       <c r="A63" s="70" t="s">
         <v>243</v>
       </c>
@@ -5969,7 +5973,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:3">
       <c r="A64" s="70" t="s">
         <v>244</v>
       </c>
@@ -5980,7 +5984,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:3">
       <c r="A65" s="70" t="s">
         <v>245</v>
       </c>
@@ -5991,7 +5995,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="48" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:3" ht="48">
       <c r="B66" s="71" t="s">
         <v>187</v>
       </c>
@@ -6007,28 +6011,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="47.33203125" customWidth="1"/>
+    <col min="2" max="4" width="47.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A1" s="114" t="s">
+    <row r="1" spans="1:4" ht="14.5">
+      <c r="A1" s="115" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="116"/>
-    </row>
-    <row r="2" spans="1:4" ht="22" x14ac:dyDescent="0.15">
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="117"/>
+    </row>
+    <row r="2" spans="1:4" ht="21">
       <c r="A2" s="54" t="s">
         <v>82</v>
       </c>
@@ -6038,7 +6042,7 @@
       <c r="C2" s="55"/>
       <c r="D2" s="56"/>
     </row>
-    <row r="3" spans="1:4" ht="44" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" ht="42">
       <c r="A3" s="54"/>
       <c r="B3" s="55"/>
       <c r="C3" s="55" t="s">
@@ -6046,7 +6050,7 @@
       </c>
       <c r="D3" s="56"/>
     </row>
-    <row r="4" spans="1:4" ht="33" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" ht="31.5">
       <c r="A4" s="54"/>
       <c r="B4" s="55"/>
       <c r="C4" s="55" t="s">
@@ -6054,7 +6058,7 @@
       </c>
       <c r="D4" s="56"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4">
       <c r="A5" s="54"/>
       <c r="B5" s="55"/>
       <c r="C5" s="55" t="s">
@@ -6062,13 +6066,13 @@
       </c>
       <c r="D5" s="56"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4">
       <c r="A6" s="54"/>
       <c r="B6" s="55"/>
       <c r="C6" s="55"/>
       <c r="D6" s="56"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" ht="21">
       <c r="A7" s="54" t="s">
         <v>87</v>
       </c>
@@ -6078,7 +6082,7 @@
       <c r="C7" s="55"/>
       <c r="D7" s="56"/>
     </row>
-    <row r="8" spans="1:4" ht="22" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" ht="21">
       <c r="A8" s="54" t="s">
         <v>89</v>
       </c>
@@ -6090,7 +6094,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="33" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" ht="42">
       <c r="A9" s="54"/>
       <c r="B9" s="55"/>
       <c r="C9" s="55" t="s">
@@ -6100,7 +6104,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="56" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="53" thickBot="1">
       <c r="A10" s="57"/>
       <c r="B10" s="58"/>
       <c r="C10" s="58" t="s">
@@ -6110,21 +6114,21 @@
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="13" thickBot="1">
       <c r="A11" s="60"/>
       <c r="B11" s="61"/>
       <c r="C11" s="61"/>
       <c r="D11" s="61"/>
     </row>
-    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A12" s="114" t="s">
+    <row r="12" spans="1:4" ht="14.5">
+      <c r="A12" s="115" t="s">
         <v>96</v>
       </c>
-      <c r="B12" s="115"/>
-      <c r="C12" s="115"/>
-      <c r="D12" s="116"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B12" s="116"/>
+      <c r="C12" s="116"/>
+      <c r="D12" s="117"/>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="54" t="s">
         <v>97</v>
       </c>
@@ -6134,7 +6138,7 @@
       <c r="C13" s="55"/>
       <c r="D13" s="56"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4">
       <c r="A14" s="54" t="s">
         <v>99</v>
       </c>
@@ -6144,7 +6148,7 @@
       <c r="C14" s="55"/>
       <c r="D14" s="56"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4">
       <c r="A15" s="54" t="s">
         <v>101</v>
       </c>
@@ -6154,7 +6158,7 @@
       <c r="C15" s="55"/>
       <c r="D15" s="56"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4">
       <c r="A16" s="54" t="s">
         <v>103</v>
       </c>
@@ -6164,7 +6168,7 @@
       <c r="C16" s="55"/>
       <c r="D16" s="56"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" ht="21">
       <c r="A17" s="54" t="s">
         <v>105</v>
       </c>
@@ -6174,7 +6178,7 @@
       <c r="C17" s="55"/>
       <c r="D17" s="56"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" ht="21">
       <c r="A18" s="54" t="s">
         <v>107</v>
       </c>
@@ -6184,7 +6188,7 @@
       <c r="C18" s="55"/>
       <c r="D18" s="56"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4">
       <c r="A19" s="54" t="s">
         <v>109</v>
       </c>
@@ -6194,7 +6198,7 @@
       <c r="C19" s="55"/>
       <c r="D19" s="56"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4">
       <c r="A20" s="54" t="s">
         <v>111</v>
       </c>
@@ -6204,7 +6208,7 @@
       <c r="C20" s="55"/>
       <c r="D20" s="56"/>
     </row>
-    <row r="21" spans="1:4" ht="22" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4" ht="21">
       <c r="A21" s="54"/>
       <c r="B21" s="55"/>
       <c r="C21" s="55" t="s">
@@ -6212,7 +6216,7 @@
       </c>
       <c r="D21" s="56"/>
     </row>
-    <row r="22" spans="1:4" ht="22" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4" ht="21">
       <c r="A22" s="54"/>
       <c r="B22" s="55"/>
       <c r="C22" s="55" t="s">
@@ -6220,7 +6224,7 @@
       </c>
       <c r="D22" s="56"/>
     </row>
-    <row r="23" spans="1:4" ht="22" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4" ht="21">
       <c r="A23" s="54"/>
       <c r="B23" s="55"/>
       <c r="C23" s="55" t="s">
@@ -6228,7 +6232,7 @@
       </c>
       <c r="D23" s="56"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4">
       <c r="A24" s="54"/>
       <c r="B24" s="55"/>
       <c r="C24" s="55" t="s">
@@ -6236,7 +6240,7 @@
       </c>
       <c r="D24" s="56"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4">
       <c r="A25" s="54"/>
       <c r="B25" s="55"/>
       <c r="C25" s="55" t="s">
@@ -6244,13 +6248,13 @@
       </c>
       <c r="D25" s="56"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4">
       <c r="A26" s="54"/>
       <c r="B26" s="55"/>
       <c r="C26" s="55"/>
       <c r="D26" s="56"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4">
       <c r="A27" s="54" t="s">
         <v>118</v>
       </c>
@@ -6260,7 +6264,7 @@
       <c r="C27" s="55"/>
       <c r="D27" s="56"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4" ht="21">
       <c r="A28" s="54" t="s">
         <v>120</v>
       </c>
@@ -6270,7 +6274,7 @@
       <c r="C28" s="55"/>
       <c r="D28" s="56"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4">
       <c r="A29" s="54" t="s">
         <v>122</v>
       </c>
@@ -6280,7 +6284,7 @@
       <c r="C29" s="55"/>
       <c r="D29" s="56"/>
     </row>
-    <row r="30" spans="1:4" ht="22" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:4" ht="21">
       <c r="A30" s="54" t="s">
         <v>124</v>
       </c>
@@ -6290,7 +6294,7 @@
       <c r="C30" s="55"/>
       <c r="D30" s="56"/>
     </row>
-    <row r="31" spans="1:4" ht="22" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:4" ht="21">
       <c r="A31" s="54" t="s">
         <v>126</v>
       </c>
@@ -6300,7 +6304,7 @@
       <c r="C31" s="55"/>
       <c r="D31" s="56"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:4">
       <c r="A32" s="54" t="s">
         <v>128</v>
       </c>
@@ -6310,7 +6314,7 @@
       <c r="C32" s="55"/>
       <c r="D32" s="56"/>
     </row>
-    <row r="33" spans="1:4" ht="22" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4" ht="21">
       <c r="A33" s="54"/>
       <c r="B33" s="55"/>
       <c r="C33" s="55" t="s">
@@ -6320,7 +6324,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="22" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:4" ht="21">
       <c r="A34" s="54"/>
       <c r="B34" s="55"/>
       <c r="C34" s="55" t="s">
@@ -6330,7 +6334,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="22" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:4" ht="31.5">
       <c r="A35" s="54"/>
       <c r="B35" s="55"/>
       <c r="C35" s="55" t="s">
@@ -6340,7 +6344,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="33" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:4" ht="31.5">
       <c r="A36" s="54"/>
       <c r="B36" s="55"/>
       <c r="C36" s="55" t="s">
@@ -6350,7 +6354,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="22" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:4" ht="31.5">
       <c r="A37" s="54"/>
       <c r="B37" s="55"/>
       <c r="C37" s="55" t="s">
@@ -6360,7 +6364,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="55" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:4" ht="52.5">
       <c r="A38" s="54"/>
       <c r="B38" s="55"/>
       <c r="C38" s="55" t="s">
@@ -6370,7 +6374,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="34" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" ht="32" thickBot="1">
       <c r="A39" s="57"/>
       <c r="B39" s="58"/>
       <c r="C39" s="58" t="s">
@@ -6380,21 +6384,21 @@
         <v>143</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" ht="13" thickBot="1">
       <c r="A40" s="60"/>
       <c r="B40" s="61"/>
       <c r="C40" s="61"/>
       <c r="D40" s="61"/>
     </row>
-    <row r="41" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A41" s="117" t="s">
+    <row r="41" spans="1:4" ht="14.5">
+      <c r="A41" s="118" t="s">
         <v>144</v>
       </c>
-      <c r="B41" s="118"/>
-      <c r="C41" s="118"/>
-      <c r="D41" s="119"/>
-    </row>
-    <row r="42" spans="1:4" ht="33" x14ac:dyDescent="0.15">
+      <c r="B41" s="119"/>
+      <c r="C41" s="119"/>
+      <c r="D41" s="120"/>
+    </row>
+    <row r="42" spans="1:4" ht="31.5">
       <c r="A42" s="54" t="s">
         <v>145</v>
       </c>
@@ -6404,7 +6408,7 @@
       <c r="C42" s="62"/>
       <c r="D42" s="63"/>
     </row>
-    <row r="43" spans="1:4" ht="44" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:4" ht="52.5">
       <c r="A43" s="54" t="s">
         <v>147</v>
       </c>
@@ -6414,7 +6418,7 @@
       <c r="C43" s="62"/>
       <c r="D43" s="63"/>
     </row>
-    <row r="44" spans="1:4" ht="33" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:4" ht="31.5">
       <c r="A44" s="54" t="s">
         <v>149</v>
       </c>
@@ -6424,7 +6428,7 @@
       <c r="C44" s="62"/>
       <c r="D44" s="63"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:4" ht="21">
       <c r="A45" s="54" t="s">
         <v>151</v>
       </c>
@@ -6434,7 +6438,7 @@
       <c r="C45" s="62"/>
       <c r="D45" s="63"/>
     </row>
-    <row r="46" spans="1:4" ht="22" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:4" ht="21">
       <c r="A46" s="54" t="s">
         <v>153</v>
       </c>
@@ -6444,7 +6448,7 @@
       <c r="C46" s="62"/>
       <c r="D46" s="63"/>
     </row>
-    <row r="47" spans="1:4" ht="44" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:4" ht="42">
       <c r="A47" s="54"/>
       <c r="B47" s="62"/>
       <c r="C47" s="62" t="s">
@@ -6454,7 +6458,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="33" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:4" ht="31.5">
       <c r="A48" s="54"/>
       <c r="B48" s="62"/>
       <c r="C48" s="62" t="s">
@@ -6464,7 +6468,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="44" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:4" ht="52.5">
       <c r="A49" s="54"/>
       <c r="B49" s="62"/>
       <c r="C49" s="62" t="s">
@@ -6474,7 +6478,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="67" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" ht="74" thickBot="1">
       <c r="A50" s="57"/>
       <c r="B50" s="64"/>
       <c r="C50" s="64" t="s">
@@ -6484,21 +6488,21 @@
         <v>162</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="15" thickBot="1">
       <c r="A51" s="60"/>
       <c r="B51" s="66"/>
       <c r="C51" s="66"/>
       <c r="D51" s="66"/>
     </row>
-    <row r="52" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="120" t="s">
+    <row r="52" spans="1:4" ht="15" thickBot="1">
+      <c r="A52" s="121" t="s">
         <v>163</v>
       </c>
-      <c r="B52" s="121"/>
-      <c r="C52" s="121"/>
-      <c r="D52" s="122"/>
-    </row>
-    <row r="53" spans="1:4" ht="22" x14ac:dyDescent="0.15">
+      <c r="B52" s="122"/>
+      <c r="C52" s="122"/>
+      <c r="D52" s="123"/>
+    </row>
+    <row r="53" spans="1:4" ht="21">
       <c r="A53" s="67" t="s">
         <v>164</v>
       </c>
@@ -6508,7 +6512,7 @@
       <c r="C53" s="68"/>
       <c r="D53" s="68"/>
     </row>
-    <row r="54" spans="1:4" ht="22" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:4" ht="21">
       <c r="A54" s="69" t="s">
         <v>166</v>
       </c>
@@ -6518,7 +6522,7 @@
       <c r="C54" s="55"/>
       <c r="D54" s="55"/>
     </row>
-    <row r="55" spans="1:4" ht="22" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:4" ht="21">
       <c r="A55" s="69" t="s">
         <v>168</v>
       </c>
@@ -6528,7 +6532,7 @@
       <c r="C55" s="55"/>
       <c r="D55" s="55"/>
     </row>
-    <row r="56" spans="1:4" ht="22" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:4" ht="21">
       <c r="A56" s="69" t="s">
         <v>170</v>
       </c>
@@ -6538,7 +6542,7 @@
       <c r="C56" s="55"/>
       <c r="D56" s="55"/>
     </row>
-    <row r="57" spans="1:4" ht="22" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:4" ht="21">
       <c r="A57" s="69" t="s">
         <v>172</v>
       </c>
@@ -6548,7 +6552,7 @@
       <c r="C57" s="55"/>
       <c r="D57" s="55"/>
     </row>
-    <row r="58" spans="1:4" ht="22" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:4" ht="21">
       <c r="A58" s="69"/>
       <c r="B58" s="55"/>
       <c r="C58" s="55" t="s">
@@ -6558,7 +6562,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="55" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:4" ht="52.5">
       <c r="A59" s="69"/>
       <c r="B59" s="55"/>
       <c r="C59" s="55" t="s">
@@ -6568,7 +6572,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="23" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" ht="21.5" thickBot="1">
       <c r="A60" s="69"/>
       <c r="B60" s="55"/>
       <c r="C60" s="55" t="s">
@@ -6578,21 +6582,21 @@
         <v>179</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" ht="15" thickBot="1">
       <c r="A61" s="60"/>
       <c r="B61" s="66"/>
       <c r="C61" s="66"/>
       <c r="D61" s="66"/>
     </row>
-    <row r="62" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="120" t="s">
+    <row r="62" spans="1:4" ht="15" thickBot="1">
+      <c r="A62" s="121" t="s">
         <v>180</v>
       </c>
-      <c r="B62" s="121"/>
-      <c r="C62" s="121"/>
-      <c r="D62" s="122"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B62" s="122"/>
+      <c r="C62" s="122"/>
+      <c r="D62" s="123"/>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="67" t="s">
         <v>181</v>
       </c>
@@ -6602,7 +6606,7 @@
       <c r="C63" s="68"/>
       <c r="D63" s="68"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:4">
       <c r="A64" s="69" t="s">
         <v>183</v>
       </c>
@@ -6612,7 +6616,7 @@
       <c r="C64" s="55"/>
       <c r="D64" s="55"/>
     </row>
-    <row r="65" spans="1:4" ht="44" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:4" ht="42">
       <c r="A65" s="69" t="s">
         <v>185</v>
       </c>

--- a/progression_2019_2020_IPT_MPSI.xlsx
+++ b/progression_2019_2020_IPT_MPSI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Informatique_MPSI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C209D9D7-7605-46B1-A67A-660C67043770}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B689D1B5-07DC-49FA-88D4-F972D7F3BFEE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="293">
   <si>
     <t>Cours</t>
   </si>
@@ -159,9 +159,6 @@
     <t>Complexité</t>
   </si>
   <si>
-    <t>Compléxité</t>
-  </si>
-  <si>
     <t>Ingéniérie numérique</t>
   </si>
   <si>
@@ -220,9 +217,6 @@
   </si>
   <si>
     <t>Supports TP</t>
-  </si>
-  <si>
-    <t>Image entete</t>
   </si>
   <si>
     <t>Fond_ARCH</t>
@@ -934,6 +928,9 @@
   </si>
   <si>
     <t>AA.C1; AA.S1; AA.S2; AA.S3</t>
+  </si>
+  <si>
+    <t>Image entête</t>
   </si>
 </sst>
 </file>
@@ -2236,18 +2233,54 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2297,42 +2330,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="7" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3335,8 +3332,8 @@
   </sheetPr>
   <dimension ref="A1:X53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="L15" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="26" customHeight="1"/>
@@ -3392,16 +3389,16 @@
         <v>1</v>
       </c>
       <c r="K1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="L1" s="4" t="s">
-        <v>59</v>
-      </c>
       <c r="M1" s="4" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="O1" s="4" t="s">
         <v>13</v>
@@ -3410,10 +3407,10 @@
         <v>22</v>
       </c>
       <c r="Q1" s="41" t="s">
-        <v>60</v>
+        <v>292</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="S1" s="32" t="s">
         <v>24</v>
@@ -3426,11 +3423,11 @@
       <c r="B2" s="9">
         <v>43711</v>
       </c>
-      <c r="C2" s="109">
+      <c r="C2" s="90">
         <v>1</v>
       </c>
-      <c r="D2" s="112" t="s">
-        <v>274</v>
+      <c r="D2" s="93" t="s">
+        <v>272</v>
       </c>
       <c r="E2" s="26">
         <v>1</v>
@@ -3453,18 +3450,18 @@
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
       <c r="M2" s="73" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="N2" s="73" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="O2" s="3"/>
       <c r="P2" s="42"/>
       <c r="Q2" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="R2" s="48" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="S2" s="33"/>
       <c r="V2" s="70"/>
@@ -3479,19 +3476,19 @@
         <f>B2+7</f>
         <v>43718</v>
       </c>
-      <c r="C3" s="110"/>
-      <c r="D3" s="113"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="94"/>
       <c r="E3" s="26">
         <v>2</v>
       </c>
       <c r="F3" s="72" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G3" s="26">
         <v>2</v>
       </c>
       <c r="H3" s="72" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="I3" s="11">
         <v>1</v>
@@ -3502,18 +3499,18 @@
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
       <c r="M3" s="73" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="N3" s="73" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="O3" s="3"/>
       <c r="P3" s="42"/>
       <c r="Q3" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="R3" s="48" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="S3" s="33"/>
       <c r="V3" s="70"/>
@@ -3528,19 +3525,19 @@
         <f>B3+7</f>
         <v>43725</v>
       </c>
-      <c r="C4" s="110"/>
-      <c r="D4" s="113"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="94"/>
       <c r="E4" s="26">
         <v>2</v>
       </c>
       <c r="F4" s="72" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G4" s="26">
         <v>2</v>
       </c>
       <c r="H4" s="72" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="I4" s="11">
         <v>2</v>
@@ -3551,18 +3548,18 @@
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
       <c r="M4" s="73" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="N4" s="73" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="O4" s="3"/>
       <c r="P4" s="42"/>
       <c r="Q4" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="R4" s="48" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="S4" s="33"/>
       <c r="V4" s="70"/>
@@ -3577,8 +3574,8 @@
         <f t="shared" ref="B5:B8" si="0">B4+7</f>
         <v>43732</v>
       </c>
-      <c r="C5" s="110"/>
-      <c r="D5" s="113"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="94"/>
       <c r="E5" s="26">
         <v>3</v>
       </c>
@@ -3600,18 +3597,18 @@
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
       <c r="M5" s="73" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="N5" s="73" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="O5" s="3"/>
       <c r="P5" s="42"/>
       <c r="Q5" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="R5" s="48" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="S5" s="33"/>
       <c r="V5" s="70"/>
@@ -3626,8 +3623,8 @@
         <f>B5+7</f>
         <v>43739</v>
       </c>
-      <c r="C6" s="110"/>
-      <c r="D6" s="113"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="94"/>
       <c r="E6" s="26">
         <v>4</v>
       </c>
@@ -3650,15 +3647,15 @@
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
       <c r="N6" s="73" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="O6" s="3"/>
       <c r="P6" s="42"/>
       <c r="Q6" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="R6" s="48" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="S6" s="33"/>
       <c r="V6" s="70"/>
@@ -3673,8 +3670,8 @@
         <f t="shared" si="0"/>
         <v>43746</v>
       </c>
-      <c r="C7" s="110"/>
-      <c r="D7" s="113"/>
+      <c r="C7" s="91"/>
+      <c r="D7" s="94"/>
       <c r="E7" s="26">
         <v>4</v>
       </c>
@@ -3697,15 +3694,15 @@
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
       <c r="N7" s="73" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="O7" s="4"/>
       <c r="P7" s="36"/>
       <c r="Q7" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="R7" s="48" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="S7" s="32"/>
       <c r="V7" s="70"/>
@@ -3720,8 +3717,8 @@
         <f t="shared" si="0"/>
         <v>43753</v>
       </c>
-      <c r="C8" s="111"/>
-      <c r="D8" s="114"/>
+      <c r="C8" s="92"/>
+      <c r="D8" s="95"/>
       <c r="E8" s="26">
         <v>5</v>
       </c>
@@ -3741,20 +3738,20 @@
         <v>28</v>
       </c>
       <c r="M8" s="78" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="N8" s="73" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="O8" s="4"/>
       <c r="P8" s="36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q8" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="R8" s="48" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="S8" s="33"/>
       <c r="V8" s="70"/>
@@ -3762,24 +3759,24 @@
       <c r="X8" s="75"/>
     </row>
     <row r="9" spans="1:24" ht="26" customHeight="1">
-      <c r="A9" s="84" t="s">
+      <c r="A9" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="85"/>
-      <c r="C9" s="85"/>
-      <c r="D9" s="85"/>
-      <c r="E9" s="85"/>
-      <c r="F9" s="85"/>
-      <c r="G9" s="85"/>
-      <c r="H9" s="85"/>
-      <c r="I9" s="85"/>
-      <c r="J9" s="85"/>
-      <c r="K9" s="85"/>
-      <c r="L9" s="85"/>
-      <c r="M9" s="85"/>
-      <c r="N9" s="85"/>
-      <c r="O9" s="85"/>
-      <c r="P9" s="85"/>
+      <c r="B9" s="89"/>
+      <c r="C9" s="89"/>
+      <c r="D9" s="89"/>
+      <c r="E9" s="89"/>
+      <c r="F9" s="89"/>
+      <c r="G9" s="89"/>
+      <c r="H9" s="89"/>
+      <c r="I9" s="89"/>
+      <c r="J9" s="89"/>
+      <c r="K9" s="89"/>
+      <c r="L9" s="89"/>
+      <c r="M9" s="89"/>
+      <c r="N9" s="89"/>
+      <c r="O9" s="89"/>
+      <c r="P9" s="89"/>
       <c r="Q9" s="4"/>
       <c r="R9" s="41"/>
       <c r="S9" s="32"/>
@@ -3795,11 +3792,11 @@
         <f>B8+21</f>
         <v>43774</v>
       </c>
-      <c r="C10" s="109">
+      <c r="C10" s="90">
         <v>1</v>
       </c>
-      <c r="D10" s="112" t="s">
-        <v>274</v>
+      <c r="D10" s="93" t="s">
+        <v>272</v>
       </c>
       <c r="E10" s="26">
         <v>5</v>
@@ -3822,18 +3819,18 @@
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
       <c r="M10" s="78" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="N10" s="73" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="O10" s="3"/>
       <c r="P10" s="42"/>
       <c r="Q10" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="R10" s="48" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="S10" s="32"/>
       <c r="V10" s="70"/>
@@ -3848,8 +3845,8 @@
         <f t="shared" ref="B11:B16" si="1">B10+7</f>
         <v>43781</v>
       </c>
-      <c r="C11" s="110"/>
-      <c r="D11" s="113"/>
+      <c r="C11" s="91"/>
+      <c r="D11" s="94"/>
       <c r="E11" s="26">
         <v>6</v>
       </c>
@@ -3871,16 +3868,16 @@
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
       <c r="M11" s="78" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="N11" s="5"/>
       <c r="O11" s="3"/>
       <c r="P11" s="42"/>
       <c r="Q11" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="R11" s="48" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="S11" s="33"/>
       <c r="V11" s="70"/>
@@ -3895,8 +3892,8 @@
         <f t="shared" si="1"/>
         <v>43788</v>
       </c>
-      <c r="C12" s="110"/>
-      <c r="D12" s="113"/>
+      <c r="C12" s="91"/>
+      <c r="D12" s="94"/>
       <c r="E12" s="26">
         <v>6</v>
       </c>
@@ -3918,16 +3915,16 @@
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
       <c r="M12" s="78" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="N12" s="5"/>
       <c r="O12" s="3"/>
       <c r="P12" s="42"/>
       <c r="Q12" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="R12" s="48" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="V12" s="70"/>
       <c r="W12" s="75"/>
@@ -3941,8 +3938,8 @@
         <f t="shared" si="1"/>
         <v>43795</v>
       </c>
-      <c r="C13" s="110"/>
-      <c r="D13" s="113"/>
+      <c r="C13" s="91"/>
+      <c r="D13" s="94"/>
       <c r="E13" s="26">
         <v>7</v>
       </c>
@@ -3964,18 +3961,18 @@
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
       <c r="M13" s="78" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="N13" s="78" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="O13" s="3"/>
       <c r="P13" s="42"/>
       <c r="Q13" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="R13" s="48" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="S13" s="33"/>
       <c r="V13" s="70"/>
@@ -3990,8 +3987,8 @@
         <f t="shared" si="1"/>
         <v>43802</v>
       </c>
-      <c r="C14" s="110"/>
-      <c r="D14" s="113"/>
+      <c r="C14" s="91"/>
+      <c r="D14" s="94"/>
       <c r="E14" s="26">
         <v>7</v>
       </c>
@@ -4013,18 +4010,18 @@
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
       <c r="M14" s="78" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="N14" s="78" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="O14" s="3"/>
       <c r="P14" s="42"/>
       <c r="Q14" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="R14" s="48" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="V14" s="70"/>
       <c r="W14" s="75"/>
@@ -4038,8 +4035,8 @@
         <f t="shared" si="1"/>
         <v>43809</v>
       </c>
-      <c r="C15" s="110"/>
-      <c r="D15" s="113"/>
+      <c r="C15" s="91"/>
+      <c r="D15" s="94"/>
       <c r="E15" s="26">
         <v>8</v>
       </c>
@@ -4061,20 +4058,20 @@
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
       <c r="M15" s="73" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="N15" s="78" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P15" s="42"/>
       <c r="Q15" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="R15" s="48" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="S15" s="33"/>
       <c r="V15" s="70"/>
@@ -4089,8 +4086,8 @@
         <f t="shared" si="1"/>
         <v>43816</v>
       </c>
-      <c r="C16" s="111"/>
-      <c r="D16" s="114"/>
+      <c r="C16" s="92"/>
+      <c r="D16" s="95"/>
       <c r="E16" s="26">
         <v>8</v>
       </c>
@@ -4112,18 +4109,18 @@
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
       <c r="M16" s="73" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="N16" s="78" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="O16" s="3"/>
       <c r="P16" s="36"/>
       <c r="Q16" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="R16" s="48" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="S16" s="32"/>
       <c r="V16" s="70"/>
@@ -4131,24 +4128,24 @@
       <c r="X16" s="75"/>
     </row>
     <row r="17" spans="1:24" ht="26" customHeight="1">
-      <c r="A17" s="84" t="s">
+      <c r="A17" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="85"/>
-      <c r="C17" s="85"/>
-      <c r="D17" s="85"/>
-      <c r="E17" s="85"/>
-      <c r="F17" s="85"/>
-      <c r="G17" s="85"/>
-      <c r="H17" s="85"/>
-      <c r="I17" s="85"/>
-      <c r="J17" s="85"/>
-      <c r="K17" s="85"/>
-      <c r="L17" s="85"/>
-      <c r="M17" s="85"/>
-      <c r="N17" s="85"/>
-      <c r="O17" s="85"/>
-      <c r="P17" s="85"/>
+      <c r="B17" s="89"/>
+      <c r="C17" s="89"/>
+      <c r="D17" s="89"/>
+      <c r="E17" s="89"/>
+      <c r="F17" s="89"/>
+      <c r="G17" s="89"/>
+      <c r="H17" s="89"/>
+      <c r="I17" s="89"/>
+      <c r="J17" s="89"/>
+      <c r="K17" s="89"/>
+      <c r="L17" s="89"/>
+      <c r="M17" s="89"/>
+      <c r="N17" s="89"/>
+      <c r="O17" s="89"/>
+      <c r="P17" s="89"/>
       <c r="Q17" s="4"/>
       <c r="R17" s="41"/>
       <c r="S17" s="32"/>
@@ -4164,45 +4161,45 @@
         <f>B16+21</f>
         <v>43837</v>
       </c>
-      <c r="C18" s="103">
+      <c r="C18" s="82">
         <v>2</v>
       </c>
-      <c r="D18" s="106" t="s">
-        <v>188</v>
+      <c r="D18" s="85" t="s">
+        <v>186</v>
       </c>
       <c r="E18" s="28">
         <v>1</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G18" s="28">
         <v>1</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I18" s="13">
         <v>8</v>
       </c>
       <c r="J18" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
       <c r="M18" s="73" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="N18" s="73" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="O18" s="27"/>
       <c r="P18" s="43"/>
       <c r="Q18" s="27" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="R18" s="49" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="S18" s="33"/>
       <c r="V18" s="70"/>
@@ -4217,41 +4214,41 @@
         <f>B18+7</f>
         <v>43844</v>
       </c>
-      <c r="C19" s="104"/>
-      <c r="D19" s="107"/>
+      <c r="C19" s="83"/>
+      <c r="D19" s="86"/>
       <c r="E19" s="28">
         <v>1</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G19" s="28">
         <v>1</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I19" s="13">
         <v>8</v>
       </c>
       <c r="J19" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
       <c r="M19" s="73" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="N19" s="73" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="O19" s="27"/>
       <c r="P19" s="43"/>
       <c r="Q19" s="27" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="R19" s="49" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="S19" s="33"/>
       <c r="V19" s="70"/>
@@ -4266,8 +4263,8 @@
         <f t="shared" ref="B20:B40" si="2">B19+7</f>
         <v>43851</v>
       </c>
-      <c r="C20" s="104"/>
-      <c r="D20" s="107"/>
+      <c r="C20" s="83"/>
+      <c r="D20" s="86"/>
       <c r="E20" s="28">
         <v>2</v>
       </c>
@@ -4284,23 +4281,23 @@
         <v>9</v>
       </c>
       <c r="J20" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
       <c r="M20" s="73" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="N20" s="73" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="O20" s="3"/>
       <c r="P20" s="42"/>
       <c r="Q20" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="R20" s="49" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="S20" s="33"/>
       <c r="V20" s="70"/>
@@ -4315,8 +4312,8 @@
         <f>B20+7</f>
         <v>43858</v>
       </c>
-      <c r="C21" s="105"/>
-      <c r="D21" s="108"/>
+      <c r="C21" s="84"/>
+      <c r="D21" s="87"/>
       <c r="E21" s="28">
         <v>2</v>
       </c>
@@ -4333,23 +4330,23 @@
         <v>9</v>
       </c>
       <c r="J21" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
       <c r="M21" s="73" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="N21" s="73" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="O21" s="3"/>
       <c r="P21" s="42"/>
       <c r="Q21" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="R21" s="49" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="S21" s="33"/>
       <c r="V21" s="70"/>
@@ -4364,45 +4361,45 @@
         <f>B21+7</f>
         <v>43865</v>
       </c>
-      <c r="C22" s="89">
+      <c r="C22" s="101">
         <v>3</v>
       </c>
-      <c r="D22" s="86" t="s">
-        <v>63</v>
+      <c r="D22" s="98" t="s">
+        <v>61</v>
       </c>
       <c r="E22" s="35">
         <v>1</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G22" s="35">
         <v>1</v>
       </c>
       <c r="H22" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I22" s="15">
         <v>10</v>
       </c>
       <c r="J22" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
       <c r="M22" s="73" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="N22" s="73" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="O22" s="3"/>
       <c r="P22" s="42"/>
       <c r="Q22" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="R22" s="52" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="S22" s="32"/>
       <c r="V22" s="70"/>
@@ -4417,43 +4414,43 @@
         <f>B22+7</f>
         <v>43872</v>
       </c>
-      <c r="C23" s="90"/>
-      <c r="D23" s="87"/>
+      <c r="C23" s="102"/>
+      <c r="D23" s="99"/>
       <c r="E23" s="35">
         <v>2</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G23" s="35">
         <v>2</v>
       </c>
       <c r="H23" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I23" s="15">
         <v>10</v>
       </c>
       <c r="J23" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
       <c r="M23" s="73" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="N23" s="73" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="O23" s="4" t="s">
         <v>16</v>
       </c>
       <c r="P23" s="42"/>
       <c r="Q23" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="R23" s="52" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="S23" s="33"/>
     </row>
@@ -4465,61 +4462,61 @@
         <f>B23+7</f>
         <v>43879</v>
       </c>
-      <c r="C24" s="91"/>
-      <c r="D24" s="88"/>
+      <c r="C24" s="103"/>
+      <c r="D24" s="100"/>
       <c r="E24" s="34">
         <v>2</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G24" s="35">
         <v>2</v>
       </c>
       <c r="H24" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I24" s="15">
         <v>11</v>
       </c>
       <c r="J24" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
       <c r="M24" s="73" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="N24" s="73" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="O24" s="27"/>
       <c r="P24" s="42"/>
       <c r="Q24" s="3"/>
       <c r="R24" s="52" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="S24" s="33"/>
     </row>
     <row r="25" spans="1:24" ht="26" customHeight="1">
-      <c r="A25" s="84" t="s">
+      <c r="A25" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="85"/>
-      <c r="C25" s="85"/>
-      <c r="D25" s="85"/>
-      <c r="E25" s="85"/>
-      <c r="F25" s="85"/>
-      <c r="G25" s="85"/>
-      <c r="H25" s="85"/>
-      <c r="I25" s="85"/>
-      <c r="J25" s="85"/>
-      <c r="K25" s="85"/>
-      <c r="L25" s="85"/>
-      <c r="M25" s="85"/>
-      <c r="N25" s="85"/>
-      <c r="O25" s="85"/>
-      <c r="P25" s="85"/>
+      <c r="B25" s="89"/>
+      <c r="C25" s="89"/>
+      <c r="D25" s="89"/>
+      <c r="E25" s="89"/>
+      <c r="F25" s="89"/>
+      <c r="G25" s="89"/>
+      <c r="H25" s="89"/>
+      <c r="I25" s="89"/>
+      <c r="J25" s="89"/>
+      <c r="K25" s="89"/>
+      <c r="L25" s="89"/>
+      <c r="M25" s="89"/>
+      <c r="N25" s="89"/>
+      <c r="O25" s="89"/>
+      <c r="P25" s="89"/>
       <c r="Q25" s="4"/>
       <c r="R25" s="50"/>
       <c r="S25" s="32"/>
@@ -4535,45 +4532,45 @@
         <f>B24+21</f>
         <v>43900</v>
       </c>
-      <c r="C26" s="89">
+      <c r="C26" s="101">
         <v>3</v>
       </c>
-      <c r="D26" s="86" t="s">
-        <v>63</v>
+      <c r="D26" s="98" t="s">
+        <v>61</v>
       </c>
       <c r="E26" s="29">
         <v>3</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G26" s="35">
         <v>3</v>
       </c>
       <c r="H26" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I26" s="15">
         <v>11</v>
       </c>
       <c r="J26" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
       <c r="M26" s="73" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="N26" s="73" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="O26" s="27"/>
       <c r="P26" s="42"/>
       <c r="Q26" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="R26" s="52" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="S26" s="32"/>
       <c r="V26" s="70"/>
@@ -4588,38 +4585,38 @@
         <f t="shared" si="2"/>
         <v>43907</v>
       </c>
-      <c r="C27" s="90"/>
-      <c r="D27" s="87"/>
+      <c r="C27" s="102"/>
+      <c r="D27" s="99"/>
       <c r="E27" s="35">
         <v>3</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G27" s="35">
         <v>3</v>
       </c>
       <c r="H27" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I27" s="15">
         <v>12</v>
       </c>
       <c r="J27" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
       <c r="M27" s="77" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="N27" s="73" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="P27" s="36"/>
       <c r="Q27" s="4"/>
       <c r="R27" s="52" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="S27" s="33"/>
       <c r="V27" s="70"/>
@@ -4634,41 +4631,41 @@
         <f t="shared" si="2"/>
         <v>43914</v>
       </c>
-      <c r="C28" s="90"/>
-      <c r="D28" s="87"/>
+      <c r="C28" s="102"/>
+      <c r="D28" s="99"/>
       <c r="E28" s="29">
         <v>4</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G28" s="29">
         <v>4</v>
       </c>
       <c r="H28" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I28" s="15">
         <v>12</v>
       </c>
       <c r="J28" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
       <c r="M28" s="73" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="N28" s="73" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="O28" s="4"/>
       <c r="P28" s="36"/>
       <c r="Q28" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="R28" s="52" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="S28" s="32"/>
       <c r="V28" s="70"/>
@@ -4683,39 +4680,39 @@
         <f t="shared" si="2"/>
         <v>43921</v>
       </c>
-      <c r="C29" s="91"/>
-      <c r="D29" s="88"/>
+      <c r="C29" s="103"/>
+      <c r="D29" s="100"/>
       <c r="E29" s="35">
         <v>4</v>
       </c>
       <c r="F29" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G29" s="35">
         <v>4</v>
       </c>
       <c r="H29" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I29" s="15">
         <v>13</v>
       </c>
       <c r="J29" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
       <c r="M29" s="73" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="N29" s="73" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="O29" s="3"/>
       <c r="P29" s="42"/>
       <c r="Q29" s="3"/>
       <c r="R29" s="52" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="S29" s="33"/>
       <c r="V29" s="70"/>
@@ -4730,47 +4727,47 @@
         <f t="shared" si="2"/>
         <v>43928</v>
       </c>
-      <c r="C30" s="92">
+      <c r="C30" s="104">
         <v>4</v>
       </c>
-      <c r="D30" s="94" t="s">
-        <v>45</v>
+      <c r="D30" s="106" t="s">
+        <v>44</v>
       </c>
       <c r="E30" s="30">
         <v>1</v>
       </c>
       <c r="F30" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G30" s="30">
         <v>1</v>
       </c>
       <c r="H30" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I30" s="15">
         <v>13</v>
       </c>
       <c r="J30" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
       <c r="M30" s="73" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="N30" s="73" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="O30" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P30" s="36"/>
       <c r="Q30" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="R30" s="52" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="S30" s="32"/>
       <c r="V30" s="70"/>
@@ -4785,41 +4782,41 @@
         <f t="shared" si="2"/>
         <v>43935</v>
       </c>
-      <c r="C31" s="93"/>
-      <c r="D31" s="95"/>
+      <c r="C31" s="105"/>
+      <c r="D31" s="107"/>
       <c r="E31" s="30">
         <v>2</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G31" s="30">
         <v>2</v>
       </c>
       <c r="H31" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I31" s="18">
         <v>14</v>
       </c>
       <c r="J31" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K31" s="39"/>
       <c r="L31" s="39"/>
       <c r="M31" s="73" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="N31" s="73" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="O31" s="27"/>
       <c r="P31" s="43"/>
       <c r="Q31" s="27" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="R31" s="53" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="S31" s="32"/>
       <c r="V31" s="70"/>
@@ -4827,24 +4824,24 @@
       <c r="X31" s="75"/>
     </row>
     <row r="32" spans="1:24" ht="26" customHeight="1">
-      <c r="A32" s="82" t="s">
+      <c r="A32" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="B32" s="83"/>
-      <c r="C32" s="83"/>
-      <c r="D32" s="83"/>
-      <c r="E32" s="83"/>
-      <c r="F32" s="83"/>
-      <c r="G32" s="83"/>
-      <c r="H32" s="83"/>
-      <c r="I32" s="83"/>
-      <c r="J32" s="83"/>
-      <c r="K32" s="83"/>
-      <c r="L32" s="83"/>
-      <c r="M32" s="83"/>
-      <c r="N32" s="83"/>
-      <c r="O32" s="83"/>
-      <c r="P32" s="83"/>
+      <c r="B32" s="97"/>
+      <c r="C32" s="97"/>
+      <c r="D32" s="97"/>
+      <c r="E32" s="97"/>
+      <c r="F32" s="97"/>
+      <c r="G32" s="97"/>
+      <c r="H32" s="97"/>
+      <c r="I32" s="97"/>
+      <c r="J32" s="97"/>
+      <c r="K32" s="97"/>
+      <c r="L32" s="97"/>
+      <c r="M32" s="97"/>
+      <c r="N32" s="97"/>
+      <c r="O32" s="97"/>
+      <c r="P32" s="97"/>
       <c r="Q32" s="47"/>
       <c r="R32" s="51"/>
       <c r="S32" s="32"/>
@@ -4860,43 +4857,43 @@
         <f>B31+21</f>
         <v>43956</v>
       </c>
-      <c r="C33" s="92">
+      <c r="C33" s="104">
         <v>4</v>
       </c>
-      <c r="D33" s="94" t="s">
-        <v>45</v>
+      <c r="D33" s="106" t="s">
+        <v>44</v>
       </c>
       <c r="E33" s="30">
         <v>2</v>
       </c>
       <c r="F33" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G33" s="30">
         <v>2</v>
       </c>
       <c r="H33" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I33" s="18">
         <v>14</v>
       </c>
       <c r="J33" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K33" s="38"/>
       <c r="L33" s="38"/>
       <c r="M33" s="73" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="N33" s="73" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="O33" s="6"/>
       <c r="P33" s="44"/>
       <c r="Q33" s="3"/>
       <c r="R33" s="53" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="S33" s="33"/>
     </row>
@@ -4908,41 +4905,41 @@
         <f t="shared" si="2"/>
         <v>43963</v>
       </c>
-      <c r="C34" s="97"/>
-      <c r="D34" s="96"/>
+      <c r="C34" s="109"/>
+      <c r="D34" s="108"/>
       <c r="E34" s="30">
         <v>3</v>
       </c>
       <c r="F34" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G34" s="30">
         <v>3</v>
       </c>
       <c r="H34" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I34" s="18">
         <v>15</v>
       </c>
       <c r="J34" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K34" s="39"/>
       <c r="L34" s="39"/>
       <c r="M34" s="76" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="N34" s="76" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="O34" s="4"/>
       <c r="P34" s="44"/>
       <c r="Q34" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="R34" s="53" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="S34" s="32"/>
     </row>
@@ -4954,19 +4951,19 @@
         <f t="shared" si="2"/>
         <v>43970</v>
       </c>
-      <c r="C35" s="93"/>
-      <c r="D35" s="95"/>
+      <c r="C35" s="105"/>
+      <c r="D35" s="107"/>
       <c r="E35" s="30">
         <v>4</v>
       </c>
       <c r="F35" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G35" s="30">
         <v>4</v>
       </c>
       <c r="H35" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I35" s="21">
         <v>15</v>
@@ -4977,15 +4974,15 @@
       <c r="K35" s="39"/>
       <c r="L35" s="39"/>
       <c r="M35" s="77" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="N35" s="77" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="P35" s="36"/>
       <c r="Q35" s="4"/>
       <c r="R35" s="53" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="S35" s="46"/>
     </row>
@@ -4997,17 +4994,17 @@
         <f t="shared" si="2"/>
         <v>43977</v>
       </c>
-      <c r="C36" s="100">
+      <c r="C36" s="112">
         <v>5</v>
       </c>
-      <c r="D36" s="98" t="s">
-        <v>51</v>
+      <c r="D36" s="110" t="s">
+        <v>50</v>
       </c>
       <c r="E36" s="31">
         <v>1</v>
       </c>
       <c r="F36" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G36" s="31"/>
       <c r="H36" s="20"/>
@@ -5015,7 +5012,7 @@
         <v>15</v>
       </c>
       <c r="J36" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K36" s="39"/>
       <c r="L36" s="39"/>
@@ -5025,7 +5022,7 @@
       <c r="P36" s="45"/>
       <c r="Q36" s="7"/>
       <c r="R36" s="53" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="S36" s="33"/>
       <c r="V36" s="70"/>
@@ -5040,13 +5037,13 @@
         <f t="shared" si="2"/>
         <v>43984</v>
       </c>
-      <c r="C37" s="101"/>
-      <c r="D37" s="99"/>
+      <c r="C37" s="113"/>
+      <c r="D37" s="111"/>
       <c r="E37" s="31">
         <v>1</v>
       </c>
       <c r="F37" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G37" s="31"/>
       <c r="H37" s="20"/>
@@ -5054,7 +5051,7 @@
         <v>15</v>
       </c>
       <c r="J37" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K37" s="39"/>
       <c r="L37" s="39"/>
@@ -5066,7 +5063,7 @@
       <c r="P37" s="36"/>
       <c r="Q37" s="4"/>
       <c r="R37" s="53" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="S37" s="46"/>
       <c r="V37" s="70"/>
@@ -5081,13 +5078,13 @@
         <f t="shared" si="2"/>
         <v>43991</v>
       </c>
-      <c r="C38" s="101"/>
-      <c r="D38" s="99"/>
+      <c r="C38" s="113"/>
+      <c r="D38" s="111"/>
       <c r="E38" s="31">
         <v>1</v>
       </c>
       <c r="F38" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G38" s="31"/>
       <c r="H38" s="20"/>
@@ -5095,7 +5092,7 @@
         <v>15</v>
       </c>
       <c r="J38" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
@@ -5105,7 +5102,7 @@
       <c r="P38" s="36"/>
       <c r="Q38" s="4"/>
       <c r="R38" s="53" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="S38" s="33"/>
       <c r="V38" s="70"/>
@@ -5120,13 +5117,13 @@
         <f t="shared" si="2"/>
         <v>43998</v>
       </c>
-      <c r="C39" s="101"/>
-      <c r="D39" s="99"/>
+      <c r="C39" s="113"/>
+      <c r="D39" s="111"/>
       <c r="E39" s="31">
         <v>1</v>
       </c>
       <c r="F39" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G39" s="31"/>
       <c r="H39" s="20"/>
@@ -5134,7 +5131,7 @@
         <v>15</v>
       </c>
       <c r="J39" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K39" s="5"/>
       <c r="L39" s="5"/>
@@ -5144,7 +5141,7 @@
       <c r="P39" s="43"/>
       <c r="Q39" s="27"/>
       <c r="R39" s="53" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="S39" s="46"/>
       <c r="V39" s="70"/>
@@ -5159,13 +5156,13 @@
         <f t="shared" si="2"/>
         <v>44005</v>
       </c>
-      <c r="C40" s="102"/>
-      <c r="D40" s="99"/>
+      <c r="C40" s="114"/>
+      <c r="D40" s="111"/>
       <c r="E40" s="31">
         <v>1</v>
       </c>
       <c r="F40" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G40" s="31"/>
       <c r="H40" s="20"/>
@@ -5173,7 +5170,7 @@
         <v>15</v>
       </c>
       <c r="J40" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K40" s="40"/>
       <c r="L40" s="40"/>
@@ -5181,7 +5178,7 @@
       <c r="N40" s="40"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="53" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="S40" s="33"/>
       <c r="V40" s="70"/>
@@ -5189,24 +5186,24 @@
       <c r="X40" s="75"/>
     </row>
     <row r="41" spans="1:24" ht="26" customHeight="1">
-      <c r="A41" s="82" t="s">
+      <c r="A41" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="B41" s="83"/>
-      <c r="C41" s="83"/>
-      <c r="D41" s="83"/>
-      <c r="E41" s="83"/>
-      <c r="F41" s="83"/>
-      <c r="G41" s="83"/>
-      <c r="H41" s="83"/>
-      <c r="I41" s="83"/>
-      <c r="J41" s="83"/>
-      <c r="K41" s="83"/>
-      <c r="L41" s="83"/>
-      <c r="M41" s="83"/>
-      <c r="N41" s="83"/>
-      <c r="O41" s="83"/>
-      <c r="P41" s="83"/>
+      <c r="B41" s="97"/>
+      <c r="C41" s="97"/>
+      <c r="D41" s="97"/>
+      <c r="E41" s="97"/>
+      <c r="F41" s="97"/>
+      <c r="G41" s="97"/>
+      <c r="H41" s="97"/>
+      <c r="I41" s="97"/>
+      <c r="J41" s="97"/>
+      <c r="K41" s="97"/>
+      <c r="L41" s="97"/>
+      <c r="M41" s="97"/>
+      <c r="N41" s="97"/>
+      <c r="O41" s="97"/>
+      <c r="P41" s="97"/>
       <c r="Q41" s="47"/>
       <c r="R41" s="51"/>
       <c r="V41" s="70"/>
@@ -5275,14 +5272,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="D18:D21"/>
-    <mergeCell ref="A9:P9"/>
-    <mergeCell ref="A17:P17"/>
-    <mergeCell ref="C2:C8"/>
-    <mergeCell ref="D2:D8"/>
-    <mergeCell ref="D10:D16"/>
-    <mergeCell ref="C10:C16"/>
     <mergeCell ref="A41:P41"/>
     <mergeCell ref="A32:P32"/>
     <mergeCell ref="A25:P25"/>
@@ -5296,6 +5285,14 @@
     <mergeCell ref="C33:C35"/>
     <mergeCell ref="D36:D40"/>
     <mergeCell ref="C36:C40"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="A9:P9"/>
+    <mergeCell ref="A17:P17"/>
+    <mergeCell ref="C2:C8"/>
+    <mergeCell ref="D2:D8"/>
+    <mergeCell ref="D10:D16"/>
+    <mergeCell ref="C10:C16"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5332,23 +5329,23 @@
         <v>3</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="38" customHeight="1">
       <c r="A4" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="38" customHeight="1">
       <c r="A5" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="38" customHeight="1">
@@ -5356,7 +5353,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="38" customHeight="1">
@@ -5364,7 +5361,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -5392,373 +5389,373 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="70" t="s">
+        <v>249</v>
+      </c>
+      <c r="B1" s="71" t="s">
+        <v>250</v>
+      </c>
+      <c r="C1" s="71" t="s">
         <v>251</v>
-      </c>
-      <c r="B1" s="71" t="s">
-        <v>252</v>
-      </c>
-      <c r="C1" s="71" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24">
       <c r="A2" s="70" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B2" s="71" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C2" s="71" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="36">
       <c r="A3" s="70" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B3" s="71" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C3" s="71" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24">
       <c r="A4" s="70" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B4" s="71" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C4" s="71" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="70" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B5" s="71" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C5" s="71" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="70" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B7" s="71" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C7" s="71" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="24">
       <c r="A8" s="70" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B8" s="71" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C8" s="71" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="70" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B9" s="71" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C9" s="71" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="70" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B10" s="71" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C10" s="71" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="70" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B13" s="71" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C13" s="71" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="70" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B14" s="71" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C14" s="71" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="70" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B15" s="71" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C15" s="71" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="70" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B16" s="71" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C16" s="71" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="70" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B17" s="71" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C17" s="71" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="70" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B18" s="71" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C18" s="71" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="70" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B19" s="71" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C19" s="71" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="70" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B20" s="71" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C20" s="71" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="24">
       <c r="A21" s="70" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B21" s="71" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C21" s="71" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="24">
       <c r="A22" s="70" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B22" s="71" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C22" s="71" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="70" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B23" s="71" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C23" s="71" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="24">
       <c r="A24" s="70" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B24" s="71" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C24" s="71" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="79" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B27" s="80" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C27" s="80" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="79" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B28" s="80" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C28" s="80" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="79" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B29" s="80" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C29" s="80" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="79" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B30" s="80" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C30" s="80" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="24">
       <c r="A31" s="79" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B31" s="80" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C31" s="80" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="79" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B32" s="80" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C32" s="80" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="70" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B33" s="71" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C33" s="71" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="70" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B34" s="71" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C34" s="71" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="24">
       <c r="A35" s="70" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B35" s="71" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C35" s="71" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="70" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B36" s="71" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C36" s="71" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="24">
       <c r="A37" s="70" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B37" s="71" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C37" s="71" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="36">
       <c r="A38" s="70" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B38" s="71" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C38" s="71" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="24">
       <c r="A39" s="70" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B39" s="71" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C39" s="71" t="s">
         <v>32</v>
@@ -5766,241 +5763,241 @@
     </row>
     <row r="42" spans="1:3" ht="24">
       <c r="A42" s="70" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B42" s="71" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C42" s="71" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="36">
       <c r="A43" s="70" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B43" s="71" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C43" s="71" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="24">
       <c r="A44" s="70" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B44" s="71" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C44" s="71" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="70" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B45" s="71" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C45" s="71" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="24">
       <c r="A46" s="70" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B46" s="71" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C46" s="71" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="24">
       <c r="A47" s="70" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B47" s="71" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C47" s="71" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="24">
       <c r="A48" s="70" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B48" s="71" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C48" s="71" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="24">
       <c r="A49" s="70" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B49" s="71" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C49" s="71" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="24">
       <c r="A50" s="70" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B50" s="71" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C50" s="71" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="70" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B53" s="71" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C53" s="71" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="70" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B54" s="71" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C54" s="71" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="70" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B55" s="71" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C55" s="71" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="70" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B56" s="71" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C56" s="71" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="24">
       <c r="A57" s="70" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B57" s="71" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C57" s="71" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="70" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B58" s="71" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C58" s="71" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="70" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B59" s="71" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C59" s="71" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="24">
       <c r="A60" s="70" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B60" s="71" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C60" s="71" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="70" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B61" s="71" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C61" s="71" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="70" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B63" s="71" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C63" s="71" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="70" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B64" s="71" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C64" s="71" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="70" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B65" s="71" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C65" s="71" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="48">
       <c r="B66" s="71" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C66" s="71" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -6026,7 +6023,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="14.5">
       <c r="A1" s="115" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B1" s="116"/>
       <c r="C1" s="116"/>
@@ -6034,10 +6031,10 @@
     </row>
     <row r="2" spans="1:4" ht="21">
       <c r="A2" s="54" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B2" s="55" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C2" s="55"/>
       <c r="D2" s="56"/>
@@ -6046,7 +6043,7 @@
       <c r="A3" s="54"/>
       <c r="B3" s="55"/>
       <c r="C3" s="55" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D3" s="56"/>
     </row>
@@ -6054,7 +6051,7 @@
       <c r="A4" s="54"/>
       <c r="B4" s="55"/>
       <c r="C4" s="55" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D4" s="56"/>
     </row>
@@ -6062,7 +6059,7 @@
       <c r="A5" s="54"/>
       <c r="B5" s="55"/>
       <c r="C5" s="55" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D5" s="56"/>
     </row>
@@ -6074,44 +6071,44 @@
     </row>
     <row r="7" spans="1:4" ht="21">
       <c r="A7" s="54" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B7" s="55" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C7" s="55"/>
       <c r="D7" s="56"/>
     </row>
     <row r="8" spans="1:4" ht="21">
       <c r="A8" s="54" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B8" s="55" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C8" s="55"/>
       <c r="D8" s="56" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="42">
       <c r="A9" s="54"/>
       <c r="B9" s="55"/>
       <c r="C9" s="55" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D9" s="56" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="53" thickBot="1">
       <c r="A10" s="57"/>
       <c r="B10" s="58"/>
       <c r="C10" s="58" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D10" s="59" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="13" thickBot="1">
@@ -6122,7 +6119,7 @@
     </row>
     <row r="12" spans="1:4" ht="14.5">
       <c r="A12" s="115" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B12" s="116"/>
       <c r="C12" s="116"/>
@@ -6130,80 +6127,80 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="54" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B13" s="55" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C13" s="55"/>
       <c r="D13" s="56"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="54" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B14" s="55" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C14" s="55"/>
       <c r="D14" s="56"/>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="54" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B15" s="55" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C15" s="55"/>
       <c r="D15" s="56"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="54" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B16" s="55" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C16" s="55"/>
       <c r="D16" s="56"/>
     </row>
     <row r="17" spans="1:4" ht="21">
       <c r="A17" s="54" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B17" s="55" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C17" s="55"/>
       <c r="D17" s="56"/>
     </row>
     <row r="18" spans="1:4" ht="21">
       <c r="A18" s="54" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B18" s="55" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C18" s="55"/>
       <c r="D18" s="56"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="54" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B19" s="55" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C19" s="55"/>
       <c r="D19" s="56"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="54" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B20" s="55" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C20" s="55"/>
       <c r="D20" s="56"/>
@@ -6212,7 +6209,7 @@
       <c r="A21" s="54"/>
       <c r="B21" s="55"/>
       <c r="C21" s="55" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D21" s="56"/>
     </row>
@@ -6220,7 +6217,7 @@
       <c r="A22" s="54"/>
       <c r="B22" s="55"/>
       <c r="C22" s="55" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D22" s="56"/>
     </row>
@@ -6228,7 +6225,7 @@
       <c r="A23" s="54"/>
       <c r="B23" s="55"/>
       <c r="C23" s="55" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D23" s="56"/>
     </row>
@@ -6236,7 +6233,7 @@
       <c r="A24" s="54"/>
       <c r="B24" s="55"/>
       <c r="C24" s="55" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D24" s="56"/>
     </row>
@@ -6244,7 +6241,7 @@
       <c r="A25" s="54"/>
       <c r="B25" s="55"/>
       <c r="C25" s="55" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D25" s="56"/>
     </row>
@@ -6256,60 +6253,60 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="54" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B27" s="55" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C27" s="55"/>
       <c r="D27" s="56"/>
     </row>
     <row r="28" spans="1:4" ht="21">
       <c r="A28" s="54" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B28" s="55" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C28" s="55"/>
       <c r="D28" s="56"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="54" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B29" s="55" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C29" s="55"/>
       <c r="D29" s="56"/>
     </row>
     <row r="30" spans="1:4" ht="21">
       <c r="A30" s="54" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B30" s="55" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C30" s="55"/>
       <c r="D30" s="56"/>
     </row>
     <row r="31" spans="1:4" ht="21">
       <c r="A31" s="54" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B31" s="55" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C31" s="55"/>
       <c r="D31" s="56"/>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="54" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B32" s="55" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C32" s="55"/>
       <c r="D32" s="56"/>
@@ -6318,70 +6315,70 @@
       <c r="A33" s="54"/>
       <c r="B33" s="55"/>
       <c r="C33" s="55" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D33" s="56" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="21">
       <c r="A34" s="54"/>
       <c r="B34" s="55"/>
       <c r="C34" s="55" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D34" s="56" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="31.5">
       <c r="A35" s="54"/>
       <c r="B35" s="55"/>
       <c r="C35" s="55" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D35" s="56" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="31.5">
       <c r="A36" s="54"/>
       <c r="B36" s="55"/>
       <c r="C36" s="55" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D36" s="56" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="31.5">
       <c r="A37" s="54"/>
       <c r="B37" s="55"/>
       <c r="C37" s="55" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D37" s="56" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="52.5">
       <c r="A38" s="54"/>
       <c r="B38" s="55"/>
       <c r="C38" s="55" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D38" s="56" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="32" thickBot="1">
       <c r="A39" s="57"/>
       <c r="B39" s="58"/>
       <c r="C39" s="58" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D39" s="59" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="13" thickBot="1">
@@ -6392,7 +6389,7 @@
     </row>
     <row r="41" spans="1:4" ht="14.5">
       <c r="A41" s="118" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B41" s="119"/>
       <c r="C41" s="119"/>
@@ -6400,50 +6397,50 @@
     </row>
     <row r="42" spans="1:4" ht="31.5">
       <c r="A42" s="54" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B42" s="62" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C42" s="62"/>
       <c r="D42" s="63"/>
     </row>
     <row r="43" spans="1:4" ht="52.5">
       <c r="A43" s="54" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B43" s="62" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C43" s="62"/>
       <c r="D43" s="63"/>
     </row>
     <row r="44" spans="1:4" ht="31.5">
       <c r="A44" s="54" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B44" s="62" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C44" s="62"/>
       <c r="D44" s="63"/>
     </row>
     <row r="45" spans="1:4" ht="21">
       <c r="A45" s="54" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B45" s="62" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C45" s="62"/>
       <c r="D45" s="63"/>
     </row>
     <row r="46" spans="1:4" ht="21">
       <c r="A46" s="54" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B46" s="62" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C46" s="62"/>
       <c r="D46" s="63"/>
@@ -6452,40 +6449,40 @@
       <c r="A47" s="54"/>
       <c r="B47" s="62"/>
       <c r="C47" s="62" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D47" s="63" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="31.5">
       <c r="A48" s="54"/>
       <c r="B48" s="62"/>
       <c r="C48" s="62" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D48" s="63" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="52.5">
       <c r="A49" s="54"/>
       <c r="B49" s="62"/>
       <c r="C49" s="62" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D49" s="63" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="74" thickBot="1">
       <c r="A50" s="57"/>
       <c r="B50" s="64"/>
       <c r="C50" s="64" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D50" s="65" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15" thickBot="1">
@@ -6496,7 +6493,7 @@
     </row>
     <row r="52" spans="1:4" ht="15" thickBot="1">
       <c r="A52" s="121" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B52" s="122"/>
       <c r="C52" s="122"/>
@@ -6504,50 +6501,50 @@
     </row>
     <row r="53" spans="1:4" ht="21">
       <c r="A53" s="67" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B53" s="68" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C53" s="68"/>
       <c r="D53" s="68"/>
     </row>
     <row r="54" spans="1:4" ht="21">
       <c r="A54" s="69" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B54" s="55" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C54" s="55"/>
       <c r="D54" s="55"/>
     </row>
     <row r="55" spans="1:4" ht="21">
       <c r="A55" s="69" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B55" s="55" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C55" s="55"/>
       <c r="D55" s="55"/>
     </row>
     <row r="56" spans="1:4" ht="21">
       <c r="A56" s="69" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B56" s="55" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C56" s="55"/>
       <c r="D56" s="55"/>
     </row>
     <row r="57" spans="1:4" ht="21">
       <c r="A57" s="69" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B57" s="55" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C57" s="55"/>
       <c r="D57" s="55"/>
@@ -6556,30 +6553,30 @@
       <c r="A58" s="69"/>
       <c r="B58" s="55"/>
       <c r="C58" s="55" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D58" s="55" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="52.5">
       <c r="A59" s="69"/>
       <c r="B59" s="55"/>
       <c r="C59" s="55" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D59" s="55" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="21.5" thickBot="1">
       <c r="A60" s="69"/>
       <c r="B60" s="55"/>
       <c r="C60" s="55" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D60" s="55" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="15" thickBot="1">
@@ -6590,7 +6587,7 @@
     </row>
     <row r="62" spans="1:4" ht="15" thickBot="1">
       <c r="A62" s="121" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B62" s="122"/>
       <c r="C62" s="122"/>
@@ -6598,33 +6595,33 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="67" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B63" s="68" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C63" s="68"/>
       <c r="D63" s="68"/>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="69" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B64" s="55" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C64" s="55"/>
       <c r="D64" s="55"/>
     </row>
     <row r="65" spans="1:4" ht="42">
       <c r="A65" s="69" t="s">
+        <v>183</v>
+      </c>
+      <c r="B65" s="55" t="s">
+        <v>184</v>
+      </c>
+      <c r="C65" s="55" t="s">
         <v>185</v>
-      </c>
-      <c r="B65" s="55" t="s">
-        <v>186</v>
-      </c>
-      <c r="C65" s="55" t="s">
-        <v>187</v>
       </c>
       <c r="D65" s="55"/>
     </row>

--- a/progression_2019_2020_IPT_MPSI.xlsx
+++ b/progression_2019_2020_IPT_MPSI.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28109"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Informatique_MPSI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emiliendurif/Documents/prepa/MPSI/ipt_mpsi_lamartin/Informatique_MPSI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B689D1B5-07DC-49FA-88D4-F972D7F3BFEE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19420" windowHeight="10420"/>
   </bookViews>
   <sheets>
     <sheet name="Semanier MPSI IPT 2019-2020" sheetId="12" r:id="rId1"/>
@@ -27,13 +26,13 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
       </xcalcf:calcFeatures>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
@@ -936,8 +935,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2233,6 +2232,69 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="1" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2251,12 +2313,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2273,63 +2329,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3008,13 +3007,13 @@
     <cellStyle name="Lien hypertexte visité" xfId="651" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="653" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000087020000}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000088020000}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000089020000}"/>
-    <cellStyle name="Normal 4" xfId="4" xr:uid="{00000000-0005-0000-0000-00008A020000}"/>
-    <cellStyle name="Normal 4 2" xfId="5" xr:uid="{00000000-0005-0000-0000-00008B020000}"/>
-    <cellStyle name="Normal 4 3" xfId="6" xr:uid="{00000000-0005-0000-0000-00008C020000}"/>
-    <cellStyle name="Normal 5" xfId="7" xr:uid="{00000000-0005-0000-0000-00008D020000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2 2" xfId="2"/>
+    <cellStyle name="Normal 3" xfId="3"/>
+    <cellStyle name="Normal 4" xfId="4"/>
+    <cellStyle name="Normal 4 2" xfId="5"/>
+    <cellStyle name="Normal 4 3" xfId="6"/>
+    <cellStyle name="Normal 5" xfId="7"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -3326,8 +3325,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:X53"/>
@@ -3336,28 +3335,28 @@
       <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="26" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="26" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="10.81640625" style="1"/>
-    <col min="4" max="4" width="20.36328125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="10.83203125" style="1"/>
+    <col min="4" max="4" width="20.33203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="37.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.6328125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="37.36328125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="5.453125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="37.36328125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="37.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="37.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="37.33203125" style="1" customWidth="1"/>
     <col min="11" max="12" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="32.6328125" style="1" customWidth="1"/>
-    <col min="15" max="18" width="10.81640625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="41.36328125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="10.81640625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.81640625" style="1"/>
-    <col min="22" max="22" width="10.81640625" style="1" customWidth="1"/>
-    <col min="23" max="24" width="58.453125" style="74" customWidth="1"/>
-    <col min="25" max="16384" width="10.81640625" style="1"/>
+    <col min="13" max="14" width="32.6640625" style="1" customWidth="1"/>
+    <col min="15" max="18" width="10.83203125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="41.33203125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="10.83203125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.83203125" style="1"/>
+    <col min="22" max="22" width="10.83203125" style="1" customWidth="1"/>
+    <col min="23" max="24" width="58.5" style="74" customWidth="1"/>
+    <col min="25" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="26" customHeight="1">
+    <row r="1" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>19</v>
       </c>
@@ -3416,17 +3415,17 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="26" customHeight="1">
+    <row r="2" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="9">
         <v>43711</v>
       </c>
-      <c r="C2" s="90">
+      <c r="C2" s="109">
         <v>1</v>
       </c>
-      <c r="D2" s="93" t="s">
+      <c r="D2" s="112" t="s">
         <v>272</v>
       </c>
       <c r="E2" s="26">
@@ -3468,7 +3467,7 @@
       <c r="W2" s="75"/>
       <c r="X2" s="75"/>
     </row>
-    <row r="3" spans="1:24" ht="26" customHeight="1">
+    <row r="3" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -3476,8 +3475,8 @@
         <f>B2+7</f>
         <v>43718</v>
       </c>
-      <c r="C3" s="91"/>
-      <c r="D3" s="94"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="113"/>
       <c r="E3" s="26">
         <v>2</v>
       </c>
@@ -3517,7 +3516,7 @@
       <c r="W3" s="75"/>
       <c r="X3" s="75"/>
     </row>
-    <row r="4" spans="1:24" ht="26" customHeight="1">
+    <row r="4" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -3525,8 +3524,8 @@
         <f>B3+7</f>
         <v>43725</v>
       </c>
-      <c r="C4" s="91"/>
-      <c r="D4" s="94"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="113"/>
       <c r="E4" s="26">
         <v>2</v>
       </c>
@@ -3566,7 +3565,7 @@
       <c r="W4" s="75"/>
       <c r="X4" s="75"/>
     </row>
-    <row r="5" spans="1:24" ht="26" customHeight="1">
+    <row r="5" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -3574,8 +3573,8 @@
         <f t="shared" ref="B5:B8" si="0">B4+7</f>
         <v>43732</v>
       </c>
-      <c r="C5" s="91"/>
-      <c r="D5" s="94"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="113"/>
       <c r="E5" s="26">
         <v>3</v>
       </c>
@@ -3615,7 +3614,7 @@
       <c r="W5" s="75"/>
       <c r="X5" s="75"/>
     </row>
-    <row r="6" spans="1:24" ht="26" customHeight="1">
+    <row r="6" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3623,8 +3622,8 @@
         <f>B5+7</f>
         <v>43739</v>
       </c>
-      <c r="C6" s="91"/>
-      <c r="D6" s="94"/>
+      <c r="C6" s="110"/>
+      <c r="D6" s="113"/>
       <c r="E6" s="26">
         <v>4</v>
       </c>
@@ -3662,7 +3661,7 @@
       <c r="W6" s="75"/>
       <c r="X6" s="75"/>
     </row>
-    <row r="7" spans="1:24" ht="26" customHeight="1">
+    <row r="7" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3670,8 +3669,8 @@
         <f t="shared" si="0"/>
         <v>43746</v>
       </c>
-      <c r="C7" s="91"/>
-      <c r="D7" s="94"/>
+      <c r="C7" s="110"/>
+      <c r="D7" s="113"/>
       <c r="E7" s="26">
         <v>4</v>
       </c>
@@ -3709,7 +3708,7 @@
       <c r="W7" s="75"/>
       <c r="X7" s="75"/>
     </row>
-    <row r="8" spans="1:24" ht="26" customHeight="1">
+    <row r="8" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3717,8 +3716,8 @@
         <f t="shared" si="0"/>
         <v>43753</v>
       </c>
-      <c r="C8" s="92"/>
-      <c r="D8" s="95"/>
+      <c r="C8" s="111"/>
+      <c r="D8" s="114"/>
       <c r="E8" s="26">
         <v>5</v>
       </c>
@@ -3758,25 +3757,25 @@
       <c r="W8" s="75"/>
       <c r="X8" s="75"/>
     </row>
-    <row r="9" spans="1:24" ht="26" customHeight="1">
-      <c r="A9" s="88" t="s">
+    <row r="9" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="89"/>
-      <c r="C9" s="89"/>
-      <c r="D9" s="89"/>
-      <c r="E9" s="89"/>
-      <c r="F9" s="89"/>
-      <c r="G9" s="89"/>
-      <c r="H9" s="89"/>
-      <c r="I9" s="89"/>
-      <c r="J9" s="89"/>
-      <c r="K9" s="89"/>
-      <c r="L9" s="89"/>
-      <c r="M9" s="89"/>
-      <c r="N9" s="89"/>
-      <c r="O9" s="89"/>
-      <c r="P9" s="89"/>
+      <c r="B9" s="85"/>
+      <c r="C9" s="85"/>
+      <c r="D9" s="85"/>
+      <c r="E9" s="85"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="85"/>
+      <c r="I9" s="85"/>
+      <c r="J9" s="85"/>
+      <c r="K9" s="85"/>
+      <c r="L9" s="85"/>
+      <c r="M9" s="85"/>
+      <c r="N9" s="85"/>
+      <c r="O9" s="85"/>
+      <c r="P9" s="85"/>
       <c r="Q9" s="4"/>
       <c r="R9" s="41"/>
       <c r="S9" s="32"/>
@@ -3784,7 +3783,7 @@
       <c r="W9" s="75"/>
       <c r="X9" s="75"/>
     </row>
-    <row r="10" spans="1:24" ht="26" customHeight="1">
+    <row r="10" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -3792,10 +3791,10 @@
         <f>B8+21</f>
         <v>43774</v>
       </c>
-      <c r="C10" s="90">
+      <c r="C10" s="109">
         <v>1</v>
       </c>
-      <c r="D10" s="93" t="s">
+      <c r="D10" s="112" t="s">
         <v>272</v>
       </c>
       <c r="E10" s="26">
@@ -3837,7 +3836,7 @@
       <c r="W10" s="75"/>
       <c r="X10" s="75"/>
     </row>
-    <row r="11" spans="1:24" ht="26" customHeight="1">
+    <row r="11" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -3845,8 +3844,8 @@
         <f t="shared" ref="B11:B16" si="1">B10+7</f>
         <v>43781</v>
       </c>
-      <c r="C11" s="91"/>
-      <c r="D11" s="94"/>
+      <c r="C11" s="110"/>
+      <c r="D11" s="113"/>
       <c r="E11" s="26">
         <v>6</v>
       </c>
@@ -3884,7 +3883,7 @@
       <c r="W11" s="75"/>
       <c r="X11" s="75"/>
     </row>
-    <row r="12" spans="1:24" ht="26" customHeight="1">
+    <row r="12" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -3892,8 +3891,8 @@
         <f t="shared" si="1"/>
         <v>43788</v>
       </c>
-      <c r="C12" s="91"/>
-      <c r="D12" s="94"/>
+      <c r="C12" s="110"/>
+      <c r="D12" s="113"/>
       <c r="E12" s="26">
         <v>6</v>
       </c>
@@ -3930,7 +3929,7 @@
       <c r="W12" s="75"/>
       <c r="X12" s="75"/>
     </row>
-    <row r="13" spans="1:24" ht="26" customHeight="1">
+    <row r="13" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -3938,8 +3937,8 @@
         <f t="shared" si="1"/>
         <v>43795</v>
       </c>
-      <c r="C13" s="91"/>
-      <c r="D13" s="94"/>
+      <c r="C13" s="110"/>
+      <c r="D13" s="113"/>
       <c r="E13" s="26">
         <v>7</v>
       </c>
@@ -3979,7 +3978,7 @@
       <c r="W13" s="75"/>
       <c r="X13" s="75"/>
     </row>
-    <row r="14" spans="1:24" ht="26" customHeight="1">
+    <row r="14" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -3987,8 +3986,8 @@
         <f t="shared" si="1"/>
         <v>43802</v>
       </c>
-      <c r="C14" s="91"/>
-      <c r="D14" s="94"/>
+      <c r="C14" s="110"/>
+      <c r="D14" s="113"/>
       <c r="E14" s="26">
         <v>7</v>
       </c>
@@ -4027,7 +4026,7 @@
       <c r="W14" s="75"/>
       <c r="X14" s="75"/>
     </row>
-    <row r="15" spans="1:24" ht="26" customHeight="1">
+    <row r="15" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -4035,8 +4034,8 @@
         <f t="shared" si="1"/>
         <v>43809</v>
       </c>
-      <c r="C15" s="91"/>
-      <c r="D15" s="94"/>
+      <c r="C15" s="110"/>
+      <c r="D15" s="113"/>
       <c r="E15" s="26">
         <v>8</v>
       </c>
@@ -4078,7 +4077,7 @@
       <c r="W15" s="75"/>
       <c r="X15" s="75"/>
     </row>
-    <row r="16" spans="1:24" ht="26" customHeight="1">
+    <row r="16" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -4086,8 +4085,8 @@
         <f t="shared" si="1"/>
         <v>43816</v>
       </c>
-      <c r="C16" s="92"/>
-      <c r="D16" s="95"/>
+      <c r="C16" s="111"/>
+      <c r="D16" s="114"/>
       <c r="E16" s="26">
         <v>8</v>
       </c>
@@ -4127,25 +4126,25 @@
       <c r="W16" s="75"/>
       <c r="X16" s="75"/>
     </row>
-    <row r="17" spans="1:24" ht="26" customHeight="1">
-      <c r="A17" s="88" t="s">
+    <row r="17" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="89"/>
-      <c r="C17" s="89"/>
-      <c r="D17" s="89"/>
-      <c r="E17" s="89"/>
-      <c r="F17" s="89"/>
-      <c r="G17" s="89"/>
-      <c r="H17" s="89"/>
-      <c r="I17" s="89"/>
-      <c r="J17" s="89"/>
-      <c r="K17" s="89"/>
-      <c r="L17" s="89"/>
-      <c r="M17" s="89"/>
-      <c r="N17" s="89"/>
-      <c r="O17" s="89"/>
-      <c r="P17" s="89"/>
+      <c r="B17" s="85"/>
+      <c r="C17" s="85"/>
+      <c r="D17" s="85"/>
+      <c r="E17" s="85"/>
+      <c r="F17" s="85"/>
+      <c r="G17" s="85"/>
+      <c r="H17" s="85"/>
+      <c r="I17" s="85"/>
+      <c r="J17" s="85"/>
+      <c r="K17" s="85"/>
+      <c r="L17" s="85"/>
+      <c r="M17" s="85"/>
+      <c r="N17" s="85"/>
+      <c r="O17" s="85"/>
+      <c r="P17" s="85"/>
       <c r="Q17" s="4"/>
       <c r="R17" s="41"/>
       <c r="S17" s="32"/>
@@ -4153,7 +4152,7 @@
       <c r="W17" s="75"/>
       <c r="X17" s="75"/>
     </row>
-    <row r="18" spans="1:24" ht="26" customHeight="1">
+    <row r="18" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -4161,10 +4160,10 @@
         <f>B16+21</f>
         <v>43837</v>
       </c>
-      <c r="C18" s="82">
+      <c r="C18" s="103">
         <v>2</v>
       </c>
-      <c r="D18" s="85" t="s">
+      <c r="D18" s="106" t="s">
         <v>186</v>
       </c>
       <c r="E18" s="28">
@@ -4206,7 +4205,7 @@
       <c r="W18" s="75"/>
       <c r="X18" s="75"/>
     </row>
-    <row r="19" spans="1:24" ht="26" customHeight="1">
+    <row r="19" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -4214,8 +4213,8 @@
         <f>B18+7</f>
         <v>43844</v>
       </c>
-      <c r="C19" s="83"/>
-      <c r="D19" s="86"/>
+      <c r="C19" s="104"/>
+      <c r="D19" s="107"/>
       <c r="E19" s="28">
         <v>1</v>
       </c>
@@ -4255,7 +4254,7 @@
       <c r="W19" s="75"/>
       <c r="X19" s="75"/>
     </row>
-    <row r="20" spans="1:24" ht="26" customHeight="1">
+    <row r="20" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -4263,8 +4262,8 @@
         <f t="shared" ref="B20:B40" si="2">B19+7</f>
         <v>43851</v>
       </c>
-      <c r="C20" s="83"/>
-      <c r="D20" s="86"/>
+      <c r="C20" s="104"/>
+      <c r="D20" s="107"/>
       <c r="E20" s="28">
         <v>2</v>
       </c>
@@ -4304,7 +4303,7 @@
       <c r="W20" s="75"/>
       <c r="X20" s="75"/>
     </row>
-    <row r="21" spans="1:24" ht="26" customHeight="1">
+    <row r="21" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -4312,8 +4311,8 @@
         <f>B20+7</f>
         <v>43858</v>
       </c>
-      <c r="C21" s="84"/>
-      <c r="D21" s="87"/>
+      <c r="C21" s="105"/>
+      <c r="D21" s="108"/>
       <c r="E21" s="28">
         <v>2</v>
       </c>
@@ -4353,7 +4352,7 @@
       <c r="W21" s="75"/>
       <c r="X21" s="75"/>
     </row>
-    <row r="22" spans="1:24" ht="26" customHeight="1">
+    <row r="22" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -4361,10 +4360,10 @@
         <f>B21+7</f>
         <v>43865</v>
       </c>
-      <c r="C22" s="101">
+      <c r="C22" s="89">
         <v>3</v>
       </c>
-      <c r="D22" s="98" t="s">
+      <c r="D22" s="86" t="s">
         <v>61</v>
       </c>
       <c r="E22" s="35">
@@ -4406,7 +4405,7 @@
       <c r="W22" s="75"/>
       <c r="X22" s="75"/>
     </row>
-    <row r="23" spans="1:24" ht="26" customHeight="1">
+    <row r="23" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -4414,8 +4413,8 @@
         <f>B22+7</f>
         <v>43872</v>
       </c>
-      <c r="C23" s="102"/>
-      <c r="D23" s="99"/>
+      <c r="C23" s="90"/>
+      <c r="D23" s="87"/>
       <c r="E23" s="35">
         <v>2</v>
       </c>
@@ -4454,7 +4453,7 @@
       </c>
       <c r="S23" s="33"/>
     </row>
-    <row r="24" spans="1:24" ht="26" customHeight="1">
+    <row r="24" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>19</v>
       </c>
@@ -4462,8 +4461,8 @@
         <f>B23+7</f>
         <v>43879</v>
       </c>
-      <c r="C24" s="103"/>
-      <c r="D24" s="100"/>
+      <c r="C24" s="91"/>
+      <c r="D24" s="88"/>
       <c r="E24" s="34">
         <v>2</v>
       </c>
@@ -4498,25 +4497,25 @@
       </c>
       <c r="S24" s="33"/>
     </row>
-    <row r="25" spans="1:24" ht="26" customHeight="1">
-      <c r="A25" s="88" t="s">
+    <row r="25" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="89"/>
-      <c r="C25" s="89"/>
-      <c r="D25" s="89"/>
-      <c r="E25" s="89"/>
-      <c r="F25" s="89"/>
-      <c r="G25" s="89"/>
-      <c r="H25" s="89"/>
-      <c r="I25" s="89"/>
-      <c r="J25" s="89"/>
-      <c r="K25" s="89"/>
-      <c r="L25" s="89"/>
-      <c r="M25" s="89"/>
-      <c r="N25" s="89"/>
-      <c r="O25" s="89"/>
-      <c r="P25" s="89"/>
+      <c r="B25" s="85"/>
+      <c r="C25" s="85"/>
+      <c r="D25" s="85"/>
+      <c r="E25" s="85"/>
+      <c r="F25" s="85"/>
+      <c r="G25" s="85"/>
+      <c r="H25" s="85"/>
+      <c r="I25" s="85"/>
+      <c r="J25" s="85"/>
+      <c r="K25" s="85"/>
+      <c r="L25" s="85"/>
+      <c r="M25" s="85"/>
+      <c r="N25" s="85"/>
+      <c r="O25" s="85"/>
+      <c r="P25" s="85"/>
       <c r="Q25" s="4"/>
       <c r="R25" s="50"/>
       <c r="S25" s="32"/>
@@ -4524,7 +4523,7 @@
       <c r="W25" s="75"/>
       <c r="X25" s="75"/>
     </row>
-    <row r="26" spans="1:24" ht="26" customHeight="1">
+    <row r="26" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>19</v>
       </c>
@@ -4532,10 +4531,10 @@
         <f>B24+21</f>
         <v>43900</v>
       </c>
-      <c r="C26" s="101">
+      <c r="C26" s="89">
         <v>3</v>
       </c>
-      <c r="D26" s="98" t="s">
+      <c r="D26" s="86" t="s">
         <v>61</v>
       </c>
       <c r="E26" s="29">
@@ -4577,7 +4576,7 @@
       <c r="W26" s="75"/>
       <c r="X26" s="75"/>
     </row>
-    <row r="27" spans="1:24" ht="26" customHeight="1">
+    <row r="27" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>20</v>
       </c>
@@ -4585,8 +4584,8 @@
         <f t="shared" si="2"/>
         <v>43907</v>
       </c>
-      <c r="C27" s="102"/>
-      <c r="D27" s="99"/>
+      <c r="C27" s="90"/>
+      <c r="D27" s="87"/>
       <c r="E27" s="35">
         <v>3</v>
       </c>
@@ -4623,7 +4622,7 @@
       <c r="W27" s="75"/>
       <c r="X27" s="75"/>
     </row>
-    <row r="28" spans="1:24" ht="26" customHeight="1">
+    <row r="28" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>21</v>
       </c>
@@ -4631,8 +4630,8 @@
         <f t="shared" si="2"/>
         <v>43914</v>
       </c>
-      <c r="C28" s="102"/>
-      <c r="D28" s="99"/>
+      <c r="C28" s="90"/>
+      <c r="D28" s="87"/>
       <c r="E28" s="29">
         <v>4</v>
       </c>
@@ -4672,7 +4671,7 @@
       <c r="W28" s="75"/>
       <c r="X28" s="75"/>
     </row>
-    <row r="29" spans="1:24" ht="26" customHeight="1">
+    <row r="29" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>22</v>
       </c>
@@ -4680,8 +4679,8 @@
         <f t="shared" si="2"/>
         <v>43921</v>
       </c>
-      <c r="C29" s="103"/>
-      <c r="D29" s="100"/>
+      <c r="C29" s="91"/>
+      <c r="D29" s="88"/>
       <c r="E29" s="35">
         <v>4</v>
       </c>
@@ -4719,7 +4718,7 @@
       <c r="W29" s="75"/>
       <c r="X29" s="75"/>
     </row>
-    <row r="30" spans="1:24" ht="26" customHeight="1">
+    <row r="30" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>23</v>
       </c>
@@ -4727,10 +4726,10 @@
         <f t="shared" si="2"/>
         <v>43928</v>
       </c>
-      <c r="C30" s="104">
+      <c r="C30" s="92">
         <v>4</v>
       </c>
-      <c r="D30" s="106" t="s">
+      <c r="D30" s="94" t="s">
         <v>44</v>
       </c>
       <c r="E30" s="30">
@@ -4774,7 +4773,7 @@
       <c r="W30" s="75"/>
       <c r="X30" s="75"/>
     </row>
-    <row r="31" spans="1:24" ht="26" customHeight="1">
+    <row r="31" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>24</v>
       </c>
@@ -4782,8 +4781,8 @@
         <f t="shared" si="2"/>
         <v>43935</v>
       </c>
-      <c r="C31" s="105"/>
-      <c r="D31" s="107"/>
+      <c r="C31" s="93"/>
+      <c r="D31" s="95"/>
       <c r="E31" s="30">
         <v>2</v>
       </c>
@@ -4823,25 +4822,25 @@
       <c r="W31" s="75"/>
       <c r="X31" s="75"/>
     </row>
-    <row r="32" spans="1:24" ht="26" customHeight="1">
-      <c r="A32" s="96" t="s">
+    <row r="32" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="B32" s="97"/>
-      <c r="C32" s="97"/>
-      <c r="D32" s="97"/>
-      <c r="E32" s="97"/>
-      <c r="F32" s="97"/>
-      <c r="G32" s="97"/>
-      <c r="H32" s="97"/>
-      <c r="I32" s="97"/>
-      <c r="J32" s="97"/>
-      <c r="K32" s="97"/>
-      <c r="L32" s="97"/>
-      <c r="M32" s="97"/>
-      <c r="N32" s="97"/>
-      <c r="O32" s="97"/>
-      <c r="P32" s="97"/>
+      <c r="B32" s="83"/>
+      <c r="C32" s="83"/>
+      <c r="D32" s="83"/>
+      <c r="E32" s="83"/>
+      <c r="F32" s="83"/>
+      <c r="G32" s="83"/>
+      <c r="H32" s="83"/>
+      <c r="I32" s="83"/>
+      <c r="J32" s="83"/>
+      <c r="K32" s="83"/>
+      <c r="L32" s="83"/>
+      <c r="M32" s="83"/>
+      <c r="N32" s="83"/>
+      <c r="O32" s="83"/>
+      <c r="P32" s="83"/>
       <c r="Q32" s="47"/>
       <c r="R32" s="51"/>
       <c r="S32" s="32"/>
@@ -4849,7 +4848,7 @@
       <c r="W32" s="75"/>
       <c r="X32" s="75"/>
     </row>
-    <row r="33" spans="1:24" ht="26" customHeight="1">
+    <row r="33" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>25</v>
       </c>
@@ -4857,10 +4856,10 @@
         <f>B31+21</f>
         <v>43956</v>
       </c>
-      <c r="C33" s="104">
+      <c r="C33" s="92">
         <v>4</v>
       </c>
-      <c r="D33" s="106" t="s">
+      <c r="D33" s="94" t="s">
         <v>44</v>
       </c>
       <c r="E33" s="30">
@@ -4897,7 +4896,7 @@
       </c>
       <c r="S33" s="33"/>
     </row>
-    <row r="34" spans="1:24" ht="26" customHeight="1">
+    <row r="34" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>26</v>
       </c>
@@ -4905,8 +4904,8 @@
         <f t="shared" si="2"/>
         <v>43963</v>
       </c>
-      <c r="C34" s="109"/>
-      <c r="D34" s="108"/>
+      <c r="C34" s="97"/>
+      <c r="D34" s="96"/>
       <c r="E34" s="30">
         <v>3</v>
       </c>
@@ -4943,7 +4942,7 @@
       </c>
       <c r="S34" s="32"/>
     </row>
-    <row r="35" spans="1:24" ht="26" customHeight="1">
+    <row r="35" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <v>27</v>
       </c>
@@ -4951,8 +4950,8 @@
         <f t="shared" si="2"/>
         <v>43970</v>
       </c>
-      <c r="C35" s="105"/>
-      <c r="D35" s="107"/>
+      <c r="C35" s="93"/>
+      <c r="D35" s="95"/>
       <c r="E35" s="30">
         <v>4</v>
       </c>
@@ -4986,7 +4985,7 @@
       </c>
       <c r="S35" s="46"/>
     </row>
-    <row r="36" spans="1:24" ht="26" customHeight="1">
+    <row r="36" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>28</v>
       </c>
@@ -4994,10 +4993,10 @@
         <f t="shared" si="2"/>
         <v>43977</v>
       </c>
-      <c r="C36" s="112">
+      <c r="C36" s="100">
         <v>5</v>
       </c>
-      <c r="D36" s="110" t="s">
+      <c r="D36" s="98" t="s">
         <v>50</v>
       </c>
       <c r="E36" s="31">
@@ -5029,7 +5028,7 @@
       <c r="W36" s="75"/>
       <c r="X36" s="75"/>
     </row>
-    <row r="37" spans="1:24" ht="26" customHeight="1">
+    <row r="37" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
         <v>29</v>
       </c>
@@ -5037,8 +5036,8 @@
         <f t="shared" si="2"/>
         <v>43984</v>
       </c>
-      <c r="C37" s="113"/>
-      <c r="D37" s="111"/>
+      <c r="C37" s="101"/>
+      <c r="D37" s="99"/>
       <c r="E37" s="31">
         <v>1</v>
       </c>
@@ -5070,7 +5069,7 @@
       <c r="W37" s="75"/>
       <c r="X37" s="75"/>
     </row>
-    <row r="38" spans="1:24" ht="26" customHeight="1">
+    <row r="38" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>30</v>
       </c>
@@ -5078,8 +5077,8 @@
         <f t="shared" si="2"/>
         <v>43991</v>
       </c>
-      <c r="C38" s="113"/>
-      <c r="D38" s="111"/>
+      <c r="C38" s="101"/>
+      <c r="D38" s="99"/>
       <c r="E38" s="31">
         <v>1</v>
       </c>
@@ -5109,7 +5108,7 @@
       <c r="W38" s="75"/>
       <c r="X38" s="75"/>
     </row>
-    <row r="39" spans="1:24" ht="26" customHeight="1">
+    <row r="39" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
         <v>31</v>
       </c>
@@ -5117,8 +5116,8 @@
         <f t="shared" si="2"/>
         <v>43998</v>
       </c>
-      <c r="C39" s="113"/>
-      <c r="D39" s="111"/>
+      <c r="C39" s="101"/>
+      <c r="D39" s="99"/>
       <c r="E39" s="31">
         <v>1</v>
       </c>
@@ -5148,7 +5147,7 @@
       <c r="W39" s="75"/>
       <c r="X39" s="75"/>
     </row>
-    <row r="40" spans="1:24" ht="26" customHeight="1">
+    <row r="40" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>32</v>
       </c>
@@ -5156,8 +5155,8 @@
         <f t="shared" si="2"/>
         <v>44005</v>
       </c>
-      <c r="C40" s="114"/>
-      <c r="D40" s="111"/>
+      <c r="C40" s="102"/>
+      <c r="D40" s="99"/>
       <c r="E40" s="31">
         <v>1</v>
       </c>
@@ -5185,93 +5184,101 @@
       <c r="W40" s="75"/>
       <c r="X40" s="75"/>
     </row>
-    <row r="41" spans="1:24" ht="26" customHeight="1">
-      <c r="A41" s="96" t="s">
+    <row r="41" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="B41" s="97"/>
-      <c r="C41" s="97"/>
-      <c r="D41" s="97"/>
-      <c r="E41" s="97"/>
-      <c r="F41" s="97"/>
-      <c r="G41" s="97"/>
-      <c r="H41" s="97"/>
-      <c r="I41" s="97"/>
-      <c r="J41" s="97"/>
-      <c r="K41" s="97"/>
-      <c r="L41" s="97"/>
-      <c r="M41" s="97"/>
-      <c r="N41" s="97"/>
-      <c r="O41" s="97"/>
-      <c r="P41" s="97"/>
+      <c r="B41" s="83"/>
+      <c r="C41" s="83"/>
+      <c r="D41" s="83"/>
+      <c r="E41" s="83"/>
+      <c r="F41" s="83"/>
+      <c r="G41" s="83"/>
+      <c r="H41" s="83"/>
+      <c r="I41" s="83"/>
+      <c r="J41" s="83"/>
+      <c r="K41" s="83"/>
+      <c r="L41" s="83"/>
+      <c r="M41" s="83"/>
+      <c r="N41" s="83"/>
+      <c r="O41" s="83"/>
+      <c r="P41" s="83"/>
       <c r="Q41" s="47"/>
       <c r="R41" s="51"/>
       <c r="V41" s="70"/>
       <c r="W41" s="75"/>
       <c r="X41" s="75"/>
     </row>
-    <row r="42" spans="1:24" ht="26" customHeight="1">
+    <row r="42" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="V42" s="70"/>
       <c r="W42" s="75"/>
       <c r="X42" s="75"/>
     </row>
-    <row r="43" spans="1:24" ht="26" customHeight="1">
+    <row r="43" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="V43" s="70"/>
       <c r="W43" s="75"/>
       <c r="X43" s="75"/>
     </row>
-    <row r="44" spans="1:24" ht="26" customHeight="1">
+    <row r="44" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="V44" s="70"/>
       <c r="W44" s="75"/>
       <c r="X44" s="75"/>
     </row>
-    <row r="45" spans="1:24" ht="26" customHeight="1">
+    <row r="45" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="V45" s="70"/>
       <c r="W45" s="75"/>
       <c r="X45" s="75"/>
     </row>
-    <row r="46" spans="1:24" ht="26" customHeight="1">
+    <row r="46" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="V46" s="70"/>
       <c r="W46" s="75"/>
       <c r="X46" s="75"/>
     </row>
-    <row r="47" spans="1:24" ht="26" customHeight="1">
+    <row r="47" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="V47" s="70"/>
       <c r="W47" s="75"/>
       <c r="X47" s="75"/>
     </row>
-    <row r="48" spans="1:24" ht="26" customHeight="1">
+    <row r="48" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="V48" s="70"/>
       <c r="W48" s="75"/>
       <c r="X48" s="75"/>
     </row>
-    <row r="49" spans="22:24" ht="26" customHeight="1">
+    <row r="49" spans="22:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="V49" s="70"/>
       <c r="W49" s="75"/>
       <c r="X49" s="75"/>
     </row>
-    <row r="50" spans="22:24" ht="26" customHeight="1">
+    <row r="50" spans="22:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="V50" s="70"/>
       <c r="W50" s="75"/>
       <c r="X50" s="75"/>
     </row>
-    <row r="51" spans="22:24" ht="26" customHeight="1">
+    <row r="51" spans="22:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="V51" s="70"/>
       <c r="W51" s="75"/>
       <c r="X51" s="75"/>
     </row>
-    <row r="52" spans="22:24" ht="26" customHeight="1">
+    <row r="52" spans="22:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="V52" s="70"/>
       <c r="W52" s="75"/>
       <c r="X52" s="75"/>
     </row>
-    <row r="53" spans="22:24" ht="26" customHeight="1">
+    <row r="53" spans="22:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="V53" s="70"/>
       <c r="W53" s="75"/>
       <c r="X53" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="A9:P9"/>
+    <mergeCell ref="A17:P17"/>
+    <mergeCell ref="C2:C8"/>
+    <mergeCell ref="D2:D8"/>
+    <mergeCell ref="D10:D16"/>
+    <mergeCell ref="C10:C16"/>
     <mergeCell ref="A41:P41"/>
     <mergeCell ref="A32:P32"/>
     <mergeCell ref="A25:P25"/>
@@ -5285,14 +5292,6 @@
     <mergeCell ref="C33:C35"/>
     <mergeCell ref="D36:D40"/>
     <mergeCell ref="C36:C40"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="D18:D21"/>
-    <mergeCell ref="A9:P9"/>
-    <mergeCell ref="A17:P17"/>
-    <mergeCell ref="C2:C8"/>
-    <mergeCell ref="D2:D8"/>
-    <mergeCell ref="D10:D16"/>
-    <mergeCell ref="C10:C16"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5301,22 +5300,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" style="2"/>
-    <col min="2" max="2" width="70.453125" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="10.81640625" style="2"/>
+    <col min="1" max="1" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="70.5" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="21" customHeight="1"/>
-    <row r="2" spans="1:2" ht="31">
+    <row r="1" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="2" spans="1:2" ht="32" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
         <v>4</v>
       </c>
@@ -5324,7 +5323,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="38" customHeight="1">
+    <row r="3" spans="1:2" ht="38" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="10" t="s">
         <v>3</v>
       </c>
@@ -5332,7 +5331,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="38" customHeight="1">
+    <row r="4" spans="1:2" ht="38" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="22" t="s">
         <v>55</v>
       </c>
@@ -5340,7 +5339,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="38" customHeight="1">
+    <row r="5" spans="1:2" ht="38" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="23" t="s">
         <v>56</v>
       </c>
@@ -5348,7 +5347,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="38" customHeight="1">
+    <row r="6" spans="1:2" ht="38" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="24" t="s">
         <v>6</v>
       </c>
@@ -5356,7 +5355,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="38" customHeight="1">
+    <row r="7" spans="1:2" ht="38" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="25" t="s">
         <v>7</v>
       </c>
@@ -5372,22 +5371,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C66"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="12"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" style="70"/>
-    <col min="2" max="2" width="75.81640625" style="71" customWidth="1"/>
-    <col min="3" max="3" width="100.453125" style="71" customWidth="1"/>
-    <col min="4" max="16384" width="10.81640625" style="70"/>
+    <col min="1" max="1" width="10.83203125" style="70"/>
+    <col min="2" max="2" width="75.83203125" style="71" customWidth="1"/>
+    <col min="3" max="3" width="100.5" style="71" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="70"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="70" t="s">
         <v>249</v>
       </c>
@@ -5398,7 +5397,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="24">
+    <row r="2" spans="1:3" ht="24" x14ac:dyDescent="0.15">
       <c r="A2" s="70" t="s">
         <v>189</v>
       </c>
@@ -5409,7 +5408,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="36">
+    <row r="3" spans="1:3" ht="36" x14ac:dyDescent="0.15">
       <c r="A3" s="70" t="s">
         <v>210</v>
       </c>
@@ -5420,7 +5419,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="24">
+    <row r="4" spans="1:3" ht="24" x14ac:dyDescent="0.15">
       <c r="A4" s="70" t="s">
         <v>211</v>
       </c>
@@ -5431,7 +5430,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="70" t="s">
         <v>212</v>
       </c>
@@ -5442,7 +5441,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="70" t="s">
         <v>190</v>
       </c>
@@ -5453,7 +5452,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="24">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="70" t="s">
         <v>191</v>
       </c>
@@ -5464,7 +5463,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="70" t="s">
         <v>213</v>
       </c>
@@ -5475,7 +5474,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="70" t="s">
         <v>214</v>
       </c>
@@ -5486,7 +5485,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="70" t="s">
         <v>192</v>
       </c>
@@ -5497,7 +5496,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="70" t="s">
         <v>193</v>
       </c>
@@ -5508,7 +5507,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="70" t="s">
         <v>194</v>
       </c>
@@ -5519,7 +5518,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="70" t="s">
         <v>204</v>
       </c>
@@ -5530,7 +5529,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="70" t="s">
         <v>206</v>
       </c>
@@ -5541,7 +5540,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="70" t="s">
         <v>195</v>
       </c>
@@ -5552,7 +5551,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="70" t="s">
         <v>196</v>
       </c>
@@ -5563,7 +5562,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="70" t="s">
         <v>197</v>
       </c>
@@ -5574,7 +5573,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="24">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="70" t="s">
         <v>198</v>
       </c>
@@ -5585,7 +5584,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="24">
+    <row r="22" spans="1:3" ht="24" x14ac:dyDescent="0.15">
       <c r="A22" s="70" t="s">
         <v>199</v>
       </c>
@@ -5596,7 +5595,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="70" t="s">
         <v>201</v>
       </c>
@@ -5607,7 +5606,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="24">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" s="70" t="s">
         <v>202</v>
       </c>
@@ -5618,7 +5617,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" s="79" t="s">
         <v>205</v>
       </c>
@@ -5629,7 +5628,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" s="79" t="s">
         <v>207</v>
       </c>
@@ -5640,7 +5639,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" s="79" t="s">
         <v>208</v>
       </c>
@@ -5651,7 +5650,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" s="79" t="s">
         <v>209</v>
       </c>
@@ -5662,7 +5661,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="24">
+    <row r="31" spans="1:3" ht="24" x14ac:dyDescent="0.15">
       <c r="A31" s="79" t="s">
         <v>245</v>
       </c>
@@ -5673,7 +5672,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" s="79" t="s">
         <v>246</v>
       </c>
@@ -5684,7 +5683,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" s="70" t="s">
         <v>215</v>
       </c>
@@ -5695,7 +5694,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" s="70" t="s">
         <v>217</v>
       </c>
@@ -5706,7 +5705,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="24">
+    <row r="35" spans="1:3" ht="24" x14ac:dyDescent="0.15">
       <c r="A35" s="70" t="s">
         <v>218</v>
       </c>
@@ -5717,7 +5716,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" s="70" t="s">
         <v>219</v>
       </c>
@@ -5728,7 +5727,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="24">
+    <row r="37" spans="1:3" ht="24" x14ac:dyDescent="0.15">
       <c r="A37" s="70" t="s">
         <v>220</v>
       </c>
@@ -5739,7 +5738,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="36">
+    <row r="38" spans="1:3" ht="36" x14ac:dyDescent="0.15">
       <c r="A38" s="70" t="s">
         <v>247</v>
       </c>
@@ -5750,7 +5749,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="24">
+    <row r="39" spans="1:3" ht="24" x14ac:dyDescent="0.15">
       <c r="A39" s="70" t="s">
         <v>248</v>
       </c>
@@ -5761,7 +5760,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="24">
+    <row r="42" spans="1:3" ht="24" x14ac:dyDescent="0.15">
       <c r="A42" s="70" t="s">
         <v>221</v>
       </c>
@@ -5772,7 +5771,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="36">
+    <row r="43" spans="1:3" ht="36" x14ac:dyDescent="0.15">
       <c r="A43" s="70" t="s">
         <v>222</v>
       </c>
@@ -5783,7 +5782,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="24">
+    <row r="44" spans="1:3" ht="24" x14ac:dyDescent="0.15">
       <c r="A44" s="70" t="s">
         <v>223</v>
       </c>
@@ -5794,7 +5793,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" s="70" t="s">
         <v>224</v>
       </c>
@@ -5805,7 +5804,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="24">
+    <row r="46" spans="1:3" ht="24" x14ac:dyDescent="0.15">
       <c r="A46" s="70" t="s">
         <v>225</v>
       </c>
@@ -5816,7 +5815,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="24">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47" s="70" t="s">
         <v>226</v>
       </c>
@@ -5827,7 +5826,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="24">
+    <row r="48" spans="1:3" ht="24" x14ac:dyDescent="0.15">
       <c r="A48" s="70" t="s">
         <v>227</v>
       </c>
@@ -5838,7 +5837,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="24">
+    <row r="49" spans="1:3" ht="24" x14ac:dyDescent="0.15">
       <c r="A49" s="70" t="s">
         <v>228</v>
       </c>
@@ -5849,7 +5848,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="24">
+    <row r="50" spans="1:3" ht="24" x14ac:dyDescent="0.15">
       <c r="A50" s="70" t="s">
         <v>229</v>
       </c>
@@ -5860,7 +5859,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A53" s="70" t="s">
         <v>230</v>
       </c>
@@ -5871,7 +5870,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A54" s="70" t="s">
         <v>231</v>
       </c>
@@ -5882,7 +5881,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A55" s="70" t="s">
         <v>232</v>
       </c>
@@ -5893,7 +5892,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A56" s="70" t="s">
         <v>233</v>
       </c>
@@ -5904,7 +5903,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="24">
+    <row r="57" spans="1:3" ht="24" x14ac:dyDescent="0.15">
       <c r="A57" s="70" t="s">
         <v>234</v>
       </c>
@@ -5915,7 +5914,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A58" s="70" t="s">
         <v>235</v>
       </c>
@@ -5926,7 +5925,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A59" s="70" t="s">
         <v>238</v>
       </c>
@@ -5937,7 +5936,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="24">
+    <row r="60" spans="1:3" ht="24" x14ac:dyDescent="0.15">
       <c r="A60" s="70" t="s">
         <v>239</v>
       </c>
@@ -5948,7 +5947,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A61" s="70" t="s">
         <v>240</v>
       </c>
@@ -5959,7 +5958,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A63" s="70" t="s">
         <v>241</v>
       </c>
@@ -5970,7 +5969,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A64" s="70" t="s">
         <v>242</v>
       </c>
@@ -5981,7 +5980,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A65" s="70" t="s">
         <v>243</v>
       </c>
@@ -5992,7 +5991,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="48">
+    <row r="66" spans="1:3" ht="48" x14ac:dyDescent="0.15">
       <c r="B66" s="71" t="s">
         <v>185</v>
       </c>
@@ -6008,20 +6007,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="47.36328125" customWidth="1"/>
+    <col min="2" max="4" width="47.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.5">
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.15">
       <c r="A1" s="115" t="s">
         <v>79</v>
       </c>
@@ -6029,7 +6028,7 @@
       <c r="C1" s="116"/>
       <c r="D1" s="117"/>
     </row>
-    <row r="2" spans="1:4" ht="21">
+    <row r="2" spans="1:4" ht="22" x14ac:dyDescent="0.15">
       <c r="A2" s="54" t="s">
         <v>80</v>
       </c>
@@ -6039,7 +6038,7 @@
       <c r="C2" s="55"/>
       <c r="D2" s="56"/>
     </row>
-    <row r="3" spans="1:4" ht="42">
+    <row r="3" spans="1:4" ht="44" x14ac:dyDescent="0.15">
       <c r="A3" s="54"/>
       <c r="B3" s="55"/>
       <c r="C3" s="55" t="s">
@@ -6047,7 +6046,7 @@
       </c>
       <c r="D3" s="56"/>
     </row>
-    <row r="4" spans="1:4" ht="31.5">
+    <row r="4" spans="1:4" ht="33" x14ac:dyDescent="0.15">
       <c r="A4" s="54"/>
       <c r="B4" s="55"/>
       <c r="C4" s="55" t="s">
@@ -6055,7 +6054,7 @@
       </c>
       <c r="D4" s="56"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="54"/>
       <c r="B5" s="55"/>
       <c r="C5" s="55" t="s">
@@ -6063,13 +6062,13 @@
       </c>
       <c r="D5" s="56"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="54"/>
       <c r="B6" s="55"/>
       <c r="C6" s="55"/>
       <c r="D6" s="56"/>
     </row>
-    <row r="7" spans="1:4" ht="21">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="54" t="s">
         <v>85</v>
       </c>
@@ -6079,7 +6078,7 @@
       <c r="C7" s="55"/>
       <c r="D7" s="56"/>
     </row>
-    <row r="8" spans="1:4" ht="21">
+    <row r="8" spans="1:4" ht="22" x14ac:dyDescent="0.15">
       <c r="A8" s="54" t="s">
         <v>87</v>
       </c>
@@ -6091,7 +6090,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="42">
+    <row r="9" spans="1:4" ht="33" x14ac:dyDescent="0.15">
       <c r="A9" s="54"/>
       <c r="B9" s="55"/>
       <c r="C9" s="55" t="s">
@@ -6101,7 +6100,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="53" thickBot="1">
+    <row r="10" spans="1:4" ht="56" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="57"/>
       <c r="B10" s="58"/>
       <c r="C10" s="58" t="s">
@@ -6111,13 +6110,13 @@
         <v>93</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="13" thickBot="1">
+    <row r="11" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="60"/>
       <c r="B11" s="61"/>
       <c r="C11" s="61"/>
       <c r="D11" s="61"/>
     </row>
-    <row r="12" spans="1:4" ht="14.5">
+    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.15">
       <c r="A12" s="115" t="s">
         <v>94</v>
       </c>
@@ -6125,7 +6124,7 @@
       <c r="C12" s="116"/>
       <c r="D12" s="117"/>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="54" t="s">
         <v>95</v>
       </c>
@@ -6135,7 +6134,7 @@
       <c r="C13" s="55"/>
       <c r="D13" s="56"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="54" t="s">
         <v>97</v>
       </c>
@@ -6145,7 +6144,7 @@
       <c r="C14" s="55"/>
       <c r="D14" s="56"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="54" t="s">
         <v>99</v>
       </c>
@@ -6155,7 +6154,7 @@
       <c r="C15" s="55"/>
       <c r="D15" s="56"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="54" t="s">
         <v>101</v>
       </c>
@@ -6165,7 +6164,7 @@
       <c r="C16" s="55"/>
       <c r="D16" s="56"/>
     </row>
-    <row r="17" spans="1:4" ht="21">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="54" t="s">
         <v>103</v>
       </c>
@@ -6175,7 +6174,7 @@
       <c r="C17" s="55"/>
       <c r="D17" s="56"/>
     </row>
-    <row r="18" spans="1:4" ht="21">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="54" t="s">
         <v>105</v>
       </c>
@@ -6185,7 +6184,7 @@
       <c r="C18" s="55"/>
       <c r="D18" s="56"/>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="54" t="s">
         <v>107</v>
       </c>
@@ -6195,7 +6194,7 @@
       <c r="C19" s="55"/>
       <c r="D19" s="56"/>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="54" t="s">
         <v>109</v>
       </c>
@@ -6205,7 +6204,7 @@
       <c r="C20" s="55"/>
       <c r="D20" s="56"/>
     </row>
-    <row r="21" spans="1:4" ht="21">
+    <row r="21" spans="1:4" ht="22" x14ac:dyDescent="0.15">
       <c r="A21" s="54"/>
       <c r="B21" s="55"/>
       <c r="C21" s="55" t="s">
@@ -6213,7 +6212,7 @@
       </c>
       <c r="D21" s="56"/>
     </row>
-    <row r="22" spans="1:4" ht="21">
+    <row r="22" spans="1:4" ht="22" x14ac:dyDescent="0.15">
       <c r="A22" s="54"/>
       <c r="B22" s="55"/>
       <c r="C22" s="55" t="s">
@@ -6221,7 +6220,7 @@
       </c>
       <c r="D22" s="56"/>
     </row>
-    <row r="23" spans="1:4" ht="21">
+    <row r="23" spans="1:4" ht="22" x14ac:dyDescent="0.15">
       <c r="A23" s="54"/>
       <c r="B23" s="55"/>
       <c r="C23" s="55" t="s">
@@ -6229,7 +6228,7 @@
       </c>
       <c r="D23" s="56"/>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="54"/>
       <c r="B24" s="55"/>
       <c r="C24" s="55" t="s">
@@ -6237,7 +6236,7 @@
       </c>
       <c r="D24" s="56"/>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="54"/>
       <c r="B25" s="55"/>
       <c r="C25" s="55" t="s">
@@ -6245,13 +6244,13 @@
       </c>
       <c r="D25" s="56"/>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="54"/>
       <c r="B26" s="55"/>
       <c r="C26" s="55"/>
       <c r="D26" s="56"/>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="54" t="s">
         <v>116</v>
       </c>
@@ -6261,7 +6260,7 @@
       <c r="C27" s="55"/>
       <c r="D27" s="56"/>
     </row>
-    <row r="28" spans="1:4" ht="21">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="54" t="s">
         <v>118</v>
       </c>
@@ -6271,7 +6270,7 @@
       <c r="C28" s="55"/>
       <c r="D28" s="56"/>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="54" t="s">
         <v>120</v>
       </c>
@@ -6281,7 +6280,7 @@
       <c r="C29" s="55"/>
       <c r="D29" s="56"/>
     </row>
-    <row r="30" spans="1:4" ht="21">
+    <row r="30" spans="1:4" ht="22" x14ac:dyDescent="0.15">
       <c r="A30" s="54" t="s">
         <v>122</v>
       </c>
@@ -6291,7 +6290,7 @@
       <c r="C30" s="55"/>
       <c r="D30" s="56"/>
     </row>
-    <row r="31" spans="1:4" ht="21">
+    <row r="31" spans="1:4" ht="22" x14ac:dyDescent="0.15">
       <c r="A31" s="54" t="s">
         <v>124</v>
       </c>
@@ -6301,7 +6300,7 @@
       <c r="C31" s="55"/>
       <c r="D31" s="56"/>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" s="54" t="s">
         <v>126</v>
       </c>
@@ -6311,7 +6310,7 @@
       <c r="C32" s="55"/>
       <c r="D32" s="56"/>
     </row>
-    <row r="33" spans="1:4" ht="21">
+    <row r="33" spans="1:4" ht="22" x14ac:dyDescent="0.15">
       <c r="A33" s="54"/>
       <c r="B33" s="55"/>
       <c r="C33" s="55" t="s">
@@ -6321,7 +6320,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="21">
+    <row r="34" spans="1:4" ht="22" x14ac:dyDescent="0.15">
       <c r="A34" s="54"/>
       <c r="B34" s="55"/>
       <c r="C34" s="55" t="s">
@@ -6331,7 +6330,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="31.5">
+    <row r="35" spans="1:4" ht="22" x14ac:dyDescent="0.15">
       <c r="A35" s="54"/>
       <c r="B35" s="55"/>
       <c r="C35" s="55" t="s">
@@ -6341,7 +6340,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="31.5">
+    <row r="36" spans="1:4" ht="33" x14ac:dyDescent="0.15">
       <c r="A36" s="54"/>
       <c r="B36" s="55"/>
       <c r="C36" s="55" t="s">
@@ -6351,7 +6350,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="31.5">
+    <row r="37" spans="1:4" ht="22" x14ac:dyDescent="0.15">
       <c r="A37" s="54"/>
       <c r="B37" s="55"/>
       <c r="C37" s="55" t="s">
@@ -6361,7 +6360,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="52.5">
+    <row r="38" spans="1:4" ht="55" x14ac:dyDescent="0.15">
       <c r="A38" s="54"/>
       <c r="B38" s="55"/>
       <c r="C38" s="55" t="s">
@@ -6371,7 +6370,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="32" thickBot="1">
+    <row r="39" spans="1:4" ht="34" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A39" s="57"/>
       <c r="B39" s="58"/>
       <c r="C39" s="58" t="s">
@@ -6381,13 +6380,13 @@
         <v>141</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="13" thickBot="1">
+    <row r="40" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A40" s="60"/>
       <c r="B40" s="61"/>
       <c r="C40" s="61"/>
       <c r="D40" s="61"/>
     </row>
-    <row r="41" spans="1:4" ht="14.5">
+    <row r="41" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="118" t="s">
         <v>142</v>
       </c>
@@ -6395,7 +6394,7 @@
       <c r="C41" s="119"/>
       <c r="D41" s="120"/>
     </row>
-    <row r="42" spans="1:4" ht="31.5">
+    <row r="42" spans="1:4" ht="33" x14ac:dyDescent="0.15">
       <c r="A42" s="54" t="s">
         <v>143</v>
       </c>
@@ -6405,7 +6404,7 @@
       <c r="C42" s="62"/>
       <c r="D42" s="63"/>
     </row>
-    <row r="43" spans="1:4" ht="52.5">
+    <row r="43" spans="1:4" ht="44" x14ac:dyDescent="0.15">
       <c r="A43" s="54" t="s">
         <v>145</v>
       </c>
@@ -6415,7 +6414,7 @@
       <c r="C43" s="62"/>
       <c r="D43" s="63"/>
     </row>
-    <row r="44" spans="1:4" ht="31.5">
+    <row r="44" spans="1:4" ht="33" x14ac:dyDescent="0.15">
       <c r="A44" s="54" t="s">
         <v>147</v>
       </c>
@@ -6425,7 +6424,7 @@
       <c r="C44" s="62"/>
       <c r="D44" s="63"/>
     </row>
-    <row r="45" spans="1:4" ht="21">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45" s="54" t="s">
         <v>149</v>
       </c>
@@ -6435,7 +6434,7 @@
       <c r="C45" s="62"/>
       <c r="D45" s="63"/>
     </row>
-    <row r="46" spans="1:4" ht="21">
+    <row r="46" spans="1:4" ht="22" x14ac:dyDescent="0.15">
       <c r="A46" s="54" t="s">
         <v>151</v>
       </c>
@@ -6445,7 +6444,7 @@
       <c r="C46" s="62"/>
       <c r="D46" s="63"/>
     </row>
-    <row r="47" spans="1:4" ht="42">
+    <row r="47" spans="1:4" ht="44" x14ac:dyDescent="0.15">
       <c r="A47" s="54"/>
       <c r="B47" s="62"/>
       <c r="C47" s="62" t="s">
@@ -6455,7 +6454,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="31.5">
+    <row r="48" spans="1:4" ht="33" x14ac:dyDescent="0.15">
       <c r="A48" s="54"/>
       <c r="B48" s="62"/>
       <c r="C48" s="62" t="s">
@@ -6465,7 +6464,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="52.5">
+    <row r="49" spans="1:4" ht="44" x14ac:dyDescent="0.15">
       <c r="A49" s="54"/>
       <c r="B49" s="62"/>
       <c r="C49" s="62" t="s">
@@ -6475,7 +6474,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="74" thickBot="1">
+    <row r="50" spans="1:4" ht="67" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A50" s="57"/>
       <c r="B50" s="64"/>
       <c r="C50" s="64" t="s">
@@ -6485,13 +6484,13 @@
         <v>160</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15" thickBot="1">
+    <row r="51" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="60"/>
       <c r="B51" s="66"/>
       <c r="C51" s="66"/>
       <c r="D51" s="66"/>
     </row>
-    <row r="52" spans="1:4" ht="15" thickBot="1">
+    <row r="52" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="121" t="s">
         <v>161</v>
       </c>
@@ -6499,7 +6498,7 @@
       <c r="C52" s="122"/>
       <c r="D52" s="123"/>
     </row>
-    <row r="53" spans="1:4" ht="21">
+    <row r="53" spans="1:4" ht="22" x14ac:dyDescent="0.15">
       <c r="A53" s="67" t="s">
         <v>162</v>
       </c>
@@ -6509,7 +6508,7 @@
       <c r="C53" s="68"/>
       <c r="D53" s="68"/>
     </row>
-    <row r="54" spans="1:4" ht="21">
+    <row r="54" spans="1:4" ht="22" x14ac:dyDescent="0.15">
       <c r="A54" s="69" t="s">
         <v>164</v>
       </c>
@@ -6519,7 +6518,7 @@
       <c r="C54" s="55"/>
       <c r="D54" s="55"/>
     </row>
-    <row r="55" spans="1:4" ht="21">
+    <row r="55" spans="1:4" ht="22" x14ac:dyDescent="0.15">
       <c r="A55" s="69" t="s">
         <v>166</v>
       </c>
@@ -6529,7 +6528,7 @@
       <c r="C55" s="55"/>
       <c r="D55" s="55"/>
     </row>
-    <row r="56" spans="1:4" ht="21">
+    <row r="56" spans="1:4" ht="22" x14ac:dyDescent="0.15">
       <c r="A56" s="69" t="s">
         <v>168</v>
       </c>
@@ -6539,7 +6538,7 @@
       <c r="C56" s="55"/>
       <c r="D56" s="55"/>
     </row>
-    <row r="57" spans="1:4" ht="21">
+    <row r="57" spans="1:4" ht="22" x14ac:dyDescent="0.15">
       <c r="A57" s="69" t="s">
         <v>170</v>
       </c>
@@ -6549,7 +6548,7 @@
       <c r="C57" s="55"/>
       <c r="D57" s="55"/>
     </row>
-    <row r="58" spans="1:4" ht="21">
+    <row r="58" spans="1:4" ht="22" x14ac:dyDescent="0.15">
       <c r="A58" s="69"/>
       <c r="B58" s="55"/>
       <c r="C58" s="55" t="s">
@@ -6559,7 +6558,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="52.5">
+    <row r="59" spans="1:4" ht="55" x14ac:dyDescent="0.15">
       <c r="A59" s="69"/>
       <c r="B59" s="55"/>
       <c r="C59" s="55" t="s">
@@ -6569,7 +6568,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="21.5" thickBot="1">
+    <row r="60" spans="1:4" ht="23" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A60" s="69"/>
       <c r="B60" s="55"/>
       <c r="C60" s="55" t="s">
@@ -6579,13 +6578,13 @@
         <v>177</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="15" thickBot="1">
+    <row r="61" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="60"/>
       <c r="B61" s="66"/>
       <c r="C61" s="66"/>
       <c r="D61" s="66"/>
     </row>
-    <row r="62" spans="1:4" ht="15" thickBot="1">
+    <row r="62" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="121" t="s">
         <v>178</v>
       </c>
@@ -6593,7 +6592,7 @@
       <c r="C62" s="122"/>
       <c r="D62" s="123"/>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A63" s="67" t="s">
         <v>179</v>
       </c>
@@ -6603,7 +6602,7 @@
       <c r="C63" s="68"/>
       <c r="D63" s="68"/>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A64" s="69" t="s">
         <v>181</v>
       </c>
@@ -6613,7 +6612,7 @@
       <c r="C64" s="55"/>
       <c r="D64" s="55"/>
     </row>
-    <row r="65" spans="1:4" ht="42">
+    <row r="65" spans="1:4" ht="44" x14ac:dyDescent="0.15">
       <c r="A65" s="69" t="s">
         <v>183</v>
       </c>

--- a/progression_2019_2020_IPT_MPSI.xlsx
+++ b/progression_2019_2020_IPT_MPSI.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="19420" windowHeight="10420"/>
+    <workbookView xWindow="2280" yWindow="460" windowWidth="20880" windowHeight="14660" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Semanier MPSI IPT 2019-2020" sheetId="12" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Cycles MPSI IPT'!$A$3:$B$7</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Semanier MPSI IPT 2019-2020'!$A$18:$H$20</definedName>
   </definedNames>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="296">
   <si>
     <t>Cours</t>
   </si>
@@ -930,6 +930,15 @@
   </si>
   <si>
     <t>Image entête</t>
+  </si>
+  <si>
+    <t>architecture/ARCHI-000</t>
+  </si>
+  <si>
+    <t>fin</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -3331,8 +3340,8 @@
   </sheetPr>
   <dimension ref="A1:X53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L15" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="Q22" sqref="Q22"/>
+    <sheetView topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="R31" sqref="R31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="26" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3345,7 +3354,8 @@
     <col min="8" max="8" width="37.33203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="5.5" style="1" customWidth="1"/>
     <col min="10" max="10" width="37.33203125" style="1" customWidth="1"/>
-    <col min="11" max="12" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="32.6640625" style="1" customWidth="1"/>
     <col min="15" max="18" width="10.83203125" style="1" customWidth="1"/>
     <col min="19" max="19" width="41.33203125" style="1" customWidth="1"/>
@@ -3447,7 +3457,9 @@
         <v>27</v>
       </c>
       <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
+      <c r="L2" s="5" t="s">
+        <v>293</v>
+      </c>
       <c r="M2" s="73" t="s">
         <v>291</v>
       </c>
@@ -5372,16 +5384,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C66"/>
+  <dimension ref="A1:C67"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="70"/>
-    <col min="2" max="2" width="75.83203125" style="71" customWidth="1"/>
+    <col min="2" max="2" width="108.5" style="71" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="100.5" style="71" customWidth="1"/>
     <col min="4" max="16384" width="10.83203125" style="70"/>
   </cols>
@@ -5397,7 +5409,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="24" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="70" t="s">
         <v>189</v>
       </c>
@@ -5408,7 +5420,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="36" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" ht="24" x14ac:dyDescent="0.15">
       <c r="A3" s="70" t="s">
         <v>210</v>
       </c>
@@ -5661,7 +5673,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="24" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" s="79" t="s">
         <v>245</v>
       </c>
@@ -5705,7 +5717,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="24" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" s="70" t="s">
         <v>218</v>
       </c>
@@ -5727,7 +5739,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="24" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" s="70" t="s">
         <v>220</v>
       </c>
@@ -5738,7 +5750,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="36" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:3" ht="24" x14ac:dyDescent="0.15">
       <c r="A38" s="70" t="s">
         <v>247</v>
       </c>
@@ -5749,7 +5761,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="24" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" s="70" t="s">
         <v>248</v>
       </c>
@@ -5758,6 +5770,16 @@
       </c>
       <c r="C39" s="71" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A40" s="70" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A41" s="70" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="24" x14ac:dyDescent="0.15">
@@ -5771,7 +5793,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="36" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:3" ht="24" x14ac:dyDescent="0.15">
       <c r="A43" s="70" t="s">
         <v>222</v>
       </c>
@@ -5804,7 +5826,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="24" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46" s="70" t="s">
         <v>225</v>
       </c>
@@ -5837,7 +5859,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="24" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A49" s="70" t="s">
         <v>228</v>
       </c>
@@ -5859,6 +5881,16 @@
         <v>270</v>
       </c>
     </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A51" s="70" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A52" s="70" t="s">
+        <v>295</v>
+      </c>
+    </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A53" s="70" t="s">
         <v>230</v>
@@ -5903,7 +5935,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="24" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A57" s="70" t="s">
         <v>234</v>
       </c>
@@ -5958,6 +5990,11 @@
         <v>176</v>
       </c>
     </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A62" s="70" t="s">
+        <v>295</v>
+      </c>
+    </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A63" s="70" t="s">
         <v>241</v>
@@ -5991,12 +6028,20 @@
         <v>244</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="48" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:3" ht="36" x14ac:dyDescent="0.15">
+      <c r="A66" s="70" t="s">
+        <v>295</v>
+      </c>
       <c r="B66" s="71" t="s">
         <v>185</v>
       </c>
       <c r="C66" s="71" t="s">
         <v>185</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A67" s="70" t="s">
+        <v>294</v>
       </c>
     </row>
   </sheetData>

--- a/progression_2019_2020_IPT_MPSI.xlsx
+++ b/progression_2019_2020_IPT_MPSI.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="460" windowWidth="20880" windowHeight="14660" activeTab="2"/>
+    <workbookView xWindow="-27500" yWindow="120" windowWidth="20880" windowHeight="14660" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Semanier MPSI IPT 2019-2020" sheetId="12" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="296">
   <si>
     <t>Cours</t>
   </si>
@@ -5386,8 +5386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -5497,6 +5497,16 @@
         <v>92</v>
       </c>
     </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" s="70" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" s="70" t="s">
+        <v>295</v>
+      </c>
+    </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="70" t="s">
         <v>192</v>
@@ -5627,6 +5637,16 @@
       </c>
       <c r="C24" s="71" t="s">
         <v>257</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A25" s="70" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A26" s="70" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">

--- a/progression_2019_2020_IPT_MPSI.xlsx
+++ b/progression_2019_2020_IPT_MPSI.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-27500" yWindow="120" windowWidth="20880" windowHeight="14660" activeTab="2"/>
+    <workbookView xWindow="-27500" yWindow="120" windowWidth="20880" windowHeight="14660"/>
   </bookViews>
   <sheets>
     <sheet name="Semanier MPSI IPT 2019-2020" sheetId="12" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="297">
   <si>
     <t>Cours</t>
   </si>
@@ -939,6 +939,9 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>python_bases/PYB-000</t>
   </si>
 </sst>
 </file>
@@ -3340,8 +3343,8 @@
   </sheetPr>
   <dimension ref="A1:X53"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="R31" sqref="R31"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="26" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3354,8 +3357,7 @@
     <col min="8" max="8" width="37.33203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="5.5" style="1" customWidth="1"/>
     <col min="10" max="10" width="37.33203125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="19.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="32.6640625" style="1" customWidth="1"/>
     <col min="15" max="18" width="10.83203125" style="1" customWidth="1"/>
     <col min="19" max="19" width="41.33203125" style="1" customWidth="1"/>
@@ -3507,8 +3509,9 @@
       <c r="J3" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
+      <c r="K3" t="s">
+        <v>296</v>
+      </c>
       <c r="M3" s="73" t="s">
         <v>288</v>
       </c>
@@ -5386,8 +5389,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="B77" sqref="B77"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="12" x14ac:dyDescent="0.15"/>

--- a/progression_2019_2020_IPT_MPSI.xlsx
+++ b/progression_2019_2020_IPT_MPSI.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28109"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emiliendurif/Documents/prepa/MPSI/ipt_mpsi_lamartin/Informatique_MPSI/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Informatique_MPSI\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50CD61E8-2DD1-4E33-BFD0-A8AAC3787C87}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27500" yWindow="120" windowWidth="20880" windowHeight="14660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Semanier MPSI IPT 2019-2020" sheetId="12" r:id="rId1"/>
@@ -21,25 +22,25 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Cycles MPSI IPT'!$A$3:$B$7</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Semanier MPSI IPT 2019-2020'!$A$18:$H$20</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="298">
   <si>
     <t>Cours</t>
   </si>
@@ -942,13 +943,16 @@
   </si>
   <si>
     <t>python_bases/PYB-000</t>
+  </si>
+  <si>
+    <t>AA.C4; AA.C5; AA.C6; AA.C7; AA.C9; AA.S6; AA.S7; AA.S10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="16">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2244,18 +2248,54 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2305,42 +2345,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="7" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3019,13 +3023,13 @@
     <cellStyle name="Lien hypertexte visité" xfId="651" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="653" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 2 2" xfId="2"/>
-    <cellStyle name="Normal 3" xfId="3"/>
-    <cellStyle name="Normal 4" xfId="4"/>
-    <cellStyle name="Normal 4 2" xfId="5"/>
-    <cellStyle name="Normal 4 3" xfId="6"/>
-    <cellStyle name="Normal 5" xfId="7"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000087020000}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000088020000}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000089020000}"/>
+    <cellStyle name="Normal 4" xfId="4" xr:uid="{00000000-0005-0000-0000-00008A020000}"/>
+    <cellStyle name="Normal 4 2" xfId="5" xr:uid="{00000000-0005-0000-0000-00008B020000}"/>
+    <cellStyle name="Normal 4 3" xfId="6" xr:uid="{00000000-0005-0000-0000-00008C020000}"/>
+    <cellStyle name="Normal 5" xfId="7" xr:uid="{00000000-0005-0000-0000-00008D020000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -3337,38 +3341,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:X53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="26" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="26" customHeight="1"/>
   <cols>
-    <col min="1" max="3" width="10.83203125" style="1"/>
-    <col min="4" max="4" width="20.33203125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="10.81640625" style="1"/>
+    <col min="4" max="4" width="20.36328125" style="1" customWidth="1"/>
     <col min="5" max="5" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="37.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="37.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="37.33203125" style="1" customWidth="1"/>
-    <col min="11" max="12" width="19.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="32.6640625" style="1" customWidth="1"/>
-    <col min="15" max="18" width="10.83203125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="41.33203125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="10.83203125" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.83203125" style="1"/>
-    <col min="22" max="22" width="10.83203125" style="1" customWidth="1"/>
-    <col min="23" max="24" width="58.5" style="74" customWidth="1"/>
-    <col min="25" max="16384" width="10.83203125" style="1"/>
+    <col min="6" max="6" width="37.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.6328125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="37.36328125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="5.453125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="37.36328125" style="1" customWidth="1"/>
+    <col min="11" max="12" width="19.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="32.6328125" style="1" customWidth="1"/>
+    <col min="15" max="18" width="10.81640625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="41.36328125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="10.81640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.81640625" style="1"/>
+    <col min="22" max="22" width="10.81640625" style="1" customWidth="1"/>
+    <col min="23" max="24" width="58.453125" style="74" customWidth="1"/>
+    <col min="25" max="16384" width="10.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:24" ht="26" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>19</v>
       </c>
@@ -3427,17 +3431,17 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" ht="26" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="9">
         <v>43711</v>
       </c>
-      <c r="C2" s="109">
+      <c r="C2" s="90">
         <v>1</v>
       </c>
-      <c r="D2" s="112" t="s">
+      <c r="D2" s="93" t="s">
         <v>272</v>
       </c>
       <c r="E2" s="26">
@@ -3481,7 +3485,7 @@
       <c r="W2" s="75"/>
       <c r="X2" s="75"/>
     </row>
-    <row r="3" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" ht="26" customHeight="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -3489,8 +3493,8 @@
         <f>B2+7</f>
         <v>43718</v>
       </c>
-      <c r="C3" s="110"/>
-      <c r="D3" s="113"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="94"/>
       <c r="E3" s="26">
         <v>2</v>
       </c>
@@ -3513,7 +3517,7 @@
         <v>296</v>
       </c>
       <c r="M3" s="73" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="N3" s="73" t="s">
         <v>291</v>
@@ -3531,7 +3535,7 @@
       <c r="W3" s="75"/>
       <c r="X3" s="75"/>
     </row>
-    <row r="4" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" ht="26" customHeight="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -3539,8 +3543,8 @@
         <f>B3+7</f>
         <v>43725</v>
       </c>
-      <c r="C4" s="110"/>
-      <c r="D4" s="113"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="94"/>
       <c r="E4" s="26">
         <v>2</v>
       </c>
@@ -3580,7 +3584,7 @@
       <c r="W4" s="75"/>
       <c r="X4" s="75"/>
     </row>
-    <row r="5" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" ht="26" customHeight="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -3588,8 +3592,8 @@
         <f t="shared" ref="B5:B8" si="0">B4+7</f>
         <v>43732</v>
       </c>
-      <c r="C5" s="110"/>
-      <c r="D5" s="113"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="94"/>
       <c r="E5" s="26">
         <v>3</v>
       </c>
@@ -3629,7 +3633,7 @@
       <c r="W5" s="75"/>
       <c r="X5" s="75"/>
     </row>
-    <row r="6" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" ht="26" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3637,8 +3641,8 @@
         <f>B5+7</f>
         <v>43739</v>
       </c>
-      <c r="C6" s="110"/>
-      <c r="D6" s="113"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="94"/>
       <c r="E6" s="26">
         <v>4</v>
       </c>
@@ -3676,7 +3680,7 @@
       <c r="W6" s="75"/>
       <c r="X6" s="75"/>
     </row>
-    <row r="7" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:24" ht="26" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3684,8 +3688,8 @@
         <f t="shared" si="0"/>
         <v>43746</v>
       </c>
-      <c r="C7" s="110"/>
-      <c r="D7" s="113"/>
+      <c r="C7" s="91"/>
+      <c r="D7" s="94"/>
       <c r="E7" s="26">
         <v>4</v>
       </c>
@@ -3723,7 +3727,7 @@
       <c r="W7" s="75"/>
       <c r="X7" s="75"/>
     </row>
-    <row r="8" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" ht="26" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3731,8 +3735,8 @@
         <f t="shared" si="0"/>
         <v>43753</v>
       </c>
-      <c r="C8" s="111"/>
-      <c r="D8" s="114"/>
+      <c r="C8" s="92"/>
+      <c r="D8" s="95"/>
       <c r="E8" s="26">
         <v>5</v>
       </c>
@@ -3772,25 +3776,25 @@
       <c r="W8" s="75"/>
       <c r="X8" s="75"/>
     </row>
-    <row r="9" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="84" t="s">
+    <row r="9" spans="1:24" ht="26" customHeight="1">
+      <c r="A9" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="85"/>
-      <c r="C9" s="85"/>
-      <c r="D9" s="85"/>
-      <c r="E9" s="85"/>
-      <c r="F9" s="85"/>
-      <c r="G9" s="85"/>
-      <c r="H9" s="85"/>
-      <c r="I9" s="85"/>
-      <c r="J9" s="85"/>
-      <c r="K9" s="85"/>
-      <c r="L9" s="85"/>
-      <c r="M9" s="85"/>
-      <c r="N9" s="85"/>
-      <c r="O9" s="85"/>
-      <c r="P9" s="85"/>
+      <c r="B9" s="89"/>
+      <c r="C9" s="89"/>
+      <c r="D9" s="89"/>
+      <c r="E9" s="89"/>
+      <c r="F9" s="89"/>
+      <c r="G9" s="89"/>
+      <c r="H9" s="89"/>
+      <c r="I9" s="89"/>
+      <c r="J9" s="89"/>
+      <c r="K9" s="89"/>
+      <c r="L9" s="89"/>
+      <c r="M9" s="89"/>
+      <c r="N9" s="89"/>
+      <c r="O9" s="89"/>
+      <c r="P9" s="89"/>
       <c r="Q9" s="4"/>
       <c r="R9" s="41"/>
       <c r="S9" s="32"/>
@@ -3798,7 +3802,7 @@
       <c r="W9" s="75"/>
       <c r="X9" s="75"/>
     </row>
-    <row r="10" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:24" ht="26" customHeight="1">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -3806,10 +3810,10 @@
         <f>B8+21</f>
         <v>43774</v>
       </c>
-      <c r="C10" s="109">
+      <c r="C10" s="90">
         <v>1</v>
       </c>
-      <c r="D10" s="112" t="s">
+      <c r="D10" s="93" t="s">
         <v>272</v>
       </c>
       <c r="E10" s="26">
@@ -3851,7 +3855,7 @@
       <c r="W10" s="75"/>
       <c r="X10" s="75"/>
     </row>
-    <row r="11" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" ht="26" customHeight="1">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -3859,8 +3863,8 @@
         <f t="shared" ref="B11:B16" si="1">B10+7</f>
         <v>43781</v>
       </c>
-      <c r="C11" s="110"/>
-      <c r="D11" s="113"/>
+      <c r="C11" s="91"/>
+      <c r="D11" s="94"/>
       <c r="E11" s="26">
         <v>6</v>
       </c>
@@ -3898,7 +3902,7 @@
       <c r="W11" s="75"/>
       <c r="X11" s="75"/>
     </row>
-    <row r="12" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:24" ht="26" customHeight="1">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -3906,8 +3910,8 @@
         <f t="shared" si="1"/>
         <v>43788</v>
       </c>
-      <c r="C12" s="110"/>
-      <c r="D12" s="113"/>
+      <c r="C12" s="91"/>
+      <c r="D12" s="94"/>
       <c r="E12" s="26">
         <v>6</v>
       </c>
@@ -3944,7 +3948,7 @@
       <c r="W12" s="75"/>
       <c r="X12" s="75"/>
     </row>
-    <row r="13" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" ht="26" customHeight="1">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -3952,8 +3956,8 @@
         <f t="shared" si="1"/>
         <v>43795</v>
       </c>
-      <c r="C13" s="110"/>
-      <c r="D13" s="113"/>
+      <c r="C13" s="91"/>
+      <c r="D13" s="94"/>
       <c r="E13" s="26">
         <v>7</v>
       </c>
@@ -3993,7 +3997,7 @@
       <c r="W13" s="75"/>
       <c r="X13" s="75"/>
     </row>
-    <row r="14" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:24" ht="26" customHeight="1">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -4001,8 +4005,8 @@
         <f t="shared" si="1"/>
         <v>43802</v>
       </c>
-      <c r="C14" s="110"/>
-      <c r="D14" s="113"/>
+      <c r="C14" s="91"/>
+      <c r="D14" s="94"/>
       <c r="E14" s="26">
         <v>7</v>
       </c>
@@ -4041,7 +4045,7 @@
       <c r="W14" s="75"/>
       <c r="X14" s="75"/>
     </row>
-    <row r="15" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" ht="26" customHeight="1">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -4049,8 +4053,8 @@
         <f t="shared" si="1"/>
         <v>43809</v>
       </c>
-      <c r="C15" s="110"/>
-      <c r="D15" s="113"/>
+      <c r="C15" s="91"/>
+      <c r="D15" s="94"/>
       <c r="E15" s="26">
         <v>8</v>
       </c>
@@ -4092,7 +4096,7 @@
       <c r="W15" s="75"/>
       <c r="X15" s="75"/>
     </row>
-    <row r="16" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:24" ht="26" customHeight="1">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -4100,8 +4104,8 @@
         <f t="shared" si="1"/>
         <v>43816</v>
       </c>
-      <c r="C16" s="111"/>
-      <c r="D16" s="114"/>
+      <c r="C16" s="92"/>
+      <c r="D16" s="95"/>
       <c r="E16" s="26">
         <v>8</v>
       </c>
@@ -4141,25 +4145,25 @@
       <c r="W16" s="75"/>
       <c r="X16" s="75"/>
     </row>
-    <row r="17" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="84" t="s">
+    <row r="17" spans="1:24" ht="26" customHeight="1">
+      <c r="A17" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="85"/>
-      <c r="C17" s="85"/>
-      <c r="D17" s="85"/>
-      <c r="E17" s="85"/>
-      <c r="F17" s="85"/>
-      <c r="G17" s="85"/>
-      <c r="H17" s="85"/>
-      <c r="I17" s="85"/>
-      <c r="J17" s="85"/>
-      <c r="K17" s="85"/>
-      <c r="L17" s="85"/>
-      <c r="M17" s="85"/>
-      <c r="N17" s="85"/>
-      <c r="O17" s="85"/>
-      <c r="P17" s="85"/>
+      <c r="B17" s="89"/>
+      <c r="C17" s="89"/>
+      <c r="D17" s="89"/>
+      <c r="E17" s="89"/>
+      <c r="F17" s="89"/>
+      <c r="G17" s="89"/>
+      <c r="H17" s="89"/>
+      <c r="I17" s="89"/>
+      <c r="J17" s="89"/>
+      <c r="K17" s="89"/>
+      <c r="L17" s="89"/>
+      <c r="M17" s="89"/>
+      <c r="N17" s="89"/>
+      <c r="O17" s="89"/>
+      <c r="P17" s="89"/>
       <c r="Q17" s="4"/>
       <c r="R17" s="41"/>
       <c r="S17" s="32"/>
@@ -4167,7 +4171,7 @@
       <c r="W17" s="75"/>
       <c r="X17" s="75"/>
     </row>
-    <row r="18" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" ht="26" customHeight="1">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -4175,10 +4179,10 @@
         <f>B16+21</f>
         <v>43837</v>
       </c>
-      <c r="C18" s="103">
+      <c r="C18" s="82">
         <v>2</v>
       </c>
-      <c r="D18" s="106" t="s">
+      <c r="D18" s="85" t="s">
         <v>186</v>
       </c>
       <c r="E18" s="28">
@@ -4220,7 +4224,7 @@
       <c r="W18" s="75"/>
       <c r="X18" s="75"/>
     </row>
-    <row r="19" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" ht="26" customHeight="1">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -4228,8 +4232,8 @@
         <f>B18+7</f>
         <v>43844</v>
       </c>
-      <c r="C19" s="104"/>
-      <c r="D19" s="107"/>
+      <c r="C19" s="83"/>
+      <c r="D19" s="86"/>
       <c r="E19" s="28">
         <v>1</v>
       </c>
@@ -4269,7 +4273,7 @@
       <c r="W19" s="75"/>
       <c r="X19" s="75"/>
     </row>
-    <row r="20" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" ht="26" customHeight="1">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -4277,8 +4281,8 @@
         <f t="shared" ref="B20:B40" si="2">B19+7</f>
         <v>43851</v>
       </c>
-      <c r="C20" s="104"/>
-      <c r="D20" s="107"/>
+      <c r="C20" s="83"/>
+      <c r="D20" s="86"/>
       <c r="E20" s="28">
         <v>2</v>
       </c>
@@ -4318,7 +4322,7 @@
       <c r="W20" s="75"/>
       <c r="X20" s="75"/>
     </row>
-    <row r="21" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" ht="26" customHeight="1">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -4326,8 +4330,8 @@
         <f>B20+7</f>
         <v>43858</v>
       </c>
-      <c r="C21" s="105"/>
-      <c r="D21" s="108"/>
+      <c r="C21" s="84"/>
+      <c r="D21" s="87"/>
       <c r="E21" s="28">
         <v>2</v>
       </c>
@@ -4367,7 +4371,7 @@
       <c r="W21" s="75"/>
       <c r="X21" s="75"/>
     </row>
-    <row r="22" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:24" ht="26" customHeight="1">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -4375,10 +4379,10 @@
         <f>B21+7</f>
         <v>43865</v>
       </c>
-      <c r="C22" s="89">
+      <c r="C22" s="101">
         <v>3</v>
       </c>
-      <c r="D22" s="86" t="s">
+      <c r="D22" s="98" t="s">
         <v>61</v>
       </c>
       <c r="E22" s="35">
@@ -4420,7 +4424,7 @@
       <c r="W22" s="75"/>
       <c r="X22" s="75"/>
     </row>
-    <row r="23" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" ht="26" customHeight="1">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -4428,8 +4432,8 @@
         <f>B22+7</f>
         <v>43872</v>
       </c>
-      <c r="C23" s="90"/>
-      <c r="D23" s="87"/>
+      <c r="C23" s="102"/>
+      <c r="D23" s="99"/>
       <c r="E23" s="35">
         <v>2</v>
       </c>
@@ -4468,7 +4472,7 @@
       </c>
       <c r="S23" s="33"/>
     </row>
-    <row r="24" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" ht="26" customHeight="1">
       <c r="A24" s="1">
         <v>19</v>
       </c>
@@ -4476,8 +4480,8 @@
         <f>B23+7</f>
         <v>43879</v>
       </c>
-      <c r="C24" s="91"/>
-      <c r="D24" s="88"/>
+      <c r="C24" s="103"/>
+      <c r="D24" s="100"/>
       <c r="E24" s="34">
         <v>2</v>
       </c>
@@ -4512,25 +4516,25 @@
       </c>
       <c r="S24" s="33"/>
     </row>
-    <row r="25" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="84" t="s">
+    <row r="25" spans="1:24" ht="26" customHeight="1">
+      <c r="A25" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="85"/>
-      <c r="C25" s="85"/>
-      <c r="D25" s="85"/>
-      <c r="E25" s="85"/>
-      <c r="F25" s="85"/>
-      <c r="G25" s="85"/>
-      <c r="H25" s="85"/>
-      <c r="I25" s="85"/>
-      <c r="J25" s="85"/>
-      <c r="K25" s="85"/>
-      <c r="L25" s="85"/>
-      <c r="M25" s="85"/>
-      <c r="N25" s="85"/>
-      <c r="O25" s="85"/>
-      <c r="P25" s="85"/>
+      <c r="B25" s="89"/>
+      <c r="C25" s="89"/>
+      <c r="D25" s="89"/>
+      <c r="E25" s="89"/>
+      <c r="F25" s="89"/>
+      <c r="G25" s="89"/>
+      <c r="H25" s="89"/>
+      <c r="I25" s="89"/>
+      <c r="J25" s="89"/>
+      <c r="K25" s="89"/>
+      <c r="L25" s="89"/>
+      <c r="M25" s="89"/>
+      <c r="N25" s="89"/>
+      <c r="O25" s="89"/>
+      <c r="P25" s="89"/>
       <c r="Q25" s="4"/>
       <c r="R25" s="50"/>
       <c r="S25" s="32"/>
@@ -4538,7 +4542,7 @@
       <c r="W25" s="75"/>
       <c r="X25" s="75"/>
     </row>
-    <row r="26" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:24" ht="26" customHeight="1">
       <c r="A26" s="1">
         <v>19</v>
       </c>
@@ -4546,10 +4550,10 @@
         <f>B24+21</f>
         <v>43900</v>
       </c>
-      <c r="C26" s="89">
+      <c r="C26" s="101">
         <v>3</v>
       </c>
-      <c r="D26" s="86" t="s">
+      <c r="D26" s="98" t="s">
         <v>61</v>
       </c>
       <c r="E26" s="29">
@@ -4591,7 +4595,7 @@
       <c r="W26" s="75"/>
       <c r="X26" s="75"/>
     </row>
-    <row r="27" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" ht="26" customHeight="1">
       <c r="A27" s="1">
         <v>20</v>
       </c>
@@ -4599,8 +4603,8 @@
         <f t="shared" si="2"/>
         <v>43907</v>
       </c>
-      <c r="C27" s="90"/>
-      <c r="D27" s="87"/>
+      <c r="C27" s="102"/>
+      <c r="D27" s="99"/>
       <c r="E27" s="35">
         <v>3</v>
       </c>
@@ -4637,7 +4641,7 @@
       <c r="W27" s="75"/>
       <c r="X27" s="75"/>
     </row>
-    <row r="28" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:24" ht="26" customHeight="1">
       <c r="A28" s="1">
         <v>21</v>
       </c>
@@ -4645,8 +4649,8 @@
         <f t="shared" si="2"/>
         <v>43914</v>
       </c>
-      <c r="C28" s="90"/>
-      <c r="D28" s="87"/>
+      <c r="C28" s="102"/>
+      <c r="D28" s="99"/>
       <c r="E28" s="29">
         <v>4</v>
       </c>
@@ -4686,7 +4690,7 @@
       <c r="W28" s="75"/>
       <c r="X28" s="75"/>
     </row>
-    <row r="29" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" ht="26" customHeight="1">
       <c r="A29" s="1">
         <v>22</v>
       </c>
@@ -4694,8 +4698,8 @@
         <f t="shared" si="2"/>
         <v>43921</v>
       </c>
-      <c r="C29" s="91"/>
-      <c r="D29" s="88"/>
+      <c r="C29" s="103"/>
+      <c r="D29" s="100"/>
       <c r="E29" s="35">
         <v>4</v>
       </c>
@@ -4733,7 +4737,7 @@
       <c r="W29" s="75"/>
       <c r="X29" s="75"/>
     </row>
-    <row r="30" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:24" ht="26" customHeight="1">
       <c r="A30" s="1">
         <v>23</v>
       </c>
@@ -4741,10 +4745,10 @@
         <f t="shared" si="2"/>
         <v>43928</v>
       </c>
-      <c r="C30" s="92">
+      <c r="C30" s="104">
         <v>4</v>
       </c>
-      <c r="D30" s="94" t="s">
+      <c r="D30" s="106" t="s">
         <v>44</v>
       </c>
       <c r="E30" s="30">
@@ -4788,7 +4792,7 @@
       <c r="W30" s="75"/>
       <c r="X30" s="75"/>
     </row>
-    <row r="31" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:24" ht="26" customHeight="1">
       <c r="A31" s="1">
         <v>24</v>
       </c>
@@ -4796,8 +4800,8 @@
         <f t="shared" si="2"/>
         <v>43935</v>
       </c>
-      <c r="C31" s="93"/>
-      <c r="D31" s="95"/>
+      <c r="C31" s="105"/>
+      <c r="D31" s="107"/>
       <c r="E31" s="30">
         <v>2</v>
       </c>
@@ -4837,25 +4841,25 @@
       <c r="W31" s="75"/>
       <c r="X31" s="75"/>
     </row>
-    <row r="32" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="82" t="s">
+    <row r="32" spans="1:24" ht="26" customHeight="1">
+      <c r="A32" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="B32" s="83"/>
-      <c r="C32" s="83"/>
-      <c r="D32" s="83"/>
-      <c r="E32" s="83"/>
-      <c r="F32" s="83"/>
-      <c r="G32" s="83"/>
-      <c r="H32" s="83"/>
-      <c r="I32" s="83"/>
-      <c r="J32" s="83"/>
-      <c r="K32" s="83"/>
-      <c r="L32" s="83"/>
-      <c r="M32" s="83"/>
-      <c r="N32" s="83"/>
-      <c r="O32" s="83"/>
-      <c r="P32" s="83"/>
+      <c r="B32" s="97"/>
+      <c r="C32" s="97"/>
+      <c r="D32" s="97"/>
+      <c r="E32" s="97"/>
+      <c r="F32" s="97"/>
+      <c r="G32" s="97"/>
+      <c r="H32" s="97"/>
+      <c r="I32" s="97"/>
+      <c r="J32" s="97"/>
+      <c r="K32" s="97"/>
+      <c r="L32" s="97"/>
+      <c r="M32" s="97"/>
+      <c r="N32" s="97"/>
+      <c r="O32" s="97"/>
+      <c r="P32" s="97"/>
       <c r="Q32" s="47"/>
       <c r="R32" s="51"/>
       <c r="S32" s="32"/>
@@ -4863,7 +4867,7 @@
       <c r="W32" s="75"/>
       <c r="X32" s="75"/>
     </row>
-    <row r="33" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" ht="26" customHeight="1">
       <c r="A33" s="1">
         <v>25</v>
       </c>
@@ -4871,10 +4875,10 @@
         <f>B31+21</f>
         <v>43956</v>
       </c>
-      <c r="C33" s="92">
+      <c r="C33" s="104">
         <v>4</v>
       </c>
-      <c r="D33" s="94" t="s">
+      <c r="D33" s="106" t="s">
         <v>44</v>
       </c>
       <c r="E33" s="30">
@@ -4911,7 +4915,7 @@
       </c>
       <c r="S33" s="33"/>
     </row>
-    <row r="34" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:24" ht="26" customHeight="1">
       <c r="A34" s="1">
         <v>26</v>
       </c>
@@ -4919,8 +4923,8 @@
         <f t="shared" si="2"/>
         <v>43963</v>
       </c>
-      <c r="C34" s="97"/>
-      <c r="D34" s="96"/>
+      <c r="C34" s="109"/>
+      <c r="D34" s="108"/>
       <c r="E34" s="30">
         <v>3</v>
       </c>
@@ -4957,7 +4961,7 @@
       </c>
       <c r="S34" s="32"/>
     </row>
-    <row r="35" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:24" ht="26" customHeight="1">
       <c r="A35" s="1">
         <v>27</v>
       </c>
@@ -4965,8 +4969,8 @@
         <f t="shared" si="2"/>
         <v>43970</v>
       </c>
-      <c r="C35" s="93"/>
-      <c r="D35" s="95"/>
+      <c r="C35" s="105"/>
+      <c r="D35" s="107"/>
       <c r="E35" s="30">
         <v>4</v>
       </c>
@@ -5000,7 +5004,7 @@
       </c>
       <c r="S35" s="46"/>
     </row>
-    <row r="36" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:24" ht="26" customHeight="1">
       <c r="A36" s="1">
         <v>28</v>
       </c>
@@ -5008,10 +5012,10 @@
         <f t="shared" si="2"/>
         <v>43977</v>
       </c>
-      <c r="C36" s="100">
+      <c r="C36" s="112">
         <v>5</v>
       </c>
-      <c r="D36" s="98" t="s">
+      <c r="D36" s="110" t="s">
         <v>50</v>
       </c>
       <c r="E36" s="31">
@@ -5043,7 +5047,7 @@
       <c r="W36" s="75"/>
       <c r="X36" s="75"/>
     </row>
-    <row r="37" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:24" ht="26" customHeight="1">
       <c r="A37" s="1">
         <v>29</v>
       </c>
@@ -5051,8 +5055,8 @@
         <f t="shared" si="2"/>
         <v>43984</v>
       </c>
-      <c r="C37" s="101"/>
-      <c r="D37" s="99"/>
+      <c r="C37" s="113"/>
+      <c r="D37" s="111"/>
       <c r="E37" s="31">
         <v>1</v>
       </c>
@@ -5084,7 +5088,7 @@
       <c r="W37" s="75"/>
       <c r="X37" s="75"/>
     </row>
-    <row r="38" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24" ht="26" customHeight="1">
       <c r="A38" s="1">
         <v>30</v>
       </c>
@@ -5092,8 +5096,8 @@
         <f t="shared" si="2"/>
         <v>43991</v>
       </c>
-      <c r="C38" s="101"/>
-      <c r="D38" s="99"/>
+      <c r="C38" s="113"/>
+      <c r="D38" s="111"/>
       <c r="E38" s="31">
         <v>1</v>
       </c>
@@ -5123,7 +5127,7 @@
       <c r="W38" s="75"/>
       <c r="X38" s="75"/>
     </row>
-    <row r="39" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:24" ht="26" customHeight="1">
       <c r="A39" s="1">
         <v>31</v>
       </c>
@@ -5131,8 +5135,8 @@
         <f t="shared" si="2"/>
         <v>43998</v>
       </c>
-      <c r="C39" s="101"/>
-      <c r="D39" s="99"/>
+      <c r="C39" s="113"/>
+      <c r="D39" s="111"/>
       <c r="E39" s="31">
         <v>1</v>
       </c>
@@ -5162,7 +5166,7 @@
       <c r="W39" s="75"/>
       <c r="X39" s="75"/>
     </row>
-    <row r="40" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:24" ht="26" customHeight="1">
       <c r="A40" s="1">
         <v>32</v>
       </c>
@@ -5170,8 +5174,8 @@
         <f t="shared" si="2"/>
         <v>44005</v>
       </c>
-      <c r="C40" s="102"/>
-      <c r="D40" s="99"/>
+      <c r="C40" s="114"/>
+      <c r="D40" s="111"/>
       <c r="E40" s="31">
         <v>1</v>
       </c>
@@ -5199,101 +5203,93 @@
       <c r="W40" s="75"/>
       <c r="X40" s="75"/>
     </row>
-    <row r="41" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="82" t="s">
+    <row r="41" spans="1:24" ht="26" customHeight="1">
+      <c r="A41" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="B41" s="83"/>
-      <c r="C41" s="83"/>
-      <c r="D41" s="83"/>
-      <c r="E41" s="83"/>
-      <c r="F41" s="83"/>
-      <c r="G41" s="83"/>
-      <c r="H41" s="83"/>
-      <c r="I41" s="83"/>
-      <c r="J41" s="83"/>
-      <c r="K41" s="83"/>
-      <c r="L41" s="83"/>
-      <c r="M41" s="83"/>
-      <c r="N41" s="83"/>
-      <c r="O41" s="83"/>
-      <c r="P41" s="83"/>
+      <c r="B41" s="97"/>
+      <c r="C41" s="97"/>
+      <c r="D41" s="97"/>
+      <c r="E41" s="97"/>
+      <c r="F41" s="97"/>
+      <c r="G41" s="97"/>
+      <c r="H41" s="97"/>
+      <c r="I41" s="97"/>
+      <c r="J41" s="97"/>
+      <c r="K41" s="97"/>
+      <c r="L41" s="97"/>
+      <c r="M41" s="97"/>
+      <c r="N41" s="97"/>
+      <c r="O41" s="97"/>
+      <c r="P41" s="97"/>
       <c r="Q41" s="47"/>
       <c r="R41" s="51"/>
       <c r="V41" s="70"/>
       <c r="W41" s="75"/>
       <c r="X41" s="75"/>
     </row>
-    <row r="42" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:24" ht="26" customHeight="1">
       <c r="V42" s="70"/>
       <c r="W42" s="75"/>
       <c r="X42" s="75"/>
     </row>
-    <row r="43" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:24" ht="26" customHeight="1">
       <c r="V43" s="70"/>
       <c r="W43" s="75"/>
       <c r="X43" s="75"/>
     </row>
-    <row r="44" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:24" ht="26" customHeight="1">
       <c r="V44" s="70"/>
       <c r="W44" s="75"/>
       <c r="X44" s="75"/>
     </row>
-    <row r="45" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:24" ht="26" customHeight="1">
       <c r="V45" s="70"/>
       <c r="W45" s="75"/>
       <c r="X45" s="75"/>
     </row>
-    <row r="46" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:24" ht="26" customHeight="1">
       <c r="V46" s="70"/>
       <c r="W46" s="75"/>
       <c r="X46" s="75"/>
     </row>
-    <row r="47" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:24" ht="26" customHeight="1">
       <c r="V47" s="70"/>
       <c r="W47" s="75"/>
       <c r="X47" s="75"/>
     </row>
-    <row r="48" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:24" ht="26" customHeight="1">
       <c r="V48" s="70"/>
       <c r="W48" s="75"/>
       <c r="X48" s="75"/>
     </row>
-    <row r="49" spans="22:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="22:24" ht="26" customHeight="1">
       <c r="V49" s="70"/>
       <c r="W49" s="75"/>
       <c r="X49" s="75"/>
     </row>
-    <row r="50" spans="22:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="22:24" ht="26" customHeight="1">
       <c r="V50" s="70"/>
       <c r="W50" s="75"/>
       <c r="X50" s="75"/>
     </row>
-    <row r="51" spans="22:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="22:24" ht="26" customHeight="1">
       <c r="V51" s="70"/>
       <c r="W51" s="75"/>
       <c r="X51" s="75"/>
     </row>
-    <row r="52" spans="22:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="22:24" ht="26" customHeight="1">
       <c r="V52" s="70"/>
       <c r="W52" s="75"/>
       <c r="X52" s="75"/>
     </row>
-    <row r="53" spans="22:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="22:24" ht="26" customHeight="1">
       <c r="V53" s="70"/>
       <c r="W53" s="75"/>
       <c r="X53" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="D18:D21"/>
-    <mergeCell ref="A9:P9"/>
-    <mergeCell ref="A17:P17"/>
-    <mergeCell ref="C2:C8"/>
-    <mergeCell ref="D2:D8"/>
-    <mergeCell ref="D10:D16"/>
-    <mergeCell ref="C10:C16"/>
     <mergeCell ref="A41:P41"/>
     <mergeCell ref="A32:P32"/>
     <mergeCell ref="A25:P25"/>
@@ -5307,6 +5303,14 @@
     <mergeCell ref="C33:C35"/>
     <mergeCell ref="D36:D40"/>
     <mergeCell ref="C36:C40"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="A9:P9"/>
+    <mergeCell ref="A17:P17"/>
+    <mergeCell ref="C2:C8"/>
+    <mergeCell ref="D2:D8"/>
+    <mergeCell ref="D10:D16"/>
+    <mergeCell ref="C10:C16"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5315,22 +5319,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="2"/>
-    <col min="2" max="2" width="70.5" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="10.81640625" style="2"/>
+    <col min="2" max="2" width="70.453125" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="10.81640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="2" spans="1:2" ht="32" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" ht="21" customHeight="1"/>
+    <row r="2" spans="1:2" ht="31">
       <c r="A2" s="8" t="s">
         <v>4</v>
       </c>
@@ -5338,7 +5342,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="38" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" ht="38" customHeight="1">
       <c r="A3" s="10" t="s">
         <v>3</v>
       </c>
@@ -5346,7 +5350,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="38" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" ht="38" customHeight="1">
       <c r="A4" s="22" t="s">
         <v>55</v>
       </c>
@@ -5354,7 +5358,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="38" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2" ht="38" customHeight="1">
       <c r="A5" s="23" t="s">
         <v>56</v>
       </c>
@@ -5362,7 +5366,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="38" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2" ht="38" customHeight="1">
       <c r="A6" s="24" t="s">
         <v>6</v>
       </c>
@@ -5370,7 +5374,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="38" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" ht="38" customHeight="1">
       <c r="A7" s="25" t="s">
         <v>7</v>
       </c>
@@ -5386,22 +5390,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C67"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
       <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="70"/>
-    <col min="2" max="2" width="108.5" style="71" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="100.5" style="71" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="70"/>
+    <col min="1" max="1" width="10.81640625" style="70"/>
+    <col min="2" max="2" width="108.453125" style="71" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="100.453125" style="71" customWidth="1"/>
+    <col min="4" max="16384" width="10.81640625" style="70"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" s="70" t="s">
         <v>249</v>
       </c>
@@ -5412,7 +5416,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3">
       <c r="A2" s="70" t="s">
         <v>189</v>
       </c>
@@ -5423,7 +5427,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="24" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" ht="24">
       <c r="A3" s="70" t="s">
         <v>210</v>
       </c>
@@ -5434,7 +5438,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="24" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" ht="24">
       <c r="A4" s="70" t="s">
         <v>211</v>
       </c>
@@ -5445,7 +5449,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3">
       <c r="A5" s="70" t="s">
         <v>212</v>
       </c>
@@ -5456,7 +5460,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3">
       <c r="A7" s="70" t="s">
         <v>190</v>
       </c>
@@ -5467,7 +5471,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3">
       <c r="A8" s="70" t="s">
         <v>191</v>
       </c>
@@ -5478,7 +5482,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3">
       <c r="A9" s="70" t="s">
         <v>213</v>
       </c>
@@ -5489,7 +5493,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3">
       <c r="A10" s="70" t="s">
         <v>214</v>
       </c>
@@ -5500,17 +5504,17 @@
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3">
       <c r="A11" s="70" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3">
       <c r="A12" s="70" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3">
       <c r="A13" s="70" t="s">
         <v>192</v>
       </c>
@@ -5521,7 +5525,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3">
       <c r="A14" s="70" t="s">
         <v>193</v>
       </c>
@@ -5532,7 +5536,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3">
       <c r="A15" s="70" t="s">
         <v>194</v>
       </c>
@@ -5543,7 +5547,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3">
       <c r="A16" s="70" t="s">
         <v>204</v>
       </c>
@@ -5554,7 +5558,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3">
       <c r="A17" s="70" t="s">
         <v>206</v>
       </c>
@@ -5565,7 +5569,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3">
       <c r="A18" s="70" t="s">
         <v>195</v>
       </c>
@@ -5576,7 +5580,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3">
       <c r="A19" s="70" t="s">
         <v>196</v>
       </c>
@@ -5587,7 +5591,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3">
       <c r="A20" s="70" t="s">
         <v>197</v>
       </c>
@@ -5598,7 +5602,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3">
       <c r="A21" s="70" t="s">
         <v>198</v>
       </c>
@@ -5609,7 +5613,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="24" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3" ht="24">
       <c r="A22" s="70" t="s">
         <v>199</v>
       </c>
@@ -5620,7 +5624,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3">
       <c r="A23" s="70" t="s">
         <v>201</v>
       </c>
@@ -5631,7 +5635,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3">
       <c r="A24" s="70" t="s">
         <v>202</v>
       </c>
@@ -5642,17 +5646,17 @@
         <v>257</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3">
       <c r="A25" s="70" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3">
       <c r="A26" s="70" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:3">
       <c r="A27" s="79" t="s">
         <v>205</v>
       </c>
@@ -5663,7 +5667,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:3">
       <c r="A28" s="79" t="s">
         <v>207</v>
       </c>
@@ -5674,7 +5678,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:3">
       <c r="A29" s="79" t="s">
         <v>208</v>
       </c>
@@ -5685,7 +5689,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:3">
       <c r="A30" s="79" t="s">
         <v>209</v>
       </c>
@@ -5696,7 +5700,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:3">
       <c r="A31" s="79" t="s">
         <v>245</v>
       </c>
@@ -5707,7 +5711,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:3">
       <c r="A32" s="79" t="s">
         <v>246</v>
       </c>
@@ -5718,7 +5722,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:3">
       <c r="A33" s="70" t="s">
         <v>215</v>
       </c>
@@ -5729,7 +5733,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:3">
       <c r="A34" s="70" t="s">
         <v>217</v>
       </c>
@@ -5740,7 +5744,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:3">
       <c r="A35" s="70" t="s">
         <v>218</v>
       </c>
@@ -5751,7 +5755,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:3">
       <c r="A36" s="70" t="s">
         <v>219</v>
       </c>
@@ -5762,7 +5766,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:3">
       <c r="A37" s="70" t="s">
         <v>220</v>
       </c>
@@ -5773,7 +5777,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="24" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:3" ht="24">
       <c r="A38" s="70" t="s">
         <v>247</v>
       </c>
@@ -5784,7 +5788,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:3">
       <c r="A39" s="70" t="s">
         <v>248</v>
       </c>
@@ -5795,17 +5799,17 @@
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:3">
       <c r="A40" s="70" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:3">
       <c r="A41" s="70" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="24" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:3" ht="24">
       <c r="A42" s="70" t="s">
         <v>221</v>
       </c>
@@ -5816,7 +5820,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="24" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:3" ht="36">
       <c r="A43" s="70" t="s">
         <v>222</v>
       </c>
@@ -5827,7 +5831,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="24" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:3" ht="24">
       <c r="A44" s="70" t="s">
         <v>223</v>
       </c>
@@ -5838,7 +5842,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:3">
       <c r="A45" s="70" t="s">
         <v>224</v>
       </c>
@@ -5849,7 +5853,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:3">
       <c r="A46" s="70" t="s">
         <v>225</v>
       </c>
@@ -5860,7 +5864,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:3">
       <c r="A47" s="70" t="s">
         <v>226</v>
       </c>
@@ -5871,7 +5875,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="24" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:3" ht="24">
       <c r="A48" s="70" t="s">
         <v>227</v>
       </c>
@@ -5882,7 +5886,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:3">
       <c r="A49" s="70" t="s">
         <v>228</v>
       </c>
@@ -5893,7 +5897,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="24" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:3" ht="24">
       <c r="A50" s="70" t="s">
         <v>229</v>
       </c>
@@ -5904,17 +5908,17 @@
         <v>270</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:3">
       <c r="A51" s="70" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:3">
       <c r="A52" s="70" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:3">
       <c r="A53" s="70" t="s">
         <v>230</v>
       </c>
@@ -5925,7 +5929,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:3">
       <c r="A54" s="70" t="s">
         <v>231</v>
       </c>
@@ -5936,7 +5940,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:3">
       <c r="A55" s="70" t="s">
         <v>232</v>
       </c>
@@ -5947,7 +5951,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:3">
       <c r="A56" s="70" t="s">
         <v>233</v>
       </c>
@@ -5958,7 +5962,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:3">
       <c r="A57" s="70" t="s">
         <v>234</v>
       </c>
@@ -5969,7 +5973,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:3">
       <c r="A58" s="70" t="s">
         <v>235</v>
       </c>
@@ -5980,7 +5984,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:3">
       <c r="A59" s="70" t="s">
         <v>238</v>
       </c>
@@ -5991,7 +5995,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="24" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:3" ht="24">
       <c r="A60" s="70" t="s">
         <v>239</v>
       </c>
@@ -6002,7 +6006,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:3">
       <c r="A61" s="70" t="s">
         <v>240</v>
       </c>
@@ -6013,12 +6017,12 @@
         <v>176</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:3">
       <c r="A62" s="70" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:3">
       <c r="A63" s="70" t="s">
         <v>241</v>
       </c>
@@ -6029,7 +6033,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:3">
       <c r="A64" s="70" t="s">
         <v>242</v>
       </c>
@@ -6040,7 +6044,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:3">
       <c r="A65" s="70" t="s">
         <v>243</v>
       </c>
@@ -6051,7 +6055,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="36" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:3" ht="36">
       <c r="A66" s="70" t="s">
         <v>295</v>
       </c>
@@ -6062,7 +6066,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:3">
       <c r="A67" s="70" t="s">
         <v>294</v>
       </c>
@@ -6075,20 +6079,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="47.33203125" customWidth="1"/>
+    <col min="2" max="4" width="47.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="14.5">
       <c r="A1" s="115" t="s">
         <v>79</v>
       </c>
@@ -6096,7 +6100,7 @@
       <c r="C1" s="116"/>
       <c r="D1" s="117"/>
     </row>
-    <row r="2" spans="1:4" ht="22" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" ht="21">
       <c r="A2" s="54" t="s">
         <v>80</v>
       </c>
@@ -6106,7 +6110,7 @@
       <c r="C2" s="55"/>
       <c r="D2" s="56"/>
     </row>
-    <row r="3" spans="1:4" ht="44" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" ht="42">
       <c r="A3" s="54"/>
       <c r="B3" s="55"/>
       <c r="C3" s="55" t="s">
@@ -6114,7 +6118,7 @@
       </c>
       <c r="D3" s="56"/>
     </row>
-    <row r="4" spans="1:4" ht="33" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" ht="31.5">
       <c r="A4" s="54"/>
       <c r="B4" s="55"/>
       <c r="C4" s="55" t="s">
@@ -6122,7 +6126,7 @@
       </c>
       <c r="D4" s="56"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4">
       <c r="A5" s="54"/>
       <c r="B5" s="55"/>
       <c r="C5" s="55" t="s">
@@ -6130,13 +6134,13 @@
       </c>
       <c r="D5" s="56"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4">
       <c r="A6" s="54"/>
       <c r="B6" s="55"/>
       <c r="C6" s="55"/>
       <c r="D6" s="56"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" ht="21">
       <c r="A7" s="54" t="s">
         <v>85</v>
       </c>
@@ -6146,7 +6150,7 @@
       <c r="C7" s="55"/>
       <c r="D7" s="56"/>
     </row>
-    <row r="8" spans="1:4" ht="22" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" ht="21">
       <c r="A8" s="54" t="s">
         <v>87</v>
       </c>
@@ -6158,7 +6162,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="33" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" ht="42">
       <c r="A9" s="54"/>
       <c r="B9" s="55"/>
       <c r="C9" s="55" t="s">
@@ -6168,7 +6172,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="56" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="53" thickBot="1">
       <c r="A10" s="57"/>
       <c r="B10" s="58"/>
       <c r="C10" s="58" t="s">
@@ -6178,13 +6182,13 @@
         <v>93</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="13" thickBot="1">
       <c r="A11" s="60"/>
       <c r="B11" s="61"/>
       <c r="C11" s="61"/>
       <c r="D11" s="61"/>
     </row>
-    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" ht="14.5">
       <c r="A12" s="115" t="s">
         <v>94</v>
       </c>
@@ -6192,7 +6196,7 @@
       <c r="C12" s="116"/>
       <c r="D12" s="117"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4">
       <c r="A13" s="54" t="s">
         <v>95</v>
       </c>
@@ -6202,7 +6206,7 @@
       <c r="C13" s="55"/>
       <c r="D13" s="56"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4">
       <c r="A14" s="54" t="s">
         <v>97</v>
       </c>
@@ -6212,7 +6216,7 @@
       <c r="C14" s="55"/>
       <c r="D14" s="56"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4">
       <c r="A15" s="54" t="s">
         <v>99</v>
       </c>
@@ -6222,7 +6226,7 @@
       <c r="C15" s="55"/>
       <c r="D15" s="56"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4">
       <c r="A16" s="54" t="s">
         <v>101</v>
       </c>
@@ -6232,7 +6236,7 @@
       <c r="C16" s="55"/>
       <c r="D16" s="56"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" ht="21">
       <c r="A17" s="54" t="s">
         <v>103</v>
       </c>
@@ -6242,7 +6246,7 @@
       <c r="C17" s="55"/>
       <c r="D17" s="56"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" ht="21">
       <c r="A18" s="54" t="s">
         <v>105</v>
       </c>
@@ -6252,7 +6256,7 @@
       <c r="C18" s="55"/>
       <c r="D18" s="56"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4">
       <c r="A19" s="54" t="s">
         <v>107</v>
       </c>
@@ -6262,7 +6266,7 @@
       <c r="C19" s="55"/>
       <c r="D19" s="56"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4">
       <c r="A20" s="54" t="s">
         <v>109</v>
       </c>
@@ -6272,7 +6276,7 @@
       <c r="C20" s="55"/>
       <c r="D20" s="56"/>
     </row>
-    <row r="21" spans="1:4" ht="22" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4" ht="21">
       <c r="A21" s="54"/>
       <c r="B21" s="55"/>
       <c r="C21" s="55" t="s">
@@ -6280,7 +6284,7 @@
       </c>
       <c r="D21" s="56"/>
     </row>
-    <row r="22" spans="1:4" ht="22" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4" ht="21">
       <c r="A22" s="54"/>
       <c r="B22" s="55"/>
       <c r="C22" s="55" t="s">
@@ -6288,7 +6292,7 @@
       </c>
       <c r="D22" s="56"/>
     </row>
-    <row r="23" spans="1:4" ht="22" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4" ht="21">
       <c r="A23" s="54"/>
       <c r="B23" s="55"/>
       <c r="C23" s="55" t="s">
@@ -6296,7 +6300,7 @@
       </c>
       <c r="D23" s="56"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4">
       <c r="A24" s="54"/>
       <c r="B24" s="55"/>
       <c r="C24" s="55" t="s">
@@ -6304,7 +6308,7 @@
       </c>
       <c r="D24" s="56"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4">
       <c r="A25" s="54"/>
       <c r="B25" s="55"/>
       <c r="C25" s="55" t="s">
@@ -6312,13 +6316,13 @@
       </c>
       <c r="D25" s="56"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4">
       <c r="A26" s="54"/>
       <c r="B26" s="55"/>
       <c r="C26" s="55"/>
       <c r="D26" s="56"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4">
       <c r="A27" s="54" t="s">
         <v>116</v>
       </c>
@@ -6328,7 +6332,7 @@
       <c r="C27" s="55"/>
       <c r="D27" s="56"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4" ht="21">
       <c r="A28" s="54" t="s">
         <v>118</v>
       </c>
@@ -6338,7 +6342,7 @@
       <c r="C28" s="55"/>
       <c r="D28" s="56"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4">
       <c r="A29" s="54" t="s">
         <v>120</v>
       </c>
@@ -6348,7 +6352,7 @@
       <c r="C29" s="55"/>
       <c r="D29" s="56"/>
     </row>
-    <row r="30" spans="1:4" ht="22" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:4" ht="21">
       <c r="A30" s="54" t="s">
         <v>122</v>
       </c>
@@ -6358,7 +6362,7 @@
       <c r="C30" s="55"/>
       <c r="D30" s="56"/>
     </row>
-    <row r="31" spans="1:4" ht="22" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:4" ht="21">
       <c r="A31" s="54" t="s">
         <v>124</v>
       </c>
@@ -6368,7 +6372,7 @@
       <c r="C31" s="55"/>
       <c r="D31" s="56"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:4">
       <c r="A32" s="54" t="s">
         <v>126</v>
       </c>
@@ -6378,7 +6382,7 @@
       <c r="C32" s="55"/>
       <c r="D32" s="56"/>
     </row>
-    <row r="33" spans="1:4" ht="22" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4" ht="21">
       <c r="A33" s="54"/>
       <c r="B33" s="55"/>
       <c r="C33" s="55" t="s">
@@ -6388,7 +6392,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="22" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:4" ht="21">
       <c r="A34" s="54"/>
       <c r="B34" s="55"/>
       <c r="C34" s="55" t="s">
@@ -6398,7 +6402,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="22" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:4" ht="31.5">
       <c r="A35" s="54"/>
       <c r="B35" s="55"/>
       <c r="C35" s="55" t="s">
@@ -6408,7 +6412,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="33" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:4" ht="31.5">
       <c r="A36" s="54"/>
       <c r="B36" s="55"/>
       <c r="C36" s="55" t="s">
@@ -6418,7 +6422,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="22" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:4" ht="31.5">
       <c r="A37" s="54"/>
       <c r="B37" s="55"/>
       <c r="C37" s="55" t="s">
@@ -6428,7 +6432,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="55" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:4" ht="52.5">
       <c r="A38" s="54"/>
       <c r="B38" s="55"/>
       <c r="C38" s="55" t="s">
@@ -6438,7 +6442,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="34" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" ht="32" thickBot="1">
       <c r="A39" s="57"/>
       <c r="B39" s="58"/>
       <c r="C39" s="58" t="s">
@@ -6448,13 +6452,13 @@
         <v>141</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" ht="13" thickBot="1">
       <c r="A40" s="60"/>
       <c r="B40" s="61"/>
       <c r="C40" s="61"/>
       <c r="D40" s="61"/>
     </row>
-    <row r="41" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" ht="14.5">
       <c r="A41" s="118" t="s">
         <v>142</v>
       </c>
@@ -6462,7 +6466,7 @@
       <c r="C41" s="119"/>
       <c r="D41" s="120"/>
     </row>
-    <row r="42" spans="1:4" ht="33" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:4" ht="31.5">
       <c r="A42" s="54" t="s">
         <v>143</v>
       </c>
@@ -6472,7 +6476,7 @@
       <c r="C42" s="62"/>
       <c r="D42" s="63"/>
     </row>
-    <row r="43" spans="1:4" ht="44" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:4" ht="52.5">
       <c r="A43" s="54" t="s">
         <v>145</v>
       </c>
@@ -6482,7 +6486,7 @@
       <c r="C43" s="62"/>
       <c r="D43" s="63"/>
     </row>
-    <row r="44" spans="1:4" ht="33" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:4" ht="31.5">
       <c r="A44" s="54" t="s">
         <v>147</v>
       </c>
@@ -6492,7 +6496,7 @@
       <c r="C44" s="62"/>
       <c r="D44" s="63"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:4" ht="21">
       <c r="A45" s="54" t="s">
         <v>149</v>
       </c>
@@ -6502,7 +6506,7 @@
       <c r="C45" s="62"/>
       <c r="D45" s="63"/>
     </row>
-    <row r="46" spans="1:4" ht="22" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:4" ht="21">
       <c r="A46" s="54" t="s">
         <v>151</v>
       </c>
@@ -6512,7 +6516,7 @@
       <c r="C46" s="62"/>
       <c r="D46" s="63"/>
     </row>
-    <row r="47" spans="1:4" ht="44" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:4" ht="42">
       <c r="A47" s="54"/>
       <c r="B47" s="62"/>
       <c r="C47" s="62" t="s">
@@ -6522,7 +6526,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="33" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:4" ht="31.5">
       <c r="A48" s="54"/>
       <c r="B48" s="62"/>
       <c r="C48" s="62" t="s">
@@ -6532,7 +6536,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="44" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:4" ht="52.5">
       <c r="A49" s="54"/>
       <c r="B49" s="62"/>
       <c r="C49" s="62" t="s">
@@ -6542,7 +6546,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="67" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" ht="74" thickBot="1">
       <c r="A50" s="57"/>
       <c r="B50" s="64"/>
       <c r="C50" s="64" t="s">
@@ -6552,13 +6556,13 @@
         <v>160</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="15" thickBot="1">
       <c r="A51" s="60"/>
       <c r="B51" s="66"/>
       <c r="C51" s="66"/>
       <c r="D51" s="66"/>
     </row>
-    <row r="52" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="15" thickBot="1">
       <c r="A52" s="121" t="s">
         <v>161</v>
       </c>
@@ -6566,7 +6570,7 @@
       <c r="C52" s="122"/>
       <c r="D52" s="123"/>
     </row>
-    <row r="53" spans="1:4" ht="22" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:4" ht="21">
       <c r="A53" s="67" t="s">
         <v>162</v>
       </c>
@@ -6576,7 +6580,7 @@
       <c r="C53" s="68"/>
       <c r="D53" s="68"/>
     </row>
-    <row r="54" spans="1:4" ht="22" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:4" ht="21">
       <c r="A54" s="69" t="s">
         <v>164</v>
       </c>
@@ -6586,7 +6590,7 @@
       <c r="C54" s="55"/>
       <c r="D54" s="55"/>
     </row>
-    <row r="55" spans="1:4" ht="22" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:4" ht="21">
       <c r="A55" s="69" t="s">
         <v>166</v>
       </c>
@@ -6596,7 +6600,7 @@
       <c r="C55" s="55"/>
       <c r="D55" s="55"/>
     </row>
-    <row r="56" spans="1:4" ht="22" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:4" ht="21">
       <c r="A56" s="69" t="s">
         <v>168</v>
       </c>
@@ -6606,7 +6610,7 @@
       <c r="C56" s="55"/>
       <c r="D56" s="55"/>
     </row>
-    <row r="57" spans="1:4" ht="22" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:4" ht="21">
       <c r="A57" s="69" t="s">
         <v>170</v>
       </c>
@@ -6616,7 +6620,7 @@
       <c r="C57" s="55"/>
       <c r="D57" s="55"/>
     </row>
-    <row r="58" spans="1:4" ht="22" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:4" ht="21">
       <c r="A58" s="69"/>
       <c r="B58" s="55"/>
       <c r="C58" s="55" t="s">
@@ -6626,7 +6630,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="55" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:4" ht="52.5">
       <c r="A59" s="69"/>
       <c r="B59" s="55"/>
       <c r="C59" s="55" t="s">
@@ -6636,7 +6640,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="23" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" ht="21.5" thickBot="1">
       <c r="A60" s="69"/>
       <c r="B60" s="55"/>
       <c r="C60" s="55" t="s">
@@ -6646,13 +6650,13 @@
         <v>177</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" ht="15" thickBot="1">
       <c r="A61" s="60"/>
       <c r="B61" s="66"/>
       <c r="C61" s="66"/>
       <c r="D61" s="66"/>
     </row>
-    <row r="62" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" ht="15" thickBot="1">
       <c r="A62" s="121" t="s">
         <v>178</v>
       </c>
@@ -6660,7 +6664,7 @@
       <c r="C62" s="122"/>
       <c r="D62" s="123"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:4">
       <c r="A63" s="67" t="s">
         <v>179</v>
       </c>
@@ -6670,7 +6674,7 @@
       <c r="C63" s="68"/>
       <c r="D63" s="68"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:4">
       <c r="A64" s="69" t="s">
         <v>181</v>
       </c>
@@ -6680,7 +6684,7 @@
       <c r="C64" s="55"/>
       <c r="D64" s="55"/>
     </row>
-    <row r="65" spans="1:4" ht="44" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:4" ht="42">
       <c r="A65" s="69" t="s">
         <v>183</v>
       </c>

--- a/progression_2019_2020_IPT_MPSI.xlsx
+++ b/progression_2019_2020_IPT_MPSI.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21901"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Informatique_MPSI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50CD61E8-2DD1-4E33-BFD0-A8AAC3787C87}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A15E9D8-1A7A-4DE0-A9A3-AD31BDF22881}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="298">
   <si>
     <t>Cours</t>
   </si>
@@ -2248,6 +2248,69 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="1" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2266,12 +2329,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2288,63 +2345,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3347,8 +3347,8 @@
   </sheetPr>
   <dimension ref="A1:X53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView tabSelected="1" topLeftCell="I24" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="Q33" sqref="Q33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="26" customHeight="1"/>
@@ -3438,10 +3438,10 @@
       <c r="B2" s="9">
         <v>43711</v>
       </c>
-      <c r="C2" s="90">
+      <c r="C2" s="109">
         <v>1</v>
       </c>
-      <c r="D2" s="93" t="s">
+      <c r="D2" s="112" t="s">
         <v>272</v>
       </c>
       <c r="E2" s="26">
@@ -3493,8 +3493,8 @@
         <f>B2+7</f>
         <v>43718</v>
       </c>
-      <c r="C3" s="91"/>
-      <c r="D3" s="94"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="113"/>
       <c r="E3" s="26">
         <v>2</v>
       </c>
@@ -3543,8 +3543,8 @@
         <f>B3+7</f>
         <v>43725</v>
       </c>
-      <c r="C4" s="91"/>
-      <c r="D4" s="94"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="113"/>
       <c r="E4" s="26">
         <v>2</v>
       </c>
@@ -3592,8 +3592,8 @@
         <f t="shared" ref="B5:B8" si="0">B4+7</f>
         <v>43732</v>
       </c>
-      <c r="C5" s="91"/>
-      <c r="D5" s="94"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="113"/>
       <c r="E5" s="26">
         <v>3</v>
       </c>
@@ -3641,8 +3641,8 @@
         <f>B5+7</f>
         <v>43739</v>
       </c>
-      <c r="C6" s="91"/>
-      <c r="D6" s="94"/>
+      <c r="C6" s="110"/>
+      <c r="D6" s="113"/>
       <c r="E6" s="26">
         <v>4</v>
       </c>
@@ -3688,8 +3688,8 @@
         <f t="shared" si="0"/>
         <v>43746</v>
       </c>
-      <c r="C7" s="91"/>
-      <c r="D7" s="94"/>
+      <c r="C7" s="110"/>
+      <c r="D7" s="113"/>
       <c r="E7" s="26">
         <v>4</v>
       </c>
@@ -3735,8 +3735,8 @@
         <f t="shared" si="0"/>
         <v>43753</v>
       </c>
-      <c r="C8" s="92"/>
-      <c r="D8" s="95"/>
+      <c r="C8" s="111"/>
+      <c r="D8" s="114"/>
       <c r="E8" s="26">
         <v>5</v>
       </c>
@@ -3777,24 +3777,24 @@
       <c r="X8" s="75"/>
     </row>
     <row r="9" spans="1:24" ht="26" customHeight="1">
-      <c r="A9" s="88" t="s">
+      <c r="A9" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="89"/>
-      <c r="C9" s="89"/>
-      <c r="D9" s="89"/>
-      <c r="E9" s="89"/>
-      <c r="F9" s="89"/>
-      <c r="G9" s="89"/>
-      <c r="H9" s="89"/>
-      <c r="I9" s="89"/>
-      <c r="J9" s="89"/>
-      <c r="K9" s="89"/>
-      <c r="L9" s="89"/>
-      <c r="M9" s="89"/>
-      <c r="N9" s="89"/>
-      <c r="O9" s="89"/>
-      <c r="P9" s="89"/>
+      <c r="B9" s="85"/>
+      <c r="C9" s="85"/>
+      <c r="D9" s="85"/>
+      <c r="E9" s="85"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="85"/>
+      <c r="I9" s="85"/>
+      <c r="J9" s="85"/>
+      <c r="K9" s="85"/>
+      <c r="L9" s="85"/>
+      <c r="M9" s="85"/>
+      <c r="N9" s="85"/>
+      <c r="O9" s="85"/>
+      <c r="P9" s="85"/>
       <c r="Q9" s="4"/>
       <c r="R9" s="41"/>
       <c r="S9" s="32"/>
@@ -3810,10 +3810,10 @@
         <f>B8+21</f>
         <v>43774</v>
       </c>
-      <c r="C10" s="90">
+      <c r="C10" s="109">
         <v>1</v>
       </c>
-      <c r="D10" s="93" t="s">
+      <c r="D10" s="112" t="s">
         <v>272</v>
       </c>
       <c r="E10" s="26">
@@ -3863,8 +3863,8 @@
         <f t="shared" ref="B11:B16" si="1">B10+7</f>
         <v>43781</v>
       </c>
-      <c r="C11" s="91"/>
-      <c r="D11" s="94"/>
+      <c r="C11" s="110"/>
+      <c r="D11" s="113"/>
       <c r="E11" s="26">
         <v>6</v>
       </c>
@@ -3910,8 +3910,8 @@
         <f t="shared" si="1"/>
         <v>43788</v>
       </c>
-      <c r="C12" s="91"/>
-      <c r="D12" s="94"/>
+      <c r="C12" s="110"/>
+      <c r="D12" s="113"/>
       <c r="E12" s="26">
         <v>6</v>
       </c>
@@ -3956,8 +3956,8 @@
         <f t="shared" si="1"/>
         <v>43795</v>
       </c>
-      <c r="C13" s="91"/>
-      <c r="D13" s="94"/>
+      <c r="C13" s="110"/>
+      <c r="D13" s="113"/>
       <c r="E13" s="26">
         <v>7</v>
       </c>
@@ -4005,8 +4005,8 @@
         <f t="shared" si="1"/>
         <v>43802</v>
       </c>
-      <c r="C14" s="91"/>
-      <c r="D14" s="94"/>
+      <c r="C14" s="110"/>
+      <c r="D14" s="113"/>
       <c r="E14" s="26">
         <v>7</v>
       </c>
@@ -4053,8 +4053,8 @@
         <f t="shared" si="1"/>
         <v>43809</v>
       </c>
-      <c r="C15" s="91"/>
-      <c r="D15" s="94"/>
+      <c r="C15" s="110"/>
+      <c r="D15" s="113"/>
       <c r="E15" s="26">
         <v>8</v>
       </c>
@@ -4104,8 +4104,8 @@
         <f t="shared" si="1"/>
         <v>43816</v>
       </c>
-      <c r="C16" s="92"/>
-      <c r="D16" s="95"/>
+      <c r="C16" s="111"/>
+      <c r="D16" s="114"/>
       <c r="E16" s="26">
         <v>8</v>
       </c>
@@ -4146,24 +4146,24 @@
       <c r="X16" s="75"/>
     </row>
     <row r="17" spans="1:24" ht="26" customHeight="1">
-      <c r="A17" s="88" t="s">
+      <c r="A17" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="89"/>
-      <c r="C17" s="89"/>
-      <c r="D17" s="89"/>
-      <c r="E17" s="89"/>
-      <c r="F17" s="89"/>
-      <c r="G17" s="89"/>
-      <c r="H17" s="89"/>
-      <c r="I17" s="89"/>
-      <c r="J17" s="89"/>
-      <c r="K17" s="89"/>
-      <c r="L17" s="89"/>
-      <c r="M17" s="89"/>
-      <c r="N17" s="89"/>
-      <c r="O17" s="89"/>
-      <c r="P17" s="89"/>
+      <c r="B17" s="85"/>
+      <c r="C17" s="85"/>
+      <c r="D17" s="85"/>
+      <c r="E17" s="85"/>
+      <c r="F17" s="85"/>
+      <c r="G17" s="85"/>
+      <c r="H17" s="85"/>
+      <c r="I17" s="85"/>
+      <c r="J17" s="85"/>
+      <c r="K17" s="85"/>
+      <c r="L17" s="85"/>
+      <c r="M17" s="85"/>
+      <c r="N17" s="85"/>
+      <c r="O17" s="85"/>
+      <c r="P17" s="85"/>
       <c r="Q17" s="4"/>
       <c r="R17" s="41"/>
       <c r="S17" s="32"/>
@@ -4179,10 +4179,10 @@
         <f>B16+21</f>
         <v>43837</v>
       </c>
-      <c r="C18" s="82">
+      <c r="C18" s="103">
         <v>2</v>
       </c>
-      <c r="D18" s="85" t="s">
+      <c r="D18" s="106" t="s">
         <v>186</v>
       </c>
       <c r="E18" s="28">
@@ -4232,8 +4232,8 @@
         <f>B18+7</f>
         <v>43844</v>
       </c>
-      <c r="C19" s="83"/>
-      <c r="D19" s="86"/>
+      <c r="C19" s="104"/>
+      <c r="D19" s="107"/>
       <c r="E19" s="28">
         <v>1</v>
       </c>
@@ -4281,8 +4281,8 @@
         <f t="shared" ref="B20:B40" si="2">B19+7</f>
         <v>43851</v>
       </c>
-      <c r="C20" s="83"/>
-      <c r="D20" s="86"/>
+      <c r="C20" s="104"/>
+      <c r="D20" s="107"/>
       <c r="E20" s="28">
         <v>2</v>
       </c>
@@ -4330,8 +4330,8 @@
         <f>B20+7</f>
         <v>43858</v>
       </c>
-      <c r="C21" s="84"/>
-      <c r="D21" s="87"/>
+      <c r="C21" s="105"/>
+      <c r="D21" s="108"/>
       <c r="E21" s="28">
         <v>2</v>
       </c>
@@ -4379,10 +4379,10 @@
         <f>B21+7</f>
         <v>43865</v>
       </c>
-      <c r="C22" s="101">
+      <c r="C22" s="89">
         <v>3</v>
       </c>
-      <c r="D22" s="98" t="s">
+      <c r="D22" s="86" t="s">
         <v>61</v>
       </c>
       <c r="E22" s="35">
@@ -4432,8 +4432,8 @@
         <f>B22+7</f>
         <v>43872</v>
       </c>
-      <c r="C23" s="102"/>
-      <c r="D23" s="99"/>
+      <c r="C23" s="90"/>
+      <c r="D23" s="87"/>
       <c r="E23" s="35">
         <v>2</v>
       </c>
@@ -4480,8 +4480,8 @@
         <f>B23+7</f>
         <v>43879</v>
       </c>
-      <c r="C24" s="103"/>
-      <c r="D24" s="100"/>
+      <c r="C24" s="91"/>
+      <c r="D24" s="88"/>
       <c r="E24" s="34">
         <v>2</v>
       </c>
@@ -4517,24 +4517,24 @@
       <c r="S24" s="33"/>
     </row>
     <row r="25" spans="1:24" ht="26" customHeight="1">
-      <c r="A25" s="88" t="s">
+      <c r="A25" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="89"/>
-      <c r="C25" s="89"/>
-      <c r="D25" s="89"/>
-      <c r="E25" s="89"/>
-      <c r="F25" s="89"/>
-      <c r="G25" s="89"/>
-      <c r="H25" s="89"/>
-      <c r="I25" s="89"/>
-      <c r="J25" s="89"/>
-      <c r="K25" s="89"/>
-      <c r="L25" s="89"/>
-      <c r="M25" s="89"/>
-      <c r="N25" s="89"/>
-      <c r="O25" s="89"/>
-      <c r="P25" s="89"/>
+      <c r="B25" s="85"/>
+      <c r="C25" s="85"/>
+      <c r="D25" s="85"/>
+      <c r="E25" s="85"/>
+      <c r="F25" s="85"/>
+      <c r="G25" s="85"/>
+      <c r="H25" s="85"/>
+      <c r="I25" s="85"/>
+      <c r="J25" s="85"/>
+      <c r="K25" s="85"/>
+      <c r="L25" s="85"/>
+      <c r="M25" s="85"/>
+      <c r="N25" s="85"/>
+      <c r="O25" s="85"/>
+      <c r="P25" s="85"/>
       <c r="Q25" s="4"/>
       <c r="R25" s="50"/>
       <c r="S25" s="32"/>
@@ -4550,10 +4550,10 @@
         <f>B24+21</f>
         <v>43900</v>
       </c>
-      <c r="C26" s="101">
+      <c r="C26" s="89">
         <v>3</v>
       </c>
-      <c r="D26" s="98" t="s">
+      <c r="D26" s="86" t="s">
         <v>61</v>
       </c>
       <c r="E26" s="29">
@@ -4603,8 +4603,8 @@
         <f t="shared" si="2"/>
         <v>43907</v>
       </c>
-      <c r="C27" s="102"/>
-      <c r="D27" s="99"/>
+      <c r="C27" s="90"/>
+      <c r="D27" s="87"/>
       <c r="E27" s="35">
         <v>3</v>
       </c>
@@ -4649,8 +4649,8 @@
         <f t="shared" si="2"/>
         <v>43914</v>
       </c>
-      <c r="C28" s="102"/>
-      <c r="D28" s="99"/>
+      <c r="C28" s="90"/>
+      <c r="D28" s="87"/>
       <c r="E28" s="29">
         <v>4</v>
       </c>
@@ -4698,8 +4698,8 @@
         <f t="shared" si="2"/>
         <v>43921</v>
       </c>
-      <c r="C29" s="103"/>
-      <c r="D29" s="100"/>
+      <c r="C29" s="91"/>
+      <c r="D29" s="88"/>
       <c r="E29" s="35">
         <v>4</v>
       </c>
@@ -4745,10 +4745,10 @@
         <f t="shared" si="2"/>
         <v>43928</v>
       </c>
-      <c r="C30" s="104">
+      <c r="C30" s="92">
         <v>4</v>
       </c>
-      <c r="D30" s="106" t="s">
+      <c r="D30" s="94" t="s">
         <v>44</v>
       </c>
       <c r="E30" s="30">
@@ -4800,8 +4800,8 @@
         <f t="shared" si="2"/>
         <v>43935</v>
       </c>
-      <c r="C31" s="105"/>
-      <c r="D31" s="107"/>
+      <c r="C31" s="93"/>
+      <c r="D31" s="95"/>
       <c r="E31" s="30">
         <v>2</v>
       </c>
@@ -4842,24 +4842,24 @@
       <c r="X31" s="75"/>
     </row>
     <row r="32" spans="1:24" ht="26" customHeight="1">
-      <c r="A32" s="96" t="s">
+      <c r="A32" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="B32" s="97"/>
-      <c r="C32" s="97"/>
-      <c r="D32" s="97"/>
-      <c r="E32" s="97"/>
-      <c r="F32" s="97"/>
-      <c r="G32" s="97"/>
-      <c r="H32" s="97"/>
-      <c r="I32" s="97"/>
-      <c r="J32" s="97"/>
-      <c r="K32" s="97"/>
-      <c r="L32" s="97"/>
-      <c r="M32" s="97"/>
-      <c r="N32" s="97"/>
-      <c r="O32" s="97"/>
-      <c r="P32" s="97"/>
+      <c r="B32" s="83"/>
+      <c r="C32" s="83"/>
+      <c r="D32" s="83"/>
+      <c r="E32" s="83"/>
+      <c r="F32" s="83"/>
+      <c r="G32" s="83"/>
+      <c r="H32" s="83"/>
+      <c r="I32" s="83"/>
+      <c r="J32" s="83"/>
+      <c r="K32" s="83"/>
+      <c r="L32" s="83"/>
+      <c r="M32" s="83"/>
+      <c r="N32" s="83"/>
+      <c r="O32" s="83"/>
+      <c r="P32" s="83"/>
       <c r="Q32" s="47"/>
       <c r="R32" s="51"/>
       <c r="S32" s="32"/>
@@ -4875,10 +4875,10 @@
         <f>B31+21</f>
         <v>43956</v>
       </c>
-      <c r="C33" s="104">
+      <c r="C33" s="92">
         <v>4</v>
       </c>
-      <c r="D33" s="106" t="s">
+      <c r="D33" s="94" t="s">
         <v>44</v>
       </c>
       <c r="E33" s="30">
@@ -4923,8 +4923,8 @@
         <f t="shared" si="2"/>
         <v>43963</v>
       </c>
-      <c r="C34" s="109"/>
-      <c r="D34" s="108"/>
+      <c r="C34" s="97"/>
+      <c r="D34" s="96"/>
       <c r="E34" s="30">
         <v>3</v>
       </c>
@@ -4969,8 +4969,8 @@
         <f t="shared" si="2"/>
         <v>43970</v>
       </c>
-      <c r="C35" s="105"/>
-      <c r="D35" s="107"/>
+      <c r="C35" s="93"/>
+      <c r="D35" s="95"/>
       <c r="E35" s="30">
         <v>4</v>
       </c>
@@ -4998,7 +4998,9 @@
         <v>274</v>
       </c>
       <c r="P35" s="36"/>
-      <c r="Q35" s="4"/>
+      <c r="Q35" s="78" t="s">
+        <v>62</v>
+      </c>
       <c r="R35" s="53" t="s">
         <v>78</v>
       </c>
@@ -5012,10 +5014,10 @@
         <f t="shared" si="2"/>
         <v>43977</v>
       </c>
-      <c r="C36" s="112">
+      <c r="C36" s="100">
         <v>5</v>
       </c>
-      <c r="D36" s="110" t="s">
+      <c r="D36" s="98" t="s">
         <v>50</v>
       </c>
       <c r="E36" s="31">
@@ -5055,8 +5057,8 @@
         <f t="shared" si="2"/>
         <v>43984</v>
       </c>
-      <c r="C37" s="113"/>
-      <c r="D37" s="111"/>
+      <c r="C37" s="101"/>
+      <c r="D37" s="99"/>
       <c r="E37" s="31">
         <v>1</v>
       </c>
@@ -5096,8 +5098,8 @@
         <f t="shared" si="2"/>
         <v>43991</v>
       </c>
-      <c r="C38" s="113"/>
-      <c r="D38" s="111"/>
+      <c r="C38" s="101"/>
+      <c r="D38" s="99"/>
       <c r="E38" s="31">
         <v>1</v>
       </c>
@@ -5135,8 +5137,8 @@
         <f t="shared" si="2"/>
         <v>43998</v>
       </c>
-      <c r="C39" s="113"/>
-      <c r="D39" s="111"/>
+      <c r="C39" s="101"/>
+      <c r="D39" s="99"/>
       <c r="E39" s="31">
         <v>1</v>
       </c>
@@ -5174,8 +5176,8 @@
         <f t="shared" si="2"/>
         <v>44005</v>
       </c>
-      <c r="C40" s="114"/>
-      <c r="D40" s="111"/>
+      <c r="C40" s="102"/>
+      <c r="D40" s="99"/>
       <c r="E40" s="31">
         <v>1</v>
       </c>
@@ -5204,24 +5206,24 @@
       <c r="X40" s="75"/>
     </row>
     <row r="41" spans="1:24" ht="26" customHeight="1">
-      <c r="A41" s="96" t="s">
+      <c r="A41" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="B41" s="97"/>
-      <c r="C41" s="97"/>
-      <c r="D41" s="97"/>
-      <c r="E41" s="97"/>
-      <c r="F41" s="97"/>
-      <c r="G41" s="97"/>
-      <c r="H41" s="97"/>
-      <c r="I41" s="97"/>
-      <c r="J41" s="97"/>
-      <c r="K41" s="97"/>
-      <c r="L41" s="97"/>
-      <c r="M41" s="97"/>
-      <c r="N41" s="97"/>
-      <c r="O41" s="97"/>
-      <c r="P41" s="97"/>
+      <c r="B41" s="83"/>
+      <c r="C41" s="83"/>
+      <c r="D41" s="83"/>
+      <c r="E41" s="83"/>
+      <c r="F41" s="83"/>
+      <c r="G41" s="83"/>
+      <c r="H41" s="83"/>
+      <c r="I41" s="83"/>
+      <c r="J41" s="83"/>
+      <c r="K41" s="83"/>
+      <c r="L41" s="83"/>
+      <c r="M41" s="83"/>
+      <c r="N41" s="83"/>
+      <c r="O41" s="83"/>
+      <c r="P41" s="83"/>
       <c r="Q41" s="47"/>
       <c r="R41" s="51"/>
       <c r="V41" s="70"/>
@@ -5290,6 +5292,14 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="A9:P9"/>
+    <mergeCell ref="A17:P17"/>
+    <mergeCell ref="C2:C8"/>
+    <mergeCell ref="D2:D8"/>
+    <mergeCell ref="D10:D16"/>
+    <mergeCell ref="C10:C16"/>
     <mergeCell ref="A41:P41"/>
     <mergeCell ref="A32:P32"/>
     <mergeCell ref="A25:P25"/>
@@ -5303,18 +5313,10 @@
     <mergeCell ref="C33:C35"/>
     <mergeCell ref="D36:D40"/>
     <mergeCell ref="C36:C40"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="D18:D21"/>
-    <mergeCell ref="A9:P9"/>
-    <mergeCell ref="A17:P17"/>
-    <mergeCell ref="C2:C8"/>
-    <mergeCell ref="D2:D8"/>
-    <mergeCell ref="D10:D16"/>
-    <mergeCell ref="C10:C16"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" scale="78" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" scale="78" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/progression_2019_2020_IPT_MPSI.xlsx
+++ b/progression_2019_2020_IPT_MPSI.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21901"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28109"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Informatique_MPSI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emiliendurif/Documents/prepa/MPSI/ipt_mpsi_lamartin/Informatique_MPSI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A15E9D8-1A7A-4DE0-A9A3-AD31BDF22881}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-29740" yWindow="560" windowWidth="25360" windowHeight="14860"/>
   </bookViews>
   <sheets>
     <sheet name="Semanier MPSI IPT 2019-2020" sheetId="12" r:id="rId1"/>
@@ -27,13 +26,13 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
       </xcalcf:calcFeatures>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
@@ -951,8 +950,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2248,18 +2247,54 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2309,42 +2344,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="7" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3023,13 +3022,13 @@
     <cellStyle name="Lien hypertexte visité" xfId="651" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="653" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000087020000}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000088020000}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000089020000}"/>
-    <cellStyle name="Normal 4" xfId="4" xr:uid="{00000000-0005-0000-0000-00008A020000}"/>
-    <cellStyle name="Normal 4 2" xfId="5" xr:uid="{00000000-0005-0000-0000-00008B020000}"/>
-    <cellStyle name="Normal 4 3" xfId="6" xr:uid="{00000000-0005-0000-0000-00008C020000}"/>
-    <cellStyle name="Normal 5" xfId="7" xr:uid="{00000000-0005-0000-0000-00008D020000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2 2" xfId="2"/>
+    <cellStyle name="Normal 3" xfId="3"/>
+    <cellStyle name="Normal 4" xfId="4"/>
+    <cellStyle name="Normal 4 2" xfId="5"/>
+    <cellStyle name="Normal 4 3" xfId="6"/>
+    <cellStyle name="Normal 5" xfId="7"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -3341,38 +3340,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:X53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I24" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="Q33" sqref="Q33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="26" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="26" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="10.81640625" style="1"/>
-    <col min="4" max="4" width="20.36328125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="10.83203125" style="1"/>
+    <col min="4" max="4" width="20.33203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="37.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.6328125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="37.36328125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="5.453125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="37.36328125" style="1" customWidth="1"/>
-    <col min="11" max="12" width="19.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="32.6328125" style="1" customWidth="1"/>
-    <col min="15" max="18" width="10.81640625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="41.36328125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="10.81640625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.81640625" style="1"/>
-    <col min="22" max="22" width="10.81640625" style="1" customWidth="1"/>
-    <col min="23" max="24" width="58.453125" style="74" customWidth="1"/>
-    <col min="25" max="16384" width="10.81640625" style="1"/>
+    <col min="6" max="6" width="37.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="37.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="37.33203125" style="1" customWidth="1"/>
+    <col min="11" max="12" width="19.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="32.6640625" style="1" customWidth="1"/>
+    <col min="15" max="18" width="10.83203125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="41.33203125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="10.83203125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.83203125" style="1"/>
+    <col min="22" max="22" width="10.83203125" style="1" customWidth="1"/>
+    <col min="23" max="24" width="58.5" style="74" customWidth="1"/>
+    <col min="25" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="26" customHeight="1">
+    <row r="1" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>19</v>
       </c>
@@ -3431,17 +3430,17 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="26" customHeight="1">
+    <row r="2" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="9">
         <v>43711</v>
       </c>
-      <c r="C2" s="109">
+      <c r="C2" s="90">
         <v>1</v>
       </c>
-      <c r="D2" s="112" t="s">
+      <c r="D2" s="93" t="s">
         <v>272</v>
       </c>
       <c r="E2" s="26">
@@ -3485,7 +3484,7 @@
       <c r="W2" s="75"/>
       <c r="X2" s="75"/>
     </row>
-    <row r="3" spans="1:24" ht="26" customHeight="1">
+    <row r="3" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -3493,8 +3492,8 @@
         <f>B2+7</f>
         <v>43718</v>
       </c>
-      <c r="C3" s="110"/>
-      <c r="D3" s="113"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="94"/>
       <c r="E3" s="26">
         <v>2</v>
       </c>
@@ -3535,7 +3534,7 @@
       <c r="W3" s="75"/>
       <c r="X3" s="75"/>
     </row>
-    <row r="4" spans="1:24" ht="26" customHeight="1">
+    <row r="4" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -3543,8 +3542,8 @@
         <f>B3+7</f>
         <v>43725</v>
       </c>
-      <c r="C4" s="110"/>
-      <c r="D4" s="113"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="94"/>
       <c r="E4" s="26">
         <v>2</v>
       </c>
@@ -3584,7 +3583,7 @@
       <c r="W4" s="75"/>
       <c r="X4" s="75"/>
     </row>
-    <row r="5" spans="1:24" ht="26" customHeight="1">
+    <row r="5" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -3592,8 +3591,8 @@
         <f t="shared" ref="B5:B8" si="0">B4+7</f>
         <v>43732</v>
       </c>
-      <c r="C5" s="110"/>
-      <c r="D5" s="113"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="94"/>
       <c r="E5" s="26">
         <v>3</v>
       </c>
@@ -3633,7 +3632,7 @@
       <c r="W5" s="75"/>
       <c r="X5" s="75"/>
     </row>
-    <row r="6" spans="1:24" ht="26" customHeight="1">
+    <row r="6" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3641,8 +3640,8 @@
         <f>B5+7</f>
         <v>43739</v>
       </c>
-      <c r="C6" s="110"/>
-      <c r="D6" s="113"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="94"/>
       <c r="E6" s="26">
         <v>4</v>
       </c>
@@ -3680,7 +3679,7 @@
       <c r="W6" s="75"/>
       <c r="X6" s="75"/>
     </row>
-    <row r="7" spans="1:24" ht="26" customHeight="1">
+    <row r="7" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3688,8 +3687,8 @@
         <f t="shared" si="0"/>
         <v>43746</v>
       </c>
-      <c r="C7" s="110"/>
-      <c r="D7" s="113"/>
+      <c r="C7" s="91"/>
+      <c r="D7" s="94"/>
       <c r="E7" s="26">
         <v>4</v>
       </c>
@@ -3727,7 +3726,7 @@
       <c r="W7" s="75"/>
       <c r="X7" s="75"/>
     </row>
-    <row r="8" spans="1:24" ht="26" customHeight="1">
+    <row r="8" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3735,8 +3734,8 @@
         <f t="shared" si="0"/>
         <v>43753</v>
       </c>
-      <c r="C8" s="111"/>
-      <c r="D8" s="114"/>
+      <c r="C8" s="92"/>
+      <c r="D8" s="95"/>
       <c r="E8" s="26">
         <v>5</v>
       </c>
@@ -3776,25 +3775,25 @@
       <c r="W8" s="75"/>
       <c r="X8" s="75"/>
     </row>
-    <row r="9" spans="1:24" ht="26" customHeight="1">
-      <c r="A9" s="84" t="s">
+    <row r="9" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="85"/>
-      <c r="C9" s="85"/>
-      <c r="D9" s="85"/>
-      <c r="E9" s="85"/>
-      <c r="F9" s="85"/>
-      <c r="G9" s="85"/>
-      <c r="H9" s="85"/>
-      <c r="I9" s="85"/>
-      <c r="J9" s="85"/>
-      <c r="K9" s="85"/>
-      <c r="L9" s="85"/>
-      <c r="M9" s="85"/>
-      <c r="N9" s="85"/>
-      <c r="O9" s="85"/>
-      <c r="P9" s="85"/>
+      <c r="B9" s="89"/>
+      <c r="C9" s="89"/>
+      <c r="D9" s="89"/>
+      <c r="E9" s="89"/>
+      <c r="F9" s="89"/>
+      <c r="G9" s="89"/>
+      <c r="H9" s="89"/>
+      <c r="I9" s="89"/>
+      <c r="J9" s="89"/>
+      <c r="K9" s="89"/>
+      <c r="L9" s="89"/>
+      <c r="M9" s="89"/>
+      <c r="N9" s="89"/>
+      <c r="O9" s="89"/>
+      <c r="P9" s="89"/>
       <c r="Q9" s="4"/>
       <c r="R9" s="41"/>
       <c r="S9" s="32"/>
@@ -3802,7 +3801,7 @@
       <c r="W9" s="75"/>
       <c r="X9" s="75"/>
     </row>
-    <row r="10" spans="1:24" ht="26" customHeight="1">
+    <row r="10" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -3810,10 +3809,10 @@
         <f>B8+21</f>
         <v>43774</v>
       </c>
-      <c r="C10" s="109">
+      <c r="C10" s="90">
         <v>1</v>
       </c>
-      <c r="D10" s="112" t="s">
+      <c r="D10" s="93" t="s">
         <v>272</v>
       </c>
       <c r="E10" s="26">
@@ -3855,7 +3854,7 @@
       <c r="W10" s="75"/>
       <c r="X10" s="75"/>
     </row>
-    <row r="11" spans="1:24" ht="26" customHeight="1">
+    <row r="11" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -3863,8 +3862,8 @@
         <f t="shared" ref="B11:B16" si="1">B10+7</f>
         <v>43781</v>
       </c>
-      <c r="C11" s="110"/>
-      <c r="D11" s="113"/>
+      <c r="C11" s="91"/>
+      <c r="D11" s="94"/>
       <c r="E11" s="26">
         <v>6</v>
       </c>
@@ -3902,7 +3901,7 @@
       <c r="W11" s="75"/>
       <c r="X11" s="75"/>
     </row>
-    <row r="12" spans="1:24" ht="26" customHeight="1">
+    <row r="12" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -3910,8 +3909,8 @@
         <f t="shared" si="1"/>
         <v>43788</v>
       </c>
-      <c r="C12" s="110"/>
-      <c r="D12" s="113"/>
+      <c r="C12" s="91"/>
+      <c r="D12" s="94"/>
       <c r="E12" s="26">
         <v>6</v>
       </c>
@@ -3948,7 +3947,7 @@
       <c r="W12" s="75"/>
       <c r="X12" s="75"/>
     </row>
-    <row r="13" spans="1:24" ht="26" customHeight="1">
+    <row r="13" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -3956,8 +3955,8 @@
         <f t="shared" si="1"/>
         <v>43795</v>
       </c>
-      <c r="C13" s="110"/>
-      <c r="D13" s="113"/>
+      <c r="C13" s="91"/>
+      <c r="D13" s="94"/>
       <c r="E13" s="26">
         <v>7</v>
       </c>
@@ -3997,7 +3996,7 @@
       <c r="W13" s="75"/>
       <c r="X13" s="75"/>
     </row>
-    <row r="14" spans="1:24" ht="26" customHeight="1">
+    <row r="14" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -4005,8 +4004,8 @@
         <f t="shared" si="1"/>
         <v>43802</v>
       </c>
-      <c r="C14" s="110"/>
-      <c r="D14" s="113"/>
+      <c r="C14" s="91"/>
+      <c r="D14" s="94"/>
       <c r="E14" s="26">
         <v>7</v>
       </c>
@@ -4045,7 +4044,7 @@
       <c r="W14" s="75"/>
       <c r="X14" s="75"/>
     </row>
-    <row r="15" spans="1:24" ht="26" customHeight="1">
+    <row r="15" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -4053,8 +4052,8 @@
         <f t="shared" si="1"/>
         <v>43809</v>
       </c>
-      <c r="C15" s="110"/>
-      <c r="D15" s="113"/>
+      <c r="C15" s="91"/>
+      <c r="D15" s="94"/>
       <c r="E15" s="26">
         <v>8</v>
       </c>
@@ -4096,7 +4095,7 @@
       <c r="W15" s="75"/>
       <c r="X15" s="75"/>
     </row>
-    <row r="16" spans="1:24" ht="26" customHeight="1">
+    <row r="16" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -4104,8 +4103,8 @@
         <f t="shared" si="1"/>
         <v>43816</v>
       </c>
-      <c r="C16" s="111"/>
-      <c r="D16" s="114"/>
+      <c r="C16" s="92"/>
+      <c r="D16" s="95"/>
       <c r="E16" s="26">
         <v>8</v>
       </c>
@@ -4145,25 +4144,25 @@
       <c r="W16" s="75"/>
       <c r="X16" s="75"/>
     </row>
-    <row r="17" spans="1:24" ht="26" customHeight="1">
-      <c r="A17" s="84" t="s">
+    <row r="17" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="85"/>
-      <c r="C17" s="85"/>
-      <c r="D17" s="85"/>
-      <c r="E17" s="85"/>
-      <c r="F17" s="85"/>
-      <c r="G17" s="85"/>
-      <c r="H17" s="85"/>
-      <c r="I17" s="85"/>
-      <c r="J17" s="85"/>
-      <c r="K17" s="85"/>
-      <c r="L17" s="85"/>
-      <c r="M17" s="85"/>
-      <c r="N17" s="85"/>
-      <c r="O17" s="85"/>
-      <c r="P17" s="85"/>
+      <c r="B17" s="89"/>
+      <c r="C17" s="89"/>
+      <c r="D17" s="89"/>
+      <c r="E17" s="89"/>
+      <c r="F17" s="89"/>
+      <c r="G17" s="89"/>
+      <c r="H17" s="89"/>
+      <c r="I17" s="89"/>
+      <c r="J17" s="89"/>
+      <c r="K17" s="89"/>
+      <c r="L17" s="89"/>
+      <c r="M17" s="89"/>
+      <c r="N17" s="89"/>
+      <c r="O17" s="89"/>
+      <c r="P17" s="89"/>
       <c r="Q17" s="4"/>
       <c r="R17" s="41"/>
       <c r="S17" s="32"/>
@@ -4171,7 +4170,7 @@
       <c r="W17" s="75"/>
       <c r="X17" s="75"/>
     </row>
-    <row r="18" spans="1:24" ht="26" customHeight="1">
+    <row r="18" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -4179,10 +4178,10 @@
         <f>B16+21</f>
         <v>43837</v>
       </c>
-      <c r="C18" s="103">
+      <c r="C18" s="82">
         <v>2</v>
       </c>
-      <c r="D18" s="106" t="s">
+      <c r="D18" s="85" t="s">
         <v>186</v>
       </c>
       <c r="E18" s="28">
@@ -4224,7 +4223,7 @@
       <c r="W18" s="75"/>
       <c r="X18" s="75"/>
     </row>
-    <row r="19" spans="1:24" ht="26" customHeight="1">
+    <row r="19" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -4232,8 +4231,8 @@
         <f>B18+7</f>
         <v>43844</v>
       </c>
-      <c r="C19" s="104"/>
-      <c r="D19" s="107"/>
+      <c r="C19" s="83"/>
+      <c r="D19" s="86"/>
       <c r="E19" s="28">
         <v>1</v>
       </c>
@@ -4273,7 +4272,7 @@
       <c r="W19" s="75"/>
       <c r="X19" s="75"/>
     </row>
-    <row r="20" spans="1:24" ht="26" customHeight="1">
+    <row r="20" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -4281,8 +4280,8 @@
         <f t="shared" ref="B20:B40" si="2">B19+7</f>
         <v>43851</v>
       </c>
-      <c r="C20" s="104"/>
-      <c r="D20" s="107"/>
+      <c r="C20" s="83"/>
+      <c r="D20" s="86"/>
       <c r="E20" s="28">
         <v>2</v>
       </c>
@@ -4322,7 +4321,7 @@
       <c r="W20" s="75"/>
       <c r="X20" s="75"/>
     </row>
-    <row r="21" spans="1:24" ht="26" customHeight="1">
+    <row r="21" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -4330,8 +4329,8 @@
         <f>B20+7</f>
         <v>43858</v>
       </c>
-      <c r="C21" s="105"/>
-      <c r="D21" s="108"/>
+      <c r="C21" s="84"/>
+      <c r="D21" s="87"/>
       <c r="E21" s="28">
         <v>2</v>
       </c>
@@ -4371,7 +4370,7 @@
       <c r="W21" s="75"/>
       <c r="X21" s="75"/>
     </row>
-    <row r="22" spans="1:24" ht="26" customHeight="1">
+    <row r="22" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -4379,10 +4378,10 @@
         <f>B21+7</f>
         <v>43865</v>
       </c>
-      <c r="C22" s="89">
+      <c r="C22" s="101">
         <v>3</v>
       </c>
-      <c r="D22" s="86" t="s">
+      <c r="D22" s="98" t="s">
         <v>61</v>
       </c>
       <c r="E22" s="35">
@@ -4424,7 +4423,7 @@
       <c r="W22" s="75"/>
       <c r="X22" s="75"/>
     </row>
-    <row r="23" spans="1:24" ht="26" customHeight="1">
+    <row r="23" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -4432,8 +4431,8 @@
         <f>B22+7</f>
         <v>43872</v>
       </c>
-      <c r="C23" s="90"/>
-      <c r="D23" s="87"/>
+      <c r="C23" s="102"/>
+      <c r="D23" s="99"/>
       <c r="E23" s="35">
         <v>2</v>
       </c>
@@ -4472,7 +4471,7 @@
       </c>
       <c r="S23" s="33"/>
     </row>
-    <row r="24" spans="1:24" ht="26" customHeight="1">
+    <row r="24" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>19</v>
       </c>
@@ -4480,8 +4479,8 @@
         <f>B23+7</f>
         <v>43879</v>
       </c>
-      <c r="C24" s="91"/>
-      <c r="D24" s="88"/>
+      <c r="C24" s="103"/>
+      <c r="D24" s="100"/>
       <c r="E24" s="34">
         <v>2</v>
       </c>
@@ -4516,25 +4515,25 @@
       </c>
       <c r="S24" s="33"/>
     </row>
-    <row r="25" spans="1:24" ht="26" customHeight="1">
-      <c r="A25" s="84" t="s">
+    <row r="25" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="85"/>
-      <c r="C25" s="85"/>
-      <c r="D25" s="85"/>
-      <c r="E25" s="85"/>
-      <c r="F25" s="85"/>
-      <c r="G25" s="85"/>
-      <c r="H25" s="85"/>
-      <c r="I25" s="85"/>
-      <c r="J25" s="85"/>
-      <c r="K25" s="85"/>
-      <c r="L25" s="85"/>
-      <c r="M25" s="85"/>
-      <c r="N25" s="85"/>
-      <c r="O25" s="85"/>
-      <c r="P25" s="85"/>
+      <c r="B25" s="89"/>
+      <c r="C25" s="89"/>
+      <c r="D25" s="89"/>
+      <c r="E25" s="89"/>
+      <c r="F25" s="89"/>
+      <c r="G25" s="89"/>
+      <c r="H25" s="89"/>
+      <c r="I25" s="89"/>
+      <c r="J25" s="89"/>
+      <c r="K25" s="89"/>
+      <c r="L25" s="89"/>
+      <c r="M25" s="89"/>
+      <c r="N25" s="89"/>
+      <c r="O25" s="89"/>
+      <c r="P25" s="89"/>
       <c r="Q25" s="4"/>
       <c r="R25" s="50"/>
       <c r="S25" s="32"/>
@@ -4542,7 +4541,7 @@
       <c r="W25" s="75"/>
       <c r="X25" s="75"/>
     </row>
-    <row r="26" spans="1:24" ht="26" customHeight="1">
+    <row r="26" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>19</v>
       </c>
@@ -4550,10 +4549,10 @@
         <f>B24+21</f>
         <v>43900</v>
       </c>
-      <c r="C26" s="89">
+      <c r="C26" s="101">
         <v>3</v>
       </c>
-      <c r="D26" s="86" t="s">
+      <c r="D26" s="98" t="s">
         <v>61</v>
       </c>
       <c r="E26" s="29">
@@ -4595,7 +4594,7 @@
       <c r="W26" s="75"/>
       <c r="X26" s="75"/>
     </row>
-    <row r="27" spans="1:24" ht="26" customHeight="1">
+    <row r="27" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>20</v>
       </c>
@@ -4603,8 +4602,8 @@
         <f t="shared" si="2"/>
         <v>43907</v>
       </c>
-      <c r="C27" s="90"/>
-      <c r="D27" s="87"/>
+      <c r="C27" s="102"/>
+      <c r="D27" s="99"/>
       <c r="E27" s="35">
         <v>3</v>
       </c>
@@ -4641,7 +4640,7 @@
       <c r="W27" s="75"/>
       <c r="X27" s="75"/>
     </row>
-    <row r="28" spans="1:24" ht="26" customHeight="1">
+    <row r="28" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>21</v>
       </c>
@@ -4649,8 +4648,8 @@
         <f t="shared" si="2"/>
         <v>43914</v>
       </c>
-      <c r="C28" s="90"/>
-      <c r="D28" s="87"/>
+      <c r="C28" s="102"/>
+      <c r="D28" s="99"/>
       <c r="E28" s="29">
         <v>4</v>
       </c>
@@ -4690,7 +4689,7 @@
       <c r="W28" s="75"/>
       <c r="X28" s="75"/>
     </row>
-    <row r="29" spans="1:24" ht="26" customHeight="1">
+    <row r="29" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>22</v>
       </c>
@@ -4698,8 +4697,8 @@
         <f t="shared" si="2"/>
         <v>43921</v>
       </c>
-      <c r="C29" s="91"/>
-      <c r="D29" s="88"/>
+      <c r="C29" s="103"/>
+      <c r="D29" s="100"/>
       <c r="E29" s="35">
         <v>4</v>
       </c>
@@ -4737,7 +4736,7 @@
       <c r="W29" s="75"/>
       <c r="X29" s="75"/>
     </row>
-    <row r="30" spans="1:24" ht="26" customHeight="1">
+    <row r="30" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>23</v>
       </c>
@@ -4745,10 +4744,10 @@
         <f t="shared" si="2"/>
         <v>43928</v>
       </c>
-      <c r="C30" s="92">
+      <c r="C30" s="104">
         <v>4</v>
       </c>
-      <c r="D30" s="94" t="s">
+      <c r="D30" s="106" t="s">
         <v>44</v>
       </c>
       <c r="E30" s="30">
@@ -4792,7 +4791,7 @@
       <c r="W30" s="75"/>
       <c r="X30" s="75"/>
     </row>
-    <row r="31" spans="1:24" ht="26" customHeight="1">
+    <row r="31" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>24</v>
       </c>
@@ -4800,8 +4799,8 @@
         <f t="shared" si="2"/>
         <v>43935</v>
       </c>
-      <c r="C31" s="93"/>
-      <c r="D31" s="95"/>
+      <c r="C31" s="105"/>
+      <c r="D31" s="107"/>
       <c r="E31" s="30">
         <v>2</v>
       </c>
@@ -4841,25 +4840,25 @@
       <c r="W31" s="75"/>
       <c r="X31" s="75"/>
     </row>
-    <row r="32" spans="1:24" ht="26" customHeight="1">
-      <c r="A32" s="82" t="s">
+    <row r="32" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="B32" s="83"/>
-      <c r="C32" s="83"/>
-      <c r="D32" s="83"/>
-      <c r="E32" s="83"/>
-      <c r="F32" s="83"/>
-      <c r="G32" s="83"/>
-      <c r="H32" s="83"/>
-      <c r="I32" s="83"/>
-      <c r="J32" s="83"/>
-      <c r="K32" s="83"/>
-      <c r="L32" s="83"/>
-      <c r="M32" s="83"/>
-      <c r="N32" s="83"/>
-      <c r="O32" s="83"/>
-      <c r="P32" s="83"/>
+      <c r="B32" s="97"/>
+      <c r="C32" s="97"/>
+      <c r="D32" s="97"/>
+      <c r="E32" s="97"/>
+      <c r="F32" s="97"/>
+      <c r="G32" s="97"/>
+      <c r="H32" s="97"/>
+      <c r="I32" s="97"/>
+      <c r="J32" s="97"/>
+      <c r="K32" s="97"/>
+      <c r="L32" s="97"/>
+      <c r="M32" s="97"/>
+      <c r="N32" s="97"/>
+      <c r="O32" s="97"/>
+      <c r="P32" s="97"/>
       <c r="Q32" s="47"/>
       <c r="R32" s="51"/>
       <c r="S32" s="32"/>
@@ -4867,7 +4866,7 @@
       <c r="W32" s="75"/>
       <c r="X32" s="75"/>
     </row>
-    <row r="33" spans="1:24" ht="26" customHeight="1">
+    <row r="33" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>25</v>
       </c>
@@ -4875,10 +4874,10 @@
         <f>B31+21</f>
         <v>43956</v>
       </c>
-      <c r="C33" s="92">
+      <c r="C33" s="104">
         <v>4</v>
       </c>
-      <c r="D33" s="94" t="s">
+      <c r="D33" s="106" t="s">
         <v>44</v>
       </c>
       <c r="E33" s="30">
@@ -4915,7 +4914,7 @@
       </c>
       <c r="S33" s="33"/>
     </row>
-    <row r="34" spans="1:24" ht="26" customHeight="1">
+    <row r="34" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>26</v>
       </c>
@@ -4923,8 +4922,8 @@
         <f t="shared" si="2"/>
         <v>43963</v>
       </c>
-      <c r="C34" s="97"/>
-      <c r="D34" s="96"/>
+      <c r="C34" s="109"/>
+      <c r="D34" s="108"/>
       <c r="E34" s="30">
         <v>3</v>
       </c>
@@ -4961,7 +4960,7 @@
       </c>
       <c r="S34" s="32"/>
     </row>
-    <row r="35" spans="1:24" ht="26" customHeight="1">
+    <row r="35" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <v>27</v>
       </c>
@@ -4969,8 +4968,8 @@
         <f t="shared" si="2"/>
         <v>43970</v>
       </c>
-      <c r="C35" s="93"/>
-      <c r="D35" s="95"/>
+      <c r="C35" s="105"/>
+      <c r="D35" s="107"/>
       <c r="E35" s="30">
         <v>4</v>
       </c>
@@ -5006,7 +5005,7 @@
       </c>
       <c r="S35" s="46"/>
     </row>
-    <row r="36" spans="1:24" ht="26" customHeight="1">
+    <row r="36" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>28</v>
       </c>
@@ -5014,10 +5013,10 @@
         <f t="shared" si="2"/>
         <v>43977</v>
       </c>
-      <c r="C36" s="100">
+      <c r="C36" s="112">
         <v>5</v>
       </c>
-      <c r="D36" s="98" t="s">
+      <c r="D36" s="110" t="s">
         <v>50</v>
       </c>
       <c r="E36" s="31">
@@ -5049,7 +5048,7 @@
       <c r="W36" s="75"/>
       <c r="X36" s="75"/>
     </row>
-    <row r="37" spans="1:24" ht="26" customHeight="1">
+    <row r="37" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
         <v>29</v>
       </c>
@@ -5057,8 +5056,8 @@
         <f t="shared" si="2"/>
         <v>43984</v>
       </c>
-      <c r="C37" s="101"/>
-      <c r="D37" s="99"/>
+      <c r="C37" s="113"/>
+      <c r="D37" s="111"/>
       <c r="E37" s="31">
         <v>1</v>
       </c>
@@ -5090,7 +5089,7 @@
       <c r="W37" s="75"/>
       <c r="X37" s="75"/>
     </row>
-    <row r="38" spans="1:24" ht="26" customHeight="1">
+    <row r="38" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>30</v>
       </c>
@@ -5098,8 +5097,8 @@
         <f t="shared" si="2"/>
         <v>43991</v>
       </c>
-      <c r="C38" s="101"/>
-      <c r="D38" s="99"/>
+      <c r="C38" s="113"/>
+      <c r="D38" s="111"/>
       <c r="E38" s="31">
         <v>1</v>
       </c>
@@ -5129,7 +5128,7 @@
       <c r="W38" s="75"/>
       <c r="X38" s="75"/>
     </row>
-    <row r="39" spans="1:24" ht="26" customHeight="1">
+    <row r="39" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
         <v>31</v>
       </c>
@@ -5137,8 +5136,8 @@
         <f t="shared" si="2"/>
         <v>43998</v>
       </c>
-      <c r="C39" s="101"/>
-      <c r="D39" s="99"/>
+      <c r="C39" s="113"/>
+      <c r="D39" s="111"/>
       <c r="E39" s="31">
         <v>1</v>
       </c>
@@ -5168,7 +5167,7 @@
       <c r="W39" s="75"/>
       <c r="X39" s="75"/>
     </row>
-    <row r="40" spans="1:24" ht="26" customHeight="1">
+    <row r="40" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>32</v>
       </c>
@@ -5176,8 +5175,8 @@
         <f t="shared" si="2"/>
         <v>44005</v>
       </c>
-      <c r="C40" s="102"/>
-      <c r="D40" s="99"/>
+      <c r="C40" s="114"/>
+      <c r="D40" s="111"/>
       <c r="E40" s="31">
         <v>1</v>
       </c>
@@ -5205,101 +5204,93 @@
       <c r="W40" s="75"/>
       <c r="X40" s="75"/>
     </row>
-    <row r="41" spans="1:24" ht="26" customHeight="1">
-      <c r="A41" s="82" t="s">
+    <row r="41" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="B41" s="83"/>
-      <c r="C41" s="83"/>
-      <c r="D41" s="83"/>
-      <c r="E41" s="83"/>
-      <c r="F41" s="83"/>
-      <c r="G41" s="83"/>
-      <c r="H41" s="83"/>
-      <c r="I41" s="83"/>
-      <c r="J41" s="83"/>
-      <c r="K41" s="83"/>
-      <c r="L41" s="83"/>
-      <c r="M41" s="83"/>
-      <c r="N41" s="83"/>
-      <c r="O41" s="83"/>
-      <c r="P41" s="83"/>
+      <c r="B41" s="97"/>
+      <c r="C41" s="97"/>
+      <c r="D41" s="97"/>
+      <c r="E41" s="97"/>
+      <c r="F41" s="97"/>
+      <c r="G41" s="97"/>
+      <c r="H41" s="97"/>
+      <c r="I41" s="97"/>
+      <c r="J41" s="97"/>
+      <c r="K41" s="97"/>
+      <c r="L41" s="97"/>
+      <c r="M41" s="97"/>
+      <c r="N41" s="97"/>
+      <c r="O41" s="97"/>
+      <c r="P41" s="97"/>
       <c r="Q41" s="47"/>
       <c r="R41" s="51"/>
       <c r="V41" s="70"/>
       <c r="W41" s="75"/>
       <c r="X41" s="75"/>
     </row>
-    <row r="42" spans="1:24" ht="26" customHeight="1">
+    <row r="42" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="V42" s="70"/>
       <c r="W42" s="75"/>
       <c r="X42" s="75"/>
     </row>
-    <row r="43" spans="1:24" ht="26" customHeight="1">
+    <row r="43" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="V43" s="70"/>
       <c r="W43" s="75"/>
       <c r="X43" s="75"/>
     </row>
-    <row r="44" spans="1:24" ht="26" customHeight="1">
+    <row r="44" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="V44" s="70"/>
       <c r="W44" s="75"/>
       <c r="X44" s="75"/>
     </row>
-    <row r="45" spans="1:24" ht="26" customHeight="1">
+    <row r="45" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="V45" s="70"/>
       <c r="W45" s="75"/>
       <c r="X45" s="75"/>
     </row>
-    <row r="46" spans="1:24" ht="26" customHeight="1">
+    <row r="46" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="V46" s="70"/>
       <c r="W46" s="75"/>
       <c r="X46" s="75"/>
     </row>
-    <row r="47" spans="1:24" ht="26" customHeight="1">
+    <row r="47" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="V47" s="70"/>
       <c r="W47" s="75"/>
       <c r="X47" s="75"/>
     </row>
-    <row r="48" spans="1:24" ht="26" customHeight="1">
+    <row r="48" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="V48" s="70"/>
       <c r="W48" s="75"/>
       <c r="X48" s="75"/>
     </row>
-    <row r="49" spans="22:24" ht="26" customHeight="1">
+    <row r="49" spans="22:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="V49" s="70"/>
       <c r="W49" s="75"/>
       <c r="X49" s="75"/>
     </row>
-    <row r="50" spans="22:24" ht="26" customHeight="1">
+    <row r="50" spans="22:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="V50" s="70"/>
       <c r="W50" s="75"/>
       <c r="X50" s="75"/>
     </row>
-    <row r="51" spans="22:24" ht="26" customHeight="1">
+    <row r="51" spans="22:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="V51" s="70"/>
       <c r="W51" s="75"/>
       <c r="X51" s="75"/>
     </row>
-    <row r="52" spans="22:24" ht="26" customHeight="1">
+    <row r="52" spans="22:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="V52" s="70"/>
       <c r="W52" s="75"/>
       <c r="X52" s="75"/>
     </row>
-    <row r="53" spans="22:24" ht="26" customHeight="1">
+    <row r="53" spans="22:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="V53" s="70"/>
       <c r="W53" s="75"/>
       <c r="X53" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="D18:D21"/>
-    <mergeCell ref="A9:P9"/>
-    <mergeCell ref="A17:P17"/>
-    <mergeCell ref="C2:C8"/>
-    <mergeCell ref="D2:D8"/>
-    <mergeCell ref="D10:D16"/>
-    <mergeCell ref="C10:C16"/>
     <mergeCell ref="A41:P41"/>
     <mergeCell ref="A32:P32"/>
     <mergeCell ref="A25:P25"/>
@@ -5313,6 +5304,14 @@
     <mergeCell ref="C33:C35"/>
     <mergeCell ref="D36:D40"/>
     <mergeCell ref="C36:C40"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="A9:P9"/>
+    <mergeCell ref="A17:P17"/>
+    <mergeCell ref="C2:C8"/>
+    <mergeCell ref="D2:D8"/>
+    <mergeCell ref="D10:D16"/>
+    <mergeCell ref="C10:C16"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5321,22 +5320,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" style="2"/>
-    <col min="2" max="2" width="70.453125" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="10.81640625" style="2"/>
+    <col min="1" max="1" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="70.5" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="21" customHeight="1"/>
-    <row r="2" spans="1:2" ht="31">
+    <row r="1" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="2" spans="1:2" ht="32" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
         <v>4</v>
       </c>
@@ -5344,7 +5343,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="38" customHeight="1">
+    <row r="3" spans="1:2" ht="38" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="10" t="s">
         <v>3</v>
       </c>
@@ -5352,7 +5351,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="38" customHeight="1">
+    <row r="4" spans="1:2" ht="38" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="22" t="s">
         <v>55</v>
       </c>
@@ -5360,7 +5359,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="38" customHeight="1">
+    <row r="5" spans="1:2" ht="38" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="23" t="s">
         <v>56</v>
       </c>
@@ -5368,7 +5367,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="38" customHeight="1">
+    <row r="6" spans="1:2" ht="38" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="24" t="s">
         <v>6</v>
       </c>
@@ -5376,7 +5375,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="38" customHeight="1">
+    <row r="7" spans="1:2" ht="38" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="25" t="s">
         <v>7</v>
       </c>
@@ -5392,22 +5391,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C67"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
       <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="12"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" style="70"/>
-    <col min="2" max="2" width="108.453125" style="71" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="100.453125" style="71" customWidth="1"/>
-    <col min="4" max="16384" width="10.81640625" style="70"/>
+    <col min="1" max="1" width="10.83203125" style="70"/>
+    <col min="2" max="2" width="108.5" style="71" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="100.5" style="71" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="70"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="70" t="s">
         <v>249</v>
       </c>
@@ -5418,7 +5417,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="70" t="s">
         <v>189</v>
       </c>
@@ -5429,7 +5428,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="24">
+    <row r="3" spans="1:3" ht="24" x14ac:dyDescent="0.15">
       <c r="A3" s="70" t="s">
         <v>210</v>
       </c>
@@ -5440,7 +5439,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="24">
+    <row r="4" spans="1:3" ht="24" x14ac:dyDescent="0.15">
       <c r="A4" s="70" t="s">
         <v>211</v>
       </c>
@@ -5451,7 +5450,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="70" t="s">
         <v>212</v>
       </c>
@@ -5462,7 +5461,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="70" t="s">
         <v>190</v>
       </c>
@@ -5473,7 +5472,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="70" t="s">
         <v>191</v>
       </c>
@@ -5484,7 +5483,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="70" t="s">
         <v>213</v>
       </c>
@@ -5495,7 +5494,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="70" t="s">
         <v>214</v>
       </c>
@@ -5506,17 +5505,17 @@
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="70" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="70" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="70" t="s">
         <v>192</v>
       </c>
@@ -5527,7 +5526,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="70" t="s">
         <v>193</v>
       </c>
@@ -5538,7 +5537,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="70" t="s">
         <v>194</v>
       </c>
@@ -5549,7 +5548,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="70" t="s">
         <v>204</v>
       </c>
@@ -5560,7 +5559,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="70" t="s">
         <v>206</v>
       </c>
@@ -5571,7 +5570,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="70" t="s">
         <v>195</v>
       </c>
@@ -5582,7 +5581,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="70" t="s">
         <v>196</v>
       </c>
@@ -5593,7 +5592,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="70" t="s">
         <v>197</v>
       </c>
@@ -5604,7 +5603,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="70" t="s">
         <v>198</v>
       </c>
@@ -5615,7 +5614,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="24">
+    <row r="22" spans="1:3" ht="24" x14ac:dyDescent="0.15">
       <c r="A22" s="70" t="s">
         <v>199</v>
       </c>
@@ -5626,7 +5625,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="70" t="s">
         <v>201</v>
       </c>
@@ -5637,7 +5636,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" s="70" t="s">
         <v>202</v>
       </c>
@@ -5648,17 +5647,17 @@
         <v>257</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" s="70" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" s="70" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" s="79" t="s">
         <v>205</v>
       </c>
@@ -5669,7 +5668,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" s="79" t="s">
         <v>207</v>
       </c>
@@ -5680,7 +5679,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" s="79" t="s">
         <v>208</v>
       </c>
@@ -5691,7 +5690,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" s="79" t="s">
         <v>209</v>
       </c>
@@ -5702,7 +5701,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" s="79" t="s">
         <v>245</v>
       </c>
@@ -5713,7 +5712,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" s="79" t="s">
         <v>246</v>
       </c>
@@ -5724,7 +5723,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" s="70" t="s">
         <v>215</v>
       </c>
@@ -5735,7 +5734,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" s="70" t="s">
         <v>217</v>
       </c>
@@ -5746,7 +5745,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" s="70" t="s">
         <v>218</v>
       </c>
@@ -5757,7 +5756,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" s="70" t="s">
         <v>219</v>
       </c>
@@ -5768,7 +5767,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" s="70" t="s">
         <v>220</v>
       </c>
@@ -5779,7 +5778,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="24">
+    <row r="38" spans="1:3" ht="24" x14ac:dyDescent="0.15">
       <c r="A38" s="70" t="s">
         <v>247</v>
       </c>
@@ -5790,7 +5789,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" s="70" t="s">
         <v>248</v>
       </c>
@@ -5801,17 +5800,17 @@
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" s="70" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" s="70" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="24">
+    <row r="42" spans="1:3" ht="24" x14ac:dyDescent="0.15">
       <c r="A42" s="70" t="s">
         <v>221</v>
       </c>
@@ -5822,7 +5821,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="36">
+    <row r="43" spans="1:3" ht="24" x14ac:dyDescent="0.15">
       <c r="A43" s="70" t="s">
         <v>222</v>
       </c>
@@ -5833,7 +5832,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="24">
+    <row r="44" spans="1:3" ht="24" x14ac:dyDescent="0.15">
       <c r="A44" s="70" t="s">
         <v>223</v>
       </c>
@@ -5844,7 +5843,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" s="70" t="s">
         <v>224</v>
       </c>
@@ -5855,7 +5854,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46" s="70" t="s">
         <v>225</v>
       </c>
@@ -5866,7 +5865,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47" s="70" t="s">
         <v>226</v>
       </c>
@@ -5877,7 +5876,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="24">
+    <row r="48" spans="1:3" ht="24" x14ac:dyDescent="0.15">
       <c r="A48" s="70" t="s">
         <v>227</v>
       </c>
@@ -5888,7 +5887,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A49" s="70" t="s">
         <v>228</v>
       </c>
@@ -5899,7 +5898,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="24">
+    <row r="50" spans="1:3" ht="24" x14ac:dyDescent="0.15">
       <c r="A50" s="70" t="s">
         <v>229</v>
       </c>
@@ -5910,17 +5909,17 @@
         <v>270</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A51" s="70" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A52" s="70" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A53" s="70" t="s">
         <v>230</v>
       </c>
@@ -5931,7 +5930,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A54" s="70" t="s">
         <v>231</v>
       </c>
@@ -5942,7 +5941,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A55" s="70" t="s">
         <v>232</v>
       </c>
@@ -5953,7 +5952,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A56" s="70" t="s">
         <v>233</v>
       </c>
@@ -5964,7 +5963,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A57" s="70" t="s">
         <v>234</v>
       </c>
@@ -5975,7 +5974,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A58" s="70" t="s">
         <v>235</v>
       </c>
@@ -5986,7 +5985,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A59" s="70" t="s">
         <v>238</v>
       </c>
@@ -5997,7 +5996,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="24">
+    <row r="60" spans="1:3" ht="24" x14ac:dyDescent="0.15">
       <c r="A60" s="70" t="s">
         <v>239</v>
       </c>
@@ -6008,7 +6007,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A61" s="70" t="s">
         <v>240</v>
       </c>
@@ -6019,12 +6018,12 @@
         <v>176</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A62" s="70" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A63" s="70" t="s">
         <v>241</v>
       </c>
@@ -6035,7 +6034,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A64" s="70" t="s">
         <v>242</v>
       </c>
@@ -6046,7 +6045,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A65" s="70" t="s">
         <v>243</v>
       </c>
@@ -6057,7 +6056,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="36">
+    <row r="66" spans="1:3" ht="36" x14ac:dyDescent="0.15">
       <c r="A66" s="70" t="s">
         <v>295</v>
       </c>
@@ -6068,7 +6067,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A67" s="70" t="s">
         <v>294</v>
       </c>
@@ -6081,20 +6080,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="47.36328125" customWidth="1"/>
+    <col min="2" max="4" width="47.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.5">
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.15">
       <c r="A1" s="115" t="s">
         <v>79</v>
       </c>
@@ -6102,7 +6101,7 @@
       <c r="C1" s="116"/>
       <c r="D1" s="117"/>
     </row>
-    <row r="2" spans="1:4" ht="21">
+    <row r="2" spans="1:4" ht="22" x14ac:dyDescent="0.15">
       <c r="A2" s="54" t="s">
         <v>80</v>
       </c>
@@ -6112,7 +6111,7 @@
       <c r="C2" s="55"/>
       <c r="D2" s="56"/>
     </row>
-    <row r="3" spans="1:4" ht="42">
+    <row r="3" spans="1:4" ht="44" x14ac:dyDescent="0.15">
       <c r="A3" s="54"/>
       <c r="B3" s="55"/>
       <c r="C3" s="55" t="s">
@@ -6120,7 +6119,7 @@
       </c>
       <c r="D3" s="56"/>
     </row>
-    <row r="4" spans="1:4" ht="31.5">
+    <row r="4" spans="1:4" ht="33" x14ac:dyDescent="0.15">
       <c r="A4" s="54"/>
       <c r="B4" s="55"/>
       <c r="C4" s="55" t="s">
@@ -6128,7 +6127,7 @@
       </c>
       <c r="D4" s="56"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="54"/>
       <c r="B5" s="55"/>
       <c r="C5" s="55" t="s">
@@ -6136,13 +6135,13 @@
       </c>
       <c r="D5" s="56"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="54"/>
       <c r="B6" s="55"/>
       <c r="C6" s="55"/>
       <c r="D6" s="56"/>
     </row>
-    <row r="7" spans="1:4" ht="21">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="54" t="s">
         <v>85</v>
       </c>
@@ -6152,7 +6151,7 @@
       <c r="C7" s="55"/>
       <c r="D7" s="56"/>
     </row>
-    <row r="8" spans="1:4" ht="21">
+    <row r="8" spans="1:4" ht="22" x14ac:dyDescent="0.15">
       <c r="A8" s="54" t="s">
         <v>87</v>
       </c>
@@ -6164,7 +6163,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="42">
+    <row r="9" spans="1:4" ht="33" x14ac:dyDescent="0.15">
       <c r="A9" s="54"/>
       <c r="B9" s="55"/>
       <c r="C9" s="55" t="s">
@@ -6174,7 +6173,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="53" thickBot="1">
+    <row r="10" spans="1:4" ht="56" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="57"/>
       <c r="B10" s="58"/>
       <c r="C10" s="58" t="s">
@@ -6184,13 +6183,13 @@
         <v>93</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="13" thickBot="1">
+    <row r="11" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="60"/>
       <c r="B11" s="61"/>
       <c r="C11" s="61"/>
       <c r="D11" s="61"/>
     </row>
-    <row r="12" spans="1:4" ht="14.5">
+    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.15">
       <c r="A12" s="115" t="s">
         <v>94</v>
       </c>
@@ -6198,7 +6197,7 @@
       <c r="C12" s="116"/>
       <c r="D12" s="117"/>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="54" t="s">
         <v>95</v>
       </c>
@@ -6208,7 +6207,7 @@
       <c r="C13" s="55"/>
       <c r="D13" s="56"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="54" t="s">
         <v>97</v>
       </c>
@@ -6218,7 +6217,7 @@
       <c r="C14" s="55"/>
       <c r="D14" s="56"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="54" t="s">
         <v>99</v>
       </c>
@@ -6228,7 +6227,7 @@
       <c r="C15" s="55"/>
       <c r="D15" s="56"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="54" t="s">
         <v>101</v>
       </c>
@@ -6238,7 +6237,7 @@
       <c r="C16" s="55"/>
       <c r="D16" s="56"/>
     </row>
-    <row r="17" spans="1:4" ht="21">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="54" t="s">
         <v>103</v>
       </c>
@@ -6248,7 +6247,7 @@
       <c r="C17" s="55"/>
       <c r="D17" s="56"/>
     </row>
-    <row r="18" spans="1:4" ht="21">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="54" t="s">
         <v>105</v>
       </c>
@@ -6258,7 +6257,7 @@
       <c r="C18" s="55"/>
       <c r="D18" s="56"/>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="54" t="s">
         <v>107</v>
       </c>
@@ -6268,7 +6267,7 @@
       <c r="C19" s="55"/>
       <c r="D19" s="56"/>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="54" t="s">
         <v>109</v>
       </c>
@@ -6278,7 +6277,7 @@
       <c r="C20" s="55"/>
       <c r="D20" s="56"/>
     </row>
-    <row r="21" spans="1:4" ht="21">
+    <row r="21" spans="1:4" ht="22" x14ac:dyDescent="0.15">
       <c r="A21" s="54"/>
       <c r="B21" s="55"/>
       <c r="C21" s="55" t="s">
@@ -6286,7 +6285,7 @@
       </c>
       <c r="D21" s="56"/>
     </row>
-    <row r="22" spans="1:4" ht="21">
+    <row r="22" spans="1:4" ht="22" x14ac:dyDescent="0.15">
       <c r="A22" s="54"/>
       <c r="B22" s="55"/>
       <c r="C22" s="55" t="s">
@@ -6294,7 +6293,7 @@
       </c>
       <c r="D22" s="56"/>
     </row>
-    <row r="23" spans="1:4" ht="21">
+    <row r="23" spans="1:4" ht="22" x14ac:dyDescent="0.15">
       <c r="A23" s="54"/>
       <c r="B23" s="55"/>
       <c r="C23" s="55" t="s">
@@ -6302,7 +6301,7 @@
       </c>
       <c r="D23" s="56"/>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="54"/>
       <c r="B24" s="55"/>
       <c r="C24" s="55" t="s">
@@ -6310,7 +6309,7 @@
       </c>
       <c r="D24" s="56"/>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="54"/>
       <c r="B25" s="55"/>
       <c r="C25" s="55" t="s">
@@ -6318,13 +6317,13 @@
       </c>
       <c r="D25" s="56"/>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="54"/>
       <c r="B26" s="55"/>
       <c r="C26" s="55"/>
       <c r="D26" s="56"/>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="54" t="s">
         <v>116</v>
       </c>
@@ -6334,7 +6333,7 @@
       <c r="C27" s="55"/>
       <c r="D27" s="56"/>
     </row>
-    <row r="28" spans="1:4" ht="21">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="54" t="s">
         <v>118</v>
       </c>
@@ -6344,7 +6343,7 @@
       <c r="C28" s="55"/>
       <c r="D28" s="56"/>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="54" t="s">
         <v>120</v>
       </c>
@@ -6354,7 +6353,7 @@
       <c r="C29" s="55"/>
       <c r="D29" s="56"/>
     </row>
-    <row r="30" spans="1:4" ht="21">
+    <row r="30" spans="1:4" ht="22" x14ac:dyDescent="0.15">
       <c r="A30" s="54" t="s">
         <v>122</v>
       </c>
@@ -6364,7 +6363,7 @@
       <c r="C30" s="55"/>
       <c r="D30" s="56"/>
     </row>
-    <row r="31" spans="1:4" ht="21">
+    <row r="31" spans="1:4" ht="22" x14ac:dyDescent="0.15">
       <c r="A31" s="54" t="s">
         <v>124</v>
       </c>
@@ -6374,7 +6373,7 @@
       <c r="C31" s="55"/>
       <c r="D31" s="56"/>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" s="54" t="s">
         <v>126</v>
       </c>
@@ -6384,7 +6383,7 @@
       <c r="C32" s="55"/>
       <c r="D32" s="56"/>
     </row>
-    <row r="33" spans="1:4" ht="21">
+    <row r="33" spans="1:4" ht="22" x14ac:dyDescent="0.15">
       <c r="A33" s="54"/>
       <c r="B33" s="55"/>
       <c r="C33" s="55" t="s">
@@ -6394,7 +6393,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="21">
+    <row r="34" spans="1:4" ht="22" x14ac:dyDescent="0.15">
       <c r="A34" s="54"/>
       <c r="B34" s="55"/>
       <c r="C34" s="55" t="s">
@@ -6404,7 +6403,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="31.5">
+    <row r="35" spans="1:4" ht="22" x14ac:dyDescent="0.15">
       <c r="A35" s="54"/>
       <c r="B35" s="55"/>
       <c r="C35" s="55" t="s">
@@ -6414,7 +6413,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="31.5">
+    <row r="36" spans="1:4" ht="33" x14ac:dyDescent="0.15">
       <c r="A36" s="54"/>
       <c r="B36" s="55"/>
       <c r="C36" s="55" t="s">
@@ -6424,7 +6423,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="31.5">
+    <row r="37" spans="1:4" ht="22" x14ac:dyDescent="0.15">
       <c r="A37" s="54"/>
       <c r="B37" s="55"/>
       <c r="C37" s="55" t="s">
@@ -6434,7 +6433,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="52.5">
+    <row r="38" spans="1:4" ht="55" x14ac:dyDescent="0.15">
       <c r="A38" s="54"/>
       <c r="B38" s="55"/>
       <c r="C38" s="55" t="s">
@@ -6444,7 +6443,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="32" thickBot="1">
+    <row r="39" spans="1:4" ht="34" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A39" s="57"/>
       <c r="B39" s="58"/>
       <c r="C39" s="58" t="s">
@@ -6454,13 +6453,13 @@
         <v>141</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="13" thickBot="1">
+    <row r="40" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A40" s="60"/>
       <c r="B40" s="61"/>
       <c r="C40" s="61"/>
       <c r="D40" s="61"/>
     </row>
-    <row r="41" spans="1:4" ht="14.5">
+    <row r="41" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="118" t="s">
         <v>142</v>
       </c>
@@ -6468,7 +6467,7 @@
       <c r="C41" s="119"/>
       <c r="D41" s="120"/>
     </row>
-    <row r="42" spans="1:4" ht="31.5">
+    <row r="42" spans="1:4" ht="33" x14ac:dyDescent="0.15">
       <c r="A42" s="54" t="s">
         <v>143</v>
       </c>
@@ -6478,7 +6477,7 @@
       <c r="C42" s="62"/>
       <c r="D42" s="63"/>
     </row>
-    <row r="43" spans="1:4" ht="52.5">
+    <row r="43" spans="1:4" ht="44" x14ac:dyDescent="0.15">
       <c r="A43" s="54" t="s">
         <v>145</v>
       </c>
@@ -6488,7 +6487,7 @@
       <c r="C43" s="62"/>
       <c r="D43" s="63"/>
     </row>
-    <row r="44" spans="1:4" ht="31.5">
+    <row r="44" spans="1:4" ht="33" x14ac:dyDescent="0.15">
       <c r="A44" s="54" t="s">
         <v>147</v>
       </c>
@@ -6498,7 +6497,7 @@
       <c r="C44" s="62"/>
       <c r="D44" s="63"/>
     </row>
-    <row r="45" spans="1:4" ht="21">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45" s="54" t="s">
         <v>149</v>
       </c>
@@ -6508,7 +6507,7 @@
       <c r="C45" s="62"/>
       <c r="D45" s="63"/>
     </row>
-    <row r="46" spans="1:4" ht="21">
+    <row r="46" spans="1:4" ht="22" x14ac:dyDescent="0.15">
       <c r="A46" s="54" t="s">
         <v>151</v>
       </c>
@@ -6518,7 +6517,7 @@
       <c r="C46" s="62"/>
       <c r="D46" s="63"/>
     </row>
-    <row r="47" spans="1:4" ht="42">
+    <row r="47" spans="1:4" ht="44" x14ac:dyDescent="0.15">
       <c r="A47" s="54"/>
       <c r="B47" s="62"/>
       <c r="C47" s="62" t="s">
@@ -6528,7 +6527,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="31.5">
+    <row r="48" spans="1:4" ht="33" x14ac:dyDescent="0.15">
       <c r="A48" s="54"/>
       <c r="B48" s="62"/>
       <c r="C48" s="62" t="s">
@@ -6538,7 +6537,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="52.5">
+    <row r="49" spans="1:4" ht="44" x14ac:dyDescent="0.15">
       <c r="A49" s="54"/>
       <c r="B49" s="62"/>
       <c r="C49" s="62" t="s">
@@ -6548,7 +6547,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="74" thickBot="1">
+    <row r="50" spans="1:4" ht="67" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A50" s="57"/>
       <c r="B50" s="64"/>
       <c r="C50" s="64" t="s">
@@ -6558,13 +6557,13 @@
         <v>160</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15" thickBot="1">
+    <row r="51" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="60"/>
       <c r="B51" s="66"/>
       <c r="C51" s="66"/>
       <c r="D51" s="66"/>
     </row>
-    <row r="52" spans="1:4" ht="15" thickBot="1">
+    <row r="52" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="121" t="s">
         <v>161</v>
       </c>
@@ -6572,7 +6571,7 @@
       <c r="C52" s="122"/>
       <c r="D52" s="123"/>
     </row>
-    <row r="53" spans="1:4" ht="21">
+    <row r="53" spans="1:4" ht="22" x14ac:dyDescent="0.15">
       <c r="A53" s="67" t="s">
         <v>162</v>
       </c>
@@ -6582,7 +6581,7 @@
       <c r="C53" s="68"/>
       <c r="D53" s="68"/>
     </row>
-    <row r="54" spans="1:4" ht="21">
+    <row r="54" spans="1:4" ht="22" x14ac:dyDescent="0.15">
       <c r="A54" s="69" t="s">
         <v>164</v>
       </c>
@@ -6592,7 +6591,7 @@
       <c r="C54" s="55"/>
       <c r="D54" s="55"/>
     </row>
-    <row r="55" spans="1:4" ht="21">
+    <row r="55" spans="1:4" ht="22" x14ac:dyDescent="0.15">
       <c r="A55" s="69" t="s">
         <v>166</v>
       </c>
@@ -6602,7 +6601,7 @@
       <c r="C55" s="55"/>
       <c r="D55" s="55"/>
     </row>
-    <row r="56" spans="1:4" ht="21">
+    <row r="56" spans="1:4" ht="22" x14ac:dyDescent="0.15">
       <c r="A56" s="69" t="s">
         <v>168</v>
       </c>
@@ -6612,7 +6611,7 @@
       <c r="C56" s="55"/>
       <c r="D56" s="55"/>
     </row>
-    <row r="57" spans="1:4" ht="21">
+    <row r="57" spans="1:4" ht="22" x14ac:dyDescent="0.15">
       <c r="A57" s="69" t="s">
         <v>170</v>
       </c>
@@ -6622,7 +6621,7 @@
       <c r="C57" s="55"/>
       <c r="D57" s="55"/>
     </row>
-    <row r="58" spans="1:4" ht="21">
+    <row r="58" spans="1:4" ht="22" x14ac:dyDescent="0.15">
       <c r="A58" s="69"/>
       <c r="B58" s="55"/>
       <c r="C58" s="55" t="s">
@@ -6632,7 +6631,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="52.5">
+    <row r="59" spans="1:4" ht="55" x14ac:dyDescent="0.15">
       <c r="A59" s="69"/>
       <c r="B59" s="55"/>
       <c r="C59" s="55" t="s">
@@ -6642,7 +6641,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="21.5" thickBot="1">
+    <row r="60" spans="1:4" ht="23" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A60" s="69"/>
       <c r="B60" s="55"/>
       <c r="C60" s="55" t="s">
@@ -6652,13 +6651,13 @@
         <v>177</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="15" thickBot="1">
+    <row r="61" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="60"/>
       <c r="B61" s="66"/>
       <c r="C61" s="66"/>
       <c r="D61" s="66"/>
     </row>
-    <row r="62" spans="1:4" ht="15" thickBot="1">
+    <row r="62" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="121" t="s">
         <v>178</v>
       </c>
@@ -6666,7 +6665,7 @@
       <c r="C62" s="122"/>
       <c r="D62" s="123"/>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A63" s="67" t="s">
         <v>179</v>
       </c>
@@ -6676,7 +6675,7 @@
       <c r="C63" s="68"/>
       <c r="D63" s="68"/>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A64" s="69" t="s">
         <v>181</v>
       </c>
@@ -6686,7 +6685,7 @@
       <c r="C64" s="55"/>
       <c r="D64" s="55"/>
     </row>
-    <row r="65" spans="1:4" ht="42">
+    <row r="65" spans="1:4" ht="44" x14ac:dyDescent="0.15">
       <c r="A65" s="69" t="s">
         <v>183</v>
       </c>

--- a/progression_2019_2020_IPT_MPSI.xlsx
+++ b/progression_2019_2020_IPT_MPSI.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-29740" yWindow="560" windowWidth="25360" windowHeight="14860"/>
+    <workbookView xWindow="-34380" yWindow="340" windowWidth="28580" windowHeight="16180"/>
   </bookViews>
   <sheets>
     <sheet name="Semanier MPSI IPT 2019-2020" sheetId="12" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Cycles MPSI IPT'!$A$3:$B$7</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Semanier MPSI IPT 2019-2020'!$A$18:$H$20</definedName>
   </definedNames>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -941,10 +941,10 @@
     <t>-</t>
   </si>
   <si>
-    <t>python_bases/PYB-000</t>
-  </si>
-  <si>
     <t>AA.C4; AA.C5; AA.C6; AA.C7; AA.C9; AA.S6; AA.S7; AA.S10</t>
+  </si>
+  <si>
+    <t>python_bases/PYB-000;python_bases/PYB-100</t>
   </si>
 </sst>
 </file>
@@ -2247,6 +2247,69 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="1" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2265,12 +2328,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2287,63 +2344,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3347,7 +3347,7 @@
   <dimension ref="A1:X53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="Q33" sqref="Q33"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="26" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3437,10 +3437,10 @@
       <c r="B2" s="9">
         <v>43711</v>
       </c>
-      <c r="C2" s="90">
+      <c r="C2" s="109">
         <v>1</v>
       </c>
-      <c r="D2" s="93" t="s">
+      <c r="D2" s="112" t="s">
         <v>272</v>
       </c>
       <c r="E2" s="26">
@@ -3492,8 +3492,8 @@
         <f>B2+7</f>
         <v>43718</v>
       </c>
-      <c r="C3" s="91"/>
-      <c r="D3" s="94"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="113"/>
       <c r="E3" s="26">
         <v>2</v>
       </c>
@@ -3513,10 +3513,10 @@
         <v>27</v>
       </c>
       <c r="K3" t="s">
+        <v>297</v>
+      </c>
+      <c r="M3" s="73" t="s">
         <v>296</v>
-      </c>
-      <c r="M3" s="73" t="s">
-        <v>297</v>
       </c>
       <c r="N3" s="73" t="s">
         <v>291</v>
@@ -3542,8 +3542,8 @@
         <f>B3+7</f>
         <v>43725</v>
       </c>
-      <c r="C4" s="91"/>
-      <c r="D4" s="94"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="113"/>
       <c r="E4" s="26">
         <v>2</v>
       </c>
@@ -3591,8 +3591,8 @@
         <f t="shared" ref="B5:B8" si="0">B4+7</f>
         <v>43732</v>
       </c>
-      <c r="C5" s="91"/>
-      <c r="D5" s="94"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="113"/>
       <c r="E5" s="26">
         <v>3</v>
       </c>
@@ -3640,8 +3640,8 @@
         <f>B5+7</f>
         <v>43739</v>
       </c>
-      <c r="C6" s="91"/>
-      <c r="D6" s="94"/>
+      <c r="C6" s="110"/>
+      <c r="D6" s="113"/>
       <c r="E6" s="26">
         <v>4</v>
       </c>
@@ -3687,8 +3687,8 @@
         <f t="shared" si="0"/>
         <v>43746</v>
       </c>
-      <c r="C7" s="91"/>
-      <c r="D7" s="94"/>
+      <c r="C7" s="110"/>
+      <c r="D7" s="113"/>
       <c r="E7" s="26">
         <v>4</v>
       </c>
@@ -3734,8 +3734,8 @@
         <f t="shared" si="0"/>
         <v>43753</v>
       </c>
-      <c r="C8" s="92"/>
-      <c r="D8" s="95"/>
+      <c r="C8" s="111"/>
+      <c r="D8" s="114"/>
       <c r="E8" s="26">
         <v>5</v>
       </c>
@@ -3776,24 +3776,24 @@
       <c r="X8" s="75"/>
     </row>
     <row r="9" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="88" t="s">
+      <c r="A9" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="89"/>
-      <c r="C9" s="89"/>
-      <c r="D9" s="89"/>
-      <c r="E9" s="89"/>
-      <c r="F9" s="89"/>
-      <c r="G9" s="89"/>
-      <c r="H9" s="89"/>
-      <c r="I9" s="89"/>
-      <c r="J9" s="89"/>
-      <c r="K9" s="89"/>
-      <c r="L9" s="89"/>
-      <c r="M9" s="89"/>
-      <c r="N9" s="89"/>
-      <c r="O9" s="89"/>
-      <c r="P9" s="89"/>
+      <c r="B9" s="85"/>
+      <c r="C9" s="85"/>
+      <c r="D9" s="85"/>
+      <c r="E9" s="85"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="85"/>
+      <c r="I9" s="85"/>
+      <c r="J9" s="85"/>
+      <c r="K9" s="85"/>
+      <c r="L9" s="85"/>
+      <c r="M9" s="85"/>
+      <c r="N9" s="85"/>
+      <c r="O9" s="85"/>
+      <c r="P9" s="85"/>
       <c r="Q9" s="4"/>
       <c r="R9" s="41"/>
       <c r="S9" s="32"/>
@@ -3809,10 +3809,10 @@
         <f>B8+21</f>
         <v>43774</v>
       </c>
-      <c r="C10" s="90">
+      <c r="C10" s="109">
         <v>1</v>
       </c>
-      <c r="D10" s="93" t="s">
+      <c r="D10" s="112" t="s">
         <v>272</v>
       </c>
       <c r="E10" s="26">
@@ -3862,8 +3862,8 @@
         <f t="shared" ref="B11:B16" si="1">B10+7</f>
         <v>43781</v>
       </c>
-      <c r="C11" s="91"/>
-      <c r="D11" s="94"/>
+      <c r="C11" s="110"/>
+      <c r="D11" s="113"/>
       <c r="E11" s="26">
         <v>6</v>
       </c>
@@ -3909,8 +3909,8 @@
         <f t="shared" si="1"/>
         <v>43788</v>
       </c>
-      <c r="C12" s="91"/>
-      <c r="D12" s="94"/>
+      <c r="C12" s="110"/>
+      <c r="D12" s="113"/>
       <c r="E12" s="26">
         <v>6</v>
       </c>
@@ -3955,8 +3955,8 @@
         <f t="shared" si="1"/>
         <v>43795</v>
       </c>
-      <c r="C13" s="91"/>
-      <c r="D13" s="94"/>
+      <c r="C13" s="110"/>
+      <c r="D13" s="113"/>
       <c r="E13" s="26">
         <v>7</v>
       </c>
@@ -4004,8 +4004,8 @@
         <f t="shared" si="1"/>
         <v>43802</v>
       </c>
-      <c r="C14" s="91"/>
-      <c r="D14" s="94"/>
+      <c r="C14" s="110"/>
+      <c r="D14" s="113"/>
       <c r="E14" s="26">
         <v>7</v>
       </c>
@@ -4052,8 +4052,8 @@
         <f t="shared" si="1"/>
         <v>43809</v>
       </c>
-      <c r="C15" s="91"/>
-      <c r="D15" s="94"/>
+      <c r="C15" s="110"/>
+      <c r="D15" s="113"/>
       <c r="E15" s="26">
         <v>8</v>
       </c>
@@ -4103,8 +4103,8 @@
         <f t="shared" si="1"/>
         <v>43816</v>
       </c>
-      <c r="C16" s="92"/>
-      <c r="D16" s="95"/>
+      <c r="C16" s="111"/>
+      <c r="D16" s="114"/>
       <c r="E16" s="26">
         <v>8</v>
       </c>
@@ -4145,24 +4145,24 @@
       <c r="X16" s="75"/>
     </row>
     <row r="17" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="88" t="s">
+      <c r="A17" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="89"/>
-      <c r="C17" s="89"/>
-      <c r="D17" s="89"/>
-      <c r="E17" s="89"/>
-      <c r="F17" s="89"/>
-      <c r="G17" s="89"/>
-      <c r="H17" s="89"/>
-      <c r="I17" s="89"/>
-      <c r="J17" s="89"/>
-      <c r="K17" s="89"/>
-      <c r="L17" s="89"/>
-      <c r="M17" s="89"/>
-      <c r="N17" s="89"/>
-      <c r="O17" s="89"/>
-      <c r="P17" s="89"/>
+      <c r="B17" s="85"/>
+      <c r="C17" s="85"/>
+      <c r="D17" s="85"/>
+      <c r="E17" s="85"/>
+      <c r="F17" s="85"/>
+      <c r="G17" s="85"/>
+      <c r="H17" s="85"/>
+      <c r="I17" s="85"/>
+      <c r="J17" s="85"/>
+      <c r="K17" s="85"/>
+      <c r="L17" s="85"/>
+      <c r="M17" s="85"/>
+      <c r="N17" s="85"/>
+      <c r="O17" s="85"/>
+      <c r="P17" s="85"/>
       <c r="Q17" s="4"/>
       <c r="R17" s="41"/>
       <c r="S17" s="32"/>
@@ -4178,10 +4178,10 @@
         <f>B16+21</f>
         <v>43837</v>
       </c>
-      <c r="C18" s="82">
+      <c r="C18" s="103">
         <v>2</v>
       </c>
-      <c r="D18" s="85" t="s">
+      <c r="D18" s="106" t="s">
         <v>186</v>
       </c>
       <c r="E18" s="28">
@@ -4231,8 +4231,8 @@
         <f>B18+7</f>
         <v>43844</v>
       </c>
-      <c r="C19" s="83"/>
-      <c r="D19" s="86"/>
+      <c r="C19" s="104"/>
+      <c r="D19" s="107"/>
       <c r="E19" s="28">
         <v>1</v>
       </c>
@@ -4280,8 +4280,8 @@
         <f t="shared" ref="B20:B40" si="2">B19+7</f>
         <v>43851</v>
       </c>
-      <c r="C20" s="83"/>
-      <c r="D20" s="86"/>
+      <c r="C20" s="104"/>
+      <c r="D20" s="107"/>
       <c r="E20" s="28">
         <v>2</v>
       </c>
@@ -4329,8 +4329,8 @@
         <f>B20+7</f>
         <v>43858</v>
       </c>
-      <c r="C21" s="84"/>
-      <c r="D21" s="87"/>
+      <c r="C21" s="105"/>
+      <c r="D21" s="108"/>
       <c r="E21" s="28">
         <v>2</v>
       </c>
@@ -4378,10 +4378,10 @@
         <f>B21+7</f>
         <v>43865</v>
       </c>
-      <c r="C22" s="101">
+      <c r="C22" s="89">
         <v>3</v>
       </c>
-      <c r="D22" s="98" t="s">
+      <c r="D22" s="86" t="s">
         <v>61</v>
       </c>
       <c r="E22" s="35">
@@ -4431,8 +4431,8 @@
         <f>B22+7</f>
         <v>43872</v>
       </c>
-      <c r="C23" s="102"/>
-      <c r="D23" s="99"/>
+      <c r="C23" s="90"/>
+      <c r="D23" s="87"/>
       <c r="E23" s="35">
         <v>2</v>
       </c>
@@ -4479,8 +4479,8 @@
         <f>B23+7</f>
         <v>43879</v>
       </c>
-      <c r="C24" s="103"/>
-      <c r="D24" s="100"/>
+      <c r="C24" s="91"/>
+      <c r="D24" s="88"/>
       <c r="E24" s="34">
         <v>2</v>
       </c>
@@ -4516,24 +4516,24 @@
       <c r="S24" s="33"/>
     </row>
     <row r="25" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="88" t="s">
+      <c r="A25" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="89"/>
-      <c r="C25" s="89"/>
-      <c r="D25" s="89"/>
-      <c r="E25" s="89"/>
-      <c r="F25" s="89"/>
-      <c r="G25" s="89"/>
-      <c r="H25" s="89"/>
-      <c r="I25" s="89"/>
-      <c r="J25" s="89"/>
-      <c r="K25" s="89"/>
-      <c r="L25" s="89"/>
-      <c r="M25" s="89"/>
-      <c r="N25" s="89"/>
-      <c r="O25" s="89"/>
-      <c r="P25" s="89"/>
+      <c r="B25" s="85"/>
+      <c r="C25" s="85"/>
+      <c r="D25" s="85"/>
+      <c r="E25" s="85"/>
+      <c r="F25" s="85"/>
+      <c r="G25" s="85"/>
+      <c r="H25" s="85"/>
+      <c r="I25" s="85"/>
+      <c r="J25" s="85"/>
+      <c r="K25" s="85"/>
+      <c r="L25" s="85"/>
+      <c r="M25" s="85"/>
+      <c r="N25" s="85"/>
+      <c r="O25" s="85"/>
+      <c r="P25" s="85"/>
       <c r="Q25" s="4"/>
       <c r="R25" s="50"/>
       <c r="S25" s="32"/>
@@ -4549,10 +4549,10 @@
         <f>B24+21</f>
         <v>43900</v>
       </c>
-      <c r="C26" s="101">
+      <c r="C26" s="89">
         <v>3</v>
       </c>
-      <c r="D26" s="98" t="s">
+      <c r="D26" s="86" t="s">
         <v>61</v>
       </c>
       <c r="E26" s="29">
@@ -4602,8 +4602,8 @@
         <f t="shared" si="2"/>
         <v>43907</v>
       </c>
-      <c r="C27" s="102"/>
-      <c r="D27" s="99"/>
+      <c r="C27" s="90"/>
+      <c r="D27" s="87"/>
       <c r="E27" s="35">
         <v>3</v>
       </c>
@@ -4648,8 +4648,8 @@
         <f t="shared" si="2"/>
         <v>43914</v>
       </c>
-      <c r="C28" s="102"/>
-      <c r="D28" s="99"/>
+      <c r="C28" s="90"/>
+      <c r="D28" s="87"/>
       <c r="E28" s="29">
         <v>4</v>
       </c>
@@ -4697,8 +4697,8 @@
         <f t="shared" si="2"/>
         <v>43921</v>
       </c>
-      <c r="C29" s="103"/>
-      <c r="D29" s="100"/>
+      <c r="C29" s="91"/>
+      <c r="D29" s="88"/>
       <c r="E29" s="35">
         <v>4</v>
       </c>
@@ -4744,10 +4744,10 @@
         <f t="shared" si="2"/>
         <v>43928</v>
       </c>
-      <c r="C30" s="104">
+      <c r="C30" s="92">
         <v>4</v>
       </c>
-      <c r="D30" s="106" t="s">
+      <c r="D30" s="94" t="s">
         <v>44</v>
       </c>
       <c r="E30" s="30">
@@ -4799,8 +4799,8 @@
         <f t="shared" si="2"/>
         <v>43935</v>
       </c>
-      <c r="C31" s="105"/>
-      <c r="D31" s="107"/>
+      <c r="C31" s="93"/>
+      <c r="D31" s="95"/>
       <c r="E31" s="30">
         <v>2</v>
       </c>
@@ -4841,24 +4841,24 @@
       <c r="X31" s="75"/>
     </row>
     <row r="32" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="96" t="s">
+      <c r="A32" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="B32" s="97"/>
-      <c r="C32" s="97"/>
-      <c r="D32" s="97"/>
-      <c r="E32" s="97"/>
-      <c r="F32" s="97"/>
-      <c r="G32" s="97"/>
-      <c r="H32" s="97"/>
-      <c r="I32" s="97"/>
-      <c r="J32" s="97"/>
-      <c r="K32" s="97"/>
-      <c r="L32" s="97"/>
-      <c r="M32" s="97"/>
-      <c r="N32" s="97"/>
-      <c r="O32" s="97"/>
-      <c r="P32" s="97"/>
+      <c r="B32" s="83"/>
+      <c r="C32" s="83"/>
+      <c r="D32" s="83"/>
+      <c r="E32" s="83"/>
+      <c r="F32" s="83"/>
+      <c r="G32" s="83"/>
+      <c r="H32" s="83"/>
+      <c r="I32" s="83"/>
+      <c r="J32" s="83"/>
+      <c r="K32" s="83"/>
+      <c r="L32" s="83"/>
+      <c r="M32" s="83"/>
+      <c r="N32" s="83"/>
+      <c r="O32" s="83"/>
+      <c r="P32" s="83"/>
       <c r="Q32" s="47"/>
       <c r="R32" s="51"/>
       <c r="S32" s="32"/>
@@ -4874,10 +4874,10 @@
         <f>B31+21</f>
         <v>43956</v>
       </c>
-      <c r="C33" s="104">
+      <c r="C33" s="92">
         <v>4</v>
       </c>
-      <c r="D33" s="106" t="s">
+      <c r="D33" s="94" t="s">
         <v>44</v>
       </c>
       <c r="E33" s="30">
@@ -4922,8 +4922,8 @@
         <f t="shared" si="2"/>
         <v>43963</v>
       </c>
-      <c r="C34" s="109"/>
-      <c r="D34" s="108"/>
+      <c r="C34" s="97"/>
+      <c r="D34" s="96"/>
       <c r="E34" s="30">
         <v>3</v>
       </c>
@@ -4968,8 +4968,8 @@
         <f t="shared" si="2"/>
         <v>43970</v>
       </c>
-      <c r="C35" s="105"/>
-      <c r="D35" s="107"/>
+      <c r="C35" s="93"/>
+      <c r="D35" s="95"/>
       <c r="E35" s="30">
         <v>4</v>
       </c>
@@ -5013,10 +5013,10 @@
         <f t="shared" si="2"/>
         <v>43977</v>
       </c>
-      <c r="C36" s="112">
+      <c r="C36" s="100">
         <v>5</v>
       </c>
-      <c r="D36" s="110" t="s">
+      <c r="D36" s="98" t="s">
         <v>50</v>
       </c>
       <c r="E36" s="31">
@@ -5056,8 +5056,8 @@
         <f t="shared" si="2"/>
         <v>43984</v>
       </c>
-      <c r="C37" s="113"/>
-      <c r="D37" s="111"/>
+      <c r="C37" s="101"/>
+      <c r="D37" s="99"/>
       <c r="E37" s="31">
         <v>1</v>
       </c>
@@ -5097,8 +5097,8 @@
         <f t="shared" si="2"/>
         <v>43991</v>
       </c>
-      <c r="C38" s="113"/>
-      <c r="D38" s="111"/>
+      <c r="C38" s="101"/>
+      <c r="D38" s="99"/>
       <c r="E38" s="31">
         <v>1</v>
       </c>
@@ -5136,8 +5136,8 @@
         <f t="shared" si="2"/>
         <v>43998</v>
       </c>
-      <c r="C39" s="113"/>
-      <c r="D39" s="111"/>
+      <c r="C39" s="101"/>
+      <c r="D39" s="99"/>
       <c r="E39" s="31">
         <v>1</v>
       </c>
@@ -5175,8 +5175,8 @@
         <f t="shared" si="2"/>
         <v>44005</v>
       </c>
-      <c r="C40" s="114"/>
-      <c r="D40" s="111"/>
+      <c r="C40" s="102"/>
+      <c r="D40" s="99"/>
       <c r="E40" s="31">
         <v>1</v>
       </c>
@@ -5205,24 +5205,24 @@
       <c r="X40" s="75"/>
     </row>
     <row r="41" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="96" t="s">
+      <c r="A41" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="B41" s="97"/>
-      <c r="C41" s="97"/>
-      <c r="D41" s="97"/>
-      <c r="E41" s="97"/>
-      <c r="F41" s="97"/>
-      <c r="G41" s="97"/>
-      <c r="H41" s="97"/>
-      <c r="I41" s="97"/>
-      <c r="J41" s="97"/>
-      <c r="K41" s="97"/>
-      <c r="L41" s="97"/>
-      <c r="M41" s="97"/>
-      <c r="N41" s="97"/>
-      <c r="O41" s="97"/>
-      <c r="P41" s="97"/>
+      <c r="B41" s="83"/>
+      <c r="C41" s="83"/>
+      <c r="D41" s="83"/>
+      <c r="E41" s="83"/>
+      <c r="F41" s="83"/>
+      <c r="G41" s="83"/>
+      <c r="H41" s="83"/>
+      <c r="I41" s="83"/>
+      <c r="J41" s="83"/>
+      <c r="K41" s="83"/>
+      <c r="L41" s="83"/>
+      <c r="M41" s="83"/>
+      <c r="N41" s="83"/>
+      <c r="O41" s="83"/>
+      <c r="P41" s="83"/>
       <c r="Q41" s="47"/>
       <c r="R41" s="51"/>
       <c r="V41" s="70"/>
@@ -5291,6 +5291,14 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="A9:P9"/>
+    <mergeCell ref="A17:P17"/>
+    <mergeCell ref="C2:C8"/>
+    <mergeCell ref="D2:D8"/>
+    <mergeCell ref="D10:D16"/>
+    <mergeCell ref="C10:C16"/>
     <mergeCell ref="A41:P41"/>
     <mergeCell ref="A32:P32"/>
     <mergeCell ref="A25:P25"/>
@@ -5304,14 +5312,6 @@
     <mergeCell ref="C33:C35"/>
     <mergeCell ref="D36:D40"/>
     <mergeCell ref="C36:C40"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="D18:D21"/>
-    <mergeCell ref="A9:P9"/>
-    <mergeCell ref="A17:P17"/>
-    <mergeCell ref="C2:C8"/>
-    <mergeCell ref="D2:D8"/>
-    <mergeCell ref="D10:D16"/>
-    <mergeCell ref="C10:C16"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/progression_2019_2020_IPT_MPSI.xlsx
+++ b/progression_2019_2020_IPT_MPSI.xlsx
@@ -944,7 +944,7 @@
     <t>AA.C4; AA.C5; AA.C6; AA.C7; AA.C9; AA.S6; AA.S7; AA.S10</t>
   </si>
   <si>
-    <t>python_bases/PYB-000;python_bases/PYB-100</t>
+    <t>python_bases/PYB-000;python_bases/PYB-002;python_bases/PYB-003;python_bases/PYB-004</t>
   </si>
 </sst>
 </file>
@@ -3347,7 +3347,7 @@
   <dimension ref="A1:X53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="26" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/progression_2019_2020_IPT_MPSI.xlsx
+++ b/progression_2019_2020_IPT_MPSI.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="299">
   <si>
     <t>Cours</t>
   </si>
@@ -945,6 +945,9 @@
   </si>
   <si>
     <t>python_bases/PYB-000;python_bases/PYB-002;python_bases/PYB-003;python_bases/PYB-004</t>
+  </si>
+  <si>
+    <t>architecture/ARCHI-001</t>
   </si>
 </sst>
 </file>
@@ -2016,7 +2019,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2372,6 +2375,9 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="654">
@@ -3347,7 +3353,7 @@
   <dimension ref="A1:X53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="26" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3360,7 +3366,8 @@
     <col min="8" max="8" width="37.33203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="5.5" style="1" customWidth="1"/>
     <col min="10" max="10" width="37.33203125" style="1" customWidth="1"/>
-    <col min="11" max="12" width="19.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20" style="1" customWidth="1"/>
+    <col min="12" max="12" width="19.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="32.6640625" style="1" customWidth="1"/>
     <col min="15" max="18" width="10.83203125" style="1" customWidth="1"/>
     <col min="19" max="19" width="41.33203125" style="1" customWidth="1"/>
@@ -3512,7 +3519,7 @@
       <c r="J3" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="124" t="s">
         <v>297</v>
       </c>
       <c r="M3" s="73" t="s">
@@ -3563,7 +3570,9 @@
         <v>34</v>
       </c>
       <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
+      <c r="L4" s="5" t="s">
+        <v>298</v>
+      </c>
       <c r="M4" s="73" t="s">
         <v>288</v>
       </c>

--- a/progression_2019_2020_IPT_MPSI.xlsx
+++ b/progression_2019_2020_IPT_MPSI.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-34380" yWindow="340" windowWidth="28580" windowHeight="16180"/>
+    <workbookView xWindow="-34380" yWindow="340" windowWidth="28580" windowHeight="16180" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Semanier MPSI IPT 2019-2020" sheetId="12" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="326">
   <si>
     <t>Cours</t>
   </si>
@@ -652,302 +652,385 @@
     <t>AN.S2</t>
   </si>
   <si>
+    <t>AN.S3</t>
+  </si>
+  <si>
+    <t>AN.S4</t>
+  </si>
+  <si>
+    <t>AA.C7</t>
+  </si>
+  <si>
+    <t>AA.C9</t>
+  </si>
+  <si>
+    <t>AA.C8</t>
+  </si>
+  <si>
+    <t>AA.C10</t>
+  </si>
+  <si>
+    <t>AA.C11</t>
+  </si>
+  <si>
+    <t>AA.C12</t>
+  </si>
+  <si>
+    <t>AA.S1</t>
+  </si>
+  <si>
+    <t>AA.S2</t>
+  </si>
+  <si>
+    <t>AA.S3</t>
+  </si>
+  <si>
+    <t>AA.S4</t>
+  </si>
+  <si>
+    <t>AA.S5</t>
+  </si>
+  <si>
+    <t>AA.S6</t>
+  </si>
+  <si>
+    <t>AA.S7</t>
+  </si>
+  <si>
+    <t>AA.S8</t>
+  </si>
+  <si>
+    <t>AA.S9</t>
+  </si>
+  <si>
+    <t>AA.S10</t>
+  </si>
+  <si>
+    <t>SN.C1</t>
+  </si>
+  <si>
+    <t>SN.C2</t>
+  </si>
+  <si>
+    <t>SN.C3</t>
+  </si>
+  <si>
+    <t>SN.C4</t>
+  </si>
+  <si>
+    <t>SN.C5</t>
+  </si>
+  <si>
+    <t>SN.S1</t>
+  </si>
+  <si>
+    <t>SN.S2</t>
+  </si>
+  <si>
+    <t>SN.S3</t>
+  </si>
+  <si>
+    <t>SN.S4</t>
+  </si>
+  <si>
+    <t>BDD.C1</t>
+  </si>
+  <si>
+    <t>BDD.C2</t>
+  </si>
+  <si>
+    <t>BDD.C3</t>
+  </si>
+  <si>
+    <t>BDD.C4</t>
+  </si>
+  <si>
+    <t>BDD.C5</t>
+  </si>
+  <si>
+    <t>BDD.S1</t>
+  </si>
+  <si>
+    <t>Opérateurs usuels sur les ensembles dans un contexte de bases de données : union, intersection, différence.</t>
+  </si>
+  <si>
+    <t>Opérateurs spécifiques de l'algèbre relationnelle : projection, sélection (ou restriction), renommage, jointure, produit et division cartésiennes ; fonctions d'agrégation : min, max, somme, moyenne, comptage.</t>
+  </si>
+  <si>
+    <t>BDD.S2</t>
+  </si>
+  <si>
+    <t>BDD.S3</t>
+  </si>
+  <si>
+    <t>BDD.S4</t>
+  </si>
+  <si>
+    <t>AL.C1</t>
+  </si>
+  <si>
+    <t>AL.C2</t>
+  </si>
+  <si>
+    <t>AL.C3</t>
+  </si>
+  <si>
+    <t>AA.C13</t>
+  </si>
+  <si>
+    <t>AA.C14</t>
+  </si>
+  <si>
+    <t>AA.S11</t>
+  </si>
+  <si>
+    <t>AA.S12</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Nom long</t>
+  </si>
+  <si>
+    <t>Nom court</t>
+  </si>
+  <si>
+    <t>Manipuler un OS ou un IDE</t>
+  </si>
+  <si>
+    <t>Se familiariser aux principaux composants d'une machine numérique</t>
+  </si>
+  <si>
+    <t>Se familiariser à la manipulation d'un OS</t>
+  </si>
+  <si>
+    <t>Se familiariser à la manipulation d'un IDE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recherche par dichotomie. </t>
+  </si>
+  <si>
+    <t>Expressions et instructions simples</t>
+  </si>
+  <si>
+    <t>Instructions conditionnelles</t>
+  </si>
+  <si>
+    <t>Instructions itératives</t>
+  </si>
+  <si>
+    <t>Notion de fonction informatique</t>
+  </si>
+  <si>
+    <t>Manipulation de quelques structures de données.</t>
+  </si>
+  <si>
+    <t>Réaliser un programme complet structuré</t>
+  </si>
+  <si>
+    <t>Utiliser les bibliothèques de calcul standard</t>
+  </si>
+  <si>
+    <t>Utiliser les bibliothèques standard pour afficher les résultats sous forme graphique</t>
+  </si>
+  <si>
+    <t>Bibliothèques logicielles</t>
+  </si>
+  <si>
+    <t>Problème stationnaire à une dimension. Méthode de dichotomie, méthode de Newton.</t>
+  </si>
+  <si>
+    <t>Problème discret multidimensionnel linéaire. Méthode de Gauss avec recherche partielle du pivot.</t>
+  </si>
+  <si>
+    <t>Problèmes</t>
+  </si>
+  <si>
+    <t>Architecture matérielle et initiation à l'algorithmique</t>
+  </si>
+  <si>
+    <t>BDD.S1; BDD.S2</t>
+  </si>
+  <si>
+    <t>BDD.C4; BDD.C5; BDD.S2; BDD.S3</t>
+  </si>
+  <si>
+    <t>BDD.C1; BDD.C2; BDD.C5; BDD.S2; BDD.S3</t>
+  </si>
+  <si>
+    <t>BDD.C3; BDD.S4</t>
+  </si>
+  <si>
+    <t>SN.C1; SN.C2; SN.C3; SN.C4; SN.C5; SN.S1; SN.S3</t>
+  </si>
+  <si>
+    <t>SN.C1; SN.C2; SN.C3; SN.C4; SN.C5; SN.S1; SN.S2</t>
+  </si>
+  <si>
+    <t>SN.C1; SN.C2; SN.C3; SN.C4; SN.C5; SN.S1; SN.S4</t>
+  </si>
+  <si>
+    <t>AA.C1; AA.S1; AA.S3; AA.S3</t>
+  </si>
+  <si>
+    <t>AA.C2: AA.C3; AA.S4; AA.S5</t>
+  </si>
+  <si>
+    <t>SN.C1; SN.C2; SN.C3; SN.C4; SN.C5; SN.S1; AN.S3</t>
+  </si>
+  <si>
+    <t>AN.C1; AN.C2; AN.S1; AN.S2; AN.S4</t>
+  </si>
+  <si>
+    <t>AN.C3; AN.S1; AN.S2; AN.S4</t>
+  </si>
+  <si>
+    <t>AA.C4; AA.C5; AA.C6; AA.C7; AA.C8; AA.S8; AA.S9</t>
+  </si>
+  <si>
+    <t>AA.C9; AA.S12</t>
+  </si>
+  <si>
+    <t>AA.C9; AA.S11</t>
+  </si>
+  <si>
+    <t>AA.C4; AA.C5; AA.C6; AA.C7; AA.C8; AA.C9; AA.S6; AA.S7; AA.S10</t>
+  </si>
+  <si>
+    <t>Compétences cours</t>
+  </si>
+  <si>
+    <t>Compétences TP</t>
+  </si>
+  <si>
+    <t>AA.C1; AA.S1; AA.S2; AA.S3</t>
+  </si>
+  <si>
+    <t>Image entête</t>
+  </si>
+  <si>
+    <t>architecture/ARCHI-000</t>
+  </si>
+  <si>
+    <t>fin</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>AA.C4; AA.C5; AA.C6; AA.C7; AA.C9; AA.S6; AA.S7; AA.S10</t>
+  </si>
+  <si>
+    <t>python_bases/PYB-000;python_bases/PYB-002;python_bases/PYB-003;python_bases/PYB-004</t>
+  </si>
+  <si>
+    <t>architecture/ARCHI-001</t>
+  </si>
+  <si>
+    <t>Manipuler en mode « utilisateur » les principales fonctions d'un système d'exploitation et d'un environnement de développement</t>
+  </si>
+  <si>
+    <t>Se familiariser aux principaux composants d'une machine numérique telle que l'ordinateur personnel, une tablette, etc : sources d'énergie, mémoire vive, mémoire de masse, unité centrale, périphériques d'entrée-sortie, ports de communication avec d'autres composants numériques</t>
+  </si>
+  <si>
+    <t>Se familiariser à la manipulation d'un système d'exploitation (gestion des ressources, essentiellement : organisation des fichiers, arborescence, droits d'accès, de modification, entrées/sorties)</t>
+  </si>
+  <si>
+    <t>Se familiariser à la manipulation d'un environnement de développement</t>
+  </si>
+  <si>
+    <t>Comprendre un algorithme et expliquer ce qu'il fait</t>
+  </si>
+  <si>
+    <t>Expliquer le fonctionnement d'un algorithme</t>
+  </si>
+  <si>
+    <t>Justifier qu'une itération (ou boucle) produit l'effet attendu au moyen d'un invariant</t>
+  </si>
+  <si>
+    <t>Démontrer qu'une boucle se termine effectivement</t>
+  </si>
+  <si>
+    <t>S'interroger sur l'efficacité algorithmique temporelle d'un algorithme</t>
+  </si>
+  <si>
     <t xml:space="preserve">Recherche par dichotomie dans un tableau trié. 
-Recherche par dichotomie du zéro d’une fonction continue et monotone. </t>
-  </si>
-  <si>
-    <t>AN.S3</t>
-  </si>
-  <si>
-    <t>AN.S4</t>
-  </si>
-  <si>
-    <t>Recherche d’un mot dans une chaîne de caractères. On se limite ici à l’algorithme « naïf », en estimant sa complexité.</t>
-  </si>
-  <si>
-    <t>AA.C7</t>
-  </si>
-  <si>
-    <t>AA.C9</t>
-  </si>
-  <si>
-    <t>AA.C8</t>
-  </si>
-  <si>
-    <t>AA.C10</t>
-  </si>
-  <si>
-    <t>AA.C11</t>
-  </si>
-  <si>
-    <t>AA.C12</t>
-  </si>
-  <si>
-    <t>AA.S1</t>
-  </si>
-  <si>
-    <t>AA.S2</t>
-  </si>
-  <si>
-    <t>AA.S3</t>
-  </si>
-  <si>
-    <t>AA.S4</t>
-  </si>
-  <si>
-    <t>AA.S5</t>
-  </si>
-  <si>
-    <t>AA.S6</t>
-  </si>
-  <si>
-    <t>Manipulation de quelques structures de données : chaînes de caractères (création, accès à un caractère, concaténation), listes (création, ajout d’un élément, suppression d’un élément, accès à un élément, extraction d’une partie de liste), tableaux à une ou plusieurs dimensions.</t>
-  </si>
-  <si>
-    <t>AA.S7</t>
-  </si>
-  <si>
-    <t>AA.S8</t>
-  </si>
-  <si>
-    <t>AA.S9</t>
-  </si>
-  <si>
-    <t>AA.S10</t>
-  </si>
-  <si>
-    <t>SN.C1</t>
-  </si>
-  <si>
-    <t>SN.C2</t>
-  </si>
-  <si>
-    <t>SN.C3</t>
-  </si>
-  <si>
-    <t>SN.C4</t>
-  </si>
-  <si>
-    <t>SN.C5</t>
-  </si>
-  <si>
-    <t>SN.S1</t>
-  </si>
-  <si>
-    <t>SN.S2</t>
-  </si>
-  <si>
-    <t>SN.S3</t>
-  </si>
-  <si>
-    <t>SN.S4</t>
-  </si>
-  <si>
-    <t>BDD.C1</t>
-  </si>
-  <si>
-    <t>BDD.C2</t>
-  </si>
-  <si>
-    <t>BDD.C3</t>
-  </si>
-  <si>
-    <t>BDD.C4</t>
-  </si>
-  <si>
-    <t>BDD.C5</t>
-  </si>
-  <si>
-    <t>BDD.S1</t>
-  </si>
-  <si>
-    <t>Opérateurs usuels sur les ensembles dans un contexte de bases de données : union, intersection, différence.</t>
-  </si>
-  <si>
-    <t>Opérateurs spécifiques de l'algèbre relationnelle : projection, sélection (ou restriction), renommage, jointure, produit et division cartésiennes ; fonctions d'agrégation : min, max, somme, moyenne, comptage.</t>
-  </si>
-  <si>
-    <t>BDD.S2</t>
-  </si>
-  <si>
-    <t>BDD.S3</t>
-  </si>
-  <si>
-    <t>BDD.S4</t>
-  </si>
-  <si>
-    <t>AL.C1</t>
-  </si>
-  <si>
-    <t>AL.C2</t>
-  </si>
-  <si>
-    <t>AL.C3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tris d’un tableau à une dimension de valeurs numériques. </t>
-  </si>
-  <si>
-    <t>AA.C13</t>
-  </si>
-  <si>
-    <t>AA.C14</t>
-  </si>
-  <si>
-    <t>AA.S11</t>
-  </si>
-  <si>
-    <t>AA.S12</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Nom long</t>
-  </si>
-  <si>
-    <t>Nom court</t>
-  </si>
-  <si>
-    <t>Manipuler un OS ou un IDE</t>
-  </si>
-  <si>
-    <t>Se familiariser aux principaux composants d'une machine numérique</t>
-  </si>
-  <si>
-    <t>Se familiariser à la manipulation d'un OS</t>
-  </si>
-  <si>
-    <t>Se familiariser à la manipulation d'un IDE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recherche par dichotomie. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recherche d’un mot dans une chaîne de caractères. </t>
-  </si>
-  <si>
-    <t>Rechercher une information au sein d’une documentation</t>
-  </si>
-  <si>
-    <t>Expressions et instructions simples</t>
-  </si>
-  <si>
-    <t>Instructions conditionnelles</t>
-  </si>
-  <si>
-    <t>Instructions itératives</t>
-  </si>
-  <si>
-    <t>Notion de fonction informatique</t>
-  </si>
-  <si>
-    <t>Manipulation de quelques structures de données.</t>
-  </si>
-  <si>
-    <t>Réaliser un programme complet structuré</t>
-  </si>
-  <si>
-    <t>Utiliser les bibliothèques de calcul standard</t>
-  </si>
-  <si>
-    <t>Utiliser les bibliothèques standard pour afficher les résultats sous forme graphique</t>
-  </si>
-  <si>
-    <t>Bibliothèques logicielles</t>
-  </si>
-  <si>
-    <t>Problème stationnaire à une dimension. Méthode de dichotomie, méthode de Newton.</t>
-  </si>
-  <si>
-    <t>Problème dynamique à une dimension,  linéaire ou non. Méthode d’Euler.</t>
-  </si>
-  <si>
-    <t>Problème discret multidimensionnel linéaire. Méthode de Gauss avec recherche partielle du pivot.</t>
-  </si>
-  <si>
-    <t>Problèmes</t>
-  </si>
-  <si>
-    <t>Architecture matérielle et initiation à l'algorithmique</t>
-  </si>
-  <si>
-    <t>BDD.S1; BDD.S2</t>
-  </si>
-  <si>
-    <t>BDD.C4; BDD.C5; BDD.S2; BDD.S3</t>
-  </si>
-  <si>
-    <t>BDD.C1; BDD.C2; BDD.C5; BDD.S2; BDD.S3</t>
-  </si>
-  <si>
-    <t>BDD.C3; BDD.S4</t>
-  </si>
-  <si>
-    <t>SN.C1; SN.C2; SN.C3; SN.C4; SN.C5; SN.S1; SN.S3</t>
-  </si>
-  <si>
-    <t>SN.C1; SN.C2; SN.C3; SN.C4; SN.C5; SN.S1; SN.S2</t>
-  </si>
-  <si>
-    <t>SN.C1; SN.C2; SN.C3; SN.C4; SN.C5; SN.S1; SN.S4</t>
-  </si>
-  <si>
-    <t>AA.C1; AA.S1; AA.S3; AA.S3</t>
-  </si>
-  <si>
-    <t>AA.C2: AA.C3; AA.S4; AA.S5</t>
-  </si>
-  <si>
-    <t>SN.C1; SN.C2; SN.C3; SN.C4; SN.C5; SN.S1; AN.S3</t>
-  </si>
-  <si>
-    <t>AN.C1; AN.C2; AN.S1; AN.S2; AN.S4</t>
-  </si>
-  <si>
-    <t>AN.C3; AN.S1; AN.S2; AN.S4</t>
-  </si>
-  <si>
-    <t>AA.C4; AA.C5; AA.C6; AA.C7; AA.C8; AA.S8; AA.S9</t>
-  </si>
-  <si>
-    <t>AA.C9; AA.S12</t>
-  </si>
-  <si>
-    <t>AA.C9; AA.S11</t>
-  </si>
-  <si>
-    <t>AA.C4; AA.C5; AA.C6; AA.C7; AA.C8; AA.C9; AA.S6; AA.S7; AA.S10</t>
-  </si>
-  <si>
-    <t>Compétences cours</t>
-  </si>
-  <si>
-    <t>Compétences TP</t>
-  </si>
-  <si>
-    <t>AA.C1; AA.S1; AA.S2; AA.S3</t>
-  </si>
-  <si>
-    <t>Image entête</t>
-  </si>
-  <si>
-    <t>architecture/ARCHI-000</t>
-  </si>
-  <si>
-    <t>fin</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>AA.C4; AA.C5; AA.C6; AA.C7; AA.C9; AA.S6; AA.S7; AA.S10</t>
-  </si>
-  <si>
-    <t>python_bases/PYB-000;python_bases/PYB-002;python_bases/PYB-003;python_bases/PYB-004</t>
-  </si>
-  <si>
-    <t>architecture/ARCHI-001</t>
+Recherche par dichotomie du zéro d'une fonction continue et monotone. </t>
+  </si>
+  <si>
+    <t>Méthodes des rectangles et des trapèzes pour le calcul approché d'une intégrale sur un segment.</t>
+  </si>
+  <si>
+    <t>Recherche d'un mot dans une chaîne de caractères. On se limite ici à l'algorithme « naïf », en estimant sa complexité.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recherche d'un mot dans une chaîne de caractères. </t>
+  </si>
+  <si>
+    <t>Choisir un type de données en fonction d'un problème à résoudre</t>
+  </si>
+  <si>
+    <t>Concevoir l'en-tête (ou la spécification) d'une fonction, puis la fonction elle-même</t>
+  </si>
+  <si>
+    <t>Gérer efficacement un ensemble de fichiers correspondant à des versions successives d'un fichier source</t>
+  </si>
+  <si>
+    <t>Rechercher une information au sein d'une documentation en ligne, analyser des exemples fournis dans cette documentation</t>
+  </si>
+  <si>
+    <t>Rechercher une information au sein d'une documentation</t>
+  </si>
+  <si>
+    <t>Variables : notion de type et de valeur d'une variable, types simples.</t>
+  </si>
+  <si>
+    <t>Manipulation de quelques structures de données : chaînes de caractères (création, accès à un caractère, concaténation), listes (création, ajout d'un élément, suppression d'un élément, accès à un élément, extraction d'une partie de liste), tableaux à une ou plusieurs dimensions.</t>
+  </si>
+  <si>
+    <t>Fichiers : notion de chemin d'accès, lecture et écriture de données numériques ou de type chaîne de caractères depuis ou vers un fichier.</t>
+  </si>
+  <si>
+    <t>Étudier l'effet d'une variation des paramètres sur le temps de calcul, sur la précision des résultats, sur la forme des solutions pour des programmes d'ingénierie numérique choisis, tout en contextualisant l'observation du temps de calcul par rapport à la complexité algorithmique de ces programmes</t>
+  </si>
+  <si>
+    <t>Utiliser les bibliothèques de calcul standard pour résoudre un problème scientifique mis en équation lors des enseignements de chimie, physique, mathématiques, sciences industrielles et de l'ingénieur</t>
+  </si>
+  <si>
+    <t>Tenir compte des aspects pratiques comme l'impact des erreurs d'arrondi sur les résultats, le temps de calcul ou le stockage en mémoire.</t>
+  </si>
+  <si>
+    <t>Bibliothèques logicielles : utilisation de quelques fonctions d'une bibliothèque et de leur documentation en ligne.</t>
+  </si>
+  <si>
+    <t>Problème stationnaire à une dimension, linéaire ou non conduisant à la résolution approchée d'une équation algébrique ou transcendante. Méthode de dichotomie, méthode de Newton.</t>
+  </si>
+  <si>
+    <t>Problème dynamique à une dimension,  linéaire ou non, conduisant à la résolution approchée d'une équation différentielle ordinaire par la méthode d'Euler.</t>
+  </si>
+  <si>
+    <t>Problème dynamique à une dimension,  linéaire ou non. Méthode d'Euler.</t>
+  </si>
+  <si>
+    <t>Problème discret multidimensionnel, linéaire, conduisant à la résolution d'un système linéaire inversible (ou de Cramer) par la méthode de Gauss avec recherche partielle du pivot.</t>
+  </si>
+  <si>
+    <t>Utiliser une application offrant une interface graphique pour créer une base de données et l'alimenter</t>
+  </si>
+  <si>
+    <t>Traduire dans le langage de l'algèbre relationnelle des requêtes écrites en langage courant</t>
+  </si>
+  <si>
+    <t>Concept de client-serveur. Brève extension au cas de l'architecture trois-tiers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tris d'un tableau à une dimension de valeurs numériques. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tri par insertion, tri rapide (ou « quicksort »), tri par fusion.
+Application à la recherche de la médiane d'une liste de nombres. 
+On étudie et on compare ces algorithmes de tri du point de vue des complexités temporelles dans le meilleur et dans le pire cas. </t>
   </si>
 </sst>
 </file>
@@ -3352,7 +3435,7 @@
   </sheetPr>
   <dimension ref="A1:X53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
@@ -3416,10 +3499,10 @@
         <v>58</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="O1" s="4" t="s">
         <v>13</v>
@@ -3428,7 +3511,7 @@
         <v>22</v>
       </c>
       <c r="Q1" s="41" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="R1" s="4" t="s">
         <v>64</v>
@@ -3448,7 +3531,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="112" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="E2" s="26">
         <v>1</v>
@@ -3470,13 +3553,13 @@
       </c>
       <c r="K2" s="5"/>
       <c r="L2" s="5" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="M2" s="73" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="N2" s="73" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="O2" s="3"/>
       <c r="P2" s="42"/>
@@ -3520,13 +3603,13 @@
         <v>27</v>
       </c>
       <c r="K3" s="124" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="M3" s="73" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="N3" s="73" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="O3" s="3"/>
       <c r="P3" s="42"/>
@@ -3571,13 +3654,13 @@
       </c>
       <c r="K4" s="5"/>
       <c r="L4" s="5" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="M4" s="73" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="N4" s="73" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="O4" s="3"/>
       <c r="P4" s="42"/>
@@ -3623,10 +3706,10 @@
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
       <c r="M5" s="73" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="N5" s="73" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="O5" s="3"/>
       <c r="P5" s="42"/>
@@ -3673,7 +3756,7 @@
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
       <c r="N6" s="73" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="O6" s="3"/>
       <c r="P6" s="42"/>
@@ -3720,7 +3803,7 @@
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
       <c r="N7" s="73" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="O7" s="4"/>
       <c r="P7" s="36"/>
@@ -3764,10 +3847,10 @@
         <v>28</v>
       </c>
       <c r="M8" s="78" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="N8" s="73" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="O8" s="4"/>
       <c r="P8" s="36" t="s">
@@ -3822,7 +3905,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="112" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="E10" s="26">
         <v>5</v>
@@ -3845,10 +3928,10 @@
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
       <c r="M10" s="78" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="N10" s="73" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="O10" s="3"/>
       <c r="P10" s="42"/>
@@ -3894,7 +3977,7 @@
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
       <c r="M11" s="78" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="N11" s="5"/>
       <c r="O11" s="3"/>
@@ -3941,7 +4024,7 @@
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
       <c r="M12" s="78" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="N12" s="5"/>
       <c r="O12" s="3"/>
@@ -3987,10 +4070,10 @@
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
       <c r="M13" s="78" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="N13" s="78" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="O13" s="3"/>
       <c r="P13" s="42"/>
@@ -4036,10 +4119,10 @@
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
       <c r="M14" s="78" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="N14" s="78" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="O14" s="3"/>
       <c r="P14" s="42"/>
@@ -4084,10 +4167,10 @@
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
       <c r="M15" s="73" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="N15" s="78" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="O15" s="4" t="s">
         <v>53</v>
@@ -4135,10 +4218,10 @@
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
       <c r="M16" s="73" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="N16" s="78" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="O16" s="3"/>
       <c r="P16" s="36"/>
@@ -4214,10 +4297,10 @@
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
       <c r="M18" s="73" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="N18" s="73" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="O18" s="27"/>
       <c r="P18" s="43"/>
@@ -4263,10 +4346,10 @@
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
       <c r="M19" s="73" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="N19" s="73" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="O19" s="27"/>
       <c r="P19" s="43"/>
@@ -4312,10 +4395,10 @@
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
       <c r="M20" s="73" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="N20" s="73" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="O20" s="3"/>
       <c r="P20" s="42"/>
@@ -4361,10 +4444,10 @@
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
       <c r="M21" s="73" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="N21" s="73" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="O21" s="3"/>
       <c r="P21" s="42"/>
@@ -4414,10 +4497,10 @@
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
       <c r="M22" s="73" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="N22" s="73" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="O22" s="3"/>
       <c r="P22" s="42"/>
@@ -4463,10 +4546,10 @@
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
       <c r="M23" s="73" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="N23" s="73" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="O23" s="4" t="s">
         <v>16</v>
@@ -4511,10 +4594,10 @@
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
       <c r="M24" s="73" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="N24" s="73" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="O24" s="27"/>
       <c r="P24" s="42"/>
@@ -4585,10 +4668,10 @@
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
       <c r="M26" s="73" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="N26" s="73" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="O26" s="27"/>
       <c r="P26" s="42"/>
@@ -4634,10 +4717,10 @@
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
       <c r="M27" s="77" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="N27" s="73" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="P27" s="36"/>
       <c r="Q27" s="4"/>
@@ -4680,10 +4763,10 @@
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
       <c r="M28" s="73" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="N28" s="73" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="O28" s="4"/>
       <c r="P28" s="36"/>
@@ -4729,10 +4812,10 @@
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
       <c r="M29" s="73" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="N29" s="73" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="O29" s="3"/>
       <c r="P29" s="42"/>
@@ -4780,10 +4863,10 @@
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
       <c r="M30" s="73" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="N30" s="73" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="O30" s="4" t="s">
         <v>54</v>
@@ -4831,10 +4914,10 @@
       <c r="K31" s="39"/>
       <c r="L31" s="39"/>
       <c r="M31" s="73" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="N31" s="73" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="O31" s="27"/>
       <c r="P31" s="43"/>
@@ -4910,10 +4993,10 @@
       <c r="K33" s="38"/>
       <c r="L33" s="38"/>
       <c r="M33" s="73" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="N33" s="73" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="O33" s="6"/>
       <c r="P33" s="44"/>
@@ -4954,10 +5037,10 @@
       <c r="K34" s="39"/>
       <c r="L34" s="39"/>
       <c r="M34" s="76" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="N34" s="76" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="O34" s="4"/>
       <c r="P34" s="44"/>
@@ -5000,10 +5083,10 @@
       <c r="K35" s="39"/>
       <c r="L35" s="39"/>
       <c r="M35" s="77" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="N35" s="77" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="P35" s="36"/>
       <c r="Q35" s="78" t="s">
@@ -5357,7 +5440,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="38" customHeight="1" x14ac:dyDescent="0.15">
@@ -5389,7 +5472,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -5403,8 +5486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C67"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -5417,13 +5500,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="70" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B1" s="71" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C1" s="71" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -5431,43 +5514,43 @@
         <v>189</v>
       </c>
       <c r="B2" s="71" t="s">
-        <v>81</v>
+        <v>292</v>
       </c>
       <c r="C2" s="71" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="24" x14ac:dyDescent="0.15">
       <c r="A3" s="70" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B3" s="71" t="s">
-        <v>82</v>
+        <v>293</v>
       </c>
       <c r="C3" s="71" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" x14ac:dyDescent="0.15">
       <c r="A4" s="70" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B4" s="71" t="s">
-        <v>83</v>
+        <v>294</v>
       </c>
       <c r="C4" s="71" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="70" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B5" s="71" t="s">
-        <v>84</v>
+        <v>295</v>
       </c>
       <c r="C5" s="71" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
@@ -5494,7 +5577,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="70" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B9" s="71" t="s">
         <v>90</v>
@@ -5505,7 +5588,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="70" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B10" s="71" t="s">
         <v>92</v>
@@ -5516,12 +5599,12 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="70" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="70" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
@@ -5529,10 +5612,10 @@
         <v>192</v>
       </c>
       <c r="B13" s="71" t="s">
-        <v>96</v>
+        <v>296</v>
       </c>
       <c r="C13" s="71" t="s">
-        <v>96</v>
+        <v>296</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
@@ -5559,18 +5642,18 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="70" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B16" s="71" t="s">
-        <v>102</v>
+        <v>297</v>
       </c>
       <c r="C16" s="71" t="s">
-        <v>102</v>
+        <v>297</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="70" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B17" s="71" t="s">
         <v>104</v>
@@ -5584,10 +5667,10 @@
         <v>195</v>
       </c>
       <c r="B18" s="71" t="s">
-        <v>106</v>
+        <v>298</v>
       </c>
       <c r="C18" s="71" t="s">
-        <v>106</v>
+        <v>298</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
@@ -5595,10 +5678,10 @@
         <v>196</v>
       </c>
       <c r="B19" s="71" t="s">
-        <v>108</v>
+        <v>299</v>
       </c>
       <c r="C19" s="71" t="s">
-        <v>108</v>
+        <v>299</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
@@ -5606,10 +5689,10 @@
         <v>197</v>
       </c>
       <c r="B20" s="71" t="s">
-        <v>110</v>
+        <v>300</v>
       </c>
       <c r="C20" s="71" t="s">
-        <v>110</v>
+        <v>300</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
@@ -5628,69 +5711,69 @@
         <v>199</v>
       </c>
       <c r="B22" s="71" t="s">
-        <v>200</v>
+        <v>301</v>
       </c>
       <c r="C22" s="71" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="70" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B23" s="71" t="s">
-        <v>113</v>
+        <v>302</v>
       </c>
       <c r="C23" s="71" t="s">
-        <v>113</v>
+        <v>302</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" s="70" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B24" s="71" t="s">
-        <v>203</v>
+        <v>303</v>
       </c>
       <c r="C24" s="71" t="s">
-        <v>257</v>
+        <v>304</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" s="70" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" s="70" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" s="79" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B27" s="80" t="s">
-        <v>117</v>
+        <v>305</v>
       </c>
       <c r="C27" s="80" t="s">
-        <v>117</v>
+        <v>305</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" s="79" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B28" s="80" t="s">
-        <v>119</v>
+        <v>306</v>
       </c>
       <c r="C28" s="80" t="s">
-        <v>119</v>
+        <v>306</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" s="79" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B29" s="80" t="s">
         <v>121</v>
@@ -5701,29 +5784,29 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" s="79" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B30" s="80" t="s">
-        <v>123</v>
+        <v>307</v>
       </c>
       <c r="C30" s="80" t="s">
-        <v>123</v>
+        <v>307</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" s="79" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B31" s="80" t="s">
-        <v>125</v>
+        <v>308</v>
       </c>
       <c r="C31" s="80" t="s">
-        <v>258</v>
+        <v>309</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" s="79" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B32" s="80" t="s">
         <v>127</v>
@@ -5734,76 +5817,76 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" s="70" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B33" s="71" t="s">
-        <v>128</v>
+        <v>310</v>
       </c>
       <c r="C33" s="71" t="s">
-        <v>128</v>
+        <v>310</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" s="70" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B34" s="71" t="s">
         <v>130</v>
       </c>
       <c r="C34" s="71" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" s="70" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B35" s="71" t="s">
         <v>132</v>
       </c>
       <c r="C35" s="71" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" s="70" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B36" s="71" t="s">
         <v>134</v>
       </c>
       <c r="C36" s="71" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" s="70" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B37" s="71" t="s">
         <v>136</v>
       </c>
       <c r="C37" s="71" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="24" x14ac:dyDescent="0.15">
       <c r="A38" s="70" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B38" s="71" t="s">
-        <v>216</v>
+        <v>311</v>
       </c>
       <c r="C38" s="71" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" s="70" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B39" s="71" t="s">
-        <v>140</v>
+        <v>312</v>
       </c>
       <c r="C39" s="71" t="s">
         <v>32</v>
@@ -5811,137 +5894,137 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" s="70" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" s="70" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="24" x14ac:dyDescent="0.15">
       <c r="A42" s="70" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B42" s="71" t="s">
         <v>144</v>
       </c>
       <c r="C42" s="71" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="24" x14ac:dyDescent="0.15">
       <c r="A43" s="70" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B43" s="71" t="s">
-        <v>146</v>
+        <v>313</v>
       </c>
       <c r="C43" s="71" t="s">
-        <v>146</v>
+        <v>313</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="24" x14ac:dyDescent="0.15">
       <c r="A44" s="70" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B44" s="71" t="s">
-        <v>148</v>
+        <v>314</v>
       </c>
       <c r="C44" s="71" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" s="70" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B45" s="71" t="s">
         <v>150</v>
       </c>
       <c r="C45" s="71" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46" s="70" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B46" s="71" t="s">
-        <v>152</v>
+        <v>315</v>
       </c>
       <c r="C46" s="71" t="s">
-        <v>152</v>
+        <v>315</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47" s="70" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B47" s="71" t="s">
-        <v>153</v>
+        <v>316</v>
       </c>
       <c r="C47" s="71" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="24" x14ac:dyDescent="0.15">
       <c r="A48" s="70" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B48" s="71" t="s">
-        <v>155</v>
+        <v>317</v>
       </c>
       <c r="C48" s="71" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A49" s="70" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B49" s="71" t="s">
-        <v>157</v>
+        <v>318</v>
       </c>
       <c r="C49" s="71" t="s">
-        <v>269</v>
+        <v>319</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="24" x14ac:dyDescent="0.15">
       <c r="A50" s="70" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B50" s="71" t="s">
-        <v>159</v>
+        <v>320</v>
       </c>
       <c r="C50" s="71" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A51" s="70" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A52" s="70" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A53" s="70" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B53" s="71" t="s">
-        <v>163</v>
+        <v>321</v>
       </c>
       <c r="C53" s="71" t="s">
-        <v>163</v>
+        <v>321</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A54" s="70" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B54" s="71" t="s">
         <v>165</v>
@@ -5952,7 +6035,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A55" s="70" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B55" s="71" t="s">
         <v>167</v>
@@ -5963,18 +6046,18 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A56" s="70" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B56" s="71" t="s">
-        <v>169</v>
+        <v>322</v>
       </c>
       <c r="C56" s="71" t="s">
-        <v>169</v>
+        <v>322</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A57" s="70" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B57" s="71" t="s">
         <v>171</v>
@@ -5985,7 +6068,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A58" s="70" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B58" s="71" t="s">
         <v>172</v>
@@ -5996,45 +6079,45 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A59" s="70" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B59" s="71" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C59" s="71" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="24" x14ac:dyDescent="0.15">
       <c r="A60" s="70" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B60" s="71" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C60" s="71" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A61" s="70" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B61" s="71" t="s">
-        <v>176</v>
+        <v>323</v>
       </c>
       <c r="C61" s="71" t="s">
-        <v>176</v>
+        <v>323</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A62" s="70" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A63" s="70" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B63" s="71" t="s">
         <v>180</v>
@@ -6045,7 +6128,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A64" s="70" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B64" s="71" t="s">
         <v>182</v>
@@ -6056,29 +6139,29 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A65" s="70" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B65" s="71" t="s">
-        <v>244</v>
+        <v>324</v>
       </c>
       <c r="C65" s="71" t="s">
-        <v>244</v>
+        <v>324</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="36" x14ac:dyDescent="0.15">
       <c r="A66" s="70" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="B66" s="71" t="s">
-        <v>185</v>
+        <v>325</v>
       </c>
       <c r="C66" s="71" t="s">
-        <v>185</v>
+        <v>325</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A67" s="70" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
     </row>
   </sheetData>

--- a/progression_2019_2020_IPT_MPSI.xlsx
+++ b/progression_2019_2020_IPT_MPSI.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-34380" yWindow="340" windowWidth="28580" windowHeight="16180" activeTab="2"/>
+    <workbookView xWindow="-34180" yWindow="2100" windowWidth="28580" windowHeight="16180"/>
   </bookViews>
   <sheets>
     <sheet name="Semanier MPSI IPT 2019-2020" sheetId="12" r:id="rId1"/>
@@ -925,9 +925,6 @@
     <t>python_bases/PYB-000;python_bases/PYB-002;python_bases/PYB-003;python_bases/PYB-004</t>
   </si>
   <si>
-    <t>architecture/ARCHI-001</t>
-  </si>
-  <si>
     <t>Manipuler en mode « utilisateur » les principales fonctions d'un système d'exploitation et d'un environnement de développement</t>
   </si>
   <si>
@@ -1031,6 +1028,9 @@
     <t xml:space="preserve">Tri par insertion, tri rapide (ou « quicksort »), tri par fusion.
 Application à la recherche de la médiane d'une liste de nombres. 
 On étudie et on compare ces algorithmes de tri du point de vue des complexités temporelles dans le meilleur et dans le pire cas. </t>
+  </si>
+  <si>
+    <t>architecture/ARCHI-002;python_bases/PYB-002;python_bases/PYB-003;python_bases/PYB-004</t>
   </si>
 </sst>
 </file>
@@ -3435,8 +3435,8 @@
   </sheetPr>
   <dimension ref="A1:X53"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="26" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3654,7 +3654,7 @@
       </c>
       <c r="K4" s="5"/>
       <c r="L4" s="5" t="s">
-        <v>291</v>
+        <v>325</v>
       </c>
       <c r="M4" s="73" t="s">
         <v>281</v>
@@ -5486,7 +5486,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
@@ -5514,7 +5514,7 @@
         <v>189</v>
       </c>
       <c r="B2" s="71" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C2" s="71" t="s">
         <v>248</v>
@@ -5525,7 +5525,7 @@
         <v>208</v>
       </c>
       <c r="B3" s="71" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C3" s="71" t="s">
         <v>249</v>
@@ -5536,7 +5536,7 @@
         <v>209</v>
       </c>
       <c r="B4" s="71" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C4" s="71" t="s">
         <v>250</v>
@@ -5547,7 +5547,7 @@
         <v>210</v>
       </c>
       <c r="B5" s="71" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C5" s="71" t="s">
         <v>251</v>
@@ -5612,10 +5612,10 @@
         <v>192</v>
       </c>
       <c r="B13" s="71" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C13" s="71" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
@@ -5645,10 +5645,10 @@
         <v>202</v>
       </c>
       <c r="B16" s="71" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C16" s="71" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
@@ -5667,10 +5667,10 @@
         <v>195</v>
       </c>
       <c r="B18" s="71" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C18" s="71" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
@@ -5678,10 +5678,10 @@
         <v>196</v>
       </c>
       <c r="B19" s="71" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C19" s="71" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
@@ -5689,10 +5689,10 @@
         <v>197</v>
       </c>
       <c r="B20" s="71" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C20" s="71" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
@@ -5711,7 +5711,7 @@
         <v>199</v>
       </c>
       <c r="B22" s="71" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C22" s="71" t="s">
         <v>252</v>
@@ -5722,10 +5722,10 @@
         <v>200</v>
       </c>
       <c r="B23" s="71" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C23" s="71" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
@@ -5733,10 +5733,10 @@
         <v>201</v>
       </c>
       <c r="B24" s="71" t="s">
+        <v>302</v>
+      </c>
+      <c r="C24" s="71" t="s">
         <v>303</v>
-      </c>
-      <c r="C24" s="71" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
@@ -5754,10 +5754,10 @@
         <v>203</v>
       </c>
       <c r="B27" s="80" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C27" s="80" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
@@ -5765,10 +5765,10 @@
         <v>205</v>
       </c>
       <c r="B28" s="80" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C28" s="80" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
@@ -5787,10 +5787,10 @@
         <v>207</v>
       </c>
       <c r="B30" s="80" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C30" s="80" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
@@ -5798,10 +5798,10 @@
         <v>241</v>
       </c>
       <c r="B31" s="80" t="s">
+        <v>307</v>
+      </c>
+      <c r="C31" s="80" t="s">
         <v>308</v>
-      </c>
-      <c r="C31" s="80" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
@@ -5820,10 +5820,10 @@
         <v>213</v>
       </c>
       <c r="B33" s="71" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C33" s="71" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
@@ -5875,7 +5875,7 @@
         <v>243</v>
       </c>
       <c r="B38" s="71" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C38" s="71" t="s">
         <v>257</v>
@@ -5886,7 +5886,7 @@
         <v>244</v>
       </c>
       <c r="B39" s="71" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C39" s="71" t="s">
         <v>32</v>
@@ -5918,10 +5918,10 @@
         <v>219</v>
       </c>
       <c r="B43" s="71" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C43" s="71" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="24" x14ac:dyDescent="0.15">
@@ -5929,7 +5929,7 @@
         <v>220</v>
       </c>
       <c r="B44" s="71" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C44" s="71" t="s">
         <v>259</v>
@@ -5951,10 +5951,10 @@
         <v>222</v>
       </c>
       <c r="B46" s="71" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C46" s="71" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
@@ -5962,7 +5962,7 @@
         <v>223</v>
       </c>
       <c r="B47" s="71" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C47" s="71" t="s">
         <v>261</v>
@@ -5973,7 +5973,7 @@
         <v>224</v>
       </c>
       <c r="B48" s="71" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C48" s="71" t="s">
         <v>262</v>
@@ -5984,10 +5984,10 @@
         <v>225</v>
       </c>
       <c r="B49" s="71" t="s">
+        <v>317</v>
+      </c>
+      <c r="C49" s="71" t="s">
         <v>318</v>
-      </c>
-      <c r="C49" s="71" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="24" x14ac:dyDescent="0.15">
@@ -5995,7 +5995,7 @@
         <v>226</v>
       </c>
       <c r="B50" s="71" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C50" s="71" t="s">
         <v>263</v>
@@ -6016,10 +6016,10 @@
         <v>227</v>
       </c>
       <c r="B53" s="71" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C53" s="71" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.15">
@@ -6049,10 +6049,10 @@
         <v>230</v>
       </c>
       <c r="B56" s="71" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C56" s="71" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.15">
@@ -6104,10 +6104,10 @@
         <v>237</v>
       </c>
       <c r="B61" s="71" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C61" s="71" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.15">
@@ -6142,10 +6142,10 @@
         <v>240</v>
       </c>
       <c r="B65" s="71" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C65" s="71" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="36" x14ac:dyDescent="0.15">
@@ -6153,10 +6153,10 @@
         <v>288</v>
       </c>
       <c r="B66" s="71" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C66" s="71" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.15">

--- a/progression_2019_2020_IPT_MPSI.xlsx
+++ b/progression_2019_2020_IPT_MPSI.xlsx
@@ -1030,7 +1030,7 @@
 On étudie et on compare ces algorithmes de tri du point de vue des complexités temporelles dans le meilleur et dans le pire cas. </t>
   </si>
   <si>
-    <t>architecture/ARCHI-002;python_bases/PYB-002;python_bases/PYB-003;python_bases/PYB-004</t>
+    <t>architecture/consignes;architecture/ARCHI-002;python_bases/PYB-002-bis;python_bases/PYB-003-bis;python_bases/PYB-004</t>
   </si>
 </sst>
 </file>
@@ -2333,18 +2333,57 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2394,42 +2433,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="7" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2458,9 +2461,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="654">
@@ -3435,7 +3435,7 @@
   </sheetPr>
   <dimension ref="A1:X53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
@@ -3527,10 +3527,10 @@
       <c r="B2" s="9">
         <v>43711</v>
       </c>
-      <c r="C2" s="109">
+      <c r="C2" s="91">
         <v>1</v>
       </c>
-      <c r="D2" s="112" t="s">
+      <c r="D2" s="94" t="s">
         <v>265</v>
       </c>
       <c r="E2" s="26">
@@ -3582,8 +3582,8 @@
         <f>B2+7</f>
         <v>43718</v>
       </c>
-      <c r="C3" s="110"/>
-      <c r="D3" s="113"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="95"/>
       <c r="E3" s="26">
         <v>2</v>
       </c>
@@ -3602,7 +3602,7 @@
       <c r="J3" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="124" t="s">
+      <c r="K3" s="82" t="s">
         <v>290</v>
       </c>
       <c r="M3" s="73" t="s">
@@ -3632,8 +3632,8 @@
         <f>B3+7</f>
         <v>43725</v>
       </c>
-      <c r="C4" s="110"/>
-      <c r="D4" s="113"/>
+      <c r="C4" s="92"/>
+      <c r="D4" s="95"/>
       <c r="E4" s="26">
         <v>2</v>
       </c>
@@ -3683,8 +3683,8 @@
         <f t="shared" ref="B5:B8" si="0">B4+7</f>
         <v>43732</v>
       </c>
-      <c r="C5" s="110"/>
-      <c r="D5" s="113"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="95"/>
       <c r="E5" s="26">
         <v>3</v>
       </c>
@@ -3732,8 +3732,8 @@
         <f>B5+7</f>
         <v>43739</v>
       </c>
-      <c r="C6" s="110"/>
-      <c r="D6" s="113"/>
+      <c r="C6" s="92"/>
+      <c r="D6" s="95"/>
       <c r="E6" s="26">
         <v>4</v>
       </c>
@@ -3779,8 +3779,8 @@
         <f t="shared" si="0"/>
         <v>43746</v>
       </c>
-      <c r="C7" s="110"/>
-      <c r="D7" s="113"/>
+      <c r="C7" s="92"/>
+      <c r="D7" s="95"/>
       <c r="E7" s="26">
         <v>4</v>
       </c>
@@ -3826,8 +3826,8 @@
         <f t="shared" si="0"/>
         <v>43753</v>
       </c>
-      <c r="C8" s="111"/>
-      <c r="D8" s="114"/>
+      <c r="C8" s="93"/>
+      <c r="D8" s="96"/>
       <c r="E8" s="26">
         <v>5</v>
       </c>
@@ -3868,24 +3868,24 @@
       <c r="X8" s="75"/>
     </row>
     <row r="9" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="84" t="s">
+      <c r="A9" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="85"/>
-      <c r="C9" s="85"/>
-      <c r="D9" s="85"/>
-      <c r="E9" s="85"/>
-      <c r="F9" s="85"/>
-      <c r="G9" s="85"/>
-      <c r="H9" s="85"/>
-      <c r="I9" s="85"/>
-      <c r="J9" s="85"/>
-      <c r="K9" s="85"/>
-      <c r="L9" s="85"/>
-      <c r="M9" s="85"/>
-      <c r="N9" s="85"/>
-      <c r="O9" s="85"/>
-      <c r="P9" s="85"/>
+      <c r="B9" s="90"/>
+      <c r="C9" s="90"/>
+      <c r="D9" s="90"/>
+      <c r="E9" s="90"/>
+      <c r="F9" s="90"/>
+      <c r="G9" s="90"/>
+      <c r="H9" s="90"/>
+      <c r="I9" s="90"/>
+      <c r="J9" s="90"/>
+      <c r="K9" s="90"/>
+      <c r="L9" s="90"/>
+      <c r="M9" s="90"/>
+      <c r="N9" s="90"/>
+      <c r="O9" s="90"/>
+      <c r="P9" s="90"/>
       <c r="Q9" s="4"/>
       <c r="R9" s="41"/>
       <c r="S9" s="32"/>
@@ -3901,10 +3901,10 @@
         <f>B8+21</f>
         <v>43774</v>
       </c>
-      <c r="C10" s="109">
+      <c r="C10" s="91">
         <v>1</v>
       </c>
-      <c r="D10" s="112" t="s">
+      <c r="D10" s="94" t="s">
         <v>265</v>
       </c>
       <c r="E10" s="26">
@@ -3954,8 +3954,8 @@
         <f t="shared" ref="B11:B16" si="1">B10+7</f>
         <v>43781</v>
       </c>
-      <c r="C11" s="110"/>
-      <c r="D11" s="113"/>
+      <c r="C11" s="92"/>
+      <c r="D11" s="95"/>
       <c r="E11" s="26">
         <v>6</v>
       </c>
@@ -4001,8 +4001,8 @@
         <f t="shared" si="1"/>
         <v>43788</v>
       </c>
-      <c r="C12" s="110"/>
-      <c r="D12" s="113"/>
+      <c r="C12" s="92"/>
+      <c r="D12" s="95"/>
       <c r="E12" s="26">
         <v>6</v>
       </c>
@@ -4047,8 +4047,8 @@
         <f t="shared" si="1"/>
         <v>43795</v>
       </c>
-      <c r="C13" s="110"/>
-      <c r="D13" s="113"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="95"/>
       <c r="E13" s="26">
         <v>7</v>
       </c>
@@ -4096,8 +4096,8 @@
         <f t="shared" si="1"/>
         <v>43802</v>
       </c>
-      <c r="C14" s="110"/>
-      <c r="D14" s="113"/>
+      <c r="C14" s="92"/>
+      <c r="D14" s="95"/>
       <c r="E14" s="26">
         <v>7</v>
       </c>
@@ -4144,8 +4144,8 @@
         <f t="shared" si="1"/>
         <v>43809</v>
       </c>
-      <c r="C15" s="110"/>
-      <c r="D15" s="113"/>
+      <c r="C15" s="92"/>
+      <c r="D15" s="95"/>
       <c r="E15" s="26">
         <v>8</v>
       </c>
@@ -4195,8 +4195,8 @@
         <f t="shared" si="1"/>
         <v>43816</v>
       </c>
-      <c r="C16" s="111"/>
-      <c r="D16" s="114"/>
+      <c r="C16" s="93"/>
+      <c r="D16" s="96"/>
       <c r="E16" s="26">
         <v>8</v>
       </c>
@@ -4237,24 +4237,24 @@
       <c r="X16" s="75"/>
     </row>
     <row r="17" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="84" t="s">
+      <c r="A17" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="85"/>
-      <c r="C17" s="85"/>
-      <c r="D17" s="85"/>
-      <c r="E17" s="85"/>
-      <c r="F17" s="85"/>
-      <c r="G17" s="85"/>
-      <c r="H17" s="85"/>
-      <c r="I17" s="85"/>
-      <c r="J17" s="85"/>
-      <c r="K17" s="85"/>
-      <c r="L17" s="85"/>
-      <c r="M17" s="85"/>
-      <c r="N17" s="85"/>
-      <c r="O17" s="85"/>
-      <c r="P17" s="85"/>
+      <c r="B17" s="90"/>
+      <c r="C17" s="90"/>
+      <c r="D17" s="90"/>
+      <c r="E17" s="90"/>
+      <c r="F17" s="90"/>
+      <c r="G17" s="90"/>
+      <c r="H17" s="90"/>
+      <c r="I17" s="90"/>
+      <c r="J17" s="90"/>
+      <c r="K17" s="90"/>
+      <c r="L17" s="90"/>
+      <c r="M17" s="90"/>
+      <c r="N17" s="90"/>
+      <c r="O17" s="90"/>
+      <c r="P17" s="90"/>
       <c r="Q17" s="4"/>
       <c r="R17" s="41"/>
       <c r="S17" s="32"/>
@@ -4270,10 +4270,10 @@
         <f>B16+21</f>
         <v>43837</v>
       </c>
-      <c r="C18" s="103">
+      <c r="C18" s="83">
         <v>2</v>
       </c>
-      <c r="D18" s="106" t="s">
+      <c r="D18" s="86" t="s">
         <v>186</v>
       </c>
       <c r="E18" s="28">
@@ -4323,8 +4323,8 @@
         <f>B18+7</f>
         <v>43844</v>
       </c>
-      <c r="C19" s="104"/>
-      <c r="D19" s="107"/>
+      <c r="C19" s="84"/>
+      <c r="D19" s="87"/>
       <c r="E19" s="28">
         <v>1</v>
       </c>
@@ -4372,8 +4372,8 @@
         <f t="shared" ref="B20:B40" si="2">B19+7</f>
         <v>43851</v>
       </c>
-      <c r="C20" s="104"/>
-      <c r="D20" s="107"/>
+      <c r="C20" s="84"/>
+      <c r="D20" s="87"/>
       <c r="E20" s="28">
         <v>2</v>
       </c>
@@ -4421,8 +4421,8 @@
         <f>B20+7</f>
         <v>43858</v>
       </c>
-      <c r="C21" s="105"/>
-      <c r="D21" s="108"/>
+      <c r="C21" s="85"/>
+      <c r="D21" s="88"/>
       <c r="E21" s="28">
         <v>2</v>
       </c>
@@ -4470,10 +4470,10 @@
         <f>B21+7</f>
         <v>43865</v>
       </c>
-      <c r="C22" s="89">
+      <c r="C22" s="102">
         <v>3</v>
       </c>
-      <c r="D22" s="86" t="s">
+      <c r="D22" s="99" t="s">
         <v>61</v>
       </c>
       <c r="E22" s="35">
@@ -4523,8 +4523,8 @@
         <f>B22+7</f>
         <v>43872</v>
       </c>
-      <c r="C23" s="90"/>
-      <c r="D23" s="87"/>
+      <c r="C23" s="103"/>
+      <c r="D23" s="100"/>
       <c r="E23" s="35">
         <v>2</v>
       </c>
@@ -4571,8 +4571,8 @@
         <f>B23+7</f>
         <v>43879</v>
       </c>
-      <c r="C24" s="91"/>
-      <c r="D24" s="88"/>
+      <c r="C24" s="104"/>
+      <c r="D24" s="101"/>
       <c r="E24" s="34">
         <v>2</v>
       </c>
@@ -4608,24 +4608,24 @@
       <c r="S24" s="33"/>
     </row>
     <row r="25" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="84" t="s">
+      <c r="A25" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="85"/>
-      <c r="C25" s="85"/>
-      <c r="D25" s="85"/>
-      <c r="E25" s="85"/>
-      <c r="F25" s="85"/>
-      <c r="G25" s="85"/>
-      <c r="H25" s="85"/>
-      <c r="I25" s="85"/>
-      <c r="J25" s="85"/>
-      <c r="K25" s="85"/>
-      <c r="L25" s="85"/>
-      <c r="M25" s="85"/>
-      <c r="N25" s="85"/>
-      <c r="O25" s="85"/>
-      <c r="P25" s="85"/>
+      <c r="B25" s="90"/>
+      <c r="C25" s="90"/>
+      <c r="D25" s="90"/>
+      <c r="E25" s="90"/>
+      <c r="F25" s="90"/>
+      <c r="G25" s="90"/>
+      <c r="H25" s="90"/>
+      <c r="I25" s="90"/>
+      <c r="J25" s="90"/>
+      <c r="K25" s="90"/>
+      <c r="L25" s="90"/>
+      <c r="M25" s="90"/>
+      <c r="N25" s="90"/>
+      <c r="O25" s="90"/>
+      <c r="P25" s="90"/>
       <c r="Q25" s="4"/>
       <c r="R25" s="50"/>
       <c r="S25" s="32"/>
@@ -4641,10 +4641,10 @@
         <f>B24+21</f>
         <v>43900</v>
       </c>
-      <c r="C26" s="89">
+      <c r="C26" s="102">
         <v>3</v>
       </c>
-      <c r="D26" s="86" t="s">
+      <c r="D26" s="99" t="s">
         <v>61</v>
       </c>
       <c r="E26" s="29">
@@ -4694,8 +4694,8 @@
         <f t="shared" si="2"/>
         <v>43907</v>
       </c>
-      <c r="C27" s="90"/>
-      <c r="D27" s="87"/>
+      <c r="C27" s="103"/>
+      <c r="D27" s="100"/>
       <c r="E27" s="35">
         <v>3</v>
       </c>
@@ -4740,8 +4740,8 @@
         <f t="shared" si="2"/>
         <v>43914</v>
       </c>
-      <c r="C28" s="90"/>
-      <c r="D28" s="87"/>
+      <c r="C28" s="103"/>
+      <c r="D28" s="100"/>
       <c r="E28" s="29">
         <v>4</v>
       </c>
@@ -4789,8 +4789,8 @@
         <f t="shared" si="2"/>
         <v>43921</v>
       </c>
-      <c r="C29" s="91"/>
-      <c r="D29" s="88"/>
+      <c r="C29" s="104"/>
+      <c r="D29" s="101"/>
       <c r="E29" s="35">
         <v>4</v>
       </c>
@@ -4836,10 +4836,10 @@
         <f t="shared" si="2"/>
         <v>43928</v>
       </c>
-      <c r="C30" s="92">
+      <c r="C30" s="105">
         <v>4</v>
       </c>
-      <c r="D30" s="94" t="s">
+      <c r="D30" s="107" t="s">
         <v>44</v>
       </c>
       <c r="E30" s="30">
@@ -4891,8 +4891,8 @@
         <f t="shared" si="2"/>
         <v>43935</v>
       </c>
-      <c r="C31" s="93"/>
-      <c r="D31" s="95"/>
+      <c r="C31" s="106"/>
+      <c r="D31" s="108"/>
       <c r="E31" s="30">
         <v>2</v>
       </c>
@@ -4933,24 +4933,24 @@
       <c r="X31" s="75"/>
     </row>
     <row r="32" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="82" t="s">
+      <c r="A32" s="97" t="s">
         <v>14</v>
       </c>
-      <c r="B32" s="83"/>
-      <c r="C32" s="83"/>
-      <c r="D32" s="83"/>
-      <c r="E32" s="83"/>
-      <c r="F32" s="83"/>
-      <c r="G32" s="83"/>
-      <c r="H32" s="83"/>
-      <c r="I32" s="83"/>
-      <c r="J32" s="83"/>
-      <c r="K32" s="83"/>
-      <c r="L32" s="83"/>
-      <c r="M32" s="83"/>
-      <c r="N32" s="83"/>
-      <c r="O32" s="83"/>
-      <c r="P32" s="83"/>
+      <c r="B32" s="98"/>
+      <c r="C32" s="98"/>
+      <c r="D32" s="98"/>
+      <c r="E32" s="98"/>
+      <c r="F32" s="98"/>
+      <c r="G32" s="98"/>
+      <c r="H32" s="98"/>
+      <c r="I32" s="98"/>
+      <c r="J32" s="98"/>
+      <c r="K32" s="98"/>
+      <c r="L32" s="98"/>
+      <c r="M32" s="98"/>
+      <c r="N32" s="98"/>
+      <c r="O32" s="98"/>
+      <c r="P32" s="98"/>
       <c r="Q32" s="47"/>
       <c r="R32" s="51"/>
       <c r="S32" s="32"/>
@@ -4966,10 +4966,10 @@
         <f>B31+21</f>
         <v>43956</v>
       </c>
-      <c r="C33" s="92">
+      <c r="C33" s="105">
         <v>4</v>
       </c>
-      <c r="D33" s="94" t="s">
+      <c r="D33" s="107" t="s">
         <v>44</v>
       </c>
       <c r="E33" s="30">
@@ -5014,8 +5014,8 @@
         <f t="shared" si="2"/>
         <v>43963</v>
       </c>
-      <c r="C34" s="97"/>
-      <c r="D34" s="96"/>
+      <c r="C34" s="110"/>
+      <c r="D34" s="109"/>
       <c r="E34" s="30">
         <v>3</v>
       </c>
@@ -5060,8 +5060,8 @@
         <f t="shared" si="2"/>
         <v>43970</v>
       </c>
-      <c r="C35" s="93"/>
-      <c r="D35" s="95"/>
+      <c r="C35" s="106"/>
+      <c r="D35" s="108"/>
       <c r="E35" s="30">
         <v>4</v>
       </c>
@@ -5105,10 +5105,10 @@
         <f t="shared" si="2"/>
         <v>43977</v>
       </c>
-      <c r="C36" s="100">
+      <c r="C36" s="113">
         <v>5</v>
       </c>
-      <c r="D36" s="98" t="s">
+      <c r="D36" s="111" t="s">
         <v>50</v>
       </c>
       <c r="E36" s="31">
@@ -5148,8 +5148,8 @@
         <f t="shared" si="2"/>
         <v>43984</v>
       </c>
-      <c r="C37" s="101"/>
-      <c r="D37" s="99"/>
+      <c r="C37" s="114"/>
+      <c r="D37" s="112"/>
       <c r="E37" s="31">
         <v>1</v>
       </c>
@@ -5189,8 +5189,8 @@
         <f t="shared" si="2"/>
         <v>43991</v>
       </c>
-      <c r="C38" s="101"/>
-      <c r="D38" s="99"/>
+      <c r="C38" s="114"/>
+      <c r="D38" s="112"/>
       <c r="E38" s="31">
         <v>1</v>
       </c>
@@ -5228,8 +5228,8 @@
         <f t="shared" si="2"/>
         <v>43998</v>
       </c>
-      <c r="C39" s="101"/>
-      <c r="D39" s="99"/>
+      <c r="C39" s="114"/>
+      <c r="D39" s="112"/>
       <c r="E39" s="31">
         <v>1</v>
       </c>
@@ -5267,8 +5267,8 @@
         <f t="shared" si="2"/>
         <v>44005</v>
       </c>
-      <c r="C40" s="102"/>
-      <c r="D40" s="99"/>
+      <c r="C40" s="115"/>
+      <c r="D40" s="112"/>
       <c r="E40" s="31">
         <v>1</v>
       </c>
@@ -5297,24 +5297,24 @@
       <c r="X40" s="75"/>
     </row>
     <row r="41" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="82" t="s">
+      <c r="A41" s="97" t="s">
         <v>15</v>
       </c>
-      <c r="B41" s="83"/>
-      <c r="C41" s="83"/>
-      <c r="D41" s="83"/>
-      <c r="E41" s="83"/>
-      <c r="F41" s="83"/>
-      <c r="G41" s="83"/>
-      <c r="H41" s="83"/>
-      <c r="I41" s="83"/>
-      <c r="J41" s="83"/>
-      <c r="K41" s="83"/>
-      <c r="L41" s="83"/>
-      <c r="M41" s="83"/>
-      <c r="N41" s="83"/>
-      <c r="O41" s="83"/>
-      <c r="P41" s="83"/>
+      <c r="B41" s="98"/>
+      <c r="C41" s="98"/>
+      <c r="D41" s="98"/>
+      <c r="E41" s="98"/>
+      <c r="F41" s="98"/>
+      <c r="G41" s="98"/>
+      <c r="H41" s="98"/>
+      <c r="I41" s="98"/>
+      <c r="J41" s="98"/>
+      <c r="K41" s="98"/>
+      <c r="L41" s="98"/>
+      <c r="M41" s="98"/>
+      <c r="N41" s="98"/>
+      <c r="O41" s="98"/>
+      <c r="P41" s="98"/>
       <c r="Q41" s="47"/>
       <c r="R41" s="51"/>
       <c r="V41" s="70"/>
@@ -5383,14 +5383,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="D18:D21"/>
-    <mergeCell ref="A9:P9"/>
-    <mergeCell ref="A17:P17"/>
-    <mergeCell ref="C2:C8"/>
-    <mergeCell ref="D2:D8"/>
-    <mergeCell ref="D10:D16"/>
-    <mergeCell ref="C10:C16"/>
     <mergeCell ref="A41:P41"/>
     <mergeCell ref="A32:P32"/>
     <mergeCell ref="A25:P25"/>
@@ -5404,6 +5396,14 @@
     <mergeCell ref="C33:C35"/>
     <mergeCell ref="D36:D40"/>
     <mergeCell ref="C36:C40"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="A9:P9"/>
+    <mergeCell ref="A17:P17"/>
+    <mergeCell ref="C2:C8"/>
+    <mergeCell ref="D2:D8"/>
+    <mergeCell ref="D10:D16"/>
+    <mergeCell ref="C10:C16"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6186,12 +6186,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="116" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="117"/>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="118"/>
     </row>
     <row r="2" spans="1:4" ht="22" x14ac:dyDescent="0.15">
       <c r="A2" s="54" t="s">
@@ -6282,12 +6282,12 @@
       <c r="D11" s="61"/>
     </row>
     <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A12" s="115" t="s">
+      <c r="A12" s="116" t="s">
         <v>94</v>
       </c>
-      <c r="B12" s="116"/>
-      <c r="C12" s="116"/>
-      <c r="D12" s="117"/>
+      <c r="B12" s="117"/>
+      <c r="C12" s="117"/>
+      <c r="D12" s="118"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="54" t="s">
@@ -6552,12 +6552,12 @@
       <c r="D40" s="61"/>
     </row>
     <row r="41" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A41" s="118" t="s">
+      <c r="A41" s="119" t="s">
         <v>142</v>
       </c>
-      <c r="B41" s="119"/>
-      <c r="C41" s="119"/>
-      <c r="D41" s="120"/>
+      <c r="B41" s="120"/>
+      <c r="C41" s="120"/>
+      <c r="D41" s="121"/>
     </row>
     <row r="42" spans="1:4" ht="33" x14ac:dyDescent="0.15">
       <c r="A42" s="54" t="s">
@@ -6656,12 +6656,12 @@
       <c r="D51" s="66"/>
     </row>
     <row r="52" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="121" t="s">
+      <c r="A52" s="122" t="s">
         <v>161</v>
       </c>
-      <c r="B52" s="122"/>
-      <c r="C52" s="122"/>
-      <c r="D52" s="123"/>
+      <c r="B52" s="123"/>
+      <c r="C52" s="123"/>
+      <c r="D52" s="124"/>
     </row>
     <row r="53" spans="1:4" ht="22" x14ac:dyDescent="0.15">
       <c r="A53" s="67" t="s">
@@ -6750,12 +6750,12 @@
       <c r="D61" s="66"/>
     </row>
     <row r="62" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="121" t="s">
+      <c r="A62" s="122" t="s">
         <v>178</v>
       </c>
-      <c r="B62" s="122"/>
-      <c r="C62" s="122"/>
-      <c r="D62" s="123"/>
+      <c r="B62" s="123"/>
+      <c r="C62" s="123"/>
+      <c r="D62" s="124"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A63" s="67" t="s">

--- a/progression_2019_2020_IPT_MPSI.xlsx
+++ b/progression_2019_2020_IPT_MPSI.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="327">
   <si>
     <t>Cours</t>
   </si>
@@ -1031,6 +1031,9 @@
   </si>
   <si>
     <t>architecture/consignes;architecture/ARCHI-002;python_bases/PYB-002-bis;python_bases/PYB-003-bis;python_bases/PYB-004</t>
+  </si>
+  <si>
+    <t>python_bases/PYB-518;python_bases/PYB-510;python_bases/PYB-408</t>
   </si>
 </sst>
 </file>
@@ -2336,6 +2339,69 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="1" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2354,12 +2420,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2376,63 +2436,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3435,8 +3438,8 @@
   </sheetPr>
   <dimension ref="A1:X53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="26" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3527,10 +3530,10 @@
       <c r="B2" s="9">
         <v>43711</v>
       </c>
-      <c r="C2" s="91">
+      <c r="C2" s="110">
         <v>1</v>
       </c>
-      <c r="D2" s="94" t="s">
+      <c r="D2" s="113" t="s">
         <v>265</v>
       </c>
       <c r="E2" s="26">
@@ -3582,8 +3585,8 @@
         <f>B2+7</f>
         <v>43718</v>
       </c>
-      <c r="C3" s="92"/>
-      <c r="D3" s="95"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="114"/>
       <c r="E3" s="26">
         <v>2</v>
       </c>
@@ -3632,8 +3635,8 @@
         <f>B3+7</f>
         <v>43725</v>
       </c>
-      <c r="C4" s="92"/>
-      <c r="D4" s="95"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="114"/>
       <c r="E4" s="26">
         <v>2</v>
       </c>
@@ -3683,8 +3686,8 @@
         <f t="shared" ref="B5:B8" si="0">B4+7</f>
         <v>43732</v>
       </c>
-      <c r="C5" s="92"/>
-      <c r="D5" s="95"/>
+      <c r="C5" s="111"/>
+      <c r="D5" s="114"/>
       <c r="E5" s="26">
         <v>3</v>
       </c>
@@ -3703,7 +3706,9 @@
       <c r="J5" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="K5" s="5"/>
+      <c r="K5" s="82" t="s">
+        <v>326</v>
+      </c>
       <c r="L5" s="5"/>
       <c r="M5" s="73" t="s">
         <v>278</v>
@@ -3732,8 +3737,8 @@
         <f>B5+7</f>
         <v>43739</v>
       </c>
-      <c r="C6" s="92"/>
-      <c r="D6" s="95"/>
+      <c r="C6" s="111"/>
+      <c r="D6" s="114"/>
       <c r="E6" s="26">
         <v>4</v>
       </c>
@@ -3779,8 +3784,8 @@
         <f t="shared" si="0"/>
         <v>43746</v>
       </c>
-      <c r="C7" s="92"/>
-      <c r="D7" s="95"/>
+      <c r="C7" s="111"/>
+      <c r="D7" s="114"/>
       <c r="E7" s="26">
         <v>4</v>
       </c>
@@ -3826,8 +3831,8 @@
         <f t="shared" si="0"/>
         <v>43753</v>
       </c>
-      <c r="C8" s="93"/>
-      <c r="D8" s="96"/>
+      <c r="C8" s="112"/>
+      <c r="D8" s="115"/>
       <c r="E8" s="26">
         <v>5</v>
       </c>
@@ -3868,24 +3873,24 @@
       <c r="X8" s="75"/>
     </row>
     <row r="9" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="89" t="s">
+      <c r="A9" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="90"/>
-      <c r="C9" s="90"/>
-      <c r="D9" s="90"/>
-      <c r="E9" s="90"/>
-      <c r="F9" s="90"/>
-      <c r="G9" s="90"/>
-      <c r="H9" s="90"/>
-      <c r="I9" s="90"/>
-      <c r="J9" s="90"/>
-      <c r="K9" s="90"/>
-      <c r="L9" s="90"/>
-      <c r="M9" s="90"/>
-      <c r="N9" s="90"/>
-      <c r="O9" s="90"/>
-      <c r="P9" s="90"/>
+      <c r="B9" s="86"/>
+      <c r="C9" s="86"/>
+      <c r="D9" s="86"/>
+      <c r="E9" s="86"/>
+      <c r="F9" s="86"/>
+      <c r="G9" s="86"/>
+      <c r="H9" s="86"/>
+      <c r="I9" s="86"/>
+      <c r="J9" s="86"/>
+      <c r="K9" s="86"/>
+      <c r="L9" s="86"/>
+      <c r="M9" s="86"/>
+      <c r="N9" s="86"/>
+      <c r="O9" s="86"/>
+      <c r="P9" s="86"/>
       <c r="Q9" s="4"/>
       <c r="R9" s="41"/>
       <c r="S9" s="32"/>
@@ -3901,10 +3906,10 @@
         <f>B8+21</f>
         <v>43774</v>
       </c>
-      <c r="C10" s="91">
+      <c r="C10" s="110">
         <v>1</v>
       </c>
-      <c r="D10" s="94" t="s">
+      <c r="D10" s="113" t="s">
         <v>265</v>
       </c>
       <c r="E10" s="26">
@@ -3954,8 +3959,8 @@
         <f t="shared" ref="B11:B16" si="1">B10+7</f>
         <v>43781</v>
       </c>
-      <c r="C11" s="92"/>
-      <c r="D11" s="95"/>
+      <c r="C11" s="111"/>
+      <c r="D11" s="114"/>
       <c r="E11" s="26">
         <v>6</v>
       </c>
@@ -4001,8 +4006,8 @@
         <f t="shared" si="1"/>
         <v>43788</v>
       </c>
-      <c r="C12" s="92"/>
-      <c r="D12" s="95"/>
+      <c r="C12" s="111"/>
+      <c r="D12" s="114"/>
       <c r="E12" s="26">
         <v>6</v>
       </c>
@@ -4047,8 +4052,8 @@
         <f t="shared" si="1"/>
         <v>43795</v>
       </c>
-      <c r="C13" s="92"/>
-      <c r="D13" s="95"/>
+      <c r="C13" s="111"/>
+      <c r="D13" s="114"/>
       <c r="E13" s="26">
         <v>7</v>
       </c>
@@ -4096,8 +4101,8 @@
         <f t="shared" si="1"/>
         <v>43802</v>
       </c>
-      <c r="C14" s="92"/>
-      <c r="D14" s="95"/>
+      <c r="C14" s="111"/>
+      <c r="D14" s="114"/>
       <c r="E14" s="26">
         <v>7</v>
       </c>
@@ -4144,8 +4149,8 @@
         <f t="shared" si="1"/>
         <v>43809</v>
       </c>
-      <c r="C15" s="92"/>
-      <c r="D15" s="95"/>
+      <c r="C15" s="111"/>
+      <c r="D15" s="114"/>
       <c r="E15" s="26">
         <v>8</v>
       </c>
@@ -4195,8 +4200,8 @@
         <f t="shared" si="1"/>
         <v>43816</v>
       </c>
-      <c r="C16" s="93"/>
-      <c r="D16" s="96"/>
+      <c r="C16" s="112"/>
+      <c r="D16" s="115"/>
       <c r="E16" s="26">
         <v>8</v>
       </c>
@@ -4237,24 +4242,24 @@
       <c r="X16" s="75"/>
     </row>
     <row r="17" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="89" t="s">
+      <c r="A17" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="90"/>
-      <c r="C17" s="90"/>
-      <c r="D17" s="90"/>
-      <c r="E17" s="90"/>
-      <c r="F17" s="90"/>
-      <c r="G17" s="90"/>
-      <c r="H17" s="90"/>
-      <c r="I17" s="90"/>
-      <c r="J17" s="90"/>
-      <c r="K17" s="90"/>
-      <c r="L17" s="90"/>
-      <c r="M17" s="90"/>
-      <c r="N17" s="90"/>
-      <c r="O17" s="90"/>
-      <c r="P17" s="90"/>
+      <c r="B17" s="86"/>
+      <c r="C17" s="86"/>
+      <c r="D17" s="86"/>
+      <c r="E17" s="86"/>
+      <c r="F17" s="86"/>
+      <c r="G17" s="86"/>
+      <c r="H17" s="86"/>
+      <c r="I17" s="86"/>
+      <c r="J17" s="86"/>
+      <c r="K17" s="86"/>
+      <c r="L17" s="86"/>
+      <c r="M17" s="86"/>
+      <c r="N17" s="86"/>
+      <c r="O17" s="86"/>
+      <c r="P17" s="86"/>
       <c r="Q17" s="4"/>
       <c r="R17" s="41"/>
       <c r="S17" s="32"/>
@@ -4270,10 +4275,10 @@
         <f>B16+21</f>
         <v>43837</v>
       </c>
-      <c r="C18" s="83">
+      <c r="C18" s="104">
         <v>2</v>
       </c>
-      <c r="D18" s="86" t="s">
+      <c r="D18" s="107" t="s">
         <v>186</v>
       </c>
       <c r="E18" s="28">
@@ -4323,8 +4328,8 @@
         <f>B18+7</f>
         <v>43844</v>
       </c>
-      <c r="C19" s="84"/>
-      <c r="D19" s="87"/>
+      <c r="C19" s="105"/>
+      <c r="D19" s="108"/>
       <c r="E19" s="28">
         <v>1</v>
       </c>
@@ -4372,8 +4377,8 @@
         <f t="shared" ref="B20:B40" si="2">B19+7</f>
         <v>43851</v>
       </c>
-      <c r="C20" s="84"/>
-      <c r="D20" s="87"/>
+      <c r="C20" s="105"/>
+      <c r="D20" s="108"/>
       <c r="E20" s="28">
         <v>2</v>
       </c>
@@ -4421,8 +4426,8 @@
         <f>B20+7</f>
         <v>43858</v>
       </c>
-      <c r="C21" s="85"/>
-      <c r="D21" s="88"/>
+      <c r="C21" s="106"/>
+      <c r="D21" s="109"/>
       <c r="E21" s="28">
         <v>2</v>
       </c>
@@ -4470,10 +4475,10 @@
         <f>B21+7</f>
         <v>43865</v>
       </c>
-      <c r="C22" s="102">
+      <c r="C22" s="90">
         <v>3</v>
       </c>
-      <c r="D22" s="99" t="s">
+      <c r="D22" s="87" t="s">
         <v>61</v>
       </c>
       <c r="E22" s="35">
@@ -4523,8 +4528,8 @@
         <f>B22+7</f>
         <v>43872</v>
       </c>
-      <c r="C23" s="103"/>
-      <c r="D23" s="100"/>
+      <c r="C23" s="91"/>
+      <c r="D23" s="88"/>
       <c r="E23" s="35">
         <v>2</v>
       </c>
@@ -4571,8 +4576,8 @@
         <f>B23+7</f>
         <v>43879</v>
       </c>
-      <c r="C24" s="104"/>
-      <c r="D24" s="101"/>
+      <c r="C24" s="92"/>
+      <c r="D24" s="89"/>
       <c r="E24" s="34">
         <v>2</v>
       </c>
@@ -4608,24 +4613,24 @@
       <c r="S24" s="33"/>
     </row>
     <row r="25" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="89" t="s">
+      <c r="A25" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="90"/>
-      <c r="C25" s="90"/>
-      <c r="D25" s="90"/>
-      <c r="E25" s="90"/>
-      <c r="F25" s="90"/>
-      <c r="G25" s="90"/>
-      <c r="H25" s="90"/>
-      <c r="I25" s="90"/>
-      <c r="J25" s="90"/>
-      <c r="K25" s="90"/>
-      <c r="L25" s="90"/>
-      <c r="M25" s="90"/>
-      <c r="N25" s="90"/>
-      <c r="O25" s="90"/>
-      <c r="P25" s="90"/>
+      <c r="B25" s="86"/>
+      <c r="C25" s="86"/>
+      <c r="D25" s="86"/>
+      <c r="E25" s="86"/>
+      <c r="F25" s="86"/>
+      <c r="G25" s="86"/>
+      <c r="H25" s="86"/>
+      <c r="I25" s="86"/>
+      <c r="J25" s="86"/>
+      <c r="K25" s="86"/>
+      <c r="L25" s="86"/>
+      <c r="M25" s="86"/>
+      <c r="N25" s="86"/>
+      <c r="O25" s="86"/>
+      <c r="P25" s="86"/>
       <c r="Q25" s="4"/>
       <c r="R25" s="50"/>
       <c r="S25" s="32"/>
@@ -4641,10 +4646,10 @@
         <f>B24+21</f>
         <v>43900</v>
       </c>
-      <c r="C26" s="102">
+      <c r="C26" s="90">
         <v>3</v>
       </c>
-      <c r="D26" s="99" t="s">
+      <c r="D26" s="87" t="s">
         <v>61</v>
       </c>
       <c r="E26" s="29">
@@ -4694,8 +4699,8 @@
         <f t="shared" si="2"/>
         <v>43907</v>
       </c>
-      <c r="C27" s="103"/>
-      <c r="D27" s="100"/>
+      <c r="C27" s="91"/>
+      <c r="D27" s="88"/>
       <c r="E27" s="35">
         <v>3</v>
       </c>
@@ -4740,8 +4745,8 @@
         <f t="shared" si="2"/>
         <v>43914</v>
       </c>
-      <c r="C28" s="103"/>
-      <c r="D28" s="100"/>
+      <c r="C28" s="91"/>
+      <c r="D28" s="88"/>
       <c r="E28" s="29">
         <v>4</v>
       </c>
@@ -4789,8 +4794,8 @@
         <f t="shared" si="2"/>
         <v>43921</v>
       </c>
-      <c r="C29" s="104"/>
-      <c r="D29" s="101"/>
+      <c r="C29" s="92"/>
+      <c r="D29" s="89"/>
       <c r="E29" s="35">
         <v>4</v>
       </c>
@@ -4836,10 +4841,10 @@
         <f t="shared" si="2"/>
         <v>43928</v>
       </c>
-      <c r="C30" s="105">
+      <c r="C30" s="93">
         <v>4</v>
       </c>
-      <c r="D30" s="107" t="s">
+      <c r="D30" s="95" t="s">
         <v>44</v>
       </c>
       <c r="E30" s="30">
@@ -4891,8 +4896,8 @@
         <f t="shared" si="2"/>
         <v>43935</v>
       </c>
-      <c r="C31" s="106"/>
-      <c r="D31" s="108"/>
+      <c r="C31" s="94"/>
+      <c r="D31" s="96"/>
       <c r="E31" s="30">
         <v>2</v>
       </c>
@@ -4933,24 +4938,24 @@
       <c r="X31" s="75"/>
     </row>
     <row r="32" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="97" t="s">
+      <c r="A32" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="B32" s="98"/>
-      <c r="C32" s="98"/>
-      <c r="D32" s="98"/>
-      <c r="E32" s="98"/>
-      <c r="F32" s="98"/>
-      <c r="G32" s="98"/>
-      <c r="H32" s="98"/>
-      <c r="I32" s="98"/>
-      <c r="J32" s="98"/>
-      <c r="K32" s="98"/>
-      <c r="L32" s="98"/>
-      <c r="M32" s="98"/>
-      <c r="N32" s="98"/>
-      <c r="O32" s="98"/>
-      <c r="P32" s="98"/>
+      <c r="B32" s="84"/>
+      <c r="C32" s="84"/>
+      <c r="D32" s="84"/>
+      <c r="E32" s="84"/>
+      <c r="F32" s="84"/>
+      <c r="G32" s="84"/>
+      <c r="H32" s="84"/>
+      <c r="I32" s="84"/>
+      <c r="J32" s="84"/>
+      <c r="K32" s="84"/>
+      <c r="L32" s="84"/>
+      <c r="M32" s="84"/>
+      <c r="N32" s="84"/>
+      <c r="O32" s="84"/>
+      <c r="P32" s="84"/>
       <c r="Q32" s="47"/>
       <c r="R32" s="51"/>
       <c r="S32" s="32"/>
@@ -4966,10 +4971,10 @@
         <f>B31+21</f>
         <v>43956</v>
       </c>
-      <c r="C33" s="105">
+      <c r="C33" s="93">
         <v>4</v>
       </c>
-      <c r="D33" s="107" t="s">
+      <c r="D33" s="95" t="s">
         <v>44</v>
       </c>
       <c r="E33" s="30">
@@ -5014,8 +5019,8 @@
         <f t="shared" si="2"/>
         <v>43963</v>
       </c>
-      <c r="C34" s="110"/>
-      <c r="D34" s="109"/>
+      <c r="C34" s="98"/>
+      <c r="D34" s="97"/>
       <c r="E34" s="30">
         <v>3</v>
       </c>
@@ -5060,8 +5065,8 @@
         <f t="shared" si="2"/>
         <v>43970</v>
       </c>
-      <c r="C35" s="106"/>
-      <c r="D35" s="108"/>
+      <c r="C35" s="94"/>
+      <c r="D35" s="96"/>
       <c r="E35" s="30">
         <v>4</v>
       </c>
@@ -5105,10 +5110,10 @@
         <f t="shared" si="2"/>
         <v>43977</v>
       </c>
-      <c r="C36" s="113">
+      <c r="C36" s="101">
         <v>5</v>
       </c>
-      <c r="D36" s="111" t="s">
+      <c r="D36" s="99" t="s">
         <v>50</v>
       </c>
       <c r="E36" s="31">
@@ -5148,8 +5153,8 @@
         <f t="shared" si="2"/>
         <v>43984</v>
       </c>
-      <c r="C37" s="114"/>
-      <c r="D37" s="112"/>
+      <c r="C37" s="102"/>
+      <c r="D37" s="100"/>
       <c r="E37" s="31">
         <v>1</v>
       </c>
@@ -5189,8 +5194,8 @@
         <f t="shared" si="2"/>
         <v>43991</v>
       </c>
-      <c r="C38" s="114"/>
-      <c r="D38" s="112"/>
+      <c r="C38" s="102"/>
+      <c r="D38" s="100"/>
       <c r="E38" s="31">
         <v>1</v>
       </c>
@@ -5228,8 +5233,8 @@
         <f t="shared" si="2"/>
         <v>43998</v>
       </c>
-      <c r="C39" s="114"/>
-      <c r="D39" s="112"/>
+      <c r="C39" s="102"/>
+      <c r="D39" s="100"/>
       <c r="E39" s="31">
         <v>1</v>
       </c>
@@ -5267,8 +5272,8 @@
         <f t="shared" si="2"/>
         <v>44005</v>
       </c>
-      <c r="C40" s="115"/>
-      <c r="D40" s="112"/>
+      <c r="C40" s="103"/>
+      <c r="D40" s="100"/>
       <c r="E40" s="31">
         <v>1</v>
       </c>
@@ -5297,24 +5302,24 @@
       <c r="X40" s="75"/>
     </row>
     <row r="41" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="97" t="s">
+      <c r="A41" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="B41" s="98"/>
-      <c r="C41" s="98"/>
-      <c r="D41" s="98"/>
-      <c r="E41" s="98"/>
-      <c r="F41" s="98"/>
-      <c r="G41" s="98"/>
-      <c r="H41" s="98"/>
-      <c r="I41" s="98"/>
-      <c r="J41" s="98"/>
-      <c r="K41" s="98"/>
-      <c r="L41" s="98"/>
-      <c r="M41" s="98"/>
-      <c r="N41" s="98"/>
-      <c r="O41" s="98"/>
-      <c r="P41" s="98"/>
+      <c r="B41" s="84"/>
+      <c r="C41" s="84"/>
+      <c r="D41" s="84"/>
+      <c r="E41" s="84"/>
+      <c r="F41" s="84"/>
+      <c r="G41" s="84"/>
+      <c r="H41" s="84"/>
+      <c r="I41" s="84"/>
+      <c r="J41" s="84"/>
+      <c r="K41" s="84"/>
+      <c r="L41" s="84"/>
+      <c r="M41" s="84"/>
+      <c r="N41" s="84"/>
+      <c r="O41" s="84"/>
+      <c r="P41" s="84"/>
       <c r="Q41" s="47"/>
       <c r="R41" s="51"/>
       <c r="V41" s="70"/>
@@ -5383,6 +5388,14 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="A9:P9"/>
+    <mergeCell ref="A17:P17"/>
+    <mergeCell ref="C2:C8"/>
+    <mergeCell ref="D2:D8"/>
+    <mergeCell ref="D10:D16"/>
+    <mergeCell ref="C10:C16"/>
     <mergeCell ref="A41:P41"/>
     <mergeCell ref="A32:P32"/>
     <mergeCell ref="A25:P25"/>
@@ -5396,14 +5409,6 @@
     <mergeCell ref="C33:C35"/>
     <mergeCell ref="D36:D40"/>
     <mergeCell ref="C36:C40"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="D18:D21"/>
-    <mergeCell ref="A9:P9"/>
-    <mergeCell ref="A17:P17"/>
-    <mergeCell ref="C2:C8"/>
-    <mergeCell ref="D2:D8"/>
-    <mergeCell ref="D10:D16"/>
-    <mergeCell ref="C10:C16"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/progression_2019_2020_IPT_MPSI.xlsx
+++ b/progression_2019_2020_IPT_MPSI.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-34180" yWindow="2100" windowWidth="28580" windowHeight="16180"/>
+    <workbookView xWindow="27000" yWindow="460" windowWidth="30420" windowHeight="14620"/>
   </bookViews>
   <sheets>
     <sheet name="Semanier MPSI IPT 2019-2020" sheetId="12" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="328">
   <si>
     <t>Cours</t>
   </si>
@@ -1034,6 +1034,9 @@
   </si>
   <si>
     <t>python_bases/PYB-518;python_bases/PYB-510;python_bases/PYB-408</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -3439,7 +3442,7 @@
   <dimension ref="A1:X53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="26" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3452,7 +3455,7 @@
     <col min="8" max="8" width="37.33203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="5.5" style="1" customWidth="1"/>
     <col min="10" max="10" width="37.33203125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="20" style="1" customWidth="1"/>
+    <col min="11" max="11" width="42.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="32.6640625" style="1" customWidth="1"/>
     <col min="15" max="18" width="10.83203125" style="1" customWidth="1"/>
@@ -3523,7 +3526,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" ht="32" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3572,12 +3575,14 @@
       <c r="R2" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="S2" s="33"/>
+      <c r="S2" s="33" t="s">
+        <v>327</v>
+      </c>
       <c r="V2" s="70"/>
       <c r="W2" s="75"/>
       <c r="X2" s="75"/>
     </row>
-    <row r="3" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" ht="32" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -3622,12 +3627,14 @@
       <c r="R3" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="S3" s="33"/>
+      <c r="S3" s="33" t="s">
+        <v>327</v>
+      </c>
       <c r="V3" s="70"/>
       <c r="W3" s="75"/>
       <c r="X3" s="75"/>
     </row>
-    <row r="4" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" ht="56" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -3673,12 +3680,14 @@
       <c r="R4" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="S4" s="33"/>
+      <c r="S4" s="33" t="s">
+        <v>327</v>
+      </c>
       <c r="V4" s="70"/>
       <c r="W4" s="75"/>
       <c r="X4" s="75"/>
     </row>
-    <row r="5" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" ht="32" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -3724,7 +3733,9 @@
       <c r="R5" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="S5" s="33"/>
+      <c r="S5" s="33" t="s">
+        <v>327</v>
+      </c>
       <c r="V5" s="70"/>
       <c r="W5" s="75"/>
       <c r="X5" s="75"/>

--- a/progression_2019_2020_IPT_MPSI.xlsx
+++ b/progression_2019_2020_IPT_MPSI.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="27000" yWindow="460" windowWidth="30420" windowHeight="14620"/>
+    <workbookView xWindow="1960" yWindow="460" windowWidth="30420" windowHeight="14600"/>
   </bookViews>
   <sheets>
     <sheet name="Semanier MPSI IPT 2019-2020" sheetId="12" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="330">
   <si>
     <t>Cours</t>
   </si>
@@ -1037,6 +1037,12 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>TR</t>
+  </si>
+  <si>
+    <t>Tracer une fonction</t>
   </si>
 </sst>
 </file>
@@ -2342,18 +2348,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2403,42 +2445,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="7" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3441,8 +3447,8 @@
   </sheetPr>
   <dimension ref="A1:X53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="26" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3533,10 +3539,10 @@
       <c r="B2" s="9">
         <v>43711</v>
       </c>
-      <c r="C2" s="110">
+      <c r="C2" s="91">
         <v>1</v>
       </c>
-      <c r="D2" s="113" t="s">
+      <c r="D2" s="94" t="s">
         <v>265</v>
       </c>
       <c r="E2" s="26">
@@ -3590,8 +3596,8 @@
         <f>B2+7</f>
         <v>43718</v>
       </c>
-      <c r="C3" s="111"/>
-      <c r="D3" s="114"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="95"/>
       <c r="E3" s="26">
         <v>2</v>
       </c>
@@ -3642,8 +3648,8 @@
         <f>B3+7</f>
         <v>43725</v>
       </c>
-      <c r="C4" s="111"/>
-      <c r="D4" s="114"/>
+      <c r="C4" s="92"/>
+      <c r="D4" s="95"/>
       <c r="E4" s="26">
         <v>2</v>
       </c>
@@ -3695,8 +3701,8 @@
         <f t="shared" ref="B5:B8" si="0">B4+7</f>
         <v>43732</v>
       </c>
-      <c r="C5" s="111"/>
-      <c r="D5" s="114"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="95"/>
       <c r="E5" s="26">
         <v>3</v>
       </c>
@@ -3748,8 +3754,8 @@
         <f>B5+7</f>
         <v>43739</v>
       </c>
-      <c r="C6" s="111"/>
-      <c r="D6" s="114"/>
+      <c r="C6" s="92"/>
+      <c r="D6" s="95"/>
       <c r="E6" s="26">
         <v>4</v>
       </c>
@@ -3770,7 +3776,9 @@
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
+      <c r="M6" s="5" t="s">
+        <v>328</v>
+      </c>
       <c r="N6" s="73" t="s">
         <v>281</v>
       </c>
@@ -3795,8 +3803,8 @@
         <f t="shared" si="0"/>
         <v>43746</v>
       </c>
-      <c r="C7" s="111"/>
-      <c r="D7" s="114"/>
+      <c r="C7" s="92"/>
+      <c r="D7" s="95"/>
       <c r="E7" s="26">
         <v>4</v>
       </c>
@@ -3842,8 +3850,8 @@
         <f t="shared" si="0"/>
         <v>43753</v>
       </c>
-      <c r="C8" s="112"/>
-      <c r="D8" s="115"/>
+      <c r="C8" s="93"/>
+      <c r="D8" s="96"/>
       <c r="E8" s="26">
         <v>5</v>
       </c>
@@ -3884,24 +3892,24 @@
       <c r="X8" s="75"/>
     </row>
     <row r="9" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="85" t="s">
+      <c r="A9" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="86"/>
-      <c r="C9" s="86"/>
-      <c r="D9" s="86"/>
-      <c r="E9" s="86"/>
-      <c r="F9" s="86"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="86"/>
-      <c r="I9" s="86"/>
-      <c r="J9" s="86"/>
-      <c r="K9" s="86"/>
-      <c r="L9" s="86"/>
-      <c r="M9" s="86"/>
-      <c r="N9" s="86"/>
-      <c r="O9" s="86"/>
-      <c r="P9" s="86"/>
+      <c r="B9" s="90"/>
+      <c r="C9" s="90"/>
+      <c r="D9" s="90"/>
+      <c r="E9" s="90"/>
+      <c r="F9" s="90"/>
+      <c r="G9" s="90"/>
+      <c r="H9" s="90"/>
+      <c r="I9" s="90"/>
+      <c r="J9" s="90"/>
+      <c r="K9" s="90"/>
+      <c r="L9" s="90"/>
+      <c r="M9" s="90"/>
+      <c r="N9" s="90"/>
+      <c r="O9" s="90"/>
+      <c r="P9" s="90"/>
       <c r="Q9" s="4"/>
       <c r="R9" s="41"/>
       <c r="S9" s="32"/>
@@ -3917,10 +3925,10 @@
         <f>B8+21</f>
         <v>43774</v>
       </c>
-      <c r="C10" s="110">
+      <c r="C10" s="91">
         <v>1</v>
       </c>
-      <c r="D10" s="113" t="s">
+      <c r="D10" s="94" t="s">
         <v>265</v>
       </c>
       <c r="E10" s="26">
@@ -3970,8 +3978,8 @@
         <f t="shared" ref="B11:B16" si="1">B10+7</f>
         <v>43781</v>
       </c>
-      <c r="C11" s="111"/>
-      <c r="D11" s="114"/>
+      <c r="C11" s="92"/>
+      <c r="D11" s="95"/>
       <c r="E11" s="26">
         <v>6</v>
       </c>
@@ -4017,8 +4025,8 @@
         <f t="shared" si="1"/>
         <v>43788</v>
       </c>
-      <c r="C12" s="111"/>
-      <c r="D12" s="114"/>
+      <c r="C12" s="92"/>
+      <c r="D12" s="95"/>
       <c r="E12" s="26">
         <v>6</v>
       </c>
@@ -4063,8 +4071,8 @@
         <f t="shared" si="1"/>
         <v>43795</v>
       </c>
-      <c r="C13" s="111"/>
-      <c r="D13" s="114"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="95"/>
       <c r="E13" s="26">
         <v>7</v>
       </c>
@@ -4112,8 +4120,8 @@
         <f t="shared" si="1"/>
         <v>43802</v>
       </c>
-      <c r="C14" s="111"/>
-      <c r="D14" s="114"/>
+      <c r="C14" s="92"/>
+      <c r="D14" s="95"/>
       <c r="E14" s="26">
         <v>7</v>
       </c>
@@ -4160,8 +4168,8 @@
         <f t="shared" si="1"/>
         <v>43809</v>
       </c>
-      <c r="C15" s="111"/>
-      <c r="D15" s="114"/>
+      <c r="C15" s="92"/>
+      <c r="D15" s="95"/>
       <c r="E15" s="26">
         <v>8</v>
       </c>
@@ -4211,8 +4219,8 @@
         <f t="shared" si="1"/>
         <v>43816</v>
       </c>
-      <c r="C16" s="112"/>
-      <c r="D16" s="115"/>
+      <c r="C16" s="93"/>
+      <c r="D16" s="96"/>
       <c r="E16" s="26">
         <v>8</v>
       </c>
@@ -4253,24 +4261,24 @@
       <c r="X16" s="75"/>
     </row>
     <row r="17" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="85" t="s">
+      <c r="A17" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="86"/>
-      <c r="C17" s="86"/>
-      <c r="D17" s="86"/>
-      <c r="E17" s="86"/>
-      <c r="F17" s="86"/>
-      <c r="G17" s="86"/>
-      <c r="H17" s="86"/>
-      <c r="I17" s="86"/>
-      <c r="J17" s="86"/>
-      <c r="K17" s="86"/>
-      <c r="L17" s="86"/>
-      <c r="M17" s="86"/>
-      <c r="N17" s="86"/>
-      <c r="O17" s="86"/>
-      <c r="P17" s="86"/>
+      <c r="B17" s="90"/>
+      <c r="C17" s="90"/>
+      <c r="D17" s="90"/>
+      <c r="E17" s="90"/>
+      <c r="F17" s="90"/>
+      <c r="G17" s="90"/>
+      <c r="H17" s="90"/>
+      <c r="I17" s="90"/>
+      <c r="J17" s="90"/>
+      <c r="K17" s="90"/>
+      <c r="L17" s="90"/>
+      <c r="M17" s="90"/>
+      <c r="N17" s="90"/>
+      <c r="O17" s="90"/>
+      <c r="P17" s="90"/>
       <c r="Q17" s="4"/>
       <c r="R17" s="41"/>
       <c r="S17" s="32"/>
@@ -4286,10 +4294,10 @@
         <f>B16+21</f>
         <v>43837</v>
       </c>
-      <c r="C18" s="104">
+      <c r="C18" s="83">
         <v>2</v>
       </c>
-      <c r="D18" s="107" t="s">
+      <c r="D18" s="86" t="s">
         <v>186</v>
       </c>
       <c r="E18" s="28">
@@ -4339,8 +4347,8 @@
         <f>B18+7</f>
         <v>43844</v>
       </c>
-      <c r="C19" s="105"/>
-      <c r="D19" s="108"/>
+      <c r="C19" s="84"/>
+      <c r="D19" s="87"/>
       <c r="E19" s="28">
         <v>1</v>
       </c>
@@ -4388,8 +4396,8 @@
         <f t="shared" ref="B20:B40" si="2">B19+7</f>
         <v>43851</v>
       </c>
-      <c r="C20" s="105"/>
-      <c r="D20" s="108"/>
+      <c r="C20" s="84"/>
+      <c r="D20" s="87"/>
       <c r="E20" s="28">
         <v>2</v>
       </c>
@@ -4437,8 +4445,8 @@
         <f>B20+7</f>
         <v>43858</v>
       </c>
-      <c r="C21" s="106"/>
-      <c r="D21" s="109"/>
+      <c r="C21" s="85"/>
+      <c r="D21" s="88"/>
       <c r="E21" s="28">
         <v>2</v>
       </c>
@@ -4486,10 +4494,10 @@
         <f>B21+7</f>
         <v>43865</v>
       </c>
-      <c r="C22" s="90">
+      <c r="C22" s="102">
         <v>3</v>
       </c>
-      <c r="D22" s="87" t="s">
+      <c r="D22" s="99" t="s">
         <v>61</v>
       </c>
       <c r="E22" s="35">
@@ -4539,8 +4547,8 @@
         <f>B22+7</f>
         <v>43872</v>
       </c>
-      <c r="C23" s="91"/>
-      <c r="D23" s="88"/>
+      <c r="C23" s="103"/>
+      <c r="D23" s="100"/>
       <c r="E23" s="35">
         <v>2</v>
       </c>
@@ -4587,8 +4595,8 @@
         <f>B23+7</f>
         <v>43879</v>
       </c>
-      <c r="C24" s="92"/>
-      <c r="D24" s="89"/>
+      <c r="C24" s="104"/>
+      <c r="D24" s="101"/>
       <c r="E24" s="34">
         <v>2</v>
       </c>
@@ -4624,24 +4632,24 @@
       <c r="S24" s="33"/>
     </row>
     <row r="25" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="85" t="s">
+      <c r="A25" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="86"/>
-      <c r="C25" s="86"/>
-      <c r="D25" s="86"/>
-      <c r="E25" s="86"/>
-      <c r="F25" s="86"/>
-      <c r="G25" s="86"/>
-      <c r="H25" s="86"/>
-      <c r="I25" s="86"/>
-      <c r="J25" s="86"/>
-      <c r="K25" s="86"/>
-      <c r="L25" s="86"/>
-      <c r="M25" s="86"/>
-      <c r="N25" s="86"/>
-      <c r="O25" s="86"/>
-      <c r="P25" s="86"/>
+      <c r="B25" s="90"/>
+      <c r="C25" s="90"/>
+      <c r="D25" s="90"/>
+      <c r="E25" s="90"/>
+      <c r="F25" s="90"/>
+      <c r="G25" s="90"/>
+      <c r="H25" s="90"/>
+      <c r="I25" s="90"/>
+      <c r="J25" s="90"/>
+      <c r="K25" s="90"/>
+      <c r="L25" s="90"/>
+      <c r="M25" s="90"/>
+      <c r="N25" s="90"/>
+      <c r="O25" s="90"/>
+      <c r="P25" s="90"/>
       <c r="Q25" s="4"/>
       <c r="R25" s="50"/>
       <c r="S25" s="32"/>
@@ -4657,10 +4665,10 @@
         <f>B24+21</f>
         <v>43900</v>
       </c>
-      <c r="C26" s="90">
+      <c r="C26" s="102">
         <v>3</v>
       </c>
-      <c r="D26" s="87" t="s">
+      <c r="D26" s="99" t="s">
         <v>61</v>
       </c>
       <c r="E26" s="29">
@@ -4710,8 +4718,8 @@
         <f t="shared" si="2"/>
         <v>43907</v>
       </c>
-      <c r="C27" s="91"/>
-      <c r="D27" s="88"/>
+      <c r="C27" s="103"/>
+      <c r="D27" s="100"/>
       <c r="E27" s="35">
         <v>3</v>
       </c>
@@ -4756,8 +4764,8 @@
         <f t="shared" si="2"/>
         <v>43914</v>
       </c>
-      <c r="C28" s="91"/>
-      <c r="D28" s="88"/>
+      <c r="C28" s="103"/>
+      <c r="D28" s="100"/>
       <c r="E28" s="29">
         <v>4</v>
       </c>
@@ -4805,8 +4813,8 @@
         <f t="shared" si="2"/>
         <v>43921</v>
       </c>
-      <c r="C29" s="92"/>
-      <c r="D29" s="89"/>
+      <c r="C29" s="104"/>
+      <c r="D29" s="101"/>
       <c r="E29" s="35">
         <v>4</v>
       </c>
@@ -4852,10 +4860,10 @@
         <f t="shared" si="2"/>
         <v>43928</v>
       </c>
-      <c r="C30" s="93">
+      <c r="C30" s="105">
         <v>4</v>
       </c>
-      <c r="D30" s="95" t="s">
+      <c r="D30" s="107" t="s">
         <v>44</v>
       </c>
       <c r="E30" s="30">
@@ -4907,8 +4915,8 @@
         <f t="shared" si="2"/>
         <v>43935</v>
       </c>
-      <c r="C31" s="94"/>
-      <c r="D31" s="96"/>
+      <c r="C31" s="106"/>
+      <c r="D31" s="108"/>
       <c r="E31" s="30">
         <v>2</v>
       </c>
@@ -4949,24 +4957,24 @@
       <c r="X31" s="75"/>
     </row>
     <row r="32" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="83" t="s">
+      <c r="A32" s="97" t="s">
         <v>14</v>
       </c>
-      <c r="B32" s="84"/>
-      <c r="C32" s="84"/>
-      <c r="D32" s="84"/>
-      <c r="E32" s="84"/>
-      <c r="F32" s="84"/>
-      <c r="G32" s="84"/>
-      <c r="H32" s="84"/>
-      <c r="I32" s="84"/>
-      <c r="J32" s="84"/>
-      <c r="K32" s="84"/>
-      <c r="L32" s="84"/>
-      <c r="M32" s="84"/>
-      <c r="N32" s="84"/>
-      <c r="O32" s="84"/>
-      <c r="P32" s="84"/>
+      <c r="B32" s="98"/>
+      <c r="C32" s="98"/>
+      <c r="D32" s="98"/>
+      <c r="E32" s="98"/>
+      <c r="F32" s="98"/>
+      <c r="G32" s="98"/>
+      <c r="H32" s="98"/>
+      <c r="I32" s="98"/>
+      <c r="J32" s="98"/>
+      <c r="K32" s="98"/>
+      <c r="L32" s="98"/>
+      <c r="M32" s="98"/>
+      <c r="N32" s="98"/>
+      <c r="O32" s="98"/>
+      <c r="P32" s="98"/>
       <c r="Q32" s="47"/>
       <c r="R32" s="51"/>
       <c r="S32" s="32"/>
@@ -4982,10 +4990,10 @@
         <f>B31+21</f>
         <v>43956</v>
       </c>
-      <c r="C33" s="93">
+      <c r="C33" s="105">
         <v>4</v>
       </c>
-      <c r="D33" s="95" t="s">
+      <c r="D33" s="107" t="s">
         <v>44</v>
       </c>
       <c r="E33" s="30">
@@ -5030,8 +5038,8 @@
         <f t="shared" si="2"/>
         <v>43963</v>
       </c>
-      <c r="C34" s="98"/>
-      <c r="D34" s="97"/>
+      <c r="C34" s="110"/>
+      <c r="D34" s="109"/>
       <c r="E34" s="30">
         <v>3</v>
       </c>
@@ -5076,8 +5084,8 @@
         <f t="shared" si="2"/>
         <v>43970</v>
       </c>
-      <c r="C35" s="94"/>
-      <c r="D35" s="96"/>
+      <c r="C35" s="106"/>
+      <c r="D35" s="108"/>
       <c r="E35" s="30">
         <v>4</v>
       </c>
@@ -5121,10 +5129,10 @@
         <f t="shared" si="2"/>
         <v>43977</v>
       </c>
-      <c r="C36" s="101">
+      <c r="C36" s="113">
         <v>5</v>
       </c>
-      <c r="D36" s="99" t="s">
+      <c r="D36" s="111" t="s">
         <v>50</v>
       </c>
       <c r="E36" s="31">
@@ -5164,8 +5172,8 @@
         <f t="shared" si="2"/>
         <v>43984</v>
       </c>
-      <c r="C37" s="102"/>
-      <c r="D37" s="100"/>
+      <c r="C37" s="114"/>
+      <c r="D37" s="112"/>
       <c r="E37" s="31">
         <v>1</v>
       </c>
@@ -5205,8 +5213,8 @@
         <f t="shared" si="2"/>
         <v>43991</v>
       </c>
-      <c r="C38" s="102"/>
-      <c r="D38" s="100"/>
+      <c r="C38" s="114"/>
+      <c r="D38" s="112"/>
       <c r="E38" s="31">
         <v>1</v>
       </c>
@@ -5244,8 +5252,8 @@
         <f t="shared" si="2"/>
         <v>43998</v>
       </c>
-      <c r="C39" s="102"/>
-      <c r="D39" s="100"/>
+      <c r="C39" s="114"/>
+      <c r="D39" s="112"/>
       <c r="E39" s="31">
         <v>1</v>
       </c>
@@ -5283,8 +5291,8 @@
         <f t="shared" si="2"/>
         <v>44005</v>
       </c>
-      <c r="C40" s="103"/>
-      <c r="D40" s="100"/>
+      <c r="C40" s="115"/>
+      <c r="D40" s="112"/>
       <c r="E40" s="31">
         <v>1</v>
       </c>
@@ -5313,24 +5321,24 @@
       <c r="X40" s="75"/>
     </row>
     <row r="41" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="83" t="s">
+      <c r="A41" s="97" t="s">
         <v>15</v>
       </c>
-      <c r="B41" s="84"/>
-      <c r="C41" s="84"/>
-      <c r="D41" s="84"/>
-      <c r="E41" s="84"/>
-      <c r="F41" s="84"/>
-      <c r="G41" s="84"/>
-      <c r="H41" s="84"/>
-      <c r="I41" s="84"/>
-      <c r="J41" s="84"/>
-      <c r="K41" s="84"/>
-      <c r="L41" s="84"/>
-      <c r="M41" s="84"/>
-      <c r="N41" s="84"/>
-      <c r="O41" s="84"/>
-      <c r="P41" s="84"/>
+      <c r="B41" s="98"/>
+      <c r="C41" s="98"/>
+      <c r="D41" s="98"/>
+      <c r="E41" s="98"/>
+      <c r="F41" s="98"/>
+      <c r="G41" s="98"/>
+      <c r="H41" s="98"/>
+      <c r="I41" s="98"/>
+      <c r="J41" s="98"/>
+      <c r="K41" s="98"/>
+      <c r="L41" s="98"/>
+      <c r="M41" s="98"/>
+      <c r="N41" s="98"/>
+      <c r="O41" s="98"/>
+      <c r="P41" s="98"/>
       <c r="Q41" s="47"/>
       <c r="R41" s="51"/>
       <c r="V41" s="70"/>
@@ -5399,14 +5407,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="D18:D21"/>
-    <mergeCell ref="A9:P9"/>
-    <mergeCell ref="A17:P17"/>
-    <mergeCell ref="C2:C8"/>
-    <mergeCell ref="D2:D8"/>
-    <mergeCell ref="D10:D16"/>
-    <mergeCell ref="C10:C16"/>
     <mergeCell ref="A41:P41"/>
     <mergeCell ref="A32:P32"/>
     <mergeCell ref="A25:P25"/>
@@ -5420,6 +5420,14 @@
     <mergeCell ref="C33:C35"/>
     <mergeCell ref="D36:D40"/>
     <mergeCell ref="C36:C40"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="A9:P9"/>
+    <mergeCell ref="A17:P17"/>
+    <mergeCell ref="C2:C8"/>
+    <mergeCell ref="D2:D8"/>
+    <mergeCell ref="D10:D16"/>
+    <mergeCell ref="C10:C16"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5500,10 +5508,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C67"/>
+  <dimension ref="A1:C68"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView topLeftCell="C44" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -6177,6 +6185,17 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A67" s="70" t="s">
+        <v>328</v>
+      </c>
+      <c r="B67" s="71" t="s">
+        <v>329</v>
+      </c>
+      <c r="C67" s="71" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A68" s="70" t="s">
         <v>287</v>
       </c>
     </row>

--- a/progression_2019_2020_IPT_MPSI.xlsx
+++ b/progression_2019_2020_IPT_MPSI.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1960" yWindow="460" windowWidth="30420" windowHeight="14600"/>
+    <workbookView xWindow="1960" yWindow="460" windowWidth="30420" windowHeight="14560"/>
   </bookViews>
   <sheets>
     <sheet name="Semanier MPSI IPT 2019-2020" sheetId="12" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="333">
   <si>
     <t>Cours</t>
   </si>
@@ -1043,6 +1043,15 @@
   </si>
   <si>
     <t>Tracer une fonction</t>
+  </si>
+  <si>
+    <t>plot/PLT-002;plot/PLT-003</t>
+  </si>
+  <si>
+    <t>python_bases/PYB-308;python_bases/PYB-411;algo/ALG-012</t>
+  </si>
+  <si>
+    <t>Expression, variable, fonctions et structures algorithmiques</t>
   </si>
 </sst>
 </file>
@@ -2348,6 +2357,69 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="1" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2366,12 +2438,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2388,63 +2454,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3447,8 +3456,8 @@
   </sheetPr>
   <dimension ref="A1:X53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" topLeftCell="D2" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="26" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3539,10 +3548,10 @@
       <c r="B2" s="9">
         <v>43711</v>
       </c>
-      <c r="C2" s="91">
+      <c r="C2" s="110">
         <v>1</v>
       </c>
-      <c r="D2" s="94" t="s">
+      <c r="D2" s="113" t="s">
         <v>265</v>
       </c>
       <c r="E2" s="26">
@@ -3596,8 +3605,8 @@
         <f>B2+7</f>
         <v>43718</v>
       </c>
-      <c r="C3" s="92"/>
-      <c r="D3" s="95"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="114"/>
       <c r="E3" s="26">
         <v>2</v>
       </c>
@@ -3648,8 +3657,8 @@
         <f>B3+7</f>
         <v>43725</v>
       </c>
-      <c r="C4" s="92"/>
-      <c r="D4" s="95"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="114"/>
       <c r="E4" s="26">
         <v>2</v>
       </c>
@@ -3701,8 +3710,8 @@
         <f t="shared" ref="B5:B8" si="0">B4+7</f>
         <v>43732</v>
       </c>
-      <c r="C5" s="92"/>
-      <c r="D5" s="95"/>
+      <c r="C5" s="111"/>
+      <c r="D5" s="114"/>
       <c r="E5" s="26">
         <v>3</v>
       </c>
@@ -3754,8 +3763,8 @@
         <f>B5+7</f>
         <v>43739</v>
       </c>
-      <c r="C6" s="92"/>
-      <c r="D6" s="95"/>
+      <c r="C6" s="111"/>
+      <c r="D6" s="114"/>
       <c r="E6" s="26">
         <v>4</v>
       </c>
@@ -3772,10 +3781,14 @@
         <v>3</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
+        <v>332</v>
+      </c>
+      <c r="K6" s="82" t="s">
+        <v>330</v>
+      </c>
+      <c r="L6" s="82" t="s">
+        <v>331</v>
+      </c>
       <c r="M6" s="5" t="s">
         <v>328</v>
       </c>
@@ -3803,8 +3816,8 @@
         <f t="shared" si="0"/>
         <v>43746</v>
       </c>
-      <c r="C7" s="92"/>
-      <c r="D7" s="95"/>
+      <c r="C7" s="111"/>
+      <c r="D7" s="114"/>
       <c r="E7" s="26">
         <v>4</v>
       </c>
@@ -3850,8 +3863,8 @@
         <f t="shared" si="0"/>
         <v>43753</v>
       </c>
-      <c r="C8" s="93"/>
-      <c r="D8" s="96"/>
+      <c r="C8" s="112"/>
+      <c r="D8" s="115"/>
       <c r="E8" s="26">
         <v>5</v>
       </c>
@@ -3892,24 +3905,24 @@
       <c r="X8" s="75"/>
     </row>
     <row r="9" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="89" t="s">
+      <c r="A9" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="90"/>
-      <c r="C9" s="90"/>
-      <c r="D9" s="90"/>
-      <c r="E9" s="90"/>
-      <c r="F9" s="90"/>
-      <c r="G9" s="90"/>
-      <c r="H9" s="90"/>
-      <c r="I9" s="90"/>
-      <c r="J9" s="90"/>
-      <c r="K9" s="90"/>
-      <c r="L9" s="90"/>
-      <c r="M9" s="90"/>
-      <c r="N9" s="90"/>
-      <c r="O9" s="90"/>
-      <c r="P9" s="90"/>
+      <c r="B9" s="86"/>
+      <c r="C9" s="86"/>
+      <c r="D9" s="86"/>
+      <c r="E9" s="86"/>
+      <c r="F9" s="86"/>
+      <c r="G9" s="86"/>
+      <c r="H9" s="86"/>
+      <c r="I9" s="86"/>
+      <c r="J9" s="86"/>
+      <c r="K9" s="86"/>
+      <c r="L9" s="86"/>
+      <c r="M9" s="86"/>
+      <c r="N9" s="86"/>
+      <c r="O9" s="86"/>
+      <c r="P9" s="86"/>
       <c r="Q9" s="4"/>
       <c r="R9" s="41"/>
       <c r="S9" s="32"/>
@@ -3925,10 +3938,10 @@
         <f>B8+21</f>
         <v>43774</v>
       </c>
-      <c r="C10" s="91">
+      <c r="C10" s="110">
         <v>1</v>
       </c>
-      <c r="D10" s="94" t="s">
+      <c r="D10" s="113" t="s">
         <v>265</v>
       </c>
       <c r="E10" s="26">
@@ -3978,8 +3991,8 @@
         <f t="shared" ref="B11:B16" si="1">B10+7</f>
         <v>43781</v>
       </c>
-      <c r="C11" s="92"/>
-      <c r="D11" s="95"/>
+      <c r="C11" s="111"/>
+      <c r="D11" s="114"/>
       <c r="E11" s="26">
         <v>6</v>
       </c>
@@ -4025,8 +4038,8 @@
         <f t="shared" si="1"/>
         <v>43788</v>
       </c>
-      <c r="C12" s="92"/>
-      <c r="D12" s="95"/>
+      <c r="C12" s="111"/>
+      <c r="D12" s="114"/>
       <c r="E12" s="26">
         <v>6</v>
       </c>
@@ -4071,8 +4084,8 @@
         <f t="shared" si="1"/>
         <v>43795</v>
       </c>
-      <c r="C13" s="92"/>
-      <c r="D13" s="95"/>
+      <c r="C13" s="111"/>
+      <c r="D13" s="114"/>
       <c r="E13" s="26">
         <v>7</v>
       </c>
@@ -4120,8 +4133,8 @@
         <f t="shared" si="1"/>
         <v>43802</v>
       </c>
-      <c r="C14" s="92"/>
-      <c r="D14" s="95"/>
+      <c r="C14" s="111"/>
+      <c r="D14" s="114"/>
       <c r="E14" s="26">
         <v>7</v>
       </c>
@@ -4168,8 +4181,8 @@
         <f t="shared" si="1"/>
         <v>43809</v>
       </c>
-      <c r="C15" s="92"/>
-      <c r="D15" s="95"/>
+      <c r="C15" s="111"/>
+      <c r="D15" s="114"/>
       <c r="E15" s="26">
         <v>8</v>
       </c>
@@ -4219,8 +4232,8 @@
         <f t="shared" si="1"/>
         <v>43816</v>
       </c>
-      <c r="C16" s="93"/>
-      <c r="D16" s="96"/>
+      <c r="C16" s="112"/>
+      <c r="D16" s="115"/>
       <c r="E16" s="26">
         <v>8</v>
       </c>
@@ -4261,24 +4274,24 @@
       <c r="X16" s="75"/>
     </row>
     <row r="17" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="89" t="s">
+      <c r="A17" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="90"/>
-      <c r="C17" s="90"/>
-      <c r="D17" s="90"/>
-      <c r="E17" s="90"/>
-      <c r="F17" s="90"/>
-      <c r="G17" s="90"/>
-      <c r="H17" s="90"/>
-      <c r="I17" s="90"/>
-      <c r="J17" s="90"/>
-      <c r="K17" s="90"/>
-      <c r="L17" s="90"/>
-      <c r="M17" s="90"/>
-      <c r="N17" s="90"/>
-      <c r="O17" s="90"/>
-      <c r="P17" s="90"/>
+      <c r="B17" s="86"/>
+      <c r="C17" s="86"/>
+      <c r="D17" s="86"/>
+      <c r="E17" s="86"/>
+      <c r="F17" s="86"/>
+      <c r="G17" s="86"/>
+      <c r="H17" s="86"/>
+      <c r="I17" s="86"/>
+      <c r="J17" s="86"/>
+      <c r="K17" s="86"/>
+      <c r="L17" s="86"/>
+      <c r="M17" s="86"/>
+      <c r="N17" s="86"/>
+      <c r="O17" s="86"/>
+      <c r="P17" s="86"/>
       <c r="Q17" s="4"/>
       <c r="R17" s="41"/>
       <c r="S17" s="32"/>
@@ -4294,10 +4307,10 @@
         <f>B16+21</f>
         <v>43837</v>
       </c>
-      <c r="C18" s="83">
+      <c r="C18" s="104">
         <v>2</v>
       </c>
-      <c r="D18" s="86" t="s">
+      <c r="D18" s="107" t="s">
         <v>186</v>
       </c>
       <c r="E18" s="28">
@@ -4347,8 +4360,8 @@
         <f>B18+7</f>
         <v>43844</v>
       </c>
-      <c r="C19" s="84"/>
-      <c r="D19" s="87"/>
+      <c r="C19" s="105"/>
+      <c r="D19" s="108"/>
       <c r="E19" s="28">
         <v>1</v>
       </c>
@@ -4396,8 +4409,8 @@
         <f t="shared" ref="B20:B40" si="2">B19+7</f>
         <v>43851</v>
       </c>
-      <c r="C20" s="84"/>
-      <c r="D20" s="87"/>
+      <c r="C20" s="105"/>
+      <c r="D20" s="108"/>
       <c r="E20" s="28">
         <v>2</v>
       </c>
@@ -4445,8 +4458,8 @@
         <f>B20+7</f>
         <v>43858</v>
       </c>
-      <c r="C21" s="85"/>
-      <c r="D21" s="88"/>
+      <c r="C21" s="106"/>
+      <c r="D21" s="109"/>
       <c r="E21" s="28">
         <v>2</v>
       </c>
@@ -4494,10 +4507,10 @@
         <f>B21+7</f>
         <v>43865</v>
       </c>
-      <c r="C22" s="102">
+      <c r="C22" s="90">
         <v>3</v>
       </c>
-      <c r="D22" s="99" t="s">
+      <c r="D22" s="87" t="s">
         <v>61</v>
       </c>
       <c r="E22" s="35">
@@ -4547,8 +4560,8 @@
         <f>B22+7</f>
         <v>43872</v>
       </c>
-      <c r="C23" s="103"/>
-      <c r="D23" s="100"/>
+      <c r="C23" s="91"/>
+      <c r="D23" s="88"/>
       <c r="E23" s="35">
         <v>2</v>
       </c>
@@ -4595,8 +4608,8 @@
         <f>B23+7</f>
         <v>43879</v>
       </c>
-      <c r="C24" s="104"/>
-      <c r="D24" s="101"/>
+      <c r="C24" s="92"/>
+      <c r="D24" s="89"/>
       <c r="E24" s="34">
         <v>2</v>
       </c>
@@ -4632,24 +4645,24 @@
       <c r="S24" s="33"/>
     </row>
     <row r="25" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="89" t="s">
+      <c r="A25" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="90"/>
-      <c r="C25" s="90"/>
-      <c r="D25" s="90"/>
-      <c r="E25" s="90"/>
-      <c r="F25" s="90"/>
-      <c r="G25" s="90"/>
-      <c r="H25" s="90"/>
-      <c r="I25" s="90"/>
-      <c r="J25" s="90"/>
-      <c r="K25" s="90"/>
-      <c r="L25" s="90"/>
-      <c r="M25" s="90"/>
-      <c r="N25" s="90"/>
-      <c r="O25" s="90"/>
-      <c r="P25" s="90"/>
+      <c r="B25" s="86"/>
+      <c r="C25" s="86"/>
+      <c r="D25" s="86"/>
+      <c r="E25" s="86"/>
+      <c r="F25" s="86"/>
+      <c r="G25" s="86"/>
+      <c r="H25" s="86"/>
+      <c r="I25" s="86"/>
+      <c r="J25" s="86"/>
+      <c r="K25" s="86"/>
+      <c r="L25" s="86"/>
+      <c r="M25" s="86"/>
+      <c r="N25" s="86"/>
+      <c r="O25" s="86"/>
+      <c r="P25" s="86"/>
       <c r="Q25" s="4"/>
       <c r="R25" s="50"/>
       <c r="S25" s="32"/>
@@ -4665,10 +4678,10 @@
         <f>B24+21</f>
         <v>43900</v>
       </c>
-      <c r="C26" s="102">
+      <c r="C26" s="90">
         <v>3</v>
       </c>
-      <c r="D26" s="99" t="s">
+      <c r="D26" s="87" t="s">
         <v>61</v>
       </c>
       <c r="E26" s="29">
@@ -4718,8 +4731,8 @@
         <f t="shared" si="2"/>
         <v>43907</v>
       </c>
-      <c r="C27" s="103"/>
-      <c r="D27" s="100"/>
+      <c r="C27" s="91"/>
+      <c r="D27" s="88"/>
       <c r="E27" s="35">
         <v>3</v>
       </c>
@@ -4764,8 +4777,8 @@
         <f t="shared" si="2"/>
         <v>43914</v>
       </c>
-      <c r="C28" s="103"/>
-      <c r="D28" s="100"/>
+      <c r="C28" s="91"/>
+      <c r="D28" s="88"/>
       <c r="E28" s="29">
         <v>4</v>
       </c>
@@ -4813,8 +4826,8 @@
         <f t="shared" si="2"/>
         <v>43921</v>
       </c>
-      <c r="C29" s="104"/>
-      <c r="D29" s="101"/>
+      <c r="C29" s="92"/>
+      <c r="D29" s="89"/>
       <c r="E29" s="35">
         <v>4</v>
       </c>
@@ -4860,10 +4873,10 @@
         <f t="shared" si="2"/>
         <v>43928</v>
       </c>
-      <c r="C30" s="105">
+      <c r="C30" s="93">
         <v>4</v>
       </c>
-      <c r="D30" s="107" t="s">
+      <c r="D30" s="95" t="s">
         <v>44</v>
       </c>
       <c r="E30" s="30">
@@ -4915,8 +4928,8 @@
         <f t="shared" si="2"/>
         <v>43935</v>
       </c>
-      <c r="C31" s="106"/>
-      <c r="D31" s="108"/>
+      <c r="C31" s="94"/>
+      <c r="D31" s="96"/>
       <c r="E31" s="30">
         <v>2</v>
       </c>
@@ -4957,24 +4970,24 @@
       <c r="X31" s="75"/>
     </row>
     <row r="32" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="97" t="s">
+      <c r="A32" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="B32" s="98"/>
-      <c r="C32" s="98"/>
-      <c r="D32" s="98"/>
-      <c r="E32" s="98"/>
-      <c r="F32" s="98"/>
-      <c r="G32" s="98"/>
-      <c r="H32" s="98"/>
-      <c r="I32" s="98"/>
-      <c r="J32" s="98"/>
-      <c r="K32" s="98"/>
-      <c r="L32" s="98"/>
-      <c r="M32" s="98"/>
-      <c r="N32" s="98"/>
-      <c r="O32" s="98"/>
-      <c r="P32" s="98"/>
+      <c r="B32" s="84"/>
+      <c r="C32" s="84"/>
+      <c r="D32" s="84"/>
+      <c r="E32" s="84"/>
+      <c r="F32" s="84"/>
+      <c r="G32" s="84"/>
+      <c r="H32" s="84"/>
+      <c r="I32" s="84"/>
+      <c r="J32" s="84"/>
+      <c r="K32" s="84"/>
+      <c r="L32" s="84"/>
+      <c r="M32" s="84"/>
+      <c r="N32" s="84"/>
+      <c r="O32" s="84"/>
+      <c r="P32" s="84"/>
       <c r="Q32" s="47"/>
       <c r="R32" s="51"/>
       <c r="S32" s="32"/>
@@ -4990,10 +5003,10 @@
         <f>B31+21</f>
         <v>43956</v>
       </c>
-      <c r="C33" s="105">
+      <c r="C33" s="93">
         <v>4</v>
       </c>
-      <c r="D33" s="107" t="s">
+      <c r="D33" s="95" t="s">
         <v>44</v>
       </c>
       <c r="E33" s="30">
@@ -5038,8 +5051,8 @@
         <f t="shared" si="2"/>
         <v>43963</v>
       </c>
-      <c r="C34" s="110"/>
-      <c r="D34" s="109"/>
+      <c r="C34" s="98"/>
+      <c r="D34" s="97"/>
       <c r="E34" s="30">
         <v>3</v>
       </c>
@@ -5084,8 +5097,8 @@
         <f t="shared" si="2"/>
         <v>43970</v>
       </c>
-      <c r="C35" s="106"/>
-      <c r="D35" s="108"/>
+      <c r="C35" s="94"/>
+      <c r="D35" s="96"/>
       <c r="E35" s="30">
         <v>4</v>
       </c>
@@ -5129,10 +5142,10 @@
         <f t="shared" si="2"/>
         <v>43977</v>
       </c>
-      <c r="C36" s="113">
+      <c r="C36" s="101">
         <v>5</v>
       </c>
-      <c r="D36" s="111" t="s">
+      <c r="D36" s="99" t="s">
         <v>50</v>
       </c>
       <c r="E36" s="31">
@@ -5172,8 +5185,8 @@
         <f t="shared" si="2"/>
         <v>43984</v>
       </c>
-      <c r="C37" s="114"/>
-      <c r="D37" s="112"/>
+      <c r="C37" s="102"/>
+      <c r="D37" s="100"/>
       <c r="E37" s="31">
         <v>1</v>
       </c>
@@ -5213,8 +5226,8 @@
         <f t="shared" si="2"/>
         <v>43991</v>
       </c>
-      <c r="C38" s="114"/>
-      <c r="D38" s="112"/>
+      <c r="C38" s="102"/>
+      <c r="D38" s="100"/>
       <c r="E38" s="31">
         <v>1</v>
       </c>
@@ -5252,8 +5265,8 @@
         <f t="shared" si="2"/>
         <v>43998</v>
       </c>
-      <c r="C39" s="114"/>
-      <c r="D39" s="112"/>
+      <c r="C39" s="102"/>
+      <c r="D39" s="100"/>
       <c r="E39" s="31">
         <v>1</v>
       </c>
@@ -5291,8 +5304,8 @@
         <f t="shared" si="2"/>
         <v>44005</v>
       </c>
-      <c r="C40" s="115"/>
-      <c r="D40" s="112"/>
+      <c r="C40" s="103"/>
+      <c r="D40" s="100"/>
       <c r="E40" s="31">
         <v>1</v>
       </c>
@@ -5321,24 +5334,24 @@
       <c r="X40" s="75"/>
     </row>
     <row r="41" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="97" t="s">
+      <c r="A41" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="B41" s="98"/>
-      <c r="C41" s="98"/>
-      <c r="D41" s="98"/>
-      <c r="E41" s="98"/>
-      <c r="F41" s="98"/>
-      <c r="G41" s="98"/>
-      <c r="H41" s="98"/>
-      <c r="I41" s="98"/>
-      <c r="J41" s="98"/>
-      <c r="K41" s="98"/>
-      <c r="L41" s="98"/>
-      <c r="M41" s="98"/>
-      <c r="N41" s="98"/>
-      <c r="O41" s="98"/>
-      <c r="P41" s="98"/>
+      <c r="B41" s="84"/>
+      <c r="C41" s="84"/>
+      <c r="D41" s="84"/>
+      <c r="E41" s="84"/>
+      <c r="F41" s="84"/>
+      <c r="G41" s="84"/>
+      <c r="H41" s="84"/>
+      <c r="I41" s="84"/>
+      <c r="J41" s="84"/>
+      <c r="K41" s="84"/>
+      <c r="L41" s="84"/>
+      <c r="M41" s="84"/>
+      <c r="N41" s="84"/>
+      <c r="O41" s="84"/>
+      <c r="P41" s="84"/>
       <c r="Q41" s="47"/>
       <c r="R41" s="51"/>
       <c r="V41" s="70"/>
@@ -5407,6 +5420,14 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="A9:P9"/>
+    <mergeCell ref="A17:P17"/>
+    <mergeCell ref="C2:C8"/>
+    <mergeCell ref="D2:D8"/>
+    <mergeCell ref="D10:D16"/>
+    <mergeCell ref="C10:C16"/>
     <mergeCell ref="A41:P41"/>
     <mergeCell ref="A32:P32"/>
     <mergeCell ref="A25:P25"/>
@@ -5420,14 +5441,6 @@
     <mergeCell ref="C33:C35"/>
     <mergeCell ref="D36:D40"/>
     <mergeCell ref="C36:C40"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="D18:D21"/>
-    <mergeCell ref="A9:P9"/>
-    <mergeCell ref="A17:P17"/>
-    <mergeCell ref="C2:C8"/>
-    <mergeCell ref="D2:D8"/>
-    <mergeCell ref="D10:D16"/>
-    <mergeCell ref="C10:C16"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/progression_2019_2020_IPT_MPSI.xlsx
+++ b/progression_2019_2020_IPT_MPSI.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1960" yWindow="460" windowWidth="30420" windowHeight="14560"/>
+    <workbookView xWindow="-35180" yWindow="680" windowWidth="25600" windowHeight="14520"/>
   </bookViews>
   <sheets>
     <sheet name="Semanier MPSI IPT 2019-2020" sheetId="12" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="332">
   <si>
     <t>Cours</t>
   </si>
@@ -619,9 +619,6 @@
     <t>Expressions, types et variables en Python</t>
   </si>
   <si>
-    <t>AA.C1</t>
-  </si>
-  <si>
     <t>AA.C2</t>
   </si>
   <si>
@@ -676,9 +673,6 @@
     <t>AA.C12</t>
   </si>
   <si>
-    <t>AA.S1</t>
-  </si>
-  <si>
     <t>AA.S2</t>
   </si>
   <si>
@@ -862,18 +856,12 @@
     <t>BDD.C3; BDD.S4</t>
   </si>
   <si>
-    <t>SN.C1; SN.C2; SN.C3; SN.C4; SN.C5; SN.S1; SN.S3</t>
-  </si>
-  <si>
     <t>SN.C1; SN.C2; SN.C3; SN.C4; SN.C5; SN.S1; SN.S2</t>
   </si>
   <si>
     <t>SN.C1; SN.C2; SN.C3; SN.C4; SN.C5; SN.S1; SN.S4</t>
   </si>
   <si>
-    <t>AA.C1; AA.S1; AA.S3; AA.S3</t>
-  </si>
-  <si>
     <t>AA.C2: AA.C3; AA.S4; AA.S5</t>
   </si>
   <si>
@@ -904,9 +892,6 @@
     <t>Compétences TP</t>
   </si>
   <si>
-    <t>AA.C1; AA.S1; AA.S2; AA.S3</t>
-  </si>
-  <si>
     <t>Image entête</t>
   </si>
   <si>
@@ -917,9 +902,6 @@
   </si>
   <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>AA.C4; AA.C5; AA.C6; AA.C7; AA.C9; AA.S6; AA.S7; AA.S10</t>
   </si>
   <si>
     <t>python_bases/PYB-000;python_bases/PYB-002;python_bases/PYB-003;python_bases/PYB-004</t>
@@ -1048,10 +1030,25 @@
     <t>plot/PLT-002;plot/PLT-003</t>
   </si>
   <si>
-    <t>python_bases/PYB-308;python_bases/PYB-411;algo/ALG-012</t>
-  </si>
-  <si>
     <t>Expression, variable, fonctions et structures algorithmiques</t>
+  </si>
+  <si>
+    <t>consignes/consignes_TP3;python_bases/PYB-308;python_bases/PYB-411;algo/ALG-012</t>
+  </si>
+  <si>
+    <t>AA.C4; AA.C5; AA.C6; AA.C8; AA.C9; AA.S7; AA.S8; AA.S9;AA.S10</t>
+  </si>
+  <si>
+    <t>AA.S01</t>
+  </si>
+  <si>
+    <t>AA.C01; AA.S01; AA.S2; AA.S3</t>
+  </si>
+  <si>
+    <t>AA.C01; AA.S01; AA.S3; AA.S3</t>
+  </si>
+  <si>
+    <t>AA.C01</t>
   </si>
 </sst>
 </file>
@@ -2123,7 +2120,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2482,6 +2479,12 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="654">
@@ -3456,8 +3459,8 @@
   </sheetPr>
   <dimension ref="A1:X53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D2" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="G17" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="26" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3520,10 +3523,10 @@
         <v>58</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="O1" s="4" t="s">
         <v>13</v>
@@ -3532,7 +3535,7 @@
         <v>22</v>
       </c>
       <c r="Q1" s="41" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="R1" s="4" t="s">
         <v>64</v>
@@ -3552,7 +3555,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="113" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E2" s="26">
         <v>1</v>
@@ -3574,13 +3577,13 @@
       </c>
       <c r="K2" s="5"/>
       <c r="L2" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="M2" s="73" t="s">
-        <v>284</v>
-      </c>
-      <c r="N2" s="73" t="s">
-        <v>284</v>
+        <v>281</v>
+      </c>
+      <c r="M2" s="125" t="s">
+        <v>329</v>
+      </c>
+      <c r="N2" s="125" t="s">
+        <v>329</v>
       </c>
       <c r="O2" s="3"/>
       <c r="P2" s="42"/>
@@ -3591,7 +3594,7 @@
         <v>65</v>
       </c>
       <c r="S2" s="33" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="V2" s="70"/>
       <c r="W2" s="75"/>
@@ -3626,13 +3629,13 @@
         <v>27</v>
       </c>
       <c r="K3" s="82" t="s">
-        <v>290</v>
-      </c>
-      <c r="M3" s="73" t="s">
-        <v>289</v>
-      </c>
-      <c r="N3" s="73" t="s">
         <v>284</v>
+      </c>
+      <c r="M3" s="125" t="s">
+        <v>329</v>
+      </c>
+      <c r="N3" s="125" t="s">
+        <v>329</v>
       </c>
       <c r="O3" s="3"/>
       <c r="P3" s="42"/>
@@ -3643,7 +3646,7 @@
         <v>65</v>
       </c>
       <c r="S3" s="33" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="V3" s="70"/>
       <c r="W3" s="75"/>
@@ -3679,13 +3682,13 @@
       </c>
       <c r="K4" s="5"/>
       <c r="L4" s="5" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="M4" s="73" t="s">
-        <v>281</v>
-      </c>
-      <c r="N4" s="73" t="s">
-        <v>273</v>
+        <v>277</v>
+      </c>
+      <c r="N4" s="125" t="s">
+        <v>329</v>
       </c>
       <c r="O4" s="3"/>
       <c r="P4" s="42"/>
@@ -3696,7 +3699,7 @@
         <v>65</v>
       </c>
       <c r="S4" s="33" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="V4" s="70"/>
       <c r="W4" s="75"/>
@@ -3731,14 +3734,14 @@
         <v>34</v>
       </c>
       <c r="K5" s="82" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="L5" s="5"/>
       <c r="M5" s="73" t="s">
-        <v>278</v>
-      </c>
-      <c r="N5" s="73" t="s">
-        <v>273</v>
+        <v>274</v>
+      </c>
+      <c r="N5" s="125" t="s">
+        <v>330</v>
       </c>
       <c r="O5" s="3"/>
       <c r="P5" s="42"/>
@@ -3749,7 +3752,7 @@
         <v>65</v>
       </c>
       <c r="S5" s="33" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="V5" s="70"/>
       <c r="W5" s="75"/>
@@ -3781,19 +3784,19 @@
         <v>3</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="K6" s="82" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="L6" s="82" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="N6" s="73" t="s">
-        <v>281</v>
+        <v>322</v>
+      </c>
+      <c r="N6" s="125" t="s">
+        <v>327</v>
       </c>
       <c r="O6" s="3"/>
       <c r="P6" s="42"/>
@@ -3839,8 +3842,8 @@
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
-      <c r="N7" s="73" t="s">
-        <v>281</v>
+      <c r="N7" s="125" t="s">
+        <v>327</v>
       </c>
       <c r="O7" s="4"/>
       <c r="P7" s="36"/>
@@ -3884,10 +3887,10 @@
         <v>28</v>
       </c>
       <c r="M8" s="78" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="N8" s="73" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="O8" s="4"/>
       <c r="P8" s="36" t="s">
@@ -3942,7 +3945,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="113" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E10" s="26">
         <v>5</v>
@@ -3965,10 +3968,10 @@
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
       <c r="M10" s="78" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="N10" s="73" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="O10" s="3"/>
       <c r="P10" s="42"/>
@@ -4014,7 +4017,7 @@
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
       <c r="M11" s="78" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="N11" s="5"/>
       <c r="O11" s="3"/>
@@ -4061,7 +4064,7 @@
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
       <c r="M12" s="78" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="N12" s="5"/>
       <c r="O12" s="3"/>
@@ -4107,10 +4110,10 @@
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
       <c r="M13" s="78" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="N13" s="78" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="O13" s="3"/>
       <c r="P13" s="42"/>
@@ -4156,10 +4159,10 @@
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
       <c r="M14" s="78" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="N14" s="78" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="O14" s="3"/>
       <c r="P14" s="42"/>
@@ -4204,10 +4207,10 @@
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
       <c r="M15" s="73" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="N15" s="78" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="O15" s="4" t="s">
         <v>53</v>
@@ -4255,10 +4258,10 @@
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
       <c r="M16" s="73" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="N16" s="78" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="O16" s="3"/>
       <c r="P16" s="36"/>
@@ -4333,11 +4336,11 @@
       </c>
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
-      <c r="M18" s="73" t="s">
-        <v>276</v>
-      </c>
-      <c r="N18" s="73" t="s">
-        <v>276</v>
+      <c r="M18" s="126" t="s">
+        <v>272</v>
+      </c>
+      <c r="N18" s="126" t="s">
+        <v>272</v>
       </c>
       <c r="O18" s="27"/>
       <c r="P18" s="43"/>
@@ -4382,11 +4385,11 @@
       </c>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
-      <c r="M19" s="73" t="s">
-        <v>276</v>
-      </c>
-      <c r="N19" s="73" t="s">
-        <v>276</v>
+      <c r="M19" s="126" t="s">
+        <v>272</v>
+      </c>
+      <c r="N19" s="126" t="s">
+        <v>272</v>
       </c>
       <c r="O19" s="27"/>
       <c r="P19" s="43"/>
@@ -4432,10 +4435,10 @@
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
       <c r="M20" s="73" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="N20" s="73" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="O20" s="3"/>
       <c r="P20" s="42"/>
@@ -4481,10 +4484,10 @@
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
       <c r="M21" s="73" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="N21" s="73" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="O21" s="3"/>
       <c r="P21" s="42"/>
@@ -4533,11 +4536,11 @@
       </c>
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
-      <c r="M22" s="73" t="s">
-        <v>275</v>
-      </c>
-      <c r="N22" s="73" t="s">
-        <v>275</v>
+      <c r="M22" s="125" t="s">
+        <v>271</v>
+      </c>
+      <c r="N22" s="125" t="s">
+        <v>271</v>
       </c>
       <c r="O22" s="3"/>
       <c r="P22" s="42"/>
@@ -4582,11 +4585,11 @@
       </c>
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
-      <c r="M23" s="73" t="s">
-        <v>270</v>
-      </c>
-      <c r="N23" s="73" t="s">
-        <v>275</v>
+      <c r="M23" s="125" t="s">
+        <v>271</v>
+      </c>
+      <c r="N23" s="125" t="s">
+        <v>271</v>
       </c>
       <c r="O23" s="4" t="s">
         <v>16</v>
@@ -4630,11 +4633,11 @@
       </c>
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
-      <c r="M24" s="73" t="s">
-        <v>270</v>
-      </c>
-      <c r="N24" s="73" t="s">
-        <v>270</v>
+      <c r="M24" s="125" t="s">
+        <v>271</v>
+      </c>
+      <c r="N24" s="125" t="s">
+        <v>271</v>
       </c>
       <c r="O24" s="27"/>
       <c r="P24" s="42"/>
@@ -4704,11 +4707,11 @@
       </c>
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
-      <c r="M26" s="73" t="s">
-        <v>271</v>
-      </c>
-      <c r="N26" s="73" t="s">
-        <v>271</v>
+      <c r="M26" s="125" t="s">
+        <v>268</v>
+      </c>
+      <c r="N26" s="125" t="s">
+        <v>268</v>
       </c>
       <c r="O26" s="27"/>
       <c r="P26" s="42"/>
@@ -4753,11 +4756,11 @@
       </c>
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
-      <c r="M27" s="77" t="s">
-        <v>271</v>
-      </c>
-      <c r="N27" s="73" t="s">
-        <v>271</v>
+      <c r="M27" s="125" t="s">
+        <v>268</v>
+      </c>
+      <c r="N27" s="125" t="s">
+        <v>268</v>
       </c>
       <c r="P27" s="36"/>
       <c r="Q27" s="4"/>
@@ -4799,11 +4802,11 @@
       </c>
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
-      <c r="M28" s="73" t="s">
-        <v>272</v>
-      </c>
-      <c r="N28" s="73" t="s">
-        <v>271</v>
+      <c r="M28" s="125" t="s">
+        <v>268</v>
+      </c>
+      <c r="N28" s="125" t="s">
+        <v>268</v>
       </c>
       <c r="O28" s="4"/>
       <c r="P28" s="36"/>
@@ -4848,11 +4851,11 @@
       </c>
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
-      <c r="M29" s="73" t="s">
-        <v>272</v>
-      </c>
-      <c r="N29" s="73" t="s">
-        <v>272</v>
+      <c r="M29" s="125" t="s">
+        <v>268</v>
+      </c>
+      <c r="N29" s="125" t="s">
+        <v>268</v>
       </c>
       <c r="O29" s="3"/>
       <c r="P29" s="42"/>
@@ -4900,10 +4903,10 @@
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
       <c r="M30" s="73" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="N30" s="73" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="O30" s="4" t="s">
         <v>54</v>
@@ -4951,10 +4954,10 @@
       <c r="K31" s="39"/>
       <c r="L31" s="39"/>
       <c r="M31" s="73" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="N31" s="73" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="O31" s="27"/>
       <c r="P31" s="43"/>
@@ -5030,10 +5033,10 @@
       <c r="K33" s="38"/>
       <c r="L33" s="38"/>
       <c r="M33" s="73" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="N33" s="73" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="O33" s="6"/>
       <c r="P33" s="44"/>
@@ -5074,10 +5077,10 @@
       <c r="K34" s="39"/>
       <c r="L34" s="39"/>
       <c r="M34" s="76" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="N34" s="76" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="O34" s="4"/>
       <c r="P34" s="44"/>
@@ -5120,10 +5123,10 @@
       <c r="K35" s="39"/>
       <c r="L35" s="39"/>
       <c r="M35" s="77" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="N35" s="77" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="P35" s="36"/>
       <c r="Q35" s="78" t="s">
@@ -5477,7 +5480,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="38" customHeight="1" x14ac:dyDescent="0.15">
@@ -5509,7 +5512,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -5523,8 +5526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C68"/>
   <sheetViews>
-    <sheetView topLeftCell="C44" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="E67" sqref="E67"/>
+    <sheetView topLeftCell="A12" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -5537,62 +5540,62 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="70" t="s">
+        <v>243</v>
+      </c>
+      <c r="B1" s="71" t="s">
+        <v>244</v>
+      </c>
+      <c r="C1" s="71" t="s">
         <v>245</v>
-      </c>
-      <c r="B1" s="71" t="s">
-        <v>246</v>
-      </c>
-      <c r="C1" s="71" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="70" t="s">
-        <v>189</v>
+        <v>331</v>
       </c>
       <c r="B2" s="71" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="C2" s="71" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="24" x14ac:dyDescent="0.15">
       <c r="A3" s="70" t="s">
-        <v>208</v>
+        <v>328</v>
       </c>
       <c r="B3" s="71" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="C3" s="71" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" x14ac:dyDescent="0.15">
       <c r="A4" s="70" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B4" s="71" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="C4" s="71" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="70" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B5" s="71" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="C5" s="71" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="70" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B7" s="71" t="s">
         <v>86</v>
@@ -5603,7 +5606,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="70" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B8" s="71" t="s">
         <v>88</v>
@@ -5614,7 +5617,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="70" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B9" s="71" t="s">
         <v>90</v>
@@ -5625,7 +5628,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="70" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B10" s="71" t="s">
         <v>92</v>
@@ -5636,28 +5639,28 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="70" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="70" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="70" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B13" s="71" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C13" s="71" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="70" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B14" s="71" t="s">
         <v>98</v>
@@ -5668,7 +5671,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="70" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B15" s="71" t="s">
         <v>100</v>
@@ -5679,18 +5682,18 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="70" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B16" s="71" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="C16" s="71" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="70" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B17" s="71" t="s">
         <v>104</v>
@@ -5701,40 +5704,40 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="70" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B18" s="71" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="C18" s="71" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="70" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B19" s="71" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="C19" s="71" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="70" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B20" s="71" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="C20" s="71" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="70" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B21" s="71" t="s">
         <v>111</v>
@@ -5745,72 +5748,72 @@
     </row>
     <row r="22" spans="1:3" ht="24" x14ac:dyDescent="0.15">
       <c r="A22" s="70" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B22" s="71" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="C22" s="71" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="70" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B23" s="71" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="C23" s="71" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" s="70" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B24" s="71" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="C24" s="71" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" s="70" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" s="70" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" s="79" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B27" s="80" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="C27" s="80" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" s="79" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B28" s="80" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="C28" s="80" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" s="79" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B29" s="80" t="s">
         <v>121</v>
@@ -5821,29 +5824,29 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" s="79" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B30" s="80" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C30" s="80" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" s="79" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B31" s="80" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="C31" s="80" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" s="79" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B32" s="80" t="s">
         <v>127</v>
@@ -5854,76 +5857,76 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" s="70" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B33" s="71" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="C33" s="71" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" s="70" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B34" s="71" t="s">
         <v>130</v>
       </c>
       <c r="C34" s="71" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" s="70" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B35" s="71" t="s">
         <v>132</v>
       </c>
       <c r="C35" s="71" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" s="70" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B36" s="71" t="s">
         <v>134</v>
       </c>
       <c r="C36" s="71" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" s="70" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B37" s="71" t="s">
         <v>136</v>
       </c>
       <c r="C37" s="71" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="24" x14ac:dyDescent="0.15">
       <c r="A38" s="70" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B38" s="71" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="C38" s="71" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" s="70" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B39" s="71" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="C39" s="71" t="s">
         <v>32</v>
@@ -5931,137 +5934,137 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" s="70" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" s="70" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="24" x14ac:dyDescent="0.15">
       <c r="A42" s="70" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B42" s="71" t="s">
         <v>144</v>
       </c>
       <c r="C42" s="71" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="24" x14ac:dyDescent="0.15">
       <c r="A43" s="70" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B43" s="71" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="C43" s="71" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="24" x14ac:dyDescent="0.15">
       <c r="A44" s="70" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B44" s="71" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="C44" s="71" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" s="70" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B45" s="71" t="s">
         <v>150</v>
       </c>
       <c r="C45" s="71" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46" s="70" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B46" s="71" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="C46" s="71" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47" s="70" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B47" s="71" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="C47" s="71" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="24" x14ac:dyDescent="0.15">
       <c r="A48" s="70" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B48" s="71" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="C48" s="71" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A49" s="70" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B49" s="71" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="C49" s="71" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="24" x14ac:dyDescent="0.15">
       <c r="A50" s="70" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B50" s="71" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="C50" s="71" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A51" s="70" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A52" s="70" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A53" s="70" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B53" s="71" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="C53" s="71" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A54" s="70" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B54" s="71" t="s">
         <v>165</v>
@@ -6072,7 +6075,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A55" s="70" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B55" s="71" t="s">
         <v>167</v>
@@ -6083,18 +6086,18 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A56" s="70" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B56" s="71" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="C56" s="71" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A57" s="70" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B57" s="71" t="s">
         <v>171</v>
@@ -6105,7 +6108,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A58" s="70" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B58" s="71" t="s">
         <v>172</v>
@@ -6116,45 +6119,45 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A59" s="70" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B59" s="71" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C59" s="71" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="24" x14ac:dyDescent="0.15">
       <c r="A60" s="70" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B60" s="71" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C60" s="71" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A61" s="70" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B61" s="71" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="C61" s="71" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A62" s="70" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A63" s="70" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B63" s="71" t="s">
         <v>180</v>
@@ -6165,7 +6168,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A64" s="70" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B64" s="71" t="s">
         <v>182</v>
@@ -6176,40 +6179,40 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A65" s="70" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B65" s="71" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="C65" s="71" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="36" x14ac:dyDescent="0.15">
       <c r="A66" s="70" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="B66" s="71" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="C66" s="71" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A67" s="70" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="B67" s="71" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="C67" s="71" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A68" s="70" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>

--- a/progression_2019_2020_IPT_MPSI.xlsx
+++ b/progression_2019_2020_IPT_MPSI.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-35180" yWindow="680" windowWidth="25600" windowHeight="14520"/>
+    <workbookView xWindow="-200" yWindow="1380" windowWidth="30420" windowHeight="14520"/>
   </bookViews>
   <sheets>
     <sheet name="Semanier MPSI IPT 2019-2020" sheetId="12" r:id="rId1"/>
@@ -1033,12 +1033,6 @@
     <t>Expression, variable, fonctions et structures algorithmiques</t>
   </si>
   <si>
-    <t>consignes/consignes_TP3;python_bases/PYB-308;python_bases/PYB-411;algo/ALG-012</t>
-  </si>
-  <si>
-    <t>AA.C4; AA.C5; AA.C6; AA.C8; AA.C9; AA.S7; AA.S8; AA.S9;AA.S10</t>
-  </si>
-  <si>
     <t>AA.S01</t>
   </si>
   <si>
@@ -1049,6 +1043,12 @@
   </si>
   <si>
     <t>AA.C01</t>
+  </si>
+  <si>
+    <t>AA.C4; AA.C5; AA.C6; AA.C8; AA.S8; AA.S9;AA.S10</t>
+  </si>
+  <si>
+    <t>consignes/consignes_TP3;python_bases/PYB-308;python_bases/PYB-411;algo/ALG-012;F:python_bases/PYB-409;F:python_bases/PYB-500</t>
   </si>
 </sst>
 </file>
@@ -3459,8 +3459,8 @@
   </sheetPr>
   <dimension ref="A1:X53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G17" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="N29" sqref="N29"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="26" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3580,10 +3580,10 @@
         <v>281</v>
       </c>
       <c r="M2" s="125" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="N2" s="125" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="O2" s="3"/>
       <c r="P2" s="42"/>
@@ -3632,10 +3632,10 @@
         <v>284</v>
       </c>
       <c r="M3" s="125" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="N3" s="125" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="O3" s="3"/>
       <c r="P3" s="42"/>
@@ -3688,7 +3688,7 @@
         <v>277</v>
       </c>
       <c r="N4" s="125" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="O4" s="3"/>
       <c r="P4" s="42"/>
@@ -3741,7 +3741,7 @@
         <v>274</v>
       </c>
       <c r="N5" s="125" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="O5" s="3"/>
       <c r="P5" s="42"/>
@@ -3790,13 +3790,13 @@
         <v>324</v>
       </c>
       <c r="L6" s="82" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="M6" s="5" t="s">
         <v>322</v>
       </c>
       <c r="N6" s="125" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="O6" s="3"/>
       <c r="P6" s="42"/>
@@ -3843,7 +3843,7 @@
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
       <c r="N7" s="125" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="O7" s="4"/>
       <c r="P7" s="36"/>
@@ -5551,7 +5551,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="70" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B2" s="71" t="s">
         <v>285</v>
@@ -5562,7 +5562,7 @@
     </row>
     <row r="3" spans="1:3" ht="24" x14ac:dyDescent="0.15">
       <c r="A3" s="70" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B3" s="71" t="s">
         <v>286</v>

--- a/progression_2019_2020_IPT_MPSI.xlsx
+++ b/progression_2019_2020_IPT_MPSI.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-200" yWindow="1380" windowWidth="30420" windowHeight="14520"/>
+    <workbookView xWindow="-34660" yWindow="-1120" windowWidth="29380" windowHeight="18380"/>
   </bookViews>
   <sheets>
     <sheet name="Semanier MPSI IPT 2019-2020" sheetId="12" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="333">
   <si>
     <t>Cours</t>
   </si>
@@ -1049,6 +1049,9 @@
   </si>
   <si>
     <t>consignes/consignes_TP3;python_bases/PYB-308;python_bases/PYB-411;algo/ALG-012;F:python_bases/PYB-409;F:python_bases/PYB-500</t>
+  </si>
+  <si>
+    <t>consignes/consignes_TP4;python_bases/PYB-501;python_bases/PYB-523;python_bases/PYB-506;F:python_bases/PYB-507</t>
   </si>
 </sst>
 </file>
@@ -2354,6 +2357,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2479,12 +2488,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="654">
@@ -3459,8 +3462,8 @@
   </sheetPr>
   <dimension ref="A1:X53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="26" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3551,10 +3554,10 @@
       <c r="B2" s="9">
         <v>43711</v>
       </c>
-      <c r="C2" s="110">
+      <c r="C2" s="112">
         <v>1</v>
       </c>
-      <c r="D2" s="113" t="s">
+      <c r="D2" s="115" t="s">
         <v>263</v>
       </c>
       <c r="E2" s="26">
@@ -3579,10 +3582,10 @@
       <c r="L2" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="M2" s="125" t="s">
+      <c r="M2" s="83" t="s">
         <v>327</v>
       </c>
-      <c r="N2" s="125" t="s">
+      <c r="N2" s="83" t="s">
         <v>327</v>
       </c>
       <c r="O2" s="3"/>
@@ -3608,8 +3611,8 @@
         <f>B2+7</f>
         <v>43718</v>
       </c>
-      <c r="C3" s="111"/>
-      <c r="D3" s="114"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="116"/>
       <c r="E3" s="26">
         <v>2</v>
       </c>
@@ -3631,10 +3634,10 @@
       <c r="K3" s="82" t="s">
         <v>284</v>
       </c>
-      <c r="M3" s="125" t="s">
+      <c r="M3" s="83" t="s">
         <v>327</v>
       </c>
-      <c r="N3" s="125" t="s">
+      <c r="N3" s="83" t="s">
         <v>327</v>
       </c>
       <c r="O3" s="3"/>
@@ -3660,8 +3663,8 @@
         <f>B3+7</f>
         <v>43725</v>
       </c>
-      <c r="C4" s="111"/>
-      <c r="D4" s="114"/>
+      <c r="C4" s="113"/>
+      <c r="D4" s="116"/>
       <c r="E4" s="26">
         <v>2</v>
       </c>
@@ -3687,7 +3690,7 @@
       <c r="M4" s="73" t="s">
         <v>277</v>
       </c>
-      <c r="N4" s="125" t="s">
+      <c r="N4" s="83" t="s">
         <v>327</v>
       </c>
       <c r="O4" s="3"/>
@@ -3713,8 +3716,8 @@
         <f t="shared" ref="B5:B8" si="0">B4+7</f>
         <v>43732</v>
       </c>
-      <c r="C5" s="111"/>
-      <c r="D5" s="114"/>
+      <c r="C5" s="113"/>
+      <c r="D5" s="116"/>
       <c r="E5" s="26">
         <v>3</v>
       </c>
@@ -3740,7 +3743,7 @@
       <c r="M5" s="73" t="s">
         <v>274</v>
       </c>
-      <c r="N5" s="125" t="s">
+      <c r="N5" s="83" t="s">
         <v>328</v>
       </c>
       <c r="O5" s="3"/>
@@ -3766,8 +3769,8 @@
         <f>B5+7</f>
         <v>43739</v>
       </c>
-      <c r="C6" s="111"/>
-      <c r="D6" s="114"/>
+      <c r="C6" s="113"/>
+      <c r="D6" s="116"/>
       <c r="E6" s="26">
         <v>4</v>
       </c>
@@ -3795,7 +3798,7 @@
       <c r="M6" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="N6" s="125" t="s">
+      <c r="N6" s="83" t="s">
         <v>330</v>
       </c>
       <c r="O6" s="3"/>
@@ -3819,8 +3822,8 @@
         <f t="shared" si="0"/>
         <v>43746</v>
       </c>
-      <c r="C7" s="111"/>
-      <c r="D7" s="114"/>
+      <c r="C7" s="113"/>
+      <c r="D7" s="116"/>
       <c r="E7" s="26">
         <v>4</v>
       </c>
@@ -3842,7 +3845,7 @@
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
-      <c r="N7" s="125" t="s">
+      <c r="N7" s="83" t="s">
         <v>330</v>
       </c>
       <c r="O7" s="4"/>
@@ -3866,8 +3869,8 @@
         <f t="shared" si="0"/>
         <v>43753</v>
       </c>
-      <c r="C8" s="112"/>
-      <c r="D8" s="115"/>
+      <c r="C8" s="114"/>
+      <c r="D8" s="117"/>
       <c r="E8" s="26">
         <v>5</v>
       </c>
@@ -3885,6 +3888,9 @@
       </c>
       <c r="J8" s="11" t="s">
         <v>28</v>
+      </c>
+      <c r="L8" s="82" t="s">
+        <v>332</v>
       </c>
       <c r="M8" s="78" t="s">
         <v>276</v>
@@ -3908,24 +3914,24 @@
       <c r="X8" s="75"/>
     </row>
     <row r="9" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="85" t="s">
+      <c r="A9" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="86"/>
-      <c r="C9" s="86"/>
-      <c r="D9" s="86"/>
-      <c r="E9" s="86"/>
-      <c r="F9" s="86"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="86"/>
-      <c r="I9" s="86"/>
-      <c r="J9" s="86"/>
-      <c r="K9" s="86"/>
-      <c r="L9" s="86"/>
-      <c r="M9" s="86"/>
-      <c r="N9" s="86"/>
-      <c r="O9" s="86"/>
-      <c r="P9" s="86"/>
+      <c r="B9" s="88"/>
+      <c r="C9" s="88"/>
+      <c r="D9" s="88"/>
+      <c r="E9" s="88"/>
+      <c r="F9" s="88"/>
+      <c r="G9" s="88"/>
+      <c r="H9" s="88"/>
+      <c r="I9" s="88"/>
+      <c r="J9" s="88"/>
+      <c r="K9" s="88"/>
+      <c r="L9" s="88"/>
+      <c r="M9" s="88"/>
+      <c r="N9" s="88"/>
+      <c r="O9" s="88"/>
+      <c r="P9" s="88"/>
       <c r="Q9" s="4"/>
       <c r="R9" s="41"/>
       <c r="S9" s="32"/>
@@ -3941,10 +3947,10 @@
         <f>B8+21</f>
         <v>43774</v>
       </c>
-      <c r="C10" s="110">
+      <c r="C10" s="112">
         <v>1</v>
       </c>
-      <c r="D10" s="113" t="s">
+      <c r="D10" s="115" t="s">
         <v>263</v>
       </c>
       <c r="E10" s="26">
@@ -3994,8 +4000,8 @@
         <f t="shared" ref="B11:B16" si="1">B10+7</f>
         <v>43781</v>
       </c>
-      <c r="C11" s="111"/>
-      <c r="D11" s="114"/>
+      <c r="C11" s="113"/>
+      <c r="D11" s="116"/>
       <c r="E11" s="26">
         <v>6</v>
       </c>
@@ -4041,8 +4047,8 @@
         <f t="shared" si="1"/>
         <v>43788</v>
       </c>
-      <c r="C12" s="111"/>
-      <c r="D12" s="114"/>
+      <c r="C12" s="113"/>
+      <c r="D12" s="116"/>
       <c r="E12" s="26">
         <v>6</v>
       </c>
@@ -4087,8 +4093,8 @@
         <f t="shared" si="1"/>
         <v>43795</v>
       </c>
-      <c r="C13" s="111"/>
-      <c r="D13" s="114"/>
+      <c r="C13" s="113"/>
+      <c r="D13" s="116"/>
       <c r="E13" s="26">
         <v>7</v>
       </c>
@@ -4136,8 +4142,8 @@
         <f t="shared" si="1"/>
         <v>43802</v>
       </c>
-      <c r="C14" s="111"/>
-      <c r="D14" s="114"/>
+      <c r="C14" s="113"/>
+      <c r="D14" s="116"/>
       <c r="E14" s="26">
         <v>7</v>
       </c>
@@ -4184,8 +4190,8 @@
         <f t="shared" si="1"/>
         <v>43809</v>
       </c>
-      <c r="C15" s="111"/>
-      <c r="D15" s="114"/>
+      <c r="C15" s="113"/>
+      <c r="D15" s="116"/>
       <c r="E15" s="26">
         <v>8</v>
       </c>
@@ -4235,8 +4241,8 @@
         <f t="shared" si="1"/>
         <v>43816</v>
       </c>
-      <c r="C16" s="112"/>
-      <c r="D16" s="115"/>
+      <c r="C16" s="114"/>
+      <c r="D16" s="117"/>
       <c r="E16" s="26">
         <v>8</v>
       </c>
@@ -4277,24 +4283,24 @@
       <c r="X16" s="75"/>
     </row>
     <row r="17" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="85" t="s">
+      <c r="A17" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="86"/>
-      <c r="C17" s="86"/>
-      <c r="D17" s="86"/>
-      <c r="E17" s="86"/>
-      <c r="F17" s="86"/>
-      <c r="G17" s="86"/>
-      <c r="H17" s="86"/>
-      <c r="I17" s="86"/>
-      <c r="J17" s="86"/>
-      <c r="K17" s="86"/>
-      <c r="L17" s="86"/>
-      <c r="M17" s="86"/>
-      <c r="N17" s="86"/>
-      <c r="O17" s="86"/>
-      <c r="P17" s="86"/>
+      <c r="B17" s="88"/>
+      <c r="C17" s="88"/>
+      <c r="D17" s="88"/>
+      <c r="E17" s="88"/>
+      <c r="F17" s="88"/>
+      <c r="G17" s="88"/>
+      <c r="H17" s="88"/>
+      <c r="I17" s="88"/>
+      <c r="J17" s="88"/>
+      <c r="K17" s="88"/>
+      <c r="L17" s="88"/>
+      <c r="M17" s="88"/>
+      <c r="N17" s="88"/>
+      <c r="O17" s="88"/>
+      <c r="P17" s="88"/>
       <c r="Q17" s="4"/>
       <c r="R17" s="41"/>
       <c r="S17" s="32"/>
@@ -4310,10 +4316,10 @@
         <f>B16+21</f>
         <v>43837</v>
       </c>
-      <c r="C18" s="104">
+      <c r="C18" s="106">
         <v>2</v>
       </c>
-      <c r="D18" s="107" t="s">
+      <c r="D18" s="109" t="s">
         <v>186</v>
       </c>
       <c r="E18" s="28">
@@ -4336,10 +4342,10 @@
       </c>
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
-      <c r="M18" s="126" t="s">
+      <c r="M18" s="84" t="s">
         <v>272</v>
       </c>
-      <c r="N18" s="126" t="s">
+      <c r="N18" s="84" t="s">
         <v>272</v>
       </c>
       <c r="O18" s="27"/>
@@ -4363,8 +4369,8 @@
         <f>B18+7</f>
         <v>43844</v>
       </c>
-      <c r="C19" s="105"/>
-      <c r="D19" s="108"/>
+      <c r="C19" s="107"/>
+      <c r="D19" s="110"/>
       <c r="E19" s="28">
         <v>1</v>
       </c>
@@ -4385,10 +4391,10 @@
       </c>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
-      <c r="M19" s="126" t="s">
+      <c r="M19" s="84" t="s">
         <v>272</v>
       </c>
-      <c r="N19" s="126" t="s">
+      <c r="N19" s="84" t="s">
         <v>272</v>
       </c>
       <c r="O19" s="27"/>
@@ -4412,8 +4418,8 @@
         <f t="shared" ref="B20:B40" si="2">B19+7</f>
         <v>43851</v>
       </c>
-      <c r="C20" s="105"/>
-      <c r="D20" s="108"/>
+      <c r="C20" s="107"/>
+      <c r="D20" s="110"/>
       <c r="E20" s="28">
         <v>2</v>
       </c>
@@ -4461,8 +4467,8 @@
         <f>B20+7</f>
         <v>43858</v>
       </c>
-      <c r="C21" s="106"/>
-      <c r="D21" s="109"/>
+      <c r="C21" s="108"/>
+      <c r="D21" s="111"/>
       <c r="E21" s="28">
         <v>2</v>
       </c>
@@ -4510,10 +4516,10 @@
         <f>B21+7</f>
         <v>43865</v>
       </c>
-      <c r="C22" s="90">
+      <c r="C22" s="92">
         <v>3</v>
       </c>
-      <c r="D22" s="87" t="s">
+      <c r="D22" s="89" t="s">
         <v>61</v>
       </c>
       <c r="E22" s="35">
@@ -4536,10 +4542,10 @@
       </c>
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
-      <c r="M22" s="125" t="s">
+      <c r="M22" s="83" t="s">
         <v>271</v>
       </c>
-      <c r="N22" s="125" t="s">
+      <c r="N22" s="83" t="s">
         <v>271</v>
       </c>
       <c r="O22" s="3"/>
@@ -4563,8 +4569,8 @@
         <f>B22+7</f>
         <v>43872</v>
       </c>
-      <c r="C23" s="91"/>
-      <c r="D23" s="88"/>
+      <c r="C23" s="93"/>
+      <c r="D23" s="90"/>
       <c r="E23" s="35">
         <v>2</v>
       </c>
@@ -4585,10 +4591,10 @@
       </c>
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
-      <c r="M23" s="125" t="s">
+      <c r="M23" s="83" t="s">
         <v>271</v>
       </c>
-      <c r="N23" s="125" t="s">
+      <c r="N23" s="83" t="s">
         <v>271</v>
       </c>
       <c r="O23" s="4" t="s">
@@ -4611,8 +4617,8 @@
         <f>B23+7</f>
         <v>43879</v>
       </c>
-      <c r="C24" s="92"/>
-      <c r="D24" s="89"/>
+      <c r="C24" s="94"/>
+      <c r="D24" s="91"/>
       <c r="E24" s="34">
         <v>2</v>
       </c>
@@ -4633,10 +4639,10 @@
       </c>
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
-      <c r="M24" s="125" t="s">
+      <c r="M24" s="83" t="s">
         <v>271</v>
       </c>
-      <c r="N24" s="125" t="s">
+      <c r="N24" s="83" t="s">
         <v>271</v>
       </c>
       <c r="O24" s="27"/>
@@ -4648,24 +4654,24 @@
       <c r="S24" s="33"/>
     </row>
     <row r="25" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="85" t="s">
+      <c r="A25" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="86"/>
-      <c r="C25" s="86"/>
-      <c r="D25" s="86"/>
-      <c r="E25" s="86"/>
-      <c r="F25" s="86"/>
-      <c r="G25" s="86"/>
-      <c r="H25" s="86"/>
-      <c r="I25" s="86"/>
-      <c r="J25" s="86"/>
-      <c r="K25" s="86"/>
-      <c r="L25" s="86"/>
-      <c r="M25" s="86"/>
-      <c r="N25" s="86"/>
-      <c r="O25" s="86"/>
-      <c r="P25" s="86"/>
+      <c r="B25" s="88"/>
+      <c r="C25" s="88"/>
+      <c r="D25" s="88"/>
+      <c r="E25" s="88"/>
+      <c r="F25" s="88"/>
+      <c r="G25" s="88"/>
+      <c r="H25" s="88"/>
+      <c r="I25" s="88"/>
+      <c r="J25" s="88"/>
+      <c r="K25" s="88"/>
+      <c r="L25" s="88"/>
+      <c r="M25" s="88"/>
+      <c r="N25" s="88"/>
+      <c r="O25" s="88"/>
+      <c r="P25" s="88"/>
       <c r="Q25" s="4"/>
       <c r="R25" s="50"/>
       <c r="S25" s="32"/>
@@ -4681,10 +4687,10 @@
         <f>B24+21</f>
         <v>43900</v>
       </c>
-      <c r="C26" s="90">
+      <c r="C26" s="92">
         <v>3</v>
       </c>
-      <c r="D26" s="87" t="s">
+      <c r="D26" s="89" t="s">
         <v>61</v>
       </c>
       <c r="E26" s="29">
@@ -4707,10 +4713,10 @@
       </c>
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
-      <c r="M26" s="125" t="s">
+      <c r="M26" s="83" t="s">
         <v>268</v>
       </c>
-      <c r="N26" s="125" t="s">
+      <c r="N26" s="83" t="s">
         <v>268</v>
       </c>
       <c r="O26" s="27"/>
@@ -4734,8 +4740,8 @@
         <f t="shared" si="2"/>
         <v>43907</v>
       </c>
-      <c r="C27" s="91"/>
-      <c r="D27" s="88"/>
+      <c r="C27" s="93"/>
+      <c r="D27" s="90"/>
       <c r="E27" s="35">
         <v>3</v>
       </c>
@@ -4756,10 +4762,10 @@
       </c>
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
-      <c r="M27" s="125" t="s">
+      <c r="M27" s="83" t="s">
         <v>268</v>
       </c>
-      <c r="N27" s="125" t="s">
+      <c r="N27" s="83" t="s">
         <v>268</v>
       </c>
       <c r="P27" s="36"/>
@@ -4780,8 +4786,8 @@
         <f t="shared" si="2"/>
         <v>43914</v>
       </c>
-      <c r="C28" s="91"/>
-      <c r="D28" s="88"/>
+      <c r="C28" s="93"/>
+      <c r="D28" s="90"/>
       <c r="E28" s="29">
         <v>4</v>
       </c>
@@ -4802,10 +4808,10 @@
       </c>
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
-      <c r="M28" s="125" t="s">
+      <c r="M28" s="83" t="s">
         <v>268</v>
       </c>
-      <c r="N28" s="125" t="s">
+      <c r="N28" s="83" t="s">
         <v>268</v>
       </c>
       <c r="O28" s="4"/>
@@ -4829,8 +4835,8 @@
         <f t="shared" si="2"/>
         <v>43921</v>
       </c>
-      <c r="C29" s="92"/>
-      <c r="D29" s="89"/>
+      <c r="C29" s="94"/>
+      <c r="D29" s="91"/>
       <c r="E29" s="35">
         <v>4</v>
       </c>
@@ -4851,10 +4857,10 @@
       </c>
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
-      <c r="M29" s="125" t="s">
+      <c r="M29" s="83" t="s">
         <v>268</v>
       </c>
-      <c r="N29" s="125" t="s">
+      <c r="N29" s="83" t="s">
         <v>268</v>
       </c>
       <c r="O29" s="3"/>
@@ -4876,10 +4882,10 @@
         <f t="shared" si="2"/>
         <v>43928</v>
       </c>
-      <c r="C30" s="93">
+      <c r="C30" s="95">
         <v>4</v>
       </c>
-      <c r="D30" s="95" t="s">
+      <c r="D30" s="97" t="s">
         <v>44</v>
       </c>
       <c r="E30" s="30">
@@ -4931,8 +4937,8 @@
         <f t="shared" si="2"/>
         <v>43935</v>
       </c>
-      <c r="C31" s="94"/>
-      <c r="D31" s="96"/>
+      <c r="C31" s="96"/>
+      <c r="D31" s="98"/>
       <c r="E31" s="30">
         <v>2</v>
       </c>
@@ -4973,24 +4979,24 @@
       <c r="X31" s="75"/>
     </row>
     <row r="32" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="83" t="s">
+      <c r="A32" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="B32" s="84"/>
-      <c r="C32" s="84"/>
-      <c r="D32" s="84"/>
-      <c r="E32" s="84"/>
-      <c r="F32" s="84"/>
-      <c r="G32" s="84"/>
-      <c r="H32" s="84"/>
-      <c r="I32" s="84"/>
-      <c r="J32" s="84"/>
-      <c r="K32" s="84"/>
-      <c r="L32" s="84"/>
-      <c r="M32" s="84"/>
-      <c r="N32" s="84"/>
-      <c r="O32" s="84"/>
-      <c r="P32" s="84"/>
+      <c r="B32" s="86"/>
+      <c r="C32" s="86"/>
+      <c r="D32" s="86"/>
+      <c r="E32" s="86"/>
+      <c r="F32" s="86"/>
+      <c r="G32" s="86"/>
+      <c r="H32" s="86"/>
+      <c r="I32" s="86"/>
+      <c r="J32" s="86"/>
+      <c r="K32" s="86"/>
+      <c r="L32" s="86"/>
+      <c r="M32" s="86"/>
+      <c r="N32" s="86"/>
+      <c r="O32" s="86"/>
+      <c r="P32" s="86"/>
       <c r="Q32" s="47"/>
       <c r="R32" s="51"/>
       <c r="S32" s="32"/>
@@ -5006,10 +5012,10 @@
         <f>B31+21</f>
         <v>43956</v>
       </c>
-      <c r="C33" s="93">
+      <c r="C33" s="95">
         <v>4</v>
       </c>
-      <c r="D33" s="95" t="s">
+      <c r="D33" s="97" t="s">
         <v>44</v>
       </c>
       <c r="E33" s="30">
@@ -5054,8 +5060,8 @@
         <f t="shared" si="2"/>
         <v>43963</v>
       </c>
-      <c r="C34" s="98"/>
-      <c r="D34" s="97"/>
+      <c r="C34" s="100"/>
+      <c r="D34" s="99"/>
       <c r="E34" s="30">
         <v>3</v>
       </c>
@@ -5100,8 +5106,8 @@
         <f t="shared" si="2"/>
         <v>43970</v>
       </c>
-      <c r="C35" s="94"/>
-      <c r="D35" s="96"/>
+      <c r="C35" s="96"/>
+      <c r="D35" s="98"/>
       <c r="E35" s="30">
         <v>4</v>
       </c>
@@ -5145,10 +5151,10 @@
         <f t="shared" si="2"/>
         <v>43977</v>
       </c>
-      <c r="C36" s="101">
+      <c r="C36" s="103">
         <v>5</v>
       </c>
-      <c r="D36" s="99" t="s">
+      <c r="D36" s="101" t="s">
         <v>50</v>
       </c>
       <c r="E36" s="31">
@@ -5188,8 +5194,8 @@
         <f t="shared" si="2"/>
         <v>43984</v>
       </c>
-      <c r="C37" s="102"/>
-      <c r="D37" s="100"/>
+      <c r="C37" s="104"/>
+      <c r="D37" s="102"/>
       <c r="E37" s="31">
         <v>1</v>
       </c>
@@ -5229,8 +5235,8 @@
         <f t="shared" si="2"/>
         <v>43991</v>
       </c>
-      <c r="C38" s="102"/>
-      <c r="D38" s="100"/>
+      <c r="C38" s="104"/>
+      <c r="D38" s="102"/>
       <c r="E38" s="31">
         <v>1</v>
       </c>
@@ -5268,8 +5274,8 @@
         <f t="shared" si="2"/>
         <v>43998</v>
       </c>
-      <c r="C39" s="102"/>
-      <c r="D39" s="100"/>
+      <c r="C39" s="104"/>
+      <c r="D39" s="102"/>
       <c r="E39" s="31">
         <v>1</v>
       </c>
@@ -5307,8 +5313,8 @@
         <f t="shared" si="2"/>
         <v>44005</v>
       </c>
-      <c r="C40" s="103"/>
-      <c r="D40" s="100"/>
+      <c r="C40" s="105"/>
+      <c r="D40" s="102"/>
       <c r="E40" s="31">
         <v>1</v>
       </c>
@@ -5337,24 +5343,24 @@
       <c r="X40" s="75"/>
     </row>
     <row r="41" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="83" t="s">
+      <c r="A41" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="B41" s="84"/>
-      <c r="C41" s="84"/>
-      <c r="D41" s="84"/>
-      <c r="E41" s="84"/>
-      <c r="F41" s="84"/>
-      <c r="G41" s="84"/>
-      <c r="H41" s="84"/>
-      <c r="I41" s="84"/>
-      <c r="J41" s="84"/>
-      <c r="K41" s="84"/>
-      <c r="L41" s="84"/>
-      <c r="M41" s="84"/>
-      <c r="N41" s="84"/>
-      <c r="O41" s="84"/>
-      <c r="P41" s="84"/>
+      <c r="B41" s="86"/>
+      <c r="C41" s="86"/>
+      <c r="D41" s="86"/>
+      <c r="E41" s="86"/>
+      <c r="F41" s="86"/>
+      <c r="G41" s="86"/>
+      <c r="H41" s="86"/>
+      <c r="I41" s="86"/>
+      <c r="J41" s="86"/>
+      <c r="K41" s="86"/>
+      <c r="L41" s="86"/>
+      <c r="M41" s="86"/>
+      <c r="N41" s="86"/>
+      <c r="O41" s="86"/>
+      <c r="P41" s="86"/>
       <c r="Q41" s="47"/>
       <c r="R41" s="51"/>
       <c r="V41" s="70"/>
@@ -6237,12 +6243,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="118" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="117"/>
-      <c r="D1" s="118"/>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="120"/>
     </row>
     <row r="2" spans="1:4" ht="22" x14ac:dyDescent="0.15">
       <c r="A2" s="54" t="s">
@@ -6333,12 +6339,12 @@
       <c r="D11" s="61"/>
     </row>
     <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A12" s="116" t="s">
+      <c r="A12" s="118" t="s">
         <v>94</v>
       </c>
-      <c r="B12" s="117"/>
-      <c r="C12" s="117"/>
-      <c r="D12" s="118"/>
+      <c r="B12" s="119"/>
+      <c r="C12" s="119"/>
+      <c r="D12" s="120"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="54" t="s">
@@ -6603,12 +6609,12 @@
       <c r="D40" s="61"/>
     </row>
     <row r="41" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A41" s="119" t="s">
+      <c r="A41" s="121" t="s">
         <v>142</v>
       </c>
-      <c r="B41" s="120"/>
-      <c r="C41" s="120"/>
-      <c r="D41" s="121"/>
+      <c r="B41" s="122"/>
+      <c r="C41" s="122"/>
+      <c r="D41" s="123"/>
     </row>
     <row r="42" spans="1:4" ht="33" x14ac:dyDescent="0.15">
       <c r="A42" s="54" t="s">
@@ -6707,12 +6713,12 @@
       <c r="D51" s="66"/>
     </row>
     <row r="52" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="122" t="s">
+      <c r="A52" s="124" t="s">
         <v>161</v>
       </c>
-      <c r="B52" s="123"/>
-      <c r="C52" s="123"/>
-      <c r="D52" s="124"/>
+      <c r="B52" s="125"/>
+      <c r="C52" s="125"/>
+      <c r="D52" s="126"/>
     </row>
     <row r="53" spans="1:4" ht="22" x14ac:dyDescent="0.15">
       <c r="A53" s="67" t="s">
@@ -6801,12 +6807,12 @@
       <c r="D61" s="66"/>
     </row>
     <row r="62" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="122" t="s">
+      <c r="A62" s="124" t="s">
         <v>178</v>
       </c>
-      <c r="B62" s="123"/>
-      <c r="C62" s="123"/>
-      <c r="D62" s="124"/>
+      <c r="B62" s="125"/>
+      <c r="C62" s="125"/>
+      <c r="D62" s="126"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A63" s="67" t="s">

--- a/progression_2019_2020_IPT_MPSI.xlsx
+++ b/progression_2019_2020_IPT_MPSI.xlsx
@@ -12,14 +12,16 @@
     <workbookView xWindow="-34660" yWindow="-1120" windowWidth="29380" windowHeight="18380"/>
   </bookViews>
   <sheets>
-    <sheet name="Semanier MPSI IPT 2019-2020" sheetId="12" r:id="rId1"/>
-    <sheet name="Cycles MPSI IPT" sheetId="11" r:id="rId2"/>
-    <sheet name="Competences" sheetId="14" r:id="rId3"/>
-    <sheet name="Programme" sheetId="13" r:id="rId4"/>
+    <sheet name="Planning DS" sheetId="16" r:id="rId1"/>
+    <sheet name="Planning DS0" sheetId="15" r:id="rId2"/>
+    <sheet name="Semanier MPSI IPT 2019-2020" sheetId="12" r:id="rId3"/>
+    <sheet name="Cycles MPSI IPT" sheetId="11" r:id="rId4"/>
+    <sheet name="Competences" sheetId="14" r:id="rId5"/>
+    <sheet name="Programme" sheetId="13" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Cycles MPSI IPT'!$A$3:$B$7</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Semanier MPSI IPT 2019-2020'!$A$18:$H$20</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'Cycles MPSI IPT'!$A$3:$B$7</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'Semanier MPSI IPT 2019-2020'!$A$18:$H$20</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="443">
   <si>
     <t>Cours</t>
   </si>
@@ -1052,13 +1054,343 @@
   </si>
   <si>
     <t>consignes/consignes_TP4;python_bases/PYB-501;python_bases/PYB-523;python_bases/PYB-506;F:python_bases/PYB-507</t>
+  </si>
+  <si>
+    <t>2019-2020</t>
+  </si>
+  <si>
+    <t>2018-2019</t>
+  </si>
+  <si>
+    <t>2017-2018</t>
+  </si>
+  <si>
+    <t>2016-2017</t>
+  </si>
+  <si>
+    <t>Titre</t>
+  </si>
+  <si>
+    <t>Modélisation de l'auto-focus d'un appareil photo réflex</t>
+  </si>
+  <si>
+    <t>Fauteuil dynamique de cinéma</t>
+  </si>
+  <si>
+    <t>ABS</t>
+  </si>
+  <si>
+    <t>Téléchirurgie</t>
+  </si>
+  <si>
+    <t>Supports</t>
+  </si>
+  <si>
+    <t>DS/autofocus_appareil_reflex</t>
+  </si>
+  <si>
+    <t>automatique/fauteuil_dynamique_cinema</t>
+  </si>
+  <si>
+    <t>CCP PSI 2015</t>
+  </si>
+  <si>
+    <t>Thèmes</t>
+  </si>
+  <si>
+    <t>SLCI, analyse temporelle, chaine fonctionnelle</t>
+  </si>
+  <si>
+    <t>AF SysML, SLCI, temporel, multiphysique</t>
+  </si>
+  <si>
+    <t>SLCI, Bode, multihysique, Chaine fonctionnelle</t>
+  </si>
+  <si>
+    <t>PFS 2D, SysML, combinatoire, Fermeture geo</t>
+  </si>
+  <si>
+    <t>Cycles</t>
+  </si>
+  <si>
+    <t>1;2</t>
+  </si>
+  <si>
+    <t>Durée</t>
+  </si>
+  <si>
+    <t>2H</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Cellule d'assemblage pour l'avion Falcon</t>
+  </si>
+  <si>
+    <t>Fauteuil roulant handicapé +Imagerie EOS</t>
+  </si>
+  <si>
+    <t>Vanoise express</t>
+  </si>
+  <si>
+    <t>Porte de tram et micromanipulateurendoscopique</t>
+  </si>
+  <si>
+    <t>automatique/assemblage_falcon</t>
+  </si>
+  <si>
+    <t>Central PSI 2008 et CCP PSI 2016</t>
+  </si>
+  <si>
+    <t>SLCI, analyse temporelle et fréquentielle, chaine fonctionnelle</t>
+  </si>
+  <si>
+    <t>AF SysML, SLCI, Bode, correcteurs</t>
+  </si>
+  <si>
+    <t>AF SysML, Théorie des mécanismes, Liaison équivalente, Cinématique engrenage, Statique</t>
+  </si>
+  <si>
+    <t>4H</t>
+  </si>
+  <si>
+    <t>2H+2H</t>
+  </si>
+  <si>
+    <t>Tete de découpe de tissu</t>
+  </si>
+  <si>
+    <t>Transmission tramway</t>
+  </si>
+  <si>
+    <t>Train atterrissage hélicoptère</t>
+  </si>
+  <si>
+    <t>DS/tete_decoupe_tissu</t>
+  </si>
+  <si>
+    <t>CCP MP 2018</t>
+  </si>
+  <si>
+    <t>SIA PT 2014</t>
+  </si>
+  <si>
+    <t>SLCI Correcteur, analyse temporelle, fermeture geo, dynamique simple</t>
+  </si>
+  <si>
+    <t>Dynamique simple, lois de vitesse, asservissement</t>
+  </si>
+  <si>
+    <t>Dynamique, AF en SysML</t>
+  </si>
+  <si>
+    <t>3;4</t>
+  </si>
+  <si>
+    <t>Modélisation du robot d'exploration ROBOVOLC</t>
+  </si>
+  <si>
+    <t>ROBOVOLC</t>
+  </si>
+  <si>
+    <t>FLIR</t>
+  </si>
+  <si>
+    <t>ROBUCAR</t>
+  </si>
+  <si>
+    <t>DS/robovolc</t>
+  </si>
+  <si>
+    <t>XENS2017</t>
+  </si>
+  <si>
+    <t>Central psi 2014</t>
+  </si>
+  <si>
+    <t>e3a 2015 MP SII</t>
+  </si>
+  <si>
+    <t>Dynamique, Cinématique simple, SLCI avec Bode et correcteur AF SysML</t>
+  </si>
+  <si>
+    <t>Dynamique, TEC, Cinématique simple, SLCI avec Bode</t>
+  </si>
+  <si>
+    <t>2;3;4;5;6</t>
+  </si>
+  <si>
+    <t>DS5</t>
+  </si>
+  <si>
+    <t>Modélisation multiphysique d'un système</t>
+  </si>
+  <si>
+    <t>DS/central_2018</t>
+  </si>
+  <si>
+    <t>DS6</t>
+  </si>
+  <si>
+    <t>Modélisation d'un système d' Anti Blocage des Roues</t>
+  </si>
+  <si>
+    <t>Exosquelette</t>
+  </si>
+  <si>
+    <t>Twizy</t>
+  </si>
+  <si>
+    <t>Eolienne</t>
+  </si>
+  <si>
+    <t>automatique/ABS</t>
+  </si>
+  <si>
+    <t>Central TSI 2017</t>
+  </si>
+  <si>
+    <t>Mines-pont 2017</t>
+  </si>
+  <si>
+    <t>upsti</t>
+  </si>
+  <si>
+    <t>chaine fonctionnelle, schémas bloc, analyse temporelle</t>
+  </si>
+  <si>
+    <t>AF SysML, Frottement, résolution d'un problème de statique</t>
+  </si>
+  <si>
+    <t>2h</t>
+  </si>
+  <si>
+    <t>DM2</t>
+  </si>
+  <si>
+    <t>Presse à vis</t>
+  </si>
+  <si>
+    <t>Assemblage Falcon</t>
+  </si>
+  <si>
+    <t>DS/presse_a_vis</t>
+  </si>
+  <si>
+    <t>e3a PSI 2017</t>
+  </si>
+  <si>
+    <t>e3a psi 2015</t>
+  </si>
+  <si>
+    <t>SLCI, correcteur à avance de phase</t>
+  </si>
+  <si>
+    <t>chaine fonctionnelle, schémas bloc, analyse temporelle et fréquentielle</t>
+  </si>
+  <si>
+    <t>2;3</t>
+  </si>
+  <si>
+    <t>DM3</t>
+  </si>
+  <si>
+    <t>Robot Kuka</t>
+  </si>
+  <si>
+    <t>Simulateur de vol</t>
+  </si>
+  <si>
+    <t>Tapis de course</t>
+  </si>
+  <si>
+    <t>DS/robot_kuka</t>
+  </si>
+  <si>
+    <t>CCP MP 2010</t>
+  </si>
+  <si>
+    <t>Central PSI 2017</t>
+  </si>
+  <si>
+    <t>PT SIB 2011</t>
+  </si>
+  <si>
+    <t>Cinématique/Statique</t>
+  </si>
+  <si>
+    <t>Cinématique, fermeture geo, statique, asservissement</t>
+  </si>
+  <si>
+    <t>Analyse fonctionnelle sans SysML, Cinétique, fermeture geo, Statique, PFD, statique, frottement, hyperstatisme, Energétique, Automatique</t>
+  </si>
+  <si>
+    <t>4h</t>
+  </si>
+  <si>
+    <t>DM4</t>
+  </si>
+  <si>
+    <t>Modélisation d'une barrière automatique</t>
+  </si>
+  <si>
+    <t>Drone miniature</t>
+  </si>
+  <si>
+    <t>Clever</t>
+  </si>
+  <si>
+    <t>DS/canne_robotise</t>
+  </si>
+  <si>
+    <t>dynamique/barriere_sympact</t>
+  </si>
+  <si>
+    <t>Mines-pont 2010 MP</t>
+  </si>
+  <si>
+    <t>SIA 2013</t>
+  </si>
+  <si>
+    <t>Cinétique, dynamique, asservissement correcteur, AF avec SysML</t>
+  </si>
+  <si>
+    <t>4;5</t>
+  </si>
+  <si>
+    <t>3H</t>
+  </si>
+  <si>
+    <t>DM5</t>
+  </si>
+  <si>
+    <t>Modélisation d'une canne robotisée</t>
+  </si>
+  <si>
+    <t>DM6</t>
+  </si>
+  <si>
+    <t>Chargement et déchargement de porte-conteneur</t>
+  </si>
+  <si>
+    <t>Central PSI 2013</t>
+  </si>
+  <si>
+    <t>Dynamique Energétique, AF en SysML, SLCI</t>
+  </si>
+  <si>
+    <t>2;3;4;5;6;7</t>
+  </si>
+  <si>
+    <t>Algorithmique et programmation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1149,6 +1481,28 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -1200,7 +1554,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -1466,6 +1820,108 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="654">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2123,7 +2579,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="155">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2363,18 +2819,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2424,42 +2916,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="7" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2488,6 +2944,90 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="654">
@@ -3457,13 +3997,1404 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" customWidth="1"/>
+    <col min="6" max="6" width="16.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="48" x14ac:dyDescent="0.15">
+      <c r="A2" s="128">
+        <v>1</v>
+      </c>
+      <c r="B2" s="129" t="s">
+        <v>337</v>
+      </c>
+      <c r="C2" s="130" t="s">
+        <v>442</v>
+      </c>
+      <c r="D2" s="130"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="130"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="131"/>
+      <c r="B3" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="131"/>
+      <c r="B4" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="C4" s="42"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="132"/>
+      <c r="B5" s="133" t="s">
+        <v>355</v>
+      </c>
+      <c r="C5" s="135">
+        <v>43754</v>
+      </c>
+      <c r="D5" s="135"/>
+      <c r="E5" s="135"/>
+      <c r="F5" s="135"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>282</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G73"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" customWidth="1"/>
+    <col min="6" max="6" width="13.83203125" customWidth="1"/>
+    <col min="7" max="7" width="16.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="64" x14ac:dyDescent="0.15">
+      <c r="A2" s="127" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="128" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="129" t="s">
+        <v>337</v>
+      </c>
+      <c r="D2" s="130" t="s">
+        <v>338</v>
+      </c>
+      <c r="E2" s="130" t="s">
+        <v>339</v>
+      </c>
+      <c r="F2" s="130" t="s">
+        <v>340</v>
+      </c>
+      <c r="G2" s="130" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="39" x14ac:dyDescent="0.15">
+      <c r="A3" s="127"/>
+      <c r="B3" s="131"/>
+      <c r="C3" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="52" x14ac:dyDescent="0.15">
+      <c r="A4" s="127"/>
+      <c r="B4" s="131"/>
+      <c r="C4" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="D4" s="42" t="s">
+        <v>347</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="F4" s="42" t="s">
+        <v>349</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="127"/>
+      <c r="B5" s="131"/>
+      <c r="C5" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="D5" s="42" t="s">
+        <v>352</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="F5" s="42"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="127"/>
+      <c r="B6" s="131"/>
+      <c r="C6" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="127"/>
+      <c r="B7" s="132"/>
+      <c r="C7" s="133" t="s">
+        <v>355</v>
+      </c>
+      <c r="D7" s="134">
+        <v>43731</v>
+      </c>
+      <c r="E7" s="134">
+        <v>43731</v>
+      </c>
+      <c r="F7" s="135">
+        <v>43010</v>
+      </c>
+      <c r="G7" s="135">
+        <v>42639</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="52" x14ac:dyDescent="0.15">
+      <c r="A8" s="127"/>
+      <c r="B8" s="128" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="129" t="s">
+        <v>337</v>
+      </c>
+      <c r="D8" s="129" t="s">
+        <v>356</v>
+      </c>
+      <c r="E8" s="129" t="s">
+        <v>357</v>
+      </c>
+      <c r="F8" s="129" t="s">
+        <v>358</v>
+      </c>
+      <c r="G8" s="130" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="26" x14ac:dyDescent="0.15">
+      <c r="A9" s="127"/>
+      <c r="B9" s="131"/>
+      <c r="C9" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="65" x14ac:dyDescent="0.15">
+      <c r="A10" s="127"/>
+      <c r="B10" s="131"/>
+      <c r="C10" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="D10" s="42" t="s">
+        <v>362</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="38" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="127"/>
+      <c r="B11" s="131"/>
+      <c r="C11" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="127"/>
+      <c r="B12" s="131"/>
+      <c r="C12" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="127"/>
+      <c r="B13" s="132"/>
+      <c r="C13" s="133" t="s">
+        <v>355</v>
+      </c>
+      <c r="D13" s="135">
+        <v>43745</v>
+      </c>
+      <c r="E13" s="135"/>
+      <c r="F13" s="135">
+        <v>43052</v>
+      </c>
+      <c r="G13" s="135">
+        <v>42660</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="48" x14ac:dyDescent="0.15">
+      <c r="A14" s="127"/>
+      <c r="B14" s="136" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="129" t="s">
+        <v>337</v>
+      </c>
+      <c r="D14" s="137" t="s">
+        <v>367</v>
+      </c>
+      <c r="E14" s="137" t="s">
+        <v>367</v>
+      </c>
+      <c r="F14" s="137" t="s">
+        <v>368</v>
+      </c>
+      <c r="G14" s="137" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="31" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="127"/>
+      <c r="B15" s="131"/>
+      <c r="C15" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="138" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="91" x14ac:dyDescent="0.15">
+      <c r="A16" s="127"/>
+      <c r="B16" s="131"/>
+      <c r="C16" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="G16" s="42" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="31" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="127"/>
+      <c r="B17" s="131"/>
+      <c r="C17" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="1:7" ht="31" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="127"/>
+      <c r="B18" s="131"/>
+      <c r="C18" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="127"/>
+      <c r="B19" s="131"/>
+      <c r="C19" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="D19" s="135">
+        <v>43781</v>
+      </c>
+      <c r="E19" s="139">
+        <v>43444</v>
+      </c>
+      <c r="F19" s="139">
+        <v>43087</v>
+      </c>
+      <c r="G19" s="139">
+        <v>42738</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="64" x14ac:dyDescent="0.15">
+      <c r="A20" s="127"/>
+      <c r="B20" s="136" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="129" t="s">
+        <v>337</v>
+      </c>
+      <c r="D20" s="137" t="s">
+        <v>377</v>
+      </c>
+      <c r="E20" s="137" t="s">
+        <v>378</v>
+      </c>
+      <c r="F20" s="137" t="s">
+        <v>379</v>
+      </c>
+      <c r="G20" s="137" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="31" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="127"/>
+      <c r="B21" s="131"/>
+      <c r="C21" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="78" x14ac:dyDescent="0.15">
+      <c r="A22" s="127"/>
+      <c r="B22" s="131"/>
+      <c r="C22" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42" t="s">
+        <v>385</v>
+      </c>
+      <c r="G22" s="42" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="31" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="127"/>
+      <c r="B23" s="131"/>
+      <c r="C23" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="1:7" ht="31" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="127"/>
+      <c r="B24" s="131"/>
+      <c r="C24" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="127"/>
+      <c r="B25" s="131"/>
+      <c r="C25" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="D25" s="139">
+        <v>43808</v>
+      </c>
+      <c r="E25" s="139">
+        <v>43114</v>
+      </c>
+      <c r="F25" s="139">
+        <v>43115</v>
+      </c>
+      <c r="G25" s="139">
+        <v>42800</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="48" x14ac:dyDescent="0.15">
+      <c r="A26" s="127"/>
+      <c r="B26" s="136" t="s">
+        <v>388</v>
+      </c>
+      <c r="C26" s="129" t="s">
+        <v>337</v>
+      </c>
+      <c r="D26" s="137" t="s">
+        <v>389</v>
+      </c>
+      <c r="E26" s="137" t="s">
+        <v>389</v>
+      </c>
+      <c r="F26" s="137" t="s">
+        <v>368</v>
+      </c>
+      <c r="G26" s="137" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="31" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="127"/>
+      <c r="B27" s="131"/>
+      <c r="C27" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="F27" s="3"/>
+      <c r="G27" s="138" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="52" x14ac:dyDescent="0.15">
+      <c r="A28" s="127"/>
+      <c r="B28" s="131"/>
+      <c r="C28" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="G28" s="42" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="31" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="127"/>
+      <c r="B29" s="131"/>
+      <c r="C29" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" spans="1:7" ht="31" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="127"/>
+      <c r="B30" s="131"/>
+      <c r="C30" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="127"/>
+      <c r="B31" s="131"/>
+      <c r="C31" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="D31" s="135">
+        <v>43857</v>
+      </c>
+      <c r="E31" s="139"/>
+      <c r="F31" s="139">
+        <v>43087</v>
+      </c>
+      <c r="G31" s="139">
+        <v>42738</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="48" x14ac:dyDescent="0.15">
+      <c r="A32" s="127"/>
+      <c r="B32" s="136" t="s">
+        <v>391</v>
+      </c>
+      <c r="C32" s="129" t="s">
+        <v>337</v>
+      </c>
+      <c r="D32" s="137" t="s">
+        <v>389</v>
+      </c>
+      <c r="E32" s="137"/>
+      <c r="F32" s="137" t="s">
+        <v>379</v>
+      </c>
+      <c r="G32" s="137" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="31" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="127"/>
+      <c r="B33" s="131"/>
+      <c r="C33" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="78" x14ac:dyDescent="0.15">
+      <c r="A34" s="127"/>
+      <c r="B34" s="131"/>
+      <c r="C34" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="D34" s="42"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="42" t="s">
+        <v>385</v>
+      </c>
+      <c r="G34" s="42" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="31" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="127"/>
+      <c r="B35" s="131"/>
+      <c r="C35" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="3"/>
+    </row>
+    <row r="36" spans="1:7" ht="31" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="127"/>
+      <c r="B36" s="131"/>
+      <c r="C36" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="127"/>
+      <c r="B37" s="140"/>
+      <c r="C37" s="141" t="s">
+        <v>355</v>
+      </c>
+      <c r="D37" s="134">
+        <v>43906</v>
+      </c>
+      <c r="E37" s="134"/>
+      <c r="F37" s="134">
+        <v>43115</v>
+      </c>
+      <c r="G37" s="134">
+        <v>42800</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="89" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="142" t="s">
+        <v>22</v>
+      </c>
+      <c r="B38" s="128" t="s">
+        <v>52</v>
+      </c>
+      <c r="C38" s="129" t="s">
+        <v>337</v>
+      </c>
+      <c r="D38" s="130" t="s">
+        <v>392</v>
+      </c>
+      <c r="E38" s="130" t="s">
+        <v>393</v>
+      </c>
+      <c r="F38" s="130" t="s">
+        <v>394</v>
+      </c>
+      <c r="G38" s="143" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="144"/>
+      <c r="B39" s="131"/>
+      <c r="C39" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="G39" s="145" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="65" x14ac:dyDescent="0.15">
+      <c r="A40" s="144"/>
+      <c r="B40" s="131"/>
+      <c r="C40" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="D40" s="42" t="s">
+        <v>349</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="F40" s="42" t="s">
+        <v>400</v>
+      </c>
+      <c r="G40" s="145" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="38" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="144"/>
+      <c r="B41" s="131"/>
+      <c r="C41" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="D41" s="42" t="s">
+        <v>352</v>
+      </c>
+      <c r="E41" s="3"/>
+      <c r="F41" s="42"/>
+      <c r="G41" s="145"/>
+    </row>
+    <row r="42" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="144"/>
+      <c r="B42" s="131"/>
+      <c r="C42" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="G42" s="145" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="144"/>
+      <c r="B43" s="140"/>
+      <c r="C43" s="141" t="s">
+        <v>355</v>
+      </c>
+      <c r="D43" s="134">
+        <v>43738</v>
+      </c>
+      <c r="E43" s="134">
+        <v>43364</v>
+      </c>
+      <c r="F43" s="134">
+        <v>42999</v>
+      </c>
+      <c r="G43" s="146">
+        <v>42634</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="32" x14ac:dyDescent="0.15">
+      <c r="A44" s="144"/>
+      <c r="B44" s="131" t="s">
+        <v>403</v>
+      </c>
+      <c r="C44" s="129" t="s">
+        <v>337</v>
+      </c>
+      <c r="D44" s="137" t="s">
+        <v>404</v>
+      </c>
+      <c r="E44" s="137" t="s">
+        <v>404</v>
+      </c>
+      <c r="F44" s="137" t="s">
+        <v>405</v>
+      </c>
+      <c r="G44" s="147" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="144"/>
+      <c r="B45" s="131"/>
+      <c r="C45" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="G45" s="145"/>
+    </row>
+    <row r="46" spans="1:7" ht="78" x14ac:dyDescent="0.15">
+      <c r="A46" s="144"/>
+      <c r="B46" s="131"/>
+      <c r="C46" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="D46" s="42" t="s">
+        <v>409</v>
+      </c>
+      <c r="E46" s="42" t="s">
+        <v>409</v>
+      </c>
+      <c r="F46" s="42" t="s">
+        <v>410</v>
+      </c>
+      <c r="G46" s="145"/>
+    </row>
+    <row r="47" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="144"/>
+      <c r="B47" s="131"/>
+      <c r="C47" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="E47" s="3"/>
+      <c r="F47" s="42"/>
+      <c r="G47" s="145"/>
+    </row>
+    <row r="48" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="144"/>
+      <c r="B48" s="131"/>
+      <c r="C48" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="G48" s="145" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="144"/>
+      <c r="B49" s="131"/>
+      <c r="C49" s="141" t="s">
+        <v>355</v>
+      </c>
+      <c r="D49" s="134">
+        <v>43773</v>
+      </c>
+      <c r="E49" s="134"/>
+      <c r="F49" s="134">
+        <v>43026</v>
+      </c>
+      <c r="G49" s="146">
+        <v>42697</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="32" x14ac:dyDescent="0.15">
+      <c r="A50" s="144"/>
+      <c r="B50" s="136" t="s">
+        <v>412</v>
+      </c>
+      <c r="C50" s="129" t="s">
+        <v>337</v>
+      </c>
+      <c r="D50" s="130" t="s">
+        <v>413</v>
+      </c>
+      <c r="E50" s="130" t="s">
+        <v>413</v>
+      </c>
+      <c r="F50" s="130" t="s">
+        <v>414</v>
+      </c>
+      <c r="G50" s="143" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="31" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="144"/>
+      <c r="B51" s="131"/>
+      <c r="C51" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="G51" s="145" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="182" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="144"/>
+      <c r="B52" s="131"/>
+      <c r="C52" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="G52" s="145" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="31" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="144"/>
+      <c r="B53" s="131"/>
+      <c r="C53" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="D53" s="3">
+        <v>4</v>
+      </c>
+      <c r="E53" s="3"/>
+      <c r="F53" s="42"/>
+      <c r="G53" s="145"/>
+    </row>
+    <row r="54" spans="1:7" ht="31" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="144"/>
+      <c r="B54" s="131"/>
+      <c r="C54" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="G54" s="145" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="144"/>
+      <c r="B55" s="132"/>
+      <c r="C55" s="133" t="s">
+        <v>355</v>
+      </c>
+      <c r="D55" s="135">
+        <v>43794</v>
+      </c>
+      <c r="E55" s="148"/>
+      <c r="F55" s="148">
+        <v>43040</v>
+      </c>
+      <c r="G55" s="149">
+        <v>42697</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="48" x14ac:dyDescent="0.15">
+      <c r="A56" s="144"/>
+      <c r="B56" s="136" t="s">
+        <v>424</v>
+      </c>
+      <c r="C56" s="129" t="s">
+        <v>337</v>
+      </c>
+      <c r="D56" s="137" t="s">
+        <v>425</v>
+      </c>
+      <c r="E56" s="137" t="s">
+        <v>425</v>
+      </c>
+      <c r="F56" s="137" t="s">
+        <v>426</v>
+      </c>
+      <c r="G56" s="147" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="31" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="144"/>
+      <c r="B57" s="131"/>
+      <c r="C57" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="G57" s="145" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="112" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="144"/>
+      <c r="B58" s="131"/>
+      <c r="C58" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="D58" s="138"/>
+      <c r="E58" s="138"/>
+      <c r="F58" s="138" t="s">
+        <v>432</v>
+      </c>
+      <c r="G58" s="145" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="31" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="144"/>
+      <c r="B59" s="131"/>
+      <c r="C59" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="F59" s="42"/>
+      <c r="G59" s="145"/>
+    </row>
+    <row r="60" spans="1:7" ht="31" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="144"/>
+      <c r="B60" s="131"/>
+      <c r="C60" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="G60" s="145" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="144"/>
+      <c r="B61" s="131"/>
+      <c r="C61" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="D61" s="135">
+        <v>43836</v>
+      </c>
+      <c r="E61" s="135"/>
+      <c r="F61" s="139">
+        <v>43091</v>
+      </c>
+      <c r="G61" s="150">
+        <v>42706</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="64" x14ac:dyDescent="0.15">
+      <c r="A62" s="144"/>
+      <c r="B62" s="136" t="s">
+        <v>435</v>
+      </c>
+      <c r="C62" s="129" t="s">
+        <v>337</v>
+      </c>
+      <c r="D62" s="151" t="s">
+        <v>436</v>
+      </c>
+      <c r="E62" s="151" t="s">
+        <v>436</v>
+      </c>
+      <c r="F62" s="137" t="s">
+        <v>368</v>
+      </c>
+      <c r="G62" s="147" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="31" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="144"/>
+      <c r="B63" s="131"/>
+      <c r="C63" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="F63" s="3"/>
+      <c r="G63" s="152" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="104" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="144"/>
+      <c r="B64" s="131"/>
+      <c r="C64" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="G64" s="145" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="31" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="144"/>
+      <c r="B65" s="131"/>
+      <c r="C65" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="F65" s="42"/>
+      <c r="G65" s="145"/>
+    </row>
+    <row r="66" spans="1:7" ht="31" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="144"/>
+      <c r="B66" s="131"/>
+      <c r="C66" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="G66" s="145" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="144"/>
+      <c r="B67" s="131"/>
+      <c r="C67" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="D67" s="139">
+        <v>43864</v>
+      </c>
+      <c r="E67" s="139">
+        <v>43864</v>
+      </c>
+      <c r="F67" s="139">
+        <v>43087</v>
+      </c>
+      <c r="G67" s="150">
+        <v>42738</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="48" x14ac:dyDescent="0.15">
+      <c r="A68" s="144"/>
+      <c r="B68" s="136" t="s">
+        <v>437</v>
+      </c>
+      <c r="C68" s="129" t="s">
+        <v>337</v>
+      </c>
+      <c r="D68" s="151" t="s">
+        <v>436</v>
+      </c>
+      <c r="E68" s="153"/>
+      <c r="F68" s="153"/>
+      <c r="G68" s="147" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="144"/>
+      <c r="B69" s="131"/>
+      <c r="C69" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="152" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="52" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="144"/>
+      <c r="B70" s="131"/>
+      <c r="C70" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="145" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="31" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="144"/>
+      <c r="B71" s="131"/>
+      <c r="C71" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="E71" s="3"/>
+      <c r="F71" s="42"/>
+      <c r="G71" s="145"/>
+    </row>
+    <row r="72" spans="1:7" ht="31" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="144"/>
+      <c r="B72" s="131"/>
+      <c r="C72" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="145" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="154"/>
+      <c r="B73" s="132"/>
+      <c r="C73" s="133" t="s">
+        <v>355</v>
+      </c>
+      <c r="D73" s="135">
+        <v>43899</v>
+      </c>
+      <c r="E73" s="133"/>
+      <c r="F73" s="133"/>
+      <c r="G73" s="149">
+        <v>42755</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="A38:A73"/>
+    <mergeCell ref="B38:B43"/>
+    <mergeCell ref="B44:B49"/>
+    <mergeCell ref="B50:B55"/>
+    <mergeCell ref="B56:B61"/>
+    <mergeCell ref="B62:B67"/>
+    <mergeCell ref="B68:B73"/>
+    <mergeCell ref="A2:A37"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="B14:B19"/>
+    <mergeCell ref="B20:B25"/>
+    <mergeCell ref="B26:B31"/>
+    <mergeCell ref="B32:B37"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:X53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="26" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3554,10 +5485,10 @@
       <c r="B2" s="9">
         <v>43711</v>
       </c>
-      <c r="C2" s="112">
+      <c r="C2" s="93">
         <v>1</v>
       </c>
-      <c r="D2" s="115" t="s">
+      <c r="D2" s="96" t="s">
         <v>263</v>
       </c>
       <c r="E2" s="26">
@@ -3611,8 +5542,8 @@
         <f>B2+7</f>
         <v>43718</v>
       </c>
-      <c r="C3" s="113"/>
-      <c r="D3" s="116"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="97"/>
       <c r="E3" s="26">
         <v>2</v>
       </c>
@@ -3663,8 +5594,8 @@
         <f>B3+7</f>
         <v>43725</v>
       </c>
-      <c r="C4" s="113"/>
-      <c r="D4" s="116"/>
+      <c r="C4" s="94"/>
+      <c r="D4" s="97"/>
       <c r="E4" s="26">
         <v>2</v>
       </c>
@@ -3716,8 +5647,8 @@
         <f t="shared" ref="B5:B8" si="0">B4+7</f>
         <v>43732</v>
       </c>
-      <c r="C5" s="113"/>
-      <c r="D5" s="116"/>
+      <c r="C5" s="94"/>
+      <c r="D5" s="97"/>
       <c r="E5" s="26">
         <v>3</v>
       </c>
@@ -3769,8 +5700,8 @@
         <f>B5+7</f>
         <v>43739</v>
       </c>
-      <c r="C6" s="113"/>
-      <c r="D6" s="116"/>
+      <c r="C6" s="94"/>
+      <c r="D6" s="97"/>
       <c r="E6" s="26">
         <v>4</v>
       </c>
@@ -3809,7 +5740,9 @@
       <c r="R6" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="S6" s="33"/>
+      <c r="S6" s="33" t="s">
+        <v>321</v>
+      </c>
       <c r="V6" s="70"/>
       <c r="W6" s="75"/>
       <c r="X6" s="75"/>
@@ -3822,8 +5755,8 @@
         <f t="shared" si="0"/>
         <v>43746</v>
       </c>
-      <c r="C7" s="113"/>
-      <c r="D7" s="116"/>
+      <c r="C7" s="94"/>
+      <c r="D7" s="97"/>
       <c r="E7" s="26">
         <v>4</v>
       </c>
@@ -3856,7 +5789,9 @@
       <c r="R7" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="S7" s="32"/>
+      <c r="S7" s="32" t="s">
+        <v>321</v>
+      </c>
       <c r="V7" s="70"/>
       <c r="W7" s="75"/>
       <c r="X7" s="75"/>
@@ -3869,8 +5804,8 @@
         <f t="shared" si="0"/>
         <v>43753</v>
       </c>
-      <c r="C8" s="114"/>
-      <c r="D8" s="117"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="98"/>
       <c r="E8" s="26">
         <v>5</v>
       </c>
@@ -3914,24 +5849,24 @@
       <c r="X8" s="75"/>
     </row>
     <row r="9" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="87" t="s">
+      <c r="A9" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="88"/>
-      <c r="C9" s="88"/>
-      <c r="D9" s="88"/>
-      <c r="E9" s="88"/>
-      <c r="F9" s="88"/>
-      <c r="G9" s="88"/>
-      <c r="H9" s="88"/>
-      <c r="I9" s="88"/>
-      <c r="J9" s="88"/>
-      <c r="K9" s="88"/>
-      <c r="L9" s="88"/>
-      <c r="M9" s="88"/>
-      <c r="N9" s="88"/>
-      <c r="O9" s="88"/>
-      <c r="P9" s="88"/>
+      <c r="B9" s="92"/>
+      <c r="C9" s="92"/>
+      <c r="D9" s="92"/>
+      <c r="E9" s="92"/>
+      <c r="F9" s="92"/>
+      <c r="G9" s="92"/>
+      <c r="H9" s="92"/>
+      <c r="I9" s="92"/>
+      <c r="J9" s="92"/>
+      <c r="K9" s="92"/>
+      <c r="L9" s="92"/>
+      <c r="M9" s="92"/>
+      <c r="N9" s="92"/>
+      <c r="O9" s="92"/>
+      <c r="P9" s="92"/>
       <c r="Q9" s="4"/>
       <c r="R9" s="41"/>
       <c r="S9" s="32"/>
@@ -3947,10 +5882,10 @@
         <f>B8+21</f>
         <v>43774</v>
       </c>
-      <c r="C10" s="112">
+      <c r="C10" s="93">
         <v>1</v>
       </c>
-      <c r="D10" s="115" t="s">
+      <c r="D10" s="96" t="s">
         <v>263</v>
       </c>
       <c r="E10" s="26">
@@ -4000,8 +5935,8 @@
         <f t="shared" ref="B11:B16" si="1">B10+7</f>
         <v>43781</v>
       </c>
-      <c r="C11" s="113"/>
-      <c r="D11" s="116"/>
+      <c r="C11" s="94"/>
+      <c r="D11" s="97"/>
       <c r="E11" s="26">
         <v>6</v>
       </c>
@@ -4047,8 +5982,8 @@
         <f t="shared" si="1"/>
         <v>43788</v>
       </c>
-      <c r="C12" s="113"/>
-      <c r="D12" s="116"/>
+      <c r="C12" s="94"/>
+      <c r="D12" s="97"/>
       <c r="E12" s="26">
         <v>6</v>
       </c>
@@ -4093,8 +6028,8 @@
         <f t="shared" si="1"/>
         <v>43795</v>
       </c>
-      <c r="C13" s="113"/>
-      <c r="D13" s="116"/>
+      <c r="C13" s="94"/>
+      <c r="D13" s="97"/>
       <c r="E13" s="26">
         <v>7</v>
       </c>
@@ -4142,8 +6077,8 @@
         <f t="shared" si="1"/>
         <v>43802</v>
       </c>
-      <c r="C14" s="113"/>
-      <c r="D14" s="116"/>
+      <c r="C14" s="94"/>
+      <c r="D14" s="97"/>
       <c r="E14" s="26">
         <v>7</v>
       </c>
@@ -4190,8 +6125,8 @@
         <f t="shared" si="1"/>
         <v>43809</v>
       </c>
-      <c r="C15" s="113"/>
-      <c r="D15" s="116"/>
+      <c r="C15" s="94"/>
+      <c r="D15" s="97"/>
       <c r="E15" s="26">
         <v>8</v>
       </c>
@@ -4241,8 +6176,8 @@
         <f t="shared" si="1"/>
         <v>43816</v>
       </c>
-      <c r="C16" s="114"/>
-      <c r="D16" s="117"/>
+      <c r="C16" s="95"/>
+      <c r="D16" s="98"/>
       <c r="E16" s="26">
         <v>8</v>
       </c>
@@ -4283,24 +6218,24 @@
       <c r="X16" s="75"/>
     </row>
     <row r="17" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="87" t="s">
+      <c r="A17" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="88"/>
-      <c r="C17" s="88"/>
-      <c r="D17" s="88"/>
-      <c r="E17" s="88"/>
-      <c r="F17" s="88"/>
-      <c r="G17" s="88"/>
-      <c r="H17" s="88"/>
-      <c r="I17" s="88"/>
-      <c r="J17" s="88"/>
-      <c r="K17" s="88"/>
-      <c r="L17" s="88"/>
-      <c r="M17" s="88"/>
-      <c r="N17" s="88"/>
-      <c r="O17" s="88"/>
-      <c r="P17" s="88"/>
+      <c r="B17" s="92"/>
+      <c r="C17" s="92"/>
+      <c r="D17" s="92"/>
+      <c r="E17" s="92"/>
+      <c r="F17" s="92"/>
+      <c r="G17" s="92"/>
+      <c r="H17" s="92"/>
+      <c r="I17" s="92"/>
+      <c r="J17" s="92"/>
+      <c r="K17" s="92"/>
+      <c r="L17" s="92"/>
+      <c r="M17" s="92"/>
+      <c r="N17" s="92"/>
+      <c r="O17" s="92"/>
+      <c r="P17" s="92"/>
       <c r="Q17" s="4"/>
       <c r="R17" s="41"/>
       <c r="S17" s="32"/>
@@ -4316,10 +6251,10 @@
         <f>B16+21</f>
         <v>43837</v>
       </c>
-      <c r="C18" s="106">
+      <c r="C18" s="85">
         <v>2</v>
       </c>
-      <c r="D18" s="109" t="s">
+      <c r="D18" s="88" t="s">
         <v>186</v>
       </c>
       <c r="E18" s="28">
@@ -4369,8 +6304,8 @@
         <f>B18+7</f>
         <v>43844</v>
       </c>
-      <c r="C19" s="107"/>
-      <c r="D19" s="110"/>
+      <c r="C19" s="86"/>
+      <c r="D19" s="89"/>
       <c r="E19" s="28">
         <v>1</v>
       </c>
@@ -4418,8 +6353,8 @@
         <f t="shared" ref="B20:B40" si="2">B19+7</f>
         <v>43851</v>
       </c>
-      <c r="C20" s="107"/>
-      <c r="D20" s="110"/>
+      <c r="C20" s="86"/>
+      <c r="D20" s="89"/>
       <c r="E20" s="28">
         <v>2</v>
       </c>
@@ -4467,8 +6402,8 @@
         <f>B20+7</f>
         <v>43858</v>
       </c>
-      <c r="C21" s="108"/>
-      <c r="D21" s="111"/>
+      <c r="C21" s="87"/>
+      <c r="D21" s="90"/>
       <c r="E21" s="28">
         <v>2</v>
       </c>
@@ -4516,10 +6451,10 @@
         <f>B21+7</f>
         <v>43865</v>
       </c>
-      <c r="C22" s="92">
+      <c r="C22" s="104">
         <v>3</v>
       </c>
-      <c r="D22" s="89" t="s">
+      <c r="D22" s="101" t="s">
         <v>61</v>
       </c>
       <c r="E22" s="35">
@@ -4569,8 +6504,8 @@
         <f>B22+7</f>
         <v>43872</v>
       </c>
-      <c r="C23" s="93"/>
-      <c r="D23" s="90"/>
+      <c r="C23" s="105"/>
+      <c r="D23" s="102"/>
       <c r="E23" s="35">
         <v>2</v>
       </c>
@@ -4617,8 +6552,8 @@
         <f>B23+7</f>
         <v>43879</v>
       </c>
-      <c r="C24" s="94"/>
-      <c r="D24" s="91"/>
+      <c r="C24" s="106"/>
+      <c r="D24" s="103"/>
       <c r="E24" s="34">
         <v>2</v>
       </c>
@@ -4654,24 +6589,24 @@
       <c r="S24" s="33"/>
     </row>
     <row r="25" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="87" t="s">
+      <c r="A25" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="88"/>
-      <c r="C25" s="88"/>
-      <c r="D25" s="88"/>
-      <c r="E25" s="88"/>
-      <c r="F25" s="88"/>
-      <c r="G25" s="88"/>
-      <c r="H25" s="88"/>
-      <c r="I25" s="88"/>
-      <c r="J25" s="88"/>
-      <c r="K25" s="88"/>
-      <c r="L25" s="88"/>
-      <c r="M25" s="88"/>
-      <c r="N25" s="88"/>
-      <c r="O25" s="88"/>
-      <c r="P25" s="88"/>
+      <c r="B25" s="92"/>
+      <c r="C25" s="92"/>
+      <c r="D25" s="92"/>
+      <c r="E25" s="92"/>
+      <c r="F25" s="92"/>
+      <c r="G25" s="92"/>
+      <c r="H25" s="92"/>
+      <c r="I25" s="92"/>
+      <c r="J25" s="92"/>
+      <c r="K25" s="92"/>
+      <c r="L25" s="92"/>
+      <c r="M25" s="92"/>
+      <c r="N25" s="92"/>
+      <c r="O25" s="92"/>
+      <c r="P25" s="92"/>
       <c r="Q25" s="4"/>
       <c r="R25" s="50"/>
       <c r="S25" s="32"/>
@@ -4687,10 +6622,10 @@
         <f>B24+21</f>
         <v>43900</v>
       </c>
-      <c r="C26" s="92">
+      <c r="C26" s="104">
         <v>3</v>
       </c>
-      <c r="D26" s="89" t="s">
+      <c r="D26" s="101" t="s">
         <v>61</v>
       </c>
       <c r="E26" s="29">
@@ -4740,8 +6675,8 @@
         <f t="shared" si="2"/>
         <v>43907</v>
       </c>
-      <c r="C27" s="93"/>
-      <c r="D27" s="90"/>
+      <c r="C27" s="105"/>
+      <c r="D27" s="102"/>
       <c r="E27" s="35">
         <v>3</v>
       </c>
@@ -4786,8 +6721,8 @@
         <f t="shared" si="2"/>
         <v>43914</v>
       </c>
-      <c r="C28" s="93"/>
-      <c r="D28" s="90"/>
+      <c r="C28" s="105"/>
+      <c r="D28" s="102"/>
       <c r="E28" s="29">
         <v>4</v>
       </c>
@@ -4835,8 +6770,8 @@
         <f t="shared" si="2"/>
         <v>43921</v>
       </c>
-      <c r="C29" s="94"/>
-      <c r="D29" s="91"/>
+      <c r="C29" s="106"/>
+      <c r="D29" s="103"/>
       <c r="E29" s="35">
         <v>4</v>
       </c>
@@ -4882,10 +6817,10 @@
         <f t="shared" si="2"/>
         <v>43928</v>
       </c>
-      <c r="C30" s="95">
+      <c r="C30" s="107">
         <v>4</v>
       </c>
-      <c r="D30" s="97" t="s">
+      <c r="D30" s="109" t="s">
         <v>44</v>
       </c>
       <c r="E30" s="30">
@@ -4937,8 +6872,8 @@
         <f t="shared" si="2"/>
         <v>43935</v>
       </c>
-      <c r="C31" s="96"/>
-      <c r="D31" s="98"/>
+      <c r="C31" s="108"/>
+      <c r="D31" s="110"/>
       <c r="E31" s="30">
         <v>2</v>
       </c>
@@ -4979,24 +6914,24 @@
       <c r="X31" s="75"/>
     </row>
     <row r="32" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="85" t="s">
+      <c r="A32" s="99" t="s">
         <v>14</v>
       </c>
-      <c r="B32" s="86"/>
-      <c r="C32" s="86"/>
-      <c r="D32" s="86"/>
-      <c r="E32" s="86"/>
-      <c r="F32" s="86"/>
-      <c r="G32" s="86"/>
-      <c r="H32" s="86"/>
-      <c r="I32" s="86"/>
-      <c r="J32" s="86"/>
-      <c r="K32" s="86"/>
-      <c r="L32" s="86"/>
-      <c r="M32" s="86"/>
-      <c r="N32" s="86"/>
-      <c r="O32" s="86"/>
-      <c r="P32" s="86"/>
+      <c r="B32" s="100"/>
+      <c r="C32" s="100"/>
+      <c r="D32" s="100"/>
+      <c r="E32" s="100"/>
+      <c r="F32" s="100"/>
+      <c r="G32" s="100"/>
+      <c r="H32" s="100"/>
+      <c r="I32" s="100"/>
+      <c r="J32" s="100"/>
+      <c r="K32" s="100"/>
+      <c r="L32" s="100"/>
+      <c r="M32" s="100"/>
+      <c r="N32" s="100"/>
+      <c r="O32" s="100"/>
+      <c r="P32" s="100"/>
       <c r="Q32" s="47"/>
       <c r="R32" s="51"/>
       <c r="S32" s="32"/>
@@ -5012,10 +6947,10 @@
         <f>B31+21</f>
         <v>43956</v>
       </c>
-      <c r="C33" s="95">
+      <c r="C33" s="107">
         <v>4</v>
       </c>
-      <c r="D33" s="97" t="s">
+      <c r="D33" s="109" t="s">
         <v>44</v>
       </c>
       <c r="E33" s="30">
@@ -5060,8 +6995,8 @@
         <f t="shared" si="2"/>
         <v>43963</v>
       </c>
-      <c r="C34" s="100"/>
-      <c r="D34" s="99"/>
+      <c r="C34" s="112"/>
+      <c r="D34" s="111"/>
       <c r="E34" s="30">
         <v>3</v>
       </c>
@@ -5106,8 +7041,8 @@
         <f t="shared" si="2"/>
         <v>43970</v>
       </c>
-      <c r="C35" s="96"/>
-      <c r="D35" s="98"/>
+      <c r="C35" s="108"/>
+      <c r="D35" s="110"/>
       <c r="E35" s="30">
         <v>4</v>
       </c>
@@ -5151,10 +7086,10 @@
         <f t="shared" si="2"/>
         <v>43977</v>
       </c>
-      <c r="C36" s="103">
+      <c r="C36" s="115">
         <v>5</v>
       </c>
-      <c r="D36" s="101" t="s">
+      <c r="D36" s="113" t="s">
         <v>50</v>
       </c>
       <c r="E36" s="31">
@@ -5194,8 +7129,8 @@
         <f t="shared" si="2"/>
         <v>43984</v>
       </c>
-      <c r="C37" s="104"/>
-      <c r="D37" s="102"/>
+      <c r="C37" s="116"/>
+      <c r="D37" s="114"/>
       <c r="E37" s="31">
         <v>1</v>
       </c>
@@ -5235,8 +7170,8 @@
         <f t="shared" si="2"/>
         <v>43991</v>
       </c>
-      <c r="C38" s="104"/>
-      <c r="D38" s="102"/>
+      <c r="C38" s="116"/>
+      <c r="D38" s="114"/>
       <c r="E38" s="31">
         <v>1</v>
       </c>
@@ -5274,8 +7209,8 @@
         <f t="shared" si="2"/>
         <v>43998</v>
       </c>
-      <c r="C39" s="104"/>
-      <c r="D39" s="102"/>
+      <c r="C39" s="116"/>
+      <c r="D39" s="114"/>
       <c r="E39" s="31">
         <v>1</v>
       </c>
@@ -5313,8 +7248,8 @@
         <f t="shared" si="2"/>
         <v>44005</v>
       </c>
-      <c r="C40" s="105"/>
-      <c r="D40" s="102"/>
+      <c r="C40" s="117"/>
+      <c r="D40" s="114"/>
       <c r="E40" s="31">
         <v>1</v>
       </c>
@@ -5343,24 +7278,24 @@
       <c r="X40" s="75"/>
     </row>
     <row r="41" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="85" t="s">
+      <c r="A41" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="B41" s="86"/>
-      <c r="C41" s="86"/>
-      <c r="D41" s="86"/>
-      <c r="E41" s="86"/>
-      <c r="F41" s="86"/>
-      <c r="G41" s="86"/>
-      <c r="H41" s="86"/>
-      <c r="I41" s="86"/>
-      <c r="J41" s="86"/>
-      <c r="K41" s="86"/>
-      <c r="L41" s="86"/>
-      <c r="M41" s="86"/>
-      <c r="N41" s="86"/>
-      <c r="O41" s="86"/>
-      <c r="P41" s="86"/>
+      <c r="B41" s="100"/>
+      <c r="C41" s="100"/>
+      <c r="D41" s="100"/>
+      <c r="E41" s="100"/>
+      <c r="F41" s="100"/>
+      <c r="G41" s="100"/>
+      <c r="H41" s="100"/>
+      <c r="I41" s="100"/>
+      <c r="J41" s="100"/>
+      <c r="K41" s="100"/>
+      <c r="L41" s="100"/>
+      <c r="M41" s="100"/>
+      <c r="N41" s="100"/>
+      <c r="O41" s="100"/>
+      <c r="P41" s="100"/>
       <c r="Q41" s="47"/>
       <c r="R41" s="51"/>
       <c r="V41" s="70"/>
@@ -5429,14 +7364,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="D18:D21"/>
-    <mergeCell ref="A9:P9"/>
-    <mergeCell ref="A17:P17"/>
-    <mergeCell ref="C2:C8"/>
-    <mergeCell ref="D2:D8"/>
-    <mergeCell ref="D10:D16"/>
-    <mergeCell ref="C10:C16"/>
     <mergeCell ref="A41:P41"/>
     <mergeCell ref="A32:P32"/>
     <mergeCell ref="A25:P25"/>
@@ -5450,6 +7377,14 @@
     <mergeCell ref="C33:C35"/>
     <mergeCell ref="D36:D40"/>
     <mergeCell ref="C36:C40"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="A9:P9"/>
+    <mergeCell ref="A17:P17"/>
+    <mergeCell ref="C2:C8"/>
+    <mergeCell ref="D2:D8"/>
+    <mergeCell ref="D10:D16"/>
+    <mergeCell ref="C10:C16"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5457,7 +7392,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
@@ -5528,7 +7463,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C68"/>
   <sheetViews>
@@ -6228,7 +8163,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D65"/>
   <sheetViews>

--- a/progression_2019_2020_IPT_MPSI.xlsx
+++ b/progression_2019_2020_IPT_MPSI.xlsx
@@ -9,19 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-34660" yWindow="-1120" windowWidth="29380" windowHeight="18380"/>
+    <workbookView xWindow="-34840" yWindow="500" windowWidth="29380" windowHeight="14640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Planning DS" sheetId="16" r:id="rId1"/>
-    <sheet name="Planning DS0" sheetId="15" r:id="rId2"/>
-    <sheet name="Semanier MPSI IPT 2019-2020" sheetId="12" r:id="rId3"/>
-    <sheet name="Cycles MPSI IPT" sheetId="11" r:id="rId4"/>
-    <sheet name="Competences" sheetId="14" r:id="rId5"/>
-    <sheet name="Programme" sheetId="13" r:id="rId6"/>
+    <sheet name="Semanier MPSI IPT 2019-2020" sheetId="12" r:id="rId2"/>
+    <sheet name="Cycles MPSI IPT" sheetId="11" r:id="rId3"/>
+    <sheet name="Competences" sheetId="14" r:id="rId4"/>
+    <sheet name="Programme" sheetId="13" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'Cycles MPSI IPT'!$A$3:$B$7</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'Semanier MPSI IPT 2019-2020'!$A$18:$H$20</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'Cycles MPSI IPT'!$A$3:$B$7</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Semanier MPSI IPT 2019-2020'!$A$18:$H$20</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="346">
   <si>
     <t>Cours</t>
   </si>
@@ -1071,326 +1070,35 @@
     <t>Titre</t>
   </si>
   <si>
-    <t>Modélisation de l'auto-focus d'un appareil photo réflex</t>
-  </si>
-  <si>
-    <t>Fauteuil dynamique de cinéma</t>
-  </si>
-  <si>
-    <t>ABS</t>
-  </si>
-  <si>
-    <t>Téléchirurgie</t>
-  </si>
-  <si>
     <t>Supports</t>
   </si>
   <si>
-    <t>DS/autofocus_appareil_reflex</t>
-  </si>
-  <si>
-    <t>automatique/fauteuil_dynamique_cinema</t>
-  </si>
-  <si>
-    <t>CCP PSI 2015</t>
-  </si>
-  <si>
-    <t>Thèmes</t>
-  </si>
-  <si>
-    <t>SLCI, analyse temporelle, chaine fonctionnelle</t>
-  </si>
-  <si>
-    <t>AF SysML, SLCI, temporel, multiphysique</t>
-  </si>
-  <si>
-    <t>SLCI, Bode, multihysique, Chaine fonctionnelle</t>
-  </si>
-  <si>
-    <t>PFS 2D, SysML, combinatoire, Fermeture geo</t>
-  </si>
-  <si>
     <t>Cycles</t>
   </si>
   <si>
-    <t>1;2</t>
-  </si>
-  <si>
-    <t>Durée</t>
-  </si>
-  <si>
-    <t>2H</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
-    <t>Cellule d'assemblage pour l'avion Falcon</t>
-  </si>
-  <si>
-    <t>Fauteuil roulant handicapé +Imagerie EOS</t>
-  </si>
-  <si>
-    <t>Vanoise express</t>
-  </si>
-  <si>
-    <t>Porte de tram et micromanipulateurendoscopique</t>
-  </si>
-  <si>
-    <t>automatique/assemblage_falcon</t>
-  </si>
-  <si>
-    <t>Central PSI 2008 et CCP PSI 2016</t>
-  </si>
-  <si>
-    <t>SLCI, analyse temporelle et fréquentielle, chaine fonctionnelle</t>
-  </si>
-  <si>
-    <t>AF SysML, SLCI, Bode, correcteurs</t>
-  </si>
-  <si>
-    <t>AF SysML, Théorie des mécanismes, Liaison équivalente, Cinématique engrenage, Statique</t>
-  </si>
-  <si>
-    <t>4H</t>
-  </si>
-  <si>
-    <t>2H+2H</t>
-  </si>
-  <si>
-    <t>Tete de découpe de tissu</t>
-  </si>
-  <si>
-    <t>Transmission tramway</t>
-  </si>
-  <si>
-    <t>Train atterrissage hélicoptère</t>
-  </si>
-  <si>
-    <t>DS/tete_decoupe_tissu</t>
-  </si>
-  <si>
-    <t>CCP MP 2018</t>
-  </si>
-  <si>
-    <t>SIA PT 2014</t>
-  </si>
-  <si>
-    <t>SLCI Correcteur, analyse temporelle, fermeture geo, dynamique simple</t>
-  </si>
-  <si>
-    <t>Dynamique simple, lois de vitesse, asservissement</t>
-  </si>
-  <si>
-    <t>Dynamique, AF en SysML</t>
-  </si>
-  <si>
-    <t>3;4</t>
-  </si>
-  <si>
-    <t>Modélisation du robot d'exploration ROBOVOLC</t>
-  </si>
-  <si>
-    <t>ROBOVOLC</t>
-  </si>
-  <si>
-    <t>FLIR</t>
-  </si>
-  <si>
-    <t>ROBUCAR</t>
-  </si>
-  <si>
-    <t>DS/robovolc</t>
-  </si>
-  <si>
-    <t>XENS2017</t>
-  </si>
-  <si>
-    <t>Central psi 2014</t>
-  </si>
-  <si>
-    <t>e3a 2015 MP SII</t>
-  </si>
-  <si>
-    <t>Dynamique, Cinématique simple, SLCI avec Bode et correcteur AF SysML</t>
-  </si>
-  <si>
-    <t>Dynamique, TEC, Cinématique simple, SLCI avec Bode</t>
-  </si>
-  <si>
-    <t>2;3;4;5;6</t>
-  </si>
-  <si>
-    <t>DS5</t>
-  </si>
-  <si>
-    <t>Modélisation multiphysique d'un système</t>
-  </si>
-  <si>
-    <t>DS/central_2018</t>
-  </si>
-  <si>
-    <t>DS6</t>
-  </si>
-  <si>
-    <t>Modélisation d'un système d' Anti Blocage des Roues</t>
-  </si>
-  <si>
-    <t>Exosquelette</t>
-  </si>
-  <si>
-    <t>Twizy</t>
-  </si>
-  <si>
-    <t>Eolienne</t>
-  </si>
-  <si>
-    <t>automatique/ABS</t>
-  </si>
-  <si>
-    <t>Central TSI 2017</t>
-  </si>
-  <si>
-    <t>Mines-pont 2017</t>
-  </si>
-  <si>
-    <t>upsti</t>
-  </si>
-  <si>
-    <t>chaine fonctionnelle, schémas bloc, analyse temporelle</t>
-  </si>
-  <si>
-    <t>AF SysML, Frottement, résolution d'un problème de statique</t>
-  </si>
-  <si>
-    <t>2h</t>
-  </si>
-  <si>
-    <t>DM2</t>
-  </si>
-  <si>
-    <t>Presse à vis</t>
-  </si>
-  <si>
-    <t>Assemblage Falcon</t>
-  </si>
-  <si>
-    <t>DS/presse_a_vis</t>
-  </si>
-  <si>
-    <t>e3a PSI 2017</t>
-  </si>
-  <si>
-    <t>e3a psi 2015</t>
-  </si>
-  <si>
-    <t>SLCI, correcteur à avance de phase</t>
-  </si>
-  <si>
-    <t>chaine fonctionnelle, schémas bloc, analyse temporelle et fréquentielle</t>
-  </si>
-  <si>
-    <t>2;3</t>
-  </si>
-  <si>
-    <t>DM3</t>
-  </si>
-  <si>
-    <t>Robot Kuka</t>
-  </si>
-  <si>
-    <t>Simulateur de vol</t>
-  </si>
-  <si>
-    <t>Tapis de course</t>
-  </si>
-  <si>
-    <t>DS/robot_kuka</t>
-  </si>
-  <si>
-    <t>CCP MP 2010</t>
-  </si>
-  <si>
-    <t>Central PSI 2017</t>
-  </si>
-  <si>
-    <t>PT SIB 2011</t>
-  </si>
-  <si>
-    <t>Cinématique/Statique</t>
-  </si>
-  <si>
-    <t>Cinématique, fermeture geo, statique, asservissement</t>
-  </si>
-  <si>
-    <t>Analyse fonctionnelle sans SysML, Cinétique, fermeture geo, Statique, PFD, statique, frottement, hyperstatisme, Energétique, Automatique</t>
-  </si>
-  <si>
-    <t>4h</t>
-  </si>
-  <si>
-    <t>DM4</t>
-  </si>
-  <si>
-    <t>Modélisation d'une barrière automatique</t>
-  </si>
-  <si>
-    <t>Drone miniature</t>
-  </si>
-  <si>
-    <t>Clever</t>
-  </si>
-  <si>
-    <t>DS/canne_robotise</t>
-  </si>
-  <si>
-    <t>dynamique/barriere_sympact</t>
-  </si>
-  <si>
-    <t>Mines-pont 2010 MP</t>
-  </si>
-  <si>
-    <t>SIA 2013</t>
-  </si>
-  <si>
-    <t>Cinétique, dynamique, asservissement correcteur, AF avec SysML</t>
-  </si>
-  <si>
-    <t>4;5</t>
-  </si>
-  <si>
-    <t>3H</t>
-  </si>
-  <si>
-    <t>DM5</t>
-  </si>
-  <si>
-    <t>Modélisation d'une canne robotisée</t>
-  </si>
-  <si>
-    <t>DM6</t>
-  </si>
-  <si>
-    <t>Chargement et déchargement de porte-conteneur</t>
-  </si>
-  <si>
-    <t>Central PSI 2013</t>
-  </si>
-  <si>
-    <t>Dynamique Energétique, AF en SysML, SLCI</t>
-  </si>
-  <si>
-    <t>2;3;4;5;6;7</t>
-  </si>
-  <si>
     <t>Algorithmique et programmation</t>
+  </si>
+  <si>
+    <t>Chapitres</t>
+  </si>
+  <si>
+    <t>1-1;1-2;1-3;1-4</t>
+  </si>
+  <si>
+    <t>architecture/ARCHI-004;algo/ALG-013;algo/ALG-014;algo/ALG-015;algo/ALG-016</t>
+  </si>
+  <si>
+    <t>tableaux/TAB-024;tableaux/TAB-025</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1489,20 +1197,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="24"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -1554,7 +1248,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -1821,15 +1515,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -1844,84 +1529,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="654">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2579,7 +2186,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="155">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2945,16 +2552,13 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2966,67 +2570,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3997,10 +3541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4028,59 +3572,75 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="48" x14ac:dyDescent="0.15">
-      <c r="A2" s="128">
+      <c r="A2" s="127">
         <v>1</v>
       </c>
-      <c r="B2" s="129" t="s">
+      <c r="B2" s="128" t="s">
         <v>337</v>
       </c>
-      <c r="C2" s="130" t="s">
-        <v>442</v>
-      </c>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="130"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="131"/>
+      <c r="C2" s="129" t="s">
+        <v>341</v>
+      </c>
+      <c r="D2" s="129"/>
+      <c r="E2" s="129"/>
+      <c r="F2" s="129"/>
+    </row>
+    <row r="3" spans="1:6" ht="78" x14ac:dyDescent="0.15">
+      <c r="A3" s="130"/>
       <c r="B3" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="C3" s="3"/>
+        <v>338</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>344</v>
+      </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="131"/>
+      <c r="A4" s="130"/>
       <c r="B4" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="C4" s="42"/>
+        <v>342</v>
+      </c>
+      <c r="C4" s="42" t="s">
+        <v>343</v>
+      </c>
       <c r="D4" s="3"/>
       <c r="E4" s="42"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="132"/>
-      <c r="B5" s="133" t="s">
-        <v>355</v>
-      </c>
-      <c r="C5" s="135">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="130"/>
+      <c r="B5" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="C5" s="42">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="131"/>
+      <c r="B6" s="132" t="s">
+        <v>340</v>
+      </c>
+      <c r="C6" s="133">
         <v>43754</v>
       </c>
-      <c r="D5" s="135"/>
-      <c r="E5" s="135"/>
-      <c r="F5" s="135"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
+      <c r="D6" s="133"/>
+      <c r="E6" s="133"/>
+      <c r="F6" s="133"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
         <v>282</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A2:A6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4088,1313 +3648,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G73"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="4" max="4" width="14.33203125" customWidth="1"/>
-    <col min="5" max="5" width="13.1640625" customWidth="1"/>
-    <col min="6" max="6" width="13.83203125" customWidth="1"/>
-    <col min="7" max="7" width="16.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="64" x14ac:dyDescent="0.15">
-      <c r="A2" s="127" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="128" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" s="129" t="s">
-        <v>337</v>
-      </c>
-      <c r="D2" s="130" t="s">
-        <v>338</v>
-      </c>
-      <c r="E2" s="130" t="s">
-        <v>339</v>
-      </c>
-      <c r="F2" s="130" t="s">
-        <v>340</v>
-      </c>
-      <c r="G2" s="130" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="39" x14ac:dyDescent="0.15">
-      <c r="A3" s="127"/>
-      <c r="B3" s="131"/>
-      <c r="C3" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="52" x14ac:dyDescent="0.15">
-      <c r="A4" s="127"/>
-      <c r="B4" s="131"/>
-      <c r="C4" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="D4" s="42" t="s">
-        <v>347</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="F4" s="42" t="s">
-        <v>349</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="127"/>
-      <c r="B5" s="131"/>
-      <c r="C5" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="D5" s="42" t="s">
-        <v>352</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="F5" s="42"/>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="127"/>
-      <c r="B6" s="131"/>
-      <c r="C6" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="127"/>
-      <c r="B7" s="132"/>
-      <c r="C7" s="133" t="s">
-        <v>355</v>
-      </c>
-      <c r="D7" s="134">
-        <v>43731</v>
-      </c>
-      <c r="E7" s="134">
-        <v>43731</v>
-      </c>
-      <c r="F7" s="135">
-        <v>43010</v>
-      </c>
-      <c r="G7" s="135">
-        <v>42639</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="52" x14ac:dyDescent="0.15">
-      <c r="A8" s="127"/>
-      <c r="B8" s="128" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="129" t="s">
-        <v>337</v>
-      </c>
-      <c r="D8" s="129" t="s">
-        <v>356</v>
-      </c>
-      <c r="E8" s="129" t="s">
-        <v>357</v>
-      </c>
-      <c r="F8" s="129" t="s">
-        <v>358</v>
-      </c>
-      <c r="G8" s="130" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="26" x14ac:dyDescent="0.15">
-      <c r="A9" s="127"/>
-      <c r="B9" s="131"/>
-      <c r="C9" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="65" x14ac:dyDescent="0.15">
-      <c r="A10" s="127"/>
-      <c r="B10" s="131"/>
-      <c r="C10" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="D10" s="42" t="s">
-        <v>362</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="38" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="127"/>
-      <c r="B11" s="131"/>
-      <c r="C11" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="127"/>
-      <c r="B12" s="131"/>
-      <c r="C12" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="127"/>
-      <c r="B13" s="132"/>
-      <c r="C13" s="133" t="s">
-        <v>355</v>
-      </c>
-      <c r="D13" s="135">
-        <v>43745</v>
-      </c>
-      <c r="E13" s="135"/>
-      <c r="F13" s="135">
-        <v>43052</v>
-      </c>
-      <c r="G13" s="135">
-        <v>42660</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="48" x14ac:dyDescent="0.15">
-      <c r="A14" s="127"/>
-      <c r="B14" s="136" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="129" t="s">
-        <v>337</v>
-      </c>
-      <c r="D14" s="137" t="s">
-        <v>367</v>
-      </c>
-      <c r="E14" s="137" t="s">
-        <v>367</v>
-      </c>
-      <c r="F14" s="137" t="s">
-        <v>368</v>
-      </c>
-      <c r="G14" s="137" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="31" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="127"/>
-      <c r="B15" s="131"/>
-      <c r="C15" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="138" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="91" x14ac:dyDescent="0.15">
-      <c r="A16" s="127"/>
-      <c r="B16" s="131"/>
-      <c r="C16" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="G16" s="42" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="31" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="127"/>
-      <c r="B17" s="131"/>
-      <c r="C17" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="3"/>
-    </row>
-    <row r="18" spans="1:7" ht="31" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="127"/>
-      <c r="B18" s="131"/>
-      <c r="C18" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="127"/>
-      <c r="B19" s="131"/>
-      <c r="C19" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="D19" s="135">
-        <v>43781</v>
-      </c>
-      <c r="E19" s="139">
-        <v>43444</v>
-      </c>
-      <c r="F19" s="139">
-        <v>43087</v>
-      </c>
-      <c r="G19" s="139">
-        <v>42738</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="64" x14ac:dyDescent="0.15">
-      <c r="A20" s="127"/>
-      <c r="B20" s="136" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="129" t="s">
-        <v>337</v>
-      </c>
-      <c r="D20" s="137" t="s">
-        <v>377</v>
-      </c>
-      <c r="E20" s="137" t="s">
-        <v>378</v>
-      </c>
-      <c r="F20" s="137" t="s">
-        <v>379</v>
-      </c>
-      <c r="G20" s="137" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="31" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="127"/>
-      <c r="B21" s="131"/>
-      <c r="C21" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="78" x14ac:dyDescent="0.15">
-      <c r="A22" s="127"/>
-      <c r="B22" s="131"/>
-      <c r="C22" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="D22" s="42"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="42" t="s">
-        <v>385</v>
-      </c>
-      <c r="G22" s="42" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="31" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="127"/>
-      <c r="B23" s="131"/>
-      <c r="C23" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="3"/>
-    </row>
-    <row r="24" spans="1:7" ht="31" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="127"/>
-      <c r="B24" s="131"/>
-      <c r="C24" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="127"/>
-      <c r="B25" s="131"/>
-      <c r="C25" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="D25" s="139">
-        <v>43808</v>
-      </c>
-      <c r="E25" s="139">
-        <v>43114</v>
-      </c>
-      <c r="F25" s="139">
-        <v>43115</v>
-      </c>
-      <c r="G25" s="139">
-        <v>42800</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="48" x14ac:dyDescent="0.15">
-      <c r="A26" s="127"/>
-      <c r="B26" s="136" t="s">
-        <v>388</v>
-      </c>
-      <c r="C26" s="129" t="s">
-        <v>337</v>
-      </c>
-      <c r="D26" s="137" t="s">
-        <v>389</v>
-      </c>
-      <c r="E26" s="137" t="s">
-        <v>389</v>
-      </c>
-      <c r="F26" s="137" t="s">
-        <v>368</v>
-      </c>
-      <c r="G26" s="137" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="31" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="127"/>
-      <c r="B27" s="131"/>
-      <c r="C27" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="F27" s="3"/>
-      <c r="G27" s="138" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="52" x14ac:dyDescent="0.15">
-      <c r="A28" s="127"/>
-      <c r="B28" s="131"/>
-      <c r="C28" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="G28" s="42" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="31" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="127"/>
-      <c r="B29" s="131"/>
-      <c r="C29" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="3"/>
-    </row>
-    <row r="30" spans="1:7" ht="31" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="127"/>
-      <c r="B30" s="131"/>
-      <c r="C30" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="127"/>
-      <c r="B31" s="131"/>
-      <c r="C31" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="D31" s="135">
-        <v>43857</v>
-      </c>
-      <c r="E31" s="139"/>
-      <c r="F31" s="139">
-        <v>43087</v>
-      </c>
-      <c r="G31" s="139">
-        <v>42738</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="48" x14ac:dyDescent="0.15">
-      <c r="A32" s="127"/>
-      <c r="B32" s="136" t="s">
-        <v>391</v>
-      </c>
-      <c r="C32" s="129" t="s">
-        <v>337</v>
-      </c>
-      <c r="D32" s="137" t="s">
-        <v>389</v>
-      </c>
-      <c r="E32" s="137"/>
-      <c r="F32" s="137" t="s">
-        <v>379</v>
-      </c>
-      <c r="G32" s="137" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="31" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="127"/>
-      <c r="B33" s="131"/>
-      <c r="C33" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="78" x14ac:dyDescent="0.15">
-      <c r="A34" s="127"/>
-      <c r="B34" s="131"/>
-      <c r="C34" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="D34" s="42"/>
-      <c r="E34" s="42"/>
-      <c r="F34" s="42" t="s">
-        <v>385</v>
-      </c>
-      <c r="G34" s="42" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="31" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="127"/>
-      <c r="B35" s="131"/>
-      <c r="C35" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="42"/>
-      <c r="G35" s="3"/>
-    </row>
-    <row r="36" spans="1:7" ht="31" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="127"/>
-      <c r="B36" s="131"/>
-      <c r="C36" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="127"/>
-      <c r="B37" s="140"/>
-      <c r="C37" s="141" t="s">
-        <v>355</v>
-      </c>
-      <c r="D37" s="134">
-        <v>43906</v>
-      </c>
-      <c r="E37" s="134"/>
-      <c r="F37" s="134">
-        <v>43115</v>
-      </c>
-      <c r="G37" s="134">
-        <v>42800</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="89" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="142" t="s">
-        <v>22</v>
-      </c>
-      <c r="B38" s="128" t="s">
-        <v>52</v>
-      </c>
-      <c r="C38" s="129" t="s">
-        <v>337</v>
-      </c>
-      <c r="D38" s="130" t="s">
-        <v>392</v>
-      </c>
-      <c r="E38" s="130" t="s">
-        <v>393</v>
-      </c>
-      <c r="F38" s="130" t="s">
-        <v>394</v>
-      </c>
-      <c r="G38" s="143" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="144"/>
-      <c r="B39" s="131"/>
-      <c r="C39" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="G39" s="145" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="65" x14ac:dyDescent="0.15">
-      <c r="A40" s="144"/>
-      <c r="B40" s="131"/>
-      <c r="C40" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="D40" s="42" t="s">
-        <v>349</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="F40" s="42" t="s">
-        <v>400</v>
-      </c>
-      <c r="G40" s="145" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="38" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="144"/>
-      <c r="B41" s="131"/>
-      <c r="C41" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="D41" s="42" t="s">
-        <v>352</v>
-      </c>
-      <c r="E41" s="3"/>
-      <c r="F41" s="42"/>
-      <c r="G41" s="145"/>
-    </row>
-    <row r="42" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="144"/>
-      <c r="B42" s="131"/>
-      <c r="C42" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="G42" s="145" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="144"/>
-      <c r="B43" s="140"/>
-      <c r="C43" s="141" t="s">
-        <v>355</v>
-      </c>
-      <c r="D43" s="134">
-        <v>43738</v>
-      </c>
-      <c r="E43" s="134">
-        <v>43364</v>
-      </c>
-      <c r="F43" s="134">
-        <v>42999</v>
-      </c>
-      <c r="G43" s="146">
-        <v>42634</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="32" x14ac:dyDescent="0.15">
-      <c r="A44" s="144"/>
-      <c r="B44" s="131" t="s">
-        <v>403</v>
-      </c>
-      <c r="C44" s="129" t="s">
-        <v>337</v>
-      </c>
-      <c r="D44" s="137" t="s">
-        <v>404</v>
-      </c>
-      <c r="E44" s="137" t="s">
-        <v>404</v>
-      </c>
-      <c r="F44" s="137" t="s">
-        <v>405</v>
-      </c>
-      <c r="G44" s="147" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="144"/>
-      <c r="B45" s="131"/>
-      <c r="C45" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="G45" s="145"/>
-    </row>
-    <row r="46" spans="1:7" ht="78" x14ac:dyDescent="0.15">
-      <c r="A46" s="144"/>
-      <c r="B46" s="131"/>
-      <c r="C46" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="D46" s="42" t="s">
-        <v>409</v>
-      </c>
-      <c r="E46" s="42" t="s">
-        <v>409</v>
-      </c>
-      <c r="F46" s="42" t="s">
-        <v>410</v>
-      </c>
-      <c r="G46" s="145"/>
-    </row>
-    <row r="47" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="144"/>
-      <c r="B47" s="131"/>
-      <c r="C47" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>411</v>
-      </c>
-      <c r="E47" s="3"/>
-      <c r="F47" s="42"/>
-      <c r="G47" s="145"/>
-    </row>
-    <row r="48" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="144"/>
-      <c r="B48" s="131"/>
-      <c r="C48" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="G48" s="145" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="144"/>
-      <c r="B49" s="131"/>
-      <c r="C49" s="141" t="s">
-        <v>355</v>
-      </c>
-      <c r="D49" s="134">
-        <v>43773</v>
-      </c>
-      <c r="E49" s="134"/>
-      <c r="F49" s="134">
-        <v>43026</v>
-      </c>
-      <c r="G49" s="146">
-        <v>42697</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="32" x14ac:dyDescent="0.15">
-      <c r="A50" s="144"/>
-      <c r="B50" s="136" t="s">
-        <v>412</v>
-      </c>
-      <c r="C50" s="129" t="s">
-        <v>337</v>
-      </c>
-      <c r="D50" s="130" t="s">
-        <v>413</v>
-      </c>
-      <c r="E50" s="130" t="s">
-        <v>413</v>
-      </c>
-      <c r="F50" s="130" t="s">
-        <v>414</v>
-      </c>
-      <c r="G50" s="143" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="31" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="144"/>
-      <c r="B51" s="131"/>
-      <c r="C51" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="G51" s="145" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="182" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="144"/>
-      <c r="B52" s="131"/>
-      <c r="C52" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>421</v>
-      </c>
-      <c r="G52" s="145" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="31" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="144"/>
-      <c r="B53" s="131"/>
-      <c r="C53" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="D53" s="3">
-        <v>4</v>
-      </c>
-      <c r="E53" s="3"/>
-      <c r="F53" s="42"/>
-      <c r="G53" s="145"/>
-    </row>
-    <row r="54" spans="1:7" ht="31" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="144"/>
-      <c r="B54" s="131"/>
-      <c r="C54" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>423</v>
-      </c>
-      <c r="G54" s="145" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="144"/>
-      <c r="B55" s="132"/>
-      <c r="C55" s="133" t="s">
-        <v>355</v>
-      </c>
-      <c r="D55" s="135">
-        <v>43794</v>
-      </c>
-      <c r="E55" s="148"/>
-      <c r="F55" s="148">
-        <v>43040</v>
-      </c>
-      <c r="G55" s="149">
-        <v>42697</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="48" x14ac:dyDescent="0.15">
-      <c r="A56" s="144"/>
-      <c r="B56" s="136" t="s">
-        <v>424</v>
-      </c>
-      <c r="C56" s="129" t="s">
-        <v>337</v>
-      </c>
-      <c r="D56" s="137" t="s">
-        <v>425</v>
-      </c>
-      <c r="E56" s="137" t="s">
-        <v>425</v>
-      </c>
-      <c r="F56" s="137" t="s">
-        <v>426</v>
-      </c>
-      <c r="G56" s="147" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="31" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="144"/>
-      <c r="B57" s="131"/>
-      <c r="C57" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>428</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>429</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>430</v>
-      </c>
-      <c r="G57" s="145" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="112" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="144"/>
-      <c r="B58" s="131"/>
-      <c r="C58" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="D58" s="138"/>
-      <c r="E58" s="138"/>
-      <c r="F58" s="138" t="s">
-        <v>432</v>
-      </c>
-      <c r="G58" s="145" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="31" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="144"/>
-      <c r="B59" s="131"/>
-      <c r="C59" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="F59" s="42"/>
-      <c r="G59" s="145"/>
-    </row>
-    <row r="60" spans="1:7" ht="31" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="144"/>
-      <c r="B60" s="131"/>
-      <c r="C60" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="G60" s="145" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="144"/>
-      <c r="B61" s="131"/>
-      <c r="C61" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="D61" s="135">
-        <v>43836</v>
-      </c>
-      <c r="E61" s="135"/>
-      <c r="F61" s="139">
-        <v>43091</v>
-      </c>
-      <c r="G61" s="150">
-        <v>42706</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="64" x14ac:dyDescent="0.15">
-      <c r="A62" s="144"/>
-      <c r="B62" s="136" t="s">
-        <v>435</v>
-      </c>
-      <c r="C62" s="129" t="s">
-        <v>337</v>
-      </c>
-      <c r="D62" s="151" t="s">
-        <v>436</v>
-      </c>
-      <c r="E62" s="151" t="s">
-        <v>436</v>
-      </c>
-      <c r="F62" s="137" t="s">
-        <v>368</v>
-      </c>
-      <c r="G62" s="147" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="31" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="144"/>
-      <c r="B63" s="131"/>
-      <c r="C63" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>428</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>428</v>
-      </c>
-      <c r="F63" s="3"/>
-      <c r="G63" s="152" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="104" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="144"/>
-      <c r="B64" s="131"/>
-      <c r="C64" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="F64" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="G64" s="145" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="31" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="144"/>
-      <c r="B65" s="131"/>
-      <c r="C65" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="F65" s="42"/>
-      <c r="G65" s="145"/>
-    </row>
-    <row r="66" spans="1:7" ht="31" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="144"/>
-      <c r="B66" s="131"/>
-      <c r="C66" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="G66" s="145" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="144"/>
-      <c r="B67" s="131"/>
-      <c r="C67" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="D67" s="139">
-        <v>43864</v>
-      </c>
-      <c r="E67" s="139">
-        <v>43864</v>
-      </c>
-      <c r="F67" s="139">
-        <v>43087</v>
-      </c>
-      <c r="G67" s="150">
-        <v>42738</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="48" x14ac:dyDescent="0.15">
-      <c r="A68" s="144"/>
-      <c r="B68" s="136" t="s">
-        <v>437</v>
-      </c>
-      <c r="C68" s="129" t="s">
-        <v>337</v>
-      </c>
-      <c r="D68" s="151" t="s">
-        <v>436</v>
-      </c>
-      <c r="E68" s="153"/>
-      <c r="F68" s="153"/>
-      <c r="G68" s="147" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="144"/>
-      <c r="B69" s="131"/>
-      <c r="C69" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="E69" s="3"/>
-      <c r="F69" s="3"/>
-      <c r="G69" s="152" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" ht="52" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="144"/>
-      <c r="B70" s="131"/>
-      <c r="C70" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="D70" s="3"/>
-      <c r="E70" s="3"/>
-      <c r="F70" s="3"/>
-      <c r="G70" s="145" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="31" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="144"/>
-      <c r="B71" s="131"/>
-      <c r="C71" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>441</v>
-      </c>
-      <c r="E71" s="3"/>
-      <c r="F71" s="42"/>
-      <c r="G71" s="145"/>
-    </row>
-    <row r="72" spans="1:7" ht="31" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="144"/>
-      <c r="B72" s="131"/>
-      <c r="C72" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="E72" s="3"/>
-      <c r="F72" s="3"/>
-      <c r="G72" s="145" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="154"/>
-      <c r="B73" s="132"/>
-      <c r="C73" s="133" t="s">
-        <v>355</v>
-      </c>
-      <c r="D73" s="135">
-        <v>43899</v>
-      </c>
-      <c r="E73" s="133"/>
-      <c r="F73" s="133"/>
-      <c r="G73" s="149">
-        <v>42755</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="A38:A73"/>
-    <mergeCell ref="B38:B43"/>
-    <mergeCell ref="B44:B49"/>
-    <mergeCell ref="B50:B55"/>
-    <mergeCell ref="B56:B61"/>
-    <mergeCell ref="B62:B67"/>
-    <mergeCell ref="B68:B73"/>
-    <mergeCell ref="A2:A37"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="B8:B13"/>
-    <mergeCell ref="B14:B19"/>
-    <mergeCell ref="B20:B25"/>
-    <mergeCell ref="B26:B31"/>
-    <mergeCell ref="B32:B37"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:X53"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="26" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5823,6 +4083,9 @@
       </c>
       <c r="J8" s="11" t="s">
         <v>28</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>345</v>
       </c>
       <c r="L8" s="82" t="s">
         <v>332</v>
@@ -7392,7 +5655,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
@@ -7463,7 +5726,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C68"/>
   <sheetViews>
@@ -8163,7 +6426,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D65"/>
   <sheetViews>

--- a/progression_2019_2020_IPT_MPSI.xlsx
+++ b/progression_2019_2020_IPT_MPSI.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-34840" yWindow="500" windowWidth="29380" windowHeight="14640" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="520" windowWidth="25600" windowHeight="14640"/>
   </bookViews>
   <sheets>
     <sheet name="Planning DS" sheetId="16" r:id="rId1"/>
@@ -2426,6 +2426,90 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="1" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2444,12 +2528,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2466,63 +2544,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2551,27 +2572,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="654">
@@ -3543,8 +3543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3572,21 +3572,21 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="48" x14ac:dyDescent="0.15">
-      <c r="A2" s="127">
+      <c r="A2" s="89">
         <v>1</v>
       </c>
-      <c r="B2" s="128" t="s">
+      <c r="B2" s="85" t="s">
         <v>337</v>
       </c>
-      <c r="C2" s="129" t="s">
+      <c r="C2" s="86" t="s">
         <v>341</v>
       </c>
-      <c r="D2" s="129"/>
-      <c r="E2" s="129"/>
-      <c r="F2" s="129"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
     </row>
     <row r="3" spans="1:6" ht="78" x14ac:dyDescent="0.15">
-      <c r="A3" s="130"/>
+      <c r="A3" s="90"/>
       <c r="B3" s="3" t="s">
         <v>338</v>
       </c>
@@ -3598,7 +3598,7 @@
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="130"/>
+      <c r="A4" s="90"/>
       <c r="B4" s="3" t="s">
         <v>342</v>
       </c>
@@ -3610,7 +3610,7 @@
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="130"/>
+      <c r="A5" s="90"/>
       <c r="B5" s="3" t="s">
         <v>339</v>
       </c>
@@ -3622,16 +3622,16 @@
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="131"/>
-      <c r="B6" s="132" t="s">
+      <c r="A6" s="91"/>
+      <c r="B6" s="87" t="s">
         <v>340</v>
       </c>
-      <c r="C6" s="133">
+      <c r="C6" s="88">
         <v>43754</v>
       </c>
-      <c r="D6" s="133"/>
-      <c r="E6" s="133"/>
-      <c r="F6" s="133"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="88"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
@@ -3653,7 +3653,7 @@
   </sheetPr>
   <dimension ref="A1:X53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="A9" sqref="A9:P9"/>
     </sheetView>
   </sheetViews>
@@ -3745,10 +3745,10 @@
       <c r="B2" s="9">
         <v>43711</v>
       </c>
-      <c r="C2" s="93">
+      <c r="C2" s="119">
         <v>1</v>
       </c>
-      <c r="D2" s="96" t="s">
+      <c r="D2" s="122" t="s">
         <v>263</v>
       </c>
       <c r="E2" s="26">
@@ -3802,8 +3802,8 @@
         <f>B2+7</f>
         <v>43718</v>
       </c>
-      <c r="C3" s="94"/>
-      <c r="D3" s="97"/>
+      <c r="C3" s="120"/>
+      <c r="D3" s="123"/>
       <c r="E3" s="26">
         <v>2</v>
       </c>
@@ -3854,8 +3854,8 @@
         <f>B3+7</f>
         <v>43725</v>
       </c>
-      <c r="C4" s="94"/>
-      <c r="D4" s="97"/>
+      <c r="C4" s="120"/>
+      <c r="D4" s="123"/>
       <c r="E4" s="26">
         <v>2</v>
       </c>
@@ -3907,8 +3907,8 @@
         <f t="shared" ref="B5:B8" si="0">B4+7</f>
         <v>43732</v>
       </c>
-      <c r="C5" s="94"/>
-      <c r="D5" s="97"/>
+      <c r="C5" s="120"/>
+      <c r="D5" s="123"/>
       <c r="E5" s="26">
         <v>3</v>
       </c>
@@ -3960,8 +3960,8 @@
         <f>B5+7</f>
         <v>43739</v>
       </c>
-      <c r="C6" s="94"/>
-      <c r="D6" s="97"/>
+      <c r="C6" s="120"/>
+      <c r="D6" s="123"/>
       <c r="E6" s="26">
         <v>4</v>
       </c>
@@ -4015,8 +4015,8 @@
         <f t="shared" si="0"/>
         <v>43746</v>
       </c>
-      <c r="C7" s="94"/>
-      <c r="D7" s="97"/>
+      <c r="C7" s="120"/>
+      <c r="D7" s="123"/>
       <c r="E7" s="26">
         <v>4</v>
       </c>
@@ -4064,8 +4064,8 @@
         <f t="shared" si="0"/>
         <v>43753</v>
       </c>
-      <c r="C8" s="95"/>
-      <c r="D8" s="98"/>
+      <c r="C8" s="121"/>
+      <c r="D8" s="124"/>
       <c r="E8" s="26">
         <v>5</v>
       </c>
@@ -4112,24 +4112,24 @@
       <c r="X8" s="75"/>
     </row>
     <row r="9" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="91" t="s">
+      <c r="A9" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="92"/>
-      <c r="C9" s="92"/>
-      <c r="D9" s="92"/>
-      <c r="E9" s="92"/>
-      <c r="F9" s="92"/>
-      <c r="G9" s="92"/>
-      <c r="H9" s="92"/>
-      <c r="I9" s="92"/>
-      <c r="J9" s="92"/>
-      <c r="K9" s="92"/>
-      <c r="L9" s="92"/>
-      <c r="M9" s="92"/>
-      <c r="N9" s="92"/>
-      <c r="O9" s="92"/>
-      <c r="P9" s="92"/>
+      <c r="B9" s="95"/>
+      <c r="C9" s="95"/>
+      <c r="D9" s="95"/>
+      <c r="E9" s="95"/>
+      <c r="F9" s="95"/>
+      <c r="G9" s="95"/>
+      <c r="H9" s="95"/>
+      <c r="I9" s="95"/>
+      <c r="J9" s="95"/>
+      <c r="K9" s="95"/>
+      <c r="L9" s="95"/>
+      <c r="M9" s="95"/>
+      <c r="N9" s="95"/>
+      <c r="O9" s="95"/>
+      <c r="P9" s="95"/>
       <c r="Q9" s="4"/>
       <c r="R9" s="41"/>
       <c r="S9" s="32"/>
@@ -4145,10 +4145,10 @@
         <f>B8+21</f>
         <v>43774</v>
       </c>
-      <c r="C10" s="93">
+      <c r="C10" s="119">
         <v>1</v>
       </c>
-      <c r="D10" s="96" t="s">
+      <c r="D10" s="122" t="s">
         <v>263</v>
       </c>
       <c r="E10" s="26">
@@ -4198,8 +4198,8 @@
         <f t="shared" ref="B11:B16" si="1">B10+7</f>
         <v>43781</v>
       </c>
-      <c r="C11" s="94"/>
-      <c r="D11" s="97"/>
+      <c r="C11" s="120"/>
+      <c r="D11" s="123"/>
       <c r="E11" s="26">
         <v>6</v>
       </c>
@@ -4245,8 +4245,8 @@
         <f t="shared" si="1"/>
         <v>43788</v>
       </c>
-      <c r="C12" s="94"/>
-      <c r="D12" s="97"/>
+      <c r="C12" s="120"/>
+      <c r="D12" s="123"/>
       <c r="E12" s="26">
         <v>6</v>
       </c>
@@ -4291,8 +4291,8 @@
         <f t="shared" si="1"/>
         <v>43795</v>
       </c>
-      <c r="C13" s="94"/>
-      <c r="D13" s="97"/>
+      <c r="C13" s="120"/>
+      <c r="D13" s="123"/>
       <c r="E13" s="26">
         <v>7</v>
       </c>
@@ -4340,8 +4340,8 @@
         <f t="shared" si="1"/>
         <v>43802</v>
       </c>
-      <c r="C14" s="94"/>
-      <c r="D14" s="97"/>
+      <c r="C14" s="120"/>
+      <c r="D14" s="123"/>
       <c r="E14" s="26">
         <v>7</v>
       </c>
@@ -4388,8 +4388,8 @@
         <f t="shared" si="1"/>
         <v>43809</v>
       </c>
-      <c r="C15" s="94"/>
-      <c r="D15" s="97"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="123"/>
       <c r="E15" s="26">
         <v>8</v>
       </c>
@@ -4439,8 +4439,8 @@
         <f t="shared" si="1"/>
         <v>43816</v>
       </c>
-      <c r="C16" s="95"/>
-      <c r="D16" s="98"/>
+      <c r="C16" s="121"/>
+      <c r="D16" s="124"/>
       <c r="E16" s="26">
         <v>8</v>
       </c>
@@ -4481,24 +4481,24 @@
       <c r="X16" s="75"/>
     </row>
     <row r="17" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="91" t="s">
+      <c r="A17" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="92"/>
-      <c r="C17" s="92"/>
-      <c r="D17" s="92"/>
-      <c r="E17" s="92"/>
-      <c r="F17" s="92"/>
-      <c r="G17" s="92"/>
-      <c r="H17" s="92"/>
-      <c r="I17" s="92"/>
-      <c r="J17" s="92"/>
-      <c r="K17" s="92"/>
-      <c r="L17" s="92"/>
-      <c r="M17" s="92"/>
-      <c r="N17" s="92"/>
-      <c r="O17" s="92"/>
-      <c r="P17" s="92"/>
+      <c r="B17" s="95"/>
+      <c r="C17" s="95"/>
+      <c r="D17" s="95"/>
+      <c r="E17" s="95"/>
+      <c r="F17" s="95"/>
+      <c r="G17" s="95"/>
+      <c r="H17" s="95"/>
+      <c r="I17" s="95"/>
+      <c r="J17" s="95"/>
+      <c r="K17" s="95"/>
+      <c r="L17" s="95"/>
+      <c r="M17" s="95"/>
+      <c r="N17" s="95"/>
+      <c r="O17" s="95"/>
+      <c r="P17" s="95"/>
       <c r="Q17" s="4"/>
       <c r="R17" s="41"/>
       <c r="S17" s="32"/>
@@ -4514,10 +4514,10 @@
         <f>B16+21</f>
         <v>43837</v>
       </c>
-      <c r="C18" s="85">
+      <c r="C18" s="113">
         <v>2</v>
       </c>
-      <c r="D18" s="88" t="s">
+      <c r="D18" s="116" t="s">
         <v>186</v>
       </c>
       <c r="E18" s="28">
@@ -4567,8 +4567,8 @@
         <f>B18+7</f>
         <v>43844</v>
       </c>
-      <c r="C19" s="86"/>
-      <c r="D19" s="89"/>
+      <c r="C19" s="114"/>
+      <c r="D19" s="117"/>
       <c r="E19" s="28">
         <v>1</v>
       </c>
@@ -4616,8 +4616,8 @@
         <f t="shared" ref="B20:B40" si="2">B19+7</f>
         <v>43851</v>
       </c>
-      <c r="C20" s="86"/>
-      <c r="D20" s="89"/>
+      <c r="C20" s="114"/>
+      <c r="D20" s="117"/>
       <c r="E20" s="28">
         <v>2</v>
       </c>
@@ -4665,8 +4665,8 @@
         <f>B20+7</f>
         <v>43858</v>
       </c>
-      <c r="C21" s="87"/>
-      <c r="D21" s="90"/>
+      <c r="C21" s="115"/>
+      <c r="D21" s="118"/>
       <c r="E21" s="28">
         <v>2</v>
       </c>
@@ -4714,10 +4714,10 @@
         <f>B21+7</f>
         <v>43865</v>
       </c>
-      <c r="C22" s="104">
+      <c r="C22" s="99">
         <v>3</v>
       </c>
-      <c r="D22" s="101" t="s">
+      <c r="D22" s="96" t="s">
         <v>61</v>
       </c>
       <c r="E22" s="35">
@@ -4767,8 +4767,8 @@
         <f>B22+7</f>
         <v>43872</v>
       </c>
-      <c r="C23" s="105"/>
-      <c r="D23" s="102"/>
+      <c r="C23" s="100"/>
+      <c r="D23" s="97"/>
       <c r="E23" s="35">
         <v>2</v>
       </c>
@@ -4815,8 +4815,8 @@
         <f>B23+7</f>
         <v>43879</v>
       </c>
-      <c r="C24" s="106"/>
-      <c r="D24" s="103"/>
+      <c r="C24" s="101"/>
+      <c r="D24" s="98"/>
       <c r="E24" s="34">
         <v>2</v>
       </c>
@@ -4852,24 +4852,24 @@
       <c r="S24" s="33"/>
     </row>
     <row r="25" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="91" t="s">
+      <c r="A25" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="92"/>
-      <c r="C25" s="92"/>
-      <c r="D25" s="92"/>
-      <c r="E25" s="92"/>
-      <c r="F25" s="92"/>
-      <c r="G25" s="92"/>
-      <c r="H25" s="92"/>
-      <c r="I25" s="92"/>
-      <c r="J25" s="92"/>
-      <c r="K25" s="92"/>
-      <c r="L25" s="92"/>
-      <c r="M25" s="92"/>
-      <c r="N25" s="92"/>
-      <c r="O25" s="92"/>
-      <c r="P25" s="92"/>
+      <c r="B25" s="95"/>
+      <c r="C25" s="95"/>
+      <c r="D25" s="95"/>
+      <c r="E25" s="95"/>
+      <c r="F25" s="95"/>
+      <c r="G25" s="95"/>
+      <c r="H25" s="95"/>
+      <c r="I25" s="95"/>
+      <c r="J25" s="95"/>
+      <c r="K25" s="95"/>
+      <c r="L25" s="95"/>
+      <c r="M25" s="95"/>
+      <c r="N25" s="95"/>
+      <c r="O25" s="95"/>
+      <c r="P25" s="95"/>
       <c r="Q25" s="4"/>
       <c r="R25" s="50"/>
       <c r="S25" s="32"/>
@@ -4885,10 +4885,10 @@
         <f>B24+21</f>
         <v>43900</v>
       </c>
-      <c r="C26" s="104">
+      <c r="C26" s="99">
         <v>3</v>
       </c>
-      <c r="D26" s="101" t="s">
+      <c r="D26" s="96" t="s">
         <v>61</v>
       </c>
       <c r="E26" s="29">
@@ -4938,8 +4938,8 @@
         <f t="shared" si="2"/>
         <v>43907</v>
       </c>
-      <c r="C27" s="105"/>
-      <c r="D27" s="102"/>
+      <c r="C27" s="100"/>
+      <c r="D27" s="97"/>
       <c r="E27" s="35">
         <v>3</v>
       </c>
@@ -4984,8 +4984,8 @@
         <f t="shared" si="2"/>
         <v>43914</v>
       </c>
-      <c r="C28" s="105"/>
-      <c r="D28" s="102"/>
+      <c r="C28" s="100"/>
+      <c r="D28" s="97"/>
       <c r="E28" s="29">
         <v>4</v>
       </c>
@@ -5033,8 +5033,8 @@
         <f t="shared" si="2"/>
         <v>43921</v>
       </c>
-      <c r="C29" s="106"/>
-      <c r="D29" s="103"/>
+      <c r="C29" s="101"/>
+      <c r="D29" s="98"/>
       <c r="E29" s="35">
         <v>4</v>
       </c>
@@ -5080,10 +5080,10 @@
         <f t="shared" si="2"/>
         <v>43928</v>
       </c>
-      <c r="C30" s="107">
+      <c r="C30" s="102">
         <v>4</v>
       </c>
-      <c r="D30" s="109" t="s">
+      <c r="D30" s="104" t="s">
         <v>44</v>
       </c>
       <c r="E30" s="30">
@@ -5135,8 +5135,8 @@
         <f t="shared" si="2"/>
         <v>43935</v>
       </c>
-      <c r="C31" s="108"/>
-      <c r="D31" s="110"/>
+      <c r="C31" s="103"/>
+      <c r="D31" s="105"/>
       <c r="E31" s="30">
         <v>2</v>
       </c>
@@ -5177,24 +5177,24 @@
       <c r="X31" s="75"/>
     </row>
     <row r="32" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="99" t="s">
+      <c r="A32" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="B32" s="100"/>
-      <c r="C32" s="100"/>
-      <c r="D32" s="100"/>
-      <c r="E32" s="100"/>
-      <c r="F32" s="100"/>
-      <c r="G32" s="100"/>
-      <c r="H32" s="100"/>
-      <c r="I32" s="100"/>
-      <c r="J32" s="100"/>
-      <c r="K32" s="100"/>
-      <c r="L32" s="100"/>
-      <c r="M32" s="100"/>
-      <c r="N32" s="100"/>
-      <c r="O32" s="100"/>
-      <c r="P32" s="100"/>
+      <c r="B32" s="93"/>
+      <c r="C32" s="93"/>
+      <c r="D32" s="93"/>
+      <c r="E32" s="93"/>
+      <c r="F32" s="93"/>
+      <c r="G32" s="93"/>
+      <c r="H32" s="93"/>
+      <c r="I32" s="93"/>
+      <c r="J32" s="93"/>
+      <c r="K32" s="93"/>
+      <c r="L32" s="93"/>
+      <c r="M32" s="93"/>
+      <c r="N32" s="93"/>
+      <c r="O32" s="93"/>
+      <c r="P32" s="93"/>
       <c r="Q32" s="47"/>
       <c r="R32" s="51"/>
       <c r="S32" s="32"/>
@@ -5210,10 +5210,10 @@
         <f>B31+21</f>
         <v>43956</v>
       </c>
-      <c r="C33" s="107">
+      <c r="C33" s="102">
         <v>4</v>
       </c>
-      <c r="D33" s="109" t="s">
+      <c r="D33" s="104" t="s">
         <v>44</v>
       </c>
       <c r="E33" s="30">
@@ -5258,8 +5258,8 @@
         <f t="shared" si="2"/>
         <v>43963</v>
       </c>
-      <c r="C34" s="112"/>
-      <c r="D34" s="111"/>
+      <c r="C34" s="107"/>
+      <c r="D34" s="106"/>
       <c r="E34" s="30">
         <v>3</v>
       </c>
@@ -5304,8 +5304,8 @@
         <f t="shared" si="2"/>
         <v>43970</v>
       </c>
-      <c r="C35" s="108"/>
-      <c r="D35" s="110"/>
+      <c r="C35" s="103"/>
+      <c r="D35" s="105"/>
       <c r="E35" s="30">
         <v>4</v>
       </c>
@@ -5349,10 +5349,10 @@
         <f t="shared" si="2"/>
         <v>43977</v>
       </c>
-      <c r="C36" s="115">
+      <c r="C36" s="110">
         <v>5</v>
       </c>
-      <c r="D36" s="113" t="s">
+      <c r="D36" s="108" t="s">
         <v>50</v>
       </c>
       <c r="E36" s="31">
@@ -5392,8 +5392,8 @@
         <f t="shared" si="2"/>
         <v>43984</v>
       </c>
-      <c r="C37" s="116"/>
-      <c r="D37" s="114"/>
+      <c r="C37" s="111"/>
+      <c r="D37" s="109"/>
       <c r="E37" s="31">
         <v>1</v>
       </c>
@@ -5433,8 +5433,8 @@
         <f t="shared" si="2"/>
         <v>43991</v>
       </c>
-      <c r="C38" s="116"/>
-      <c r="D38" s="114"/>
+      <c r="C38" s="111"/>
+      <c r="D38" s="109"/>
       <c r="E38" s="31">
         <v>1</v>
       </c>
@@ -5472,8 +5472,8 @@
         <f t="shared" si="2"/>
         <v>43998</v>
       </c>
-      <c r="C39" s="116"/>
-      <c r="D39" s="114"/>
+      <c r="C39" s="111"/>
+      <c r="D39" s="109"/>
       <c r="E39" s="31">
         <v>1</v>
       </c>
@@ -5511,8 +5511,8 @@
         <f t="shared" si="2"/>
         <v>44005</v>
       </c>
-      <c r="C40" s="117"/>
-      <c r="D40" s="114"/>
+      <c r="C40" s="112"/>
+      <c r="D40" s="109"/>
       <c r="E40" s="31">
         <v>1</v>
       </c>
@@ -5541,24 +5541,24 @@
       <c r="X40" s="75"/>
     </row>
     <row r="41" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="99" t="s">
+      <c r="A41" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="B41" s="100"/>
-      <c r="C41" s="100"/>
-      <c r="D41" s="100"/>
-      <c r="E41" s="100"/>
-      <c r="F41" s="100"/>
-      <c r="G41" s="100"/>
-      <c r="H41" s="100"/>
-      <c r="I41" s="100"/>
-      <c r="J41" s="100"/>
-      <c r="K41" s="100"/>
-      <c r="L41" s="100"/>
-      <c r="M41" s="100"/>
-      <c r="N41" s="100"/>
-      <c r="O41" s="100"/>
-      <c r="P41" s="100"/>
+      <c r="B41" s="93"/>
+      <c r="C41" s="93"/>
+      <c r="D41" s="93"/>
+      <c r="E41" s="93"/>
+      <c r="F41" s="93"/>
+      <c r="G41" s="93"/>
+      <c r="H41" s="93"/>
+      <c r="I41" s="93"/>
+      <c r="J41" s="93"/>
+      <c r="K41" s="93"/>
+      <c r="L41" s="93"/>
+      <c r="M41" s="93"/>
+      <c r="N41" s="93"/>
+      <c r="O41" s="93"/>
+      <c r="P41" s="93"/>
       <c r="Q41" s="47"/>
       <c r="R41" s="51"/>
       <c r="V41" s="70"/>
@@ -5627,6 +5627,14 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="A9:P9"/>
+    <mergeCell ref="A17:P17"/>
+    <mergeCell ref="C2:C8"/>
+    <mergeCell ref="D2:D8"/>
+    <mergeCell ref="D10:D16"/>
+    <mergeCell ref="C10:C16"/>
     <mergeCell ref="A41:P41"/>
     <mergeCell ref="A32:P32"/>
     <mergeCell ref="A25:P25"/>
@@ -5640,14 +5648,6 @@
     <mergeCell ref="C33:C35"/>
     <mergeCell ref="D36:D40"/>
     <mergeCell ref="C36:C40"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="D18:D21"/>
-    <mergeCell ref="A9:P9"/>
-    <mergeCell ref="A17:P17"/>
-    <mergeCell ref="C2:C8"/>
-    <mergeCell ref="D2:D8"/>
-    <mergeCell ref="D10:D16"/>
-    <mergeCell ref="C10:C16"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6441,12 +6441,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="125" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="120"/>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="127"/>
     </row>
     <row r="2" spans="1:4" ht="22" x14ac:dyDescent="0.15">
       <c r="A2" s="54" t="s">
@@ -6537,12 +6537,12 @@
       <c r="D11" s="61"/>
     </row>
     <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A12" s="118" t="s">
+      <c r="A12" s="125" t="s">
         <v>94</v>
       </c>
-      <c r="B12" s="119"/>
-      <c r="C12" s="119"/>
-      <c r="D12" s="120"/>
+      <c r="B12" s="126"/>
+      <c r="C12" s="126"/>
+      <c r="D12" s="127"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="54" t="s">
@@ -6807,12 +6807,12 @@
       <c r="D40" s="61"/>
     </row>
     <row r="41" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A41" s="121" t="s">
+      <c r="A41" s="128" t="s">
         <v>142</v>
       </c>
-      <c r="B41" s="122"/>
-      <c r="C41" s="122"/>
-      <c r="D41" s="123"/>
+      <c r="B41" s="129"/>
+      <c r="C41" s="129"/>
+      <c r="D41" s="130"/>
     </row>
     <row r="42" spans="1:4" ht="33" x14ac:dyDescent="0.15">
       <c r="A42" s="54" t="s">
@@ -6911,12 +6911,12 @@
       <c r="D51" s="66"/>
     </row>
     <row r="52" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="124" t="s">
+      <c r="A52" s="131" t="s">
         <v>161</v>
       </c>
-      <c r="B52" s="125"/>
-      <c r="C52" s="125"/>
-      <c r="D52" s="126"/>
+      <c r="B52" s="132"/>
+      <c r="C52" s="132"/>
+      <c r="D52" s="133"/>
     </row>
     <row r="53" spans="1:4" ht="22" x14ac:dyDescent="0.15">
       <c r="A53" s="67" t="s">
@@ -7005,12 +7005,12 @@
       <c r="D61" s="66"/>
     </row>
     <row r="62" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="124" t="s">
+      <c r="A62" s="131" t="s">
         <v>178</v>
       </c>
-      <c r="B62" s="125"/>
-      <c r="C62" s="125"/>
-      <c r="D62" s="126"/>
+      <c r="B62" s="132"/>
+      <c r="C62" s="132"/>
+      <c r="D62" s="133"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A63" s="67" t="s">

--- a/progression_2019_2020_IPT_MPSI.xlsx
+++ b/progression_2019_2020_IPT_MPSI.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="520" windowWidth="25600" windowHeight="14640"/>
+    <workbookView xWindow="-34840" yWindow="500" windowWidth="29380" windowHeight="14640"/>
   </bookViews>
   <sheets>
     <sheet name="Planning DS" sheetId="16" r:id="rId1"/>
@@ -3544,7 +3544,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>

--- a/progression_2019_2020_IPT_MPSI.xlsx
+++ b/progression_2019_2020_IPT_MPSI.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-34840" yWindow="500" windowWidth="29380" windowHeight="14640"/>
+    <workbookView xWindow="7580" yWindow="460" windowWidth="13280" windowHeight="14340" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Planning DS" sheetId="16" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="347">
   <si>
     <t>Cours</t>
   </si>
@@ -1092,6 +1092,9 @@
   </si>
   <si>
     <t>tableaux/TAB-024;tableaux/TAB-025</t>
+  </si>
+  <si>
+    <t>consignes/consignes_TP5;plot/PLT-004;plot/PLT-005</t>
   </si>
 </sst>
 </file>
@@ -3543,7 +3546,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
@@ -3653,8 +3656,8 @@
   </sheetPr>
   <dimension ref="A1:X53"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:P9"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="26" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4170,7 +4173,7 @@
         <v>28</v>
       </c>
       <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
+      <c r="L10" s="82"/>
       <c r="M10" s="78" t="s">
         <v>276</v>
       </c>
@@ -4219,7 +4222,9 @@
         <v>36</v>
       </c>
       <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
+      <c r="L11" s="82" t="s">
+        <v>346</v>
+      </c>
       <c r="M11" s="78" t="s">
         <v>276</v>
       </c>

--- a/progression_2019_2020_IPT_MPSI.xlsx
+++ b/progression_2019_2020_IPT_MPSI.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7580" yWindow="460" windowWidth="13280" windowHeight="14340" activeTab="1"/>
+    <workbookView xWindow="7580" yWindow="460" windowWidth="13280" windowHeight="14340"/>
   </bookViews>
   <sheets>
     <sheet name="Planning DS" sheetId="16" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="350">
   <si>
     <t>Cours</t>
   </si>
@@ -1095,6 +1095,15 @@
   </si>
   <si>
     <t>consignes/consignes_TP5;plot/PLT-004;plot/PLT-005</t>
+  </si>
+  <si>
+    <t>chaines/STR-002;chaines/STR-003</t>
+  </si>
+  <si>
+    <t>1-2;1-3;1-4;1-5;1-6</t>
+  </si>
+  <si>
+    <t>algo/mission_insight</t>
   </si>
 </sst>
 </file>
@@ -2189,7 +2198,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2439,6 +2448,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3544,10 +3562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3575,7 +3593,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="48" x14ac:dyDescent="0.15">
-      <c r="A2" s="89">
+      <c r="A2" s="92">
         <v>1</v>
       </c>
       <c r="B2" s="85" t="s">
@@ -3589,7 +3607,7 @@
       <c r="F2" s="86"/>
     </row>
     <row r="3" spans="1:6" ht="78" x14ac:dyDescent="0.15">
-      <c r="A3" s="90"/>
+      <c r="A3" s="93"/>
       <c r="B3" s="3" t="s">
         <v>338</v>
       </c>
@@ -3601,7 +3619,7 @@
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="90"/>
+      <c r="A4" s="93"/>
       <c r="B4" s="3" t="s">
         <v>342</v>
       </c>
@@ -3613,7 +3631,7 @@
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="90"/>
+      <c r="A5" s="93"/>
       <c r="B5" s="3" t="s">
         <v>339</v>
       </c>
@@ -3625,7 +3643,7 @@
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="91"/>
+      <c r="A6" s="94"/>
       <c r="B6" s="87" t="s">
         <v>340</v>
       </c>
@@ -3636,14 +3654,77 @@
       <c r="E6" s="88"/>
       <c r="F6" s="88"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
+    <row r="7" spans="1:6" ht="48" x14ac:dyDescent="0.15">
+      <c r="A7" s="92">
+        <v>2</v>
+      </c>
+      <c r="B7" s="89" t="s">
+        <v>337</v>
+      </c>
+      <c r="C7" s="86" t="s">
+        <v>341</v>
+      </c>
+      <c r="D7" s="86"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="86"/>
+    </row>
+    <row r="8" spans="1:6" ht="26" x14ac:dyDescent="0.15">
+      <c r="A8" s="93"/>
+      <c r="B8" s="90" t="s">
+        <v>338</v>
+      </c>
+      <c r="C8" s="90" t="s">
+        <v>349</v>
+      </c>
+      <c r="D8" s="90"/>
+      <c r="E8" s="90"/>
+      <c r="F8" s="90"/>
+    </row>
+    <row r="9" spans="1:6" ht="26" x14ac:dyDescent="0.15">
+      <c r="A9" s="93"/>
+      <c r="B9" s="90" t="s">
+        <v>342</v>
+      </c>
+      <c r="C9" s="42" t="s">
+        <v>348</v>
+      </c>
+      <c r="D9" s="90"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="90"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="93"/>
+      <c r="B10" s="90" t="s">
+        <v>339</v>
+      </c>
+      <c r="C10" s="42">
+        <v>1</v>
+      </c>
+      <c r="D10" s="90"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="90"/>
+    </row>
+    <row r="11" spans="1:6" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="94"/>
+      <c r="B11" s="91" t="s">
+        <v>340</v>
+      </c>
+      <c r="C11" s="88">
+        <v>43798</v>
+      </c>
+      <c r="D11" s="88"/>
+      <c r="E11" s="88"/>
+      <c r="F11" s="88"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
         <v>282</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3656,8 +3737,8 @@
   </sheetPr>
   <dimension ref="A1:X53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="26" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3748,10 +3829,10 @@
       <c r="B2" s="9">
         <v>43711</v>
       </c>
-      <c r="C2" s="119">
+      <c r="C2" s="122">
         <v>1</v>
       </c>
-      <c r="D2" s="122" t="s">
+      <c r="D2" s="125" t="s">
         <v>263</v>
       </c>
       <c r="E2" s="26">
@@ -3805,8 +3886,8 @@
         <f>B2+7</f>
         <v>43718</v>
       </c>
-      <c r="C3" s="120"/>
-      <c r="D3" s="123"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="126"/>
       <c r="E3" s="26">
         <v>2</v>
       </c>
@@ -3857,8 +3938,8 @@
         <f>B3+7</f>
         <v>43725</v>
       </c>
-      <c r="C4" s="120"/>
-      <c r="D4" s="123"/>
+      <c r="C4" s="123"/>
+      <c r="D4" s="126"/>
       <c r="E4" s="26">
         <v>2</v>
       </c>
@@ -3910,8 +3991,8 @@
         <f t="shared" ref="B5:B8" si="0">B4+7</f>
         <v>43732</v>
       </c>
-      <c r="C5" s="120"/>
-      <c r="D5" s="123"/>
+      <c r="C5" s="123"/>
+      <c r="D5" s="126"/>
       <c r="E5" s="26">
         <v>3</v>
       </c>
@@ -3963,8 +4044,8 @@
         <f>B5+7</f>
         <v>43739</v>
       </c>
-      <c r="C6" s="120"/>
-      <c r="D6" s="123"/>
+      <c r="C6" s="123"/>
+      <c r="D6" s="126"/>
       <c r="E6" s="26">
         <v>4</v>
       </c>
@@ -4018,8 +4099,8 @@
         <f t="shared" si="0"/>
         <v>43746</v>
       </c>
-      <c r="C7" s="120"/>
-      <c r="D7" s="123"/>
+      <c r="C7" s="123"/>
+      <c r="D7" s="126"/>
       <c r="E7" s="26">
         <v>4</v>
       </c>
@@ -4067,8 +4148,8 @@
         <f t="shared" si="0"/>
         <v>43753</v>
       </c>
-      <c r="C8" s="121"/>
-      <c r="D8" s="124"/>
+      <c r="C8" s="124"/>
+      <c r="D8" s="127"/>
       <c r="E8" s="26">
         <v>5</v>
       </c>
@@ -4115,24 +4196,24 @@
       <c r="X8" s="75"/>
     </row>
     <row r="9" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="94" t="s">
+      <c r="A9" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="95"/>
-      <c r="C9" s="95"/>
-      <c r="D9" s="95"/>
-      <c r="E9" s="95"/>
-      <c r="F9" s="95"/>
-      <c r="G9" s="95"/>
-      <c r="H9" s="95"/>
-      <c r="I9" s="95"/>
-      <c r="J9" s="95"/>
-      <c r="K9" s="95"/>
-      <c r="L9" s="95"/>
-      <c r="M9" s="95"/>
-      <c r="N9" s="95"/>
-      <c r="O9" s="95"/>
-      <c r="P9" s="95"/>
+      <c r="B9" s="98"/>
+      <c r="C9" s="98"/>
+      <c r="D9" s="98"/>
+      <c r="E9" s="98"/>
+      <c r="F9" s="98"/>
+      <c r="G9" s="98"/>
+      <c r="H9" s="98"/>
+      <c r="I9" s="98"/>
+      <c r="J9" s="98"/>
+      <c r="K9" s="98"/>
+      <c r="L9" s="98"/>
+      <c r="M9" s="98"/>
+      <c r="N9" s="98"/>
+      <c r="O9" s="98"/>
+      <c r="P9" s="98"/>
       <c r="Q9" s="4"/>
       <c r="R9" s="41"/>
       <c r="S9" s="32"/>
@@ -4148,10 +4229,10 @@
         <f>B8+21</f>
         <v>43774</v>
       </c>
-      <c r="C10" s="119">
+      <c r="C10" s="122">
         <v>1</v>
       </c>
-      <c r="D10" s="122" t="s">
+      <c r="D10" s="125" t="s">
         <v>263</v>
       </c>
       <c r="E10" s="26">
@@ -4201,8 +4282,8 @@
         <f t="shared" ref="B11:B16" si="1">B10+7</f>
         <v>43781</v>
       </c>
-      <c r="C11" s="120"/>
-      <c r="D11" s="123"/>
+      <c r="C11" s="123"/>
+      <c r="D11" s="126"/>
       <c r="E11" s="26">
         <v>6</v>
       </c>
@@ -4221,7 +4302,9 @@
       <c r="J11" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="K11" s="5"/>
+      <c r="K11" s="1" t="s">
+        <v>347</v>
+      </c>
       <c r="L11" s="82" t="s">
         <v>346</v>
       </c>
@@ -4250,8 +4333,8 @@
         <f t="shared" si="1"/>
         <v>43788</v>
       </c>
-      <c r="C12" s="120"/>
-      <c r="D12" s="123"/>
+      <c r="C12" s="123"/>
+      <c r="D12" s="126"/>
       <c r="E12" s="26">
         <v>6</v>
       </c>
@@ -4296,8 +4379,8 @@
         <f t="shared" si="1"/>
         <v>43795</v>
       </c>
-      <c r="C13" s="120"/>
-      <c r="D13" s="123"/>
+      <c r="C13" s="123"/>
+      <c r="D13" s="126"/>
       <c r="E13" s="26">
         <v>7</v>
       </c>
@@ -4345,8 +4428,8 @@
         <f t="shared" si="1"/>
         <v>43802</v>
       </c>
-      <c r="C14" s="120"/>
-      <c r="D14" s="123"/>
+      <c r="C14" s="123"/>
+      <c r="D14" s="126"/>
       <c r="E14" s="26">
         <v>7</v>
       </c>
@@ -4393,8 +4476,8 @@
         <f t="shared" si="1"/>
         <v>43809</v>
       </c>
-      <c r="C15" s="120"/>
-      <c r="D15" s="123"/>
+      <c r="C15" s="123"/>
+      <c r="D15" s="126"/>
       <c r="E15" s="26">
         <v>8</v>
       </c>
@@ -4444,8 +4527,8 @@
         <f t="shared" si="1"/>
         <v>43816</v>
       </c>
-      <c r="C16" s="121"/>
-      <c r="D16" s="124"/>
+      <c r="C16" s="124"/>
+      <c r="D16" s="127"/>
       <c r="E16" s="26">
         <v>8</v>
       </c>
@@ -4486,24 +4569,24 @@
       <c r="X16" s="75"/>
     </row>
     <row r="17" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="94" t="s">
+      <c r="A17" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="95"/>
-      <c r="C17" s="95"/>
-      <c r="D17" s="95"/>
-      <c r="E17" s="95"/>
-      <c r="F17" s="95"/>
-      <c r="G17" s="95"/>
-      <c r="H17" s="95"/>
-      <c r="I17" s="95"/>
-      <c r="J17" s="95"/>
-      <c r="K17" s="95"/>
-      <c r="L17" s="95"/>
-      <c r="M17" s="95"/>
-      <c r="N17" s="95"/>
-      <c r="O17" s="95"/>
-      <c r="P17" s="95"/>
+      <c r="B17" s="98"/>
+      <c r="C17" s="98"/>
+      <c r="D17" s="98"/>
+      <c r="E17" s="98"/>
+      <c r="F17" s="98"/>
+      <c r="G17" s="98"/>
+      <c r="H17" s="98"/>
+      <c r="I17" s="98"/>
+      <c r="J17" s="98"/>
+      <c r="K17" s="98"/>
+      <c r="L17" s="98"/>
+      <c r="M17" s="98"/>
+      <c r="N17" s="98"/>
+      <c r="O17" s="98"/>
+      <c r="P17" s="98"/>
       <c r="Q17" s="4"/>
       <c r="R17" s="41"/>
       <c r="S17" s="32"/>
@@ -4519,10 +4602,10 @@
         <f>B16+21</f>
         <v>43837</v>
       </c>
-      <c r="C18" s="113">
+      <c r="C18" s="116">
         <v>2</v>
       </c>
-      <c r="D18" s="116" t="s">
+      <c r="D18" s="119" t="s">
         <v>186</v>
       </c>
       <c r="E18" s="28">
@@ -4572,8 +4655,8 @@
         <f>B18+7</f>
         <v>43844</v>
       </c>
-      <c r="C19" s="114"/>
-      <c r="D19" s="117"/>
+      <c r="C19" s="117"/>
+      <c r="D19" s="120"/>
       <c r="E19" s="28">
         <v>1</v>
       </c>
@@ -4621,8 +4704,8 @@
         <f t="shared" ref="B20:B40" si="2">B19+7</f>
         <v>43851</v>
       </c>
-      <c r="C20" s="114"/>
-      <c r="D20" s="117"/>
+      <c r="C20" s="117"/>
+      <c r="D20" s="120"/>
       <c r="E20" s="28">
         <v>2</v>
       </c>
@@ -4670,8 +4753,8 @@
         <f>B20+7</f>
         <v>43858</v>
       </c>
-      <c r="C21" s="115"/>
-      <c r="D21" s="118"/>
+      <c r="C21" s="118"/>
+      <c r="D21" s="121"/>
       <c r="E21" s="28">
         <v>2</v>
       </c>
@@ -4719,10 +4802,10 @@
         <f>B21+7</f>
         <v>43865</v>
       </c>
-      <c r="C22" s="99">
+      <c r="C22" s="102">
         <v>3</v>
       </c>
-      <c r="D22" s="96" t="s">
+      <c r="D22" s="99" t="s">
         <v>61</v>
       </c>
       <c r="E22" s="35">
@@ -4772,8 +4855,8 @@
         <f>B22+7</f>
         <v>43872</v>
       </c>
-      <c r="C23" s="100"/>
-      <c r="D23" s="97"/>
+      <c r="C23" s="103"/>
+      <c r="D23" s="100"/>
       <c r="E23" s="35">
         <v>2</v>
       </c>
@@ -4820,8 +4903,8 @@
         <f>B23+7</f>
         <v>43879</v>
       </c>
-      <c r="C24" s="101"/>
-      <c r="D24" s="98"/>
+      <c r="C24" s="104"/>
+      <c r="D24" s="101"/>
       <c r="E24" s="34">
         <v>2</v>
       </c>
@@ -4857,24 +4940,24 @@
       <c r="S24" s="33"/>
     </row>
     <row r="25" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="94" t="s">
+      <c r="A25" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="95"/>
-      <c r="C25" s="95"/>
-      <c r="D25" s="95"/>
-      <c r="E25" s="95"/>
-      <c r="F25" s="95"/>
-      <c r="G25" s="95"/>
-      <c r="H25" s="95"/>
-      <c r="I25" s="95"/>
-      <c r="J25" s="95"/>
-      <c r="K25" s="95"/>
-      <c r="L25" s="95"/>
-      <c r="M25" s="95"/>
-      <c r="N25" s="95"/>
-      <c r="O25" s="95"/>
-      <c r="P25" s="95"/>
+      <c r="B25" s="98"/>
+      <c r="C25" s="98"/>
+      <c r="D25" s="98"/>
+      <c r="E25" s="98"/>
+      <c r="F25" s="98"/>
+      <c r="G25" s="98"/>
+      <c r="H25" s="98"/>
+      <c r="I25" s="98"/>
+      <c r="J25" s="98"/>
+      <c r="K25" s="98"/>
+      <c r="L25" s="98"/>
+      <c r="M25" s="98"/>
+      <c r="N25" s="98"/>
+      <c r="O25" s="98"/>
+      <c r="P25" s="98"/>
       <c r="Q25" s="4"/>
       <c r="R25" s="50"/>
       <c r="S25" s="32"/>
@@ -4890,10 +4973,10 @@
         <f>B24+21</f>
         <v>43900</v>
       </c>
-      <c r="C26" s="99">
+      <c r="C26" s="102">
         <v>3</v>
       </c>
-      <c r="D26" s="96" t="s">
+      <c r="D26" s="99" t="s">
         <v>61</v>
       </c>
       <c r="E26" s="29">
@@ -4943,8 +5026,8 @@
         <f t="shared" si="2"/>
         <v>43907</v>
       </c>
-      <c r="C27" s="100"/>
-      <c r="D27" s="97"/>
+      <c r="C27" s="103"/>
+      <c r="D27" s="100"/>
       <c r="E27" s="35">
         <v>3</v>
       </c>
@@ -4989,8 +5072,8 @@
         <f t="shared" si="2"/>
         <v>43914</v>
       </c>
-      <c r="C28" s="100"/>
-      <c r="D28" s="97"/>
+      <c r="C28" s="103"/>
+      <c r="D28" s="100"/>
       <c r="E28" s="29">
         <v>4</v>
       </c>
@@ -5038,8 +5121,8 @@
         <f t="shared" si="2"/>
         <v>43921</v>
       </c>
-      <c r="C29" s="101"/>
-      <c r="D29" s="98"/>
+      <c r="C29" s="104"/>
+      <c r="D29" s="101"/>
       <c r="E29" s="35">
         <v>4</v>
       </c>
@@ -5085,10 +5168,10 @@
         <f t="shared" si="2"/>
         <v>43928</v>
       </c>
-      <c r="C30" s="102">
+      <c r="C30" s="105">
         <v>4</v>
       </c>
-      <c r="D30" s="104" t="s">
+      <c r="D30" s="107" t="s">
         <v>44</v>
       </c>
       <c r="E30" s="30">
@@ -5140,8 +5223,8 @@
         <f t="shared" si="2"/>
         <v>43935</v>
       </c>
-      <c r="C31" s="103"/>
-      <c r="D31" s="105"/>
+      <c r="C31" s="106"/>
+      <c r="D31" s="108"/>
       <c r="E31" s="30">
         <v>2</v>
       </c>
@@ -5182,24 +5265,24 @@
       <c r="X31" s="75"/>
     </row>
     <row r="32" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="92" t="s">
+      <c r="A32" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="B32" s="93"/>
-      <c r="C32" s="93"/>
-      <c r="D32" s="93"/>
-      <c r="E32" s="93"/>
-      <c r="F32" s="93"/>
-      <c r="G32" s="93"/>
-      <c r="H32" s="93"/>
-      <c r="I32" s="93"/>
-      <c r="J32" s="93"/>
-      <c r="K32" s="93"/>
-      <c r="L32" s="93"/>
-      <c r="M32" s="93"/>
-      <c r="N32" s="93"/>
-      <c r="O32" s="93"/>
-      <c r="P32" s="93"/>
+      <c r="B32" s="96"/>
+      <c r="C32" s="96"/>
+      <c r="D32" s="96"/>
+      <c r="E32" s="96"/>
+      <c r="F32" s="96"/>
+      <c r="G32" s="96"/>
+      <c r="H32" s="96"/>
+      <c r="I32" s="96"/>
+      <c r="J32" s="96"/>
+      <c r="K32" s="96"/>
+      <c r="L32" s="96"/>
+      <c r="M32" s="96"/>
+      <c r="N32" s="96"/>
+      <c r="O32" s="96"/>
+      <c r="P32" s="96"/>
       <c r="Q32" s="47"/>
       <c r="R32" s="51"/>
       <c r="S32" s="32"/>
@@ -5215,10 +5298,10 @@
         <f>B31+21</f>
         <v>43956</v>
       </c>
-      <c r="C33" s="102">
+      <c r="C33" s="105">
         <v>4</v>
       </c>
-      <c r="D33" s="104" t="s">
+      <c r="D33" s="107" t="s">
         <v>44</v>
       </c>
       <c r="E33" s="30">
@@ -5263,8 +5346,8 @@
         <f t="shared" si="2"/>
         <v>43963</v>
       </c>
-      <c r="C34" s="107"/>
-      <c r="D34" s="106"/>
+      <c r="C34" s="110"/>
+      <c r="D34" s="109"/>
       <c r="E34" s="30">
         <v>3</v>
       </c>
@@ -5309,8 +5392,8 @@
         <f t="shared" si="2"/>
         <v>43970</v>
       </c>
-      <c r="C35" s="103"/>
-      <c r="D35" s="105"/>
+      <c r="C35" s="106"/>
+      <c r="D35" s="108"/>
       <c r="E35" s="30">
         <v>4</v>
       </c>
@@ -5354,10 +5437,10 @@
         <f t="shared" si="2"/>
         <v>43977</v>
       </c>
-      <c r="C36" s="110">
+      <c r="C36" s="113">
         <v>5</v>
       </c>
-      <c r="D36" s="108" t="s">
+      <c r="D36" s="111" t="s">
         <v>50</v>
       </c>
       <c r="E36" s="31">
@@ -5397,8 +5480,8 @@
         <f t="shared" si="2"/>
         <v>43984</v>
       </c>
-      <c r="C37" s="111"/>
-      <c r="D37" s="109"/>
+      <c r="C37" s="114"/>
+      <c r="D37" s="112"/>
       <c r="E37" s="31">
         <v>1</v>
       </c>
@@ -5438,8 +5521,8 @@
         <f t="shared" si="2"/>
         <v>43991</v>
       </c>
-      <c r="C38" s="111"/>
-      <c r="D38" s="109"/>
+      <c r="C38" s="114"/>
+      <c r="D38" s="112"/>
       <c r="E38" s="31">
         <v>1</v>
       </c>
@@ -5477,8 +5560,8 @@
         <f t="shared" si="2"/>
         <v>43998</v>
       </c>
-      <c r="C39" s="111"/>
-      <c r="D39" s="109"/>
+      <c r="C39" s="114"/>
+      <c r="D39" s="112"/>
       <c r="E39" s="31">
         <v>1</v>
       </c>
@@ -5516,8 +5599,8 @@
         <f t="shared" si="2"/>
         <v>44005</v>
       </c>
-      <c r="C40" s="112"/>
-      <c r="D40" s="109"/>
+      <c r="C40" s="115"/>
+      <c r="D40" s="112"/>
       <c r="E40" s="31">
         <v>1</v>
       </c>
@@ -5546,24 +5629,24 @@
       <c r="X40" s="75"/>
     </row>
     <row r="41" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="92" t="s">
+      <c r="A41" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="B41" s="93"/>
-      <c r="C41" s="93"/>
-      <c r="D41" s="93"/>
-      <c r="E41" s="93"/>
-      <c r="F41" s="93"/>
-      <c r="G41" s="93"/>
-      <c r="H41" s="93"/>
-      <c r="I41" s="93"/>
-      <c r="J41" s="93"/>
-      <c r="K41" s="93"/>
-      <c r="L41" s="93"/>
-      <c r="M41" s="93"/>
-      <c r="N41" s="93"/>
-      <c r="O41" s="93"/>
-      <c r="P41" s="93"/>
+      <c r="B41" s="96"/>
+      <c r="C41" s="96"/>
+      <c r="D41" s="96"/>
+      <c r="E41" s="96"/>
+      <c r="F41" s="96"/>
+      <c r="G41" s="96"/>
+      <c r="H41" s="96"/>
+      <c r="I41" s="96"/>
+      <c r="J41" s="96"/>
+      <c r="K41" s="96"/>
+      <c r="L41" s="96"/>
+      <c r="M41" s="96"/>
+      <c r="N41" s="96"/>
+      <c r="O41" s="96"/>
+      <c r="P41" s="96"/>
       <c r="Q41" s="47"/>
       <c r="R41" s="51"/>
       <c r="V41" s="70"/>
@@ -6446,12 +6529,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="128" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="126"/>
-      <c r="C1" s="126"/>
-      <c r="D1" s="127"/>
+      <c r="B1" s="129"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="130"/>
     </row>
     <row r="2" spans="1:4" ht="22" x14ac:dyDescent="0.15">
       <c r="A2" s="54" t="s">
@@ -6542,12 +6625,12 @@
       <c r="D11" s="61"/>
     </row>
     <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A12" s="125" t="s">
+      <c r="A12" s="128" t="s">
         <v>94</v>
       </c>
-      <c r="B12" s="126"/>
-      <c r="C12" s="126"/>
-      <c r="D12" s="127"/>
+      <c r="B12" s="129"/>
+      <c r="C12" s="129"/>
+      <c r="D12" s="130"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="54" t="s">
@@ -6812,12 +6895,12 @@
       <c r="D40" s="61"/>
     </row>
     <row r="41" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A41" s="128" t="s">
+      <c r="A41" s="131" t="s">
         <v>142</v>
       </c>
-      <c r="B41" s="129"/>
-      <c r="C41" s="129"/>
-      <c r="D41" s="130"/>
+      <c r="B41" s="132"/>
+      <c r="C41" s="132"/>
+      <c r="D41" s="133"/>
     </row>
     <row r="42" spans="1:4" ht="33" x14ac:dyDescent="0.15">
       <c r="A42" s="54" t="s">
@@ -6916,12 +6999,12 @@
       <c r="D51" s="66"/>
     </row>
     <row r="52" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="131" t="s">
+      <c r="A52" s="134" t="s">
         <v>161</v>
       </c>
-      <c r="B52" s="132"/>
-      <c r="C52" s="132"/>
-      <c r="D52" s="133"/>
+      <c r="B52" s="135"/>
+      <c r="C52" s="135"/>
+      <c r="D52" s="136"/>
     </row>
     <row r="53" spans="1:4" ht="22" x14ac:dyDescent="0.15">
       <c r="A53" s="67" t="s">
@@ -7010,12 +7093,12 @@
       <c r="D61" s="66"/>
     </row>
     <row r="62" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="131" t="s">
+      <c r="A62" s="134" t="s">
         <v>178</v>
       </c>
-      <c r="B62" s="132"/>
-      <c r="C62" s="132"/>
-      <c r="D62" s="133"/>
+      <c r="B62" s="135"/>
+      <c r="C62" s="135"/>
+      <c r="D62" s="136"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A63" s="67" t="s">

--- a/progression_2019_2020_IPT_MPSI.xlsx
+++ b/progression_2019_2020_IPT_MPSI.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="351">
   <si>
     <t>Cours</t>
   </si>
@@ -1104,6 +1104,9 @@
   </si>
   <si>
     <t>algo/mission_insight</t>
+  </si>
+  <si>
+    <t>i</t>
   </si>
 </sst>
 </file>
@@ -3562,10 +3565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3576,7 +3579,7 @@
     <col min="6" max="6" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
@@ -3592,7 +3595,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="48" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" ht="48" x14ac:dyDescent="0.15">
       <c r="A2" s="92">
         <v>1</v>
       </c>
@@ -3606,7 +3609,7 @@
       <c r="E2" s="86"/>
       <c r="F2" s="86"/>
     </row>
-    <row r="3" spans="1:6" ht="78" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" ht="78" x14ac:dyDescent="0.15">
       <c r="A3" s="93"/>
       <c r="B3" s="3" t="s">
         <v>338</v>
@@ -3618,7 +3621,7 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="93"/>
       <c r="B4" s="3" t="s">
         <v>342</v>
@@ -3630,7 +3633,7 @@
       <c r="E4" s="42"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="93"/>
       <c r="B5" s="3" t="s">
         <v>339</v>
@@ -3642,7 +3645,7 @@
       <c r="E5" s="42"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="94"/>
       <c r="B6" s="87" t="s">
         <v>340</v>
@@ -3654,7 +3657,7 @@
       <c r="E6" s="88"/>
       <c r="F6" s="88"/>
     </row>
-    <row r="7" spans="1:6" ht="48" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" ht="48" x14ac:dyDescent="0.15">
       <c r="A7" s="92">
         <v>2</v>
       </c>
@@ -3668,7 +3671,7 @@
       <c r="E7" s="86"/>
       <c r="F7" s="86"/>
     </row>
-    <row r="8" spans="1:6" ht="26" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" ht="26" x14ac:dyDescent="0.15">
       <c r="A8" s="93"/>
       <c r="B8" s="90" t="s">
         <v>338</v>
@@ -3680,7 +3683,7 @@
       <c r="E8" s="90"/>
       <c r="F8" s="90"/>
     </row>
-    <row r="9" spans="1:6" ht="26" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" ht="26" x14ac:dyDescent="0.15">
       <c r="A9" s="93"/>
       <c r="B9" s="90" t="s">
         <v>342</v>
@@ -3691,8 +3694,11 @@
       <c r="D9" s="90"/>
       <c r="E9" s="42"/>
       <c r="F9" s="90"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="H9" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="93"/>
       <c r="B10" s="90" t="s">
         <v>339</v>
@@ -3704,7 +3710,7 @@
       <c r="E10" s="42"/>
       <c r="F10" s="90"/>
     </row>
-    <row r="11" spans="1:6" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="94"/>
       <c r="B11" s="91" t="s">
         <v>340</v>
@@ -3716,7 +3722,7 @@
       <c r="E11" s="88"/>
       <c r="F11" s="88"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>282</v>
       </c>

--- a/progression_2019_2020_IPT_MPSI.xlsx
+++ b/progression_2019_2020_IPT_MPSI.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="352">
   <si>
     <t>Cours</t>
   </si>
@@ -1107,6 +1107,9 @@
   </si>
   <si>
     <t>i</t>
+  </si>
+  <si>
+    <t>tableaux/TAB-026</t>
   </si>
 </sst>
 </file>
@@ -2201,7 +2204,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2471,18 +2474,63 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2532,42 +2580,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="7" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3565,10 +3577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3596,7 +3608,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="48" x14ac:dyDescent="0.15">
-      <c r="A2" s="92">
+      <c r="A2" s="95">
         <v>1</v>
       </c>
       <c r="B2" s="85" t="s">
@@ -3610,7 +3622,7 @@
       <c r="F2" s="86"/>
     </row>
     <row r="3" spans="1:8" ht="78" x14ac:dyDescent="0.15">
-      <c r="A3" s="93"/>
+      <c r="A3" s="96"/>
       <c r="B3" s="3" t="s">
         <v>338</v>
       </c>
@@ -3622,7 +3634,7 @@
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="93"/>
+      <c r="A4" s="96"/>
       <c r="B4" s="3" t="s">
         <v>342</v>
       </c>
@@ -3634,7 +3646,7 @@
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="93"/>
+      <c r="A5" s="96"/>
       <c r="B5" s="3" t="s">
         <v>339</v>
       </c>
@@ -3646,7 +3658,7 @@
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:8" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="94"/>
+      <c r="A6" s="97"/>
       <c r="B6" s="87" t="s">
         <v>340</v>
       </c>
@@ -3658,7 +3670,7 @@
       <c r="F6" s="88"/>
     </row>
     <row r="7" spans="1:8" ht="48" x14ac:dyDescent="0.15">
-      <c r="A7" s="92">
+      <c r="A7" s="95">
         <v>2</v>
       </c>
       <c r="B7" s="89" t="s">
@@ -3672,7 +3684,7 @@
       <c r="F7" s="86"/>
     </row>
     <row r="8" spans="1:8" ht="26" x14ac:dyDescent="0.15">
-      <c r="A8" s="93"/>
+      <c r="A8" s="96"/>
       <c r="B8" s="90" t="s">
         <v>338</v>
       </c>
@@ -3684,7 +3696,7 @@
       <c r="F8" s="90"/>
     </row>
     <row r="9" spans="1:8" ht="26" x14ac:dyDescent="0.15">
-      <c r="A9" s="93"/>
+      <c r="A9" s="96"/>
       <c r="B9" s="90" t="s">
         <v>342</v>
       </c>
@@ -3699,7 +3711,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="93"/>
+      <c r="A10" s="96"/>
       <c r="B10" s="90" t="s">
         <v>339</v>
       </c>
@@ -3711,7 +3723,7 @@
       <c r="F10" s="90"/>
     </row>
     <row r="11" spans="1:8" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="94"/>
+      <c r="A11" s="97"/>
       <c r="B11" s="91" t="s">
         <v>340</v>
       </c>
@@ -3722,15 +3734,81 @@
       <c r="E11" s="88"/>
       <c r="F11" s="88"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
+    <row r="12" spans="1:8" ht="48" x14ac:dyDescent="0.15">
+      <c r="A12" s="95">
+        <v>3</v>
+      </c>
+      <c r="B12" s="92" t="s">
+        <v>337</v>
+      </c>
+      <c r="C12" s="86" t="s">
+        <v>341</v>
+      </c>
+      <c r="D12" s="86"/>
+      <c r="E12" s="86"/>
+      <c r="F12" s="86"/>
+    </row>
+    <row r="13" spans="1:8" ht="26" x14ac:dyDescent="0.15">
+      <c r="A13" s="96"/>
+      <c r="B13" s="93" t="s">
+        <v>338</v>
+      </c>
+      <c r="C13" s="93" t="s">
+        <v>351</v>
+      </c>
+      <c r="D13" s="93"/>
+      <c r="E13" s="93"/>
+      <c r="F13" s="93"/>
+    </row>
+    <row r="14" spans="1:8" ht="26" x14ac:dyDescent="0.15">
+      <c r="A14" s="96"/>
+      <c r="B14" s="93" t="s">
+        <v>342</v>
+      </c>
+      <c r="C14" s="42" t="s">
+        <v>348</v>
+      </c>
+      <c r="D14" s="93"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="93"/>
+      <c r="H14" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" s="96"/>
+      <c r="B15" s="93" t="s">
+        <v>339</v>
+      </c>
+      <c r="C15" s="42">
+        <v>1</v>
+      </c>
+      <c r="D15" s="93"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="93"/>
+    </row>
+    <row r="16" spans="1:8" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="97"/>
+      <c r="B16" s="94" t="s">
+        <v>340</v>
+      </c>
+      <c r="C16" s="88">
+        <v>43798</v>
+      </c>
+      <c r="D16" s="88"/>
+      <c r="E16" s="88"/>
+      <c r="F16" s="88"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
         <v>282</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A12:A16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3835,10 +3913,10 @@
       <c r="B2" s="9">
         <v>43711</v>
       </c>
-      <c r="C2" s="122">
+      <c r="C2" s="106">
         <v>1</v>
       </c>
-      <c r="D2" s="125" t="s">
+      <c r="D2" s="109" t="s">
         <v>263</v>
       </c>
       <c r="E2" s="26">
@@ -3892,8 +3970,8 @@
         <f>B2+7</f>
         <v>43718</v>
       </c>
-      <c r="C3" s="123"/>
-      <c r="D3" s="126"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="110"/>
       <c r="E3" s="26">
         <v>2</v>
       </c>
@@ -3944,8 +4022,8 @@
         <f>B3+7</f>
         <v>43725</v>
       </c>
-      <c r="C4" s="123"/>
-      <c r="D4" s="126"/>
+      <c r="C4" s="107"/>
+      <c r="D4" s="110"/>
       <c r="E4" s="26">
         <v>2</v>
       </c>
@@ -3997,8 +4075,8 @@
         <f t="shared" ref="B5:B8" si="0">B4+7</f>
         <v>43732</v>
       </c>
-      <c r="C5" s="123"/>
-      <c r="D5" s="126"/>
+      <c r="C5" s="107"/>
+      <c r="D5" s="110"/>
       <c r="E5" s="26">
         <v>3</v>
       </c>
@@ -4050,8 +4128,8 @@
         <f>B5+7</f>
         <v>43739</v>
       </c>
-      <c r="C6" s="123"/>
-      <c r="D6" s="126"/>
+      <c r="C6" s="107"/>
+      <c r="D6" s="110"/>
       <c r="E6" s="26">
         <v>4</v>
       </c>
@@ -4105,8 +4183,8 @@
         <f t="shared" si="0"/>
         <v>43746</v>
       </c>
-      <c r="C7" s="123"/>
-      <c r="D7" s="126"/>
+      <c r="C7" s="107"/>
+      <c r="D7" s="110"/>
       <c r="E7" s="26">
         <v>4</v>
       </c>
@@ -4154,8 +4232,8 @@
         <f t="shared" si="0"/>
         <v>43753</v>
       </c>
-      <c r="C8" s="124"/>
-      <c r="D8" s="127"/>
+      <c r="C8" s="108"/>
+      <c r="D8" s="111"/>
       <c r="E8" s="26">
         <v>5</v>
       </c>
@@ -4202,24 +4280,24 @@
       <c r="X8" s="75"/>
     </row>
     <row r="9" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="97" t="s">
+      <c r="A9" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="98"/>
-      <c r="C9" s="98"/>
-      <c r="D9" s="98"/>
-      <c r="E9" s="98"/>
-      <c r="F9" s="98"/>
-      <c r="G9" s="98"/>
-      <c r="H9" s="98"/>
-      <c r="I9" s="98"/>
-      <c r="J9" s="98"/>
-      <c r="K9" s="98"/>
-      <c r="L9" s="98"/>
-      <c r="M9" s="98"/>
-      <c r="N9" s="98"/>
-      <c r="O9" s="98"/>
-      <c r="P9" s="98"/>
+      <c r="B9" s="105"/>
+      <c r="C9" s="105"/>
+      <c r="D9" s="105"/>
+      <c r="E9" s="105"/>
+      <c r="F9" s="105"/>
+      <c r="G9" s="105"/>
+      <c r="H9" s="105"/>
+      <c r="I9" s="105"/>
+      <c r="J9" s="105"/>
+      <c r="K9" s="105"/>
+      <c r="L9" s="105"/>
+      <c r="M9" s="105"/>
+      <c r="N9" s="105"/>
+      <c r="O9" s="105"/>
+      <c r="P9" s="105"/>
       <c r="Q9" s="4"/>
       <c r="R9" s="41"/>
       <c r="S9" s="32"/>
@@ -4235,10 +4313,10 @@
         <f>B8+21</f>
         <v>43774</v>
       </c>
-      <c r="C10" s="122">
+      <c r="C10" s="106">
         <v>1</v>
       </c>
-      <c r="D10" s="125" t="s">
+      <c r="D10" s="109" t="s">
         <v>263</v>
       </c>
       <c r="E10" s="26">
@@ -4288,8 +4366,8 @@
         <f t="shared" ref="B11:B16" si="1">B10+7</f>
         <v>43781</v>
       </c>
-      <c r="C11" s="123"/>
-      <c r="D11" s="126"/>
+      <c r="C11" s="107"/>
+      <c r="D11" s="110"/>
       <c r="E11" s="26">
         <v>6</v>
       </c>
@@ -4339,8 +4417,8 @@
         <f t="shared" si="1"/>
         <v>43788</v>
       </c>
-      <c r="C12" s="123"/>
-      <c r="D12" s="126"/>
+      <c r="C12" s="107"/>
+      <c r="D12" s="110"/>
       <c r="E12" s="26">
         <v>6</v>
       </c>
@@ -4385,8 +4463,8 @@
         <f t="shared" si="1"/>
         <v>43795</v>
       </c>
-      <c r="C13" s="123"/>
-      <c r="D13" s="126"/>
+      <c r="C13" s="107"/>
+      <c r="D13" s="110"/>
       <c r="E13" s="26">
         <v>7</v>
       </c>
@@ -4434,8 +4512,8 @@
         <f t="shared" si="1"/>
         <v>43802</v>
       </c>
-      <c r="C14" s="123"/>
-      <c r="D14" s="126"/>
+      <c r="C14" s="107"/>
+      <c r="D14" s="110"/>
       <c r="E14" s="26">
         <v>7</v>
       </c>
@@ -4482,8 +4560,8 @@
         <f t="shared" si="1"/>
         <v>43809</v>
       </c>
-      <c r="C15" s="123"/>
-      <c r="D15" s="126"/>
+      <c r="C15" s="107"/>
+      <c r="D15" s="110"/>
       <c r="E15" s="26">
         <v>8</v>
       </c>
@@ -4533,8 +4611,8 @@
         <f t="shared" si="1"/>
         <v>43816</v>
       </c>
-      <c r="C16" s="124"/>
-      <c r="D16" s="127"/>
+      <c r="C16" s="108"/>
+      <c r="D16" s="111"/>
       <c r="E16" s="26">
         <v>8</v>
       </c>
@@ -4575,24 +4653,24 @@
       <c r="X16" s="75"/>
     </row>
     <row r="17" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="97" t="s">
+      <c r="A17" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="98"/>
-      <c r="C17" s="98"/>
-      <c r="D17" s="98"/>
-      <c r="E17" s="98"/>
-      <c r="F17" s="98"/>
-      <c r="G17" s="98"/>
-      <c r="H17" s="98"/>
-      <c r="I17" s="98"/>
-      <c r="J17" s="98"/>
-      <c r="K17" s="98"/>
-      <c r="L17" s="98"/>
-      <c r="M17" s="98"/>
-      <c r="N17" s="98"/>
-      <c r="O17" s="98"/>
-      <c r="P17" s="98"/>
+      <c r="B17" s="105"/>
+      <c r="C17" s="105"/>
+      <c r="D17" s="105"/>
+      <c r="E17" s="105"/>
+      <c r="F17" s="105"/>
+      <c r="G17" s="105"/>
+      <c r="H17" s="105"/>
+      <c r="I17" s="105"/>
+      <c r="J17" s="105"/>
+      <c r="K17" s="105"/>
+      <c r="L17" s="105"/>
+      <c r="M17" s="105"/>
+      <c r="N17" s="105"/>
+      <c r="O17" s="105"/>
+      <c r="P17" s="105"/>
       <c r="Q17" s="4"/>
       <c r="R17" s="41"/>
       <c r="S17" s="32"/>
@@ -4608,10 +4686,10 @@
         <f>B16+21</f>
         <v>43837</v>
       </c>
-      <c r="C18" s="116">
+      <c r="C18" s="98">
         <v>2</v>
       </c>
-      <c r="D18" s="119" t="s">
+      <c r="D18" s="101" t="s">
         <v>186</v>
       </c>
       <c r="E18" s="28">
@@ -4661,8 +4739,8 @@
         <f>B18+7</f>
         <v>43844</v>
       </c>
-      <c r="C19" s="117"/>
-      <c r="D19" s="120"/>
+      <c r="C19" s="99"/>
+      <c r="D19" s="102"/>
       <c r="E19" s="28">
         <v>1</v>
       </c>
@@ -4710,8 +4788,8 @@
         <f t="shared" ref="B20:B40" si="2">B19+7</f>
         <v>43851</v>
       </c>
-      <c r="C20" s="117"/>
-      <c r="D20" s="120"/>
+      <c r="C20" s="99"/>
+      <c r="D20" s="102"/>
       <c r="E20" s="28">
         <v>2</v>
       </c>
@@ -4759,8 +4837,8 @@
         <f>B20+7</f>
         <v>43858</v>
       </c>
-      <c r="C21" s="118"/>
-      <c r="D21" s="121"/>
+      <c r="C21" s="100"/>
+      <c r="D21" s="103"/>
       <c r="E21" s="28">
         <v>2</v>
       </c>
@@ -4808,10 +4886,10 @@
         <f>B21+7</f>
         <v>43865</v>
       </c>
-      <c r="C22" s="102">
+      <c r="C22" s="117">
         <v>3</v>
       </c>
-      <c r="D22" s="99" t="s">
+      <c r="D22" s="114" t="s">
         <v>61</v>
       </c>
       <c r="E22" s="35">
@@ -4861,8 +4939,8 @@
         <f>B22+7</f>
         <v>43872</v>
       </c>
-      <c r="C23" s="103"/>
-      <c r="D23" s="100"/>
+      <c r="C23" s="118"/>
+      <c r="D23" s="115"/>
       <c r="E23" s="35">
         <v>2</v>
       </c>
@@ -4909,8 +4987,8 @@
         <f>B23+7</f>
         <v>43879</v>
       </c>
-      <c r="C24" s="104"/>
-      <c r="D24" s="101"/>
+      <c r="C24" s="119"/>
+      <c r="D24" s="116"/>
       <c r="E24" s="34">
         <v>2</v>
       </c>
@@ -4946,24 +5024,24 @@
       <c r="S24" s="33"/>
     </row>
     <row r="25" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="97" t="s">
+      <c r="A25" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="98"/>
-      <c r="C25" s="98"/>
-      <c r="D25" s="98"/>
-      <c r="E25" s="98"/>
-      <c r="F25" s="98"/>
-      <c r="G25" s="98"/>
-      <c r="H25" s="98"/>
-      <c r="I25" s="98"/>
-      <c r="J25" s="98"/>
-      <c r="K25" s="98"/>
-      <c r="L25" s="98"/>
-      <c r="M25" s="98"/>
-      <c r="N25" s="98"/>
-      <c r="O25" s="98"/>
-      <c r="P25" s="98"/>
+      <c r="B25" s="105"/>
+      <c r="C25" s="105"/>
+      <c r="D25" s="105"/>
+      <c r="E25" s="105"/>
+      <c r="F25" s="105"/>
+      <c r="G25" s="105"/>
+      <c r="H25" s="105"/>
+      <c r="I25" s="105"/>
+      <c r="J25" s="105"/>
+      <c r="K25" s="105"/>
+      <c r="L25" s="105"/>
+      <c r="M25" s="105"/>
+      <c r="N25" s="105"/>
+      <c r="O25" s="105"/>
+      <c r="P25" s="105"/>
       <c r="Q25" s="4"/>
       <c r="R25" s="50"/>
       <c r="S25" s="32"/>
@@ -4979,10 +5057,10 @@
         <f>B24+21</f>
         <v>43900</v>
       </c>
-      <c r="C26" s="102">
+      <c r="C26" s="117">
         <v>3</v>
       </c>
-      <c r="D26" s="99" t="s">
+      <c r="D26" s="114" t="s">
         <v>61</v>
       </c>
       <c r="E26" s="29">
@@ -5032,8 +5110,8 @@
         <f t="shared" si="2"/>
         <v>43907</v>
       </c>
-      <c r="C27" s="103"/>
-      <c r="D27" s="100"/>
+      <c r="C27" s="118"/>
+      <c r="D27" s="115"/>
       <c r="E27" s="35">
         <v>3</v>
       </c>
@@ -5078,8 +5156,8 @@
         <f t="shared" si="2"/>
         <v>43914</v>
       </c>
-      <c r="C28" s="103"/>
-      <c r="D28" s="100"/>
+      <c r="C28" s="118"/>
+      <c r="D28" s="115"/>
       <c r="E28" s="29">
         <v>4</v>
       </c>
@@ -5127,8 +5205,8 @@
         <f t="shared" si="2"/>
         <v>43921</v>
       </c>
-      <c r="C29" s="104"/>
-      <c r="D29" s="101"/>
+      <c r="C29" s="119"/>
+      <c r="D29" s="116"/>
       <c r="E29" s="35">
         <v>4</v>
       </c>
@@ -5174,10 +5252,10 @@
         <f t="shared" si="2"/>
         <v>43928</v>
       </c>
-      <c r="C30" s="105">
+      <c r="C30" s="120">
         <v>4</v>
       </c>
-      <c r="D30" s="107" t="s">
+      <c r="D30" s="122" t="s">
         <v>44</v>
       </c>
       <c r="E30" s="30">
@@ -5229,8 +5307,8 @@
         <f t="shared" si="2"/>
         <v>43935</v>
       </c>
-      <c r="C31" s="106"/>
-      <c r="D31" s="108"/>
+      <c r="C31" s="121"/>
+      <c r="D31" s="123"/>
       <c r="E31" s="30">
         <v>2</v>
       </c>
@@ -5271,24 +5349,24 @@
       <c r="X31" s="75"/>
     </row>
     <row r="32" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="95" t="s">
+      <c r="A32" s="112" t="s">
         <v>14</v>
       </c>
-      <c r="B32" s="96"/>
-      <c r="C32" s="96"/>
-      <c r="D32" s="96"/>
-      <c r="E32" s="96"/>
-      <c r="F32" s="96"/>
-      <c r="G32" s="96"/>
-      <c r="H32" s="96"/>
-      <c r="I32" s="96"/>
-      <c r="J32" s="96"/>
-      <c r="K32" s="96"/>
-      <c r="L32" s="96"/>
-      <c r="M32" s="96"/>
-      <c r="N32" s="96"/>
-      <c r="O32" s="96"/>
-      <c r="P32" s="96"/>
+      <c r="B32" s="113"/>
+      <c r="C32" s="113"/>
+      <c r="D32" s="113"/>
+      <c r="E32" s="113"/>
+      <c r="F32" s="113"/>
+      <c r="G32" s="113"/>
+      <c r="H32" s="113"/>
+      <c r="I32" s="113"/>
+      <c r="J32" s="113"/>
+      <c r="K32" s="113"/>
+      <c r="L32" s="113"/>
+      <c r="M32" s="113"/>
+      <c r="N32" s="113"/>
+      <c r="O32" s="113"/>
+      <c r="P32" s="113"/>
       <c r="Q32" s="47"/>
       <c r="R32" s="51"/>
       <c r="S32" s="32"/>
@@ -5304,10 +5382,10 @@
         <f>B31+21</f>
         <v>43956</v>
       </c>
-      <c r="C33" s="105">
+      <c r="C33" s="120">
         <v>4</v>
       </c>
-      <c r="D33" s="107" t="s">
+      <c r="D33" s="122" t="s">
         <v>44</v>
       </c>
       <c r="E33" s="30">
@@ -5352,8 +5430,8 @@
         <f t="shared" si="2"/>
         <v>43963</v>
       </c>
-      <c r="C34" s="110"/>
-      <c r="D34" s="109"/>
+      <c r="C34" s="125"/>
+      <c r="D34" s="124"/>
       <c r="E34" s="30">
         <v>3</v>
       </c>
@@ -5398,8 +5476,8 @@
         <f t="shared" si="2"/>
         <v>43970</v>
       </c>
-      <c r="C35" s="106"/>
-      <c r="D35" s="108"/>
+      <c r="C35" s="121"/>
+      <c r="D35" s="123"/>
       <c r="E35" s="30">
         <v>4</v>
       </c>
@@ -5443,10 +5521,10 @@
         <f t="shared" si="2"/>
         <v>43977</v>
       </c>
-      <c r="C36" s="113">
+      <c r="C36" s="128">
         <v>5</v>
       </c>
-      <c r="D36" s="111" t="s">
+      <c r="D36" s="126" t="s">
         <v>50</v>
       </c>
       <c r="E36" s="31">
@@ -5486,8 +5564,8 @@
         <f t="shared" si="2"/>
         <v>43984</v>
       </c>
-      <c r="C37" s="114"/>
-      <c r="D37" s="112"/>
+      <c r="C37" s="129"/>
+      <c r="D37" s="127"/>
       <c r="E37" s="31">
         <v>1</v>
       </c>
@@ -5527,8 +5605,8 @@
         <f t="shared" si="2"/>
         <v>43991</v>
       </c>
-      <c r="C38" s="114"/>
-      <c r="D38" s="112"/>
+      <c r="C38" s="129"/>
+      <c r="D38" s="127"/>
       <c r="E38" s="31">
         <v>1</v>
       </c>
@@ -5566,8 +5644,8 @@
         <f t="shared" si="2"/>
         <v>43998</v>
       </c>
-      <c r="C39" s="114"/>
-      <c r="D39" s="112"/>
+      <c r="C39" s="129"/>
+      <c r="D39" s="127"/>
       <c r="E39" s="31">
         <v>1</v>
       </c>
@@ -5605,8 +5683,8 @@
         <f t="shared" si="2"/>
         <v>44005</v>
       </c>
-      <c r="C40" s="115"/>
-      <c r="D40" s="112"/>
+      <c r="C40" s="130"/>
+      <c r="D40" s="127"/>
       <c r="E40" s="31">
         <v>1</v>
       </c>
@@ -5635,24 +5713,24 @@
       <c r="X40" s="75"/>
     </row>
     <row r="41" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="95" t="s">
+      <c r="A41" s="112" t="s">
         <v>15</v>
       </c>
-      <c r="B41" s="96"/>
-      <c r="C41" s="96"/>
-      <c r="D41" s="96"/>
-      <c r="E41" s="96"/>
-      <c r="F41" s="96"/>
-      <c r="G41" s="96"/>
-      <c r="H41" s="96"/>
-      <c r="I41" s="96"/>
-      <c r="J41" s="96"/>
-      <c r="K41" s="96"/>
-      <c r="L41" s="96"/>
-      <c r="M41" s="96"/>
-      <c r="N41" s="96"/>
-      <c r="O41" s="96"/>
-      <c r="P41" s="96"/>
+      <c r="B41" s="113"/>
+      <c r="C41" s="113"/>
+      <c r="D41" s="113"/>
+      <c r="E41" s="113"/>
+      <c r="F41" s="113"/>
+      <c r="G41" s="113"/>
+      <c r="H41" s="113"/>
+      <c r="I41" s="113"/>
+      <c r="J41" s="113"/>
+      <c r="K41" s="113"/>
+      <c r="L41" s="113"/>
+      <c r="M41" s="113"/>
+      <c r="N41" s="113"/>
+      <c r="O41" s="113"/>
+      <c r="P41" s="113"/>
       <c r="Q41" s="47"/>
       <c r="R41" s="51"/>
       <c r="V41" s="70"/>
@@ -5721,14 +5799,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="D18:D21"/>
-    <mergeCell ref="A9:P9"/>
-    <mergeCell ref="A17:P17"/>
-    <mergeCell ref="C2:C8"/>
-    <mergeCell ref="D2:D8"/>
-    <mergeCell ref="D10:D16"/>
-    <mergeCell ref="C10:C16"/>
     <mergeCell ref="A41:P41"/>
     <mergeCell ref="A32:P32"/>
     <mergeCell ref="A25:P25"/>
@@ -5742,6 +5812,14 @@
     <mergeCell ref="C33:C35"/>
     <mergeCell ref="D36:D40"/>
     <mergeCell ref="C36:C40"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="A9:P9"/>
+    <mergeCell ref="A17:P17"/>
+    <mergeCell ref="C2:C8"/>
+    <mergeCell ref="D2:D8"/>
+    <mergeCell ref="D10:D16"/>
+    <mergeCell ref="C10:C16"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6535,12 +6613,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A1" s="128" t="s">
+      <c r="A1" s="131" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="129"/>
-      <c r="C1" s="129"/>
-      <c r="D1" s="130"/>
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="133"/>
     </row>
     <row r="2" spans="1:4" ht="22" x14ac:dyDescent="0.15">
       <c r="A2" s="54" t="s">
@@ -6631,12 +6709,12 @@
       <c r="D11" s="61"/>
     </row>
     <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A12" s="128" t="s">
+      <c r="A12" s="131" t="s">
         <v>94</v>
       </c>
-      <c r="B12" s="129"/>
-      <c r="C12" s="129"/>
-      <c r="D12" s="130"/>
+      <c r="B12" s="132"/>
+      <c r="C12" s="132"/>
+      <c r="D12" s="133"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="54" t="s">
@@ -6901,12 +6979,12 @@
       <c r="D40" s="61"/>
     </row>
     <row r="41" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A41" s="131" t="s">
+      <c r="A41" s="134" t="s">
         <v>142</v>
       </c>
-      <c r="B41" s="132"/>
-      <c r="C41" s="132"/>
-      <c r="D41" s="133"/>
+      <c r="B41" s="135"/>
+      <c r="C41" s="135"/>
+      <c r="D41" s="136"/>
     </row>
     <row r="42" spans="1:4" ht="33" x14ac:dyDescent="0.15">
       <c r="A42" s="54" t="s">
@@ -7005,12 +7083,12 @@
       <c r="D51" s="66"/>
     </row>
     <row r="52" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="134" t="s">
+      <c r="A52" s="137" t="s">
         <v>161</v>
       </c>
-      <c r="B52" s="135"/>
-      <c r="C52" s="135"/>
-      <c r="D52" s="136"/>
+      <c r="B52" s="138"/>
+      <c r="C52" s="138"/>
+      <c r="D52" s="139"/>
     </row>
     <row r="53" spans="1:4" ht="22" x14ac:dyDescent="0.15">
       <c r="A53" s="67" t="s">
@@ -7099,12 +7177,12 @@
       <c r="D61" s="66"/>
     </row>
     <row r="62" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="134" t="s">
+      <c r="A62" s="137" t="s">
         <v>178</v>
       </c>
-      <c r="B62" s="135"/>
-      <c r="C62" s="135"/>
-      <c r="D62" s="136"/>
+      <c r="B62" s="138"/>
+      <c r="C62" s="138"/>
+      <c r="D62" s="139"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A63" s="67" t="s">

--- a/progression_2019_2020_IPT_MPSI.xlsx
+++ b/progression_2019_2020_IPT_MPSI.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7580" yWindow="460" windowWidth="13280" windowHeight="14340"/>
+    <workbookView xWindow="7580" yWindow="460" windowWidth="13280" windowHeight="14340" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Planning DS" sheetId="16" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="354">
   <si>
     <t>Cours</t>
   </si>
@@ -1110,6 +1110,12 @@
   </si>
   <si>
     <t>tableaux/TAB-026</t>
+  </si>
+  <si>
+    <t>fichiers/FIC-007;fichiers/FIC-004</t>
+  </si>
+  <si>
+    <t>consignes/consignes_TP6;fichiers/FIC-009;fichiers/FIC-011;fichiers/FIC-012</t>
   </si>
 </sst>
 </file>
@@ -2483,6 +2489,69 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="1" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2501,12 +2570,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2523,63 +2586,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3579,7 +3585,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -3821,8 +3827,8 @@
   </sheetPr>
   <dimension ref="A1:X53"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" topLeftCell="H2" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="26" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3913,10 +3919,10 @@
       <c r="B2" s="9">
         <v>43711</v>
       </c>
-      <c r="C2" s="106">
+      <c r="C2" s="125">
         <v>1</v>
       </c>
-      <c r="D2" s="109" t="s">
+      <c r="D2" s="128" t="s">
         <v>263</v>
       </c>
       <c r="E2" s="26">
@@ -3970,8 +3976,8 @@
         <f>B2+7</f>
         <v>43718</v>
       </c>
-      <c r="C3" s="107"/>
-      <c r="D3" s="110"/>
+      <c r="C3" s="126"/>
+      <c r="D3" s="129"/>
       <c r="E3" s="26">
         <v>2</v>
       </c>
@@ -4022,8 +4028,8 @@
         <f>B3+7</f>
         <v>43725</v>
       </c>
-      <c r="C4" s="107"/>
-      <c r="D4" s="110"/>
+      <c r="C4" s="126"/>
+      <c r="D4" s="129"/>
       <c r="E4" s="26">
         <v>2</v>
       </c>
@@ -4075,8 +4081,8 @@
         <f t="shared" ref="B5:B8" si="0">B4+7</f>
         <v>43732</v>
       </c>
-      <c r="C5" s="107"/>
-      <c r="D5" s="110"/>
+      <c r="C5" s="126"/>
+      <c r="D5" s="129"/>
       <c r="E5" s="26">
         <v>3</v>
       </c>
@@ -4128,8 +4134,8 @@
         <f>B5+7</f>
         <v>43739</v>
       </c>
-      <c r="C6" s="107"/>
-      <c r="D6" s="110"/>
+      <c r="C6" s="126"/>
+      <c r="D6" s="129"/>
       <c r="E6" s="26">
         <v>4</v>
       </c>
@@ -4183,8 +4189,8 @@
         <f t="shared" si="0"/>
         <v>43746</v>
       </c>
-      <c r="C7" s="107"/>
-      <c r="D7" s="110"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="129"/>
       <c r="E7" s="26">
         <v>4</v>
       </c>
@@ -4232,8 +4238,8 @@
         <f t="shared" si="0"/>
         <v>43753</v>
       </c>
-      <c r="C8" s="108"/>
-      <c r="D8" s="111"/>
+      <c r="C8" s="127"/>
+      <c r="D8" s="130"/>
       <c r="E8" s="26">
         <v>5</v>
       </c>
@@ -4280,24 +4286,24 @@
       <c r="X8" s="75"/>
     </row>
     <row r="9" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="104" t="s">
+      <c r="A9" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="105"/>
-      <c r="C9" s="105"/>
-      <c r="D9" s="105"/>
-      <c r="E9" s="105"/>
-      <c r="F9" s="105"/>
-      <c r="G9" s="105"/>
-      <c r="H9" s="105"/>
-      <c r="I9" s="105"/>
-      <c r="J9" s="105"/>
-      <c r="K9" s="105"/>
-      <c r="L9" s="105"/>
-      <c r="M9" s="105"/>
-      <c r="N9" s="105"/>
-      <c r="O9" s="105"/>
-      <c r="P9" s="105"/>
+      <c r="B9" s="101"/>
+      <c r="C9" s="101"/>
+      <c r="D9" s="101"/>
+      <c r="E9" s="101"/>
+      <c r="F9" s="101"/>
+      <c r="G9" s="101"/>
+      <c r="H9" s="101"/>
+      <c r="I9" s="101"/>
+      <c r="J9" s="101"/>
+      <c r="K9" s="101"/>
+      <c r="L9" s="101"/>
+      <c r="M9" s="101"/>
+      <c r="N9" s="101"/>
+      <c r="O9" s="101"/>
+      <c r="P9" s="101"/>
       <c r="Q9" s="4"/>
       <c r="R9" s="41"/>
       <c r="S9" s="32"/>
@@ -4313,10 +4319,10 @@
         <f>B8+21</f>
         <v>43774</v>
       </c>
-      <c r="C10" s="106">
+      <c r="C10" s="125">
         <v>1</v>
       </c>
-      <c r="D10" s="109" t="s">
+      <c r="D10" s="128" t="s">
         <v>263</v>
       </c>
       <c r="E10" s="26">
@@ -4366,8 +4372,8 @@
         <f t="shared" ref="B11:B16" si="1">B10+7</f>
         <v>43781</v>
       </c>
-      <c r="C11" s="107"/>
-      <c r="D11" s="110"/>
+      <c r="C11" s="126"/>
+      <c r="D11" s="129"/>
       <c r="E11" s="26">
         <v>6</v>
       </c>
@@ -4417,8 +4423,8 @@
         <f t="shared" si="1"/>
         <v>43788</v>
       </c>
-      <c r="C12" s="107"/>
-      <c r="D12" s="110"/>
+      <c r="C12" s="126"/>
+      <c r="D12" s="129"/>
       <c r="E12" s="26">
         <v>6</v>
       </c>
@@ -4463,8 +4469,8 @@
         <f t="shared" si="1"/>
         <v>43795</v>
       </c>
-      <c r="C13" s="107"/>
-      <c r="D13" s="110"/>
+      <c r="C13" s="126"/>
+      <c r="D13" s="129"/>
       <c r="E13" s="26">
         <v>7</v>
       </c>
@@ -4483,8 +4489,12 @@
       <c r="J13" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
+      <c r="K13" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>353</v>
+      </c>
       <c r="M13" s="78" t="s">
         <v>275</v>
       </c>
@@ -4512,8 +4522,8 @@
         <f t="shared" si="1"/>
         <v>43802</v>
       </c>
-      <c r="C14" s="107"/>
-      <c r="D14" s="110"/>
+      <c r="C14" s="126"/>
+      <c r="D14" s="129"/>
       <c r="E14" s="26">
         <v>7</v>
       </c>
@@ -4560,8 +4570,8 @@
         <f t="shared" si="1"/>
         <v>43809</v>
       </c>
-      <c r="C15" s="107"/>
-      <c r="D15" s="110"/>
+      <c r="C15" s="126"/>
+      <c r="D15" s="129"/>
       <c r="E15" s="26">
         <v>8</v>
       </c>
@@ -4611,8 +4621,8 @@
         <f t="shared" si="1"/>
         <v>43816</v>
       </c>
-      <c r="C16" s="108"/>
-      <c r="D16" s="111"/>
+      <c r="C16" s="127"/>
+      <c r="D16" s="130"/>
       <c r="E16" s="26">
         <v>8</v>
       </c>
@@ -4653,24 +4663,24 @@
       <c r="X16" s="75"/>
     </row>
     <row r="17" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="104" t="s">
+      <c r="A17" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="105"/>
-      <c r="C17" s="105"/>
-      <c r="D17" s="105"/>
-      <c r="E17" s="105"/>
-      <c r="F17" s="105"/>
-      <c r="G17" s="105"/>
-      <c r="H17" s="105"/>
-      <c r="I17" s="105"/>
-      <c r="J17" s="105"/>
-      <c r="K17" s="105"/>
-      <c r="L17" s="105"/>
-      <c r="M17" s="105"/>
-      <c r="N17" s="105"/>
-      <c r="O17" s="105"/>
-      <c r="P17" s="105"/>
+      <c r="B17" s="101"/>
+      <c r="C17" s="101"/>
+      <c r="D17" s="101"/>
+      <c r="E17" s="101"/>
+      <c r="F17" s="101"/>
+      <c r="G17" s="101"/>
+      <c r="H17" s="101"/>
+      <c r="I17" s="101"/>
+      <c r="J17" s="101"/>
+      <c r="K17" s="101"/>
+      <c r="L17" s="101"/>
+      <c r="M17" s="101"/>
+      <c r="N17" s="101"/>
+      <c r="O17" s="101"/>
+      <c r="P17" s="101"/>
       <c r="Q17" s="4"/>
       <c r="R17" s="41"/>
       <c r="S17" s="32"/>
@@ -4686,10 +4696,10 @@
         <f>B16+21</f>
         <v>43837</v>
       </c>
-      <c r="C18" s="98">
+      <c r="C18" s="119">
         <v>2</v>
       </c>
-      <c r="D18" s="101" t="s">
+      <c r="D18" s="122" t="s">
         <v>186</v>
       </c>
       <c r="E18" s="28">
@@ -4739,8 +4749,8 @@
         <f>B18+7</f>
         <v>43844</v>
       </c>
-      <c r="C19" s="99"/>
-      <c r="D19" s="102"/>
+      <c r="C19" s="120"/>
+      <c r="D19" s="123"/>
       <c r="E19" s="28">
         <v>1</v>
       </c>
@@ -4788,8 +4798,8 @@
         <f t="shared" ref="B20:B40" si="2">B19+7</f>
         <v>43851</v>
       </c>
-      <c r="C20" s="99"/>
-      <c r="D20" s="102"/>
+      <c r="C20" s="120"/>
+      <c r="D20" s="123"/>
       <c r="E20" s="28">
         <v>2</v>
       </c>
@@ -4837,8 +4847,8 @@
         <f>B20+7</f>
         <v>43858</v>
       </c>
-      <c r="C21" s="100"/>
-      <c r="D21" s="103"/>
+      <c r="C21" s="121"/>
+      <c r="D21" s="124"/>
       <c r="E21" s="28">
         <v>2</v>
       </c>
@@ -4886,10 +4896,10 @@
         <f>B21+7</f>
         <v>43865</v>
       </c>
-      <c r="C22" s="117">
+      <c r="C22" s="105">
         <v>3</v>
       </c>
-      <c r="D22" s="114" t="s">
+      <c r="D22" s="102" t="s">
         <v>61</v>
       </c>
       <c r="E22" s="35">
@@ -4939,8 +4949,8 @@
         <f>B22+7</f>
         <v>43872</v>
       </c>
-      <c r="C23" s="118"/>
-      <c r="D23" s="115"/>
+      <c r="C23" s="106"/>
+      <c r="D23" s="103"/>
       <c r="E23" s="35">
         <v>2</v>
       </c>
@@ -4987,8 +4997,8 @@
         <f>B23+7</f>
         <v>43879</v>
       </c>
-      <c r="C24" s="119"/>
-      <c r="D24" s="116"/>
+      <c r="C24" s="107"/>
+      <c r="D24" s="104"/>
       <c r="E24" s="34">
         <v>2</v>
       </c>
@@ -5024,24 +5034,24 @@
       <c r="S24" s="33"/>
     </row>
     <row r="25" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="104" t="s">
+      <c r="A25" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="105"/>
-      <c r="C25" s="105"/>
-      <c r="D25" s="105"/>
-      <c r="E25" s="105"/>
-      <c r="F25" s="105"/>
-      <c r="G25" s="105"/>
-      <c r="H25" s="105"/>
-      <c r="I25" s="105"/>
-      <c r="J25" s="105"/>
-      <c r="K25" s="105"/>
-      <c r="L25" s="105"/>
-      <c r="M25" s="105"/>
-      <c r="N25" s="105"/>
-      <c r="O25" s="105"/>
-      <c r="P25" s="105"/>
+      <c r="B25" s="101"/>
+      <c r="C25" s="101"/>
+      <c r="D25" s="101"/>
+      <c r="E25" s="101"/>
+      <c r="F25" s="101"/>
+      <c r="G25" s="101"/>
+      <c r="H25" s="101"/>
+      <c r="I25" s="101"/>
+      <c r="J25" s="101"/>
+      <c r="K25" s="101"/>
+      <c r="L25" s="101"/>
+      <c r="M25" s="101"/>
+      <c r="N25" s="101"/>
+      <c r="O25" s="101"/>
+      <c r="P25" s="101"/>
       <c r="Q25" s="4"/>
       <c r="R25" s="50"/>
       <c r="S25" s="32"/>
@@ -5057,10 +5067,10 @@
         <f>B24+21</f>
         <v>43900</v>
       </c>
-      <c r="C26" s="117">
+      <c r="C26" s="105">
         <v>3</v>
       </c>
-      <c r="D26" s="114" t="s">
+      <c r="D26" s="102" t="s">
         <v>61</v>
       </c>
       <c r="E26" s="29">
@@ -5110,8 +5120,8 @@
         <f t="shared" si="2"/>
         <v>43907</v>
       </c>
-      <c r="C27" s="118"/>
-      <c r="D27" s="115"/>
+      <c r="C27" s="106"/>
+      <c r="D27" s="103"/>
       <c r="E27" s="35">
         <v>3</v>
       </c>
@@ -5156,8 +5166,8 @@
         <f t="shared" si="2"/>
         <v>43914</v>
       </c>
-      <c r="C28" s="118"/>
-      <c r="D28" s="115"/>
+      <c r="C28" s="106"/>
+      <c r="D28" s="103"/>
       <c r="E28" s="29">
         <v>4</v>
       </c>
@@ -5205,8 +5215,8 @@
         <f t="shared" si="2"/>
         <v>43921</v>
       </c>
-      <c r="C29" s="119"/>
-      <c r="D29" s="116"/>
+      <c r="C29" s="107"/>
+      <c r="D29" s="104"/>
       <c r="E29" s="35">
         <v>4</v>
       </c>
@@ -5252,10 +5262,10 @@
         <f t="shared" si="2"/>
         <v>43928</v>
       </c>
-      <c r="C30" s="120">
+      <c r="C30" s="108">
         <v>4</v>
       </c>
-      <c r="D30" s="122" t="s">
+      <c r="D30" s="110" t="s">
         <v>44</v>
       </c>
       <c r="E30" s="30">
@@ -5307,8 +5317,8 @@
         <f t="shared" si="2"/>
         <v>43935</v>
       </c>
-      <c r="C31" s="121"/>
-      <c r="D31" s="123"/>
+      <c r="C31" s="109"/>
+      <c r="D31" s="111"/>
       <c r="E31" s="30">
         <v>2</v>
       </c>
@@ -5349,24 +5359,24 @@
       <c r="X31" s="75"/>
     </row>
     <row r="32" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="112" t="s">
+      <c r="A32" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="B32" s="113"/>
-      <c r="C32" s="113"/>
-      <c r="D32" s="113"/>
-      <c r="E32" s="113"/>
-      <c r="F32" s="113"/>
-      <c r="G32" s="113"/>
-      <c r="H32" s="113"/>
-      <c r="I32" s="113"/>
-      <c r="J32" s="113"/>
-      <c r="K32" s="113"/>
-      <c r="L32" s="113"/>
-      <c r="M32" s="113"/>
-      <c r="N32" s="113"/>
-      <c r="O32" s="113"/>
-      <c r="P32" s="113"/>
+      <c r="B32" s="99"/>
+      <c r="C32" s="99"/>
+      <c r="D32" s="99"/>
+      <c r="E32" s="99"/>
+      <c r="F32" s="99"/>
+      <c r="G32" s="99"/>
+      <c r="H32" s="99"/>
+      <c r="I32" s="99"/>
+      <c r="J32" s="99"/>
+      <c r="K32" s="99"/>
+      <c r="L32" s="99"/>
+      <c r="M32" s="99"/>
+      <c r="N32" s="99"/>
+      <c r="O32" s="99"/>
+      <c r="P32" s="99"/>
       <c r="Q32" s="47"/>
       <c r="R32" s="51"/>
       <c r="S32" s="32"/>
@@ -5382,10 +5392,10 @@
         <f>B31+21</f>
         <v>43956</v>
       </c>
-      <c r="C33" s="120">
+      <c r="C33" s="108">
         <v>4</v>
       </c>
-      <c r="D33" s="122" t="s">
+      <c r="D33" s="110" t="s">
         <v>44</v>
       </c>
       <c r="E33" s="30">
@@ -5430,8 +5440,8 @@
         <f t="shared" si="2"/>
         <v>43963</v>
       </c>
-      <c r="C34" s="125"/>
-      <c r="D34" s="124"/>
+      <c r="C34" s="113"/>
+      <c r="D34" s="112"/>
       <c r="E34" s="30">
         <v>3</v>
       </c>
@@ -5476,8 +5486,8 @@
         <f t="shared" si="2"/>
         <v>43970</v>
       </c>
-      <c r="C35" s="121"/>
-      <c r="D35" s="123"/>
+      <c r="C35" s="109"/>
+      <c r="D35" s="111"/>
       <c r="E35" s="30">
         <v>4</v>
       </c>
@@ -5521,10 +5531,10 @@
         <f t="shared" si="2"/>
         <v>43977</v>
       </c>
-      <c r="C36" s="128">
+      <c r="C36" s="116">
         <v>5</v>
       </c>
-      <c r="D36" s="126" t="s">
+      <c r="D36" s="114" t="s">
         <v>50</v>
       </c>
       <c r="E36" s="31">
@@ -5564,8 +5574,8 @@
         <f t="shared" si="2"/>
         <v>43984</v>
       </c>
-      <c r="C37" s="129"/>
-      <c r="D37" s="127"/>
+      <c r="C37" s="117"/>
+      <c r="D37" s="115"/>
       <c r="E37" s="31">
         <v>1</v>
       </c>
@@ -5605,8 +5615,8 @@
         <f t="shared" si="2"/>
         <v>43991</v>
       </c>
-      <c r="C38" s="129"/>
-      <c r="D38" s="127"/>
+      <c r="C38" s="117"/>
+      <c r="D38" s="115"/>
       <c r="E38" s="31">
         <v>1</v>
       </c>
@@ -5644,8 +5654,8 @@
         <f t="shared" si="2"/>
         <v>43998</v>
       </c>
-      <c r="C39" s="129"/>
-      <c r="D39" s="127"/>
+      <c r="C39" s="117"/>
+      <c r="D39" s="115"/>
       <c r="E39" s="31">
         <v>1</v>
       </c>
@@ -5683,8 +5693,8 @@
         <f t="shared" si="2"/>
         <v>44005</v>
       </c>
-      <c r="C40" s="130"/>
-      <c r="D40" s="127"/>
+      <c r="C40" s="118"/>
+      <c r="D40" s="115"/>
       <c r="E40" s="31">
         <v>1</v>
       </c>
@@ -5713,24 +5723,24 @@
       <c r="X40" s="75"/>
     </row>
     <row r="41" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="112" t="s">
+      <c r="A41" s="98" t="s">
         <v>15</v>
       </c>
-      <c r="B41" s="113"/>
-      <c r="C41" s="113"/>
-      <c r="D41" s="113"/>
-      <c r="E41" s="113"/>
-      <c r="F41" s="113"/>
-      <c r="G41" s="113"/>
-      <c r="H41" s="113"/>
-      <c r="I41" s="113"/>
-      <c r="J41" s="113"/>
-      <c r="K41" s="113"/>
-      <c r="L41" s="113"/>
-      <c r="M41" s="113"/>
-      <c r="N41" s="113"/>
-      <c r="O41" s="113"/>
-      <c r="P41" s="113"/>
+      <c r="B41" s="99"/>
+      <c r="C41" s="99"/>
+      <c r="D41" s="99"/>
+      <c r="E41" s="99"/>
+      <c r="F41" s="99"/>
+      <c r="G41" s="99"/>
+      <c r="H41" s="99"/>
+      <c r="I41" s="99"/>
+      <c r="J41" s="99"/>
+      <c r="K41" s="99"/>
+      <c r="L41" s="99"/>
+      <c r="M41" s="99"/>
+      <c r="N41" s="99"/>
+      <c r="O41" s="99"/>
+      <c r="P41" s="99"/>
       <c r="Q41" s="47"/>
       <c r="R41" s="51"/>
       <c r="V41" s="70"/>
@@ -5799,6 +5809,14 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="A9:P9"/>
+    <mergeCell ref="A17:P17"/>
+    <mergeCell ref="C2:C8"/>
+    <mergeCell ref="D2:D8"/>
+    <mergeCell ref="D10:D16"/>
+    <mergeCell ref="C10:C16"/>
     <mergeCell ref="A41:P41"/>
     <mergeCell ref="A32:P32"/>
     <mergeCell ref="A25:P25"/>
@@ -5812,14 +5830,6 @@
     <mergeCell ref="C33:C35"/>
     <mergeCell ref="D36:D40"/>
     <mergeCell ref="C36:C40"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="D18:D21"/>
-    <mergeCell ref="A9:P9"/>
-    <mergeCell ref="A17:P17"/>
-    <mergeCell ref="C2:C8"/>
-    <mergeCell ref="D2:D8"/>
-    <mergeCell ref="D10:D16"/>
-    <mergeCell ref="C10:C16"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/progression_2019_2020_IPT_MPSI.xlsx
+++ b/progression_2019_2020_IPT_MPSI.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="355">
   <si>
     <t>Cours</t>
   </si>
@@ -151,9 +151,6 @@
   </si>
   <si>
     <t>Tracé de fonctions</t>
-  </si>
-  <si>
-    <t>Tableaux et chaines de caractères</t>
   </si>
   <si>
     <t>Complexité</t>
@@ -1116,6 +1113,12 @@
   </si>
   <si>
     <t>consignes/consignes_TP6;fichiers/FIC-009;fichiers/FIC-011;fichiers/FIC-012</t>
+  </si>
+  <si>
+    <t>AA.C9; AA.S12; AA.C2: AA.C3; AA.S4; AA.S5</t>
+  </si>
+  <si>
+    <t>Tableaux, chaines de caractères et fichiers</t>
   </si>
 </sst>
 </file>
@@ -3601,16 +3604,16 @@
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>335</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="48" x14ac:dyDescent="0.15">
@@ -3618,10 +3621,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="85" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C2" s="86" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D2" s="86"/>
       <c r="E2" s="86"/>
@@ -3630,10 +3633,10 @@
     <row r="3" spans="1:8" ht="78" x14ac:dyDescent="0.15">
       <c r="A3" s="96"/>
       <c r="B3" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -3642,10 +3645,10 @@
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="96"/>
       <c r="B4" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="C4" s="42" t="s">
         <v>342</v>
-      </c>
-      <c r="C4" s="42" t="s">
-        <v>343</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="42"/>
@@ -3654,7 +3657,7 @@
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="96"/>
       <c r="B5" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C5" s="42">
         <v>1</v>
@@ -3666,7 +3669,7 @@
     <row r="6" spans="1:8" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="97"/>
       <c r="B6" s="87" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C6" s="88">
         <v>43754</v>
@@ -3680,10 +3683,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="89" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C7" s="86" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D7" s="86"/>
       <c r="E7" s="86"/>
@@ -3692,10 +3695,10 @@
     <row r="8" spans="1:8" ht="26" x14ac:dyDescent="0.15">
       <c r="A8" s="96"/>
       <c r="B8" s="90" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C8" s="90" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D8" s="90"/>
       <c r="E8" s="90"/>
@@ -3704,22 +3707,22 @@
     <row r="9" spans="1:8" ht="26" x14ac:dyDescent="0.15">
       <c r="A9" s="96"/>
       <c r="B9" s="90" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D9" s="90"/>
       <c r="E9" s="42"/>
       <c r="F9" s="90"/>
       <c r="H9" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="96"/>
       <c r="B10" s="90" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C10" s="42">
         <v>1</v>
@@ -3731,7 +3734,7 @@
     <row r="11" spans="1:8" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="97"/>
       <c r="B11" s="91" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C11" s="88">
         <v>43798</v>
@@ -3745,10 +3748,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="92" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C12" s="86" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D12" s="86"/>
       <c r="E12" s="86"/>
@@ -3757,10 +3760,10 @@
     <row r="13" spans="1:8" ht="26" x14ac:dyDescent="0.15">
       <c r="A13" s="96"/>
       <c r="B13" s="93" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C13" s="93" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D13" s="93"/>
       <c r="E13" s="93"/>
@@ -3769,22 +3772,22 @@
     <row r="14" spans="1:8" ht="26" x14ac:dyDescent="0.15">
       <c r="A14" s="96"/>
       <c r="B14" s="93" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C14" s="42" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D14" s="93"/>
       <c r="E14" s="42"/>
       <c r="F14" s="93"/>
       <c r="H14" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="96"/>
       <c r="B15" s="93" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C15" s="42">
         <v>1</v>
@@ -3796,7 +3799,7 @@
     <row r="16" spans="1:8" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="97"/>
       <c r="B16" s="94" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C16" s="88">
         <v>43798</v>
@@ -3807,7 +3810,7 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -3827,8 +3830,8 @@
   </sheetPr>
   <dimension ref="A1:X53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H2" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" topLeftCell="H4" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="26" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3885,16 +3888,16 @@
         <v>1</v>
       </c>
       <c r="K1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="L1" s="4" t="s">
-        <v>58</v>
-      </c>
       <c r="M1" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>278</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>279</v>
       </c>
       <c r="O1" s="4" t="s">
         <v>13</v>
@@ -3903,10 +3906,10 @@
         <v>22</v>
       </c>
       <c r="Q1" s="41" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="S1" s="32" t="s">
         <v>24</v>
@@ -3923,7 +3926,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="128" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E2" s="26">
         <v>1</v>
@@ -3945,24 +3948,24 @@
       </c>
       <c r="K2" s="5"/>
       <c r="L2" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="M2" s="83" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="N2" s="83" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="O2" s="3"/>
       <c r="P2" s="42"/>
       <c r="Q2" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R2" s="48" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="S2" s="33" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="V2" s="70"/>
       <c r="W2" s="75"/>
@@ -3982,13 +3985,13 @@
         <v>2</v>
       </c>
       <c r="F3" s="72" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G3" s="26">
         <v>2</v>
       </c>
       <c r="H3" s="72" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I3" s="11">
         <v>1</v>
@@ -3997,24 +4000,24 @@
         <v>27</v>
       </c>
       <c r="K3" s="82" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M3" s="83" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="N3" s="83" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="O3" s="3"/>
       <c r="P3" s="42"/>
       <c r="Q3" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="R3" s="48" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="S3" s="33" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="V3" s="70"/>
       <c r="W3" s="75"/>
@@ -4034,13 +4037,13 @@
         <v>2</v>
       </c>
       <c r="F4" s="72" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G4" s="26">
         <v>2</v>
       </c>
       <c r="H4" s="72" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I4" s="11">
         <v>2</v>
@@ -4050,24 +4053,24 @@
       </c>
       <c r="K4" s="5"/>
       <c r="L4" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="M4" s="73" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="N4" s="83" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="O4" s="3"/>
       <c r="P4" s="42"/>
       <c r="Q4" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="R4" s="48" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="S4" s="33" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="V4" s="70"/>
       <c r="W4" s="75"/>
@@ -4102,25 +4105,25 @@
         <v>34</v>
       </c>
       <c r="K5" s="82" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L5" s="5"/>
       <c r="M5" s="73" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="N5" s="83" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="O5" s="3"/>
       <c r="P5" s="42"/>
       <c r="Q5" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="R5" s="48" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="S5" s="33" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="V5" s="70"/>
       <c r="W5" s="75"/>
@@ -4152,30 +4155,30 @@
         <v>3</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="K6" s="82" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="L6" s="82" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="N6" s="83" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="O6" s="3"/>
       <c r="P6" s="42"/>
       <c r="Q6" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="R6" s="48" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S6" s="33" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="V6" s="70"/>
       <c r="W6" s="75"/>
@@ -4213,18 +4216,18 @@
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
       <c r="N7" s="83" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="O7" s="4"/>
       <c r="P7" s="36"/>
       <c r="Q7" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="R7" s="48" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S7" s="32" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="V7" s="70"/>
       <c r="W7" s="75"/>
@@ -4259,26 +4262,26 @@
         <v>28</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L8" s="82" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="M8" s="78" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="N8" s="73" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O8" s="4"/>
       <c r="P8" s="36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q8" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="R8" s="48" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S8" s="33"/>
       <c r="V8" s="70"/>
@@ -4323,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="128" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E10" s="26">
         <v>5</v>
@@ -4346,18 +4349,18 @@
       <c r="K10" s="5"/>
       <c r="L10" s="82"/>
       <c r="M10" s="78" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="N10" s="73" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O10" s="3"/>
       <c r="P10" s="42"/>
       <c r="Q10" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="R10" s="48" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S10" s="32"/>
       <c r="V10" s="70"/>
@@ -4393,22 +4396,22 @@
         <v>36</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="L11" s="82" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="M11" s="78" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="N11" s="5"/>
       <c r="O11" s="3"/>
       <c r="P11" s="42"/>
       <c r="Q11" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="R11" s="48" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="S11" s="33"/>
       <c r="V11" s="70"/>
@@ -4446,16 +4449,16 @@
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
       <c r="M12" s="78" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="N12" s="5"/>
       <c r="O12" s="3"/>
       <c r="P12" s="42"/>
       <c r="Q12" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="R12" s="48" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V12" s="70"/>
       <c r="W12" s="75"/>
@@ -4487,27 +4490,27 @@
         <v>6</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>37</v>
+        <v>354</v>
       </c>
       <c r="K13" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="L13" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="L13" s="5" t="s">
+      <c r="M13" s="27" t="s">
         <v>353</v>
       </c>
-      <c r="M13" s="78" t="s">
+      <c r="N13" s="78" t="s">
         <v>275</v>
-      </c>
-      <c r="N13" s="78" t="s">
-        <v>276</v>
       </c>
       <c r="O13" s="3"/>
       <c r="P13" s="42"/>
       <c r="Q13" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="R13" s="48" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="S13" s="33"/>
       <c r="V13" s="70"/>
@@ -4540,23 +4543,23 @@
         <v>6</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>37</v>
+        <v>354</v>
       </c>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
-      <c r="M14" s="78" t="s">
+      <c r="M14" s="27" t="s">
+        <v>353</v>
+      </c>
+      <c r="N14" s="78" t="s">
         <v>275</v>
-      </c>
-      <c r="N14" s="78" t="s">
-        <v>276</v>
       </c>
       <c r="O14" s="3"/>
       <c r="P14" s="42"/>
       <c r="Q14" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="R14" s="48" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="V14" s="70"/>
       <c r="W14" s="75"/>
@@ -4592,21 +4595,21 @@
       </c>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
-      <c r="M15" s="73" t="s">
-        <v>270</v>
+      <c r="M15" s="83" t="s">
+        <v>269</v>
       </c>
       <c r="N15" s="78" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P15" s="42"/>
       <c r="Q15" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="R15" s="48" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="S15" s="33"/>
       <c r="V15" s="70"/>
@@ -4644,18 +4647,18 @@
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
       <c r="M16" s="73" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="N16" s="78" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O16" s="3"/>
       <c r="P16" s="36"/>
       <c r="Q16" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="R16" s="48" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="S16" s="32"/>
       <c r="V16" s="70"/>
@@ -4700,41 +4703,41 @@
         <v>2</v>
       </c>
       <c r="D18" s="122" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E18" s="28">
         <v>1</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G18" s="28">
         <v>1</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I18" s="13">
         <v>8</v>
       </c>
       <c r="J18" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
       <c r="M18" s="84" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="N18" s="84" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O18" s="27"/>
       <c r="P18" s="43"/>
       <c r="Q18" s="27" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="R18" s="49" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S18" s="33"/>
       <c r="V18" s="70"/>
@@ -4755,35 +4758,35 @@
         <v>1</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G19" s="28">
         <v>1</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I19" s="13">
         <v>8</v>
       </c>
       <c r="J19" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
       <c r="M19" s="84" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="N19" s="84" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O19" s="27"/>
       <c r="P19" s="43"/>
       <c r="Q19" s="27" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="R19" s="49" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S19" s="33"/>
       <c r="V19" s="70"/>
@@ -4804,35 +4807,35 @@
         <v>2</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G20" s="28">
         <v>2</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I20" s="13">
         <v>9</v>
       </c>
       <c r="J20" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
       <c r="M20" s="73" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="N20" s="73" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="O20" s="3"/>
       <c r="P20" s="42"/>
       <c r="Q20" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="R20" s="49" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="S20" s="33"/>
       <c r="V20" s="70"/>
@@ -4853,35 +4856,35 @@
         <v>2</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G21" s="28">
         <v>2</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I21" s="13">
         <v>9</v>
       </c>
       <c r="J21" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
       <c r="M21" s="73" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="N21" s="73" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="O21" s="3"/>
       <c r="P21" s="42"/>
       <c r="Q21" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="R21" s="49" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="S21" s="33"/>
       <c r="V21" s="70"/>
@@ -4900,41 +4903,41 @@
         <v>3</v>
       </c>
       <c r="D22" s="102" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E22" s="35">
         <v>1</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G22" s="35">
         <v>1</v>
       </c>
       <c r="H22" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I22" s="15">
         <v>10</v>
       </c>
       <c r="J22" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
       <c r="M22" s="83" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="N22" s="83" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="O22" s="3"/>
       <c r="P22" s="42"/>
       <c r="Q22" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R22" s="52" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="S22" s="32"/>
       <c r="V22" s="70"/>
@@ -4955,37 +4958,37 @@
         <v>2</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G23" s="35">
         <v>2</v>
       </c>
       <c r="H23" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I23" s="15">
         <v>10</v>
       </c>
       <c r="J23" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
       <c r="M23" s="83" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="N23" s="83" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="O23" s="4" t="s">
         <v>16</v>
       </c>
       <c r="P23" s="42"/>
       <c r="Q23" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R23" s="52" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="S23" s="33"/>
     </row>
@@ -5003,33 +5006,33 @@
         <v>2</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G24" s="35">
         <v>2</v>
       </c>
       <c r="H24" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I24" s="15">
         <v>11</v>
       </c>
       <c r="J24" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
       <c r="M24" s="83" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="N24" s="83" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="O24" s="27"/>
       <c r="P24" s="42"/>
       <c r="Q24" s="3"/>
       <c r="R24" s="52" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S24" s="33"/>
     </row>
@@ -5071,41 +5074,41 @@
         <v>3</v>
       </c>
       <c r="D26" s="102" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E26" s="29">
         <v>3</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G26" s="35">
         <v>3</v>
       </c>
       <c r="H26" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I26" s="15">
         <v>11</v>
       </c>
       <c r="J26" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
       <c r="M26" s="83" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="N26" s="83" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="O26" s="27"/>
       <c r="P26" s="42"/>
       <c r="Q26" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R26" s="52" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S26" s="32"/>
       <c r="V26" s="70"/>
@@ -5126,32 +5129,32 @@
         <v>3</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G27" s="35">
         <v>3</v>
       </c>
       <c r="H27" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I27" s="15">
         <v>12</v>
       </c>
       <c r="J27" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
       <c r="M27" s="83" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="N27" s="83" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="P27" s="36"/>
       <c r="Q27" s="4"/>
       <c r="R27" s="52" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="S27" s="33"/>
       <c r="V27" s="70"/>
@@ -5172,35 +5175,35 @@
         <v>4</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G28" s="29">
         <v>4</v>
       </c>
       <c r="H28" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I28" s="15">
         <v>12</v>
       </c>
       <c r="J28" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
       <c r="M28" s="83" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="N28" s="83" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="O28" s="4"/>
       <c r="P28" s="36"/>
       <c r="Q28" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R28" s="52" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="S28" s="32"/>
       <c r="V28" s="70"/>
@@ -5221,33 +5224,33 @@
         <v>4</v>
       </c>
       <c r="F29" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G29" s="35">
         <v>4</v>
       </c>
       <c r="H29" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I29" s="15">
         <v>13</v>
       </c>
       <c r="J29" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
       <c r="M29" s="83" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="N29" s="83" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="O29" s="3"/>
       <c r="P29" s="42"/>
       <c r="Q29" s="3"/>
       <c r="R29" s="52" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="S29" s="33"/>
       <c r="V29" s="70"/>
@@ -5266,43 +5269,43 @@
         <v>4</v>
       </c>
       <c r="D30" s="110" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E30" s="30">
         <v>1</v>
       </c>
       <c r="F30" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G30" s="30">
         <v>1</v>
       </c>
       <c r="H30" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I30" s="15">
         <v>13</v>
       </c>
       <c r="J30" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
       <c r="M30" s="73" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="N30" s="73" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O30" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P30" s="36"/>
       <c r="Q30" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R30" s="52" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="S30" s="32"/>
       <c r="V30" s="70"/>
@@ -5323,35 +5326,35 @@
         <v>2</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G31" s="30">
         <v>2</v>
       </c>
       <c r="H31" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I31" s="18">
         <v>14</v>
       </c>
       <c r="J31" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K31" s="39"/>
       <c r="L31" s="39"/>
       <c r="M31" s="73" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N31" s="73" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O31" s="27"/>
       <c r="P31" s="43"/>
       <c r="Q31" s="27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R31" s="53" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="S31" s="32"/>
       <c r="V31" s="70"/>
@@ -5396,39 +5399,39 @@
         <v>4</v>
       </c>
       <c r="D33" s="110" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E33" s="30">
         <v>2</v>
       </c>
       <c r="F33" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G33" s="30">
         <v>2</v>
       </c>
       <c r="H33" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I33" s="18">
         <v>14</v>
       </c>
       <c r="J33" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K33" s="38"/>
       <c r="L33" s="38"/>
       <c r="M33" s="73" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N33" s="73" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O33" s="6"/>
       <c r="P33" s="44"/>
       <c r="Q33" s="3"/>
       <c r="R33" s="53" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="S33" s="33"/>
     </row>
@@ -5446,35 +5449,35 @@
         <v>3</v>
       </c>
       <c r="F34" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G34" s="30">
         <v>3</v>
       </c>
       <c r="H34" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I34" s="18">
         <v>15</v>
       </c>
       <c r="J34" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K34" s="39"/>
       <c r="L34" s="39"/>
       <c r="M34" s="76" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="N34" s="76" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O34" s="4"/>
       <c r="P34" s="44"/>
       <c r="Q34" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R34" s="53" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S34" s="32"/>
     </row>
@@ -5492,13 +5495,13 @@
         <v>4</v>
       </c>
       <c r="F35" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G35" s="30">
         <v>4</v>
       </c>
       <c r="H35" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I35" s="21">
         <v>15</v>
@@ -5509,17 +5512,17 @@
       <c r="K35" s="39"/>
       <c r="L35" s="39"/>
       <c r="M35" s="77" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="N35" s="77" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="P35" s="36"/>
       <c r="Q35" s="78" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R35" s="53" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S35" s="46"/>
     </row>
@@ -5535,13 +5538,13 @@
         <v>5</v>
       </c>
       <c r="D36" s="114" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E36" s="31">
         <v>1</v>
       </c>
       <c r="F36" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G36" s="31"/>
       <c r="H36" s="20"/>
@@ -5549,7 +5552,7 @@
         <v>15</v>
       </c>
       <c r="J36" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K36" s="39"/>
       <c r="L36" s="39"/>
@@ -5559,7 +5562,7 @@
       <c r="P36" s="45"/>
       <c r="Q36" s="7"/>
       <c r="R36" s="53" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S36" s="33"/>
       <c r="V36" s="70"/>
@@ -5580,7 +5583,7 @@
         <v>1</v>
       </c>
       <c r="F37" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G37" s="31"/>
       <c r="H37" s="20"/>
@@ -5588,7 +5591,7 @@
         <v>15</v>
       </c>
       <c r="J37" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K37" s="39"/>
       <c r="L37" s="39"/>
@@ -5600,7 +5603,7 @@
       <c r="P37" s="36"/>
       <c r="Q37" s="4"/>
       <c r="R37" s="53" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S37" s="46"/>
       <c r="V37" s="70"/>
@@ -5621,7 +5624,7 @@
         <v>1</v>
       </c>
       <c r="F38" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G38" s="31"/>
       <c r="H38" s="20"/>
@@ -5629,7 +5632,7 @@
         <v>15</v>
       </c>
       <c r="J38" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
@@ -5639,7 +5642,7 @@
       <c r="P38" s="36"/>
       <c r="Q38" s="4"/>
       <c r="R38" s="53" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S38" s="33"/>
       <c r="V38" s="70"/>
@@ -5660,7 +5663,7 @@
         <v>1</v>
       </c>
       <c r="F39" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G39" s="31"/>
       <c r="H39" s="20"/>
@@ -5668,7 +5671,7 @@
         <v>15</v>
       </c>
       <c r="J39" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K39" s="5"/>
       <c r="L39" s="5"/>
@@ -5678,7 +5681,7 @@
       <c r="P39" s="43"/>
       <c r="Q39" s="27"/>
       <c r="R39" s="53" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S39" s="46"/>
       <c r="V39" s="70"/>
@@ -5699,7 +5702,7 @@
         <v>1</v>
       </c>
       <c r="F40" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G40" s="31"/>
       <c r="H40" s="20"/>
@@ -5707,7 +5710,7 @@
         <v>15</v>
       </c>
       <c r="J40" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K40" s="40"/>
       <c r="L40" s="40"/>
@@ -5715,7 +5718,7 @@
       <c r="N40" s="40"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="53" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S40" s="33"/>
       <c r="V40" s="70"/>
@@ -5866,23 +5869,23 @@
         <v>3</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="38" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="38" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="38" customHeight="1" x14ac:dyDescent="0.15">
@@ -5890,7 +5893,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="38" customHeight="1" x14ac:dyDescent="0.15">
@@ -5898,7 +5901,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -5926,393 +5929,393 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="70" t="s">
+        <v>242</v>
+      </c>
+      <c r="B1" s="71" t="s">
         <v>243</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="C1" s="71" t="s">
         <v>244</v>
-      </c>
-      <c r="C1" s="71" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="70" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B2" s="71" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C2" s="71" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="24" x14ac:dyDescent="0.15">
       <c r="A3" s="70" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B3" s="71" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C3" s="71" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" x14ac:dyDescent="0.15">
       <c r="A4" s="70" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B4" s="71" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C4" s="71" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="70" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B5" s="71" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C5" s="71" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="70" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B7" s="71" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C7" s="71" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="70" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B8" s="71" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C8" s="71" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="70" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B9" s="71" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C9" s="71" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="70" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B10" s="71" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C10" s="71" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="70" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="70" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="70" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B13" s="71" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C13" s="71" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="70" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B14" s="71" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C14" s="71" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="70" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B15" s="71" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C15" s="71" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="70" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B16" s="71" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C16" s="71" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="70" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B17" s="71" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C17" s="71" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="70" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B18" s="71" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C18" s="71" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="70" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B19" s="71" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C19" s="71" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="70" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B20" s="71" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C20" s="71" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="70" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B21" s="71" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C21" s="71" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="24" x14ac:dyDescent="0.15">
       <c r="A22" s="70" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B22" s="71" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C22" s="71" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="70" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B23" s="71" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C23" s="71" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" s="70" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B24" s="71" t="s">
+        <v>295</v>
+      </c>
+      <c r="C24" s="71" t="s">
         <v>296</v>
-      </c>
-      <c r="C24" s="71" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" s="70" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" s="70" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" s="79" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B27" s="80" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C27" s="80" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" s="79" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B28" s="80" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C28" s="80" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" s="79" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B29" s="80" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C29" s="80" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" s="79" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B30" s="80" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C30" s="80" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" s="79" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B31" s="80" t="s">
+        <v>300</v>
+      </c>
+      <c r="C31" s="80" t="s">
         <v>301</v>
-      </c>
-      <c r="C31" s="80" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" s="79" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B32" s="80" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C32" s="80" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" s="70" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B33" s="71" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C33" s="71" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" s="70" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B34" s="71" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C34" s="71" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" s="70" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B35" s="71" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C35" s="71" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" s="70" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B36" s="71" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C36" s="71" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" s="70" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B37" s="71" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C37" s="71" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="24" x14ac:dyDescent="0.15">
       <c r="A38" s="70" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B38" s="71" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C38" s="71" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" s="70" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B39" s="71" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C39" s="71" t="s">
         <v>32</v>
@@ -6320,285 +6323,285 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" s="70" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" s="70" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="24" x14ac:dyDescent="0.15">
       <c r="A42" s="70" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B42" s="71" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C42" s="71" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="24" x14ac:dyDescent="0.15">
       <c r="A43" s="70" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B43" s="71" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C43" s="71" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="24" x14ac:dyDescent="0.15">
       <c r="A44" s="70" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B44" s="71" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C44" s="71" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" s="70" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B45" s="71" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C45" s="71" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46" s="70" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B46" s="71" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C46" s="71" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47" s="70" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B47" s="71" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C47" s="71" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="24" x14ac:dyDescent="0.15">
       <c r="A48" s="70" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B48" s="71" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C48" s="71" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A49" s="70" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B49" s="71" t="s">
+        <v>310</v>
+      </c>
+      <c r="C49" s="71" t="s">
         <v>311</v>
-      </c>
-      <c r="C49" s="71" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="24" x14ac:dyDescent="0.15">
       <c r="A50" s="70" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B50" s="71" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C50" s="71" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A51" s="70" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A52" s="70" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A53" s="70" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B53" s="71" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C53" s="71" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A54" s="70" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B54" s="71" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C54" s="71" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A55" s="70" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B55" s="71" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C55" s="71" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A56" s="70" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B56" s="71" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C56" s="71" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A57" s="70" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B57" s="71" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C57" s="71" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A58" s="70" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B58" s="71" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C58" s="71" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A59" s="70" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B59" s="71" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C59" s="71" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="24" x14ac:dyDescent="0.15">
       <c r="A60" s="70" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B60" s="71" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C60" s="71" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A61" s="70" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B61" s="71" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C61" s="71" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A62" s="70" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A63" s="70" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B63" s="71" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C63" s="71" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A64" s="70" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B64" s="71" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C64" s="71" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A65" s="70" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B65" s="71" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C65" s="71" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="36" x14ac:dyDescent="0.15">
       <c r="A66" s="70" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B66" s="71" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C66" s="71" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A67" s="70" t="s">
+        <v>321</v>
+      </c>
+      <c r="B67" s="71" t="s">
         <v>322</v>
       </c>
-      <c r="B67" s="71" t="s">
-        <v>323</v>
-      </c>
       <c r="C67" s="71" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A68" s="70" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -6624,7 +6627,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.15">
       <c r="A1" s="131" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B1" s="132"/>
       <c r="C1" s="132"/>
@@ -6632,10 +6635,10 @@
     </row>
     <row r="2" spans="1:4" ht="22" x14ac:dyDescent="0.15">
       <c r="A2" s="54" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="55" t="s">
         <v>80</v>
-      </c>
-      <c r="B2" s="55" t="s">
-        <v>81</v>
       </c>
       <c r="C2" s="55"/>
       <c r="D2" s="56"/>
@@ -6644,7 +6647,7 @@
       <c r="A3" s="54"/>
       <c r="B3" s="55"/>
       <c r="C3" s="55" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D3" s="56"/>
     </row>
@@ -6652,7 +6655,7 @@
       <c r="A4" s="54"/>
       <c r="B4" s="55"/>
       <c r="C4" s="55" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D4" s="56"/>
     </row>
@@ -6660,7 +6663,7 @@
       <c r="A5" s="54"/>
       <c r="B5" s="55"/>
       <c r="C5" s="55" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D5" s="56"/>
     </row>
@@ -6672,44 +6675,44 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="54" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" s="55" t="s">
         <v>85</v>
-      </c>
-      <c r="B7" s="55" t="s">
-        <v>86</v>
       </c>
       <c r="C7" s="55"/>
       <c r="D7" s="56"/>
     </row>
     <row r="8" spans="1:4" ht="22" x14ac:dyDescent="0.15">
       <c r="A8" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" s="55" t="s">
         <v>87</v>
-      </c>
-      <c r="B8" s="55" t="s">
-        <v>88</v>
       </c>
       <c r="C8" s="55"/>
       <c r="D8" s="56" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="33" x14ac:dyDescent="0.15">
       <c r="A9" s="54"/>
       <c r="B9" s="55"/>
       <c r="C9" s="55" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="56" t="s">
         <v>90</v>
-      </c>
-      <c r="D9" s="56" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="56" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="57"/>
       <c r="B10" s="58"/>
       <c r="C10" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" s="59" t="s">
         <v>92</v>
-      </c>
-      <c r="D10" s="59" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -6720,7 +6723,7 @@
     </row>
     <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.15">
       <c r="A12" s="131" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B12" s="132"/>
       <c r="C12" s="132"/>
@@ -6728,80 +6731,80 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="54" t="s">
+        <v>94</v>
+      </c>
+      <c r="B13" s="55" t="s">
         <v>95</v>
-      </c>
-      <c r="B13" s="55" t="s">
-        <v>96</v>
       </c>
       <c r="C13" s="55"/>
       <c r="D13" s="56"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="54" t="s">
+        <v>96</v>
+      </c>
+      <c r="B14" s="55" t="s">
         <v>97</v>
-      </c>
-      <c r="B14" s="55" t="s">
-        <v>98</v>
       </c>
       <c r="C14" s="55"/>
       <c r="D14" s="56"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="54" t="s">
+        <v>98</v>
+      </c>
+      <c r="B15" s="55" t="s">
         <v>99</v>
-      </c>
-      <c r="B15" s="55" t="s">
-        <v>100</v>
       </c>
       <c r="C15" s="55"/>
       <c r="D15" s="56"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="54" t="s">
+        <v>100</v>
+      </c>
+      <c r="B16" s="55" t="s">
         <v>101</v>
-      </c>
-      <c r="B16" s="55" t="s">
-        <v>102</v>
       </c>
       <c r="C16" s="55"/>
       <c r="D16" s="56"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="54" t="s">
+        <v>102</v>
+      </c>
+      <c r="B17" s="55" t="s">
         <v>103</v>
-      </c>
-      <c r="B17" s="55" t="s">
-        <v>104</v>
       </c>
       <c r="C17" s="55"/>
       <c r="D17" s="56"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="54" t="s">
+        <v>104</v>
+      </c>
+      <c r="B18" s="55" t="s">
         <v>105</v>
-      </c>
-      <c r="B18" s="55" t="s">
-        <v>106</v>
       </c>
       <c r="C18" s="55"/>
       <c r="D18" s="56"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="54" t="s">
+        <v>106</v>
+      </c>
+      <c r="B19" s="55" t="s">
         <v>107</v>
-      </c>
-      <c r="B19" s="55" t="s">
-        <v>108</v>
       </c>
       <c r="C19" s="55"/>
       <c r="D19" s="56"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="54" t="s">
+        <v>108</v>
+      </c>
+      <c r="B20" s="55" t="s">
         <v>109</v>
-      </c>
-      <c r="B20" s="55" t="s">
-        <v>110</v>
       </c>
       <c r="C20" s="55"/>
       <c r="D20" s="56"/>
@@ -6810,7 +6813,7 @@
       <c r="A21" s="54"/>
       <c r="B21" s="55"/>
       <c r="C21" s="55" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D21" s="56"/>
     </row>
@@ -6818,7 +6821,7 @@
       <c r="A22" s="54"/>
       <c r="B22" s="55"/>
       <c r="C22" s="55" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D22" s="56"/>
     </row>
@@ -6826,7 +6829,7 @@
       <c r="A23" s="54"/>
       <c r="B23" s="55"/>
       <c r="C23" s="55" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D23" s="56"/>
     </row>
@@ -6834,7 +6837,7 @@
       <c r="A24" s="54"/>
       <c r="B24" s="55"/>
       <c r="C24" s="55" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D24" s="56"/>
     </row>
@@ -6842,7 +6845,7 @@
       <c r="A25" s="54"/>
       <c r="B25" s="55"/>
       <c r="C25" s="55" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D25" s="56"/>
     </row>
@@ -6854,60 +6857,60 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="54" t="s">
+        <v>115</v>
+      </c>
+      <c r="B27" s="55" t="s">
         <v>116</v>
-      </c>
-      <c r="B27" s="55" t="s">
-        <v>117</v>
       </c>
       <c r="C27" s="55"/>
       <c r="D27" s="56"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="54" t="s">
+        <v>117</v>
+      </c>
+      <c r="B28" s="55" t="s">
         <v>118</v>
-      </c>
-      <c r="B28" s="55" t="s">
-        <v>119</v>
       </c>
       <c r="C28" s="55"/>
       <c r="D28" s="56"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="54" t="s">
+        <v>119</v>
+      </c>
+      <c r="B29" s="55" t="s">
         <v>120</v>
-      </c>
-      <c r="B29" s="55" t="s">
-        <v>121</v>
       </c>
       <c r="C29" s="55"/>
       <c r="D29" s="56"/>
     </row>
     <row r="30" spans="1:4" ht="22" x14ac:dyDescent="0.15">
       <c r="A30" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="B30" s="55" t="s">
         <v>122</v>
-      </c>
-      <c r="B30" s="55" t="s">
-        <v>123</v>
       </c>
       <c r="C30" s="55"/>
       <c r="D30" s="56"/>
     </row>
     <row r="31" spans="1:4" ht="22" x14ac:dyDescent="0.15">
       <c r="A31" s="54" t="s">
+        <v>123</v>
+      </c>
+      <c r="B31" s="55" t="s">
         <v>124</v>
-      </c>
-      <c r="B31" s="55" t="s">
-        <v>125</v>
       </c>
       <c r="C31" s="55"/>
       <c r="D31" s="56"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" s="54" t="s">
+        <v>125</v>
+      </c>
+      <c r="B32" s="55" t="s">
         <v>126</v>
-      </c>
-      <c r="B32" s="55" t="s">
-        <v>127</v>
       </c>
       <c r="C32" s="55"/>
       <c r="D32" s="56"/>
@@ -6916,70 +6919,70 @@
       <c r="A33" s="54"/>
       <c r="B33" s="55"/>
       <c r="C33" s="55" t="s">
+        <v>127</v>
+      </c>
+      <c r="D33" s="56" t="s">
         <v>128</v>
-      </c>
-      <c r="D33" s="56" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="22" x14ac:dyDescent="0.15">
       <c r="A34" s="54"/>
       <c r="B34" s="55"/>
       <c r="C34" s="55" t="s">
+        <v>129</v>
+      </c>
+      <c r="D34" s="56" t="s">
         <v>130</v>
-      </c>
-      <c r="D34" s="56" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="22" x14ac:dyDescent="0.15">
       <c r="A35" s="54"/>
       <c r="B35" s="55"/>
       <c r="C35" s="55" t="s">
+        <v>131</v>
+      </c>
+      <c r="D35" s="56" t="s">
         <v>132</v>
-      </c>
-      <c r="D35" s="56" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="33" x14ac:dyDescent="0.15">
       <c r="A36" s="54"/>
       <c r="B36" s="55"/>
       <c r="C36" s="55" t="s">
+        <v>133</v>
+      </c>
+      <c r="D36" s="56" t="s">
         <v>134</v>
-      </c>
-      <c r="D36" s="56" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="22" x14ac:dyDescent="0.15">
       <c r="A37" s="54"/>
       <c r="B37" s="55"/>
       <c r="C37" s="55" t="s">
+        <v>135</v>
+      </c>
+      <c r="D37" s="56" t="s">
         <v>136</v>
-      </c>
-      <c r="D37" s="56" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="55" x14ac:dyDescent="0.15">
       <c r="A38" s="54"/>
       <c r="B38" s="55"/>
       <c r="C38" s="55" t="s">
+        <v>137</v>
+      </c>
+      <c r="D38" s="56" t="s">
         <v>138</v>
-      </c>
-      <c r="D38" s="56" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="34" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A39" s="57"/>
       <c r="B39" s="58"/>
       <c r="C39" s="58" t="s">
+        <v>139</v>
+      </c>
+      <c r="D39" s="59" t="s">
         <v>140</v>
-      </c>
-      <c r="D39" s="59" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -6990,7 +6993,7 @@
     </row>
     <row r="41" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="134" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B41" s="135"/>
       <c r="C41" s="135"/>
@@ -6998,50 +7001,50 @@
     </row>
     <row r="42" spans="1:4" ht="33" x14ac:dyDescent="0.15">
       <c r="A42" s="54" t="s">
+        <v>142</v>
+      </c>
+      <c r="B42" s="62" t="s">
         <v>143</v>
-      </c>
-      <c r="B42" s="62" t="s">
-        <v>144</v>
       </c>
       <c r="C42" s="62"/>
       <c r="D42" s="63"/>
     </row>
     <row r="43" spans="1:4" ht="44" x14ac:dyDescent="0.15">
       <c r="A43" s="54" t="s">
+        <v>144</v>
+      </c>
+      <c r="B43" s="62" t="s">
         <v>145</v>
-      </c>
-      <c r="B43" s="62" t="s">
-        <v>146</v>
       </c>
       <c r="C43" s="62"/>
       <c r="D43" s="63"/>
     </row>
     <row r="44" spans="1:4" ht="33" x14ac:dyDescent="0.15">
       <c r="A44" s="54" t="s">
+        <v>146</v>
+      </c>
+      <c r="B44" s="62" t="s">
         <v>147</v>
-      </c>
-      <c r="B44" s="62" t="s">
-        <v>148</v>
       </c>
       <c r="C44" s="62"/>
       <c r="D44" s="63"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45" s="54" t="s">
+        <v>148</v>
+      </c>
+      <c r="B45" s="62" t="s">
         <v>149</v>
-      </c>
-      <c r="B45" s="62" t="s">
-        <v>150</v>
       </c>
       <c r="C45" s="62"/>
       <c r="D45" s="63"/>
     </row>
     <row r="46" spans="1:4" ht="22" x14ac:dyDescent="0.15">
       <c r="A46" s="54" t="s">
+        <v>150</v>
+      </c>
+      <c r="B46" s="62" t="s">
         <v>151</v>
-      </c>
-      <c r="B46" s="62" t="s">
-        <v>152</v>
       </c>
       <c r="C46" s="62"/>
       <c r="D46" s="63"/>
@@ -7050,40 +7053,40 @@
       <c r="A47" s="54"/>
       <c r="B47" s="62"/>
       <c r="C47" s="62" t="s">
+        <v>152</v>
+      </c>
+      <c r="D47" s="63" t="s">
         <v>153</v>
-      </c>
-      <c r="D47" s="63" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="33" x14ac:dyDescent="0.15">
       <c r="A48" s="54"/>
       <c r="B48" s="62"/>
       <c r="C48" s="62" t="s">
+        <v>154</v>
+      </c>
+      <c r="D48" s="63" t="s">
         <v>155</v>
-      </c>
-      <c r="D48" s="63" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="44" x14ac:dyDescent="0.15">
       <c r="A49" s="54"/>
       <c r="B49" s="62"/>
       <c r="C49" s="62" t="s">
+        <v>156</v>
+      </c>
+      <c r="D49" s="63" t="s">
         <v>157</v>
-      </c>
-      <c r="D49" s="63" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="67" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A50" s="57"/>
       <c r="B50" s="64"/>
       <c r="C50" s="64" t="s">
+        <v>158</v>
+      </c>
+      <c r="D50" s="65" t="s">
         <v>159</v>
-      </c>
-      <c r="D50" s="65" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -7094,7 +7097,7 @@
     </row>
     <row r="52" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="137" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B52" s="138"/>
       <c r="C52" s="138"/>
@@ -7102,50 +7105,50 @@
     </row>
     <row r="53" spans="1:4" ht="22" x14ac:dyDescent="0.15">
       <c r="A53" s="67" t="s">
+        <v>161</v>
+      </c>
+      <c r="B53" s="68" t="s">
         <v>162</v>
-      </c>
-      <c r="B53" s="68" t="s">
-        <v>163</v>
       </c>
       <c r="C53" s="68"/>
       <c r="D53" s="68"/>
     </row>
     <row r="54" spans="1:4" ht="22" x14ac:dyDescent="0.15">
       <c r="A54" s="69" t="s">
+        <v>163</v>
+      </c>
+      <c r="B54" s="55" t="s">
         <v>164</v>
-      </c>
-      <c r="B54" s="55" t="s">
-        <v>165</v>
       </c>
       <c r="C54" s="55"/>
       <c r="D54" s="55"/>
     </row>
     <row r="55" spans="1:4" ht="22" x14ac:dyDescent="0.15">
       <c r="A55" s="69" t="s">
+        <v>165</v>
+      </c>
+      <c r="B55" s="55" t="s">
         <v>166</v>
-      </c>
-      <c r="B55" s="55" t="s">
-        <v>167</v>
       </c>
       <c r="C55" s="55"/>
       <c r="D55" s="55"/>
     </row>
     <row r="56" spans="1:4" ht="22" x14ac:dyDescent="0.15">
       <c r="A56" s="69" t="s">
+        <v>167</v>
+      </c>
+      <c r="B56" s="55" t="s">
         <v>168</v>
-      </c>
-      <c r="B56" s="55" t="s">
-        <v>169</v>
       </c>
       <c r="C56" s="55"/>
       <c r="D56" s="55"/>
     </row>
     <row r="57" spans="1:4" ht="22" x14ac:dyDescent="0.15">
       <c r="A57" s="69" t="s">
+        <v>169</v>
+      </c>
+      <c r="B57" s="55" t="s">
         <v>170</v>
-      </c>
-      <c r="B57" s="55" t="s">
-        <v>171</v>
       </c>
       <c r="C57" s="55"/>
       <c r="D57" s="55"/>
@@ -7154,30 +7157,30 @@
       <c r="A58" s="69"/>
       <c r="B58" s="55"/>
       <c r="C58" s="55" t="s">
+        <v>171</v>
+      </c>
+      <c r="D58" s="55" t="s">
         <v>172</v>
-      </c>
-      <c r="D58" s="55" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="55" x14ac:dyDescent="0.15">
       <c r="A59" s="69"/>
       <c r="B59" s="55"/>
       <c r="C59" s="55" t="s">
+        <v>173</v>
+      </c>
+      <c r="D59" s="55" t="s">
         <v>174</v>
-      </c>
-      <c r="D59" s="55" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="23" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A60" s="69"/>
       <c r="B60" s="55"/>
       <c r="C60" s="55" t="s">
+        <v>175</v>
+      </c>
+      <c r="D60" s="55" t="s">
         <v>176</v>
-      </c>
-      <c r="D60" s="55" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -7188,7 +7191,7 @@
     </row>
     <row r="62" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="137" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B62" s="138"/>
       <c r="C62" s="138"/>
@@ -7196,33 +7199,33 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A63" s="67" t="s">
+        <v>178</v>
+      </c>
+      <c r="B63" s="68" t="s">
         <v>179</v>
-      </c>
-      <c r="B63" s="68" t="s">
-        <v>180</v>
       </c>
       <c r="C63" s="68"/>
       <c r="D63" s="68"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A64" s="69" t="s">
+        <v>180</v>
+      </c>
+      <c r="B64" s="55" t="s">
         <v>181</v>
-      </c>
-      <c r="B64" s="55" t="s">
-        <v>182</v>
       </c>
       <c r="C64" s="55"/>
       <c r="D64" s="55"/>
     </row>
     <row r="65" spans="1:4" ht="44" x14ac:dyDescent="0.15">
       <c r="A65" s="69" t="s">
+        <v>182</v>
+      </c>
+      <c r="B65" s="55" t="s">
         <v>183</v>
       </c>
-      <c r="B65" s="55" t="s">
+      <c r="C65" s="55" t="s">
         <v>184</v>
-      </c>
-      <c r="C65" s="55" t="s">
-        <v>185</v>
       </c>
       <c r="D65" s="55"/>
     </row>

--- a/progression_2019_2020_IPT_MPSI.xlsx
+++ b/progression_2019_2020_IPT_MPSI.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7580" yWindow="460" windowWidth="13280" windowHeight="14340" activeTab="1"/>
+    <workbookView xWindow="7580" yWindow="460" windowWidth="13280" windowHeight="14340"/>
   </bookViews>
   <sheets>
     <sheet name="Planning DS" sheetId="16" r:id="rId1"/>
@@ -246,9 +246,6 @@
     <t>1-4</t>
   </si>
   <si>
-    <t>1-5;1-6</t>
-  </si>
-  <si>
     <t>1-7</t>
   </si>
   <si>
@@ -1100,9 +1097,6 @@
     <t>1-2;1-3;1-4;1-5;1-6</t>
   </si>
   <si>
-    <t>algo/mission_insight</t>
-  </si>
-  <si>
     <t>i</t>
   </si>
   <si>
@@ -1112,13 +1106,19 @@
     <t>fichiers/FIC-007;fichiers/FIC-004</t>
   </si>
   <si>
-    <t>consignes/consignes_TP6;fichiers/FIC-009;fichiers/FIC-011;fichiers/FIC-012</t>
-  </si>
-  <si>
-    <t>AA.C9; AA.S12; AA.C2: AA.C3; AA.S4; AA.S5</t>
+    <t>consignes/consignes_TP6;fichiers/FIC-009;fichiers/FIC-011</t>
   </si>
   <si>
     <t>Tableaux, chaines de caractères et fichiers</t>
+  </si>
+  <si>
+    <t>1-5;1-6;1-7</t>
+  </si>
+  <si>
+    <t>AA.C9; AA.S11; AA.S12</t>
+  </si>
+  <si>
+    <t>tableaux/percolation</t>
   </si>
 </sst>
 </file>
@@ -2213,7 +2213,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2481,6 +2481,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3588,8 +3591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3604,60 +3607,60 @@
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:8" ht="48" x14ac:dyDescent="0.15">
+      <c r="A2" s="96">
+        <v>1</v>
+      </c>
+      <c r="B2" s="85" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="48" x14ac:dyDescent="0.15">
-      <c r="A2" s="95">
-        <v>1</v>
-      </c>
-      <c r="B2" s="85" t="s">
-        <v>336</v>
-      </c>
       <c r="C2" s="86" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D2" s="86"/>
       <c r="E2" s="86"/>
       <c r="F2" s="86"/>
     </row>
     <row r="3" spans="1:8" ht="78" x14ac:dyDescent="0.15">
-      <c r="A3" s="96"/>
+      <c r="A3" s="97"/>
       <c r="B3" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="96"/>
+      <c r="A4" s="97"/>
       <c r="B4" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="C4" s="42" t="s">
         <v>341</v>
-      </c>
-      <c r="C4" s="42" t="s">
-        <v>342</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="42"/>
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="96"/>
+      <c r="A5" s="97"/>
       <c r="B5" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C5" s="42">
         <v>1</v>
@@ -3667,9 +3670,9 @@
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:8" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="97"/>
+      <c r="A6" s="98"/>
       <c r="B6" s="87" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C6" s="88">
         <v>43754</v>
@@ -3679,50 +3682,50 @@
       <c r="F6" s="88"/>
     </row>
     <row r="7" spans="1:8" ht="48" x14ac:dyDescent="0.15">
-      <c r="A7" s="95">
+      <c r="A7" s="96">
         <v>2</v>
       </c>
       <c r="B7" s="89" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C7" s="86" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D7" s="86"/>
       <c r="E7" s="86"/>
       <c r="F7" s="86"/>
     </row>
     <row r="8" spans="1:8" ht="26" x14ac:dyDescent="0.15">
-      <c r="A8" s="96"/>
+      <c r="A8" s="97"/>
       <c r="B8" s="90" t="s">
-        <v>337</v>
-      </c>
-      <c r="C8" s="90" t="s">
-        <v>348</v>
+        <v>336</v>
+      </c>
+      <c r="C8" s="95" t="s">
+        <v>354</v>
       </c>
       <c r="D8" s="90"/>
       <c r="E8" s="90"/>
       <c r="F8" s="90"/>
     </row>
     <row r="9" spans="1:8" ht="26" x14ac:dyDescent="0.15">
-      <c r="A9" s="96"/>
+      <c r="A9" s="97"/>
       <c r="B9" s="90" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D9" s="90"/>
       <c r="E9" s="42"/>
       <c r="F9" s="90"/>
       <c r="H9" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="96"/>
+      <c r="A10" s="97"/>
       <c r="B10" s="90" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C10" s="42">
         <v>1</v>
@@ -3732,9 +3735,9 @@
       <c r="F10" s="90"/>
     </row>
     <row r="11" spans="1:8" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="97"/>
+      <c r="A11" s="98"/>
       <c r="B11" s="91" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C11" s="88">
         <v>43798</v>
@@ -3744,50 +3747,50 @@
       <c r="F11" s="88"/>
     </row>
     <row r="12" spans="1:8" ht="48" x14ac:dyDescent="0.15">
-      <c r="A12" s="95">
+      <c r="A12" s="96">
         <v>3</v>
       </c>
       <c r="B12" s="92" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C12" s="86" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D12" s="86"/>
       <c r="E12" s="86"/>
       <c r="F12" s="86"/>
     </row>
     <row r="13" spans="1:8" ht="26" x14ac:dyDescent="0.15">
-      <c r="A13" s="96"/>
+      <c r="A13" s="97"/>
       <c r="B13" s="93" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C13" s="93" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D13" s="93"/>
       <c r="E13" s="93"/>
       <c r="F13" s="93"/>
     </row>
     <row r="14" spans="1:8" ht="26" x14ac:dyDescent="0.15">
-      <c r="A14" s="96"/>
+      <c r="A14" s="97"/>
       <c r="B14" s="93" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C14" s="42" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D14" s="93"/>
       <c r="E14" s="42"/>
       <c r="F14" s="93"/>
       <c r="H14" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="96"/>
+      <c r="A15" s="97"/>
       <c r="B15" s="93" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C15" s="42">
         <v>1</v>
@@ -3797,9 +3800,9 @@
       <c r="F15" s="93"/>
     </row>
     <row r="16" spans="1:8" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="97"/>
+      <c r="A16" s="98"/>
       <c r="B16" s="94" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C16" s="88">
         <v>43798</v>
@@ -3810,7 +3813,7 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -3830,8 +3833,8 @@
   </sheetPr>
   <dimension ref="A1:X53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H4" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView topLeftCell="K5" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="26" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3894,10 +3897,10 @@
         <v>57</v>
       </c>
       <c r="M1" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>277</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>278</v>
       </c>
       <c r="O1" s="4" t="s">
         <v>13</v>
@@ -3906,7 +3909,7 @@
         <v>22</v>
       </c>
       <c r="Q1" s="41" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="R1" s="4" t="s">
         <v>63</v>
@@ -3922,11 +3925,11 @@
       <c r="B2" s="9">
         <v>43711</v>
       </c>
-      <c r="C2" s="125">
+      <c r="C2" s="126">
         <v>1</v>
       </c>
-      <c r="D2" s="128" t="s">
-        <v>262</v>
+      <c r="D2" s="129" t="s">
+        <v>261</v>
       </c>
       <c r="E2" s="26">
         <v>1</v>
@@ -3948,13 +3951,13 @@
       </c>
       <c r="K2" s="5"/>
       <c r="L2" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="M2" s="83" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="N2" s="83" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="O2" s="3"/>
       <c r="P2" s="42"/>
@@ -3965,7 +3968,7 @@
         <v>64</v>
       </c>
       <c r="S2" s="33" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="V2" s="70"/>
       <c r="W2" s="75"/>
@@ -3979,19 +3982,19 @@
         <f>B2+7</f>
         <v>43718</v>
       </c>
-      <c r="C3" s="126"/>
-      <c r="D3" s="129"/>
+      <c r="C3" s="127"/>
+      <c r="D3" s="130"/>
       <c r="E3" s="26">
         <v>2</v>
       </c>
       <c r="F3" s="72" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G3" s="26">
         <v>2</v>
       </c>
       <c r="H3" s="72" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I3" s="11">
         <v>1</v>
@@ -4000,13 +4003,13 @@
         <v>27</v>
       </c>
       <c r="K3" s="82" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="M3" s="83" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="N3" s="83" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="O3" s="3"/>
       <c r="P3" s="42"/>
@@ -4017,7 +4020,7 @@
         <v>64</v>
       </c>
       <c r="S3" s="33" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="V3" s="70"/>
       <c r="W3" s="75"/>
@@ -4031,19 +4034,19 @@
         <f>B3+7</f>
         <v>43725</v>
       </c>
-      <c r="C4" s="126"/>
-      <c r="D4" s="129"/>
+      <c r="C4" s="127"/>
+      <c r="D4" s="130"/>
       <c r="E4" s="26">
         <v>2</v>
       </c>
       <c r="F4" s="72" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G4" s="26">
         <v>2</v>
       </c>
       <c r="H4" s="72" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I4" s="11">
         <v>2</v>
@@ -4053,13 +4056,13 @@
       </c>
       <c r="K4" s="5"/>
       <c r="L4" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M4" s="73" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="N4" s="83" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="O4" s="3"/>
       <c r="P4" s="42"/>
@@ -4070,7 +4073,7 @@
         <v>64</v>
       </c>
       <c r="S4" s="33" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="V4" s="70"/>
       <c r="W4" s="75"/>
@@ -4084,8 +4087,8 @@
         <f t="shared" ref="B5:B8" si="0">B4+7</f>
         <v>43732</v>
       </c>
-      <c r="C5" s="126"/>
-      <c r="D5" s="129"/>
+      <c r="C5" s="127"/>
+      <c r="D5" s="130"/>
       <c r="E5" s="26">
         <v>3</v>
       </c>
@@ -4105,14 +4108,14 @@
         <v>34</v>
       </c>
       <c r="K5" s="82" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L5" s="5"/>
       <c r="M5" s="73" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="N5" s="83" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="O5" s="3"/>
       <c r="P5" s="42"/>
@@ -4123,7 +4126,7 @@
         <v>64</v>
       </c>
       <c r="S5" s="33" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="V5" s="70"/>
       <c r="W5" s="75"/>
@@ -4137,8 +4140,8 @@
         <f>B5+7</f>
         <v>43739</v>
       </c>
-      <c r="C6" s="126"/>
-      <c r="D6" s="129"/>
+      <c r="C6" s="127"/>
+      <c r="D6" s="130"/>
       <c r="E6" s="26">
         <v>4</v>
       </c>
@@ -4155,19 +4158,19 @@
         <v>3</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="K6" s="82" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="L6" s="82" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="N6" s="83" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="O6" s="3"/>
       <c r="P6" s="42"/>
@@ -4178,7 +4181,7 @@
         <v>65</v>
       </c>
       <c r="S6" s="33" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="V6" s="70"/>
       <c r="W6" s="75"/>
@@ -4192,8 +4195,8 @@
         <f t="shared" si="0"/>
         <v>43746</v>
       </c>
-      <c r="C7" s="126"/>
-      <c r="D7" s="129"/>
+      <c r="C7" s="127"/>
+      <c r="D7" s="130"/>
       <c r="E7" s="26">
         <v>4</v>
       </c>
@@ -4216,7 +4219,7 @@
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
       <c r="N7" s="83" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="O7" s="4"/>
       <c r="P7" s="36"/>
@@ -4227,7 +4230,7 @@
         <v>65</v>
       </c>
       <c r="S7" s="32" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="V7" s="70"/>
       <c r="W7" s="75"/>
@@ -4241,8 +4244,8 @@
         <f t="shared" si="0"/>
         <v>43753</v>
       </c>
-      <c r="C8" s="127"/>
-      <c r="D8" s="130"/>
+      <c r="C8" s="128"/>
+      <c r="D8" s="131"/>
       <c r="E8" s="26">
         <v>5</v>
       </c>
@@ -4262,16 +4265,16 @@
         <v>28</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="L8" s="82" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="M8" s="78" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="N8" s="73" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="O8" s="4"/>
       <c r="P8" s="36" t="s">
@@ -4289,24 +4292,24 @@
       <c r="X8" s="75"/>
     </row>
     <row r="9" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="100" t="s">
+      <c r="A9" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="101"/>
-      <c r="C9" s="101"/>
-      <c r="D9" s="101"/>
-      <c r="E9" s="101"/>
-      <c r="F9" s="101"/>
-      <c r="G9" s="101"/>
-      <c r="H9" s="101"/>
-      <c r="I9" s="101"/>
-      <c r="J9" s="101"/>
-      <c r="K9" s="101"/>
-      <c r="L9" s="101"/>
-      <c r="M9" s="101"/>
-      <c r="N9" s="101"/>
-      <c r="O9" s="101"/>
-      <c r="P9" s="101"/>
+      <c r="B9" s="102"/>
+      <c r="C9" s="102"/>
+      <c r="D9" s="102"/>
+      <c r="E9" s="102"/>
+      <c r="F9" s="102"/>
+      <c r="G9" s="102"/>
+      <c r="H9" s="102"/>
+      <c r="I9" s="102"/>
+      <c r="J9" s="102"/>
+      <c r="K9" s="102"/>
+      <c r="L9" s="102"/>
+      <c r="M9" s="102"/>
+      <c r="N9" s="102"/>
+      <c r="O9" s="102"/>
+      <c r="P9" s="102"/>
       <c r="Q9" s="4"/>
       <c r="R9" s="41"/>
       <c r="S9" s="32"/>
@@ -4322,11 +4325,11 @@
         <f>B8+21</f>
         <v>43774</v>
       </c>
-      <c r="C10" s="125">
+      <c r="C10" s="126">
         <v>1</v>
       </c>
-      <c r="D10" s="128" t="s">
-        <v>262</v>
+      <c r="D10" s="129" t="s">
+        <v>261</v>
       </c>
       <c r="E10" s="26">
         <v>5</v>
@@ -4349,10 +4352,10 @@
       <c r="K10" s="5"/>
       <c r="L10" s="82"/>
       <c r="M10" s="78" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="N10" s="73" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="O10" s="3"/>
       <c r="P10" s="42"/>
@@ -4375,8 +4378,8 @@
         <f t="shared" ref="B11:B16" si="1">B10+7</f>
         <v>43781</v>
       </c>
-      <c r="C11" s="126"/>
-      <c r="D11" s="129"/>
+      <c r="C11" s="127"/>
+      <c r="D11" s="130"/>
       <c r="E11" s="26">
         <v>6</v>
       </c>
@@ -4396,13 +4399,13 @@
         <v>36</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="L11" s="82" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M11" s="78" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="N11" s="5"/>
       <c r="O11" s="3"/>
@@ -4426,8 +4429,8 @@
         <f t="shared" si="1"/>
         <v>43788</v>
       </c>
-      <c r="C12" s="126"/>
-      <c r="D12" s="129"/>
+      <c r="C12" s="127"/>
+      <c r="D12" s="130"/>
       <c r="E12" s="26">
         <v>6</v>
       </c>
@@ -4449,7 +4452,7 @@
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
       <c r="M12" s="78" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="N12" s="5"/>
       <c r="O12" s="3"/>
@@ -4472,8 +4475,8 @@
         <f t="shared" si="1"/>
         <v>43795</v>
       </c>
-      <c r="C13" s="126"/>
-      <c r="D13" s="129"/>
+      <c r="C13" s="127"/>
+      <c r="D13" s="130"/>
       <c r="E13" s="26">
         <v>7</v>
       </c>
@@ -4490,19 +4493,19 @@
         <v>6</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>352</v>
-      </c>
-      <c r="M13" s="27" t="s">
+        <v>350</v>
+      </c>
+      <c r="M13" s="78" t="s">
+        <v>273</v>
+      </c>
+      <c r="N13" s="27" t="s">
         <v>353</v>
-      </c>
-      <c r="N13" s="78" t="s">
-        <v>275</v>
       </c>
       <c r="O13" s="3"/>
       <c r="P13" s="42"/>
@@ -4510,7 +4513,7 @@
         <v>59</v>
       </c>
       <c r="R13" s="48" t="s">
-        <v>68</v>
+        <v>352</v>
       </c>
       <c r="S13" s="33"/>
       <c r="V13" s="70"/>
@@ -4525,8 +4528,8 @@
         <f t="shared" si="1"/>
         <v>43802</v>
       </c>
-      <c r="C14" s="126"/>
-      <c r="D14" s="129"/>
+      <c r="C14" s="127"/>
+      <c r="D14" s="130"/>
       <c r="E14" s="26">
         <v>7</v>
       </c>
@@ -4543,15 +4546,15 @@
         <v>6</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
-      <c r="M14" s="27" t="s">
+      <c r="M14" s="78" t="s">
+        <v>273</v>
+      </c>
+      <c r="N14" s="27" t="s">
         <v>353</v>
-      </c>
-      <c r="N14" s="78" t="s">
-        <v>275</v>
       </c>
       <c r="O14" s="3"/>
       <c r="P14" s="42"/>
@@ -4559,7 +4562,7 @@
         <v>59</v>
       </c>
       <c r="R14" s="48" t="s">
-        <v>68</v>
+        <v>352</v>
       </c>
       <c r="V14" s="70"/>
       <c r="W14" s="75"/>
@@ -4573,8 +4576,8 @@
         <f t="shared" si="1"/>
         <v>43809</v>
       </c>
-      <c r="C15" s="126"/>
-      <c r="D15" s="129"/>
+      <c r="C15" s="127"/>
+      <c r="D15" s="130"/>
       <c r="E15" s="26">
         <v>8</v>
       </c>
@@ -4596,10 +4599,10 @@
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
       <c r="M15" s="83" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="N15" s="78" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O15" s="4" t="s">
         <v>52</v>
@@ -4609,7 +4612,7 @@
         <v>59</v>
       </c>
       <c r="R15" s="48" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="S15" s="33"/>
       <c r="V15" s="70"/>
@@ -4624,8 +4627,8 @@
         <f t="shared" si="1"/>
         <v>43816</v>
       </c>
-      <c r="C16" s="127"/>
-      <c r="D16" s="130"/>
+      <c r="C16" s="128"/>
+      <c r="D16" s="131"/>
       <c r="E16" s="26">
         <v>8</v>
       </c>
@@ -4647,10 +4650,10 @@
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
       <c r="M16" s="73" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="N16" s="78" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O16" s="3"/>
       <c r="P16" s="36"/>
@@ -4658,7 +4661,7 @@
         <v>59</v>
       </c>
       <c r="R16" s="48" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="S16" s="32"/>
       <c r="V16" s="70"/>
@@ -4666,24 +4669,24 @@
       <c r="X16" s="75"/>
     </row>
     <row r="17" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="100" t="s">
+      <c r="A17" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="101"/>
-      <c r="C17" s="101"/>
-      <c r="D17" s="101"/>
-      <c r="E17" s="101"/>
-      <c r="F17" s="101"/>
-      <c r="G17" s="101"/>
-      <c r="H17" s="101"/>
-      <c r="I17" s="101"/>
-      <c r="J17" s="101"/>
-      <c r="K17" s="101"/>
-      <c r="L17" s="101"/>
-      <c r="M17" s="101"/>
-      <c r="N17" s="101"/>
-      <c r="O17" s="101"/>
-      <c r="P17" s="101"/>
+      <c r="B17" s="102"/>
+      <c r="C17" s="102"/>
+      <c r="D17" s="102"/>
+      <c r="E17" s="102"/>
+      <c r="F17" s="102"/>
+      <c r="G17" s="102"/>
+      <c r="H17" s="102"/>
+      <c r="I17" s="102"/>
+      <c r="J17" s="102"/>
+      <c r="K17" s="102"/>
+      <c r="L17" s="102"/>
+      <c r="M17" s="102"/>
+      <c r="N17" s="102"/>
+      <c r="O17" s="102"/>
+      <c r="P17" s="102"/>
       <c r="Q17" s="4"/>
       <c r="R17" s="41"/>
       <c r="S17" s="32"/>
@@ -4699,11 +4702,11 @@
         <f>B16+21</f>
         <v>43837</v>
       </c>
-      <c r="C18" s="119">
+      <c r="C18" s="120">
         <v>2</v>
       </c>
-      <c r="D18" s="122" t="s">
-        <v>185</v>
+      <c r="D18" s="123" t="s">
+        <v>184</v>
       </c>
       <c r="E18" s="28">
         <v>1</v>
@@ -4726,18 +4729,18 @@
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
       <c r="M18" s="84" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="N18" s="84" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="O18" s="27"/>
       <c r="P18" s="43"/>
       <c r="Q18" s="27" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="R18" s="49" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="S18" s="33"/>
       <c r="V18" s="70"/>
@@ -4752,8 +4755,8 @@
         <f>B18+7</f>
         <v>43844</v>
       </c>
-      <c r="C19" s="120"/>
-      <c r="D19" s="123"/>
+      <c r="C19" s="121"/>
+      <c r="D19" s="124"/>
       <c r="E19" s="28">
         <v>1</v>
       </c>
@@ -4775,18 +4778,18 @@
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
       <c r="M19" s="84" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="N19" s="84" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="O19" s="27"/>
       <c r="P19" s="43"/>
       <c r="Q19" s="27" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="R19" s="49" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="S19" s="33"/>
       <c r="V19" s="70"/>
@@ -4801,8 +4804,8 @@
         <f t="shared" ref="B20:B40" si="2">B19+7</f>
         <v>43851</v>
       </c>
-      <c r="C20" s="120"/>
-      <c r="D20" s="123"/>
+      <c r="C20" s="121"/>
+      <c r="D20" s="124"/>
       <c r="E20" s="28">
         <v>2</v>
       </c>
@@ -4824,18 +4827,18 @@
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
       <c r="M20" s="73" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="N20" s="73" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O20" s="3"/>
       <c r="P20" s="42"/>
       <c r="Q20" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="R20" s="49" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S20" s="33"/>
       <c r="V20" s="70"/>
@@ -4850,8 +4853,8 @@
         <f>B20+7</f>
         <v>43858</v>
       </c>
-      <c r="C21" s="121"/>
-      <c r="D21" s="124"/>
+      <c r="C21" s="122"/>
+      <c r="D21" s="125"/>
       <c r="E21" s="28">
         <v>2</v>
       </c>
@@ -4873,18 +4876,18 @@
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
       <c r="M21" s="73" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="N21" s="73" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O21" s="3"/>
       <c r="P21" s="42"/>
       <c r="Q21" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="R21" s="49" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S21" s="33"/>
       <c r="V21" s="70"/>
@@ -4899,10 +4902,10 @@
         <f>B21+7</f>
         <v>43865</v>
       </c>
-      <c r="C22" s="105">
+      <c r="C22" s="106">
         <v>3</v>
       </c>
-      <c r="D22" s="102" t="s">
+      <c r="D22" s="103" t="s">
         <v>60</v>
       </c>
       <c r="E22" s="35">
@@ -4926,10 +4929,10 @@
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
       <c r="M22" s="83" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="N22" s="83" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O22" s="3"/>
       <c r="P22" s="42"/>
@@ -4937,7 +4940,7 @@
         <v>62</v>
       </c>
       <c r="R22" s="52" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="S22" s="32"/>
       <c r="V22" s="70"/>
@@ -4952,8 +4955,8 @@
         <f>B22+7</f>
         <v>43872</v>
       </c>
-      <c r="C23" s="106"/>
-      <c r="D23" s="103"/>
+      <c r="C23" s="107"/>
+      <c r="D23" s="104"/>
       <c r="E23" s="35">
         <v>2</v>
       </c>
@@ -4975,10 +4978,10 @@
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
       <c r="M23" s="83" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="N23" s="83" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O23" s="4" t="s">
         <v>16</v>
@@ -4988,7 +4991,7 @@
         <v>62</v>
       </c>
       <c r="R23" s="52" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="S23" s="33"/>
     </row>
@@ -5000,8 +5003,8 @@
         <f>B23+7</f>
         <v>43879</v>
       </c>
-      <c r="C24" s="107"/>
-      <c r="D24" s="104"/>
+      <c r="C24" s="108"/>
+      <c r="D24" s="105"/>
       <c r="E24" s="34">
         <v>2</v>
       </c>
@@ -5023,38 +5026,38 @@
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
       <c r="M24" s="83" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="N24" s="83" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O24" s="27"/>
       <c r="P24" s="42"/>
       <c r="Q24" s="3"/>
       <c r="R24" s="52" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="S24" s="33"/>
     </row>
     <row r="25" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="100" t="s">
+      <c r="A25" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="101"/>
-      <c r="C25" s="101"/>
-      <c r="D25" s="101"/>
-      <c r="E25" s="101"/>
-      <c r="F25" s="101"/>
-      <c r="G25" s="101"/>
-      <c r="H25" s="101"/>
-      <c r="I25" s="101"/>
-      <c r="J25" s="101"/>
-      <c r="K25" s="101"/>
-      <c r="L25" s="101"/>
-      <c r="M25" s="101"/>
-      <c r="N25" s="101"/>
-      <c r="O25" s="101"/>
-      <c r="P25" s="101"/>
+      <c r="B25" s="102"/>
+      <c r="C25" s="102"/>
+      <c r="D25" s="102"/>
+      <c r="E25" s="102"/>
+      <c r="F25" s="102"/>
+      <c r="G25" s="102"/>
+      <c r="H25" s="102"/>
+      <c r="I25" s="102"/>
+      <c r="J25" s="102"/>
+      <c r="K25" s="102"/>
+      <c r="L25" s="102"/>
+      <c r="M25" s="102"/>
+      <c r="N25" s="102"/>
+      <c r="O25" s="102"/>
+      <c r="P25" s="102"/>
       <c r="Q25" s="4"/>
       <c r="R25" s="50"/>
       <c r="S25" s="32"/>
@@ -5070,10 +5073,10 @@
         <f>B24+21</f>
         <v>43900</v>
       </c>
-      <c r="C26" s="105">
+      <c r="C26" s="106">
         <v>3</v>
       </c>
-      <c r="D26" s="102" t="s">
+      <c r="D26" s="103" t="s">
         <v>60</v>
       </c>
       <c r="E26" s="29">
@@ -5097,10 +5100,10 @@
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
       <c r="M26" s="83" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="N26" s="83" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O26" s="27"/>
       <c r="P26" s="42"/>
@@ -5108,7 +5111,7 @@
         <v>62</v>
       </c>
       <c r="R26" s="52" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="S26" s="32"/>
       <c r="V26" s="70"/>
@@ -5123,8 +5126,8 @@
         <f t="shared" si="2"/>
         <v>43907</v>
       </c>
-      <c r="C27" s="106"/>
-      <c r="D27" s="103"/>
+      <c r="C27" s="107"/>
+      <c r="D27" s="104"/>
       <c r="E27" s="35">
         <v>3</v>
       </c>
@@ -5146,15 +5149,15 @@
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
       <c r="M27" s="83" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="N27" s="83" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="P27" s="36"/>
       <c r="Q27" s="4"/>
       <c r="R27" s="52" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S27" s="33"/>
       <c r="V27" s="70"/>
@@ -5169,8 +5172,8 @@
         <f t="shared" si="2"/>
         <v>43914</v>
       </c>
-      <c r="C28" s="106"/>
-      <c r="D28" s="103"/>
+      <c r="C28" s="107"/>
+      <c r="D28" s="104"/>
       <c r="E28" s="29">
         <v>4</v>
       </c>
@@ -5192,10 +5195,10 @@
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
       <c r="M28" s="83" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="N28" s="83" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O28" s="4"/>
       <c r="P28" s="36"/>
@@ -5203,7 +5206,7 @@
         <v>62</v>
       </c>
       <c r="R28" s="52" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S28" s="32"/>
       <c r="V28" s="70"/>
@@ -5218,8 +5221,8 @@
         <f t="shared" si="2"/>
         <v>43921</v>
       </c>
-      <c r="C29" s="107"/>
-      <c r="D29" s="104"/>
+      <c r="C29" s="108"/>
+      <c r="D29" s="105"/>
       <c r="E29" s="35">
         <v>4</v>
       </c>
@@ -5241,16 +5244,16 @@
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
       <c r="M29" s="83" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="N29" s="83" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O29" s="3"/>
       <c r="P29" s="42"/>
       <c r="Q29" s="3"/>
       <c r="R29" s="52" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="S29" s="33"/>
       <c r="V29" s="70"/>
@@ -5265,10 +5268,10 @@
         <f t="shared" si="2"/>
         <v>43928</v>
       </c>
-      <c r="C30" s="108">
+      <c r="C30" s="109">
         <v>4</v>
       </c>
-      <c r="D30" s="110" t="s">
+      <c r="D30" s="111" t="s">
         <v>43</v>
       </c>
       <c r="E30" s="30">
@@ -5292,10 +5295,10 @@
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
       <c r="M30" s="73" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="N30" s="73" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="O30" s="4" t="s">
         <v>53</v>
@@ -5305,7 +5308,7 @@
         <v>61</v>
       </c>
       <c r="R30" s="52" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="S30" s="32"/>
       <c r="V30" s="70"/>
@@ -5320,8 +5323,8 @@
         <f t="shared" si="2"/>
         <v>43935</v>
       </c>
-      <c r="C31" s="109"/>
-      <c r="D31" s="111"/>
+      <c r="C31" s="110"/>
+      <c r="D31" s="112"/>
       <c r="E31" s="30">
         <v>2</v>
       </c>
@@ -5343,10 +5346,10 @@
       <c r="K31" s="39"/>
       <c r="L31" s="39"/>
       <c r="M31" s="73" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="N31" s="73" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="O31" s="27"/>
       <c r="P31" s="43"/>
@@ -5354,7 +5357,7 @@
         <v>61</v>
       </c>
       <c r="R31" s="53" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="S31" s="32"/>
       <c r="V31" s="70"/>
@@ -5362,24 +5365,24 @@
       <c r="X31" s="75"/>
     </row>
     <row r="32" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="98" t="s">
+      <c r="A32" s="99" t="s">
         <v>14</v>
       </c>
-      <c r="B32" s="99"/>
-      <c r="C32" s="99"/>
-      <c r="D32" s="99"/>
-      <c r="E32" s="99"/>
-      <c r="F32" s="99"/>
-      <c r="G32" s="99"/>
-      <c r="H32" s="99"/>
-      <c r="I32" s="99"/>
-      <c r="J32" s="99"/>
-      <c r="K32" s="99"/>
-      <c r="L32" s="99"/>
-      <c r="M32" s="99"/>
-      <c r="N32" s="99"/>
-      <c r="O32" s="99"/>
-      <c r="P32" s="99"/>
+      <c r="B32" s="100"/>
+      <c r="C32" s="100"/>
+      <c r="D32" s="100"/>
+      <c r="E32" s="100"/>
+      <c r="F32" s="100"/>
+      <c r="G32" s="100"/>
+      <c r="H32" s="100"/>
+      <c r="I32" s="100"/>
+      <c r="J32" s="100"/>
+      <c r="K32" s="100"/>
+      <c r="L32" s="100"/>
+      <c r="M32" s="100"/>
+      <c r="N32" s="100"/>
+      <c r="O32" s="100"/>
+      <c r="P32" s="100"/>
       <c r="Q32" s="47"/>
       <c r="R32" s="51"/>
       <c r="S32" s="32"/>
@@ -5395,10 +5398,10 @@
         <f>B31+21</f>
         <v>43956</v>
       </c>
-      <c r="C33" s="108">
+      <c r="C33" s="109">
         <v>4</v>
       </c>
-      <c r="D33" s="110" t="s">
+      <c r="D33" s="111" t="s">
         <v>43</v>
       </c>
       <c r="E33" s="30">
@@ -5422,16 +5425,16 @@
       <c r="K33" s="38"/>
       <c r="L33" s="38"/>
       <c r="M33" s="73" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="N33" s="73" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="O33" s="6"/>
       <c r="P33" s="44"/>
       <c r="Q33" s="3"/>
       <c r="R33" s="53" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="S33" s="33"/>
     </row>
@@ -5443,8 +5446,8 @@
         <f t="shared" si="2"/>
         <v>43963</v>
       </c>
-      <c r="C34" s="113"/>
-      <c r="D34" s="112"/>
+      <c r="C34" s="114"/>
+      <c r="D34" s="113"/>
       <c r="E34" s="30">
         <v>3</v>
       </c>
@@ -5466,10 +5469,10 @@
       <c r="K34" s="39"/>
       <c r="L34" s="39"/>
       <c r="M34" s="76" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N34" s="76" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O34" s="4"/>
       <c r="P34" s="44"/>
@@ -5477,7 +5480,7 @@
         <v>61</v>
       </c>
       <c r="R34" s="53" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="S34" s="32"/>
     </row>
@@ -5489,8 +5492,8 @@
         <f t="shared" si="2"/>
         <v>43970</v>
       </c>
-      <c r="C35" s="109"/>
-      <c r="D35" s="111"/>
+      <c r="C35" s="110"/>
+      <c r="D35" s="112"/>
       <c r="E35" s="30">
         <v>4</v>
       </c>
@@ -5512,17 +5515,17 @@
       <c r="K35" s="39"/>
       <c r="L35" s="39"/>
       <c r="M35" s="77" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="N35" s="77" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="P35" s="36"/>
       <c r="Q35" s="78" t="s">
         <v>61</v>
       </c>
       <c r="R35" s="53" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="S35" s="46"/>
     </row>
@@ -5534,10 +5537,10 @@
         <f t="shared" si="2"/>
         <v>43977</v>
       </c>
-      <c r="C36" s="116">
+      <c r="C36" s="117">
         <v>5</v>
       </c>
-      <c r="D36" s="114" t="s">
+      <c r="D36" s="115" t="s">
         <v>49</v>
       </c>
       <c r="E36" s="31">
@@ -5562,7 +5565,7 @@
       <c r="P36" s="45"/>
       <c r="Q36" s="7"/>
       <c r="R36" s="53" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="S36" s="33"/>
       <c r="V36" s="70"/>
@@ -5577,8 +5580,8 @@
         <f t="shared" si="2"/>
         <v>43984</v>
       </c>
-      <c r="C37" s="117"/>
-      <c r="D37" s="115"/>
+      <c r="C37" s="118"/>
+      <c r="D37" s="116"/>
       <c r="E37" s="31">
         <v>1</v>
       </c>
@@ -5603,7 +5606,7 @@
       <c r="P37" s="36"/>
       <c r="Q37" s="4"/>
       <c r="R37" s="53" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="S37" s="46"/>
       <c r="V37" s="70"/>
@@ -5618,8 +5621,8 @@
         <f t="shared" si="2"/>
         <v>43991</v>
       </c>
-      <c r="C38" s="117"/>
-      <c r="D38" s="115"/>
+      <c r="C38" s="118"/>
+      <c r="D38" s="116"/>
       <c r="E38" s="31">
         <v>1</v>
       </c>
@@ -5642,7 +5645,7 @@
       <c r="P38" s="36"/>
       <c r="Q38" s="4"/>
       <c r="R38" s="53" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="S38" s="33"/>
       <c r="V38" s="70"/>
@@ -5657,8 +5660,8 @@
         <f t="shared" si="2"/>
         <v>43998</v>
       </c>
-      <c r="C39" s="117"/>
-      <c r="D39" s="115"/>
+      <c r="C39" s="118"/>
+      <c r="D39" s="116"/>
       <c r="E39" s="31">
         <v>1</v>
       </c>
@@ -5681,7 +5684,7 @@
       <c r="P39" s="43"/>
       <c r="Q39" s="27"/>
       <c r="R39" s="53" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="S39" s="46"/>
       <c r="V39" s="70"/>
@@ -5696,8 +5699,8 @@
         <f t="shared" si="2"/>
         <v>44005</v>
       </c>
-      <c r="C40" s="118"/>
-      <c r="D40" s="115"/>
+      <c r="C40" s="119"/>
+      <c r="D40" s="116"/>
       <c r="E40" s="31">
         <v>1</v>
       </c>
@@ -5718,7 +5721,7 @@
       <c r="N40" s="40"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="53" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="S40" s="33"/>
       <c r="V40" s="70"/>
@@ -5726,24 +5729,24 @@
       <c r="X40" s="75"/>
     </row>
     <row r="41" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="98" t="s">
+      <c r="A41" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="B41" s="99"/>
-      <c r="C41" s="99"/>
-      <c r="D41" s="99"/>
-      <c r="E41" s="99"/>
-      <c r="F41" s="99"/>
-      <c r="G41" s="99"/>
-      <c r="H41" s="99"/>
-      <c r="I41" s="99"/>
-      <c r="J41" s="99"/>
-      <c r="K41" s="99"/>
-      <c r="L41" s="99"/>
-      <c r="M41" s="99"/>
-      <c r="N41" s="99"/>
-      <c r="O41" s="99"/>
-      <c r="P41" s="99"/>
+      <c r="B41" s="100"/>
+      <c r="C41" s="100"/>
+      <c r="D41" s="100"/>
+      <c r="E41" s="100"/>
+      <c r="F41" s="100"/>
+      <c r="G41" s="100"/>
+      <c r="H41" s="100"/>
+      <c r="I41" s="100"/>
+      <c r="J41" s="100"/>
+      <c r="K41" s="100"/>
+      <c r="L41" s="100"/>
+      <c r="M41" s="100"/>
+      <c r="N41" s="100"/>
+      <c r="O41" s="100"/>
+      <c r="P41" s="100"/>
       <c r="Q41" s="47"/>
       <c r="R41" s="51"/>
       <c r="V41" s="70"/>
@@ -5869,7 +5872,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="38" customHeight="1" x14ac:dyDescent="0.15">
@@ -5877,7 +5880,7 @@
         <v>54</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="38" customHeight="1" x14ac:dyDescent="0.15">
@@ -5901,7 +5904,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -5929,393 +5932,393 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="70" t="s">
+        <v>241</v>
+      </c>
+      <c r="B1" s="71" t="s">
         <v>242</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="C1" s="71" t="s">
         <v>243</v>
-      </c>
-      <c r="C1" s="71" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="70" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B2" s="71" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C2" s="71" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="24" x14ac:dyDescent="0.15">
       <c r="A3" s="70" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B3" s="71" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C3" s="71" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" x14ac:dyDescent="0.15">
       <c r="A4" s="70" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B4" s="71" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C4" s="71" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="70" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B5" s="71" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C5" s="71" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="70" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B7" s="71" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C7" s="71" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="70" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B8" s="71" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C8" s="71" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="70" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B9" s="71" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C9" s="71" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="70" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B10" s="71" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C10" s="71" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="70" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="70" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="70" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B13" s="71" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C13" s="71" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="70" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B14" s="71" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C14" s="71" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="70" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B15" s="71" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C15" s="71" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="70" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B16" s="71" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C16" s="71" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="70" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B17" s="71" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C17" s="71" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="70" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B18" s="71" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C18" s="71" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="70" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B19" s="71" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C19" s="71" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="70" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B20" s="71" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C20" s="71" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="70" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B21" s="71" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C21" s="71" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="24" x14ac:dyDescent="0.15">
       <c r="A22" s="70" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B22" s="71" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C22" s="71" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="70" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B23" s="71" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C23" s="71" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" s="70" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B24" s="71" t="s">
+        <v>294</v>
+      </c>
+      <c r="C24" s="71" t="s">
         <v>295</v>
-      </c>
-      <c r="C24" s="71" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" s="70" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" s="70" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" s="79" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B27" s="80" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C27" s="80" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" s="79" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B28" s="80" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C28" s="80" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" s="79" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B29" s="80" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C29" s="80" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" s="79" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B30" s="80" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C30" s="80" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" s="79" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B31" s="80" t="s">
+        <v>299</v>
+      </c>
+      <c r="C31" s="80" t="s">
         <v>300</v>
-      </c>
-      <c r="C31" s="80" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" s="79" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B32" s="80" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C32" s="80" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" s="70" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B33" s="71" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C33" s="71" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" s="70" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B34" s="71" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C34" s="71" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" s="70" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B35" s="71" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C35" s="71" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" s="70" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B36" s="71" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C36" s="71" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" s="70" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B37" s="71" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C37" s="71" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="24" x14ac:dyDescent="0.15">
       <c r="A38" s="70" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B38" s="71" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C38" s="71" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" s="70" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B39" s="71" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C39" s="71" t="s">
         <v>32</v>
@@ -6323,285 +6326,285 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" s="70" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" s="70" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="24" x14ac:dyDescent="0.15">
       <c r="A42" s="70" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B42" s="71" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C42" s="71" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="24" x14ac:dyDescent="0.15">
       <c r="A43" s="70" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B43" s="71" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C43" s="71" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="24" x14ac:dyDescent="0.15">
       <c r="A44" s="70" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B44" s="71" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C44" s="71" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" s="70" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B45" s="71" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C45" s="71" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46" s="70" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B46" s="71" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C46" s="71" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47" s="70" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B47" s="71" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C47" s="71" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="24" x14ac:dyDescent="0.15">
       <c r="A48" s="70" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B48" s="71" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C48" s="71" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A49" s="70" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B49" s="71" t="s">
+        <v>309</v>
+      </c>
+      <c r="C49" s="71" t="s">
         <v>310</v>
-      </c>
-      <c r="C49" s="71" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="24" x14ac:dyDescent="0.15">
       <c r="A50" s="70" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B50" s="71" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C50" s="71" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A51" s="70" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A52" s="70" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A53" s="70" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B53" s="71" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C53" s="71" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A54" s="70" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B54" s="71" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C54" s="71" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A55" s="70" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B55" s="71" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C55" s="71" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A56" s="70" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B56" s="71" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C56" s="71" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A57" s="70" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B57" s="71" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C57" s="71" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A58" s="70" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B58" s="71" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C58" s="71" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A59" s="70" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B59" s="71" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C59" s="71" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="24" x14ac:dyDescent="0.15">
       <c r="A60" s="70" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B60" s="71" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C60" s="71" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A61" s="70" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B61" s="71" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C61" s="71" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A62" s="70" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A63" s="70" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B63" s="71" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C63" s="71" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A64" s="70" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B64" s="71" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C64" s="71" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A65" s="70" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B65" s="71" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C65" s="71" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="36" x14ac:dyDescent="0.15">
       <c r="A66" s="70" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B66" s="71" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C66" s="71" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A67" s="70" t="s">
+        <v>320</v>
+      </c>
+      <c r="B67" s="71" t="s">
         <v>321</v>
       </c>
-      <c r="B67" s="71" t="s">
-        <v>322</v>
-      </c>
       <c r="C67" s="71" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A68" s="70" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -6626,19 +6629,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A1" s="131" t="s">
-        <v>78</v>
-      </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
-      <c r="D1" s="133"/>
+      <c r="A1" s="132" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="134"/>
     </row>
     <row r="2" spans="1:4" ht="22" x14ac:dyDescent="0.15">
       <c r="A2" s="54" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="55" t="s">
         <v>79</v>
-      </c>
-      <c r="B2" s="55" t="s">
-        <v>80</v>
       </c>
       <c r="C2" s="55"/>
       <c r="D2" s="56"/>
@@ -6647,7 +6650,7 @@
       <c r="A3" s="54"/>
       <c r="B3" s="55"/>
       <c r="C3" s="55" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D3" s="56"/>
     </row>
@@ -6655,7 +6658,7 @@
       <c r="A4" s="54"/>
       <c r="B4" s="55"/>
       <c r="C4" s="55" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D4" s="56"/>
     </row>
@@ -6663,7 +6666,7 @@
       <c r="A5" s="54"/>
       <c r="B5" s="55"/>
       <c r="C5" s="55" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D5" s="56"/>
     </row>
@@ -6675,44 +6678,44 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="54" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" s="55" t="s">
         <v>84</v>
-      </c>
-      <c r="B7" s="55" t="s">
-        <v>85</v>
       </c>
       <c r="C7" s="55"/>
       <c r="D7" s="56"/>
     </row>
     <row r="8" spans="1:4" ht="22" x14ac:dyDescent="0.15">
       <c r="A8" s="54" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" s="55" t="s">
         <v>86</v>
-      </c>
-      <c r="B8" s="55" t="s">
-        <v>87</v>
       </c>
       <c r="C8" s="55"/>
       <c r="D8" s="56" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="33" x14ac:dyDescent="0.15">
       <c r="A9" s="54"/>
       <c r="B9" s="55"/>
       <c r="C9" s="55" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" s="56" t="s">
         <v>89</v>
-      </c>
-      <c r="D9" s="56" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="56" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="57"/>
       <c r="B10" s="58"/>
       <c r="C10" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="59" t="s">
         <v>91</v>
-      </c>
-      <c r="D10" s="59" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -6722,89 +6725,89 @@
       <c r="D11" s="61"/>
     </row>
     <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A12" s="131" t="s">
-        <v>93</v>
-      </c>
-      <c r="B12" s="132"/>
-      <c r="C12" s="132"/>
-      <c r="D12" s="133"/>
+      <c r="A12" s="132" t="s">
+        <v>92</v>
+      </c>
+      <c r="B12" s="133"/>
+      <c r="C12" s="133"/>
+      <c r="D12" s="134"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="54" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13" s="55" t="s">
         <v>94</v>
-      </c>
-      <c r="B13" s="55" t="s">
-        <v>95</v>
       </c>
       <c r="C13" s="55"/>
       <c r="D13" s="56"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="54" t="s">
+        <v>95</v>
+      </c>
+      <c r="B14" s="55" t="s">
         <v>96</v>
-      </c>
-      <c r="B14" s="55" t="s">
-        <v>97</v>
       </c>
       <c r="C14" s="55"/>
       <c r="D14" s="56"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="B15" s="55" t="s">
         <v>98</v>
-      </c>
-      <c r="B15" s="55" t="s">
-        <v>99</v>
       </c>
       <c r="C15" s="55"/>
       <c r="D15" s="56"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="54" t="s">
+        <v>99</v>
+      </c>
+      <c r="B16" s="55" t="s">
         <v>100</v>
-      </c>
-      <c r="B16" s="55" t="s">
-        <v>101</v>
       </c>
       <c r="C16" s="55"/>
       <c r="D16" s="56"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="54" t="s">
+        <v>101</v>
+      </c>
+      <c r="B17" s="55" t="s">
         <v>102</v>
-      </c>
-      <c r="B17" s="55" t="s">
-        <v>103</v>
       </c>
       <c r="C17" s="55"/>
       <c r="D17" s="56"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="54" t="s">
+        <v>103</v>
+      </c>
+      <c r="B18" s="55" t="s">
         <v>104</v>
-      </c>
-      <c r="B18" s="55" t="s">
-        <v>105</v>
       </c>
       <c r="C18" s="55"/>
       <c r="D18" s="56"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="54" t="s">
+        <v>105</v>
+      </c>
+      <c r="B19" s="55" t="s">
         <v>106</v>
-      </c>
-      <c r="B19" s="55" t="s">
-        <v>107</v>
       </c>
       <c r="C19" s="55"/>
       <c r="D19" s="56"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="54" t="s">
+        <v>107</v>
+      </c>
+      <c r="B20" s="55" t="s">
         <v>108</v>
-      </c>
-      <c r="B20" s="55" t="s">
-        <v>109</v>
       </c>
       <c r="C20" s="55"/>
       <c r="D20" s="56"/>
@@ -6813,7 +6816,7 @@
       <c r="A21" s="54"/>
       <c r="B21" s="55"/>
       <c r="C21" s="55" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D21" s="56"/>
     </row>
@@ -6821,7 +6824,7 @@
       <c r="A22" s="54"/>
       <c r="B22" s="55"/>
       <c r="C22" s="55" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D22" s="56"/>
     </row>
@@ -6829,7 +6832,7 @@
       <c r="A23" s="54"/>
       <c r="B23" s="55"/>
       <c r="C23" s="55" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D23" s="56"/>
     </row>
@@ -6837,7 +6840,7 @@
       <c r="A24" s="54"/>
       <c r="B24" s="55"/>
       <c r="C24" s="55" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D24" s="56"/>
     </row>
@@ -6845,7 +6848,7 @@
       <c r="A25" s="54"/>
       <c r="B25" s="55"/>
       <c r="C25" s="55" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D25" s="56"/>
     </row>
@@ -6857,60 +6860,60 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="54" t="s">
+        <v>114</v>
+      </c>
+      <c r="B27" s="55" t="s">
         <v>115</v>
-      </c>
-      <c r="B27" s="55" t="s">
-        <v>116</v>
       </c>
       <c r="C27" s="55"/>
       <c r="D27" s="56"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="54" t="s">
+        <v>116</v>
+      </c>
+      <c r="B28" s="55" t="s">
         <v>117</v>
-      </c>
-      <c r="B28" s="55" t="s">
-        <v>118</v>
       </c>
       <c r="C28" s="55"/>
       <c r="D28" s="56"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="54" t="s">
+        <v>118</v>
+      </c>
+      <c r="B29" s="55" t="s">
         <v>119</v>
-      </c>
-      <c r="B29" s="55" t="s">
-        <v>120</v>
       </c>
       <c r="C29" s="55"/>
       <c r="D29" s="56"/>
     </row>
     <row r="30" spans="1:4" ht="22" x14ac:dyDescent="0.15">
       <c r="A30" s="54" t="s">
+        <v>120</v>
+      </c>
+      <c r="B30" s="55" t="s">
         <v>121</v>
-      </c>
-      <c r="B30" s="55" t="s">
-        <v>122</v>
       </c>
       <c r="C30" s="55"/>
       <c r="D30" s="56"/>
     </row>
     <row r="31" spans="1:4" ht="22" x14ac:dyDescent="0.15">
       <c r="A31" s="54" t="s">
+        <v>122</v>
+      </c>
+      <c r="B31" s="55" t="s">
         <v>123</v>
-      </c>
-      <c r="B31" s="55" t="s">
-        <v>124</v>
       </c>
       <c r="C31" s="55"/>
       <c r="D31" s="56"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" s="54" t="s">
+        <v>124</v>
+      </c>
+      <c r="B32" s="55" t="s">
         <v>125</v>
-      </c>
-      <c r="B32" s="55" t="s">
-        <v>126</v>
       </c>
       <c r="C32" s="55"/>
       <c r="D32" s="56"/>
@@ -6919,70 +6922,70 @@
       <c r="A33" s="54"/>
       <c r="B33" s="55"/>
       <c r="C33" s="55" t="s">
+        <v>126</v>
+      </c>
+      <c r="D33" s="56" t="s">
         <v>127</v>
-      </c>
-      <c r="D33" s="56" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="22" x14ac:dyDescent="0.15">
       <c r="A34" s="54"/>
       <c r="B34" s="55"/>
       <c r="C34" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="D34" s="56" t="s">
         <v>129</v>
-      </c>
-      <c r="D34" s="56" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="22" x14ac:dyDescent="0.15">
       <c r="A35" s="54"/>
       <c r="B35" s="55"/>
       <c r="C35" s="55" t="s">
+        <v>130</v>
+      </c>
+      <c r="D35" s="56" t="s">
         <v>131</v>
-      </c>
-      <c r="D35" s="56" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="33" x14ac:dyDescent="0.15">
       <c r="A36" s="54"/>
       <c r="B36" s="55"/>
       <c r="C36" s="55" t="s">
+        <v>132</v>
+      </c>
+      <c r="D36" s="56" t="s">
         <v>133</v>
-      </c>
-      <c r="D36" s="56" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="22" x14ac:dyDescent="0.15">
       <c r="A37" s="54"/>
       <c r="B37" s="55"/>
       <c r="C37" s="55" t="s">
+        <v>134</v>
+      </c>
+      <c r="D37" s="56" t="s">
         <v>135</v>
-      </c>
-      <c r="D37" s="56" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="55" x14ac:dyDescent="0.15">
       <c r="A38" s="54"/>
       <c r="B38" s="55"/>
       <c r="C38" s="55" t="s">
+        <v>136</v>
+      </c>
+      <c r="D38" s="56" t="s">
         <v>137</v>
-      </c>
-      <c r="D38" s="56" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="34" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A39" s="57"/>
       <c r="B39" s="58"/>
       <c r="C39" s="58" t="s">
+        <v>138</v>
+      </c>
+      <c r="D39" s="59" t="s">
         <v>139</v>
-      </c>
-      <c r="D39" s="59" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -6992,59 +6995,59 @@
       <c r="D40" s="61"/>
     </row>
     <row r="41" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A41" s="134" t="s">
-        <v>141</v>
-      </c>
-      <c r="B41" s="135"/>
-      <c r="C41" s="135"/>
-      <c r="D41" s="136"/>
+      <c r="A41" s="135" t="s">
+        <v>140</v>
+      </c>
+      <c r="B41" s="136"/>
+      <c r="C41" s="136"/>
+      <c r="D41" s="137"/>
     </row>
     <row r="42" spans="1:4" ht="33" x14ac:dyDescent="0.15">
       <c r="A42" s="54" t="s">
+        <v>141</v>
+      </c>
+      <c r="B42" s="62" t="s">
         <v>142</v>
-      </c>
-      <c r="B42" s="62" t="s">
-        <v>143</v>
       </c>
       <c r="C42" s="62"/>
       <c r="D42" s="63"/>
     </row>
     <row r="43" spans="1:4" ht="44" x14ac:dyDescent="0.15">
       <c r="A43" s="54" t="s">
+        <v>143</v>
+      </c>
+      <c r="B43" s="62" t="s">
         <v>144</v>
-      </c>
-      <c r="B43" s="62" t="s">
-        <v>145</v>
       </c>
       <c r="C43" s="62"/>
       <c r="D43" s="63"/>
     </row>
     <row r="44" spans="1:4" ht="33" x14ac:dyDescent="0.15">
       <c r="A44" s="54" t="s">
+        <v>145</v>
+      </c>
+      <c r="B44" s="62" t="s">
         <v>146</v>
-      </c>
-      <c r="B44" s="62" t="s">
-        <v>147</v>
       </c>
       <c r="C44" s="62"/>
       <c r="D44" s="63"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45" s="54" t="s">
+        <v>147</v>
+      </c>
+      <c r="B45" s="62" t="s">
         <v>148</v>
-      </c>
-      <c r="B45" s="62" t="s">
-        <v>149</v>
       </c>
       <c r="C45" s="62"/>
       <c r="D45" s="63"/>
     </row>
     <row r="46" spans="1:4" ht="22" x14ac:dyDescent="0.15">
       <c r="A46" s="54" t="s">
+        <v>149</v>
+      </c>
+      <c r="B46" s="62" t="s">
         <v>150</v>
-      </c>
-      <c r="B46" s="62" t="s">
-        <v>151</v>
       </c>
       <c r="C46" s="62"/>
       <c r="D46" s="63"/>
@@ -7053,40 +7056,40 @@
       <c r="A47" s="54"/>
       <c r="B47" s="62"/>
       <c r="C47" s="62" t="s">
+        <v>151</v>
+      </c>
+      <c r="D47" s="63" t="s">
         <v>152</v>
-      </c>
-      <c r="D47" s="63" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="33" x14ac:dyDescent="0.15">
       <c r="A48" s="54"/>
       <c r="B48" s="62"/>
       <c r="C48" s="62" t="s">
+        <v>153</v>
+      </c>
+      <c r="D48" s="63" t="s">
         <v>154</v>
-      </c>
-      <c r="D48" s="63" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="44" x14ac:dyDescent="0.15">
       <c r="A49" s="54"/>
       <c r="B49" s="62"/>
       <c r="C49" s="62" t="s">
+        <v>155</v>
+      </c>
+      <c r="D49" s="63" t="s">
         <v>156</v>
-      </c>
-      <c r="D49" s="63" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="67" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A50" s="57"/>
       <c r="B50" s="64"/>
       <c r="C50" s="64" t="s">
+        <v>157</v>
+      </c>
+      <c r="D50" s="65" t="s">
         <v>158</v>
-      </c>
-      <c r="D50" s="65" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -7096,59 +7099,59 @@
       <c r="D51" s="66"/>
     </row>
     <row r="52" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="137" t="s">
-        <v>160</v>
-      </c>
-      <c r="B52" s="138"/>
-      <c r="C52" s="138"/>
-      <c r="D52" s="139"/>
+      <c r="A52" s="138" t="s">
+        <v>159</v>
+      </c>
+      <c r="B52" s="139"/>
+      <c r="C52" s="139"/>
+      <c r="D52" s="140"/>
     </row>
     <row r="53" spans="1:4" ht="22" x14ac:dyDescent="0.15">
       <c r="A53" s="67" t="s">
+        <v>160</v>
+      </c>
+      <c r="B53" s="68" t="s">
         <v>161</v>
-      </c>
-      <c r="B53" s="68" t="s">
-        <v>162</v>
       </c>
       <c r="C53" s="68"/>
       <c r="D53" s="68"/>
     </row>
     <row r="54" spans="1:4" ht="22" x14ac:dyDescent="0.15">
       <c r="A54" s="69" t="s">
+        <v>162</v>
+      </c>
+      <c r="B54" s="55" t="s">
         <v>163</v>
-      </c>
-      <c r="B54" s="55" t="s">
-        <v>164</v>
       </c>
       <c r="C54" s="55"/>
       <c r="D54" s="55"/>
     </row>
     <row r="55" spans="1:4" ht="22" x14ac:dyDescent="0.15">
       <c r="A55" s="69" t="s">
+        <v>164</v>
+      </c>
+      <c r="B55" s="55" t="s">
         <v>165</v>
-      </c>
-      <c r="B55" s="55" t="s">
-        <v>166</v>
       </c>
       <c r="C55" s="55"/>
       <c r="D55" s="55"/>
     </row>
     <row r="56" spans="1:4" ht="22" x14ac:dyDescent="0.15">
       <c r="A56" s="69" t="s">
+        <v>166</v>
+      </c>
+      <c r="B56" s="55" t="s">
         <v>167</v>
-      </c>
-      <c r="B56" s="55" t="s">
-        <v>168</v>
       </c>
       <c r="C56" s="55"/>
       <c r="D56" s="55"/>
     </row>
     <row r="57" spans="1:4" ht="22" x14ac:dyDescent="0.15">
       <c r="A57" s="69" t="s">
+        <v>168</v>
+      </c>
+      <c r="B57" s="55" t="s">
         <v>169</v>
-      </c>
-      <c r="B57" s="55" t="s">
-        <v>170</v>
       </c>
       <c r="C57" s="55"/>
       <c r="D57" s="55"/>
@@ -7157,30 +7160,30 @@
       <c r="A58" s="69"/>
       <c r="B58" s="55"/>
       <c r="C58" s="55" t="s">
+        <v>170</v>
+      </c>
+      <c r="D58" s="55" t="s">
         <v>171</v>
-      </c>
-      <c r="D58" s="55" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="55" x14ac:dyDescent="0.15">
       <c r="A59" s="69"/>
       <c r="B59" s="55"/>
       <c r="C59" s="55" t="s">
+        <v>172</v>
+      </c>
+      <c r="D59" s="55" t="s">
         <v>173</v>
-      </c>
-      <c r="D59" s="55" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="23" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A60" s="69"/>
       <c r="B60" s="55"/>
       <c r="C60" s="55" t="s">
+        <v>174</v>
+      </c>
+      <c r="D60" s="55" t="s">
         <v>175</v>
-      </c>
-      <c r="D60" s="55" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -7190,42 +7193,42 @@
       <c r="D61" s="66"/>
     </row>
     <row r="62" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="137" t="s">
-        <v>177</v>
-      </c>
-      <c r="B62" s="138"/>
-      <c r="C62" s="138"/>
-      <c r="D62" s="139"/>
+      <c r="A62" s="138" t="s">
+        <v>176</v>
+      </c>
+      <c r="B62" s="139"/>
+      <c r="C62" s="139"/>
+      <c r="D62" s="140"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A63" s="67" t="s">
+        <v>177</v>
+      </c>
+      <c r="B63" s="68" t="s">
         <v>178</v>
-      </c>
-      <c r="B63" s="68" t="s">
-        <v>179</v>
       </c>
       <c r="C63" s="68"/>
       <c r="D63" s="68"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A64" s="69" t="s">
+        <v>179</v>
+      </c>
+      <c r="B64" s="55" t="s">
         <v>180</v>
-      </c>
-      <c r="B64" s="55" t="s">
-        <v>181</v>
       </c>
       <c r="C64" s="55"/>
       <c r="D64" s="55"/>
     </row>
     <row r="65" spans="1:4" ht="44" x14ac:dyDescent="0.15">
       <c r="A65" s="69" t="s">
+        <v>181</v>
+      </c>
+      <c r="B65" s="55" t="s">
         <v>182</v>
       </c>
-      <c r="B65" s="55" t="s">
+      <c r="C65" s="55" t="s">
         <v>183</v>
-      </c>
-      <c r="C65" s="55" t="s">
-        <v>184</v>
       </c>
       <c r="D65" s="55"/>
     </row>

--- a/progression_2019_2020_IPT_MPSI.xlsx
+++ b/progression_2019_2020_IPT_MPSI.xlsx
@@ -1118,7 +1118,7 @@
     <t>AA.C9; AA.S11; AA.S12</t>
   </si>
   <si>
-    <t>tableaux/percolation</t>
+    <t>tableaux/decryptage;tableaux/carre_magique;chaines/STR-001</t>
   </si>
 </sst>
 </file>
@@ -3695,7 +3695,7 @@
       <c r="E7" s="86"/>
       <c r="F7" s="86"/>
     </row>
-    <row r="8" spans="1:8" ht="26" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" ht="52" x14ac:dyDescent="0.15">
       <c r="A8" s="97"/>
       <c r="B8" s="90" t="s">
         <v>336</v>

--- a/progression_2019_2020_IPT_MPSI.xlsx
+++ b/progression_2019_2020_IPT_MPSI.xlsx
@@ -1118,7 +1118,7 @@
     <t>AA.C9; AA.S11; AA.S12</t>
   </si>
   <si>
-    <t>tableaux/decryptage;tableaux/carre_magique;chaines/STR-001</t>
+    <t>tableaux/decryptage;tableaux/carre_magique</t>
   </si>
 </sst>
 </file>
@@ -2495,18 +2495,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2556,42 +2592,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="7" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3591,8 +3591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3695,7 +3695,7 @@
       <c r="E7" s="86"/>
       <c r="F7" s="86"/>
     </row>
-    <row r="8" spans="1:8" ht="52" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" ht="39" x14ac:dyDescent="0.15">
       <c r="A8" s="97"/>
       <c r="B8" s="90" t="s">
         <v>336</v>
@@ -3925,10 +3925,10 @@
       <c r="B2" s="9">
         <v>43711</v>
       </c>
-      <c r="C2" s="126">
+      <c r="C2" s="107">
         <v>1</v>
       </c>
-      <c r="D2" s="129" t="s">
+      <c r="D2" s="110" t="s">
         <v>261</v>
       </c>
       <c r="E2" s="26">
@@ -3982,8 +3982,8 @@
         <f>B2+7</f>
         <v>43718</v>
       </c>
-      <c r="C3" s="127"/>
-      <c r="D3" s="130"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="111"/>
       <c r="E3" s="26">
         <v>2</v>
       </c>
@@ -4034,8 +4034,8 @@
         <f>B3+7</f>
         <v>43725</v>
       </c>
-      <c r="C4" s="127"/>
-      <c r="D4" s="130"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="111"/>
       <c r="E4" s="26">
         <v>2</v>
       </c>
@@ -4087,8 +4087,8 @@
         <f t="shared" ref="B5:B8" si="0">B4+7</f>
         <v>43732</v>
       </c>
-      <c r="C5" s="127"/>
-      <c r="D5" s="130"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="111"/>
       <c r="E5" s="26">
         <v>3</v>
       </c>
@@ -4140,8 +4140,8 @@
         <f>B5+7</f>
         <v>43739</v>
       </c>
-      <c r="C6" s="127"/>
-      <c r="D6" s="130"/>
+      <c r="C6" s="108"/>
+      <c r="D6" s="111"/>
       <c r="E6" s="26">
         <v>4</v>
       </c>
@@ -4195,8 +4195,8 @@
         <f t="shared" si="0"/>
         <v>43746</v>
       </c>
-      <c r="C7" s="127"/>
-      <c r="D7" s="130"/>
+      <c r="C7" s="108"/>
+      <c r="D7" s="111"/>
       <c r="E7" s="26">
         <v>4</v>
       </c>
@@ -4244,8 +4244,8 @@
         <f t="shared" si="0"/>
         <v>43753</v>
       </c>
-      <c r="C8" s="128"/>
-      <c r="D8" s="131"/>
+      <c r="C8" s="109"/>
+      <c r="D8" s="112"/>
       <c r="E8" s="26">
         <v>5</v>
       </c>
@@ -4292,24 +4292,24 @@
       <c r="X8" s="75"/>
     </row>
     <row r="9" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="101" t="s">
+      <c r="A9" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="102"/>
-      <c r="C9" s="102"/>
-      <c r="D9" s="102"/>
-      <c r="E9" s="102"/>
-      <c r="F9" s="102"/>
-      <c r="G9" s="102"/>
-      <c r="H9" s="102"/>
-      <c r="I9" s="102"/>
-      <c r="J9" s="102"/>
-      <c r="K9" s="102"/>
-      <c r="L9" s="102"/>
-      <c r="M9" s="102"/>
-      <c r="N9" s="102"/>
-      <c r="O9" s="102"/>
-      <c r="P9" s="102"/>
+      <c r="B9" s="106"/>
+      <c r="C9" s="106"/>
+      <c r="D9" s="106"/>
+      <c r="E9" s="106"/>
+      <c r="F9" s="106"/>
+      <c r="G9" s="106"/>
+      <c r="H9" s="106"/>
+      <c r="I9" s="106"/>
+      <c r="J9" s="106"/>
+      <c r="K9" s="106"/>
+      <c r="L9" s="106"/>
+      <c r="M9" s="106"/>
+      <c r="N9" s="106"/>
+      <c r="O9" s="106"/>
+      <c r="P9" s="106"/>
       <c r="Q9" s="4"/>
       <c r="R9" s="41"/>
       <c r="S9" s="32"/>
@@ -4325,10 +4325,10 @@
         <f>B8+21</f>
         <v>43774</v>
       </c>
-      <c r="C10" s="126">
+      <c r="C10" s="107">
         <v>1</v>
       </c>
-      <c r="D10" s="129" t="s">
+      <c r="D10" s="110" t="s">
         <v>261</v>
       </c>
       <c r="E10" s="26">
@@ -4378,8 +4378,8 @@
         <f t="shared" ref="B11:B16" si="1">B10+7</f>
         <v>43781</v>
       </c>
-      <c r="C11" s="127"/>
-      <c r="D11" s="130"/>
+      <c r="C11" s="108"/>
+      <c r="D11" s="111"/>
       <c r="E11" s="26">
         <v>6</v>
       </c>
@@ -4429,8 +4429,8 @@
         <f t="shared" si="1"/>
         <v>43788</v>
       </c>
-      <c r="C12" s="127"/>
-      <c r="D12" s="130"/>
+      <c r="C12" s="108"/>
+      <c r="D12" s="111"/>
       <c r="E12" s="26">
         <v>6</v>
       </c>
@@ -4475,8 +4475,8 @@
         <f t="shared" si="1"/>
         <v>43795</v>
       </c>
-      <c r="C13" s="127"/>
-      <c r="D13" s="130"/>
+      <c r="C13" s="108"/>
+      <c r="D13" s="111"/>
       <c r="E13" s="26">
         <v>7</v>
       </c>
@@ -4528,8 +4528,8 @@
         <f t="shared" si="1"/>
         <v>43802</v>
       </c>
-      <c r="C14" s="127"/>
-      <c r="D14" s="130"/>
+      <c r="C14" s="108"/>
+      <c r="D14" s="111"/>
       <c r="E14" s="26">
         <v>7</v>
       </c>
@@ -4576,8 +4576,8 @@
         <f t="shared" si="1"/>
         <v>43809</v>
       </c>
-      <c r="C15" s="127"/>
-      <c r="D15" s="130"/>
+      <c r="C15" s="108"/>
+      <c r="D15" s="111"/>
       <c r="E15" s="26">
         <v>8</v>
       </c>
@@ -4627,8 +4627,8 @@
         <f t="shared" si="1"/>
         <v>43816</v>
       </c>
-      <c r="C16" s="128"/>
-      <c r="D16" s="131"/>
+      <c r="C16" s="109"/>
+      <c r="D16" s="112"/>
       <c r="E16" s="26">
         <v>8</v>
       </c>
@@ -4669,24 +4669,24 @@
       <c r="X16" s="75"/>
     </row>
     <row r="17" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="101" t="s">
+      <c r="A17" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="102"/>
-      <c r="C17" s="102"/>
-      <c r="D17" s="102"/>
-      <c r="E17" s="102"/>
-      <c r="F17" s="102"/>
-      <c r="G17" s="102"/>
-      <c r="H17" s="102"/>
-      <c r="I17" s="102"/>
-      <c r="J17" s="102"/>
-      <c r="K17" s="102"/>
-      <c r="L17" s="102"/>
-      <c r="M17" s="102"/>
-      <c r="N17" s="102"/>
-      <c r="O17" s="102"/>
-      <c r="P17" s="102"/>
+      <c r="B17" s="106"/>
+      <c r="C17" s="106"/>
+      <c r="D17" s="106"/>
+      <c r="E17" s="106"/>
+      <c r="F17" s="106"/>
+      <c r="G17" s="106"/>
+      <c r="H17" s="106"/>
+      <c r="I17" s="106"/>
+      <c r="J17" s="106"/>
+      <c r="K17" s="106"/>
+      <c r="L17" s="106"/>
+      <c r="M17" s="106"/>
+      <c r="N17" s="106"/>
+      <c r="O17" s="106"/>
+      <c r="P17" s="106"/>
       <c r="Q17" s="4"/>
       <c r="R17" s="41"/>
       <c r="S17" s="32"/>
@@ -4702,10 +4702,10 @@
         <f>B16+21</f>
         <v>43837</v>
       </c>
-      <c r="C18" s="120">
+      <c r="C18" s="99">
         <v>2</v>
       </c>
-      <c r="D18" s="123" t="s">
+      <c r="D18" s="102" t="s">
         <v>184</v>
       </c>
       <c r="E18" s="28">
@@ -4755,8 +4755,8 @@
         <f>B18+7</f>
         <v>43844</v>
       </c>
-      <c r="C19" s="121"/>
-      <c r="D19" s="124"/>
+      <c r="C19" s="100"/>
+      <c r="D19" s="103"/>
       <c r="E19" s="28">
         <v>1</v>
       </c>
@@ -4804,8 +4804,8 @@
         <f t="shared" ref="B20:B40" si="2">B19+7</f>
         <v>43851</v>
       </c>
-      <c r="C20" s="121"/>
-      <c r="D20" s="124"/>
+      <c r="C20" s="100"/>
+      <c r="D20" s="103"/>
       <c r="E20" s="28">
         <v>2</v>
       </c>
@@ -4853,8 +4853,8 @@
         <f>B20+7</f>
         <v>43858</v>
       </c>
-      <c r="C21" s="122"/>
-      <c r="D21" s="125"/>
+      <c r="C21" s="101"/>
+      <c r="D21" s="104"/>
       <c r="E21" s="28">
         <v>2</v>
       </c>
@@ -4902,10 +4902,10 @@
         <f>B21+7</f>
         <v>43865</v>
       </c>
-      <c r="C22" s="106">
+      <c r="C22" s="118">
         <v>3</v>
       </c>
-      <c r="D22" s="103" t="s">
+      <c r="D22" s="115" t="s">
         <v>60</v>
       </c>
       <c r="E22" s="35">
@@ -4955,8 +4955,8 @@
         <f>B22+7</f>
         <v>43872</v>
       </c>
-      <c r="C23" s="107"/>
-      <c r="D23" s="104"/>
+      <c r="C23" s="119"/>
+      <c r="D23" s="116"/>
       <c r="E23" s="35">
         <v>2</v>
       </c>
@@ -5003,8 +5003,8 @@
         <f>B23+7</f>
         <v>43879</v>
       </c>
-      <c r="C24" s="108"/>
-      <c r="D24" s="105"/>
+      <c r="C24" s="120"/>
+      <c r="D24" s="117"/>
       <c r="E24" s="34">
         <v>2</v>
       </c>
@@ -5040,24 +5040,24 @@
       <c r="S24" s="33"/>
     </row>
     <row r="25" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="101" t="s">
+      <c r="A25" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="102"/>
-      <c r="C25" s="102"/>
-      <c r="D25" s="102"/>
-      <c r="E25" s="102"/>
-      <c r="F25" s="102"/>
-      <c r="G25" s="102"/>
-      <c r="H25" s="102"/>
-      <c r="I25" s="102"/>
-      <c r="J25" s="102"/>
-      <c r="K25" s="102"/>
-      <c r="L25" s="102"/>
-      <c r="M25" s="102"/>
-      <c r="N25" s="102"/>
-      <c r="O25" s="102"/>
-      <c r="P25" s="102"/>
+      <c r="B25" s="106"/>
+      <c r="C25" s="106"/>
+      <c r="D25" s="106"/>
+      <c r="E25" s="106"/>
+      <c r="F25" s="106"/>
+      <c r="G25" s="106"/>
+      <c r="H25" s="106"/>
+      <c r="I25" s="106"/>
+      <c r="J25" s="106"/>
+      <c r="K25" s="106"/>
+      <c r="L25" s="106"/>
+      <c r="M25" s="106"/>
+      <c r="N25" s="106"/>
+      <c r="O25" s="106"/>
+      <c r="P25" s="106"/>
       <c r="Q25" s="4"/>
       <c r="R25" s="50"/>
       <c r="S25" s="32"/>
@@ -5073,10 +5073,10 @@
         <f>B24+21</f>
         <v>43900</v>
       </c>
-      <c r="C26" s="106">
+      <c r="C26" s="118">
         <v>3</v>
       </c>
-      <c r="D26" s="103" t="s">
+      <c r="D26" s="115" t="s">
         <v>60</v>
       </c>
       <c r="E26" s="29">
@@ -5126,8 +5126,8 @@
         <f t="shared" si="2"/>
         <v>43907</v>
       </c>
-      <c r="C27" s="107"/>
-      <c r="D27" s="104"/>
+      <c r="C27" s="119"/>
+      <c r="D27" s="116"/>
       <c r="E27" s="35">
         <v>3</v>
       </c>
@@ -5172,8 +5172,8 @@
         <f t="shared" si="2"/>
         <v>43914</v>
       </c>
-      <c r="C28" s="107"/>
-      <c r="D28" s="104"/>
+      <c r="C28" s="119"/>
+      <c r="D28" s="116"/>
       <c r="E28" s="29">
         <v>4</v>
       </c>
@@ -5221,8 +5221,8 @@
         <f t="shared" si="2"/>
         <v>43921</v>
       </c>
-      <c r="C29" s="108"/>
-      <c r="D29" s="105"/>
+      <c r="C29" s="120"/>
+      <c r="D29" s="117"/>
       <c r="E29" s="35">
         <v>4</v>
       </c>
@@ -5268,10 +5268,10 @@
         <f t="shared" si="2"/>
         <v>43928</v>
       </c>
-      <c r="C30" s="109">
+      <c r="C30" s="121">
         <v>4</v>
       </c>
-      <c r="D30" s="111" t="s">
+      <c r="D30" s="123" t="s">
         <v>43</v>
       </c>
       <c r="E30" s="30">
@@ -5323,8 +5323,8 @@
         <f t="shared" si="2"/>
         <v>43935</v>
       </c>
-      <c r="C31" s="110"/>
-      <c r="D31" s="112"/>
+      <c r="C31" s="122"/>
+      <c r="D31" s="124"/>
       <c r="E31" s="30">
         <v>2</v>
       </c>
@@ -5365,24 +5365,24 @@
       <c r="X31" s="75"/>
     </row>
     <row r="32" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="99" t="s">
+      <c r="A32" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="B32" s="100"/>
-      <c r="C32" s="100"/>
-      <c r="D32" s="100"/>
-      <c r="E32" s="100"/>
-      <c r="F32" s="100"/>
-      <c r="G32" s="100"/>
-      <c r="H32" s="100"/>
-      <c r="I32" s="100"/>
-      <c r="J32" s="100"/>
-      <c r="K32" s="100"/>
-      <c r="L32" s="100"/>
-      <c r="M32" s="100"/>
-      <c r="N32" s="100"/>
-      <c r="O32" s="100"/>
-      <c r="P32" s="100"/>
+      <c r="B32" s="114"/>
+      <c r="C32" s="114"/>
+      <c r="D32" s="114"/>
+      <c r="E32" s="114"/>
+      <c r="F32" s="114"/>
+      <c r="G32" s="114"/>
+      <c r="H32" s="114"/>
+      <c r="I32" s="114"/>
+      <c r="J32" s="114"/>
+      <c r="K32" s="114"/>
+      <c r="L32" s="114"/>
+      <c r="M32" s="114"/>
+      <c r="N32" s="114"/>
+      <c r="O32" s="114"/>
+      <c r="P32" s="114"/>
       <c r="Q32" s="47"/>
       <c r="R32" s="51"/>
       <c r="S32" s="32"/>
@@ -5398,10 +5398,10 @@
         <f>B31+21</f>
         <v>43956</v>
       </c>
-      <c r="C33" s="109">
+      <c r="C33" s="121">
         <v>4</v>
       </c>
-      <c r="D33" s="111" t="s">
+      <c r="D33" s="123" t="s">
         <v>43</v>
       </c>
       <c r="E33" s="30">
@@ -5446,8 +5446,8 @@
         <f t="shared" si="2"/>
         <v>43963</v>
       </c>
-      <c r="C34" s="114"/>
-      <c r="D34" s="113"/>
+      <c r="C34" s="126"/>
+      <c r="D34" s="125"/>
       <c r="E34" s="30">
         <v>3</v>
       </c>
@@ -5492,8 +5492,8 @@
         <f t="shared" si="2"/>
         <v>43970</v>
       </c>
-      <c r="C35" s="110"/>
-      <c r="D35" s="112"/>
+      <c r="C35" s="122"/>
+      <c r="D35" s="124"/>
       <c r="E35" s="30">
         <v>4</v>
       </c>
@@ -5537,10 +5537,10 @@
         <f t="shared" si="2"/>
         <v>43977</v>
       </c>
-      <c r="C36" s="117">
+      <c r="C36" s="129">
         <v>5</v>
       </c>
-      <c r="D36" s="115" t="s">
+      <c r="D36" s="127" t="s">
         <v>49</v>
       </c>
       <c r="E36" s="31">
@@ -5580,8 +5580,8 @@
         <f t="shared" si="2"/>
         <v>43984</v>
       </c>
-      <c r="C37" s="118"/>
-      <c r="D37" s="116"/>
+      <c r="C37" s="130"/>
+      <c r="D37" s="128"/>
       <c r="E37" s="31">
         <v>1</v>
       </c>
@@ -5621,8 +5621,8 @@
         <f t="shared" si="2"/>
         <v>43991</v>
       </c>
-      <c r="C38" s="118"/>
-      <c r="D38" s="116"/>
+      <c r="C38" s="130"/>
+      <c r="D38" s="128"/>
       <c r="E38" s="31">
         <v>1</v>
       </c>
@@ -5660,8 +5660,8 @@
         <f t="shared" si="2"/>
         <v>43998</v>
       </c>
-      <c r="C39" s="118"/>
-      <c r="D39" s="116"/>
+      <c r="C39" s="130"/>
+      <c r="D39" s="128"/>
       <c r="E39" s="31">
         <v>1</v>
       </c>
@@ -5699,8 +5699,8 @@
         <f t="shared" si="2"/>
         <v>44005</v>
       </c>
-      <c r="C40" s="119"/>
-      <c r="D40" s="116"/>
+      <c r="C40" s="131"/>
+      <c r="D40" s="128"/>
       <c r="E40" s="31">
         <v>1</v>
       </c>
@@ -5729,24 +5729,24 @@
       <c r="X40" s="75"/>
     </row>
     <row r="41" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="99" t="s">
+      <c r="A41" s="113" t="s">
         <v>15</v>
       </c>
-      <c r="B41" s="100"/>
-      <c r="C41" s="100"/>
-      <c r="D41" s="100"/>
-      <c r="E41" s="100"/>
-      <c r="F41" s="100"/>
-      <c r="G41" s="100"/>
-      <c r="H41" s="100"/>
-      <c r="I41" s="100"/>
-      <c r="J41" s="100"/>
-      <c r="K41" s="100"/>
-      <c r="L41" s="100"/>
-      <c r="M41" s="100"/>
-      <c r="N41" s="100"/>
-      <c r="O41" s="100"/>
-      <c r="P41" s="100"/>
+      <c r="B41" s="114"/>
+      <c r="C41" s="114"/>
+      <c r="D41" s="114"/>
+      <c r="E41" s="114"/>
+      <c r="F41" s="114"/>
+      <c r="G41" s="114"/>
+      <c r="H41" s="114"/>
+      <c r="I41" s="114"/>
+      <c r="J41" s="114"/>
+      <c r="K41" s="114"/>
+      <c r="L41" s="114"/>
+      <c r="M41" s="114"/>
+      <c r="N41" s="114"/>
+      <c r="O41" s="114"/>
+      <c r="P41" s="114"/>
       <c r="Q41" s="47"/>
       <c r="R41" s="51"/>
       <c r="V41" s="70"/>
@@ -5815,14 +5815,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="D18:D21"/>
-    <mergeCell ref="A9:P9"/>
-    <mergeCell ref="A17:P17"/>
-    <mergeCell ref="C2:C8"/>
-    <mergeCell ref="D2:D8"/>
-    <mergeCell ref="D10:D16"/>
-    <mergeCell ref="C10:C16"/>
     <mergeCell ref="A41:P41"/>
     <mergeCell ref="A32:P32"/>
     <mergeCell ref="A25:P25"/>
@@ -5836,6 +5828,14 @@
     <mergeCell ref="C33:C35"/>
     <mergeCell ref="D36:D40"/>
     <mergeCell ref="C36:C40"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="A9:P9"/>
+    <mergeCell ref="A17:P17"/>
+    <mergeCell ref="C2:C8"/>
+    <mergeCell ref="D2:D8"/>
+    <mergeCell ref="D10:D16"/>
+    <mergeCell ref="C10:C16"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/progression_2019_2020_IPT_MPSI.xlsx
+++ b/progression_2019_2020_IPT_MPSI.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7580" yWindow="460" windowWidth="13280" windowHeight="14340"/>
+    <workbookView xWindow="-29700" yWindow="-1120" windowWidth="23340" windowHeight="16260" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Planning DS" sheetId="16" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="356">
   <si>
     <t>Cours</t>
   </si>
@@ -1119,6 +1119,9 @@
   </si>
   <si>
     <t>tableaux/decryptage;tableaux/carre_magique</t>
+  </si>
+  <si>
+    <t>nombres/NBR-003;nombres/NBR-004</t>
   </si>
 </sst>
 </file>
@@ -2495,6 +2498,69 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="1" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2513,12 +2579,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2535,63 +2595,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3591,7 +3594,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -3833,8 +3836,8 @@
   </sheetPr>
   <dimension ref="A1:X53"/>
   <sheetViews>
-    <sheetView topLeftCell="K5" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView tabSelected="1" topLeftCell="H5" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="26" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3925,10 +3928,10 @@
       <c r="B2" s="9">
         <v>43711</v>
       </c>
-      <c r="C2" s="107">
+      <c r="C2" s="126">
         <v>1</v>
       </c>
-      <c r="D2" s="110" t="s">
+      <c r="D2" s="129" t="s">
         <v>261</v>
       </c>
       <c r="E2" s="26">
@@ -3982,8 +3985,8 @@
         <f>B2+7</f>
         <v>43718</v>
       </c>
-      <c r="C3" s="108"/>
-      <c r="D3" s="111"/>
+      <c r="C3" s="127"/>
+      <c r="D3" s="130"/>
       <c r="E3" s="26">
         <v>2</v>
       </c>
@@ -4034,8 +4037,8 @@
         <f>B3+7</f>
         <v>43725</v>
       </c>
-      <c r="C4" s="108"/>
-      <c r="D4" s="111"/>
+      <c r="C4" s="127"/>
+      <c r="D4" s="130"/>
       <c r="E4" s="26">
         <v>2</v>
       </c>
@@ -4087,8 +4090,8 @@
         <f t="shared" ref="B5:B8" si="0">B4+7</f>
         <v>43732</v>
       </c>
-      <c r="C5" s="108"/>
-      <c r="D5" s="111"/>
+      <c r="C5" s="127"/>
+      <c r="D5" s="130"/>
       <c r="E5" s="26">
         <v>3</v>
       </c>
@@ -4140,8 +4143,8 @@
         <f>B5+7</f>
         <v>43739</v>
       </c>
-      <c r="C6" s="108"/>
-      <c r="D6" s="111"/>
+      <c r="C6" s="127"/>
+      <c r="D6" s="130"/>
       <c r="E6" s="26">
         <v>4</v>
       </c>
@@ -4195,8 +4198,8 @@
         <f t="shared" si="0"/>
         <v>43746</v>
       </c>
-      <c r="C7" s="108"/>
-      <c r="D7" s="111"/>
+      <c r="C7" s="127"/>
+      <c r="D7" s="130"/>
       <c r="E7" s="26">
         <v>4</v>
       </c>
@@ -4244,8 +4247,8 @@
         <f t="shared" si="0"/>
         <v>43753</v>
       </c>
-      <c r="C8" s="109"/>
-      <c r="D8" s="112"/>
+      <c r="C8" s="128"/>
+      <c r="D8" s="131"/>
       <c r="E8" s="26">
         <v>5</v>
       </c>
@@ -4292,24 +4295,24 @@
       <c r="X8" s="75"/>
     </row>
     <row r="9" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="105" t="s">
+      <c r="A9" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="106"/>
-      <c r="C9" s="106"/>
-      <c r="D9" s="106"/>
-      <c r="E9" s="106"/>
-      <c r="F9" s="106"/>
-      <c r="G9" s="106"/>
-      <c r="H9" s="106"/>
-      <c r="I9" s="106"/>
-      <c r="J9" s="106"/>
-      <c r="K9" s="106"/>
-      <c r="L9" s="106"/>
-      <c r="M9" s="106"/>
-      <c r="N9" s="106"/>
-      <c r="O9" s="106"/>
-      <c r="P9" s="106"/>
+      <c r="B9" s="102"/>
+      <c r="C9" s="102"/>
+      <c r="D9" s="102"/>
+      <c r="E9" s="102"/>
+      <c r="F9" s="102"/>
+      <c r="G9" s="102"/>
+      <c r="H9" s="102"/>
+      <c r="I9" s="102"/>
+      <c r="J9" s="102"/>
+      <c r="K9" s="102"/>
+      <c r="L9" s="102"/>
+      <c r="M9" s="102"/>
+      <c r="N9" s="102"/>
+      <c r="O9" s="102"/>
+      <c r="P9" s="102"/>
       <c r="Q9" s="4"/>
       <c r="R9" s="41"/>
       <c r="S9" s="32"/>
@@ -4325,10 +4328,10 @@
         <f>B8+21</f>
         <v>43774</v>
       </c>
-      <c r="C10" s="107">
+      <c r="C10" s="126">
         <v>1</v>
       </c>
-      <c r="D10" s="110" t="s">
+      <c r="D10" s="129" t="s">
         <v>261</v>
       </c>
       <c r="E10" s="26">
@@ -4378,8 +4381,8 @@
         <f t="shared" ref="B11:B16" si="1">B10+7</f>
         <v>43781</v>
       </c>
-      <c r="C11" s="108"/>
-      <c r="D11" s="111"/>
+      <c r="C11" s="127"/>
+      <c r="D11" s="130"/>
       <c r="E11" s="26">
         <v>6</v>
       </c>
@@ -4429,8 +4432,8 @@
         <f t="shared" si="1"/>
         <v>43788</v>
       </c>
-      <c r="C12" s="108"/>
-      <c r="D12" s="111"/>
+      <c r="C12" s="127"/>
+      <c r="D12" s="130"/>
       <c r="E12" s="26">
         <v>6</v>
       </c>
@@ -4475,8 +4478,8 @@
         <f t="shared" si="1"/>
         <v>43795</v>
       </c>
-      <c r="C13" s="108"/>
-      <c r="D13" s="111"/>
+      <c r="C13" s="127"/>
+      <c r="D13" s="130"/>
       <c r="E13" s="26">
         <v>7</v>
       </c>
@@ -4528,8 +4531,8 @@
         <f t="shared" si="1"/>
         <v>43802</v>
       </c>
-      <c r="C14" s="108"/>
-      <c r="D14" s="111"/>
+      <c r="C14" s="127"/>
+      <c r="D14" s="130"/>
       <c r="E14" s="26">
         <v>7</v>
       </c>
@@ -4576,8 +4579,8 @@
         <f t="shared" si="1"/>
         <v>43809</v>
       </c>
-      <c r="C15" s="108"/>
-      <c r="D15" s="111"/>
+      <c r="C15" s="127"/>
+      <c r="D15" s="130"/>
       <c r="E15" s="26">
         <v>8</v>
       </c>
@@ -4596,7 +4599,9 @@
       <c r="J15" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="K15" s="5"/>
+      <c r="K15" s="5" t="s">
+        <v>355</v>
+      </c>
       <c r="L15" s="5"/>
       <c r="M15" s="83" t="s">
         <v>268</v>
@@ -4627,8 +4632,8 @@
         <f t="shared" si="1"/>
         <v>43816</v>
       </c>
-      <c r="C16" s="109"/>
-      <c r="D16" s="112"/>
+      <c r="C16" s="128"/>
+      <c r="D16" s="131"/>
       <c r="E16" s="26">
         <v>8</v>
       </c>
@@ -4669,24 +4674,24 @@
       <c r="X16" s="75"/>
     </row>
     <row r="17" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="105" t="s">
+      <c r="A17" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="106"/>
-      <c r="C17" s="106"/>
-      <c r="D17" s="106"/>
-      <c r="E17" s="106"/>
-      <c r="F17" s="106"/>
-      <c r="G17" s="106"/>
-      <c r="H17" s="106"/>
-      <c r="I17" s="106"/>
-      <c r="J17" s="106"/>
-      <c r="K17" s="106"/>
-      <c r="L17" s="106"/>
-      <c r="M17" s="106"/>
-      <c r="N17" s="106"/>
-      <c r="O17" s="106"/>
-      <c r="P17" s="106"/>
+      <c r="B17" s="102"/>
+      <c r="C17" s="102"/>
+      <c r="D17" s="102"/>
+      <c r="E17" s="102"/>
+      <c r="F17" s="102"/>
+      <c r="G17" s="102"/>
+      <c r="H17" s="102"/>
+      <c r="I17" s="102"/>
+      <c r="J17" s="102"/>
+      <c r="K17" s="102"/>
+      <c r="L17" s="102"/>
+      <c r="M17" s="102"/>
+      <c r="N17" s="102"/>
+      <c r="O17" s="102"/>
+      <c r="P17" s="102"/>
       <c r="Q17" s="4"/>
       <c r="R17" s="41"/>
       <c r="S17" s="32"/>
@@ -4702,10 +4707,10 @@
         <f>B16+21</f>
         <v>43837</v>
       </c>
-      <c r="C18" s="99">
+      <c r="C18" s="120">
         <v>2</v>
       </c>
-      <c r="D18" s="102" t="s">
+      <c r="D18" s="123" t="s">
         <v>184</v>
       </c>
       <c r="E18" s="28">
@@ -4755,8 +4760,8 @@
         <f>B18+7</f>
         <v>43844</v>
       </c>
-      <c r="C19" s="100"/>
-      <c r="D19" s="103"/>
+      <c r="C19" s="121"/>
+      <c r="D19" s="124"/>
       <c r="E19" s="28">
         <v>1</v>
       </c>
@@ -4804,8 +4809,8 @@
         <f t="shared" ref="B20:B40" si="2">B19+7</f>
         <v>43851</v>
       </c>
-      <c r="C20" s="100"/>
-      <c r="D20" s="103"/>
+      <c r="C20" s="121"/>
+      <c r="D20" s="124"/>
       <c r="E20" s="28">
         <v>2</v>
       </c>
@@ -4853,8 +4858,8 @@
         <f>B20+7</f>
         <v>43858</v>
       </c>
-      <c r="C21" s="101"/>
-      <c r="D21" s="104"/>
+      <c r="C21" s="122"/>
+      <c r="D21" s="125"/>
       <c r="E21" s="28">
         <v>2</v>
       </c>
@@ -4902,10 +4907,10 @@
         <f>B21+7</f>
         <v>43865</v>
       </c>
-      <c r="C22" s="118">
+      <c r="C22" s="106">
         <v>3</v>
       </c>
-      <c r="D22" s="115" t="s">
+      <c r="D22" s="103" t="s">
         <v>60</v>
       </c>
       <c r="E22" s="35">
@@ -4955,8 +4960,8 @@
         <f>B22+7</f>
         <v>43872</v>
       </c>
-      <c r="C23" s="119"/>
-      <c r="D23" s="116"/>
+      <c r="C23" s="107"/>
+      <c r="D23" s="104"/>
       <c r="E23" s="35">
         <v>2</v>
       </c>
@@ -5003,8 +5008,8 @@
         <f>B23+7</f>
         <v>43879</v>
       </c>
-      <c r="C24" s="120"/>
-      <c r="D24" s="117"/>
+      <c r="C24" s="108"/>
+      <c r="D24" s="105"/>
       <c r="E24" s="34">
         <v>2</v>
       </c>
@@ -5040,24 +5045,24 @@
       <c r="S24" s="33"/>
     </row>
     <row r="25" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="105" t="s">
+      <c r="A25" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="106"/>
-      <c r="C25" s="106"/>
-      <c r="D25" s="106"/>
-      <c r="E25" s="106"/>
-      <c r="F25" s="106"/>
-      <c r="G25" s="106"/>
-      <c r="H25" s="106"/>
-      <c r="I25" s="106"/>
-      <c r="J25" s="106"/>
-      <c r="K25" s="106"/>
-      <c r="L25" s="106"/>
-      <c r="M25" s="106"/>
-      <c r="N25" s="106"/>
-      <c r="O25" s="106"/>
-      <c r="P25" s="106"/>
+      <c r="B25" s="102"/>
+      <c r="C25" s="102"/>
+      <c r="D25" s="102"/>
+      <c r="E25" s="102"/>
+      <c r="F25" s="102"/>
+      <c r="G25" s="102"/>
+      <c r="H25" s="102"/>
+      <c r="I25" s="102"/>
+      <c r="J25" s="102"/>
+      <c r="K25" s="102"/>
+      <c r="L25" s="102"/>
+      <c r="M25" s="102"/>
+      <c r="N25" s="102"/>
+      <c r="O25" s="102"/>
+      <c r="P25" s="102"/>
       <c r="Q25" s="4"/>
       <c r="R25" s="50"/>
       <c r="S25" s="32"/>
@@ -5073,10 +5078,10 @@
         <f>B24+21</f>
         <v>43900</v>
       </c>
-      <c r="C26" s="118">
+      <c r="C26" s="106">
         <v>3</v>
       </c>
-      <c r="D26" s="115" t="s">
+      <c r="D26" s="103" t="s">
         <v>60</v>
       </c>
       <c r="E26" s="29">
@@ -5126,8 +5131,8 @@
         <f t="shared" si="2"/>
         <v>43907</v>
       </c>
-      <c r="C27" s="119"/>
-      <c r="D27" s="116"/>
+      <c r="C27" s="107"/>
+      <c r="D27" s="104"/>
       <c r="E27" s="35">
         <v>3</v>
       </c>
@@ -5172,8 +5177,8 @@
         <f t="shared" si="2"/>
         <v>43914</v>
       </c>
-      <c r="C28" s="119"/>
-      <c r="D28" s="116"/>
+      <c r="C28" s="107"/>
+      <c r="D28" s="104"/>
       <c r="E28" s="29">
         <v>4</v>
       </c>
@@ -5221,8 +5226,8 @@
         <f t="shared" si="2"/>
         <v>43921</v>
       </c>
-      <c r="C29" s="120"/>
-      <c r="D29" s="117"/>
+      <c r="C29" s="108"/>
+      <c r="D29" s="105"/>
       <c r="E29" s="35">
         <v>4</v>
       </c>
@@ -5268,10 +5273,10 @@
         <f t="shared" si="2"/>
         <v>43928</v>
       </c>
-      <c r="C30" s="121">
+      <c r="C30" s="109">
         <v>4</v>
       </c>
-      <c r="D30" s="123" t="s">
+      <c r="D30" s="111" t="s">
         <v>43</v>
       </c>
       <c r="E30" s="30">
@@ -5323,8 +5328,8 @@
         <f t="shared" si="2"/>
         <v>43935</v>
       </c>
-      <c r="C31" s="122"/>
-      <c r="D31" s="124"/>
+      <c r="C31" s="110"/>
+      <c r="D31" s="112"/>
       <c r="E31" s="30">
         <v>2</v>
       </c>
@@ -5365,24 +5370,24 @@
       <c r="X31" s="75"/>
     </row>
     <row r="32" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="113" t="s">
+      <c r="A32" s="99" t="s">
         <v>14</v>
       </c>
-      <c r="B32" s="114"/>
-      <c r="C32" s="114"/>
-      <c r="D32" s="114"/>
-      <c r="E32" s="114"/>
-      <c r="F32" s="114"/>
-      <c r="G32" s="114"/>
-      <c r="H32" s="114"/>
-      <c r="I32" s="114"/>
-      <c r="J32" s="114"/>
-      <c r="K32" s="114"/>
-      <c r="L32" s="114"/>
-      <c r="M32" s="114"/>
-      <c r="N32" s="114"/>
-      <c r="O32" s="114"/>
-      <c r="P32" s="114"/>
+      <c r="B32" s="100"/>
+      <c r="C32" s="100"/>
+      <c r="D32" s="100"/>
+      <c r="E32" s="100"/>
+      <c r="F32" s="100"/>
+      <c r="G32" s="100"/>
+      <c r="H32" s="100"/>
+      <c r="I32" s="100"/>
+      <c r="J32" s="100"/>
+      <c r="K32" s="100"/>
+      <c r="L32" s="100"/>
+      <c r="M32" s="100"/>
+      <c r="N32" s="100"/>
+      <c r="O32" s="100"/>
+      <c r="P32" s="100"/>
       <c r="Q32" s="47"/>
       <c r="R32" s="51"/>
       <c r="S32" s="32"/>
@@ -5398,10 +5403,10 @@
         <f>B31+21</f>
         <v>43956</v>
       </c>
-      <c r="C33" s="121">
+      <c r="C33" s="109">
         <v>4</v>
       </c>
-      <c r="D33" s="123" t="s">
+      <c r="D33" s="111" t="s">
         <v>43</v>
       </c>
       <c r="E33" s="30">
@@ -5446,8 +5451,8 @@
         <f t="shared" si="2"/>
         <v>43963</v>
       </c>
-      <c r="C34" s="126"/>
-      <c r="D34" s="125"/>
+      <c r="C34" s="114"/>
+      <c r="D34" s="113"/>
       <c r="E34" s="30">
         <v>3</v>
       </c>
@@ -5492,8 +5497,8 @@
         <f t="shared" si="2"/>
         <v>43970</v>
       </c>
-      <c r="C35" s="122"/>
-      <c r="D35" s="124"/>
+      <c r="C35" s="110"/>
+      <c r="D35" s="112"/>
       <c r="E35" s="30">
         <v>4</v>
       </c>
@@ -5537,10 +5542,10 @@
         <f t="shared" si="2"/>
         <v>43977</v>
       </c>
-      <c r="C36" s="129">
+      <c r="C36" s="117">
         <v>5</v>
       </c>
-      <c r="D36" s="127" t="s">
+      <c r="D36" s="115" t="s">
         <v>49</v>
       </c>
       <c r="E36" s="31">
@@ -5580,8 +5585,8 @@
         <f t="shared" si="2"/>
         <v>43984</v>
       </c>
-      <c r="C37" s="130"/>
-      <c r="D37" s="128"/>
+      <c r="C37" s="118"/>
+      <c r="D37" s="116"/>
       <c r="E37" s="31">
         <v>1</v>
       </c>
@@ -5621,8 +5626,8 @@
         <f t="shared" si="2"/>
         <v>43991</v>
       </c>
-      <c r="C38" s="130"/>
-      <c r="D38" s="128"/>
+      <c r="C38" s="118"/>
+      <c r="D38" s="116"/>
       <c r="E38" s="31">
         <v>1</v>
       </c>
@@ -5660,8 +5665,8 @@
         <f t="shared" si="2"/>
         <v>43998</v>
       </c>
-      <c r="C39" s="130"/>
-      <c r="D39" s="128"/>
+      <c r="C39" s="118"/>
+      <c r="D39" s="116"/>
       <c r="E39" s="31">
         <v>1</v>
       </c>
@@ -5699,8 +5704,8 @@
         <f t="shared" si="2"/>
         <v>44005</v>
       </c>
-      <c r="C40" s="131"/>
-      <c r="D40" s="128"/>
+      <c r="C40" s="119"/>
+      <c r="D40" s="116"/>
       <c r="E40" s="31">
         <v>1</v>
       </c>
@@ -5729,24 +5734,24 @@
       <c r="X40" s="75"/>
     </row>
     <row r="41" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="113" t="s">
+      <c r="A41" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="B41" s="114"/>
-      <c r="C41" s="114"/>
-      <c r="D41" s="114"/>
-      <c r="E41" s="114"/>
-      <c r="F41" s="114"/>
-      <c r="G41" s="114"/>
-      <c r="H41" s="114"/>
-      <c r="I41" s="114"/>
-      <c r="J41" s="114"/>
-      <c r="K41" s="114"/>
-      <c r="L41" s="114"/>
-      <c r="M41" s="114"/>
-      <c r="N41" s="114"/>
-      <c r="O41" s="114"/>
-      <c r="P41" s="114"/>
+      <c r="B41" s="100"/>
+      <c r="C41" s="100"/>
+      <c r="D41" s="100"/>
+      <c r="E41" s="100"/>
+      <c r="F41" s="100"/>
+      <c r="G41" s="100"/>
+      <c r="H41" s="100"/>
+      <c r="I41" s="100"/>
+      <c r="J41" s="100"/>
+      <c r="K41" s="100"/>
+      <c r="L41" s="100"/>
+      <c r="M41" s="100"/>
+      <c r="N41" s="100"/>
+      <c r="O41" s="100"/>
+      <c r="P41" s="100"/>
       <c r="Q41" s="47"/>
       <c r="R41" s="51"/>
       <c r="V41" s="70"/>
@@ -5815,6 +5820,14 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="A9:P9"/>
+    <mergeCell ref="A17:P17"/>
+    <mergeCell ref="C2:C8"/>
+    <mergeCell ref="D2:D8"/>
+    <mergeCell ref="D10:D16"/>
+    <mergeCell ref="C10:C16"/>
     <mergeCell ref="A41:P41"/>
     <mergeCell ref="A32:P32"/>
     <mergeCell ref="A25:P25"/>
@@ -5828,14 +5841,6 @@
     <mergeCell ref="C33:C35"/>
     <mergeCell ref="D36:D40"/>
     <mergeCell ref="C36:C40"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="D18:D21"/>
-    <mergeCell ref="A9:P9"/>
-    <mergeCell ref="A17:P17"/>
-    <mergeCell ref="C2:C8"/>
-    <mergeCell ref="D2:D8"/>
-    <mergeCell ref="D10:D16"/>
-    <mergeCell ref="C10:C16"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/progression_2019_2020_IPT_MPSI.xlsx
+++ b/progression_2019_2020_IPT_MPSI.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-29700" yWindow="-1120" windowWidth="23340" windowHeight="16260" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23340" windowHeight="14620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Planning DS" sheetId="16" r:id="rId1"/>
@@ -1121,7 +1121,7 @@
     <t>tableaux/decryptage;tableaux/carre_magique</t>
   </si>
   <si>
-    <t>nombres/NBR-003;nombres/NBR-004</t>
+    <t>nombres/NBR-003</t>
   </si>
 </sst>
 </file>
@@ -2498,18 +2498,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2559,42 +2595,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="7" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3837,7 +3837,7 @@
   <dimension ref="A1:X53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H5" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="26" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3928,10 +3928,10 @@
       <c r="B2" s="9">
         <v>43711</v>
       </c>
-      <c r="C2" s="126">
+      <c r="C2" s="107">
         <v>1</v>
       </c>
-      <c r="D2" s="129" t="s">
+      <c r="D2" s="110" t="s">
         <v>261</v>
       </c>
       <c r="E2" s="26">
@@ -3985,8 +3985,8 @@
         <f>B2+7</f>
         <v>43718</v>
       </c>
-      <c r="C3" s="127"/>
-      <c r="D3" s="130"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="111"/>
       <c r="E3" s="26">
         <v>2</v>
       </c>
@@ -4037,8 +4037,8 @@
         <f>B3+7</f>
         <v>43725</v>
       </c>
-      <c r="C4" s="127"/>
-      <c r="D4" s="130"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="111"/>
       <c r="E4" s="26">
         <v>2</v>
       </c>
@@ -4090,8 +4090,8 @@
         <f t="shared" ref="B5:B8" si="0">B4+7</f>
         <v>43732</v>
       </c>
-      <c r="C5" s="127"/>
-      <c r="D5" s="130"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="111"/>
       <c r="E5" s="26">
         <v>3</v>
       </c>
@@ -4143,8 +4143,8 @@
         <f>B5+7</f>
         <v>43739</v>
       </c>
-      <c r="C6" s="127"/>
-      <c r="D6" s="130"/>
+      <c r="C6" s="108"/>
+      <c r="D6" s="111"/>
       <c r="E6" s="26">
         <v>4</v>
       </c>
@@ -4198,8 +4198,8 @@
         <f t="shared" si="0"/>
         <v>43746</v>
       </c>
-      <c r="C7" s="127"/>
-      <c r="D7" s="130"/>
+      <c r="C7" s="108"/>
+      <c r="D7" s="111"/>
       <c r="E7" s="26">
         <v>4</v>
       </c>
@@ -4247,8 +4247,8 @@
         <f t="shared" si="0"/>
         <v>43753</v>
       </c>
-      <c r="C8" s="128"/>
-      <c r="D8" s="131"/>
+      <c r="C8" s="109"/>
+      <c r="D8" s="112"/>
       <c r="E8" s="26">
         <v>5</v>
       </c>
@@ -4295,24 +4295,24 @@
       <c r="X8" s="75"/>
     </row>
     <row r="9" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="101" t="s">
+      <c r="A9" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="102"/>
-      <c r="C9" s="102"/>
-      <c r="D9" s="102"/>
-      <c r="E9" s="102"/>
-      <c r="F9" s="102"/>
-      <c r="G9" s="102"/>
-      <c r="H9" s="102"/>
-      <c r="I9" s="102"/>
-      <c r="J9" s="102"/>
-      <c r="K9" s="102"/>
-      <c r="L9" s="102"/>
-      <c r="M9" s="102"/>
-      <c r="N9" s="102"/>
-      <c r="O9" s="102"/>
-      <c r="P9" s="102"/>
+      <c r="B9" s="106"/>
+      <c r="C9" s="106"/>
+      <c r="D9" s="106"/>
+      <c r="E9" s="106"/>
+      <c r="F9" s="106"/>
+      <c r="G9" s="106"/>
+      <c r="H9" s="106"/>
+      <c r="I9" s="106"/>
+      <c r="J9" s="106"/>
+      <c r="K9" s="106"/>
+      <c r="L9" s="106"/>
+      <c r="M9" s="106"/>
+      <c r="N9" s="106"/>
+      <c r="O9" s="106"/>
+      <c r="P9" s="106"/>
       <c r="Q9" s="4"/>
       <c r="R9" s="41"/>
       <c r="S9" s="32"/>
@@ -4328,10 +4328,10 @@
         <f>B8+21</f>
         <v>43774</v>
       </c>
-      <c r="C10" s="126">
+      <c r="C10" s="107">
         <v>1</v>
       </c>
-      <c r="D10" s="129" t="s">
+      <c r="D10" s="110" t="s">
         <v>261</v>
       </c>
       <c r="E10" s="26">
@@ -4381,8 +4381,8 @@
         <f t="shared" ref="B11:B16" si="1">B10+7</f>
         <v>43781</v>
       </c>
-      <c r="C11" s="127"/>
-      <c r="D11" s="130"/>
+      <c r="C11" s="108"/>
+      <c r="D11" s="111"/>
       <c r="E11" s="26">
         <v>6</v>
       </c>
@@ -4432,8 +4432,8 @@
         <f t="shared" si="1"/>
         <v>43788</v>
       </c>
-      <c r="C12" s="127"/>
-      <c r="D12" s="130"/>
+      <c r="C12" s="108"/>
+      <c r="D12" s="111"/>
       <c r="E12" s="26">
         <v>6</v>
       </c>
@@ -4478,8 +4478,8 @@
         <f t="shared" si="1"/>
         <v>43795</v>
       </c>
-      <c r="C13" s="127"/>
-      <c r="D13" s="130"/>
+      <c r="C13" s="108"/>
+      <c r="D13" s="111"/>
       <c r="E13" s="26">
         <v>7</v>
       </c>
@@ -4531,8 +4531,8 @@
         <f t="shared" si="1"/>
         <v>43802</v>
       </c>
-      <c r="C14" s="127"/>
-      <c r="D14" s="130"/>
+      <c r="C14" s="108"/>
+      <c r="D14" s="111"/>
       <c r="E14" s="26">
         <v>7</v>
       </c>
@@ -4579,8 +4579,8 @@
         <f t="shared" si="1"/>
         <v>43809</v>
       </c>
-      <c r="C15" s="127"/>
-      <c r="D15" s="130"/>
+      <c r="C15" s="108"/>
+      <c r="D15" s="111"/>
       <c r="E15" s="26">
         <v>8</v>
       </c>
@@ -4632,8 +4632,8 @@
         <f t="shared" si="1"/>
         <v>43816</v>
       </c>
-      <c r="C16" s="128"/>
-      <c r="D16" s="131"/>
+      <c r="C16" s="109"/>
+      <c r="D16" s="112"/>
       <c r="E16" s="26">
         <v>8</v>
       </c>
@@ -4674,24 +4674,24 @@
       <c r="X16" s="75"/>
     </row>
     <row r="17" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="101" t="s">
+      <c r="A17" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="102"/>
-      <c r="C17" s="102"/>
-      <c r="D17" s="102"/>
-      <c r="E17" s="102"/>
-      <c r="F17" s="102"/>
-      <c r="G17" s="102"/>
-      <c r="H17" s="102"/>
-      <c r="I17" s="102"/>
-      <c r="J17" s="102"/>
-      <c r="K17" s="102"/>
-      <c r="L17" s="102"/>
-      <c r="M17" s="102"/>
-      <c r="N17" s="102"/>
-      <c r="O17" s="102"/>
-      <c r="P17" s="102"/>
+      <c r="B17" s="106"/>
+      <c r="C17" s="106"/>
+      <c r="D17" s="106"/>
+      <c r="E17" s="106"/>
+      <c r="F17" s="106"/>
+      <c r="G17" s="106"/>
+      <c r="H17" s="106"/>
+      <c r="I17" s="106"/>
+      <c r="J17" s="106"/>
+      <c r="K17" s="106"/>
+      <c r="L17" s="106"/>
+      <c r="M17" s="106"/>
+      <c r="N17" s="106"/>
+      <c r="O17" s="106"/>
+      <c r="P17" s="106"/>
       <c r="Q17" s="4"/>
       <c r="R17" s="41"/>
       <c r="S17" s="32"/>
@@ -4707,10 +4707,10 @@
         <f>B16+21</f>
         <v>43837</v>
       </c>
-      <c r="C18" s="120">
+      <c r="C18" s="99">
         <v>2</v>
       </c>
-      <c r="D18" s="123" t="s">
+      <c r="D18" s="102" t="s">
         <v>184</v>
       </c>
       <c r="E18" s="28">
@@ -4760,8 +4760,8 @@
         <f>B18+7</f>
         <v>43844</v>
       </c>
-      <c r="C19" s="121"/>
-      <c r="D19" s="124"/>
+      <c r="C19" s="100"/>
+      <c r="D19" s="103"/>
       <c r="E19" s="28">
         <v>1</v>
       </c>
@@ -4809,8 +4809,8 @@
         <f t="shared" ref="B20:B40" si="2">B19+7</f>
         <v>43851</v>
       </c>
-      <c r="C20" s="121"/>
-      <c r="D20" s="124"/>
+      <c r="C20" s="100"/>
+      <c r="D20" s="103"/>
       <c r="E20" s="28">
         <v>2</v>
       </c>
@@ -4858,8 +4858,8 @@
         <f>B20+7</f>
         <v>43858</v>
       </c>
-      <c r="C21" s="122"/>
-      <c r="D21" s="125"/>
+      <c r="C21" s="101"/>
+      <c r="D21" s="104"/>
       <c r="E21" s="28">
         <v>2</v>
       </c>
@@ -4907,10 +4907,10 @@
         <f>B21+7</f>
         <v>43865</v>
       </c>
-      <c r="C22" s="106">
+      <c r="C22" s="118">
         <v>3</v>
       </c>
-      <c r="D22" s="103" t="s">
+      <c r="D22" s="115" t="s">
         <v>60</v>
       </c>
       <c r="E22" s="35">
@@ -4960,8 +4960,8 @@
         <f>B22+7</f>
         <v>43872</v>
       </c>
-      <c r="C23" s="107"/>
-      <c r="D23" s="104"/>
+      <c r="C23" s="119"/>
+      <c r="D23" s="116"/>
       <c r="E23" s="35">
         <v>2</v>
       </c>
@@ -5008,8 +5008,8 @@
         <f>B23+7</f>
         <v>43879</v>
       </c>
-      <c r="C24" s="108"/>
-      <c r="D24" s="105"/>
+      <c r="C24" s="120"/>
+      <c r="D24" s="117"/>
       <c r="E24" s="34">
         <v>2</v>
       </c>
@@ -5045,24 +5045,24 @@
       <c r="S24" s="33"/>
     </row>
     <row r="25" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="101" t="s">
+      <c r="A25" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="102"/>
-      <c r="C25" s="102"/>
-      <c r="D25" s="102"/>
-      <c r="E25" s="102"/>
-      <c r="F25" s="102"/>
-      <c r="G25" s="102"/>
-      <c r="H25" s="102"/>
-      <c r="I25" s="102"/>
-      <c r="J25" s="102"/>
-      <c r="K25" s="102"/>
-      <c r="L25" s="102"/>
-      <c r="M25" s="102"/>
-      <c r="N25" s="102"/>
-      <c r="O25" s="102"/>
-      <c r="P25" s="102"/>
+      <c r="B25" s="106"/>
+      <c r="C25" s="106"/>
+      <c r="D25" s="106"/>
+      <c r="E25" s="106"/>
+      <c r="F25" s="106"/>
+      <c r="G25" s="106"/>
+      <c r="H25" s="106"/>
+      <c r="I25" s="106"/>
+      <c r="J25" s="106"/>
+      <c r="K25" s="106"/>
+      <c r="L25" s="106"/>
+      <c r="M25" s="106"/>
+      <c r="N25" s="106"/>
+      <c r="O25" s="106"/>
+      <c r="P25" s="106"/>
       <c r="Q25" s="4"/>
       <c r="R25" s="50"/>
       <c r="S25" s="32"/>
@@ -5078,10 +5078,10 @@
         <f>B24+21</f>
         <v>43900</v>
       </c>
-      <c r="C26" s="106">
+      <c r="C26" s="118">
         <v>3</v>
       </c>
-      <c r="D26" s="103" t="s">
+      <c r="D26" s="115" t="s">
         <v>60</v>
       </c>
       <c r="E26" s="29">
@@ -5131,8 +5131,8 @@
         <f t="shared" si="2"/>
         <v>43907</v>
       </c>
-      <c r="C27" s="107"/>
-      <c r="D27" s="104"/>
+      <c r="C27" s="119"/>
+      <c r="D27" s="116"/>
       <c r="E27" s="35">
         <v>3</v>
       </c>
@@ -5177,8 +5177,8 @@
         <f t="shared" si="2"/>
         <v>43914</v>
       </c>
-      <c r="C28" s="107"/>
-      <c r="D28" s="104"/>
+      <c r="C28" s="119"/>
+      <c r="D28" s="116"/>
       <c r="E28" s="29">
         <v>4</v>
       </c>
@@ -5226,8 +5226,8 @@
         <f t="shared" si="2"/>
         <v>43921</v>
       </c>
-      <c r="C29" s="108"/>
-      <c r="D29" s="105"/>
+      <c r="C29" s="120"/>
+      <c r="D29" s="117"/>
       <c r="E29" s="35">
         <v>4</v>
       </c>
@@ -5273,10 +5273,10 @@
         <f t="shared" si="2"/>
         <v>43928</v>
       </c>
-      <c r="C30" s="109">
+      <c r="C30" s="121">
         <v>4</v>
       </c>
-      <c r="D30" s="111" t="s">
+      <c r="D30" s="123" t="s">
         <v>43</v>
       </c>
       <c r="E30" s="30">
@@ -5328,8 +5328,8 @@
         <f t="shared" si="2"/>
         <v>43935</v>
       </c>
-      <c r="C31" s="110"/>
-      <c r="D31" s="112"/>
+      <c r="C31" s="122"/>
+      <c r="D31" s="124"/>
       <c r="E31" s="30">
         <v>2</v>
       </c>
@@ -5370,24 +5370,24 @@
       <c r="X31" s="75"/>
     </row>
     <row r="32" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="99" t="s">
+      <c r="A32" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="B32" s="100"/>
-      <c r="C32" s="100"/>
-      <c r="D32" s="100"/>
-      <c r="E32" s="100"/>
-      <c r="F32" s="100"/>
-      <c r="G32" s="100"/>
-      <c r="H32" s="100"/>
-      <c r="I32" s="100"/>
-      <c r="J32" s="100"/>
-      <c r="K32" s="100"/>
-      <c r="L32" s="100"/>
-      <c r="M32" s="100"/>
-      <c r="N32" s="100"/>
-      <c r="O32" s="100"/>
-      <c r="P32" s="100"/>
+      <c r="B32" s="114"/>
+      <c r="C32" s="114"/>
+      <c r="D32" s="114"/>
+      <c r="E32" s="114"/>
+      <c r="F32" s="114"/>
+      <c r="G32" s="114"/>
+      <c r="H32" s="114"/>
+      <c r="I32" s="114"/>
+      <c r="J32" s="114"/>
+      <c r="K32" s="114"/>
+      <c r="L32" s="114"/>
+      <c r="M32" s="114"/>
+      <c r="N32" s="114"/>
+      <c r="O32" s="114"/>
+      <c r="P32" s="114"/>
       <c r="Q32" s="47"/>
       <c r="R32" s="51"/>
       <c r="S32" s="32"/>
@@ -5403,10 +5403,10 @@
         <f>B31+21</f>
         <v>43956</v>
       </c>
-      <c r="C33" s="109">
+      <c r="C33" s="121">
         <v>4</v>
       </c>
-      <c r="D33" s="111" t="s">
+      <c r="D33" s="123" t="s">
         <v>43</v>
       </c>
       <c r="E33" s="30">
@@ -5451,8 +5451,8 @@
         <f t="shared" si="2"/>
         <v>43963</v>
       </c>
-      <c r="C34" s="114"/>
-      <c r="D34" s="113"/>
+      <c r="C34" s="126"/>
+      <c r="D34" s="125"/>
       <c r="E34" s="30">
         <v>3</v>
       </c>
@@ -5497,8 +5497,8 @@
         <f t="shared" si="2"/>
         <v>43970</v>
       </c>
-      <c r="C35" s="110"/>
-      <c r="D35" s="112"/>
+      <c r="C35" s="122"/>
+      <c r="D35" s="124"/>
       <c r="E35" s="30">
         <v>4</v>
       </c>
@@ -5542,10 +5542,10 @@
         <f t="shared" si="2"/>
         <v>43977</v>
       </c>
-      <c r="C36" s="117">
+      <c r="C36" s="129">
         <v>5</v>
       </c>
-      <c r="D36" s="115" t="s">
+      <c r="D36" s="127" t="s">
         <v>49</v>
       </c>
       <c r="E36" s="31">
@@ -5585,8 +5585,8 @@
         <f t="shared" si="2"/>
         <v>43984</v>
       </c>
-      <c r="C37" s="118"/>
-      <c r="D37" s="116"/>
+      <c r="C37" s="130"/>
+      <c r="D37" s="128"/>
       <c r="E37" s="31">
         <v>1</v>
       </c>
@@ -5626,8 +5626,8 @@
         <f t="shared" si="2"/>
         <v>43991</v>
       </c>
-      <c r="C38" s="118"/>
-      <c r="D38" s="116"/>
+      <c r="C38" s="130"/>
+      <c r="D38" s="128"/>
       <c r="E38" s="31">
         <v>1</v>
       </c>
@@ -5665,8 +5665,8 @@
         <f t="shared" si="2"/>
         <v>43998</v>
       </c>
-      <c r="C39" s="118"/>
-      <c r="D39" s="116"/>
+      <c r="C39" s="130"/>
+      <c r="D39" s="128"/>
       <c r="E39" s="31">
         <v>1</v>
       </c>
@@ -5704,8 +5704,8 @@
         <f t="shared" si="2"/>
         <v>44005</v>
       </c>
-      <c r="C40" s="119"/>
-      <c r="D40" s="116"/>
+      <c r="C40" s="131"/>
+      <c r="D40" s="128"/>
       <c r="E40" s="31">
         <v>1</v>
       </c>
@@ -5734,24 +5734,24 @@
       <c r="X40" s="75"/>
     </row>
     <row r="41" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="99" t="s">
+      <c r="A41" s="113" t="s">
         <v>15</v>
       </c>
-      <c r="B41" s="100"/>
-      <c r="C41" s="100"/>
-      <c r="D41" s="100"/>
-      <c r="E41" s="100"/>
-      <c r="F41" s="100"/>
-      <c r="G41" s="100"/>
-      <c r="H41" s="100"/>
-      <c r="I41" s="100"/>
-      <c r="J41" s="100"/>
-      <c r="K41" s="100"/>
-      <c r="L41" s="100"/>
-      <c r="M41" s="100"/>
-      <c r="N41" s="100"/>
-      <c r="O41" s="100"/>
-      <c r="P41" s="100"/>
+      <c r="B41" s="114"/>
+      <c r="C41" s="114"/>
+      <c r="D41" s="114"/>
+      <c r="E41" s="114"/>
+      <c r="F41" s="114"/>
+      <c r="G41" s="114"/>
+      <c r="H41" s="114"/>
+      <c r="I41" s="114"/>
+      <c r="J41" s="114"/>
+      <c r="K41" s="114"/>
+      <c r="L41" s="114"/>
+      <c r="M41" s="114"/>
+      <c r="N41" s="114"/>
+      <c r="O41" s="114"/>
+      <c r="P41" s="114"/>
       <c r="Q41" s="47"/>
       <c r="R41" s="51"/>
       <c r="V41" s="70"/>
@@ -5820,14 +5820,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="D18:D21"/>
-    <mergeCell ref="A9:P9"/>
-    <mergeCell ref="A17:P17"/>
-    <mergeCell ref="C2:C8"/>
-    <mergeCell ref="D2:D8"/>
-    <mergeCell ref="D10:D16"/>
-    <mergeCell ref="C10:C16"/>
     <mergeCell ref="A41:P41"/>
     <mergeCell ref="A32:P32"/>
     <mergeCell ref="A25:P25"/>
@@ -5841,6 +5833,14 @@
     <mergeCell ref="C33:C35"/>
     <mergeCell ref="D36:D40"/>
     <mergeCell ref="C36:C40"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="A9:P9"/>
+    <mergeCell ref="A17:P17"/>
+    <mergeCell ref="C2:C8"/>
+    <mergeCell ref="D2:D8"/>
+    <mergeCell ref="D10:D16"/>
+    <mergeCell ref="C10:C16"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/progression_2019_2020_IPT_MPSI.xlsx
+++ b/progression_2019_2020_IPT_MPSI.xlsx
@@ -3837,7 +3837,7 @@
   <dimension ref="A1:X53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H5" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="26" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/progression_2019_2020_IPT_MPSI.xlsx
+++ b/progression_2019_2020_IPT_MPSI.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="357">
   <si>
     <t>Cours</t>
   </si>
@@ -1122,6 +1122,9 @@
   </si>
   <si>
     <t>nombres/NBR-003</t>
+  </si>
+  <si>
+    <t>algo/ALG-017;algo/ALG-018;python_bases/PYB-517</t>
   </si>
 </sst>
 </file>
@@ -2498,6 +2501,69 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="1" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2516,12 +2582,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2538,63 +2598,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3836,8 +3839,8 @@
   </sheetPr>
   <dimension ref="A1:X53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H5" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" topLeftCell="F2" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="26" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3928,10 +3931,10 @@
       <c r="B2" s="9">
         <v>43711</v>
       </c>
-      <c r="C2" s="107">
+      <c r="C2" s="126">
         <v>1</v>
       </c>
-      <c r="D2" s="110" t="s">
+      <c r="D2" s="129" t="s">
         <v>261</v>
       </c>
       <c r="E2" s="26">
@@ -3985,8 +3988,8 @@
         <f>B2+7</f>
         <v>43718</v>
       </c>
-      <c r="C3" s="108"/>
-      <c r="D3" s="111"/>
+      <c r="C3" s="127"/>
+      <c r="D3" s="130"/>
       <c r="E3" s="26">
         <v>2</v>
       </c>
@@ -4037,8 +4040,8 @@
         <f>B3+7</f>
         <v>43725</v>
       </c>
-      <c r="C4" s="108"/>
-      <c r="D4" s="111"/>
+      <c r="C4" s="127"/>
+      <c r="D4" s="130"/>
       <c r="E4" s="26">
         <v>2</v>
       </c>
@@ -4090,8 +4093,8 @@
         <f t="shared" ref="B5:B8" si="0">B4+7</f>
         <v>43732</v>
       </c>
-      <c r="C5" s="108"/>
-      <c r="D5" s="111"/>
+      <c r="C5" s="127"/>
+      <c r="D5" s="130"/>
       <c r="E5" s="26">
         <v>3</v>
       </c>
@@ -4143,8 +4146,8 @@
         <f>B5+7</f>
         <v>43739</v>
       </c>
-      <c r="C6" s="108"/>
-      <c r="D6" s="111"/>
+      <c r="C6" s="127"/>
+      <c r="D6" s="130"/>
       <c r="E6" s="26">
         <v>4</v>
       </c>
@@ -4198,8 +4201,8 @@
         <f t="shared" si="0"/>
         <v>43746</v>
       </c>
-      <c r="C7" s="108"/>
-      <c r="D7" s="111"/>
+      <c r="C7" s="127"/>
+      <c r="D7" s="130"/>
       <c r="E7" s="26">
         <v>4</v>
       </c>
@@ -4247,8 +4250,8 @@
         <f t="shared" si="0"/>
         <v>43753</v>
       </c>
-      <c r="C8" s="109"/>
-      <c r="D8" s="112"/>
+      <c r="C8" s="128"/>
+      <c r="D8" s="131"/>
       <c r="E8" s="26">
         <v>5</v>
       </c>
@@ -4295,24 +4298,24 @@
       <c r="X8" s="75"/>
     </row>
     <row r="9" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="105" t="s">
+      <c r="A9" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="106"/>
-      <c r="C9" s="106"/>
-      <c r="D9" s="106"/>
-      <c r="E9" s="106"/>
-      <c r="F9" s="106"/>
-      <c r="G9" s="106"/>
-      <c r="H9" s="106"/>
-      <c r="I9" s="106"/>
-      <c r="J9" s="106"/>
-      <c r="K9" s="106"/>
-      <c r="L9" s="106"/>
-      <c r="M9" s="106"/>
-      <c r="N9" s="106"/>
-      <c r="O9" s="106"/>
-      <c r="P9" s="106"/>
+      <c r="B9" s="102"/>
+      <c r="C9" s="102"/>
+      <c r="D9" s="102"/>
+      <c r="E9" s="102"/>
+      <c r="F9" s="102"/>
+      <c r="G9" s="102"/>
+      <c r="H9" s="102"/>
+      <c r="I9" s="102"/>
+      <c r="J9" s="102"/>
+      <c r="K9" s="102"/>
+      <c r="L9" s="102"/>
+      <c r="M9" s="102"/>
+      <c r="N9" s="102"/>
+      <c r="O9" s="102"/>
+      <c r="P9" s="102"/>
       <c r="Q9" s="4"/>
       <c r="R9" s="41"/>
       <c r="S9" s="32"/>
@@ -4328,10 +4331,10 @@
         <f>B8+21</f>
         <v>43774</v>
       </c>
-      <c r="C10" s="107">
+      <c r="C10" s="126">
         <v>1</v>
       </c>
-      <c r="D10" s="110" t="s">
+      <c r="D10" s="129" t="s">
         <v>261</v>
       </c>
       <c r="E10" s="26">
@@ -4381,8 +4384,8 @@
         <f t="shared" ref="B11:B16" si="1">B10+7</f>
         <v>43781</v>
       </c>
-      <c r="C11" s="108"/>
-      <c r="D11" s="111"/>
+      <c r="C11" s="127"/>
+      <c r="D11" s="130"/>
       <c r="E11" s="26">
         <v>6</v>
       </c>
@@ -4432,8 +4435,8 @@
         <f t="shared" si="1"/>
         <v>43788</v>
       </c>
-      <c r="C12" s="108"/>
-      <c r="D12" s="111"/>
+      <c r="C12" s="127"/>
+      <c r="D12" s="130"/>
       <c r="E12" s="26">
         <v>6</v>
       </c>
@@ -4478,8 +4481,8 @@
         <f t="shared" si="1"/>
         <v>43795</v>
       </c>
-      <c r="C13" s="108"/>
-      <c r="D13" s="111"/>
+      <c r="C13" s="127"/>
+      <c r="D13" s="130"/>
       <c r="E13" s="26">
         <v>7</v>
       </c>
@@ -4531,8 +4534,8 @@
         <f t="shared" si="1"/>
         <v>43802</v>
       </c>
-      <c r="C14" s="108"/>
-      <c r="D14" s="111"/>
+      <c r="C14" s="127"/>
+      <c r="D14" s="130"/>
       <c r="E14" s="26">
         <v>7</v>
       </c>
@@ -4579,8 +4582,8 @@
         <f t="shared" si="1"/>
         <v>43809</v>
       </c>
-      <c r="C15" s="108"/>
-      <c r="D15" s="111"/>
+      <c r="C15" s="127"/>
+      <c r="D15" s="130"/>
       <c r="E15" s="26">
         <v>8</v>
       </c>
@@ -4632,8 +4635,8 @@
         <f t="shared" si="1"/>
         <v>43816</v>
       </c>
-      <c r="C16" s="109"/>
-      <c r="D16" s="112"/>
+      <c r="C16" s="128"/>
+      <c r="D16" s="131"/>
       <c r="E16" s="26">
         <v>8</v>
       </c>
@@ -4674,24 +4677,24 @@
       <c r="X16" s="75"/>
     </row>
     <row r="17" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="105" t="s">
+      <c r="A17" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="106"/>
-      <c r="C17" s="106"/>
-      <c r="D17" s="106"/>
-      <c r="E17" s="106"/>
-      <c r="F17" s="106"/>
-      <c r="G17" s="106"/>
-      <c r="H17" s="106"/>
-      <c r="I17" s="106"/>
-      <c r="J17" s="106"/>
-      <c r="K17" s="106"/>
-      <c r="L17" s="106"/>
-      <c r="M17" s="106"/>
-      <c r="N17" s="106"/>
-      <c r="O17" s="106"/>
-      <c r="P17" s="106"/>
+      <c r="B17" s="102"/>
+      <c r="C17" s="102"/>
+      <c r="D17" s="102"/>
+      <c r="E17" s="102"/>
+      <c r="F17" s="102"/>
+      <c r="G17" s="102"/>
+      <c r="H17" s="102"/>
+      <c r="I17" s="102"/>
+      <c r="J17" s="102"/>
+      <c r="K17" s="102"/>
+      <c r="L17" s="102"/>
+      <c r="M17" s="102"/>
+      <c r="N17" s="102"/>
+      <c r="O17" s="102"/>
+      <c r="P17" s="102"/>
       <c r="Q17" s="4"/>
       <c r="R17" s="41"/>
       <c r="S17" s="32"/>
@@ -4707,10 +4710,10 @@
         <f>B16+21</f>
         <v>43837</v>
       </c>
-      <c r="C18" s="99">
+      <c r="C18" s="120">
         <v>2</v>
       </c>
-      <c r="D18" s="102" t="s">
+      <c r="D18" s="123" t="s">
         <v>184</v>
       </c>
       <c r="E18" s="28">
@@ -4731,7 +4734,9 @@
       <c r="J18" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="K18" s="5"/>
+      <c r="K18" s="5" t="s">
+        <v>356</v>
+      </c>
       <c r="L18" s="5"/>
       <c r="M18" s="84" t="s">
         <v>270</v>
@@ -4760,8 +4765,8 @@
         <f>B18+7</f>
         <v>43844</v>
       </c>
-      <c r="C19" s="100"/>
-      <c r="D19" s="103"/>
+      <c r="C19" s="121"/>
+      <c r="D19" s="124"/>
       <c r="E19" s="28">
         <v>1</v>
       </c>
@@ -4809,8 +4814,8 @@
         <f t="shared" ref="B20:B40" si="2">B19+7</f>
         <v>43851</v>
       </c>
-      <c r="C20" s="100"/>
-      <c r="D20" s="103"/>
+      <c r="C20" s="121"/>
+      <c r="D20" s="124"/>
       <c r="E20" s="28">
         <v>2</v>
       </c>
@@ -4858,8 +4863,8 @@
         <f>B20+7</f>
         <v>43858</v>
       </c>
-      <c r="C21" s="101"/>
-      <c r="D21" s="104"/>
+      <c r="C21" s="122"/>
+      <c r="D21" s="125"/>
       <c r="E21" s="28">
         <v>2</v>
       </c>
@@ -4907,10 +4912,10 @@
         <f>B21+7</f>
         <v>43865</v>
       </c>
-      <c r="C22" s="118">
+      <c r="C22" s="106">
         <v>3</v>
       </c>
-      <c r="D22" s="115" t="s">
+      <c r="D22" s="103" t="s">
         <v>60</v>
       </c>
       <c r="E22" s="35">
@@ -4960,8 +4965,8 @@
         <f>B22+7</f>
         <v>43872</v>
       </c>
-      <c r="C23" s="119"/>
-      <c r="D23" s="116"/>
+      <c r="C23" s="107"/>
+      <c r="D23" s="104"/>
       <c r="E23" s="35">
         <v>2</v>
       </c>
@@ -5008,8 +5013,8 @@
         <f>B23+7</f>
         <v>43879</v>
       </c>
-      <c r="C24" s="120"/>
-      <c r="D24" s="117"/>
+      <c r="C24" s="108"/>
+      <c r="D24" s="105"/>
       <c r="E24" s="34">
         <v>2</v>
       </c>
@@ -5045,24 +5050,24 @@
       <c r="S24" s="33"/>
     </row>
     <row r="25" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="105" t="s">
+      <c r="A25" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="106"/>
-      <c r="C25" s="106"/>
-      <c r="D25" s="106"/>
-      <c r="E25" s="106"/>
-      <c r="F25" s="106"/>
-      <c r="G25" s="106"/>
-      <c r="H25" s="106"/>
-      <c r="I25" s="106"/>
-      <c r="J25" s="106"/>
-      <c r="K25" s="106"/>
-      <c r="L25" s="106"/>
-      <c r="M25" s="106"/>
-      <c r="N25" s="106"/>
-      <c r="O25" s="106"/>
-      <c r="P25" s="106"/>
+      <c r="B25" s="102"/>
+      <c r="C25" s="102"/>
+      <c r="D25" s="102"/>
+      <c r="E25" s="102"/>
+      <c r="F25" s="102"/>
+      <c r="G25" s="102"/>
+      <c r="H25" s="102"/>
+      <c r="I25" s="102"/>
+      <c r="J25" s="102"/>
+      <c r="K25" s="102"/>
+      <c r="L25" s="102"/>
+      <c r="M25" s="102"/>
+      <c r="N25" s="102"/>
+      <c r="O25" s="102"/>
+      <c r="P25" s="102"/>
       <c r="Q25" s="4"/>
       <c r="R25" s="50"/>
       <c r="S25" s="32"/>
@@ -5078,10 +5083,10 @@
         <f>B24+21</f>
         <v>43900</v>
       </c>
-      <c r="C26" s="118">
+      <c r="C26" s="106">
         <v>3</v>
       </c>
-      <c r="D26" s="115" t="s">
+      <c r="D26" s="103" t="s">
         <v>60</v>
       </c>
       <c r="E26" s="29">
@@ -5131,8 +5136,8 @@
         <f t="shared" si="2"/>
         <v>43907</v>
       </c>
-      <c r="C27" s="119"/>
-      <c r="D27" s="116"/>
+      <c r="C27" s="107"/>
+      <c r="D27" s="104"/>
       <c r="E27" s="35">
         <v>3</v>
       </c>
@@ -5177,8 +5182,8 @@
         <f t="shared" si="2"/>
         <v>43914</v>
       </c>
-      <c r="C28" s="119"/>
-      <c r="D28" s="116"/>
+      <c r="C28" s="107"/>
+      <c r="D28" s="104"/>
       <c r="E28" s="29">
         <v>4</v>
       </c>
@@ -5226,8 +5231,8 @@
         <f t="shared" si="2"/>
         <v>43921</v>
       </c>
-      <c r="C29" s="120"/>
-      <c r="D29" s="117"/>
+      <c r="C29" s="108"/>
+      <c r="D29" s="105"/>
       <c r="E29" s="35">
         <v>4</v>
       </c>
@@ -5273,10 +5278,10 @@
         <f t="shared" si="2"/>
         <v>43928</v>
       </c>
-      <c r="C30" s="121">
+      <c r="C30" s="109">
         <v>4</v>
       </c>
-      <c r="D30" s="123" t="s">
+      <c r="D30" s="111" t="s">
         <v>43</v>
       </c>
       <c r="E30" s="30">
@@ -5328,8 +5333,8 @@
         <f t="shared" si="2"/>
         <v>43935</v>
       </c>
-      <c r="C31" s="122"/>
-      <c r="D31" s="124"/>
+      <c r="C31" s="110"/>
+      <c r="D31" s="112"/>
       <c r="E31" s="30">
         <v>2</v>
       </c>
@@ -5370,24 +5375,24 @@
       <c r="X31" s="75"/>
     </row>
     <row r="32" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="113" t="s">
+      <c r="A32" s="99" t="s">
         <v>14</v>
       </c>
-      <c r="B32" s="114"/>
-      <c r="C32" s="114"/>
-      <c r="D32" s="114"/>
-      <c r="E32" s="114"/>
-      <c r="F32" s="114"/>
-      <c r="G32" s="114"/>
-      <c r="H32" s="114"/>
-      <c r="I32" s="114"/>
-      <c r="J32" s="114"/>
-      <c r="K32" s="114"/>
-      <c r="L32" s="114"/>
-      <c r="M32" s="114"/>
-      <c r="N32" s="114"/>
-      <c r="O32" s="114"/>
-      <c r="P32" s="114"/>
+      <c r="B32" s="100"/>
+      <c r="C32" s="100"/>
+      <c r="D32" s="100"/>
+      <c r="E32" s="100"/>
+      <c r="F32" s="100"/>
+      <c r="G32" s="100"/>
+      <c r="H32" s="100"/>
+      <c r="I32" s="100"/>
+      <c r="J32" s="100"/>
+      <c r="K32" s="100"/>
+      <c r="L32" s="100"/>
+      <c r="M32" s="100"/>
+      <c r="N32" s="100"/>
+      <c r="O32" s="100"/>
+      <c r="P32" s="100"/>
       <c r="Q32" s="47"/>
       <c r="R32" s="51"/>
       <c r="S32" s="32"/>
@@ -5403,10 +5408,10 @@
         <f>B31+21</f>
         <v>43956</v>
       </c>
-      <c r="C33" s="121">
+      <c r="C33" s="109">
         <v>4</v>
       </c>
-      <c r="D33" s="123" t="s">
+      <c r="D33" s="111" t="s">
         <v>43</v>
       </c>
       <c r="E33" s="30">
@@ -5451,8 +5456,8 @@
         <f t="shared" si="2"/>
         <v>43963</v>
       </c>
-      <c r="C34" s="126"/>
-      <c r="D34" s="125"/>
+      <c r="C34" s="114"/>
+      <c r="D34" s="113"/>
       <c r="E34" s="30">
         <v>3</v>
       </c>
@@ -5497,8 +5502,8 @@
         <f t="shared" si="2"/>
         <v>43970</v>
       </c>
-      <c r="C35" s="122"/>
-      <c r="D35" s="124"/>
+      <c r="C35" s="110"/>
+      <c r="D35" s="112"/>
       <c r="E35" s="30">
         <v>4</v>
       </c>
@@ -5542,10 +5547,10 @@
         <f t="shared" si="2"/>
         <v>43977</v>
       </c>
-      <c r="C36" s="129">
+      <c r="C36" s="117">
         <v>5</v>
       </c>
-      <c r="D36" s="127" t="s">
+      <c r="D36" s="115" t="s">
         <v>49</v>
       </c>
       <c r="E36" s="31">
@@ -5585,8 +5590,8 @@
         <f t="shared" si="2"/>
         <v>43984</v>
       </c>
-      <c r="C37" s="130"/>
-      <c r="D37" s="128"/>
+      <c r="C37" s="118"/>
+      <c r="D37" s="116"/>
       <c r="E37" s="31">
         <v>1</v>
       </c>
@@ -5626,8 +5631,8 @@
         <f t="shared" si="2"/>
         <v>43991</v>
       </c>
-      <c r="C38" s="130"/>
-      <c r="D38" s="128"/>
+      <c r="C38" s="118"/>
+      <c r="D38" s="116"/>
       <c r="E38" s="31">
         <v>1</v>
       </c>
@@ -5665,8 +5670,8 @@
         <f t="shared" si="2"/>
         <v>43998</v>
       </c>
-      <c r="C39" s="130"/>
-      <c r="D39" s="128"/>
+      <c r="C39" s="118"/>
+      <c r="D39" s="116"/>
       <c r="E39" s="31">
         <v>1</v>
       </c>
@@ -5704,8 +5709,8 @@
         <f t="shared" si="2"/>
         <v>44005</v>
       </c>
-      <c r="C40" s="131"/>
-      <c r="D40" s="128"/>
+      <c r="C40" s="119"/>
+      <c r="D40" s="116"/>
       <c r="E40" s="31">
         <v>1</v>
       </c>
@@ -5734,24 +5739,24 @@
       <c r="X40" s="75"/>
     </row>
     <row r="41" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="113" t="s">
+      <c r="A41" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="B41" s="114"/>
-      <c r="C41" s="114"/>
-      <c r="D41" s="114"/>
-      <c r="E41" s="114"/>
-      <c r="F41" s="114"/>
-      <c r="G41" s="114"/>
-      <c r="H41" s="114"/>
-      <c r="I41" s="114"/>
-      <c r="J41" s="114"/>
-      <c r="K41" s="114"/>
-      <c r="L41" s="114"/>
-      <c r="M41" s="114"/>
-      <c r="N41" s="114"/>
-      <c r="O41" s="114"/>
-      <c r="P41" s="114"/>
+      <c r="B41" s="100"/>
+      <c r="C41" s="100"/>
+      <c r="D41" s="100"/>
+      <c r="E41" s="100"/>
+      <c r="F41" s="100"/>
+      <c r="G41" s="100"/>
+      <c r="H41" s="100"/>
+      <c r="I41" s="100"/>
+      <c r="J41" s="100"/>
+      <c r="K41" s="100"/>
+      <c r="L41" s="100"/>
+      <c r="M41" s="100"/>
+      <c r="N41" s="100"/>
+      <c r="O41" s="100"/>
+      <c r="P41" s="100"/>
       <c r="Q41" s="47"/>
       <c r="R41" s="51"/>
       <c r="V41" s="70"/>
@@ -5820,6 +5825,14 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="A9:P9"/>
+    <mergeCell ref="A17:P17"/>
+    <mergeCell ref="C2:C8"/>
+    <mergeCell ref="D2:D8"/>
+    <mergeCell ref="D10:D16"/>
+    <mergeCell ref="C10:C16"/>
     <mergeCell ref="A41:P41"/>
     <mergeCell ref="A32:P32"/>
     <mergeCell ref="A25:P25"/>
@@ -5833,14 +5846,6 @@
     <mergeCell ref="C33:C35"/>
     <mergeCell ref="D36:D40"/>
     <mergeCell ref="C36:C40"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="D18:D21"/>
-    <mergeCell ref="A9:P9"/>
-    <mergeCell ref="A17:P17"/>
-    <mergeCell ref="C2:C8"/>
-    <mergeCell ref="D2:D8"/>
-    <mergeCell ref="D10:D16"/>
-    <mergeCell ref="C10:C16"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/progression_2019_2020_IPT_MPSI.xlsx
+++ b/progression_2019_2020_IPT_MPSI.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="359">
   <si>
     <t>Cours</t>
   </si>
@@ -1125,6 +1125,12 @@
   </si>
   <si>
     <t>algo/ALG-017;algo/ALG-018;python_bases/PYB-517</t>
+  </si>
+  <si>
+    <t>consignes/consignes_TP8;tableaux/TAB-027</t>
+  </si>
+  <si>
+    <t>Tableaux, fichiers et traitement d'images</t>
   </si>
 </sst>
 </file>
@@ -3597,7 +3603,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -3839,8 +3845,8 @@
   </sheetPr>
   <dimension ref="A1:X53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F2" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="26" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4732,17 +4738,19 @@
         <v>8</v>
       </c>
       <c r="J18" s="13" t="s">
-        <v>50</v>
+        <v>358</v>
       </c>
       <c r="K18" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="L18" s="5"/>
+      <c r="L18" s="5" t="s">
+        <v>357</v>
+      </c>
       <c r="M18" s="84" t="s">
         <v>270</v>
       </c>
-      <c r="N18" s="84" t="s">
-        <v>270</v>
+      <c r="N18" s="78" t="s">
+        <v>273</v>
       </c>
       <c r="O18" s="27"/>
       <c r="P18" s="43"/>
@@ -4783,15 +4791,15 @@
         <v>8</v>
       </c>
       <c r="J19" s="13" t="s">
-        <v>50</v>
+        <v>358</v>
       </c>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
       <c r="M19" s="84" t="s">
         <v>270</v>
       </c>
-      <c r="N19" s="84" t="s">
-        <v>270</v>
+      <c r="N19" s="78" t="s">
+        <v>273</v>
       </c>
       <c r="O19" s="27"/>
       <c r="P19" s="43"/>

--- a/progression_2019_2020_IPT_MPSI.xlsx
+++ b/progression_2019_2020_IPT_MPSI.xlsx
@@ -3845,7 +3845,7 @@
   </sheetPr>
   <dimension ref="A1:X53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>

--- a/progression_2019_2020_IPT_MPSI.xlsx
+++ b/progression_2019_2020_IPT_MPSI.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28109"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emiliendurif/Documents/prepa/MPSI/ipt_mpsi_lamartin/Informatique_MPSI/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Informatique_MPSI\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4EF6C4D-027E-4CEC-A7A1-4960725B62B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="23340" windowHeight="14620" activeTab="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planning DS" sheetId="16" r:id="rId1"/>
@@ -22,18 +23,19 @@
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Cycles MPSI IPT'!$A$3:$B$7</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Semanier MPSI IPT 2019-2020'!$A$18:$H$20</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
@@ -863,9 +865,6 @@
     <t>SN.C1; SN.C2; SN.C3; SN.C4; SN.C5; SN.S1; AN.S3</t>
   </si>
   <si>
-    <t>AN.C1; AN.C2; AN.S1; AN.S2; AN.S4</t>
-  </si>
-  <si>
     <t>AN.C3; AN.S1; AN.S2; AN.S4</t>
   </si>
   <si>
@@ -1131,13 +1130,16 @@
   </si>
   <si>
     <t>Tableaux, fichiers et traitement d'images</t>
+  </si>
+  <si>
+    <t>AN.C1; AN.C2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2507,18 +2509,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2568,42 +2606,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="7" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3282,13 +3284,13 @@
     <cellStyle name="Lien hypertexte visité" xfId="651" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="653" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 2 2" xfId="2"/>
-    <cellStyle name="Normal 3" xfId="3"/>
-    <cellStyle name="Normal 4" xfId="4"/>
-    <cellStyle name="Normal 4 2" xfId="5"/>
-    <cellStyle name="Normal 4 3" xfId="6"/>
-    <cellStyle name="Normal 5" xfId="7"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000087020000}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000088020000}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000089020000}"/>
+    <cellStyle name="Normal 4" xfId="4" xr:uid="{00000000-0005-0000-0000-00008A020000}"/>
+    <cellStyle name="Normal 4 2" xfId="5" xr:uid="{00000000-0005-0000-0000-00008B020000}"/>
+    <cellStyle name="Normal 4 3" xfId="6" xr:uid="{00000000-0005-0000-0000-00008C020000}"/>
+    <cellStyle name="Normal 5" xfId="7" xr:uid="{00000000-0005-0000-0000-00008D020000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -3600,79 +3602,79 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5"/>
   <cols>
-    <col min="3" max="3" width="14.33203125" customWidth="1"/>
-    <col min="4" max="4" width="13.1640625" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" customWidth="1"/>
-    <col min="6" max="6" width="16.5" customWidth="1"/>
+    <col min="3" max="3" width="14.36328125" customWidth="1"/>
+    <col min="4" max="4" width="13.1796875" customWidth="1"/>
+    <col min="5" max="5" width="13.81640625" customWidth="1"/>
+    <col min="6" max="6" width="16.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="13" thickBot="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="48" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:8" ht="62">
       <c r="A2" s="96">
         <v>1</v>
       </c>
       <c r="B2" s="85" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C2" s="86" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D2" s="86"/>
       <c r="E2" s="86"/>
       <c r="F2" s="86"/>
     </row>
-    <row r="3" spans="1:8" ht="78" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" ht="87.5">
       <c r="A3" s="97"/>
       <c r="B3" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4" s="97"/>
       <c r="B4" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="C4" s="42" t="s">
         <v>340</v>
-      </c>
-      <c r="C4" s="42" t="s">
-        <v>341</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="42"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="A5" s="97"/>
       <c r="B5" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C5" s="42">
         <v>1</v>
@@ -3681,10 +3683,10 @@
       <c r="E5" s="42"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:8" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="50" customHeight="1" thickBot="1">
       <c r="A6" s="98"/>
       <c r="B6" s="87" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C6" s="88">
         <v>43754</v>
@@ -3693,51 +3695,51 @@
       <c r="E6" s="88"/>
       <c r="F6" s="88"/>
     </row>
-    <row r="7" spans="1:8" ht="48" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" ht="62">
       <c r="A7" s="96">
         <v>2</v>
       </c>
       <c r="B7" s="89" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C7" s="86" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D7" s="86"/>
       <c r="E7" s="86"/>
       <c r="F7" s="86"/>
     </row>
-    <row r="8" spans="1:8" ht="39" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" ht="37.5">
       <c r="A8" s="97"/>
       <c r="B8" s="90" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C8" s="95" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D8" s="90"/>
       <c r="E8" s="90"/>
       <c r="F8" s="90"/>
     </row>
-    <row r="9" spans="1:8" ht="26" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" ht="25">
       <c r="A9" s="97"/>
       <c r="B9" s="90" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D9" s="90"/>
       <c r="E9" s="42"/>
       <c r="F9" s="90"/>
       <c r="H9" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="97"/>
       <c r="B10" s="90" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C10" s="42">
         <v>1</v>
@@ -3746,10 +3748,10 @@
       <c r="E10" s="42"/>
       <c r="F10" s="90"/>
     </row>
-    <row r="11" spans="1:8" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="50" customHeight="1" thickBot="1">
       <c r="A11" s="98"/>
       <c r="B11" s="91" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C11" s="88">
         <v>43798</v>
@@ -3758,51 +3760,51 @@
       <c r="E11" s="88"/>
       <c r="F11" s="88"/>
     </row>
-    <row r="12" spans="1:8" ht="48" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" ht="62">
       <c r="A12" s="96">
         <v>3</v>
       </c>
       <c r="B12" s="92" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C12" s="86" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D12" s="86"/>
       <c r="E12" s="86"/>
       <c r="F12" s="86"/>
     </row>
-    <row r="13" spans="1:8" ht="26" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" ht="25">
       <c r="A13" s="97"/>
       <c r="B13" s="93" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C13" s="93" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D13" s="93"/>
       <c r="E13" s="93"/>
       <c r="F13" s="93"/>
     </row>
-    <row r="14" spans="1:8" ht="26" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" ht="25">
       <c r="A14" s="97"/>
       <c r="B14" s="93" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C14" s="42" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D14" s="93"/>
       <c r="E14" s="42"/>
       <c r="F14" s="93"/>
       <c r="H14" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="97"/>
       <c r="B15" s="93" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C15" s="42">
         <v>1</v>
@@ -3811,10 +3813,10 @@
       <c r="E15" s="42"/>
       <c r="F15" s="93"/>
     </row>
-    <row r="16" spans="1:8" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="50" customHeight="1" thickBot="1">
       <c r="A16" s="98"/>
       <c r="B16" s="94" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C16" s="88">
         <v>43798</v>
@@ -3823,9 +3825,9 @@
       <c r="E16" s="88"/>
       <c r="F16" s="88"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -3839,39 +3841,39 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:X53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView tabSelected="1" topLeftCell="I11" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="26" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="26" customHeight="1"/>
   <cols>
-    <col min="1" max="3" width="10.83203125" style="1"/>
-    <col min="4" max="4" width="20.33203125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="10.81640625" style="1"/>
+    <col min="4" max="4" width="20.36328125" style="1" customWidth="1"/>
     <col min="5" max="5" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="37.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="37.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="37.33203125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="42.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="32.6640625" style="1" customWidth="1"/>
-    <col min="15" max="18" width="10.83203125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="41.33203125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="10.83203125" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.83203125" style="1"/>
-    <col min="22" max="22" width="10.83203125" style="1" customWidth="1"/>
-    <col min="23" max="24" width="58.5" style="74" customWidth="1"/>
-    <col min="25" max="16384" width="10.83203125" style="1"/>
+    <col min="6" max="6" width="37.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.6328125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="37.36328125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="5.453125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="37.36328125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="42.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="32.6328125" style="1" customWidth="1"/>
+    <col min="15" max="18" width="10.81640625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="41.36328125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="10.81640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.81640625" style="1"/>
+    <col min="22" max="22" width="10.81640625" style="1" customWidth="1"/>
+    <col min="23" max="24" width="58.453125" style="74" customWidth="1"/>
+    <col min="25" max="16384" width="10.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:24" ht="26" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>19</v>
       </c>
@@ -3909,10 +3911,10 @@
         <v>57</v>
       </c>
       <c r="M1" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>276</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>277</v>
       </c>
       <c r="O1" s="4" t="s">
         <v>13</v>
@@ -3921,7 +3923,7 @@
         <v>22</v>
       </c>
       <c r="Q1" s="41" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="R1" s="4" t="s">
         <v>63</v>
@@ -3930,17 +3932,17 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="32" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" ht="32" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="9">
         <v>43711</v>
       </c>
-      <c r="C2" s="126">
+      <c r="C2" s="107">
         <v>1</v>
       </c>
-      <c r="D2" s="129" t="s">
+      <c r="D2" s="110" t="s">
         <v>261</v>
       </c>
       <c r="E2" s="26">
@@ -3963,13 +3965,13 @@
       </c>
       <c r="K2" s="5"/>
       <c r="L2" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="M2" s="83" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="N2" s="83" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="O2" s="3"/>
       <c r="P2" s="42"/>
@@ -3980,13 +3982,13 @@
         <v>64</v>
       </c>
       <c r="S2" s="33" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="V2" s="70"/>
       <c r="W2" s="75"/>
       <c r="X2" s="75"/>
     </row>
-    <row r="3" spans="1:24" ht="32" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" ht="32" customHeight="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -3994,8 +3996,8 @@
         <f>B2+7</f>
         <v>43718</v>
       </c>
-      <c r="C3" s="127"/>
-      <c r="D3" s="130"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="111"/>
       <c r="E3" s="26">
         <v>2</v>
       </c>
@@ -4015,13 +4017,13 @@
         <v>27</v>
       </c>
       <c r="K3" s="82" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="M3" s="83" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="N3" s="83" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="O3" s="3"/>
       <c r="P3" s="42"/>
@@ -4032,13 +4034,13 @@
         <v>64</v>
       </c>
       <c r="S3" s="33" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="V3" s="70"/>
       <c r="W3" s="75"/>
       <c r="X3" s="75"/>
     </row>
-    <row r="4" spans="1:24" ht="56" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" ht="56" customHeight="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -4046,8 +4048,8 @@
         <f>B3+7</f>
         <v>43725</v>
       </c>
-      <c r="C4" s="127"/>
-      <c r="D4" s="130"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="111"/>
       <c r="E4" s="26">
         <v>2</v>
       </c>
@@ -4068,13 +4070,13 @@
       </c>
       <c r="K4" s="5"/>
       <c r="L4" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M4" s="73" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="N4" s="83" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="O4" s="3"/>
       <c r="P4" s="42"/>
@@ -4085,13 +4087,13 @@
         <v>64</v>
       </c>
       <c r="S4" s="33" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="V4" s="70"/>
       <c r="W4" s="75"/>
       <c r="X4" s="75"/>
     </row>
-    <row r="5" spans="1:24" ht="32" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" ht="32" customHeight="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -4099,8 +4101,8 @@
         <f t="shared" ref="B5:B8" si="0">B4+7</f>
         <v>43732</v>
       </c>
-      <c r="C5" s="127"/>
-      <c r="D5" s="130"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="111"/>
       <c r="E5" s="26">
         <v>3</v>
       </c>
@@ -4120,14 +4122,14 @@
         <v>34</v>
       </c>
       <c r="K5" s="82" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="L5" s="5"/>
       <c r="M5" s="73" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="N5" s="83" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="O5" s="3"/>
       <c r="P5" s="42"/>
@@ -4138,13 +4140,13 @@
         <v>64</v>
       </c>
       <c r="S5" s="33" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="V5" s="70"/>
       <c r="W5" s="75"/>
       <c r="X5" s="75"/>
     </row>
-    <row r="6" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" ht="26" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -4152,8 +4154,8 @@
         <f>B5+7</f>
         <v>43739</v>
       </c>
-      <c r="C6" s="127"/>
-      <c r="D6" s="130"/>
+      <c r="C6" s="108"/>
+      <c r="D6" s="111"/>
       <c r="E6" s="26">
         <v>4</v>
       </c>
@@ -4170,19 +4172,19 @@
         <v>3</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K6" s="82" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="L6" s="82" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="N6" s="83" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="O6" s="3"/>
       <c r="P6" s="42"/>
@@ -4193,13 +4195,13 @@
         <v>65</v>
       </c>
       <c r="S6" s="33" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="V6" s="70"/>
       <c r="W6" s="75"/>
       <c r="X6" s="75"/>
     </row>
-    <row r="7" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:24" ht="26" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -4207,8 +4209,8 @@
         <f t="shared" si="0"/>
         <v>43746</v>
       </c>
-      <c r="C7" s="127"/>
-      <c r="D7" s="130"/>
+      <c r="C7" s="108"/>
+      <c r="D7" s="111"/>
       <c r="E7" s="26">
         <v>4</v>
       </c>
@@ -4231,7 +4233,7 @@
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
       <c r="N7" s="83" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="O7" s="4"/>
       <c r="P7" s="36"/>
@@ -4242,13 +4244,13 @@
         <v>65</v>
       </c>
       <c r="S7" s="32" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="V7" s="70"/>
       <c r="W7" s="75"/>
       <c r="X7" s="75"/>
     </row>
-    <row r="8" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" ht="26" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -4256,8 +4258,8 @@
         <f t="shared" si="0"/>
         <v>43753</v>
       </c>
-      <c r="C8" s="128"/>
-      <c r="D8" s="131"/>
+      <c r="C8" s="109"/>
+      <c r="D8" s="112"/>
       <c r="E8" s="26">
         <v>5</v>
       </c>
@@ -4277,16 +4279,16 @@
         <v>28</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="L8" s="82" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="M8" s="78" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="N8" s="73" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O8" s="4"/>
       <c r="P8" s="36" t="s">
@@ -4303,25 +4305,25 @@
       <c r="W8" s="75"/>
       <c r="X8" s="75"/>
     </row>
-    <row r="9" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="101" t="s">
+    <row r="9" spans="1:24" ht="26" customHeight="1">
+      <c r="A9" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="102"/>
-      <c r="C9" s="102"/>
-      <c r="D9" s="102"/>
-      <c r="E9" s="102"/>
-      <c r="F9" s="102"/>
-      <c r="G9" s="102"/>
-      <c r="H9" s="102"/>
-      <c r="I9" s="102"/>
-      <c r="J9" s="102"/>
-      <c r="K9" s="102"/>
-      <c r="L9" s="102"/>
-      <c r="M9" s="102"/>
-      <c r="N9" s="102"/>
-      <c r="O9" s="102"/>
-      <c r="P9" s="102"/>
+      <c r="B9" s="106"/>
+      <c r="C9" s="106"/>
+      <c r="D9" s="106"/>
+      <c r="E9" s="106"/>
+      <c r="F9" s="106"/>
+      <c r="G9" s="106"/>
+      <c r="H9" s="106"/>
+      <c r="I9" s="106"/>
+      <c r="J9" s="106"/>
+      <c r="K9" s="106"/>
+      <c r="L9" s="106"/>
+      <c r="M9" s="106"/>
+      <c r="N9" s="106"/>
+      <c r="O9" s="106"/>
+      <c r="P9" s="106"/>
       <c r="Q9" s="4"/>
       <c r="R9" s="41"/>
       <c r="S9" s="32"/>
@@ -4329,7 +4331,7 @@
       <c r="W9" s="75"/>
       <c r="X9" s="75"/>
     </row>
-    <row r="10" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:24" ht="26" customHeight="1">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -4337,10 +4339,10 @@
         <f>B8+21</f>
         <v>43774</v>
       </c>
-      <c r="C10" s="126">
+      <c r="C10" s="107">
         <v>1</v>
       </c>
-      <c r="D10" s="129" t="s">
+      <c r="D10" s="110" t="s">
         <v>261</v>
       </c>
       <c r="E10" s="26">
@@ -4364,10 +4366,10 @@
       <c r="K10" s="5"/>
       <c r="L10" s="82"/>
       <c r="M10" s="78" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="N10" s="73" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O10" s="3"/>
       <c r="P10" s="42"/>
@@ -4382,7 +4384,7 @@
       <c r="W10" s="75"/>
       <c r="X10" s="75"/>
     </row>
-    <row r="11" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" ht="26" customHeight="1">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -4390,8 +4392,8 @@
         <f t="shared" ref="B11:B16" si="1">B10+7</f>
         <v>43781</v>
       </c>
-      <c r="C11" s="127"/>
-      <c r="D11" s="130"/>
+      <c r="C11" s="108"/>
+      <c r="D11" s="111"/>
       <c r="E11" s="26">
         <v>6</v>
       </c>
@@ -4411,13 +4413,13 @@
         <v>36</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L11" s="82" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="M11" s="78" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="N11" s="5"/>
       <c r="O11" s="3"/>
@@ -4433,7 +4435,7 @@
       <c r="W11" s="75"/>
       <c r="X11" s="75"/>
     </row>
-    <row r="12" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:24" ht="26" customHeight="1">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -4441,8 +4443,8 @@
         <f t="shared" si="1"/>
         <v>43788</v>
       </c>
-      <c r="C12" s="127"/>
-      <c r="D12" s="130"/>
+      <c r="C12" s="108"/>
+      <c r="D12" s="111"/>
       <c r="E12" s="26">
         <v>6</v>
       </c>
@@ -4464,7 +4466,7 @@
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
       <c r="M12" s="78" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="N12" s="5"/>
       <c r="O12" s="3"/>
@@ -4479,7 +4481,7 @@
       <c r="W12" s="75"/>
       <c r="X12" s="75"/>
     </row>
-    <row r="13" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" ht="26" customHeight="1">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -4487,8 +4489,8 @@
         <f t="shared" si="1"/>
         <v>43795</v>
       </c>
-      <c r="C13" s="127"/>
-      <c r="D13" s="130"/>
+      <c r="C13" s="108"/>
+      <c r="D13" s="111"/>
       <c r="E13" s="26">
         <v>7</v>
       </c>
@@ -4505,19 +4507,19 @@
         <v>6</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="K13" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="L13" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="L13" s="5" t="s">
-        <v>350</v>
-      </c>
       <c r="M13" s="78" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="N13" s="27" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="O13" s="3"/>
       <c r="P13" s="42"/>
@@ -4525,14 +4527,14 @@
         <v>59</v>
       </c>
       <c r="R13" s="48" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="S13" s="33"/>
       <c r="V13" s="70"/>
       <c r="W13" s="75"/>
       <c r="X13" s="75"/>
     </row>
-    <row r="14" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:24" ht="26" customHeight="1">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -4540,8 +4542,8 @@
         <f t="shared" si="1"/>
         <v>43802</v>
       </c>
-      <c r="C14" s="127"/>
-      <c r="D14" s="130"/>
+      <c r="C14" s="108"/>
+      <c r="D14" s="111"/>
       <c r="E14" s="26">
         <v>7</v>
       </c>
@@ -4558,15 +4560,15 @@
         <v>6</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
       <c r="M14" s="78" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="N14" s="27" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="O14" s="3"/>
       <c r="P14" s="42"/>
@@ -4574,13 +4576,13 @@
         <v>59</v>
       </c>
       <c r="R14" s="48" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="V14" s="70"/>
       <c r="W14" s="75"/>
       <c r="X14" s="75"/>
     </row>
-    <row r="15" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" ht="26" customHeight="1">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -4588,8 +4590,8 @@
         <f t="shared" si="1"/>
         <v>43809</v>
       </c>
-      <c r="C15" s="127"/>
-      <c r="D15" s="130"/>
+      <c r="C15" s="108"/>
+      <c r="D15" s="111"/>
       <c r="E15" s="26">
         <v>8</v>
       </c>
@@ -4609,14 +4611,14 @@
         <v>32</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="L15" s="5"/>
       <c r="M15" s="83" t="s">
         <v>268</v>
       </c>
       <c r="N15" s="78" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="O15" s="4" t="s">
         <v>52</v>
@@ -4633,7 +4635,7 @@
       <c r="W15" s="75"/>
       <c r="X15" s="75"/>
     </row>
-    <row r="16" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:24" ht="26" customHeight="1">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -4641,8 +4643,8 @@
         <f t="shared" si="1"/>
         <v>43816</v>
       </c>
-      <c r="C16" s="128"/>
-      <c r="D16" s="131"/>
+      <c r="C16" s="109"/>
+      <c r="D16" s="112"/>
       <c r="E16" s="26">
         <v>8</v>
       </c>
@@ -4667,7 +4669,7 @@
         <v>268</v>
       </c>
       <c r="N16" s="78" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="O16" s="3"/>
       <c r="P16" s="36"/>
@@ -4682,25 +4684,25 @@
       <c r="W16" s="75"/>
       <c r="X16" s="75"/>
     </row>
-    <row r="17" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="101" t="s">
+    <row r="17" spans="1:24" ht="26" customHeight="1">
+      <c r="A17" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="102"/>
-      <c r="C17" s="102"/>
-      <c r="D17" s="102"/>
-      <c r="E17" s="102"/>
-      <c r="F17" s="102"/>
-      <c r="G17" s="102"/>
-      <c r="H17" s="102"/>
-      <c r="I17" s="102"/>
-      <c r="J17" s="102"/>
-      <c r="K17" s="102"/>
-      <c r="L17" s="102"/>
-      <c r="M17" s="102"/>
-      <c r="N17" s="102"/>
-      <c r="O17" s="102"/>
-      <c r="P17" s="102"/>
+      <c r="B17" s="106"/>
+      <c r="C17" s="106"/>
+      <c r="D17" s="106"/>
+      <c r="E17" s="106"/>
+      <c r="F17" s="106"/>
+      <c r="G17" s="106"/>
+      <c r="H17" s="106"/>
+      <c r="I17" s="106"/>
+      <c r="J17" s="106"/>
+      <c r="K17" s="106"/>
+      <c r="L17" s="106"/>
+      <c r="M17" s="106"/>
+      <c r="N17" s="106"/>
+      <c r="O17" s="106"/>
+      <c r="P17" s="106"/>
       <c r="Q17" s="4"/>
       <c r="R17" s="41"/>
       <c r="S17" s="32"/>
@@ -4708,7 +4710,7 @@
       <c r="W17" s="75"/>
       <c r="X17" s="75"/>
     </row>
-    <row r="18" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" ht="26" customHeight="1">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -4716,10 +4718,10 @@
         <f>B16+21</f>
         <v>43837</v>
       </c>
-      <c r="C18" s="120">
+      <c r="C18" s="99">
         <v>2</v>
       </c>
-      <c r="D18" s="123" t="s">
+      <c r="D18" s="102" t="s">
         <v>184</v>
       </c>
       <c r="E18" s="28">
@@ -4738,19 +4740,19 @@
         <v>8</v>
       </c>
       <c r="J18" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="M18" s="84" t="s">
         <v>358</v>
       </c>
-      <c r="K18" s="5" t="s">
-        <v>356</v>
-      </c>
-      <c r="L18" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="M18" s="84" t="s">
-        <v>270</v>
-      </c>
       <c r="N18" s="78" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="O18" s="27"/>
       <c r="P18" s="43"/>
@@ -4765,7 +4767,7 @@
       <c r="W18" s="75"/>
       <c r="X18" s="75"/>
     </row>
-    <row r="19" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" ht="26" customHeight="1">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -4773,8 +4775,8 @@
         <f>B18+7</f>
         <v>43844</v>
       </c>
-      <c r="C19" s="121"/>
-      <c r="D19" s="124"/>
+      <c r="C19" s="100"/>
+      <c r="D19" s="103"/>
       <c r="E19" s="28">
         <v>1</v>
       </c>
@@ -4791,15 +4793,15 @@
         <v>8</v>
       </c>
       <c r="J19" s="13" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
       <c r="M19" s="84" t="s">
-        <v>270</v>
+        <v>358</v>
       </c>
       <c r="N19" s="78" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="O19" s="27"/>
       <c r="P19" s="43"/>
@@ -4814,7 +4816,7 @@
       <c r="W19" s="75"/>
       <c r="X19" s="75"/>
     </row>
-    <row r="20" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" ht="26" customHeight="1">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -4822,8 +4824,8 @@
         <f t="shared" ref="B20:B40" si="2">B19+7</f>
         <v>43851</v>
       </c>
-      <c r="C20" s="121"/>
-      <c r="D20" s="124"/>
+      <c r="C20" s="100"/>
+      <c r="D20" s="103"/>
       <c r="E20" s="28">
         <v>2</v>
       </c>
@@ -4845,10 +4847,10 @@
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
       <c r="M20" s="73" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="N20" s="73" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="O20" s="3"/>
       <c r="P20" s="42"/>
@@ -4863,7 +4865,7 @@
       <c r="W20" s="75"/>
       <c r="X20" s="75"/>
     </row>
-    <row r="21" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" ht="26" customHeight="1">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -4871,8 +4873,8 @@
         <f>B20+7</f>
         <v>43858</v>
       </c>
-      <c r="C21" s="122"/>
-      <c r="D21" s="125"/>
+      <c r="C21" s="101"/>
+      <c r="D21" s="104"/>
       <c r="E21" s="28">
         <v>2</v>
       </c>
@@ -4894,10 +4896,10 @@
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
       <c r="M21" s="73" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="N21" s="73" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="O21" s="3"/>
       <c r="P21" s="42"/>
@@ -4912,7 +4914,7 @@
       <c r="W21" s="75"/>
       <c r="X21" s="75"/>
     </row>
-    <row r="22" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:24" ht="26" customHeight="1">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -4920,10 +4922,10 @@
         <f>B21+7</f>
         <v>43865</v>
       </c>
-      <c r="C22" s="106">
+      <c r="C22" s="118">
         <v>3</v>
       </c>
-      <c r="D22" s="103" t="s">
+      <c r="D22" s="115" t="s">
         <v>60</v>
       </c>
       <c r="E22" s="35">
@@ -4965,7 +4967,7 @@
       <c r="W22" s="75"/>
       <c r="X22" s="75"/>
     </row>
-    <row r="23" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" ht="26" customHeight="1">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -4973,8 +4975,8 @@
         <f>B22+7</f>
         <v>43872</v>
       </c>
-      <c r="C23" s="107"/>
-      <c r="D23" s="104"/>
+      <c r="C23" s="119"/>
+      <c r="D23" s="116"/>
       <c r="E23" s="35">
         <v>2</v>
       </c>
@@ -5013,7 +5015,7 @@
       </c>
       <c r="S23" s="33"/>
     </row>
-    <row r="24" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" ht="26" customHeight="1">
       <c r="A24" s="1">
         <v>19</v>
       </c>
@@ -5021,8 +5023,8 @@
         <f>B23+7</f>
         <v>43879</v>
       </c>
-      <c r="C24" s="108"/>
-      <c r="D24" s="105"/>
+      <c r="C24" s="120"/>
+      <c r="D24" s="117"/>
       <c r="E24" s="34">
         <v>2</v>
       </c>
@@ -5057,25 +5059,25 @@
       </c>
       <c r="S24" s="33"/>
     </row>
-    <row r="25" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="101" t="s">
+    <row r="25" spans="1:24" ht="26" customHeight="1">
+      <c r="A25" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="102"/>
-      <c r="C25" s="102"/>
-      <c r="D25" s="102"/>
-      <c r="E25" s="102"/>
-      <c r="F25" s="102"/>
-      <c r="G25" s="102"/>
-      <c r="H25" s="102"/>
-      <c r="I25" s="102"/>
-      <c r="J25" s="102"/>
-      <c r="K25" s="102"/>
-      <c r="L25" s="102"/>
-      <c r="M25" s="102"/>
-      <c r="N25" s="102"/>
-      <c r="O25" s="102"/>
-      <c r="P25" s="102"/>
+      <c r="B25" s="106"/>
+      <c r="C25" s="106"/>
+      <c r="D25" s="106"/>
+      <c r="E25" s="106"/>
+      <c r="F25" s="106"/>
+      <c r="G25" s="106"/>
+      <c r="H25" s="106"/>
+      <c r="I25" s="106"/>
+      <c r="J25" s="106"/>
+      <c r="K25" s="106"/>
+      <c r="L25" s="106"/>
+      <c r="M25" s="106"/>
+      <c r="N25" s="106"/>
+      <c r="O25" s="106"/>
+      <c r="P25" s="106"/>
       <c r="Q25" s="4"/>
       <c r="R25" s="50"/>
       <c r="S25" s="32"/>
@@ -5083,7 +5085,7 @@
       <c r="W25" s="75"/>
       <c r="X25" s="75"/>
     </row>
-    <row r="26" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:24" ht="26" customHeight="1">
       <c r="A26" s="1">
         <v>19</v>
       </c>
@@ -5091,10 +5093,10 @@
         <f>B24+21</f>
         <v>43900</v>
       </c>
-      <c r="C26" s="106">
+      <c r="C26" s="118">
         <v>3</v>
       </c>
-      <c r="D26" s="103" t="s">
+      <c r="D26" s="115" t="s">
         <v>60</v>
       </c>
       <c r="E26" s="29">
@@ -5136,7 +5138,7 @@
       <c r="W26" s="75"/>
       <c r="X26" s="75"/>
     </row>
-    <row r="27" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" ht="26" customHeight="1">
       <c r="A27" s="1">
         <v>20</v>
       </c>
@@ -5144,8 +5146,8 @@
         <f t="shared" si="2"/>
         <v>43907</v>
       </c>
-      <c r="C27" s="107"/>
-      <c r="D27" s="104"/>
+      <c r="C27" s="119"/>
+      <c r="D27" s="116"/>
       <c r="E27" s="35">
         <v>3</v>
       </c>
@@ -5182,7 +5184,7 @@
       <c r="W27" s="75"/>
       <c r="X27" s="75"/>
     </row>
-    <row r="28" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:24" ht="26" customHeight="1">
       <c r="A28" s="1">
         <v>21</v>
       </c>
@@ -5190,8 +5192,8 @@
         <f t="shared" si="2"/>
         <v>43914</v>
       </c>
-      <c r="C28" s="107"/>
-      <c r="D28" s="104"/>
+      <c r="C28" s="119"/>
+      <c r="D28" s="116"/>
       <c r="E28" s="29">
         <v>4</v>
       </c>
@@ -5231,7 +5233,7 @@
       <c r="W28" s="75"/>
       <c r="X28" s="75"/>
     </row>
-    <row r="29" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" ht="26" customHeight="1">
       <c r="A29" s="1">
         <v>22</v>
       </c>
@@ -5239,8 +5241,8 @@
         <f t="shared" si="2"/>
         <v>43921</v>
       </c>
-      <c r="C29" s="108"/>
-      <c r="D29" s="105"/>
+      <c r="C29" s="120"/>
+      <c r="D29" s="117"/>
       <c r="E29" s="35">
         <v>4</v>
       </c>
@@ -5278,7 +5280,7 @@
       <c r="W29" s="75"/>
       <c r="X29" s="75"/>
     </row>
-    <row r="30" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:24" ht="26" customHeight="1">
       <c r="A30" s="1">
         <v>23</v>
       </c>
@@ -5286,10 +5288,10 @@
         <f t="shared" si="2"/>
         <v>43928</v>
       </c>
-      <c r="C30" s="109">
+      <c r="C30" s="121">
         <v>4</v>
       </c>
-      <c r="D30" s="111" t="s">
+      <c r="D30" s="123" t="s">
         <v>43</v>
       </c>
       <c r="E30" s="30">
@@ -5333,7 +5335,7 @@
       <c r="W30" s="75"/>
       <c r="X30" s="75"/>
     </row>
-    <row r="31" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:24" ht="26" customHeight="1">
       <c r="A31" s="1">
         <v>24</v>
       </c>
@@ -5341,8 +5343,8 @@
         <f t="shared" si="2"/>
         <v>43935</v>
       </c>
-      <c r="C31" s="110"/>
-      <c r="D31" s="112"/>
+      <c r="C31" s="122"/>
+      <c r="D31" s="124"/>
       <c r="E31" s="30">
         <v>2</v>
       </c>
@@ -5382,25 +5384,25 @@
       <c r="W31" s="75"/>
       <c r="X31" s="75"/>
     </row>
-    <row r="32" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="99" t="s">
+    <row r="32" spans="1:24" ht="26" customHeight="1">
+      <c r="A32" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="B32" s="100"/>
-      <c r="C32" s="100"/>
-      <c r="D32" s="100"/>
-      <c r="E32" s="100"/>
-      <c r="F32" s="100"/>
-      <c r="G32" s="100"/>
-      <c r="H32" s="100"/>
-      <c r="I32" s="100"/>
-      <c r="J32" s="100"/>
-      <c r="K32" s="100"/>
-      <c r="L32" s="100"/>
-      <c r="M32" s="100"/>
-      <c r="N32" s="100"/>
-      <c r="O32" s="100"/>
-      <c r="P32" s="100"/>
+      <c r="B32" s="114"/>
+      <c r="C32" s="114"/>
+      <c r="D32" s="114"/>
+      <c r="E32" s="114"/>
+      <c r="F32" s="114"/>
+      <c r="G32" s="114"/>
+      <c r="H32" s="114"/>
+      <c r="I32" s="114"/>
+      <c r="J32" s="114"/>
+      <c r="K32" s="114"/>
+      <c r="L32" s="114"/>
+      <c r="M32" s="114"/>
+      <c r="N32" s="114"/>
+      <c r="O32" s="114"/>
+      <c r="P32" s="114"/>
       <c r="Q32" s="47"/>
       <c r="R32" s="51"/>
       <c r="S32" s="32"/>
@@ -5408,7 +5410,7 @@
       <c r="W32" s="75"/>
       <c r="X32" s="75"/>
     </row>
-    <row r="33" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" ht="26" customHeight="1">
       <c r="A33" s="1">
         <v>25</v>
       </c>
@@ -5416,10 +5418,10 @@
         <f>B31+21</f>
         <v>43956</v>
       </c>
-      <c r="C33" s="109">
+      <c r="C33" s="121">
         <v>4</v>
       </c>
-      <c r="D33" s="111" t="s">
+      <c r="D33" s="123" t="s">
         <v>43</v>
       </c>
       <c r="E33" s="30">
@@ -5456,7 +5458,7 @@
       </c>
       <c r="S33" s="33"/>
     </row>
-    <row r="34" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:24" ht="26" customHeight="1">
       <c r="A34" s="1">
         <v>26</v>
       </c>
@@ -5464,8 +5466,8 @@
         <f t="shared" si="2"/>
         <v>43963</v>
       </c>
-      <c r="C34" s="114"/>
-      <c r="D34" s="113"/>
+      <c r="C34" s="126"/>
+      <c r="D34" s="125"/>
       <c r="E34" s="30">
         <v>3</v>
       </c>
@@ -5502,7 +5504,7 @@
       </c>
       <c r="S34" s="32"/>
     </row>
-    <row r="35" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:24" ht="26" customHeight="1">
       <c r="A35" s="1">
         <v>27</v>
       </c>
@@ -5510,8 +5512,8 @@
         <f t="shared" si="2"/>
         <v>43970</v>
       </c>
-      <c r="C35" s="110"/>
-      <c r="D35" s="112"/>
+      <c r="C35" s="122"/>
+      <c r="D35" s="124"/>
       <c r="E35" s="30">
         <v>4</v>
       </c>
@@ -5547,7 +5549,7 @@
       </c>
       <c r="S35" s="46"/>
     </row>
-    <row r="36" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:24" ht="26" customHeight="1">
       <c r="A36" s="1">
         <v>28</v>
       </c>
@@ -5555,10 +5557,10 @@
         <f t="shared" si="2"/>
         <v>43977</v>
       </c>
-      <c r="C36" s="117">
+      <c r="C36" s="129">
         <v>5</v>
       </c>
-      <c r="D36" s="115" t="s">
+      <c r="D36" s="127" t="s">
         <v>49</v>
       </c>
       <c r="E36" s="31">
@@ -5590,7 +5592,7 @@
       <c r="W36" s="75"/>
       <c r="X36" s="75"/>
     </row>
-    <row r="37" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:24" ht="26" customHeight="1">
       <c r="A37" s="1">
         <v>29</v>
       </c>
@@ -5598,8 +5600,8 @@
         <f t="shared" si="2"/>
         <v>43984</v>
       </c>
-      <c r="C37" s="118"/>
-      <c r="D37" s="116"/>
+      <c r="C37" s="130"/>
+      <c r="D37" s="128"/>
       <c r="E37" s="31">
         <v>1</v>
       </c>
@@ -5631,7 +5633,7 @@
       <c r="W37" s="75"/>
       <c r="X37" s="75"/>
     </row>
-    <row r="38" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24" ht="26" customHeight="1">
       <c r="A38" s="1">
         <v>30</v>
       </c>
@@ -5639,8 +5641,8 @@
         <f t="shared" si="2"/>
         <v>43991</v>
       </c>
-      <c r="C38" s="118"/>
-      <c r="D38" s="116"/>
+      <c r="C38" s="130"/>
+      <c r="D38" s="128"/>
       <c r="E38" s="31">
         <v>1</v>
       </c>
@@ -5670,7 +5672,7 @@
       <c r="W38" s="75"/>
       <c r="X38" s="75"/>
     </row>
-    <row r="39" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:24" ht="26" customHeight="1">
       <c r="A39" s="1">
         <v>31</v>
       </c>
@@ -5678,8 +5680,8 @@
         <f t="shared" si="2"/>
         <v>43998</v>
       </c>
-      <c r="C39" s="118"/>
-      <c r="D39" s="116"/>
+      <c r="C39" s="130"/>
+      <c r="D39" s="128"/>
       <c r="E39" s="31">
         <v>1</v>
       </c>
@@ -5709,7 +5711,7 @@
       <c r="W39" s="75"/>
       <c r="X39" s="75"/>
     </row>
-    <row r="40" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:24" ht="26" customHeight="1">
       <c r="A40" s="1">
         <v>32</v>
       </c>
@@ -5717,8 +5719,8 @@
         <f t="shared" si="2"/>
         <v>44005</v>
       </c>
-      <c r="C40" s="119"/>
-      <c r="D40" s="116"/>
+      <c r="C40" s="131"/>
+      <c r="D40" s="128"/>
       <c r="E40" s="31">
         <v>1</v>
       </c>
@@ -5746,101 +5748,93 @@
       <c r="W40" s="75"/>
       <c r="X40" s="75"/>
     </row>
-    <row r="41" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="99" t="s">
+    <row r="41" spans="1:24" ht="26" customHeight="1">
+      <c r="A41" s="113" t="s">
         <v>15</v>
       </c>
-      <c r="B41" s="100"/>
-      <c r="C41" s="100"/>
-      <c r="D41" s="100"/>
-      <c r="E41" s="100"/>
-      <c r="F41" s="100"/>
-      <c r="G41" s="100"/>
-      <c r="H41" s="100"/>
-      <c r="I41" s="100"/>
-      <c r="J41" s="100"/>
-      <c r="K41" s="100"/>
-      <c r="L41" s="100"/>
-      <c r="M41" s="100"/>
-      <c r="N41" s="100"/>
-      <c r="O41" s="100"/>
-      <c r="P41" s="100"/>
+      <c r="B41" s="114"/>
+      <c r="C41" s="114"/>
+      <c r="D41" s="114"/>
+      <c r="E41" s="114"/>
+      <c r="F41" s="114"/>
+      <c r="G41" s="114"/>
+      <c r="H41" s="114"/>
+      <c r="I41" s="114"/>
+      <c r="J41" s="114"/>
+      <c r="K41" s="114"/>
+      <c r="L41" s="114"/>
+      <c r="M41" s="114"/>
+      <c r="N41" s="114"/>
+      <c r="O41" s="114"/>
+      <c r="P41" s="114"/>
       <c r="Q41" s="47"/>
       <c r="R41" s="51"/>
       <c r="V41" s="70"/>
       <c r="W41" s="75"/>
       <c r="X41" s="75"/>
     </row>
-    <row r="42" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:24" ht="26" customHeight="1">
       <c r="V42" s="70"/>
       <c r="W42" s="75"/>
       <c r="X42" s="75"/>
     </row>
-    <row r="43" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:24" ht="26" customHeight="1">
       <c r="V43" s="70"/>
       <c r="W43" s="75"/>
       <c r="X43" s="75"/>
     </row>
-    <row r="44" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:24" ht="26" customHeight="1">
       <c r="V44" s="70"/>
       <c r="W44" s="75"/>
       <c r="X44" s="75"/>
     </row>
-    <row r="45" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:24" ht="26" customHeight="1">
       <c r="V45" s="70"/>
       <c r="W45" s="75"/>
       <c r="X45" s="75"/>
     </row>
-    <row r="46" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:24" ht="26" customHeight="1">
       <c r="V46" s="70"/>
       <c r="W46" s="75"/>
       <c r="X46" s="75"/>
     </row>
-    <row r="47" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:24" ht="26" customHeight="1">
       <c r="V47" s="70"/>
       <c r="W47" s="75"/>
       <c r="X47" s="75"/>
     </row>
-    <row r="48" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:24" ht="26" customHeight="1">
       <c r="V48" s="70"/>
       <c r="W48" s="75"/>
       <c r="X48" s="75"/>
     </row>
-    <row r="49" spans="22:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="22:24" ht="26" customHeight="1">
       <c r="V49" s="70"/>
       <c r="W49" s="75"/>
       <c r="X49" s="75"/>
     </row>
-    <row r="50" spans="22:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="22:24" ht="26" customHeight="1">
       <c r="V50" s="70"/>
       <c r="W50" s="75"/>
       <c r="X50" s="75"/>
     </row>
-    <row r="51" spans="22:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="22:24" ht="26" customHeight="1">
       <c r="V51" s="70"/>
       <c r="W51" s="75"/>
       <c r="X51" s="75"/>
     </row>
-    <row r="52" spans="22:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="22:24" ht="26" customHeight="1">
       <c r="V52" s="70"/>
       <c r="W52" s="75"/>
       <c r="X52" s="75"/>
     </row>
-    <row r="53" spans="22:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="22:24" ht="26" customHeight="1">
       <c r="V53" s="70"/>
       <c r="W53" s="75"/>
       <c r="X53" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="D18:D21"/>
-    <mergeCell ref="A9:P9"/>
-    <mergeCell ref="A17:P17"/>
-    <mergeCell ref="C2:C8"/>
-    <mergeCell ref="D2:D8"/>
-    <mergeCell ref="D10:D16"/>
-    <mergeCell ref="C10:C16"/>
     <mergeCell ref="A41:P41"/>
     <mergeCell ref="A32:P32"/>
     <mergeCell ref="A25:P25"/>
@@ -5854,6 +5848,14 @@
     <mergeCell ref="C33:C35"/>
     <mergeCell ref="D36:D40"/>
     <mergeCell ref="C36:C40"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="A9:P9"/>
+    <mergeCell ref="A17:P17"/>
+    <mergeCell ref="C2:C8"/>
+    <mergeCell ref="D2:D8"/>
+    <mergeCell ref="D10:D16"/>
+    <mergeCell ref="C10:C16"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5862,22 +5864,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="2"/>
-    <col min="2" max="2" width="70.5" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="10.81640625" style="2"/>
+    <col min="2" max="2" width="70.453125" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="10.81640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="2" spans="1:2" ht="32" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" ht="21" customHeight="1"/>
+    <row r="2" spans="1:2" ht="31">
       <c r="A2" s="8" t="s">
         <v>4</v>
       </c>
@@ -5885,7 +5887,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="38" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" ht="38" customHeight="1">
       <c r="A3" s="10" t="s">
         <v>3</v>
       </c>
@@ -5893,7 +5895,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="38" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" ht="38" customHeight="1">
       <c r="A4" s="22" t="s">
         <v>54</v>
       </c>
@@ -5901,7 +5903,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="38" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2" ht="38" customHeight="1">
       <c r="A5" s="23" t="s">
         <v>55</v>
       </c>
@@ -5909,7 +5911,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="38" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2" ht="38" customHeight="1">
       <c r="A6" s="24" t="s">
         <v>6</v>
       </c>
@@ -5917,7 +5919,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="38" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" ht="38" customHeight="1">
       <c r="A7" s="25" t="s">
         <v>7</v>
       </c>
@@ -5933,22 +5935,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C68"/>
   <sheetViews>
     <sheetView topLeftCell="A12" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="70"/>
-    <col min="2" max="2" width="108.5" style="71" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="100.5" style="71" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="70"/>
+    <col min="1" max="1" width="10.81640625" style="70"/>
+    <col min="2" max="2" width="108.453125" style="71" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="100.453125" style="71" customWidth="1"/>
+    <col min="4" max="16384" width="10.81640625" style="70"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" s="70" t="s">
         <v>241</v>
       </c>
@@ -5959,51 +5961,51 @@
         <v>243</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3">
       <c r="A2" s="70" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B2" s="71" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C2" s="71" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="24" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" ht="24">
       <c r="A3" s="70" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B3" s="71" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C3" s="71" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="24" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" ht="24">
       <c r="A4" s="70" t="s">
         <v>205</v>
       </c>
       <c r="B4" s="71" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C4" s="71" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3">
       <c r="A5" s="70" t="s">
         <v>206</v>
       </c>
       <c r="B5" s="71" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C5" s="71" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3">
       <c r="A7" s="70" t="s">
         <v>187</v>
       </c>
@@ -6014,7 +6016,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3">
       <c r="A8" s="70" t="s">
         <v>188</v>
       </c>
@@ -6025,7 +6027,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3">
       <c r="A9" s="70" t="s">
         <v>207</v>
       </c>
@@ -6036,7 +6038,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3">
       <c r="A10" s="70" t="s">
         <v>208</v>
       </c>
@@ -6047,28 +6049,28 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3">
       <c r="A11" s="70" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" s="70" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" s="70" t="s">
         <v>189</v>
       </c>
       <c r="B13" s="71" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C13" s="71" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" s="70" t="s">
         <v>190</v>
       </c>
@@ -6079,7 +6081,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3">
       <c r="A15" s="70" t="s">
         <v>191</v>
       </c>
@@ -6090,18 +6092,18 @@
         <v>98</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3">
       <c r="A16" s="70" t="s">
         <v>199</v>
       </c>
       <c r="B16" s="71" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C16" s="71" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="70" t="s">
         <v>201</v>
       </c>
@@ -6112,40 +6114,40 @@
         <v>102</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3">
       <c r="A18" s="70" t="s">
         <v>192</v>
       </c>
       <c r="B18" s="71" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C18" s="71" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="70" t="s">
         <v>193</v>
       </c>
       <c r="B19" s="71" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C19" s="71" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="70" t="s">
         <v>194</v>
       </c>
       <c r="B20" s="71" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C20" s="71" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="70" t="s">
         <v>195</v>
       </c>
@@ -6156,72 +6158,72 @@
         <v>109</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="24" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3" ht="24">
       <c r="A22" s="70" t="s">
         <v>196</v>
       </c>
       <c r="B22" s="71" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C22" s="71" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3">
       <c r="A23" s="70" t="s">
         <v>197</v>
       </c>
       <c r="B23" s="71" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C23" s="71" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" s="70" t="s">
         <v>198</v>
       </c>
       <c r="B24" s="71" t="s">
+        <v>293</v>
+      </c>
+      <c r="C24" s="71" t="s">
         <v>294</v>
       </c>
-      <c r="C24" s="71" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" s="70" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" s="70" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" s="79" t="s">
         <v>200</v>
       </c>
       <c r="B27" s="80" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C27" s="80" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" s="79" t="s">
         <v>202</v>
       </c>
       <c r="B28" s="80" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C28" s="80" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" s="79" t="s">
         <v>203</v>
       </c>
@@ -6232,29 +6234,29 @@
         <v>119</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:3">
       <c r="A30" s="79" t="s">
         <v>204</v>
       </c>
       <c r="B30" s="80" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C30" s="80" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" s="79" t="s">
         <v>237</v>
       </c>
       <c r="B31" s="80" t="s">
+        <v>298</v>
+      </c>
+      <c r="C31" s="80" t="s">
         <v>299</v>
       </c>
-      <c r="C31" s="80" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" s="79" t="s">
         <v>238</v>
       </c>
@@ -6265,18 +6267,18 @@
         <v>125</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:3">
       <c r="A33" s="70" t="s">
         <v>209</v>
       </c>
       <c r="B33" s="71" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C33" s="71" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" s="70" t="s">
         <v>210</v>
       </c>
@@ -6287,7 +6289,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:3">
       <c r="A35" s="70" t="s">
         <v>211</v>
       </c>
@@ -6298,7 +6300,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:3">
       <c r="A36" s="70" t="s">
         <v>212</v>
       </c>
@@ -6309,7 +6311,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:3">
       <c r="A37" s="70" t="s">
         <v>213</v>
       </c>
@@ -6320,39 +6322,39 @@
         <v>252</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="24" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:3" ht="24">
       <c r="A38" s="70" t="s">
         <v>239</v>
       </c>
       <c r="B38" s="71" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C38" s="71" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:3">
       <c r="A39" s="70" t="s">
         <v>240</v>
       </c>
       <c r="B39" s="71" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C39" s="71" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:3">
       <c r="A40" s="70" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41" s="70" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="24" x14ac:dyDescent="0.15">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="24">
       <c r="A42" s="70" t="s">
         <v>214</v>
       </c>
@@ -6363,29 +6365,29 @@
         <v>254</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="24" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:3" ht="36">
       <c r="A43" s="70" t="s">
         <v>215</v>
       </c>
       <c r="B43" s="71" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C43" s="71" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="24" x14ac:dyDescent="0.15">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="24">
       <c r="A44" s="70" t="s">
         <v>216</v>
       </c>
       <c r="B44" s="71" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C44" s="71" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:3">
       <c r="A45" s="70" t="s">
         <v>217</v>
       </c>
@@ -6396,83 +6398,83 @@
         <v>256</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:3">
       <c r="A46" s="70" t="s">
         <v>218</v>
       </c>
       <c r="B46" s="71" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C46" s="71" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47" s="70" t="s">
         <v>219</v>
       </c>
       <c r="B47" s="71" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C47" s="71" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="24" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:3" ht="24">
       <c r="A48" s="70" t="s">
         <v>220</v>
       </c>
       <c r="B48" s="71" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C48" s="71" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:3">
       <c r="A49" s="70" t="s">
         <v>221</v>
       </c>
       <c r="B49" s="71" t="s">
+        <v>308</v>
+      </c>
+      <c r="C49" s="71" t="s">
         <v>309</v>
       </c>
-      <c r="C49" s="71" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="24" x14ac:dyDescent="0.15">
+    </row>
+    <row r="50" spans="1:3" ht="24">
       <c r="A50" s="70" t="s">
         <v>222</v>
       </c>
       <c r="B50" s="71" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C50" s="71" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:3">
       <c r="A51" s="70" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
       <c r="A52" s="70" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
       <c r="A53" s="70" t="s">
         <v>223</v>
       </c>
       <c r="B53" s="71" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C53" s="71" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
       <c r="A54" s="70" t="s">
         <v>224</v>
       </c>
@@ -6483,7 +6485,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:3">
       <c r="A55" s="70" t="s">
         <v>225</v>
       </c>
@@ -6494,18 +6496,18 @@
         <v>165</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:3">
       <c r="A56" s="70" t="s">
         <v>226</v>
       </c>
       <c r="B56" s="71" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C56" s="71" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
       <c r="A57" s="70" t="s">
         <v>227</v>
       </c>
@@ -6516,7 +6518,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:3">
       <c r="A58" s="70" t="s">
         <v>228</v>
       </c>
@@ -6527,7 +6529,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:3">
       <c r="A59" s="70" t="s">
         <v>231</v>
       </c>
@@ -6538,7 +6540,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="24" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:3" ht="24">
       <c r="A60" s="70" t="s">
         <v>232</v>
       </c>
@@ -6549,23 +6551,23 @@
         <v>230</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:3">
       <c r="A61" s="70" t="s">
         <v>233</v>
       </c>
       <c r="B61" s="71" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C61" s="71" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
       <c r="A62" s="70" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
       <c r="A63" s="70" t="s">
         <v>234</v>
       </c>
@@ -6576,7 +6578,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:3">
       <c r="A64" s="70" t="s">
         <v>235</v>
       </c>
@@ -6587,42 +6589,42 @@
         <v>180</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:3">
       <c r="A65" s="70" t="s">
         <v>236</v>
       </c>
       <c r="B65" s="71" t="s">
+        <v>314</v>
+      </c>
+      <c r="C65" s="71" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="36">
+      <c r="A66" s="70" t="s">
+        <v>280</v>
+      </c>
+      <c r="B66" s="71" t="s">
         <v>315</v>
       </c>
-      <c r="C65" s="71" t="s">
+      <c r="C66" s="71" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="36" x14ac:dyDescent="0.15">
-      <c r="A66" s="70" t="s">
-        <v>281</v>
-      </c>
-      <c r="B66" s="71" t="s">
-        <v>316</v>
-      </c>
-      <c r="C66" s="71" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:3">
       <c r="A67" s="70" t="s">
+        <v>319</v>
+      </c>
+      <c r="B67" s="71" t="s">
         <v>320</v>
       </c>
-      <c r="B67" s="71" t="s">
-        <v>321</v>
-      </c>
       <c r="C67" s="71" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
       <c r="A68" s="70" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -6633,20 +6635,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="47.33203125" customWidth="1"/>
+    <col min="2" max="4" width="47.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="14.5">
       <c r="A1" s="132" t="s">
         <v>77</v>
       </c>
@@ -6654,7 +6656,7 @@
       <c r="C1" s="133"/>
       <c r="D1" s="134"/>
     </row>
-    <row r="2" spans="1:4" ht="22" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" ht="21">
       <c r="A2" s="54" t="s">
         <v>78</v>
       </c>
@@ -6664,7 +6666,7 @@
       <c r="C2" s="55"/>
       <c r="D2" s="56"/>
     </row>
-    <row r="3" spans="1:4" ht="44" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" ht="42">
       <c r="A3" s="54"/>
       <c r="B3" s="55"/>
       <c r="C3" s="55" t="s">
@@ -6672,7 +6674,7 @@
       </c>
       <c r="D3" s="56"/>
     </row>
-    <row r="4" spans="1:4" ht="33" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" ht="31.5">
       <c r="A4" s="54"/>
       <c r="B4" s="55"/>
       <c r="C4" s="55" t="s">
@@ -6680,7 +6682,7 @@
       </c>
       <c r="D4" s="56"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4">
       <c r="A5" s="54"/>
       <c r="B5" s="55"/>
       <c r="C5" s="55" t="s">
@@ -6688,13 +6690,13 @@
       </c>
       <c r="D5" s="56"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4">
       <c r="A6" s="54"/>
       <c r="B6" s="55"/>
       <c r="C6" s="55"/>
       <c r="D6" s="56"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" ht="21">
       <c r="A7" s="54" t="s">
         <v>83</v>
       </c>
@@ -6704,7 +6706,7 @@
       <c r="C7" s="55"/>
       <c r="D7" s="56"/>
     </row>
-    <row r="8" spans="1:4" ht="22" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" ht="21">
       <c r="A8" s="54" t="s">
         <v>85</v>
       </c>
@@ -6716,7 +6718,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="33" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" ht="42">
       <c r="A9" s="54"/>
       <c r="B9" s="55"/>
       <c r="C9" s="55" t="s">
@@ -6726,7 +6728,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="56" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="53" thickBot="1">
       <c r="A10" s="57"/>
       <c r="B10" s="58"/>
       <c r="C10" s="58" t="s">
@@ -6736,13 +6738,13 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="13" thickBot="1">
       <c r="A11" s="60"/>
       <c r="B11" s="61"/>
       <c r="C11" s="61"/>
       <c r="D11" s="61"/>
     </row>
-    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" ht="14.5">
       <c r="A12" s="132" t="s">
         <v>92</v>
       </c>
@@ -6750,7 +6752,7 @@
       <c r="C12" s="133"/>
       <c r="D12" s="134"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4">
       <c r="A13" s="54" t="s">
         <v>93</v>
       </c>
@@ -6760,7 +6762,7 @@
       <c r="C13" s="55"/>
       <c r="D13" s="56"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4">
       <c r="A14" s="54" t="s">
         <v>95</v>
       </c>
@@ -6770,7 +6772,7 @@
       <c r="C14" s="55"/>
       <c r="D14" s="56"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4">
       <c r="A15" s="54" t="s">
         <v>97</v>
       </c>
@@ -6780,7 +6782,7 @@
       <c r="C15" s="55"/>
       <c r="D15" s="56"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4">
       <c r="A16" s="54" t="s">
         <v>99</v>
       </c>
@@ -6790,7 +6792,7 @@
       <c r="C16" s="55"/>
       <c r="D16" s="56"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" ht="21">
       <c r="A17" s="54" t="s">
         <v>101</v>
       </c>
@@ -6800,7 +6802,7 @@
       <c r="C17" s="55"/>
       <c r="D17" s="56"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" ht="21">
       <c r="A18" s="54" t="s">
         <v>103</v>
       </c>
@@ -6810,7 +6812,7 @@
       <c r="C18" s="55"/>
       <c r="D18" s="56"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4">
       <c r="A19" s="54" t="s">
         <v>105</v>
       </c>
@@ -6820,7 +6822,7 @@
       <c r="C19" s="55"/>
       <c r="D19" s="56"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4">
       <c r="A20" s="54" t="s">
         <v>107</v>
       </c>
@@ -6830,7 +6832,7 @@
       <c r="C20" s="55"/>
       <c r="D20" s="56"/>
     </row>
-    <row r="21" spans="1:4" ht="22" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4" ht="21">
       <c r="A21" s="54"/>
       <c r="B21" s="55"/>
       <c r="C21" s="55" t="s">
@@ -6838,7 +6840,7 @@
       </c>
       <c r="D21" s="56"/>
     </row>
-    <row r="22" spans="1:4" ht="22" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4" ht="21">
       <c r="A22" s="54"/>
       <c r="B22" s="55"/>
       <c r="C22" s="55" t="s">
@@ -6846,7 +6848,7 @@
       </c>
       <c r="D22" s="56"/>
     </row>
-    <row r="23" spans="1:4" ht="22" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4" ht="21">
       <c r="A23" s="54"/>
       <c r="B23" s="55"/>
       <c r="C23" s="55" t="s">
@@ -6854,7 +6856,7 @@
       </c>
       <c r="D23" s="56"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4">
       <c r="A24" s="54"/>
       <c r="B24" s="55"/>
       <c r="C24" s="55" t="s">
@@ -6862,7 +6864,7 @@
       </c>
       <c r="D24" s="56"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4">
       <c r="A25" s="54"/>
       <c r="B25" s="55"/>
       <c r="C25" s="55" t="s">
@@ -6870,13 +6872,13 @@
       </c>
       <c r="D25" s="56"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4">
       <c r="A26" s="54"/>
       <c r="B26" s="55"/>
       <c r="C26" s="55"/>
       <c r="D26" s="56"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4">
       <c r="A27" s="54" t="s">
         <v>114</v>
       </c>
@@ -6886,7 +6888,7 @@
       <c r="C27" s="55"/>
       <c r="D27" s="56"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4" ht="21">
       <c r="A28" s="54" t="s">
         <v>116</v>
       </c>
@@ -6896,7 +6898,7 @@
       <c r="C28" s="55"/>
       <c r="D28" s="56"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4">
       <c r="A29" s="54" t="s">
         <v>118</v>
       </c>
@@ -6906,7 +6908,7 @@
       <c r="C29" s="55"/>
       <c r="D29" s="56"/>
     </row>
-    <row r="30" spans="1:4" ht="22" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:4" ht="21">
       <c r="A30" s="54" t="s">
         <v>120</v>
       </c>
@@ -6916,7 +6918,7 @@
       <c r="C30" s="55"/>
       <c r="D30" s="56"/>
     </row>
-    <row r="31" spans="1:4" ht="22" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:4" ht="21">
       <c r="A31" s="54" t="s">
         <v>122</v>
       </c>
@@ -6926,7 +6928,7 @@
       <c r="C31" s="55"/>
       <c r="D31" s="56"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:4">
       <c r="A32" s="54" t="s">
         <v>124</v>
       </c>
@@ -6936,7 +6938,7 @@
       <c r="C32" s="55"/>
       <c r="D32" s="56"/>
     </row>
-    <row r="33" spans="1:4" ht="22" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4" ht="21">
       <c r="A33" s="54"/>
       <c r="B33" s="55"/>
       <c r="C33" s="55" t="s">
@@ -6946,7 +6948,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="22" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:4" ht="21">
       <c r="A34" s="54"/>
       <c r="B34" s="55"/>
       <c r="C34" s="55" t="s">
@@ -6956,7 +6958,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="22" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:4" ht="31.5">
       <c r="A35" s="54"/>
       <c r="B35" s="55"/>
       <c r="C35" s="55" t="s">
@@ -6966,7 +6968,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="33" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:4" ht="31.5">
       <c r="A36" s="54"/>
       <c r="B36" s="55"/>
       <c r="C36" s="55" t="s">
@@ -6976,7 +6978,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="22" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:4" ht="31.5">
       <c r="A37" s="54"/>
       <c r="B37" s="55"/>
       <c r="C37" s="55" t="s">
@@ -6986,7 +6988,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="55" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:4" ht="52.5">
       <c r="A38" s="54"/>
       <c r="B38" s="55"/>
       <c r="C38" s="55" t="s">
@@ -6996,7 +6998,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="34" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" ht="32" thickBot="1">
       <c r="A39" s="57"/>
       <c r="B39" s="58"/>
       <c r="C39" s="58" t="s">
@@ -7006,13 +7008,13 @@
         <v>139</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" ht="13" thickBot="1">
       <c r="A40" s="60"/>
       <c r="B40" s="61"/>
       <c r="C40" s="61"/>
       <c r="D40" s="61"/>
     </row>
-    <row r="41" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" ht="14.5">
       <c r="A41" s="135" t="s">
         <v>140</v>
       </c>
@@ -7020,7 +7022,7 @@
       <c r="C41" s="136"/>
       <c r="D41" s="137"/>
     </row>
-    <row r="42" spans="1:4" ht="33" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:4" ht="31.5">
       <c r="A42" s="54" t="s">
         <v>141</v>
       </c>
@@ -7030,7 +7032,7 @@
       <c r="C42" s="62"/>
       <c r="D42" s="63"/>
     </row>
-    <row r="43" spans="1:4" ht="44" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:4" ht="42">
       <c r="A43" s="54" t="s">
         <v>143</v>
       </c>
@@ -7040,7 +7042,7 @@
       <c r="C43" s="62"/>
       <c r="D43" s="63"/>
     </row>
-    <row r="44" spans="1:4" ht="33" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:4" ht="31.5">
       <c r="A44" s="54" t="s">
         <v>145</v>
       </c>
@@ -7050,7 +7052,7 @@
       <c r="C44" s="62"/>
       <c r="D44" s="63"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:4" ht="21">
       <c r="A45" s="54" t="s">
         <v>147</v>
       </c>
@@ -7060,7 +7062,7 @@
       <c r="C45" s="62"/>
       <c r="D45" s="63"/>
     </row>
-    <row r="46" spans="1:4" ht="22" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:4" ht="21">
       <c r="A46" s="54" t="s">
         <v>149</v>
       </c>
@@ -7070,7 +7072,7 @@
       <c r="C46" s="62"/>
       <c r="D46" s="63"/>
     </row>
-    <row r="47" spans="1:4" ht="44" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:4" ht="42">
       <c r="A47" s="54"/>
       <c r="B47" s="62"/>
       <c r="C47" s="62" t="s">
@@ -7080,7 +7082,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="33" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:4" ht="31.5">
       <c r="A48" s="54"/>
       <c r="B48" s="62"/>
       <c r="C48" s="62" t="s">
@@ -7090,7 +7092,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="44" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:4" ht="52.5">
       <c r="A49" s="54"/>
       <c r="B49" s="62"/>
       <c r="C49" s="62" t="s">
@@ -7100,7 +7102,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="67" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" ht="74" thickBot="1">
       <c r="A50" s="57"/>
       <c r="B50" s="64"/>
       <c r="C50" s="64" t="s">
@@ -7110,13 +7112,13 @@
         <v>158</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="15" thickBot="1">
       <c r="A51" s="60"/>
       <c r="B51" s="66"/>
       <c r="C51" s="66"/>
       <c r="D51" s="66"/>
     </row>
-    <row r="52" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="15" thickBot="1">
       <c r="A52" s="138" t="s">
         <v>159</v>
       </c>
@@ -7124,7 +7126,7 @@
       <c r="C52" s="139"/>
       <c r="D52" s="140"/>
     </row>
-    <row r="53" spans="1:4" ht="22" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:4" ht="21">
       <c r="A53" s="67" t="s">
         <v>160</v>
       </c>
@@ -7134,7 +7136,7 @@
       <c r="C53" s="68"/>
       <c r="D53" s="68"/>
     </row>
-    <row r="54" spans="1:4" ht="22" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:4" ht="21">
       <c r="A54" s="69" t="s">
         <v>162</v>
       </c>
@@ -7144,7 +7146,7 @@
       <c r="C54" s="55"/>
       <c r="D54" s="55"/>
     </row>
-    <row r="55" spans="1:4" ht="22" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:4" ht="21">
       <c r="A55" s="69" t="s">
         <v>164</v>
       </c>
@@ -7154,7 +7156,7 @@
       <c r="C55" s="55"/>
       <c r="D55" s="55"/>
     </row>
-    <row r="56" spans="1:4" ht="22" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:4" ht="21">
       <c r="A56" s="69" t="s">
         <v>166</v>
       </c>
@@ -7164,7 +7166,7 @@
       <c r="C56" s="55"/>
       <c r="D56" s="55"/>
     </row>
-    <row r="57" spans="1:4" ht="22" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:4" ht="21">
       <c r="A57" s="69" t="s">
         <v>168</v>
       </c>
@@ -7174,7 +7176,7 @@
       <c r="C57" s="55"/>
       <c r="D57" s="55"/>
     </row>
-    <row r="58" spans="1:4" ht="22" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:4" ht="21">
       <c r="A58" s="69"/>
       <c r="B58" s="55"/>
       <c r="C58" s="55" t="s">
@@ -7184,7 +7186,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="55" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:4" ht="52.5">
       <c r="A59" s="69"/>
       <c r="B59" s="55"/>
       <c r="C59" s="55" t="s">
@@ -7194,7 +7196,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="23" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" ht="21.5" thickBot="1">
       <c r="A60" s="69"/>
       <c r="B60" s="55"/>
       <c r="C60" s="55" t="s">
@@ -7204,13 +7206,13 @@
         <v>175</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" ht="15" thickBot="1">
       <c r="A61" s="60"/>
       <c r="B61" s="66"/>
       <c r="C61" s="66"/>
       <c r="D61" s="66"/>
     </row>
-    <row r="62" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" ht="15" thickBot="1">
       <c r="A62" s="138" t="s">
         <v>176</v>
       </c>
@@ -7218,7 +7220,7 @@
       <c r="C62" s="139"/>
       <c r="D62" s="140"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:4">
       <c r="A63" s="67" t="s">
         <v>177</v>
       </c>
@@ -7228,7 +7230,7 @@
       <c r="C63" s="68"/>
       <c r="D63" s="68"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:4">
       <c r="A64" s="69" t="s">
         <v>179</v>
       </c>
@@ -7238,7 +7240,7 @@
       <c r="C64" s="55"/>
       <c r="D64" s="55"/>
     </row>
-    <row r="65" spans="1:4" ht="44" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:4" ht="42">
       <c r="A65" s="69" t="s">
         <v>181</v>
       </c>

--- a/progression_2019_2020_IPT_MPSI.xlsx
+++ b/progression_2019_2020_IPT_MPSI.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28109"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Informatique_MPSI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emiliendurif/Documents/prepa/MPSI/ipt_mpsi_lamartin/Informatique_MPSI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4EF6C4D-027E-4CEC-A7A1-4960725B62B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-32660" yWindow="380" windowWidth="28500" windowHeight="17000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Planning DS" sheetId="16" r:id="rId1"/>
@@ -23,19 +22,18 @@
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Cycles MPSI IPT'!$A$3:$B$7</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Semanier MPSI IPT 2019-2020'!$A$18:$H$20</definedName>
   </definedNames>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
@@ -865,6 +863,9 @@
     <t>SN.C1; SN.C2; SN.C3; SN.C4; SN.C5; SN.S1; AN.S3</t>
   </si>
   <si>
+    <t>AN.C1; AN.C2; AN.S1; AN.S2; AN.S4</t>
+  </si>
+  <si>
     <t>AN.C3; AN.S1; AN.S2; AN.S4</t>
   </si>
   <si>
@@ -1123,23 +1124,20 @@
     <t>nombres/NBR-003</t>
   </si>
   <si>
-    <t>algo/ALG-017;algo/ALG-018;python_bases/PYB-517</t>
-  </si>
-  <si>
     <t>consignes/consignes_TP8;tableaux/TAB-027</t>
   </si>
   <si>
     <t>Tableaux, fichiers et traitement d'images</t>
   </si>
   <si>
-    <t>AN.C1; AN.C2</t>
+    <t>algo/ALG-017;python_bases/PYB-517</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3284,13 +3282,13 @@
     <cellStyle name="Lien hypertexte visité" xfId="651" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="653" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000087020000}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000088020000}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000089020000}"/>
-    <cellStyle name="Normal 4" xfId="4" xr:uid="{00000000-0005-0000-0000-00008A020000}"/>
-    <cellStyle name="Normal 4 2" xfId="5" xr:uid="{00000000-0005-0000-0000-00008B020000}"/>
-    <cellStyle name="Normal 4 3" xfId="6" xr:uid="{00000000-0005-0000-0000-00008C020000}"/>
-    <cellStyle name="Normal 5" xfId="7" xr:uid="{00000000-0005-0000-0000-00008D020000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2 2" xfId="2"/>
+    <cellStyle name="Normal 3" xfId="3"/>
+    <cellStyle name="Normal 4" xfId="4"/>
+    <cellStyle name="Normal 4 2" xfId="5"/>
+    <cellStyle name="Normal 4 3" xfId="6"/>
+    <cellStyle name="Normal 5" xfId="7"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -3602,79 +3600,79 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="14.36328125" customWidth="1"/>
-    <col min="4" max="4" width="13.1796875" customWidth="1"/>
-    <col min="5" max="5" width="13.81640625" customWidth="1"/>
-    <col min="6" max="6" width="16.453125" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" customWidth="1"/>
+    <col min="6" max="6" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="13" thickBot="1">
+    <row r="1" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="62">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="48" x14ac:dyDescent="0.15">
       <c r="A2" s="96">
         <v>1</v>
       </c>
       <c r="B2" s="85" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C2" s="86" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D2" s="86"/>
       <c r="E2" s="86"/>
       <c r="F2" s="86"/>
     </row>
-    <row r="3" spans="1:8" ht="87.5">
+    <row r="3" spans="1:8" ht="78" x14ac:dyDescent="0.15">
       <c r="A3" s="97"/>
       <c r="B3" s="3" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="97"/>
       <c r="B4" s="3" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="42"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="97"/>
       <c r="B5" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C5" s="42">
         <v>1</v>
@@ -3683,10 +3681,10 @@
       <c r="E5" s="42"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:8" ht="50" customHeight="1" thickBot="1">
+    <row r="6" spans="1:8" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="98"/>
       <c r="B6" s="87" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C6" s="88">
         <v>43754</v>
@@ -3695,51 +3693,51 @@
       <c r="E6" s="88"/>
       <c r="F6" s="88"/>
     </row>
-    <row r="7" spans="1:8" ht="62">
+    <row r="7" spans="1:8" ht="48" x14ac:dyDescent="0.15">
       <c r="A7" s="96">
         <v>2</v>
       </c>
       <c r="B7" s="89" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C7" s="86" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D7" s="86"/>
       <c r="E7" s="86"/>
       <c r="F7" s="86"/>
     </row>
-    <row r="8" spans="1:8" ht="37.5">
+    <row r="8" spans="1:8" ht="39" x14ac:dyDescent="0.15">
       <c r="A8" s="97"/>
       <c r="B8" s="90" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C8" s="95" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D8" s="90"/>
       <c r="E8" s="90"/>
       <c r="F8" s="90"/>
     </row>
-    <row r="9" spans="1:8" ht="25">
+    <row r="9" spans="1:8" ht="26" x14ac:dyDescent="0.15">
       <c r="A9" s="97"/>
       <c r="B9" s="90" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D9" s="90"/>
       <c r="E9" s="42"/>
       <c r="F9" s="90"/>
       <c r="H9" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="97"/>
       <c r="B10" s="90" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C10" s="42">
         <v>1</v>
@@ -3748,10 +3746,10 @@
       <c r="E10" s="42"/>
       <c r="F10" s="90"/>
     </row>
-    <row r="11" spans="1:8" ht="50" customHeight="1" thickBot="1">
+    <row r="11" spans="1:8" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="98"/>
       <c r="B11" s="91" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C11" s="88">
         <v>43798</v>
@@ -3760,51 +3758,51 @@
       <c r="E11" s="88"/>
       <c r="F11" s="88"/>
     </row>
-    <row r="12" spans="1:8" ht="62">
+    <row r="12" spans="1:8" ht="48" x14ac:dyDescent="0.15">
       <c r="A12" s="96">
         <v>3</v>
       </c>
       <c r="B12" s="92" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C12" s="86" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D12" s="86"/>
       <c r="E12" s="86"/>
       <c r="F12" s="86"/>
     </row>
-    <row r="13" spans="1:8" ht="25">
+    <row r="13" spans="1:8" ht="26" x14ac:dyDescent="0.15">
       <c r="A13" s="97"/>
       <c r="B13" s="93" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C13" s="93" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D13" s="93"/>
       <c r="E13" s="93"/>
       <c r="F13" s="93"/>
     </row>
-    <row r="14" spans="1:8" ht="25">
+    <row r="14" spans="1:8" ht="26" x14ac:dyDescent="0.15">
       <c r="A14" s="97"/>
       <c r="B14" s="93" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C14" s="42" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D14" s="93"/>
       <c r="E14" s="42"/>
       <c r="F14" s="93"/>
       <c r="H14" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="97"/>
       <c r="B15" s="93" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C15" s="42">
         <v>1</v>
@@ -3813,10 +3811,10 @@
       <c r="E15" s="42"/>
       <c r="F15" s="93"/>
     </row>
-    <row r="16" spans="1:8" ht="50" customHeight="1" thickBot="1">
+    <row r="16" spans="1:8" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="98"/>
       <c r="B16" s="94" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C16" s="88">
         <v>43798</v>
@@ -3825,9 +3823,9 @@
       <c r="E16" s="88"/>
       <c r="F16" s="88"/>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -3841,39 +3839,39 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:X53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I11" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="26" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="26" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="10.81640625" style="1"/>
-    <col min="4" max="4" width="20.36328125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="10.83203125" style="1"/>
+    <col min="4" max="4" width="20.33203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="37.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.6328125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="37.36328125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="5.453125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="37.36328125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="42.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="32.6328125" style="1" customWidth="1"/>
-    <col min="15" max="18" width="10.81640625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="41.36328125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="10.81640625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.81640625" style="1"/>
-    <col min="22" max="22" width="10.81640625" style="1" customWidth="1"/>
-    <col min="23" max="24" width="58.453125" style="74" customWidth="1"/>
-    <col min="25" max="16384" width="10.81640625" style="1"/>
+    <col min="6" max="6" width="37.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="37.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="37.33203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="42.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="32.6640625" style="1" customWidth="1"/>
+    <col min="15" max="18" width="10.83203125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="41.33203125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="10.83203125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.83203125" style="1"/>
+    <col min="22" max="22" width="10.83203125" style="1" customWidth="1"/>
+    <col min="23" max="24" width="58.5" style="74" customWidth="1"/>
+    <col min="25" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="26" customHeight="1">
+    <row r="1" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>19</v>
       </c>
@@ -3911,10 +3909,10 @@
         <v>57</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O1" s="4" t="s">
         <v>13</v>
@@ -3923,7 +3921,7 @@
         <v>22</v>
       </c>
       <c r="Q1" s="41" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="R1" s="4" t="s">
         <v>63</v>
@@ -3932,7 +3930,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="32" customHeight="1">
+    <row r="2" spans="1:24" ht="32" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3965,13 +3963,13 @@
       </c>
       <c r="K2" s="5"/>
       <c r="L2" s="5" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M2" s="83" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="N2" s="83" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="O2" s="3"/>
       <c r="P2" s="42"/>
@@ -3982,13 +3980,13 @@
         <v>64</v>
       </c>
       <c r="S2" s="33" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="V2" s="70"/>
       <c r="W2" s="75"/>
       <c r="X2" s="75"/>
     </row>
-    <row r="3" spans="1:24" ht="32" customHeight="1">
+    <row r="3" spans="1:24" ht="32" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -4017,13 +4015,13 @@
         <v>27</v>
       </c>
       <c r="K3" s="82" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M3" s="83" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="N3" s="83" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="O3" s="3"/>
       <c r="P3" s="42"/>
@@ -4034,13 +4032,13 @@
         <v>64</v>
       </c>
       <c r="S3" s="33" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="V3" s="70"/>
       <c r="W3" s="75"/>
       <c r="X3" s="75"/>
     </row>
-    <row r="4" spans="1:24" ht="56" customHeight="1">
+    <row r="4" spans="1:24" ht="56" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -4070,13 +4068,13 @@
       </c>
       <c r="K4" s="5"/>
       <c r="L4" s="5" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M4" s="73" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="N4" s="83" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="O4" s="3"/>
       <c r="P4" s="42"/>
@@ -4087,13 +4085,13 @@
         <v>64</v>
       </c>
       <c r="S4" s="33" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="V4" s="70"/>
       <c r="W4" s="75"/>
       <c r="X4" s="75"/>
     </row>
-    <row r="5" spans="1:24" ht="32" customHeight="1">
+    <row r="5" spans="1:24" ht="32" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -4122,14 +4120,14 @@
         <v>34</v>
       </c>
       <c r="K5" s="82" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L5" s="5"/>
       <c r="M5" s="73" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N5" s="83" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="O5" s="3"/>
       <c r="P5" s="42"/>
@@ -4140,13 +4138,13 @@
         <v>64</v>
       </c>
       <c r="S5" s="33" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="V5" s="70"/>
       <c r="W5" s="75"/>
       <c r="X5" s="75"/>
     </row>
-    <row r="6" spans="1:24" ht="26" customHeight="1">
+    <row r="6" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -4172,19 +4170,19 @@
         <v>3</v>
       </c>
       <c r="J6" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="K6" s="82" t="s">
         <v>322</v>
       </c>
-      <c r="K6" s="82" t="s">
-        <v>321</v>
-      </c>
       <c r="L6" s="82" t="s">
+        <v>329</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="N6" s="83" t="s">
         <v>328</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="N6" s="83" t="s">
-        <v>327</v>
       </c>
       <c r="O6" s="3"/>
       <c r="P6" s="42"/>
@@ -4195,13 +4193,13 @@
         <v>65</v>
       </c>
       <c r="S6" s="33" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="V6" s="70"/>
       <c r="W6" s="75"/>
       <c r="X6" s="75"/>
     </row>
-    <row r="7" spans="1:24" ht="26" customHeight="1">
+    <row r="7" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -4233,7 +4231,7 @@
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
       <c r="N7" s="83" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="O7" s="4"/>
       <c r="P7" s="36"/>
@@ -4244,13 +4242,13 @@
         <v>65</v>
       </c>
       <c r="S7" s="32" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="V7" s="70"/>
       <c r="W7" s="75"/>
       <c r="X7" s="75"/>
     </row>
-    <row r="8" spans="1:24" ht="26" customHeight="1">
+    <row r="8" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -4279,16 +4277,16 @@
         <v>28</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L8" s="82" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M8" s="78" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="N8" s="73" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O8" s="4"/>
       <c r="P8" s="36" t="s">
@@ -4305,7 +4303,7 @@
       <c r="W8" s="75"/>
       <c r="X8" s="75"/>
     </row>
-    <row r="9" spans="1:24" ht="26" customHeight="1">
+    <row r="9" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="105" t="s">
         <v>10</v>
       </c>
@@ -4331,7 +4329,7 @@
       <c r="W9" s="75"/>
       <c r="X9" s="75"/>
     </row>
-    <row r="10" spans="1:24" ht="26" customHeight="1">
+    <row r="10" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -4366,10 +4364,10 @@
       <c r="K10" s="5"/>
       <c r="L10" s="82"/>
       <c r="M10" s="78" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="N10" s="73" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O10" s="3"/>
       <c r="P10" s="42"/>
@@ -4384,7 +4382,7 @@
       <c r="W10" s="75"/>
       <c r="X10" s="75"/>
     </row>
-    <row r="11" spans="1:24" ht="26" customHeight="1">
+    <row r="11" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -4413,13 +4411,13 @@
         <v>36</v>
       </c>
       <c r="K11" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="L11" s="82" t="s">
         <v>344</v>
       </c>
-      <c r="L11" s="82" t="s">
-        <v>343</v>
-      </c>
       <c r="M11" s="78" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="N11" s="5"/>
       <c r="O11" s="3"/>
@@ -4435,7 +4433,7 @@
       <c r="W11" s="75"/>
       <c r="X11" s="75"/>
     </row>
-    <row r="12" spans="1:24" ht="26" customHeight="1">
+    <row r="12" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -4466,7 +4464,7 @@
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
       <c r="M12" s="78" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="N12" s="5"/>
       <c r="O12" s="3"/>
@@ -4481,7 +4479,7 @@
       <c r="W12" s="75"/>
       <c r="X12" s="75"/>
     </row>
-    <row r="13" spans="1:24" ht="26" customHeight="1">
+    <row r="13" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -4507,19 +4505,19 @@
         <v>6</v>
       </c>
       <c r="J13" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="L13" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="K13" s="5" t="s">
-        <v>348</v>
-      </c>
-      <c r="L13" s="5" t="s">
-        <v>349</v>
-      </c>
       <c r="M13" s="78" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="N13" s="27" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="O13" s="3"/>
       <c r="P13" s="42"/>
@@ -4527,14 +4525,14 @@
         <v>59</v>
       </c>
       <c r="R13" s="48" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="S13" s="33"/>
       <c r="V13" s="70"/>
       <c r="W13" s="75"/>
       <c r="X13" s="75"/>
     </row>
-    <row r="14" spans="1:24" ht="26" customHeight="1">
+    <row r="14" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -4560,15 +4558,15 @@
         <v>6</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
       <c r="M14" s="78" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="N14" s="27" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="O14" s="3"/>
       <c r="P14" s="42"/>
@@ -4576,13 +4574,13 @@
         <v>59</v>
       </c>
       <c r="R14" s="48" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="V14" s="70"/>
       <c r="W14" s="75"/>
       <c r="X14" s="75"/>
     </row>
-    <row r="15" spans="1:24" ht="26" customHeight="1">
+    <row r="15" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -4611,14 +4609,14 @@
         <v>32</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L15" s="5"/>
       <c r="M15" s="83" t="s">
         <v>268</v>
       </c>
       <c r="N15" s="78" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="O15" s="4" t="s">
         <v>52</v>
@@ -4635,7 +4633,7 @@
       <c r="W15" s="75"/>
       <c r="X15" s="75"/>
     </row>
-    <row r="16" spans="1:24" ht="26" customHeight="1">
+    <row r="16" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -4669,7 +4667,7 @@
         <v>268</v>
       </c>
       <c r="N16" s="78" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="O16" s="3"/>
       <c r="P16" s="36"/>
@@ -4684,7 +4682,7 @@
       <c r="W16" s="75"/>
       <c r="X16" s="75"/>
     </row>
-    <row r="17" spans="1:24" ht="26" customHeight="1">
+    <row r="17" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="105" t="s">
         <v>11</v>
       </c>
@@ -4710,7 +4708,7 @@
       <c r="W17" s="75"/>
       <c r="X17" s="75"/>
     </row>
-    <row r="18" spans="1:24" ht="26" customHeight="1">
+    <row r="18" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -4743,16 +4741,16 @@
         <v>357</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="L18" s="5" t="s">
         <v>356</v>
       </c>
       <c r="M18" s="84" t="s">
-        <v>358</v>
+        <v>270</v>
       </c>
       <c r="N18" s="78" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="O18" s="27"/>
       <c r="P18" s="43"/>
@@ -4767,7 +4765,7 @@
       <c r="W18" s="75"/>
       <c r="X18" s="75"/>
     </row>
-    <row r="19" spans="1:24" ht="26" customHeight="1">
+    <row r="19" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -4798,10 +4796,10 @@
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
       <c r="M19" s="84" t="s">
-        <v>358</v>
+        <v>270</v>
       </c>
       <c r="N19" s="78" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="O19" s="27"/>
       <c r="P19" s="43"/>
@@ -4816,7 +4814,7 @@
       <c r="W19" s="75"/>
       <c r="X19" s="75"/>
     </row>
-    <row r="20" spans="1:24" ht="26" customHeight="1">
+    <row r="20" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -4847,10 +4845,10 @@
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
       <c r="M20" s="73" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N20" s="73" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O20" s="3"/>
       <c r="P20" s="42"/>
@@ -4865,7 +4863,7 @@
       <c r="W20" s="75"/>
       <c r="X20" s="75"/>
     </row>
-    <row r="21" spans="1:24" ht="26" customHeight="1">
+    <row r="21" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -4896,10 +4894,10 @@
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
       <c r="M21" s="73" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N21" s="73" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O21" s="3"/>
       <c r="P21" s="42"/>
@@ -4914,7 +4912,7 @@
       <c r="W21" s="75"/>
       <c r="X21" s="75"/>
     </row>
-    <row r="22" spans="1:24" ht="26" customHeight="1">
+    <row r="22" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -4967,7 +4965,7 @@
       <c r="W22" s="75"/>
       <c r="X22" s="75"/>
     </row>
-    <row r="23" spans="1:24" ht="26" customHeight="1">
+    <row r="23" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -5015,7 +5013,7 @@
       </c>
       <c r="S23" s="33"/>
     </row>
-    <row r="24" spans="1:24" ht="26" customHeight="1">
+    <row r="24" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>19</v>
       </c>
@@ -5059,7 +5057,7 @@
       </c>
       <c r="S24" s="33"/>
     </row>
-    <row r="25" spans="1:24" ht="26" customHeight="1">
+    <row r="25" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="105" t="s">
         <v>12</v>
       </c>
@@ -5085,7 +5083,7 @@
       <c r="W25" s="75"/>
       <c r="X25" s="75"/>
     </row>
-    <row r="26" spans="1:24" ht="26" customHeight="1">
+    <row r="26" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>19</v>
       </c>
@@ -5138,7 +5136,7 @@
       <c r="W26" s="75"/>
       <c r="X26" s="75"/>
     </row>
-    <row r="27" spans="1:24" ht="26" customHeight="1">
+    <row r="27" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>20</v>
       </c>
@@ -5184,7 +5182,7 @@
       <c r="W27" s="75"/>
       <c r="X27" s="75"/>
     </row>
-    <row r="28" spans="1:24" ht="26" customHeight="1">
+    <row r="28" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>21</v>
       </c>
@@ -5233,7 +5231,7 @@
       <c r="W28" s="75"/>
       <c r="X28" s="75"/>
     </row>
-    <row r="29" spans="1:24" ht="26" customHeight="1">
+    <row r="29" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>22</v>
       </c>
@@ -5280,7 +5278,7 @@
       <c r="W29" s="75"/>
       <c r="X29" s="75"/>
     </row>
-    <row r="30" spans="1:24" ht="26" customHeight="1">
+    <row r="30" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>23</v>
       </c>
@@ -5335,7 +5333,7 @@
       <c r="W30" s="75"/>
       <c r="X30" s="75"/>
     </row>
-    <row r="31" spans="1:24" ht="26" customHeight="1">
+    <row r="31" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>24</v>
       </c>
@@ -5384,7 +5382,7 @@
       <c r="W31" s="75"/>
       <c r="X31" s="75"/>
     </row>
-    <row r="32" spans="1:24" ht="26" customHeight="1">
+    <row r="32" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="113" t="s">
         <v>14</v>
       </c>
@@ -5410,7 +5408,7 @@
       <c r="W32" s="75"/>
       <c r="X32" s="75"/>
     </row>
-    <row r="33" spans="1:24" ht="26" customHeight="1">
+    <row r="33" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>25</v>
       </c>
@@ -5458,7 +5456,7 @@
       </c>
       <c r="S33" s="33"/>
     </row>
-    <row r="34" spans="1:24" ht="26" customHeight="1">
+    <row r="34" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>26</v>
       </c>
@@ -5504,7 +5502,7 @@
       </c>
       <c r="S34" s="32"/>
     </row>
-    <row r="35" spans="1:24" ht="26" customHeight="1">
+    <row r="35" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <v>27</v>
       </c>
@@ -5549,7 +5547,7 @@
       </c>
       <c r="S35" s="46"/>
     </row>
-    <row r="36" spans="1:24" ht="26" customHeight="1">
+    <row r="36" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>28</v>
       </c>
@@ -5592,7 +5590,7 @@
       <c r="W36" s="75"/>
       <c r="X36" s="75"/>
     </row>
-    <row r="37" spans="1:24" ht="26" customHeight="1">
+    <row r="37" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
         <v>29</v>
       </c>
@@ -5633,7 +5631,7 @@
       <c r="W37" s="75"/>
       <c r="X37" s="75"/>
     </row>
-    <row r="38" spans="1:24" ht="26" customHeight="1">
+    <row r="38" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>30</v>
       </c>
@@ -5672,7 +5670,7 @@
       <c r="W38" s="75"/>
       <c r="X38" s="75"/>
     </row>
-    <row r="39" spans="1:24" ht="26" customHeight="1">
+    <row r="39" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
         <v>31</v>
       </c>
@@ -5711,7 +5709,7 @@
       <c r="W39" s="75"/>
       <c r="X39" s="75"/>
     </row>
-    <row r="40" spans="1:24" ht="26" customHeight="1">
+    <row r="40" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>32</v>
       </c>
@@ -5748,7 +5746,7 @@
       <c r="W40" s="75"/>
       <c r="X40" s="75"/>
     </row>
-    <row r="41" spans="1:24" ht="26" customHeight="1">
+    <row r="41" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="113" t="s">
         <v>15</v>
       </c>
@@ -5773,62 +5771,62 @@
       <c r="W41" s="75"/>
       <c r="X41" s="75"/>
     </row>
-    <row r="42" spans="1:24" ht="26" customHeight="1">
+    <row r="42" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="V42" s="70"/>
       <c r="W42" s="75"/>
       <c r="X42" s="75"/>
     </row>
-    <row r="43" spans="1:24" ht="26" customHeight="1">
+    <row r="43" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="V43" s="70"/>
       <c r="W43" s="75"/>
       <c r="X43" s="75"/>
     </row>
-    <row r="44" spans="1:24" ht="26" customHeight="1">
+    <row r="44" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="V44" s="70"/>
       <c r="W44" s="75"/>
       <c r="X44" s="75"/>
     </row>
-    <row r="45" spans="1:24" ht="26" customHeight="1">
+    <row r="45" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="V45" s="70"/>
       <c r="W45" s="75"/>
       <c r="X45" s="75"/>
     </row>
-    <row r="46" spans="1:24" ht="26" customHeight="1">
+    <row r="46" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="V46" s="70"/>
       <c r="W46" s="75"/>
       <c r="X46" s="75"/>
     </row>
-    <row r="47" spans="1:24" ht="26" customHeight="1">
+    <row r="47" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="V47" s="70"/>
       <c r="W47" s="75"/>
       <c r="X47" s="75"/>
     </row>
-    <row r="48" spans="1:24" ht="26" customHeight="1">
+    <row r="48" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="V48" s="70"/>
       <c r="W48" s="75"/>
       <c r="X48" s="75"/>
     </row>
-    <row r="49" spans="22:24" ht="26" customHeight="1">
+    <row r="49" spans="22:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="V49" s="70"/>
       <c r="W49" s="75"/>
       <c r="X49" s="75"/>
     </row>
-    <row r="50" spans="22:24" ht="26" customHeight="1">
+    <row r="50" spans="22:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="V50" s="70"/>
       <c r="W50" s="75"/>
       <c r="X50" s="75"/>
     </row>
-    <row r="51" spans="22:24" ht="26" customHeight="1">
+    <row r="51" spans="22:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="V51" s="70"/>
       <c r="W51" s="75"/>
       <c r="X51" s="75"/>
     </row>
-    <row r="52" spans="22:24" ht="26" customHeight="1">
+    <row r="52" spans="22:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="V52" s="70"/>
       <c r="W52" s="75"/>
       <c r="X52" s="75"/>
     </row>
-    <row r="53" spans="22:24" ht="26" customHeight="1">
+    <row r="53" spans="22:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="V53" s="70"/>
       <c r="W53" s="75"/>
       <c r="X53" s="75"/>
@@ -5864,22 +5862,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" style="2"/>
-    <col min="2" max="2" width="70.453125" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="10.81640625" style="2"/>
+    <col min="1" max="1" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="70.5" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="21" customHeight="1"/>
-    <row r="2" spans="1:2" ht="31">
+    <row r="1" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="2" spans="1:2" ht="32" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
         <v>4</v>
       </c>
@@ -5887,7 +5885,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="38" customHeight="1">
+    <row r="3" spans="1:2" ht="38" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="10" t="s">
         <v>3</v>
       </c>
@@ -5895,7 +5893,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="38" customHeight="1">
+    <row r="4" spans="1:2" ht="38" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="22" t="s">
         <v>54</v>
       </c>
@@ -5903,7 +5901,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="38" customHeight="1">
+    <row r="5" spans="1:2" ht="38" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="23" t="s">
         <v>55</v>
       </c>
@@ -5911,7 +5909,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="38" customHeight="1">
+    <row r="6" spans="1:2" ht="38" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="24" t="s">
         <v>6</v>
       </c>
@@ -5919,7 +5917,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="38" customHeight="1">
+    <row r="7" spans="1:2" ht="38" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="25" t="s">
         <v>7</v>
       </c>
@@ -5935,22 +5933,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C68"/>
   <sheetViews>
     <sheetView topLeftCell="A12" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="12"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" style="70"/>
-    <col min="2" max="2" width="108.453125" style="71" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="100.453125" style="71" customWidth="1"/>
-    <col min="4" max="16384" width="10.81640625" style="70"/>
+    <col min="1" max="1" width="10.83203125" style="70"/>
+    <col min="2" max="2" width="108.5" style="71" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="100.5" style="71" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="70"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="70" t="s">
         <v>241</v>
       </c>
@@ -5961,51 +5959,51 @@
         <v>243</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="70" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B2" s="71" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C2" s="71" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="24">
+    <row r="3" spans="1:3" ht="24" x14ac:dyDescent="0.15">
       <c r="A3" s="70" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B3" s="71" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C3" s="71" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="24">
+    <row r="4" spans="1:3" ht="24" x14ac:dyDescent="0.15">
       <c r="A4" s="70" t="s">
         <v>205</v>
       </c>
       <c r="B4" s="71" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C4" s="71" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="70" t="s">
         <v>206</v>
       </c>
       <c r="B5" s="71" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C5" s="71" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="70" t="s">
         <v>187</v>
       </c>
@@ -6016,7 +6014,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="70" t="s">
         <v>188</v>
       </c>
@@ -6027,7 +6025,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="70" t="s">
         <v>207</v>
       </c>
@@ -6038,7 +6036,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="70" t="s">
         <v>208</v>
       </c>
@@ -6049,28 +6047,28 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="70" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="70" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="70" t="s">
         <v>189</v>
       </c>
       <c r="B13" s="71" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C13" s="71" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="70" t="s">
         <v>190</v>
       </c>
@@ -6081,7 +6079,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="70" t="s">
         <v>191</v>
       </c>
@@ -6092,18 +6090,18 @@
         <v>98</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="70" t="s">
         <v>199</v>
       </c>
       <c r="B16" s="71" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C16" s="71" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="70" t="s">
         <v>201</v>
       </c>
@@ -6114,40 +6112,40 @@
         <v>102</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="70" t="s">
         <v>192</v>
       </c>
       <c r="B18" s="71" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C18" s="71" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="70" t="s">
         <v>193</v>
       </c>
       <c r="B19" s="71" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C19" s="71" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="70" t="s">
         <v>194</v>
       </c>
       <c r="B20" s="71" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C20" s="71" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="70" t="s">
         <v>195</v>
       </c>
@@ -6158,72 +6156,72 @@
         <v>109</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="24">
+    <row r="22" spans="1:3" ht="24" x14ac:dyDescent="0.15">
       <c r="A22" s="70" t="s">
         <v>196</v>
       </c>
       <c r="B22" s="71" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C22" s="71" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="70" t="s">
         <v>197</v>
       </c>
       <c r="B23" s="71" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C23" s="71" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" s="70" t="s">
         <v>198</v>
       </c>
       <c r="B24" s="71" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C24" s="71" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" s="70" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" s="70" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" s="79" t="s">
         <v>200</v>
       </c>
       <c r="B27" s="80" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C27" s="80" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" s="79" t="s">
         <v>202</v>
       </c>
       <c r="B28" s="80" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C28" s="80" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" s="79" t="s">
         <v>203</v>
       </c>
@@ -6234,29 +6232,29 @@
         <v>119</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" s="79" t="s">
         <v>204</v>
       </c>
       <c r="B30" s="80" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C30" s="80" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" s="79" t="s">
         <v>237</v>
       </c>
       <c r="B31" s="80" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C31" s="80" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" s="79" t="s">
         <v>238</v>
       </c>
@@ -6267,18 +6265,18 @@
         <v>125</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" s="70" t="s">
         <v>209</v>
       </c>
       <c r="B33" s="71" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C33" s="71" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" s="70" t="s">
         <v>210</v>
       </c>
@@ -6289,7 +6287,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" s="70" t="s">
         <v>211</v>
       </c>
@@ -6300,7 +6298,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" s="70" t="s">
         <v>212</v>
       </c>
@@ -6311,7 +6309,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" s="70" t="s">
         <v>213</v>
       </c>
@@ -6322,39 +6320,39 @@
         <v>252</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="24">
+    <row r="38" spans="1:3" ht="24" x14ac:dyDescent="0.15">
       <c r="A38" s="70" t="s">
         <v>239</v>
       </c>
       <c r="B38" s="71" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C38" s="71" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" s="70" t="s">
         <v>240</v>
       </c>
       <c r="B39" s="71" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C39" s="71" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" s="70" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" s="70" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="24">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="24" x14ac:dyDescent="0.15">
       <c r="A42" s="70" t="s">
         <v>214</v>
       </c>
@@ -6365,29 +6363,29 @@
         <v>254</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="36">
+    <row r="43" spans="1:3" ht="24" x14ac:dyDescent="0.15">
       <c r="A43" s="70" t="s">
         <v>215</v>
       </c>
       <c r="B43" s="71" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C43" s="71" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="24">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="24" x14ac:dyDescent="0.15">
       <c r="A44" s="70" t="s">
         <v>216</v>
       </c>
       <c r="B44" s="71" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C44" s="71" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" s="70" t="s">
         <v>217</v>
       </c>
@@ -6398,83 +6396,83 @@
         <v>256</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46" s="70" t="s">
         <v>218</v>
       </c>
       <c r="B46" s="71" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C46" s="71" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47" s="70" t="s">
         <v>219</v>
       </c>
       <c r="B47" s="71" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C47" s="71" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="24">
+    <row r="48" spans="1:3" ht="24" x14ac:dyDescent="0.15">
       <c r="A48" s="70" t="s">
         <v>220</v>
       </c>
       <c r="B48" s="71" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C48" s="71" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A49" s="70" t="s">
         <v>221</v>
       </c>
       <c r="B49" s="71" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C49" s="71" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="24">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="24" x14ac:dyDescent="0.15">
       <c r="A50" s="70" t="s">
         <v>222</v>
       </c>
       <c r="B50" s="71" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C50" s="71" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A51" s="70" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A52" s="70" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A53" s="70" t="s">
         <v>223</v>
       </c>
       <c r="B53" s="71" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C53" s="71" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A54" s="70" t="s">
         <v>224</v>
       </c>
@@ -6485,7 +6483,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A55" s="70" t="s">
         <v>225</v>
       </c>
@@ -6496,18 +6494,18 @@
         <v>165</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A56" s="70" t="s">
         <v>226</v>
       </c>
       <c r="B56" s="71" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C56" s="71" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A57" s="70" t="s">
         <v>227</v>
       </c>
@@ -6518,7 +6516,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A58" s="70" t="s">
         <v>228</v>
       </c>
@@ -6529,7 +6527,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A59" s="70" t="s">
         <v>231</v>
       </c>
@@ -6540,7 +6538,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="24">
+    <row r="60" spans="1:3" ht="24" x14ac:dyDescent="0.15">
       <c r="A60" s="70" t="s">
         <v>232</v>
       </c>
@@ -6551,23 +6549,23 @@
         <v>230</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A61" s="70" t="s">
         <v>233</v>
       </c>
       <c r="B61" s="71" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C61" s="71" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A62" s="70" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A63" s="70" t="s">
         <v>234</v>
       </c>
@@ -6578,7 +6576,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A64" s="70" t="s">
         <v>235</v>
       </c>
@@ -6589,42 +6587,42 @@
         <v>180</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A65" s="70" t="s">
         <v>236</v>
       </c>
       <c r="B65" s="71" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C65" s="71" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="36">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="36" x14ac:dyDescent="0.15">
       <c r="A66" s="70" t="s">
+        <v>281</v>
+      </c>
+      <c r="B66" s="71" t="s">
+        <v>316</v>
+      </c>
+      <c r="C66" s="71" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A67" s="70" t="s">
+        <v>320</v>
+      </c>
+      <c r="B67" s="71" t="s">
+        <v>321</v>
+      </c>
+      <c r="C67" s="71" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A68" s="70" t="s">
         <v>280</v>
-      </c>
-      <c r="B66" s="71" t="s">
-        <v>315</v>
-      </c>
-      <c r="C66" s="71" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" s="70" t="s">
-        <v>319</v>
-      </c>
-      <c r="B67" s="71" t="s">
-        <v>320</v>
-      </c>
-      <c r="C67" s="71" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" s="70" t="s">
-        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -6635,20 +6633,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="47.36328125" customWidth="1"/>
+    <col min="2" max="4" width="47.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.5">
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.15">
       <c r="A1" s="132" t="s">
         <v>77</v>
       </c>
@@ -6656,7 +6654,7 @@
       <c r="C1" s="133"/>
       <c r="D1" s="134"/>
     </row>
-    <row r="2" spans="1:4" ht="21">
+    <row r="2" spans="1:4" ht="22" x14ac:dyDescent="0.15">
       <c r="A2" s="54" t="s">
         <v>78</v>
       </c>
@@ -6666,7 +6664,7 @@
       <c r="C2" s="55"/>
       <c r="D2" s="56"/>
     </row>
-    <row r="3" spans="1:4" ht="42">
+    <row r="3" spans="1:4" ht="44" x14ac:dyDescent="0.15">
       <c r="A3" s="54"/>
       <c r="B3" s="55"/>
       <c r="C3" s="55" t="s">
@@ -6674,7 +6672,7 @@
       </c>
       <c r="D3" s="56"/>
     </row>
-    <row r="4" spans="1:4" ht="31.5">
+    <row r="4" spans="1:4" ht="33" x14ac:dyDescent="0.15">
       <c r="A4" s="54"/>
       <c r="B4" s="55"/>
       <c r="C4" s="55" t="s">
@@ -6682,7 +6680,7 @@
       </c>
       <c r="D4" s="56"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="54"/>
       <c r="B5" s="55"/>
       <c r="C5" s="55" t="s">
@@ -6690,13 +6688,13 @@
       </c>
       <c r="D5" s="56"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="54"/>
       <c r="B6" s="55"/>
       <c r="C6" s="55"/>
       <c r="D6" s="56"/>
     </row>
-    <row r="7" spans="1:4" ht="21">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="54" t="s">
         <v>83</v>
       </c>
@@ -6706,7 +6704,7 @@
       <c r="C7" s="55"/>
       <c r="D7" s="56"/>
     </row>
-    <row r="8" spans="1:4" ht="21">
+    <row r="8" spans="1:4" ht="22" x14ac:dyDescent="0.15">
       <c r="A8" s="54" t="s">
         <v>85</v>
       </c>
@@ -6718,7 +6716,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="42">
+    <row r="9" spans="1:4" ht="33" x14ac:dyDescent="0.15">
       <c r="A9" s="54"/>
       <c r="B9" s="55"/>
       <c r="C9" s="55" t="s">
@@ -6728,7 +6726,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="53" thickBot="1">
+    <row r="10" spans="1:4" ht="56" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="57"/>
       <c r="B10" s="58"/>
       <c r="C10" s="58" t="s">
@@ -6738,13 +6736,13 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="13" thickBot="1">
+    <row r="11" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="60"/>
       <c r="B11" s="61"/>
       <c r="C11" s="61"/>
       <c r="D11" s="61"/>
     </row>
-    <row r="12" spans="1:4" ht="14.5">
+    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.15">
       <c r="A12" s="132" t="s">
         <v>92</v>
       </c>
@@ -6752,7 +6750,7 @@
       <c r="C12" s="133"/>
       <c r="D12" s="134"/>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="54" t="s">
         <v>93</v>
       </c>
@@ -6762,7 +6760,7 @@
       <c r="C13" s="55"/>
       <c r="D13" s="56"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="54" t="s">
         <v>95</v>
       </c>
@@ -6772,7 +6770,7 @@
       <c r="C14" s="55"/>
       <c r="D14" s="56"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="54" t="s">
         <v>97</v>
       </c>
@@ -6782,7 +6780,7 @@
       <c r="C15" s="55"/>
       <c r="D15" s="56"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="54" t="s">
         <v>99</v>
       </c>
@@ -6792,7 +6790,7 @@
       <c r="C16" s="55"/>
       <c r="D16" s="56"/>
     </row>
-    <row r="17" spans="1:4" ht="21">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="54" t="s">
         <v>101</v>
       </c>
@@ -6802,7 +6800,7 @@
       <c r="C17" s="55"/>
       <c r="D17" s="56"/>
     </row>
-    <row r="18" spans="1:4" ht="21">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="54" t="s">
         <v>103</v>
       </c>
@@ -6812,7 +6810,7 @@
       <c r="C18" s="55"/>
       <c r="D18" s="56"/>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="54" t="s">
         <v>105</v>
       </c>
@@ -6822,7 +6820,7 @@
       <c r="C19" s="55"/>
       <c r="D19" s="56"/>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="54" t="s">
         <v>107</v>
       </c>
@@ -6832,7 +6830,7 @@
       <c r="C20" s="55"/>
       <c r="D20" s="56"/>
     </row>
-    <row r="21" spans="1:4" ht="21">
+    <row r="21" spans="1:4" ht="22" x14ac:dyDescent="0.15">
       <c r="A21" s="54"/>
       <c r="B21" s="55"/>
       <c r="C21" s="55" t="s">
@@ -6840,7 +6838,7 @@
       </c>
       <c r="D21" s="56"/>
     </row>
-    <row r="22" spans="1:4" ht="21">
+    <row r="22" spans="1:4" ht="22" x14ac:dyDescent="0.15">
       <c r="A22" s="54"/>
       <c r="B22" s="55"/>
       <c r="C22" s="55" t="s">
@@ -6848,7 +6846,7 @@
       </c>
       <c r="D22" s="56"/>
     </row>
-    <row r="23" spans="1:4" ht="21">
+    <row r="23" spans="1:4" ht="22" x14ac:dyDescent="0.15">
       <c r="A23" s="54"/>
       <c r="B23" s="55"/>
       <c r="C23" s="55" t="s">
@@ -6856,7 +6854,7 @@
       </c>
       <c r="D23" s="56"/>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="54"/>
       <c r="B24" s="55"/>
       <c r="C24" s="55" t="s">
@@ -6864,7 +6862,7 @@
       </c>
       <c r="D24" s="56"/>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="54"/>
       <c r="B25" s="55"/>
       <c r="C25" s="55" t="s">
@@ -6872,13 +6870,13 @@
       </c>
       <c r="D25" s="56"/>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="54"/>
       <c r="B26" s="55"/>
       <c r="C26" s="55"/>
       <c r="D26" s="56"/>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="54" t="s">
         <v>114</v>
       </c>
@@ -6888,7 +6886,7 @@
       <c r="C27" s="55"/>
       <c r="D27" s="56"/>
     </row>
-    <row r="28" spans="1:4" ht="21">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="54" t="s">
         <v>116</v>
       </c>
@@ -6898,7 +6896,7 @@
       <c r="C28" s="55"/>
       <c r="D28" s="56"/>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="54" t="s">
         <v>118</v>
       </c>
@@ -6908,7 +6906,7 @@
       <c r="C29" s="55"/>
       <c r="D29" s="56"/>
     </row>
-    <row r="30" spans="1:4" ht="21">
+    <row r="30" spans="1:4" ht="22" x14ac:dyDescent="0.15">
       <c r="A30" s="54" t="s">
         <v>120</v>
       </c>
@@ -6918,7 +6916,7 @@
       <c r="C30" s="55"/>
       <c r="D30" s="56"/>
     </row>
-    <row r="31" spans="1:4" ht="21">
+    <row r="31" spans="1:4" ht="22" x14ac:dyDescent="0.15">
       <c r="A31" s="54" t="s">
         <v>122</v>
       </c>
@@ -6928,7 +6926,7 @@
       <c r="C31" s="55"/>
       <c r="D31" s="56"/>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" s="54" t="s">
         <v>124</v>
       </c>
@@ -6938,7 +6936,7 @@
       <c r="C32" s="55"/>
       <c r="D32" s="56"/>
     </row>
-    <row r="33" spans="1:4" ht="21">
+    <row r="33" spans="1:4" ht="22" x14ac:dyDescent="0.15">
       <c r="A33" s="54"/>
       <c r="B33" s="55"/>
       <c r="C33" s="55" t="s">
@@ -6948,7 +6946,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="21">
+    <row r="34" spans="1:4" ht="22" x14ac:dyDescent="0.15">
       <c r="A34" s="54"/>
       <c r="B34" s="55"/>
       <c r="C34" s="55" t="s">
@@ -6958,7 +6956,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="31.5">
+    <row r="35" spans="1:4" ht="22" x14ac:dyDescent="0.15">
       <c r="A35" s="54"/>
       <c r="B35" s="55"/>
       <c r="C35" s="55" t="s">
@@ -6968,7 +6966,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="31.5">
+    <row r="36" spans="1:4" ht="33" x14ac:dyDescent="0.15">
       <c r="A36" s="54"/>
       <c r="B36" s="55"/>
       <c r="C36" s="55" t="s">
@@ -6978,7 +6976,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="31.5">
+    <row r="37" spans="1:4" ht="22" x14ac:dyDescent="0.15">
       <c r="A37" s="54"/>
       <c r="B37" s="55"/>
       <c r="C37" s="55" t="s">
@@ -6988,7 +6986,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="52.5">
+    <row r="38" spans="1:4" ht="55" x14ac:dyDescent="0.15">
       <c r="A38" s="54"/>
       <c r="B38" s="55"/>
       <c r="C38" s="55" t="s">
@@ -6998,7 +6996,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="32" thickBot="1">
+    <row r="39" spans="1:4" ht="34" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A39" s="57"/>
       <c r="B39" s="58"/>
       <c r="C39" s="58" t="s">
@@ -7008,13 +7006,13 @@
         <v>139</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="13" thickBot="1">
+    <row r="40" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A40" s="60"/>
       <c r="B40" s="61"/>
       <c r="C40" s="61"/>
       <c r="D40" s="61"/>
     </row>
-    <row r="41" spans="1:4" ht="14.5">
+    <row r="41" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="135" t="s">
         <v>140</v>
       </c>
@@ -7022,7 +7020,7 @@
       <c r="C41" s="136"/>
       <c r="D41" s="137"/>
     </row>
-    <row r="42" spans="1:4" ht="31.5">
+    <row r="42" spans="1:4" ht="33" x14ac:dyDescent="0.15">
       <c r="A42" s="54" t="s">
         <v>141</v>
       </c>
@@ -7032,7 +7030,7 @@
       <c r="C42" s="62"/>
       <c r="D42" s="63"/>
     </row>
-    <row r="43" spans="1:4" ht="42">
+    <row r="43" spans="1:4" ht="44" x14ac:dyDescent="0.15">
       <c r="A43" s="54" t="s">
         <v>143</v>
       </c>
@@ -7042,7 +7040,7 @@
       <c r="C43" s="62"/>
       <c r="D43" s="63"/>
     </row>
-    <row r="44" spans="1:4" ht="31.5">
+    <row r="44" spans="1:4" ht="33" x14ac:dyDescent="0.15">
       <c r="A44" s="54" t="s">
         <v>145</v>
       </c>
@@ -7052,7 +7050,7 @@
       <c r="C44" s="62"/>
       <c r="D44" s="63"/>
     </row>
-    <row r="45" spans="1:4" ht="21">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45" s="54" t="s">
         <v>147</v>
       </c>
@@ -7062,7 +7060,7 @@
       <c r="C45" s="62"/>
       <c r="D45" s="63"/>
     </row>
-    <row r="46" spans="1:4" ht="21">
+    <row r="46" spans="1:4" ht="22" x14ac:dyDescent="0.15">
       <c r="A46" s="54" t="s">
         <v>149</v>
       </c>
@@ -7072,7 +7070,7 @@
       <c r="C46" s="62"/>
       <c r="D46" s="63"/>
     </row>
-    <row r="47" spans="1:4" ht="42">
+    <row r="47" spans="1:4" ht="44" x14ac:dyDescent="0.15">
       <c r="A47" s="54"/>
       <c r="B47" s="62"/>
       <c r="C47" s="62" t="s">
@@ -7082,7 +7080,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="31.5">
+    <row r="48" spans="1:4" ht="33" x14ac:dyDescent="0.15">
       <c r="A48" s="54"/>
       <c r="B48" s="62"/>
       <c r="C48" s="62" t="s">
@@ -7092,7 +7090,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="52.5">
+    <row r="49" spans="1:4" ht="44" x14ac:dyDescent="0.15">
       <c r="A49" s="54"/>
       <c r="B49" s="62"/>
       <c r="C49" s="62" t="s">
@@ -7102,7 +7100,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="74" thickBot="1">
+    <row r="50" spans="1:4" ht="67" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A50" s="57"/>
       <c r="B50" s="64"/>
       <c r="C50" s="64" t="s">
@@ -7112,13 +7110,13 @@
         <v>158</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15" thickBot="1">
+    <row r="51" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="60"/>
       <c r="B51" s="66"/>
       <c r="C51" s="66"/>
       <c r="D51" s="66"/>
     </row>
-    <row r="52" spans="1:4" ht="15" thickBot="1">
+    <row r="52" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="138" t="s">
         <v>159</v>
       </c>
@@ -7126,7 +7124,7 @@
       <c r="C52" s="139"/>
       <c r="D52" s="140"/>
     </row>
-    <row r="53" spans="1:4" ht="21">
+    <row r="53" spans="1:4" ht="22" x14ac:dyDescent="0.15">
       <c r="A53" s="67" t="s">
         <v>160</v>
       </c>
@@ -7136,7 +7134,7 @@
       <c r="C53" s="68"/>
       <c r="D53" s="68"/>
     </row>
-    <row r="54" spans="1:4" ht="21">
+    <row r="54" spans="1:4" ht="22" x14ac:dyDescent="0.15">
       <c r="A54" s="69" t="s">
         <v>162</v>
       </c>
@@ -7146,7 +7144,7 @@
       <c r="C54" s="55"/>
       <c r="D54" s="55"/>
     </row>
-    <row r="55" spans="1:4" ht="21">
+    <row r="55" spans="1:4" ht="22" x14ac:dyDescent="0.15">
       <c r="A55" s="69" t="s">
         <v>164</v>
       </c>
@@ -7156,7 +7154,7 @@
       <c r="C55" s="55"/>
       <c r="D55" s="55"/>
     </row>
-    <row r="56" spans="1:4" ht="21">
+    <row r="56" spans="1:4" ht="22" x14ac:dyDescent="0.15">
       <c r="A56" s="69" t="s">
         <v>166</v>
       </c>
@@ -7166,7 +7164,7 @@
       <c r="C56" s="55"/>
       <c r="D56" s="55"/>
     </row>
-    <row r="57" spans="1:4" ht="21">
+    <row r="57" spans="1:4" ht="22" x14ac:dyDescent="0.15">
       <c r="A57" s="69" t="s">
         <v>168</v>
       </c>
@@ -7176,7 +7174,7 @@
       <c r="C57" s="55"/>
       <c r="D57" s="55"/>
     </row>
-    <row r="58" spans="1:4" ht="21">
+    <row r="58" spans="1:4" ht="22" x14ac:dyDescent="0.15">
       <c r="A58" s="69"/>
       <c r="B58" s="55"/>
       <c r="C58" s="55" t="s">
@@ -7186,7 +7184,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="52.5">
+    <row r="59" spans="1:4" ht="55" x14ac:dyDescent="0.15">
       <c r="A59" s="69"/>
       <c r="B59" s="55"/>
       <c r="C59" s="55" t="s">
@@ -7196,7 +7194,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="21.5" thickBot="1">
+    <row r="60" spans="1:4" ht="23" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A60" s="69"/>
       <c r="B60" s="55"/>
       <c r="C60" s="55" t="s">
@@ -7206,13 +7204,13 @@
         <v>175</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="15" thickBot="1">
+    <row r="61" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="60"/>
       <c r="B61" s="66"/>
       <c r="C61" s="66"/>
       <c r="D61" s="66"/>
     </row>
-    <row r="62" spans="1:4" ht="15" thickBot="1">
+    <row r="62" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="138" t="s">
         <v>176</v>
       </c>
@@ -7220,7 +7218,7 @@
       <c r="C62" s="139"/>
       <c r="D62" s="140"/>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A63" s="67" t="s">
         <v>177</v>
       </c>
@@ -7230,7 +7228,7 @@
       <c r="C63" s="68"/>
       <c r="D63" s="68"/>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A64" s="69" t="s">
         <v>179</v>
       </c>
@@ -7240,7 +7238,7 @@
       <c r="C64" s="55"/>
       <c r="D64" s="55"/>
     </row>
-    <row r="65" spans="1:4" ht="42">
+    <row r="65" spans="1:4" ht="44" x14ac:dyDescent="0.15">
       <c r="A65" s="69" t="s">
         <v>181</v>
       </c>

--- a/progression_2019_2020_IPT_MPSI.xlsx
+++ b/progression_2019_2020_IPT_MPSI.xlsx
@@ -1130,7 +1130,7 @@
     <t>Tableaux, fichiers et traitement d'images</t>
   </si>
   <si>
-    <t>algo/ALG-017;python_bases/PYB-517</t>
+    <t>algo/ALG-017;python_bases/PYB-517;algo/ALG-020;algo/ALG-021;algo/ALG-022</t>
   </si>
 </sst>
 </file>

--- a/progression_2019_2020_IPT_MPSI.xlsx
+++ b/progression_2019_2020_IPT_MPSI.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-32660" yWindow="380" windowWidth="28500" windowHeight="17000" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14700" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Planning DS" sheetId="16" r:id="rId1"/>
@@ -863,9 +863,6 @@
     <t>SN.C1; SN.C2; SN.C3; SN.C4; SN.C5; SN.S1; AN.S3</t>
   </si>
   <si>
-    <t>AN.C1; AN.C2; AN.S1; AN.S2; AN.S4</t>
-  </si>
-  <si>
     <t>AN.C3; AN.S1; AN.S2; AN.S4</t>
   </si>
   <si>
@@ -1131,6 +1128,9 @@
   </si>
   <si>
     <t>algo/ALG-017;python_bases/PYB-517;algo/ALG-020;algo/ALG-021;algo/ALG-022</t>
+  </si>
+  <si>
+    <t>AN.C1; AN.C2</t>
   </si>
 </sst>
 </file>
@@ -3619,16 +3619,16 @@
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>333</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="48" x14ac:dyDescent="0.15">
@@ -3636,10 +3636,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="85" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C2" s="86" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D2" s="86"/>
       <c r="E2" s="86"/>
@@ -3648,10 +3648,10 @@
     <row r="3" spans="1:8" ht="78" x14ac:dyDescent="0.15">
       <c r="A3" s="97"/>
       <c r="B3" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -3660,10 +3660,10 @@
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="97"/>
       <c r="B4" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="C4" s="42" t="s">
         <v>340</v>
-      </c>
-      <c r="C4" s="42" t="s">
-        <v>341</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="42"/>
@@ -3672,7 +3672,7 @@
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="97"/>
       <c r="B5" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C5" s="42">
         <v>1</v>
@@ -3684,7 +3684,7 @@
     <row r="6" spans="1:8" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="98"/>
       <c r="B6" s="87" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C6" s="88">
         <v>43754</v>
@@ -3698,10 +3698,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="89" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C7" s="86" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D7" s="86"/>
       <c r="E7" s="86"/>
@@ -3710,10 +3710,10 @@
     <row r="8" spans="1:8" ht="39" x14ac:dyDescent="0.15">
       <c r="A8" s="97"/>
       <c r="B8" s="90" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C8" s="95" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D8" s="90"/>
       <c r="E8" s="90"/>
@@ -3722,22 +3722,22 @@
     <row r="9" spans="1:8" ht="26" x14ac:dyDescent="0.15">
       <c r="A9" s="97"/>
       <c r="B9" s="90" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D9" s="90"/>
       <c r="E9" s="42"/>
       <c r="F9" s="90"/>
       <c r="H9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="97"/>
       <c r="B10" s="90" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C10" s="42">
         <v>1</v>
@@ -3749,7 +3749,7 @@
     <row r="11" spans="1:8" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="98"/>
       <c r="B11" s="91" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C11" s="88">
         <v>43798</v>
@@ -3763,10 +3763,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="92" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C12" s="86" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D12" s="86"/>
       <c r="E12" s="86"/>
@@ -3775,10 +3775,10 @@
     <row r="13" spans="1:8" ht="26" x14ac:dyDescent="0.15">
       <c r="A13" s="97"/>
       <c r="B13" s="93" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C13" s="93" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D13" s="93"/>
       <c r="E13" s="93"/>
@@ -3787,22 +3787,22 @@
     <row r="14" spans="1:8" ht="26" x14ac:dyDescent="0.15">
       <c r="A14" s="97"/>
       <c r="B14" s="93" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C14" s="42" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D14" s="93"/>
       <c r="E14" s="42"/>
       <c r="F14" s="93"/>
       <c r="H14" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="97"/>
       <c r="B15" s="93" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C15" s="42">
         <v>1</v>
@@ -3814,7 +3814,7 @@
     <row r="16" spans="1:8" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="98"/>
       <c r="B16" s="94" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C16" s="88">
         <v>43798</v>
@@ -3825,7 +3825,7 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -3846,7 +3846,7 @@
   <dimension ref="A1:X53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="26" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3909,10 +3909,10 @@
         <v>57</v>
       </c>
       <c r="M1" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>276</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>277</v>
       </c>
       <c r="O1" s="4" t="s">
         <v>13</v>
@@ -3921,7 +3921,7 @@
         <v>22</v>
       </c>
       <c r="Q1" s="41" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="R1" s="4" t="s">
         <v>63</v>
@@ -3963,13 +3963,13 @@
       </c>
       <c r="K2" s="5"/>
       <c r="L2" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="M2" s="83" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="N2" s="83" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="O2" s="3"/>
       <c r="P2" s="42"/>
@@ -3980,7 +3980,7 @@
         <v>64</v>
       </c>
       <c r="S2" s="33" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="V2" s="70"/>
       <c r="W2" s="75"/>
@@ -4015,13 +4015,13 @@
         <v>27</v>
       </c>
       <c r="K3" s="82" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="M3" s="83" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="N3" s="83" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="O3" s="3"/>
       <c r="P3" s="42"/>
@@ -4032,7 +4032,7 @@
         <v>64</v>
       </c>
       <c r="S3" s="33" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="V3" s="70"/>
       <c r="W3" s="75"/>
@@ -4068,13 +4068,13 @@
       </c>
       <c r="K4" s="5"/>
       <c r="L4" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M4" s="73" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="N4" s="83" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="O4" s="3"/>
       <c r="P4" s="42"/>
@@ -4085,7 +4085,7 @@
         <v>64</v>
       </c>
       <c r="S4" s="33" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="V4" s="70"/>
       <c r="W4" s="75"/>
@@ -4120,14 +4120,14 @@
         <v>34</v>
       </c>
       <c r="K5" s="82" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="L5" s="5"/>
       <c r="M5" s="73" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="N5" s="83" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="O5" s="3"/>
       <c r="P5" s="42"/>
@@ -4138,7 +4138,7 @@
         <v>64</v>
       </c>
       <c r="S5" s="33" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="V5" s="70"/>
       <c r="W5" s="75"/>
@@ -4170,19 +4170,19 @@
         <v>3</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K6" s="82" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="L6" s="82" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="N6" s="83" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="O6" s="3"/>
       <c r="P6" s="42"/>
@@ -4193,7 +4193,7 @@
         <v>65</v>
       </c>
       <c r="S6" s="33" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="V6" s="70"/>
       <c r="W6" s="75"/>
@@ -4231,7 +4231,7 @@
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
       <c r="N7" s="83" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="O7" s="4"/>
       <c r="P7" s="36"/>
@@ -4242,7 +4242,7 @@
         <v>65</v>
       </c>
       <c r="S7" s="32" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="V7" s="70"/>
       <c r="W7" s="75"/>
@@ -4277,16 +4277,16 @@
         <v>28</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="L8" s="82" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="M8" s="78" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="N8" s="73" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O8" s="4"/>
       <c r="P8" s="36" t="s">
@@ -4364,10 +4364,10 @@
       <c r="K10" s="5"/>
       <c r="L10" s="82"/>
       <c r="M10" s="78" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="N10" s="73" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O10" s="3"/>
       <c r="P10" s="42"/>
@@ -4411,13 +4411,13 @@
         <v>36</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L11" s="82" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="M11" s="78" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="N11" s="5"/>
       <c r="O11" s="3"/>
@@ -4464,7 +4464,7 @@
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
       <c r="M12" s="78" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="N12" s="5"/>
       <c r="O12" s="3"/>
@@ -4505,19 +4505,19 @@
         <v>6</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="K13" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="L13" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="L13" s="5" t="s">
-        <v>350</v>
-      </c>
       <c r="M13" s="78" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="N13" s="27" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="O13" s="3"/>
       <c r="P13" s="42"/>
@@ -4525,7 +4525,7 @@
         <v>59</v>
       </c>
       <c r="R13" s="48" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="S13" s="33"/>
       <c r="V13" s="70"/>
@@ -4558,15 +4558,15 @@
         <v>6</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
       <c r="M14" s="78" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="N14" s="27" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="O14" s="3"/>
       <c r="P14" s="42"/>
@@ -4574,7 +4574,7 @@
         <v>59</v>
       </c>
       <c r="R14" s="48" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="V14" s="70"/>
       <c r="W14" s="75"/>
@@ -4609,14 +4609,14 @@
         <v>32</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="L15" s="5"/>
       <c r="M15" s="83" t="s">
         <v>268</v>
       </c>
       <c r="N15" s="78" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="O15" s="4" t="s">
         <v>52</v>
@@ -4667,7 +4667,7 @@
         <v>268</v>
       </c>
       <c r="N16" s="78" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="O16" s="3"/>
       <c r="P16" s="36"/>
@@ -4738,19 +4738,19 @@
         <v>8</v>
       </c>
       <c r="J18" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="K18" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="K18" s="5" t="s">
+      <c r="L18" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="M18" s="84" t="s">
         <v>358</v>
       </c>
-      <c r="L18" s="5" t="s">
-        <v>356</v>
-      </c>
-      <c r="M18" s="84" t="s">
-        <v>270</v>
-      </c>
       <c r="N18" s="78" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="O18" s="27"/>
       <c r="P18" s="43"/>
@@ -4791,15 +4791,15 @@
         <v>8</v>
       </c>
       <c r="J19" s="13" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
       <c r="M19" s="84" t="s">
-        <v>270</v>
+        <v>358</v>
       </c>
       <c r="N19" s="78" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="O19" s="27"/>
       <c r="P19" s="43"/>
@@ -4845,10 +4845,10 @@
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
       <c r="M20" s="73" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="N20" s="73" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="O20" s="3"/>
       <c r="P20" s="42"/>
@@ -4894,10 +4894,10 @@
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
       <c r="M21" s="73" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="N21" s="73" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="O21" s="3"/>
       <c r="P21" s="42"/>
@@ -5961,10 +5961,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="70" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B2" s="71" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C2" s="71" t="s">
         <v>244</v>
@@ -5972,10 +5972,10 @@
     </row>
     <row r="3" spans="1:3" ht="24" x14ac:dyDescent="0.15">
       <c r="A3" s="70" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B3" s="71" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C3" s="71" t="s">
         <v>245</v>
@@ -5986,7 +5986,7 @@
         <v>205</v>
       </c>
       <c r="B4" s="71" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C4" s="71" t="s">
         <v>246</v>
@@ -5997,7 +5997,7 @@
         <v>206</v>
       </c>
       <c r="B5" s="71" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C5" s="71" t="s">
         <v>247</v>
@@ -6049,12 +6049,12 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="70" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="70" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
@@ -6062,10 +6062,10 @@
         <v>189</v>
       </c>
       <c r="B13" s="71" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C13" s="71" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
@@ -6095,10 +6095,10 @@
         <v>199</v>
       </c>
       <c r="B16" s="71" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C16" s="71" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
@@ -6117,10 +6117,10 @@
         <v>192</v>
       </c>
       <c r="B18" s="71" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C18" s="71" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
@@ -6128,10 +6128,10 @@
         <v>193</v>
       </c>
       <c r="B19" s="71" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C19" s="71" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
@@ -6139,10 +6139,10 @@
         <v>194</v>
       </c>
       <c r="B20" s="71" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C20" s="71" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
@@ -6161,7 +6161,7 @@
         <v>196</v>
       </c>
       <c r="B22" s="71" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C22" s="71" t="s">
         <v>248</v>
@@ -6172,10 +6172,10 @@
         <v>197</v>
       </c>
       <c r="B23" s="71" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C23" s="71" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
@@ -6183,20 +6183,20 @@
         <v>198</v>
       </c>
       <c r="B24" s="71" t="s">
+        <v>293</v>
+      </c>
+      <c r="C24" s="71" t="s">
         <v>294</v>
-      </c>
-      <c r="C24" s="71" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" s="70" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" s="70" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
@@ -6204,10 +6204,10 @@
         <v>200</v>
       </c>
       <c r="B27" s="80" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C27" s="80" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
@@ -6215,10 +6215,10 @@
         <v>202</v>
       </c>
       <c r="B28" s="80" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C28" s="80" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
@@ -6237,10 +6237,10 @@
         <v>204</v>
       </c>
       <c r="B30" s="80" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C30" s="80" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
@@ -6248,10 +6248,10 @@
         <v>237</v>
       </c>
       <c r="B31" s="80" t="s">
+        <v>298</v>
+      </c>
+      <c r="C31" s="80" t="s">
         <v>299</v>
-      </c>
-      <c r="C31" s="80" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
@@ -6270,10 +6270,10 @@
         <v>209</v>
       </c>
       <c r="B33" s="71" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C33" s="71" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
@@ -6325,7 +6325,7 @@
         <v>239</v>
       </c>
       <c r="B38" s="71" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C38" s="71" t="s">
         <v>253</v>
@@ -6336,7 +6336,7 @@
         <v>240</v>
       </c>
       <c r="B39" s="71" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C39" s="71" t="s">
         <v>32</v>
@@ -6344,12 +6344,12 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" s="70" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" s="70" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="24" x14ac:dyDescent="0.15">
@@ -6368,10 +6368,10 @@
         <v>215</v>
       </c>
       <c r="B43" s="71" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C43" s="71" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="24" x14ac:dyDescent="0.15">
@@ -6379,7 +6379,7 @@
         <v>216</v>
       </c>
       <c r="B44" s="71" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C44" s="71" t="s">
         <v>255</v>
@@ -6401,10 +6401,10 @@
         <v>218</v>
       </c>
       <c r="B46" s="71" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C46" s="71" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
@@ -6412,7 +6412,7 @@
         <v>219</v>
       </c>
       <c r="B47" s="71" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C47" s="71" t="s">
         <v>257</v>
@@ -6423,7 +6423,7 @@
         <v>220</v>
       </c>
       <c r="B48" s="71" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C48" s="71" t="s">
         <v>258</v>
@@ -6434,10 +6434,10 @@
         <v>221</v>
       </c>
       <c r="B49" s="71" t="s">
+        <v>308</v>
+      </c>
+      <c r="C49" s="71" t="s">
         <v>309</v>
-      </c>
-      <c r="C49" s="71" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="24" x14ac:dyDescent="0.15">
@@ -6445,7 +6445,7 @@
         <v>222</v>
       </c>
       <c r="B50" s="71" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C50" s="71" t="s">
         <v>259</v>
@@ -6453,12 +6453,12 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A51" s="70" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A52" s="70" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.15">
@@ -6466,10 +6466,10 @@
         <v>223</v>
       </c>
       <c r="B53" s="71" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C53" s="71" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.15">
@@ -6499,10 +6499,10 @@
         <v>226</v>
       </c>
       <c r="B56" s="71" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C56" s="71" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.15">
@@ -6554,15 +6554,15 @@
         <v>233</v>
       </c>
       <c r="B61" s="71" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C61" s="71" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A62" s="70" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.15">
@@ -6592,37 +6592,37 @@
         <v>236</v>
       </c>
       <c r="B65" s="71" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C65" s="71" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="36" x14ac:dyDescent="0.15">
       <c r="A66" s="70" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B66" s="71" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C66" s="71" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A67" s="70" t="s">
+        <v>319</v>
+      </c>
+      <c r="B67" s="71" t="s">
         <v>320</v>
       </c>
-      <c r="B67" s="71" t="s">
-        <v>321</v>
-      </c>
       <c r="C67" s="71" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A68" s="70" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>

--- a/progression_2019_2020_IPT_MPSI.xlsx
+++ b/progression_2019_2020_IPT_MPSI.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="360">
   <si>
     <t>Cours</t>
   </si>
@@ -1131,6 +1131,9 @@
   </si>
   <si>
     <t>AN.C1; AN.C2</t>
+  </si>
+  <si>
+    <t>complexite/COM-008;complexite/COM-009;complexite/COM-010;complexite/COM-011</t>
   </si>
 </sst>
 </file>
@@ -2507,6 +2510,69 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="1" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2525,12 +2591,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2547,63 +2607,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3845,8 +3848,8 @@
   </sheetPr>
   <dimension ref="A1:X53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView tabSelected="1" topLeftCell="F11" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="26" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3937,10 +3940,10 @@
       <c r="B2" s="9">
         <v>43711</v>
       </c>
-      <c r="C2" s="107">
+      <c r="C2" s="126">
         <v>1</v>
       </c>
-      <c r="D2" s="110" t="s">
+      <c r="D2" s="129" t="s">
         <v>261</v>
       </c>
       <c r="E2" s="26">
@@ -3994,8 +3997,8 @@
         <f>B2+7</f>
         <v>43718</v>
       </c>
-      <c r="C3" s="108"/>
-      <c r="D3" s="111"/>
+      <c r="C3" s="127"/>
+      <c r="D3" s="130"/>
       <c r="E3" s="26">
         <v>2</v>
       </c>
@@ -4046,8 +4049,8 @@
         <f>B3+7</f>
         <v>43725</v>
       </c>
-      <c r="C4" s="108"/>
-      <c r="D4" s="111"/>
+      <c r="C4" s="127"/>
+      <c r="D4" s="130"/>
       <c r="E4" s="26">
         <v>2</v>
       </c>
@@ -4099,8 +4102,8 @@
         <f t="shared" ref="B5:B8" si="0">B4+7</f>
         <v>43732</v>
       </c>
-      <c r="C5" s="108"/>
-      <c r="D5" s="111"/>
+      <c r="C5" s="127"/>
+      <c r="D5" s="130"/>
       <c r="E5" s="26">
         <v>3</v>
       </c>
@@ -4152,8 +4155,8 @@
         <f>B5+7</f>
         <v>43739</v>
       </c>
-      <c r="C6" s="108"/>
-      <c r="D6" s="111"/>
+      <c r="C6" s="127"/>
+      <c r="D6" s="130"/>
       <c r="E6" s="26">
         <v>4</v>
       </c>
@@ -4207,8 +4210,8 @@
         <f t="shared" si="0"/>
         <v>43746</v>
       </c>
-      <c r="C7" s="108"/>
-      <c r="D7" s="111"/>
+      <c r="C7" s="127"/>
+      <c r="D7" s="130"/>
       <c r="E7" s="26">
         <v>4</v>
       </c>
@@ -4256,8 +4259,8 @@
         <f t="shared" si="0"/>
         <v>43753</v>
       </c>
-      <c r="C8" s="109"/>
-      <c r="D8" s="112"/>
+      <c r="C8" s="128"/>
+      <c r="D8" s="131"/>
       <c r="E8" s="26">
         <v>5</v>
       </c>
@@ -4304,24 +4307,24 @@
       <c r="X8" s="75"/>
     </row>
     <row r="9" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="105" t="s">
+      <c r="A9" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="106"/>
-      <c r="C9" s="106"/>
-      <c r="D9" s="106"/>
-      <c r="E9" s="106"/>
-      <c r="F9" s="106"/>
-      <c r="G9" s="106"/>
-      <c r="H9" s="106"/>
-      <c r="I9" s="106"/>
-      <c r="J9" s="106"/>
-      <c r="K9" s="106"/>
-      <c r="L9" s="106"/>
-      <c r="M9" s="106"/>
-      <c r="N9" s="106"/>
-      <c r="O9" s="106"/>
-      <c r="P9" s="106"/>
+      <c r="B9" s="102"/>
+      <c r="C9" s="102"/>
+      <c r="D9" s="102"/>
+      <c r="E9" s="102"/>
+      <c r="F9" s="102"/>
+      <c r="G9" s="102"/>
+      <c r="H9" s="102"/>
+      <c r="I9" s="102"/>
+      <c r="J9" s="102"/>
+      <c r="K9" s="102"/>
+      <c r="L9" s="102"/>
+      <c r="M9" s="102"/>
+      <c r="N9" s="102"/>
+      <c r="O9" s="102"/>
+      <c r="P9" s="102"/>
       <c r="Q9" s="4"/>
       <c r="R9" s="41"/>
       <c r="S9" s="32"/>
@@ -4337,10 +4340,10 @@
         <f>B8+21</f>
         <v>43774</v>
       </c>
-      <c r="C10" s="107">
+      <c r="C10" s="126">
         <v>1</v>
       </c>
-      <c r="D10" s="110" t="s">
+      <c r="D10" s="129" t="s">
         <v>261</v>
       </c>
       <c r="E10" s="26">
@@ -4390,8 +4393,8 @@
         <f t="shared" ref="B11:B16" si="1">B10+7</f>
         <v>43781</v>
       </c>
-      <c r="C11" s="108"/>
-      <c r="D11" s="111"/>
+      <c r="C11" s="127"/>
+      <c r="D11" s="130"/>
       <c r="E11" s="26">
         <v>6</v>
       </c>
@@ -4441,8 +4444,8 @@
         <f t="shared" si="1"/>
         <v>43788</v>
       </c>
-      <c r="C12" s="108"/>
-      <c r="D12" s="111"/>
+      <c r="C12" s="127"/>
+      <c r="D12" s="130"/>
       <c r="E12" s="26">
         <v>6</v>
       </c>
@@ -4487,8 +4490,8 @@
         <f t="shared" si="1"/>
         <v>43795</v>
       </c>
-      <c r="C13" s="108"/>
-      <c r="D13" s="111"/>
+      <c r="C13" s="127"/>
+      <c r="D13" s="130"/>
       <c r="E13" s="26">
         <v>7</v>
       </c>
@@ -4540,8 +4543,8 @@
         <f t="shared" si="1"/>
         <v>43802</v>
       </c>
-      <c r="C14" s="108"/>
-      <c r="D14" s="111"/>
+      <c r="C14" s="127"/>
+      <c r="D14" s="130"/>
       <c r="E14" s="26">
         <v>7</v>
       </c>
@@ -4588,8 +4591,8 @@
         <f t="shared" si="1"/>
         <v>43809</v>
       </c>
-      <c r="C15" s="108"/>
-      <c r="D15" s="111"/>
+      <c r="C15" s="127"/>
+      <c r="D15" s="130"/>
       <c r="E15" s="26">
         <v>8</v>
       </c>
@@ -4641,8 +4644,8 @@
         <f t="shared" si="1"/>
         <v>43816</v>
       </c>
-      <c r="C16" s="109"/>
-      <c r="D16" s="112"/>
+      <c r="C16" s="128"/>
+      <c r="D16" s="131"/>
       <c r="E16" s="26">
         <v>8</v>
       </c>
@@ -4683,24 +4686,24 @@
       <c r="X16" s="75"/>
     </row>
     <row r="17" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="105" t="s">
+      <c r="A17" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="106"/>
-      <c r="C17" s="106"/>
-      <c r="D17" s="106"/>
-      <c r="E17" s="106"/>
-      <c r="F17" s="106"/>
-      <c r="G17" s="106"/>
-      <c r="H17" s="106"/>
-      <c r="I17" s="106"/>
-      <c r="J17" s="106"/>
-      <c r="K17" s="106"/>
-      <c r="L17" s="106"/>
-      <c r="M17" s="106"/>
-      <c r="N17" s="106"/>
-      <c r="O17" s="106"/>
-      <c r="P17" s="106"/>
+      <c r="B17" s="102"/>
+      <c r="C17" s="102"/>
+      <c r="D17" s="102"/>
+      <c r="E17" s="102"/>
+      <c r="F17" s="102"/>
+      <c r="G17" s="102"/>
+      <c r="H17" s="102"/>
+      <c r="I17" s="102"/>
+      <c r="J17" s="102"/>
+      <c r="K17" s="102"/>
+      <c r="L17" s="102"/>
+      <c r="M17" s="102"/>
+      <c r="N17" s="102"/>
+      <c r="O17" s="102"/>
+      <c r="P17" s="102"/>
       <c r="Q17" s="4"/>
       <c r="R17" s="41"/>
       <c r="S17" s="32"/>
@@ -4716,10 +4719,10 @@
         <f>B16+21</f>
         <v>43837</v>
       </c>
-      <c r="C18" s="99">
+      <c r="C18" s="120">
         <v>2</v>
       </c>
-      <c r="D18" s="102" t="s">
+      <c r="D18" s="123" t="s">
         <v>184</v>
       </c>
       <c r="E18" s="28">
@@ -4773,8 +4776,8 @@
         <f>B18+7</f>
         <v>43844</v>
       </c>
-      <c r="C19" s="100"/>
-      <c r="D19" s="103"/>
+      <c r="C19" s="121"/>
+      <c r="D19" s="124"/>
       <c r="E19" s="28">
         <v>1</v>
       </c>
@@ -4822,8 +4825,8 @@
         <f t="shared" ref="B20:B40" si="2">B19+7</f>
         <v>43851</v>
       </c>
-      <c r="C20" s="100"/>
-      <c r="D20" s="103"/>
+      <c r="C20" s="121"/>
+      <c r="D20" s="124"/>
       <c r="E20" s="28">
         <v>2</v>
       </c>
@@ -4842,7 +4845,9 @@
       <c r="J20" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="K20" s="5"/>
+      <c r="K20" s="5" t="s">
+        <v>359</v>
+      </c>
       <c r="L20" s="5"/>
       <c r="M20" s="73" t="s">
         <v>270</v>
@@ -4871,8 +4876,8 @@
         <f>B20+7</f>
         <v>43858</v>
       </c>
-      <c r="C21" s="101"/>
-      <c r="D21" s="104"/>
+      <c r="C21" s="122"/>
+      <c r="D21" s="125"/>
       <c r="E21" s="28">
         <v>2</v>
       </c>
@@ -4920,10 +4925,10 @@
         <f>B21+7</f>
         <v>43865</v>
       </c>
-      <c r="C22" s="118">
+      <c r="C22" s="106">
         <v>3</v>
       </c>
-      <c r="D22" s="115" t="s">
+      <c r="D22" s="103" t="s">
         <v>60</v>
       </c>
       <c r="E22" s="35">
@@ -4973,8 +4978,8 @@
         <f>B22+7</f>
         <v>43872</v>
       </c>
-      <c r="C23" s="119"/>
-      <c r="D23" s="116"/>
+      <c r="C23" s="107"/>
+      <c r="D23" s="104"/>
       <c r="E23" s="35">
         <v>2</v>
       </c>
@@ -5021,8 +5026,8 @@
         <f>B23+7</f>
         <v>43879</v>
       </c>
-      <c r="C24" s="120"/>
-      <c r="D24" s="117"/>
+      <c r="C24" s="108"/>
+      <c r="D24" s="105"/>
       <c r="E24" s="34">
         <v>2</v>
       </c>
@@ -5058,24 +5063,24 @@
       <c r="S24" s="33"/>
     </row>
     <row r="25" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="105" t="s">
+      <c r="A25" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="106"/>
-      <c r="C25" s="106"/>
-      <c r="D25" s="106"/>
-      <c r="E25" s="106"/>
-      <c r="F25" s="106"/>
-      <c r="G25" s="106"/>
-      <c r="H25" s="106"/>
-      <c r="I25" s="106"/>
-      <c r="J25" s="106"/>
-      <c r="K25" s="106"/>
-      <c r="L25" s="106"/>
-      <c r="M25" s="106"/>
-      <c r="N25" s="106"/>
-      <c r="O25" s="106"/>
-      <c r="P25" s="106"/>
+      <c r="B25" s="102"/>
+      <c r="C25" s="102"/>
+      <c r="D25" s="102"/>
+      <c r="E25" s="102"/>
+      <c r="F25" s="102"/>
+      <c r="G25" s="102"/>
+      <c r="H25" s="102"/>
+      <c r="I25" s="102"/>
+      <c r="J25" s="102"/>
+      <c r="K25" s="102"/>
+      <c r="L25" s="102"/>
+      <c r="M25" s="102"/>
+      <c r="N25" s="102"/>
+      <c r="O25" s="102"/>
+      <c r="P25" s="102"/>
       <c r="Q25" s="4"/>
       <c r="R25" s="50"/>
       <c r="S25" s="32"/>
@@ -5091,10 +5096,10 @@
         <f>B24+21</f>
         <v>43900</v>
       </c>
-      <c r="C26" s="118">
+      <c r="C26" s="106">
         <v>3</v>
       </c>
-      <c r="D26" s="115" t="s">
+      <c r="D26" s="103" t="s">
         <v>60</v>
       </c>
       <c r="E26" s="29">
@@ -5144,8 +5149,8 @@
         <f t="shared" si="2"/>
         <v>43907</v>
       </c>
-      <c r="C27" s="119"/>
-      <c r="D27" s="116"/>
+      <c r="C27" s="107"/>
+      <c r="D27" s="104"/>
       <c r="E27" s="35">
         <v>3</v>
       </c>
@@ -5190,8 +5195,8 @@
         <f t="shared" si="2"/>
         <v>43914</v>
       </c>
-      <c r="C28" s="119"/>
-      <c r="D28" s="116"/>
+      <c r="C28" s="107"/>
+      <c r="D28" s="104"/>
       <c r="E28" s="29">
         <v>4</v>
       </c>
@@ -5239,8 +5244,8 @@
         <f t="shared" si="2"/>
         <v>43921</v>
       </c>
-      <c r="C29" s="120"/>
-      <c r="D29" s="117"/>
+      <c r="C29" s="108"/>
+      <c r="D29" s="105"/>
       <c r="E29" s="35">
         <v>4</v>
       </c>
@@ -5286,10 +5291,10 @@
         <f t="shared" si="2"/>
         <v>43928</v>
       </c>
-      <c r="C30" s="121">
+      <c r="C30" s="109">
         <v>4</v>
       </c>
-      <c r="D30" s="123" t="s">
+      <c r="D30" s="111" t="s">
         <v>43</v>
       </c>
       <c r="E30" s="30">
@@ -5341,8 +5346,8 @@
         <f t="shared" si="2"/>
         <v>43935</v>
       </c>
-      <c r="C31" s="122"/>
-      <c r="D31" s="124"/>
+      <c r="C31" s="110"/>
+      <c r="D31" s="112"/>
       <c r="E31" s="30">
         <v>2</v>
       </c>
@@ -5383,24 +5388,24 @@
       <c r="X31" s="75"/>
     </row>
     <row r="32" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="113" t="s">
+      <c r="A32" s="99" t="s">
         <v>14</v>
       </c>
-      <c r="B32" s="114"/>
-      <c r="C32" s="114"/>
-      <c r="D32" s="114"/>
-      <c r="E32" s="114"/>
-      <c r="F32" s="114"/>
-      <c r="G32" s="114"/>
-      <c r="H32" s="114"/>
-      <c r="I32" s="114"/>
-      <c r="J32" s="114"/>
-      <c r="K32" s="114"/>
-      <c r="L32" s="114"/>
-      <c r="M32" s="114"/>
-      <c r="N32" s="114"/>
-      <c r="O32" s="114"/>
-      <c r="P32" s="114"/>
+      <c r="B32" s="100"/>
+      <c r="C32" s="100"/>
+      <c r="D32" s="100"/>
+      <c r="E32" s="100"/>
+      <c r="F32" s="100"/>
+      <c r="G32" s="100"/>
+      <c r="H32" s="100"/>
+      <c r="I32" s="100"/>
+      <c r="J32" s="100"/>
+      <c r="K32" s="100"/>
+      <c r="L32" s="100"/>
+      <c r="M32" s="100"/>
+      <c r="N32" s="100"/>
+      <c r="O32" s="100"/>
+      <c r="P32" s="100"/>
       <c r="Q32" s="47"/>
       <c r="R32" s="51"/>
       <c r="S32" s="32"/>
@@ -5416,10 +5421,10 @@
         <f>B31+21</f>
         <v>43956</v>
       </c>
-      <c r="C33" s="121">
+      <c r="C33" s="109">
         <v>4</v>
       </c>
-      <c r="D33" s="123" t="s">
+      <c r="D33" s="111" t="s">
         <v>43</v>
       </c>
       <c r="E33" s="30">
@@ -5464,8 +5469,8 @@
         <f t="shared" si="2"/>
         <v>43963</v>
       </c>
-      <c r="C34" s="126"/>
-      <c r="D34" s="125"/>
+      <c r="C34" s="114"/>
+      <c r="D34" s="113"/>
       <c r="E34" s="30">
         <v>3</v>
       </c>
@@ -5510,8 +5515,8 @@
         <f t="shared" si="2"/>
         <v>43970</v>
       </c>
-      <c r="C35" s="122"/>
-      <c r="D35" s="124"/>
+      <c r="C35" s="110"/>
+      <c r="D35" s="112"/>
       <c r="E35" s="30">
         <v>4</v>
       </c>
@@ -5555,10 +5560,10 @@
         <f t="shared" si="2"/>
         <v>43977</v>
       </c>
-      <c r="C36" s="129">
+      <c r="C36" s="117">
         <v>5</v>
       </c>
-      <c r="D36" s="127" t="s">
+      <c r="D36" s="115" t="s">
         <v>49</v>
       </c>
       <c r="E36" s="31">
@@ -5598,8 +5603,8 @@
         <f t="shared" si="2"/>
         <v>43984</v>
       </c>
-      <c r="C37" s="130"/>
-      <c r="D37" s="128"/>
+      <c r="C37" s="118"/>
+      <c r="D37" s="116"/>
       <c r="E37" s="31">
         <v>1</v>
       </c>
@@ -5639,8 +5644,8 @@
         <f t="shared" si="2"/>
         <v>43991</v>
       </c>
-      <c r="C38" s="130"/>
-      <c r="D38" s="128"/>
+      <c r="C38" s="118"/>
+      <c r="D38" s="116"/>
       <c r="E38" s="31">
         <v>1</v>
       </c>
@@ -5678,8 +5683,8 @@
         <f t="shared" si="2"/>
         <v>43998</v>
       </c>
-      <c r="C39" s="130"/>
-      <c r="D39" s="128"/>
+      <c r="C39" s="118"/>
+      <c r="D39" s="116"/>
       <c r="E39" s="31">
         <v>1</v>
       </c>
@@ -5717,8 +5722,8 @@
         <f t="shared" si="2"/>
         <v>44005</v>
       </c>
-      <c r="C40" s="131"/>
-      <c r="D40" s="128"/>
+      <c r="C40" s="119"/>
+      <c r="D40" s="116"/>
       <c r="E40" s="31">
         <v>1</v>
       </c>
@@ -5747,24 +5752,24 @@
       <c r="X40" s="75"/>
     </row>
     <row r="41" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="113" t="s">
+      <c r="A41" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="B41" s="114"/>
-      <c r="C41" s="114"/>
-      <c r="D41" s="114"/>
-      <c r="E41" s="114"/>
-      <c r="F41" s="114"/>
-      <c r="G41" s="114"/>
-      <c r="H41" s="114"/>
-      <c r="I41" s="114"/>
-      <c r="J41" s="114"/>
-      <c r="K41" s="114"/>
-      <c r="L41" s="114"/>
-      <c r="M41" s="114"/>
-      <c r="N41" s="114"/>
-      <c r="O41" s="114"/>
-      <c r="P41" s="114"/>
+      <c r="B41" s="100"/>
+      <c r="C41" s="100"/>
+      <c r="D41" s="100"/>
+      <c r="E41" s="100"/>
+      <c r="F41" s="100"/>
+      <c r="G41" s="100"/>
+      <c r="H41" s="100"/>
+      <c r="I41" s="100"/>
+      <c r="J41" s="100"/>
+      <c r="K41" s="100"/>
+      <c r="L41" s="100"/>
+      <c r="M41" s="100"/>
+      <c r="N41" s="100"/>
+      <c r="O41" s="100"/>
+      <c r="P41" s="100"/>
       <c r="Q41" s="47"/>
       <c r="R41" s="51"/>
       <c r="V41" s="70"/>
@@ -5833,6 +5838,14 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="A9:P9"/>
+    <mergeCell ref="A17:P17"/>
+    <mergeCell ref="C2:C8"/>
+    <mergeCell ref="D2:D8"/>
+    <mergeCell ref="D10:D16"/>
+    <mergeCell ref="C10:C16"/>
     <mergeCell ref="A41:P41"/>
     <mergeCell ref="A32:P32"/>
     <mergeCell ref="A25:P25"/>
@@ -5846,14 +5859,6 @@
     <mergeCell ref="C33:C35"/>
     <mergeCell ref="D36:D40"/>
     <mergeCell ref="C36:C40"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="D18:D21"/>
-    <mergeCell ref="A9:P9"/>
-    <mergeCell ref="A17:P17"/>
-    <mergeCell ref="C2:C8"/>
-    <mergeCell ref="D2:D8"/>
-    <mergeCell ref="D10:D16"/>
-    <mergeCell ref="C10:C16"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/progression_2019_2020_IPT_MPSI.xlsx
+++ b/progression_2019_2020_IPT_MPSI.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28109"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emiliendurif/Documents/prepa/MPSI/ipt_mpsi_lamartin/Informatique_MPSI/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Informatique_MPSI\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37BCAB8B-6118-4CAC-96A4-53DAEDF72ADF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14700" activeTab="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planning DS" sheetId="16" r:id="rId1"/>
@@ -22,18 +23,19 @@
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Cycles MPSI IPT'!$A$3:$B$7</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Semanier MPSI IPT 2019-2020'!$A$18:$H$20</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
@@ -1139,8 +1141,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2510,18 +2512,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2571,42 +2609,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="7" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3285,13 +3287,13 @@
     <cellStyle name="Lien hypertexte visité" xfId="651" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="653" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 2 2" xfId="2"/>
-    <cellStyle name="Normal 3" xfId="3"/>
-    <cellStyle name="Normal 4" xfId="4"/>
-    <cellStyle name="Normal 4 2" xfId="5"/>
-    <cellStyle name="Normal 4 3" xfId="6"/>
-    <cellStyle name="Normal 5" xfId="7"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000087020000}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000088020000}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000089020000}"/>
+    <cellStyle name="Normal 4" xfId="4" xr:uid="{00000000-0005-0000-0000-00008A020000}"/>
+    <cellStyle name="Normal 4 2" xfId="5" xr:uid="{00000000-0005-0000-0000-00008B020000}"/>
+    <cellStyle name="Normal 4 3" xfId="6" xr:uid="{00000000-0005-0000-0000-00008C020000}"/>
+    <cellStyle name="Normal 5" xfId="7" xr:uid="{00000000-0005-0000-0000-00008D020000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -3603,22 +3605,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5"/>
   <cols>
-    <col min="3" max="3" width="14.33203125" customWidth="1"/>
-    <col min="4" max="4" width="13.1640625" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" customWidth="1"/>
-    <col min="6" max="6" width="16.5" customWidth="1"/>
+    <col min="3" max="3" width="14.36328125" customWidth="1"/>
+    <col min="4" max="4" width="13.1796875" customWidth="1"/>
+    <col min="5" max="5" width="13.81640625" customWidth="1"/>
+    <col min="6" max="6" width="16.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="13" thickBot="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
@@ -3634,7 +3636,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="48" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" ht="62">
       <c r="A2" s="96">
         <v>1</v>
       </c>
@@ -3648,7 +3650,7 @@
       <c r="E2" s="86"/>
       <c r="F2" s="86"/>
     </row>
-    <row r="3" spans="1:8" ht="78" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" ht="87.5">
       <c r="A3" s="97"/>
       <c r="B3" s="3" t="s">
         <v>335</v>
@@ -3660,7 +3662,7 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4" s="97"/>
       <c r="B4" s="3" t="s">
         <v>339</v>
@@ -3672,7 +3674,7 @@
       <c r="E4" s="42"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="A5" s="97"/>
       <c r="B5" s="3" t="s">
         <v>336</v>
@@ -3684,7 +3686,7 @@
       <c r="E5" s="42"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:8" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="50" customHeight="1" thickBot="1">
       <c r="A6" s="98"/>
       <c r="B6" s="87" t="s">
         <v>337</v>
@@ -3696,7 +3698,7 @@
       <c r="E6" s="88"/>
       <c r="F6" s="88"/>
     </row>
-    <row r="7" spans="1:8" ht="48" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" ht="62">
       <c r="A7" s="96">
         <v>2</v>
       </c>
@@ -3710,7 +3712,7 @@
       <c r="E7" s="86"/>
       <c r="F7" s="86"/>
     </row>
-    <row r="8" spans="1:8" ht="39" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" ht="37.5">
       <c r="A8" s="97"/>
       <c r="B8" s="90" t="s">
         <v>335</v>
@@ -3722,7 +3724,7 @@
       <c r="E8" s="90"/>
       <c r="F8" s="90"/>
     </row>
-    <row r="9" spans="1:8" ht="26" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" ht="25">
       <c r="A9" s="97"/>
       <c r="B9" s="90" t="s">
         <v>339</v>
@@ -3737,7 +3739,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8">
       <c r="A10" s="97"/>
       <c r="B10" s="90" t="s">
         <v>336</v>
@@ -3749,7 +3751,7 @@
       <c r="E10" s="42"/>
       <c r="F10" s="90"/>
     </row>
-    <row r="11" spans="1:8" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="50" customHeight="1" thickBot="1">
       <c r="A11" s="98"/>
       <c r="B11" s="91" t="s">
         <v>337</v>
@@ -3761,7 +3763,7 @@
       <c r="E11" s="88"/>
       <c r="F11" s="88"/>
     </row>
-    <row r="12" spans="1:8" ht="48" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" ht="62">
       <c r="A12" s="96">
         <v>3</v>
       </c>
@@ -3775,7 +3777,7 @@
       <c r="E12" s="86"/>
       <c r="F12" s="86"/>
     </row>
-    <row r="13" spans="1:8" ht="26" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" ht="25">
       <c r="A13" s="97"/>
       <c r="B13" s="93" t="s">
         <v>335</v>
@@ -3787,7 +3789,7 @@
       <c r="E13" s="93"/>
       <c r="F13" s="93"/>
     </row>
-    <row r="14" spans="1:8" ht="26" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" ht="25">
       <c r="A14" s="97"/>
       <c r="B14" s="93" t="s">
         <v>339</v>
@@ -3802,7 +3804,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8">
       <c r="A15" s="97"/>
       <c r="B15" s="93" t="s">
         <v>336</v>
@@ -3814,7 +3816,7 @@
       <c r="E15" s="42"/>
       <c r="F15" s="93"/>
     </row>
-    <row r="16" spans="1:8" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="50" customHeight="1" thickBot="1">
       <c r="A16" s="98"/>
       <c r="B16" s="94" t="s">
         <v>337</v>
@@ -3826,7 +3828,7 @@
       <c r="E16" s="88"/>
       <c r="F16" s="88"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
         <v>279</v>
       </c>
@@ -3842,39 +3844,39 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:X53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F11" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" topLeftCell="J11" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="26" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="26" customHeight="1"/>
   <cols>
-    <col min="1" max="3" width="10.83203125" style="1"/>
-    <col min="4" max="4" width="20.33203125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="10.81640625" style="1"/>
+    <col min="4" max="4" width="20.36328125" style="1" customWidth="1"/>
     <col min="5" max="5" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="37.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="37.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="37.33203125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="42.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="32.6640625" style="1" customWidth="1"/>
-    <col min="15" max="18" width="10.83203125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="41.33203125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="10.83203125" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.83203125" style="1"/>
-    <col min="22" max="22" width="10.83203125" style="1" customWidth="1"/>
-    <col min="23" max="24" width="58.5" style="74" customWidth="1"/>
-    <col min="25" max="16384" width="10.83203125" style="1"/>
+    <col min="6" max="6" width="37.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.6328125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="37.36328125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="5.453125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="37.36328125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="42.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="32.6328125" style="1" customWidth="1"/>
+    <col min="15" max="18" width="10.81640625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="41.36328125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="10.81640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.81640625" style="1"/>
+    <col min="22" max="22" width="10.81640625" style="1" customWidth="1"/>
+    <col min="23" max="24" width="58.453125" style="74" customWidth="1"/>
+    <col min="25" max="16384" width="10.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:24" ht="26" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>19</v>
       </c>
@@ -3933,17 +3935,17 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="32" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" ht="32" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="9">
         <v>43711</v>
       </c>
-      <c r="C2" s="126">
+      <c r="C2" s="107">
         <v>1</v>
       </c>
-      <c r="D2" s="129" t="s">
+      <c r="D2" s="110" t="s">
         <v>261</v>
       </c>
       <c r="E2" s="26">
@@ -3989,7 +3991,7 @@
       <c r="W2" s="75"/>
       <c r="X2" s="75"/>
     </row>
-    <row r="3" spans="1:24" ht="32" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" ht="32" customHeight="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -3997,8 +3999,8 @@
         <f>B2+7</f>
         <v>43718</v>
       </c>
-      <c r="C3" s="127"/>
-      <c r="D3" s="130"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="111"/>
       <c r="E3" s="26">
         <v>2</v>
       </c>
@@ -4041,7 +4043,7 @@
       <c r="W3" s="75"/>
       <c r="X3" s="75"/>
     </row>
-    <row r="4" spans="1:24" ht="56" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" ht="56" customHeight="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -4049,8 +4051,8 @@
         <f>B3+7</f>
         <v>43725</v>
       </c>
-      <c r="C4" s="127"/>
-      <c r="D4" s="130"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="111"/>
       <c r="E4" s="26">
         <v>2</v>
       </c>
@@ -4094,7 +4096,7 @@
       <c r="W4" s="75"/>
       <c r="X4" s="75"/>
     </row>
-    <row r="5" spans="1:24" ht="32" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" ht="32" customHeight="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -4102,8 +4104,8 @@
         <f t="shared" ref="B5:B8" si="0">B4+7</f>
         <v>43732</v>
       </c>
-      <c r="C5" s="127"/>
-      <c r="D5" s="130"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="111"/>
       <c r="E5" s="26">
         <v>3</v>
       </c>
@@ -4147,7 +4149,7 @@
       <c r="W5" s="75"/>
       <c r="X5" s="75"/>
     </row>
-    <row r="6" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" ht="26" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -4155,8 +4157,8 @@
         <f>B5+7</f>
         <v>43739</v>
       </c>
-      <c r="C6" s="127"/>
-      <c r="D6" s="130"/>
+      <c r="C6" s="108"/>
+      <c r="D6" s="111"/>
       <c r="E6" s="26">
         <v>4</v>
       </c>
@@ -4202,7 +4204,7 @@
       <c r="W6" s="75"/>
       <c r="X6" s="75"/>
     </row>
-    <row r="7" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:24" ht="26" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -4210,8 +4212,8 @@
         <f t="shared" si="0"/>
         <v>43746</v>
       </c>
-      <c r="C7" s="127"/>
-      <c r="D7" s="130"/>
+      <c r="C7" s="108"/>
+      <c r="D7" s="111"/>
       <c r="E7" s="26">
         <v>4</v>
       </c>
@@ -4251,7 +4253,7 @@
       <c r="W7" s="75"/>
       <c r="X7" s="75"/>
     </row>
-    <row r="8" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" ht="26" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -4259,8 +4261,8 @@
         <f t="shared" si="0"/>
         <v>43753</v>
       </c>
-      <c r="C8" s="128"/>
-      <c r="D8" s="131"/>
+      <c r="C8" s="109"/>
+      <c r="D8" s="112"/>
       <c r="E8" s="26">
         <v>5</v>
       </c>
@@ -4306,25 +4308,25 @@
       <c r="W8" s="75"/>
       <c r="X8" s="75"/>
     </row>
-    <row r="9" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="101" t="s">
+    <row r="9" spans="1:24" ht="26" customHeight="1">
+      <c r="A9" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="102"/>
-      <c r="C9" s="102"/>
-      <c r="D9" s="102"/>
-      <c r="E9" s="102"/>
-      <c r="F9" s="102"/>
-      <c r="G9" s="102"/>
-      <c r="H9" s="102"/>
-      <c r="I9" s="102"/>
-      <c r="J9" s="102"/>
-      <c r="K9" s="102"/>
-      <c r="L9" s="102"/>
-      <c r="M9" s="102"/>
-      <c r="N9" s="102"/>
-      <c r="O9" s="102"/>
-      <c r="P9" s="102"/>
+      <c r="B9" s="106"/>
+      <c r="C9" s="106"/>
+      <c r="D9" s="106"/>
+      <c r="E9" s="106"/>
+      <c r="F9" s="106"/>
+      <c r="G9" s="106"/>
+      <c r="H9" s="106"/>
+      <c r="I9" s="106"/>
+      <c r="J9" s="106"/>
+      <c r="K9" s="106"/>
+      <c r="L9" s="106"/>
+      <c r="M9" s="106"/>
+      <c r="N9" s="106"/>
+      <c r="O9" s="106"/>
+      <c r="P9" s="106"/>
       <c r="Q9" s="4"/>
       <c r="R9" s="41"/>
       <c r="S9" s="32"/>
@@ -4332,7 +4334,7 @@
       <c r="W9" s="75"/>
       <c r="X9" s="75"/>
     </row>
-    <row r="10" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:24" ht="26" customHeight="1">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -4340,10 +4342,10 @@
         <f>B8+21</f>
         <v>43774</v>
       </c>
-      <c r="C10" s="126">
+      <c r="C10" s="107">
         <v>1</v>
       </c>
-      <c r="D10" s="129" t="s">
+      <c r="D10" s="110" t="s">
         <v>261</v>
       </c>
       <c r="E10" s="26">
@@ -4385,7 +4387,7 @@
       <c r="W10" s="75"/>
       <c r="X10" s="75"/>
     </row>
-    <row r="11" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" ht="26" customHeight="1">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -4393,8 +4395,8 @@
         <f t="shared" ref="B11:B16" si="1">B10+7</f>
         <v>43781</v>
       </c>
-      <c r="C11" s="127"/>
-      <c r="D11" s="130"/>
+      <c r="C11" s="108"/>
+      <c r="D11" s="111"/>
       <c r="E11" s="26">
         <v>6</v>
       </c>
@@ -4436,7 +4438,7 @@
       <c r="W11" s="75"/>
       <c r="X11" s="75"/>
     </row>
-    <row r="12" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:24" ht="26" customHeight="1">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -4444,8 +4446,8 @@
         <f t="shared" si="1"/>
         <v>43788</v>
       </c>
-      <c r="C12" s="127"/>
-      <c r="D12" s="130"/>
+      <c r="C12" s="108"/>
+      <c r="D12" s="111"/>
       <c r="E12" s="26">
         <v>6</v>
       </c>
@@ -4482,7 +4484,7 @@
       <c r="W12" s="75"/>
       <c r="X12" s="75"/>
     </row>
-    <row r="13" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" ht="26" customHeight="1">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -4490,8 +4492,8 @@
         <f t="shared" si="1"/>
         <v>43795</v>
       </c>
-      <c r="C13" s="127"/>
-      <c r="D13" s="130"/>
+      <c r="C13" s="108"/>
+      <c r="D13" s="111"/>
       <c r="E13" s="26">
         <v>7</v>
       </c>
@@ -4535,7 +4537,7 @@
       <c r="W13" s="75"/>
       <c r="X13" s="75"/>
     </row>
-    <row r="14" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:24" ht="26" customHeight="1">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -4543,8 +4545,8 @@
         <f t="shared" si="1"/>
         <v>43802</v>
       </c>
-      <c r="C14" s="127"/>
-      <c r="D14" s="130"/>
+      <c r="C14" s="108"/>
+      <c r="D14" s="111"/>
       <c r="E14" s="26">
         <v>7</v>
       </c>
@@ -4583,7 +4585,7 @@
       <c r="W14" s="75"/>
       <c r="X14" s="75"/>
     </row>
-    <row r="15" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" ht="26" customHeight="1">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -4591,8 +4593,8 @@
         <f t="shared" si="1"/>
         <v>43809</v>
       </c>
-      <c r="C15" s="127"/>
-      <c r="D15" s="130"/>
+      <c r="C15" s="108"/>
+      <c r="D15" s="111"/>
       <c r="E15" s="26">
         <v>8</v>
       </c>
@@ -4636,7 +4638,7 @@
       <c r="W15" s="75"/>
       <c r="X15" s="75"/>
     </row>
-    <row r="16" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:24" ht="26" customHeight="1">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -4644,8 +4646,8 @@
         <f t="shared" si="1"/>
         <v>43816</v>
       </c>
-      <c r="C16" s="128"/>
-      <c r="D16" s="131"/>
+      <c r="C16" s="109"/>
+      <c r="D16" s="112"/>
       <c r="E16" s="26">
         <v>8</v>
       </c>
@@ -4685,25 +4687,25 @@
       <c r="W16" s="75"/>
       <c r="X16" s="75"/>
     </row>
-    <row r="17" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="101" t="s">
+    <row r="17" spans="1:24" ht="26" customHeight="1">
+      <c r="A17" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="102"/>
-      <c r="C17" s="102"/>
-      <c r="D17" s="102"/>
-      <c r="E17" s="102"/>
-      <c r="F17" s="102"/>
-      <c r="G17" s="102"/>
-      <c r="H17" s="102"/>
-      <c r="I17" s="102"/>
-      <c r="J17" s="102"/>
-      <c r="K17" s="102"/>
-      <c r="L17" s="102"/>
-      <c r="M17" s="102"/>
-      <c r="N17" s="102"/>
-      <c r="O17" s="102"/>
-      <c r="P17" s="102"/>
+      <c r="B17" s="106"/>
+      <c r="C17" s="106"/>
+      <c r="D17" s="106"/>
+      <c r="E17" s="106"/>
+      <c r="F17" s="106"/>
+      <c r="G17" s="106"/>
+      <c r="H17" s="106"/>
+      <c r="I17" s="106"/>
+      <c r="J17" s="106"/>
+      <c r="K17" s="106"/>
+      <c r="L17" s="106"/>
+      <c r="M17" s="106"/>
+      <c r="N17" s="106"/>
+      <c r="O17" s="106"/>
+      <c r="P17" s="106"/>
       <c r="Q17" s="4"/>
       <c r="R17" s="41"/>
       <c r="S17" s="32"/>
@@ -4711,7 +4713,7 @@
       <c r="W17" s="75"/>
       <c r="X17" s="75"/>
     </row>
-    <row r="18" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" ht="26" customHeight="1">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -4719,10 +4721,10 @@
         <f>B16+21</f>
         <v>43837</v>
       </c>
-      <c r="C18" s="120">
+      <c r="C18" s="99">
         <v>2</v>
       </c>
-      <c r="D18" s="123" t="s">
+      <c r="D18" s="102" t="s">
         <v>184</v>
       </c>
       <c r="E18" s="28">
@@ -4768,7 +4770,7 @@
       <c r="W18" s="75"/>
       <c r="X18" s="75"/>
     </row>
-    <row r="19" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" ht="26" customHeight="1">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -4776,8 +4778,8 @@
         <f>B18+7</f>
         <v>43844</v>
       </c>
-      <c r="C19" s="121"/>
-      <c r="D19" s="124"/>
+      <c r="C19" s="100"/>
+      <c r="D19" s="103"/>
       <c r="E19" s="28">
         <v>1</v>
       </c>
@@ -4817,7 +4819,7 @@
       <c r="W19" s="75"/>
       <c r="X19" s="75"/>
     </row>
-    <row r="20" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" ht="26" customHeight="1">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -4825,8 +4827,8 @@
         <f t="shared" ref="B20:B40" si="2">B19+7</f>
         <v>43851</v>
       </c>
-      <c r="C20" s="121"/>
-      <c r="D20" s="124"/>
+      <c r="C20" s="100"/>
+      <c r="D20" s="103"/>
       <c r="E20" s="28">
         <v>2</v>
       </c>
@@ -4850,7 +4852,7 @@
       </c>
       <c r="L20" s="5"/>
       <c r="M20" s="73" t="s">
-        <v>270</v>
+        <v>194</v>
       </c>
       <c r="N20" s="73" t="s">
         <v>270</v>
@@ -4868,7 +4870,7 @@
       <c r="W20" s="75"/>
       <c r="X20" s="75"/>
     </row>
-    <row r="21" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" ht="26" customHeight="1">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -4876,8 +4878,8 @@
         <f>B20+7</f>
         <v>43858</v>
       </c>
-      <c r="C21" s="122"/>
-      <c r="D21" s="125"/>
+      <c r="C21" s="101"/>
+      <c r="D21" s="104"/>
       <c r="E21" s="28">
         <v>2</v>
       </c>
@@ -4899,7 +4901,7 @@
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
       <c r="M21" s="73" t="s">
-        <v>270</v>
+        <v>194</v>
       </c>
       <c r="N21" s="73" t="s">
         <v>270</v>
@@ -4917,7 +4919,7 @@
       <c r="W21" s="75"/>
       <c r="X21" s="75"/>
     </row>
-    <row r="22" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:24" ht="26" customHeight="1">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -4925,10 +4927,10 @@
         <f>B21+7</f>
         <v>43865</v>
       </c>
-      <c r="C22" s="106">
+      <c r="C22" s="118">
         <v>3</v>
       </c>
-      <c r="D22" s="103" t="s">
+      <c r="D22" s="115" t="s">
         <v>60</v>
       </c>
       <c r="E22" s="35">
@@ -4970,7 +4972,7 @@
       <c r="W22" s="75"/>
       <c r="X22" s="75"/>
     </row>
-    <row r="23" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" ht="26" customHeight="1">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -4978,8 +4980,8 @@
         <f>B22+7</f>
         <v>43872</v>
       </c>
-      <c r="C23" s="107"/>
-      <c r="D23" s="104"/>
+      <c r="C23" s="119"/>
+      <c r="D23" s="116"/>
       <c r="E23" s="35">
         <v>2</v>
       </c>
@@ -5018,7 +5020,7 @@
       </c>
       <c r="S23" s="33"/>
     </row>
-    <row r="24" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" ht="26" customHeight="1">
       <c r="A24" s="1">
         <v>19</v>
       </c>
@@ -5026,8 +5028,8 @@
         <f>B23+7</f>
         <v>43879</v>
       </c>
-      <c r="C24" s="108"/>
-      <c r="D24" s="105"/>
+      <c r="C24" s="120"/>
+      <c r="D24" s="117"/>
       <c r="E24" s="34">
         <v>2</v>
       </c>
@@ -5062,25 +5064,25 @@
       </c>
       <c r="S24" s="33"/>
     </row>
-    <row r="25" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="101" t="s">
+    <row r="25" spans="1:24" ht="26" customHeight="1">
+      <c r="A25" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="102"/>
-      <c r="C25" s="102"/>
-      <c r="D25" s="102"/>
-      <c r="E25" s="102"/>
-      <c r="F25" s="102"/>
-      <c r="G25" s="102"/>
-      <c r="H25" s="102"/>
-      <c r="I25" s="102"/>
-      <c r="J25" s="102"/>
-      <c r="K25" s="102"/>
-      <c r="L25" s="102"/>
-      <c r="M25" s="102"/>
-      <c r="N25" s="102"/>
-      <c r="O25" s="102"/>
-      <c r="P25" s="102"/>
+      <c r="B25" s="106"/>
+      <c r="C25" s="106"/>
+      <c r="D25" s="106"/>
+      <c r="E25" s="106"/>
+      <c r="F25" s="106"/>
+      <c r="G25" s="106"/>
+      <c r="H25" s="106"/>
+      <c r="I25" s="106"/>
+      <c r="J25" s="106"/>
+      <c r="K25" s="106"/>
+      <c r="L25" s="106"/>
+      <c r="M25" s="106"/>
+      <c r="N25" s="106"/>
+      <c r="O25" s="106"/>
+      <c r="P25" s="106"/>
       <c r="Q25" s="4"/>
       <c r="R25" s="50"/>
       <c r="S25" s="32"/>
@@ -5088,7 +5090,7 @@
       <c r="W25" s="75"/>
       <c r="X25" s="75"/>
     </row>
-    <row r="26" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:24" ht="26" customHeight="1">
       <c r="A26" s="1">
         <v>19</v>
       </c>
@@ -5096,10 +5098,10 @@
         <f>B24+21</f>
         <v>43900</v>
       </c>
-      <c r="C26" s="106">
+      <c r="C26" s="118">
         <v>3</v>
       </c>
-      <c r="D26" s="103" t="s">
+      <c r="D26" s="115" t="s">
         <v>60</v>
       </c>
       <c r="E26" s="29">
@@ -5141,7 +5143,7 @@
       <c r="W26" s="75"/>
       <c r="X26" s="75"/>
     </row>
-    <row r="27" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" ht="26" customHeight="1">
       <c r="A27" s="1">
         <v>20</v>
       </c>
@@ -5149,8 +5151,8 @@
         <f t="shared" si="2"/>
         <v>43907</v>
       </c>
-      <c r="C27" s="107"/>
-      <c r="D27" s="104"/>
+      <c r="C27" s="119"/>
+      <c r="D27" s="116"/>
       <c r="E27" s="35">
         <v>3</v>
       </c>
@@ -5187,7 +5189,7 @@
       <c r="W27" s="75"/>
       <c r="X27" s="75"/>
     </row>
-    <row r="28" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:24" ht="26" customHeight="1">
       <c r="A28" s="1">
         <v>21</v>
       </c>
@@ -5195,8 +5197,8 @@
         <f t="shared" si="2"/>
         <v>43914</v>
       </c>
-      <c r="C28" s="107"/>
-      <c r="D28" s="104"/>
+      <c r="C28" s="119"/>
+      <c r="D28" s="116"/>
       <c r="E28" s="29">
         <v>4</v>
       </c>
@@ -5236,7 +5238,7 @@
       <c r="W28" s="75"/>
       <c r="X28" s="75"/>
     </row>
-    <row r="29" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" ht="26" customHeight="1">
       <c r="A29" s="1">
         <v>22</v>
       </c>
@@ -5244,8 +5246,8 @@
         <f t="shared" si="2"/>
         <v>43921</v>
       </c>
-      <c r="C29" s="108"/>
-      <c r="D29" s="105"/>
+      <c r="C29" s="120"/>
+      <c r="D29" s="117"/>
       <c r="E29" s="35">
         <v>4</v>
       </c>
@@ -5283,7 +5285,7 @@
       <c r="W29" s="75"/>
       <c r="X29" s="75"/>
     </row>
-    <row r="30" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:24" ht="26" customHeight="1">
       <c r="A30" s="1">
         <v>23</v>
       </c>
@@ -5291,10 +5293,10 @@
         <f t="shared" si="2"/>
         <v>43928</v>
       </c>
-      <c r="C30" s="109">
+      <c r="C30" s="121">
         <v>4</v>
       </c>
-      <c r="D30" s="111" t="s">
+      <c r="D30" s="123" t="s">
         <v>43</v>
       </c>
       <c r="E30" s="30">
@@ -5338,7 +5340,7 @@
       <c r="W30" s="75"/>
       <c r="X30" s="75"/>
     </row>
-    <row r="31" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:24" ht="26" customHeight="1">
       <c r="A31" s="1">
         <v>24</v>
       </c>
@@ -5346,8 +5348,8 @@
         <f t="shared" si="2"/>
         <v>43935</v>
       </c>
-      <c r="C31" s="110"/>
-      <c r="D31" s="112"/>
+      <c r="C31" s="122"/>
+      <c r="D31" s="124"/>
       <c r="E31" s="30">
         <v>2</v>
       </c>
@@ -5387,25 +5389,25 @@
       <c r="W31" s="75"/>
       <c r="X31" s="75"/>
     </row>
-    <row r="32" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="99" t="s">
+    <row r="32" spans="1:24" ht="26" customHeight="1">
+      <c r="A32" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="B32" s="100"/>
-      <c r="C32" s="100"/>
-      <c r="D32" s="100"/>
-      <c r="E32" s="100"/>
-      <c r="F32" s="100"/>
-      <c r="G32" s="100"/>
-      <c r="H32" s="100"/>
-      <c r="I32" s="100"/>
-      <c r="J32" s="100"/>
-      <c r="K32" s="100"/>
-      <c r="L32" s="100"/>
-      <c r="M32" s="100"/>
-      <c r="N32" s="100"/>
-      <c r="O32" s="100"/>
-      <c r="P32" s="100"/>
+      <c r="B32" s="114"/>
+      <c r="C32" s="114"/>
+      <c r="D32" s="114"/>
+      <c r="E32" s="114"/>
+      <c r="F32" s="114"/>
+      <c r="G32" s="114"/>
+      <c r="H32" s="114"/>
+      <c r="I32" s="114"/>
+      <c r="J32" s="114"/>
+      <c r="K32" s="114"/>
+      <c r="L32" s="114"/>
+      <c r="M32" s="114"/>
+      <c r="N32" s="114"/>
+      <c r="O32" s="114"/>
+      <c r="P32" s="114"/>
       <c r="Q32" s="47"/>
       <c r="R32" s="51"/>
       <c r="S32" s="32"/>
@@ -5413,7 +5415,7 @@
       <c r="W32" s="75"/>
       <c r="X32" s="75"/>
     </row>
-    <row r="33" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" ht="26" customHeight="1">
       <c r="A33" s="1">
         <v>25</v>
       </c>
@@ -5421,10 +5423,10 @@
         <f>B31+21</f>
         <v>43956</v>
       </c>
-      <c r="C33" s="109">
+      <c r="C33" s="121">
         <v>4</v>
       </c>
-      <c r="D33" s="111" t="s">
+      <c r="D33" s="123" t="s">
         <v>43</v>
       </c>
       <c r="E33" s="30">
@@ -5461,7 +5463,7 @@
       </c>
       <c r="S33" s="33"/>
     </row>
-    <row r="34" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:24" ht="26" customHeight="1">
       <c r="A34" s="1">
         <v>26</v>
       </c>
@@ -5469,8 +5471,8 @@
         <f t="shared" si="2"/>
         <v>43963</v>
       </c>
-      <c r="C34" s="114"/>
-      <c r="D34" s="113"/>
+      <c r="C34" s="126"/>
+      <c r="D34" s="125"/>
       <c r="E34" s="30">
         <v>3</v>
       </c>
@@ -5507,7 +5509,7 @@
       </c>
       <c r="S34" s="32"/>
     </row>
-    <row r="35" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:24" ht="26" customHeight="1">
       <c r="A35" s="1">
         <v>27</v>
       </c>
@@ -5515,8 +5517,8 @@
         <f t="shared" si="2"/>
         <v>43970</v>
       </c>
-      <c r="C35" s="110"/>
-      <c r="D35" s="112"/>
+      <c r="C35" s="122"/>
+      <c r="D35" s="124"/>
       <c r="E35" s="30">
         <v>4</v>
       </c>
@@ -5552,7 +5554,7 @@
       </c>
       <c r="S35" s="46"/>
     </row>
-    <row r="36" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:24" ht="26" customHeight="1">
       <c r="A36" s="1">
         <v>28</v>
       </c>
@@ -5560,10 +5562,10 @@
         <f t="shared" si="2"/>
         <v>43977</v>
       </c>
-      <c r="C36" s="117">
+      <c r="C36" s="129">
         <v>5</v>
       </c>
-      <c r="D36" s="115" t="s">
+      <c r="D36" s="127" t="s">
         <v>49</v>
       </c>
       <c r="E36" s="31">
@@ -5595,7 +5597,7 @@
       <c r="W36" s="75"/>
       <c r="X36" s="75"/>
     </row>
-    <row r="37" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:24" ht="26" customHeight="1">
       <c r="A37" s="1">
         <v>29</v>
       </c>
@@ -5603,8 +5605,8 @@
         <f t="shared" si="2"/>
         <v>43984</v>
       </c>
-      <c r="C37" s="118"/>
-      <c r="D37" s="116"/>
+      <c r="C37" s="130"/>
+      <c r="D37" s="128"/>
       <c r="E37" s="31">
         <v>1</v>
       </c>
@@ -5636,7 +5638,7 @@
       <c r="W37" s="75"/>
       <c r="X37" s="75"/>
     </row>
-    <row r="38" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24" ht="26" customHeight="1">
       <c r="A38" s="1">
         <v>30</v>
       </c>
@@ -5644,8 +5646,8 @@
         <f t="shared" si="2"/>
         <v>43991</v>
       </c>
-      <c r="C38" s="118"/>
-      <c r="D38" s="116"/>
+      <c r="C38" s="130"/>
+      <c r="D38" s="128"/>
       <c r="E38" s="31">
         <v>1</v>
       </c>
@@ -5675,7 +5677,7 @@
       <c r="W38" s="75"/>
       <c r="X38" s="75"/>
     </row>
-    <row r="39" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:24" ht="26" customHeight="1">
       <c r="A39" s="1">
         <v>31</v>
       </c>
@@ -5683,8 +5685,8 @@
         <f t="shared" si="2"/>
         <v>43998</v>
       </c>
-      <c r="C39" s="118"/>
-      <c r="D39" s="116"/>
+      <c r="C39" s="130"/>
+      <c r="D39" s="128"/>
       <c r="E39" s="31">
         <v>1</v>
       </c>
@@ -5714,7 +5716,7 @@
       <c r="W39" s="75"/>
       <c r="X39" s="75"/>
     </row>
-    <row r="40" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:24" ht="26" customHeight="1">
       <c r="A40" s="1">
         <v>32</v>
       </c>
@@ -5722,8 +5724,8 @@
         <f t="shared" si="2"/>
         <v>44005</v>
       </c>
-      <c r="C40" s="119"/>
-      <c r="D40" s="116"/>
+      <c r="C40" s="131"/>
+      <c r="D40" s="128"/>
       <c r="E40" s="31">
         <v>1</v>
       </c>
@@ -5751,101 +5753,93 @@
       <c r="W40" s="75"/>
       <c r="X40" s="75"/>
     </row>
-    <row r="41" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="99" t="s">
+    <row r="41" spans="1:24" ht="26" customHeight="1">
+      <c r="A41" s="113" t="s">
         <v>15</v>
       </c>
-      <c r="B41" s="100"/>
-      <c r="C41" s="100"/>
-      <c r="D41" s="100"/>
-      <c r="E41" s="100"/>
-      <c r="F41" s="100"/>
-      <c r="G41" s="100"/>
-      <c r="H41" s="100"/>
-      <c r="I41" s="100"/>
-      <c r="J41" s="100"/>
-      <c r="K41" s="100"/>
-      <c r="L41" s="100"/>
-      <c r="M41" s="100"/>
-      <c r="N41" s="100"/>
-      <c r="O41" s="100"/>
-      <c r="P41" s="100"/>
+      <c r="B41" s="114"/>
+      <c r="C41" s="114"/>
+      <c r="D41" s="114"/>
+      <c r="E41" s="114"/>
+      <c r="F41" s="114"/>
+      <c r="G41" s="114"/>
+      <c r="H41" s="114"/>
+      <c r="I41" s="114"/>
+      <c r="J41" s="114"/>
+      <c r="K41" s="114"/>
+      <c r="L41" s="114"/>
+      <c r="M41" s="114"/>
+      <c r="N41" s="114"/>
+      <c r="O41" s="114"/>
+      <c r="P41" s="114"/>
       <c r="Q41" s="47"/>
       <c r="R41" s="51"/>
       <c r="V41" s="70"/>
       <c r="W41" s="75"/>
       <c r="X41" s="75"/>
     </row>
-    <row r="42" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:24" ht="26" customHeight="1">
       <c r="V42" s="70"/>
       <c r="W42" s="75"/>
       <c r="X42" s="75"/>
     </row>
-    <row r="43" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:24" ht="26" customHeight="1">
       <c r="V43" s="70"/>
       <c r="W43" s="75"/>
       <c r="X43" s="75"/>
     </row>
-    <row r="44" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:24" ht="26" customHeight="1">
       <c r="V44" s="70"/>
       <c r="W44" s="75"/>
       <c r="X44" s="75"/>
     </row>
-    <row r="45" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:24" ht="26" customHeight="1">
       <c r="V45" s="70"/>
       <c r="W45" s="75"/>
       <c r="X45" s="75"/>
     </row>
-    <row r="46" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:24" ht="26" customHeight="1">
       <c r="V46" s="70"/>
       <c r="W46" s="75"/>
       <c r="X46" s="75"/>
     </row>
-    <row r="47" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:24" ht="26" customHeight="1">
       <c r="V47" s="70"/>
       <c r="W47" s="75"/>
       <c r="X47" s="75"/>
     </row>
-    <row r="48" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:24" ht="26" customHeight="1">
       <c r="V48" s="70"/>
       <c r="W48" s="75"/>
       <c r="X48" s="75"/>
     </row>
-    <row r="49" spans="22:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="22:24" ht="26" customHeight="1">
       <c r="V49" s="70"/>
       <c r="W49" s="75"/>
       <c r="X49" s="75"/>
     </row>
-    <row r="50" spans="22:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="22:24" ht="26" customHeight="1">
       <c r="V50" s="70"/>
       <c r="W50" s="75"/>
       <c r="X50" s="75"/>
     </row>
-    <row r="51" spans="22:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="22:24" ht="26" customHeight="1">
       <c r="V51" s="70"/>
       <c r="W51" s="75"/>
       <c r="X51" s="75"/>
     </row>
-    <row r="52" spans="22:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="22:24" ht="26" customHeight="1">
       <c r="V52" s="70"/>
       <c r="W52" s="75"/>
       <c r="X52" s="75"/>
     </row>
-    <row r="53" spans="22:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="22:24" ht="26" customHeight="1">
       <c r="V53" s="70"/>
       <c r="W53" s="75"/>
       <c r="X53" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="D18:D21"/>
-    <mergeCell ref="A9:P9"/>
-    <mergeCell ref="A17:P17"/>
-    <mergeCell ref="C2:C8"/>
-    <mergeCell ref="D2:D8"/>
-    <mergeCell ref="D10:D16"/>
-    <mergeCell ref="C10:C16"/>
     <mergeCell ref="A41:P41"/>
     <mergeCell ref="A32:P32"/>
     <mergeCell ref="A25:P25"/>
@@ -5859,6 +5853,14 @@
     <mergeCell ref="C33:C35"/>
     <mergeCell ref="D36:D40"/>
     <mergeCell ref="C36:C40"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="A9:P9"/>
+    <mergeCell ref="A17:P17"/>
+    <mergeCell ref="C2:C8"/>
+    <mergeCell ref="D2:D8"/>
+    <mergeCell ref="D10:D16"/>
+    <mergeCell ref="C10:C16"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5867,22 +5869,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="2"/>
-    <col min="2" max="2" width="70.5" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="10.81640625" style="2"/>
+    <col min="2" max="2" width="70.453125" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="10.81640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="2" spans="1:2" ht="32" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" ht="21" customHeight="1"/>
+    <row r="2" spans="1:2" ht="31">
       <c r="A2" s="8" t="s">
         <v>4</v>
       </c>
@@ -5890,7 +5892,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="38" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" ht="38" customHeight="1">
       <c r="A3" s="10" t="s">
         <v>3</v>
       </c>
@@ -5898,7 +5900,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="38" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" ht="38" customHeight="1">
       <c r="A4" s="22" t="s">
         <v>54</v>
       </c>
@@ -5906,7 +5908,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="38" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2" ht="38" customHeight="1">
       <c r="A5" s="23" t="s">
         <v>55</v>
       </c>
@@ -5914,7 +5916,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="38" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2" ht="38" customHeight="1">
       <c r="A6" s="24" t="s">
         <v>6</v>
       </c>
@@ -5922,7 +5924,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="38" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" ht="38" customHeight="1">
       <c r="A7" s="25" t="s">
         <v>7</v>
       </c>
@@ -5938,22 +5940,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C68"/>
   <sheetViews>
     <sheetView topLeftCell="A12" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="70"/>
-    <col min="2" max="2" width="108.5" style="71" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="100.5" style="71" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="70"/>
+    <col min="1" max="1" width="10.81640625" style="70"/>
+    <col min="2" max="2" width="108.453125" style="71" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="100.453125" style="71" customWidth="1"/>
+    <col min="4" max="16384" width="10.81640625" style="70"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" s="70" t="s">
         <v>241</v>
       </c>
@@ -5964,7 +5966,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3">
       <c r="A2" s="70" t="s">
         <v>326</v>
       </c>
@@ -5975,7 +5977,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="24" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" ht="24">
       <c r="A3" s="70" t="s">
         <v>323</v>
       </c>
@@ -5986,7 +5988,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="24" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" ht="24">
       <c r="A4" s="70" t="s">
         <v>205</v>
       </c>
@@ -5997,7 +5999,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3">
       <c r="A5" s="70" t="s">
         <v>206</v>
       </c>
@@ -6008,7 +6010,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3">
       <c r="A7" s="70" t="s">
         <v>187</v>
       </c>
@@ -6019,7 +6021,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3">
       <c r="A8" s="70" t="s">
         <v>188</v>
       </c>
@@ -6030,7 +6032,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3">
       <c r="A9" s="70" t="s">
         <v>207</v>
       </c>
@@ -6041,7 +6043,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3">
       <c r="A10" s="70" t="s">
         <v>208</v>
       </c>
@@ -6052,17 +6054,17 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3">
       <c r="A11" s="70" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3">
       <c r="A12" s="70" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3">
       <c r="A13" s="70" t="s">
         <v>189</v>
       </c>
@@ -6073,7 +6075,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3">
       <c r="A14" s="70" t="s">
         <v>190</v>
       </c>
@@ -6084,7 +6086,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3">
       <c r="A15" s="70" t="s">
         <v>191</v>
       </c>
@@ -6095,7 +6097,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3">
       <c r="A16" s="70" t="s">
         <v>199</v>
       </c>
@@ -6106,7 +6108,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3">
       <c r="A17" s="70" t="s">
         <v>201</v>
       </c>
@@ -6117,7 +6119,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3">
       <c r="A18" s="70" t="s">
         <v>192</v>
       </c>
@@ -6128,7 +6130,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3">
       <c r="A19" s="70" t="s">
         <v>193</v>
       </c>
@@ -6139,7 +6141,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3">
       <c r="A20" s="70" t="s">
         <v>194</v>
       </c>
@@ -6150,7 +6152,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3">
       <c r="A21" s="70" t="s">
         <v>195</v>
       </c>
@@ -6161,7 +6163,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="24" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3" ht="24">
       <c r="A22" s="70" t="s">
         <v>196</v>
       </c>
@@ -6172,7 +6174,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3">
       <c r="A23" s="70" t="s">
         <v>197</v>
       </c>
@@ -6183,7 +6185,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3">
       <c r="A24" s="70" t="s">
         <v>198</v>
       </c>
@@ -6194,17 +6196,17 @@
         <v>294</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3">
       <c r="A25" s="70" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3">
       <c r="A26" s="70" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:3">
       <c r="A27" s="79" t="s">
         <v>200</v>
       </c>
@@ -6215,7 +6217,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:3">
       <c r="A28" s="79" t="s">
         <v>202</v>
       </c>
@@ -6226,7 +6228,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:3">
       <c r="A29" s="79" t="s">
         <v>203</v>
       </c>
@@ -6237,7 +6239,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:3">
       <c r="A30" s="79" t="s">
         <v>204</v>
       </c>
@@ -6248,7 +6250,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:3">
       <c r="A31" s="79" t="s">
         <v>237</v>
       </c>
@@ -6259,7 +6261,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:3">
       <c r="A32" s="79" t="s">
         <v>238</v>
       </c>
@@ -6270,7 +6272,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:3">
       <c r="A33" s="70" t="s">
         <v>209</v>
       </c>
@@ -6281,7 +6283,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:3">
       <c r="A34" s="70" t="s">
         <v>210</v>
       </c>
@@ -6292,7 +6294,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:3">
       <c r="A35" s="70" t="s">
         <v>211</v>
       </c>
@@ -6303,7 +6305,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:3">
       <c r="A36" s="70" t="s">
         <v>212</v>
       </c>
@@ -6314,7 +6316,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:3">
       <c r="A37" s="70" t="s">
         <v>213</v>
       </c>
@@ -6325,7 +6327,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="24" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:3" ht="24">
       <c r="A38" s="70" t="s">
         <v>239</v>
       </c>
@@ -6336,7 +6338,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:3">
       <c r="A39" s="70" t="s">
         <v>240</v>
       </c>
@@ -6347,17 +6349,17 @@
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:3">
       <c r="A40" s="70" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:3">
       <c r="A41" s="70" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="24" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:3" ht="24">
       <c r="A42" s="70" t="s">
         <v>214</v>
       </c>
@@ -6368,7 +6370,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="24" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:3" ht="36">
       <c r="A43" s="70" t="s">
         <v>215</v>
       </c>
@@ -6379,7 +6381,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="24" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:3" ht="24">
       <c r="A44" s="70" t="s">
         <v>216</v>
       </c>
@@ -6390,7 +6392,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:3">
       <c r="A45" s="70" t="s">
         <v>217</v>
       </c>
@@ -6401,7 +6403,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:3">
       <c r="A46" s="70" t="s">
         <v>218</v>
       </c>
@@ -6412,7 +6414,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:3">
       <c r="A47" s="70" t="s">
         <v>219</v>
       </c>
@@ -6423,7 +6425,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="24" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:3" ht="24">
       <c r="A48" s="70" t="s">
         <v>220</v>
       </c>
@@ -6434,7 +6436,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:3">
       <c r="A49" s="70" t="s">
         <v>221</v>
       </c>
@@ -6445,7 +6447,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="24" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:3" ht="24">
       <c r="A50" s="70" t="s">
         <v>222</v>
       </c>
@@ -6456,17 +6458,17 @@
         <v>259</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:3">
       <c r="A51" s="70" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:3">
       <c r="A52" s="70" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:3">
       <c r="A53" s="70" t="s">
         <v>223</v>
       </c>
@@ -6477,7 +6479,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:3">
       <c r="A54" s="70" t="s">
         <v>224</v>
       </c>
@@ -6488,7 +6490,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:3">
       <c r="A55" s="70" t="s">
         <v>225</v>
       </c>
@@ -6499,7 +6501,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:3">
       <c r="A56" s="70" t="s">
         <v>226</v>
       </c>
@@ -6510,7 +6512,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:3">
       <c r="A57" s="70" t="s">
         <v>227</v>
       </c>
@@ -6521,7 +6523,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:3">
       <c r="A58" s="70" t="s">
         <v>228</v>
       </c>
@@ -6532,7 +6534,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:3">
       <c r="A59" s="70" t="s">
         <v>231</v>
       </c>
@@ -6543,7 +6545,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="24" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:3" ht="24">
       <c r="A60" s="70" t="s">
         <v>232</v>
       </c>
@@ -6554,7 +6556,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:3">
       <c r="A61" s="70" t="s">
         <v>233</v>
       </c>
@@ -6565,12 +6567,12 @@
         <v>313</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:3">
       <c r="A62" s="70" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:3">
       <c r="A63" s="70" t="s">
         <v>234</v>
       </c>
@@ -6581,7 +6583,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:3">
       <c r="A64" s="70" t="s">
         <v>235</v>
       </c>
@@ -6592,7 +6594,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:3">
       <c r="A65" s="70" t="s">
         <v>236</v>
       </c>
@@ -6603,7 +6605,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="36" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:3" ht="36">
       <c r="A66" s="70" t="s">
         <v>280</v>
       </c>
@@ -6614,7 +6616,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:3">
       <c r="A67" s="70" t="s">
         <v>319</v>
       </c>
@@ -6625,7 +6627,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:3">
       <c r="A68" s="70" t="s">
         <v>279</v>
       </c>
@@ -6638,20 +6640,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="47.33203125" customWidth="1"/>
+    <col min="2" max="4" width="47.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="14.5">
       <c r="A1" s="132" t="s">
         <v>77</v>
       </c>
@@ -6659,7 +6661,7 @@
       <c r="C1" s="133"/>
       <c r="D1" s="134"/>
     </row>
-    <row r="2" spans="1:4" ht="22" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" ht="21">
       <c r="A2" s="54" t="s">
         <v>78</v>
       </c>
@@ -6669,7 +6671,7 @@
       <c r="C2" s="55"/>
       <c r="D2" s="56"/>
     </row>
-    <row r="3" spans="1:4" ht="44" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" ht="42">
       <c r="A3" s="54"/>
       <c r="B3" s="55"/>
       <c r="C3" s="55" t="s">
@@ -6677,7 +6679,7 @@
       </c>
       <c r="D3" s="56"/>
     </row>
-    <row r="4" spans="1:4" ht="33" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" ht="31.5">
       <c r="A4" s="54"/>
       <c r="B4" s="55"/>
       <c r="C4" s="55" t="s">
@@ -6685,7 +6687,7 @@
       </c>
       <c r="D4" s="56"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4">
       <c r="A5" s="54"/>
       <c r="B5" s="55"/>
       <c r="C5" s="55" t="s">
@@ -6693,13 +6695,13 @@
       </c>
       <c r="D5" s="56"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4">
       <c r="A6" s="54"/>
       <c r="B6" s="55"/>
       <c r="C6" s="55"/>
       <c r="D6" s="56"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" ht="21">
       <c r="A7" s="54" t="s">
         <v>83</v>
       </c>
@@ -6709,7 +6711,7 @@
       <c r="C7" s="55"/>
       <c r="D7" s="56"/>
     </row>
-    <row r="8" spans="1:4" ht="22" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" ht="21">
       <c r="A8" s="54" t="s">
         <v>85</v>
       </c>
@@ -6721,7 +6723,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="33" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" ht="42">
       <c r="A9" s="54"/>
       <c r="B9" s="55"/>
       <c r="C9" s="55" t="s">
@@ -6731,7 +6733,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="56" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="53" thickBot="1">
       <c r="A10" s="57"/>
       <c r="B10" s="58"/>
       <c r="C10" s="58" t="s">
@@ -6741,13 +6743,13 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="13" thickBot="1">
       <c r="A11" s="60"/>
       <c r="B11" s="61"/>
       <c r="C11" s="61"/>
       <c r="D11" s="61"/>
     </row>
-    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" ht="14.5">
       <c r="A12" s="132" t="s">
         <v>92</v>
       </c>
@@ -6755,7 +6757,7 @@
       <c r="C12" s="133"/>
       <c r="D12" s="134"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4">
       <c r="A13" s="54" t="s">
         <v>93</v>
       </c>
@@ -6765,7 +6767,7 @@
       <c r="C13" s="55"/>
       <c r="D13" s="56"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4">
       <c r="A14" s="54" t="s">
         <v>95</v>
       </c>
@@ -6775,7 +6777,7 @@
       <c r="C14" s="55"/>
       <c r="D14" s="56"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4">
       <c r="A15" s="54" t="s">
         <v>97</v>
       </c>
@@ -6785,7 +6787,7 @@
       <c r="C15" s="55"/>
       <c r="D15" s="56"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4">
       <c r="A16" s="54" t="s">
         <v>99</v>
       </c>
@@ -6795,7 +6797,7 @@
       <c r="C16" s="55"/>
       <c r="D16" s="56"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" ht="21">
       <c r="A17" s="54" t="s">
         <v>101</v>
       </c>
@@ -6805,7 +6807,7 @@
       <c r="C17" s="55"/>
       <c r="D17" s="56"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" ht="21">
       <c r="A18" s="54" t="s">
         <v>103</v>
       </c>
@@ -6815,7 +6817,7 @@
       <c r="C18" s="55"/>
       <c r="D18" s="56"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4">
       <c r="A19" s="54" t="s">
         <v>105</v>
       </c>
@@ -6825,7 +6827,7 @@
       <c r="C19" s="55"/>
       <c r="D19" s="56"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4">
       <c r="A20" s="54" t="s">
         <v>107</v>
       </c>
@@ -6835,7 +6837,7 @@
       <c r="C20" s="55"/>
       <c r="D20" s="56"/>
     </row>
-    <row r="21" spans="1:4" ht="22" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4" ht="21">
       <c r="A21" s="54"/>
       <c r="B21" s="55"/>
       <c r="C21" s="55" t="s">
@@ -6843,7 +6845,7 @@
       </c>
       <c r="D21" s="56"/>
     </row>
-    <row r="22" spans="1:4" ht="22" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4" ht="21">
       <c r="A22" s="54"/>
       <c r="B22" s="55"/>
       <c r="C22" s="55" t="s">
@@ -6851,7 +6853,7 @@
       </c>
       <c r="D22" s="56"/>
     </row>
-    <row r="23" spans="1:4" ht="22" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4" ht="21">
       <c r="A23" s="54"/>
       <c r="B23" s="55"/>
       <c r="C23" s="55" t="s">
@@ -6859,7 +6861,7 @@
       </c>
       <c r="D23" s="56"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4">
       <c r="A24" s="54"/>
       <c r="B24" s="55"/>
       <c r="C24" s="55" t="s">
@@ -6867,7 +6869,7 @@
       </c>
       <c r="D24" s="56"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4">
       <c r="A25" s="54"/>
       <c r="B25" s="55"/>
       <c r="C25" s="55" t="s">
@@ -6875,13 +6877,13 @@
       </c>
       <c r="D25" s="56"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4">
       <c r="A26" s="54"/>
       <c r="B26" s="55"/>
       <c r="C26" s="55"/>
       <c r="D26" s="56"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4">
       <c r="A27" s="54" t="s">
         <v>114</v>
       </c>
@@ -6891,7 +6893,7 @@
       <c r="C27" s="55"/>
       <c r="D27" s="56"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4" ht="21">
       <c r="A28" s="54" t="s">
         <v>116</v>
       </c>
@@ -6901,7 +6903,7 @@
       <c r="C28" s="55"/>
       <c r="D28" s="56"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4">
       <c r="A29" s="54" t="s">
         <v>118</v>
       </c>
@@ -6911,7 +6913,7 @@
       <c r="C29" s="55"/>
       <c r="D29" s="56"/>
     </row>
-    <row r="30" spans="1:4" ht="22" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:4" ht="21">
       <c r="A30" s="54" t="s">
         <v>120</v>
       </c>
@@ -6921,7 +6923,7 @@
       <c r="C30" s="55"/>
       <c r="D30" s="56"/>
     </row>
-    <row r="31" spans="1:4" ht="22" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:4" ht="21">
       <c r="A31" s="54" t="s">
         <v>122</v>
       </c>
@@ -6931,7 +6933,7 @@
       <c r="C31" s="55"/>
       <c r="D31" s="56"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:4">
       <c r="A32" s="54" t="s">
         <v>124</v>
       </c>
@@ -6941,7 +6943,7 @@
       <c r="C32" s="55"/>
       <c r="D32" s="56"/>
     </row>
-    <row r="33" spans="1:4" ht="22" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4" ht="21">
       <c r="A33" s="54"/>
       <c r="B33" s="55"/>
       <c r="C33" s="55" t="s">
@@ -6951,7 +6953,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="22" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:4" ht="21">
       <c r="A34" s="54"/>
       <c r="B34" s="55"/>
       <c r="C34" s="55" t="s">
@@ -6961,7 +6963,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="22" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:4" ht="31.5">
       <c r="A35" s="54"/>
       <c r="B35" s="55"/>
       <c r="C35" s="55" t="s">
@@ -6971,7 +6973,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="33" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:4" ht="31.5">
       <c r="A36" s="54"/>
       <c r="B36" s="55"/>
       <c r="C36" s="55" t="s">
@@ -6981,7 +6983,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="22" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:4" ht="31.5">
       <c r="A37" s="54"/>
       <c r="B37" s="55"/>
       <c r="C37" s="55" t="s">
@@ -6991,7 +6993,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="55" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:4" ht="52.5">
       <c r="A38" s="54"/>
       <c r="B38" s="55"/>
       <c r="C38" s="55" t="s">
@@ -7001,7 +7003,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="34" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" ht="32" thickBot="1">
       <c r="A39" s="57"/>
       <c r="B39" s="58"/>
       <c r="C39" s="58" t="s">
@@ -7011,13 +7013,13 @@
         <v>139</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" ht="13" thickBot="1">
       <c r="A40" s="60"/>
       <c r="B40" s="61"/>
       <c r="C40" s="61"/>
       <c r="D40" s="61"/>
     </row>
-    <row r="41" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" ht="14.5">
       <c r="A41" s="135" t="s">
         <v>140</v>
       </c>
@@ -7025,7 +7027,7 @@
       <c r="C41" s="136"/>
       <c r="D41" s="137"/>
     </row>
-    <row r="42" spans="1:4" ht="33" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:4" ht="31.5">
       <c r="A42" s="54" t="s">
         <v>141</v>
       </c>
@@ -7035,7 +7037,7 @@
       <c r="C42" s="62"/>
       <c r="D42" s="63"/>
     </row>
-    <row r="43" spans="1:4" ht="44" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:4" ht="42">
       <c r="A43" s="54" t="s">
         <v>143</v>
       </c>
@@ -7045,7 +7047,7 @@
       <c r="C43" s="62"/>
       <c r="D43" s="63"/>
     </row>
-    <row r="44" spans="1:4" ht="33" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:4" ht="31.5">
       <c r="A44" s="54" t="s">
         <v>145</v>
       </c>
@@ -7055,7 +7057,7 @@
       <c r="C44" s="62"/>
       <c r="D44" s="63"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:4" ht="21">
       <c r="A45" s="54" t="s">
         <v>147</v>
       </c>
@@ -7065,7 +7067,7 @@
       <c r="C45" s="62"/>
       <c r="D45" s="63"/>
     </row>
-    <row r="46" spans="1:4" ht="22" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:4" ht="21">
       <c r="A46" s="54" t="s">
         <v>149</v>
       </c>
@@ -7075,7 +7077,7 @@
       <c r="C46" s="62"/>
       <c r="D46" s="63"/>
     </row>
-    <row r="47" spans="1:4" ht="44" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:4" ht="42">
       <c r="A47" s="54"/>
       <c r="B47" s="62"/>
       <c r="C47" s="62" t="s">
@@ -7085,7 +7087,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="33" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:4" ht="31.5">
       <c r="A48" s="54"/>
       <c r="B48" s="62"/>
       <c r="C48" s="62" t="s">
@@ -7095,7 +7097,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="44" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:4" ht="52.5">
       <c r="A49" s="54"/>
       <c r="B49" s="62"/>
       <c r="C49" s="62" t="s">
@@ -7105,7 +7107,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="67" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" ht="74" thickBot="1">
       <c r="A50" s="57"/>
       <c r="B50" s="64"/>
       <c r="C50" s="64" t="s">
@@ -7115,13 +7117,13 @@
         <v>158</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="15" thickBot="1">
       <c r="A51" s="60"/>
       <c r="B51" s="66"/>
       <c r="C51" s="66"/>
       <c r="D51" s="66"/>
     </row>
-    <row r="52" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="15" thickBot="1">
       <c r="A52" s="138" t="s">
         <v>159</v>
       </c>
@@ -7129,7 +7131,7 @@
       <c r="C52" s="139"/>
       <c r="D52" s="140"/>
     </row>
-    <row r="53" spans="1:4" ht="22" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:4" ht="21">
       <c r="A53" s="67" t="s">
         <v>160</v>
       </c>
@@ -7139,7 +7141,7 @@
       <c r="C53" s="68"/>
       <c r="D53" s="68"/>
     </row>
-    <row r="54" spans="1:4" ht="22" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:4" ht="21">
       <c r="A54" s="69" t="s">
         <v>162</v>
       </c>
@@ -7149,7 +7151,7 @@
       <c r="C54" s="55"/>
       <c r="D54" s="55"/>
     </row>
-    <row r="55" spans="1:4" ht="22" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:4" ht="21">
       <c r="A55" s="69" t="s">
         <v>164</v>
       </c>
@@ -7159,7 +7161,7 @@
       <c r="C55" s="55"/>
       <c r="D55" s="55"/>
     </row>
-    <row r="56" spans="1:4" ht="22" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:4" ht="21">
       <c r="A56" s="69" t="s">
         <v>166</v>
       </c>
@@ -7169,7 +7171,7 @@
       <c r="C56" s="55"/>
       <c r="D56" s="55"/>
     </row>
-    <row r="57" spans="1:4" ht="22" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:4" ht="21">
       <c r="A57" s="69" t="s">
         <v>168</v>
       </c>
@@ -7179,7 +7181,7 @@
       <c r="C57" s="55"/>
       <c r="D57" s="55"/>
     </row>
-    <row r="58" spans="1:4" ht="22" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:4" ht="21">
       <c r="A58" s="69"/>
       <c r="B58" s="55"/>
       <c r="C58" s="55" t="s">
@@ -7189,7 +7191,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="55" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:4" ht="52.5">
       <c r="A59" s="69"/>
       <c r="B59" s="55"/>
       <c r="C59" s="55" t="s">
@@ -7199,7 +7201,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="23" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" ht="21.5" thickBot="1">
       <c r="A60" s="69"/>
       <c r="B60" s="55"/>
       <c r="C60" s="55" t="s">
@@ -7209,13 +7211,13 @@
         <v>175</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" ht="15" thickBot="1">
       <c r="A61" s="60"/>
       <c r="B61" s="66"/>
       <c r="C61" s="66"/>
       <c r="D61" s="66"/>
     </row>
-    <row r="62" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" ht="15" thickBot="1">
       <c r="A62" s="138" t="s">
         <v>176</v>
       </c>
@@ -7223,7 +7225,7 @@
       <c r="C62" s="139"/>
       <c r="D62" s="140"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:4">
       <c r="A63" s="67" t="s">
         <v>177</v>
       </c>
@@ -7233,7 +7235,7 @@
       <c r="C63" s="68"/>
       <c r="D63" s="68"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:4">
       <c r="A64" s="69" t="s">
         <v>179</v>
       </c>
@@ -7243,7 +7245,7 @@
       <c r="C64" s="55"/>
       <c r="D64" s="55"/>
     </row>
-    <row r="65" spans="1:4" ht="44" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:4" ht="42">
       <c r="A65" s="69" t="s">
         <v>181</v>
       </c>

--- a/progression_2019_2020_IPT_MPSI.xlsx
+++ b/progression_2019_2020_IPT_MPSI.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28109"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Informatique_MPSI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emiliendurif/Documents/prepa/MPSI/ipt_mpsi_lamartin/Informatique_MPSI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37BCAB8B-6118-4CAC-96A4-53DAEDF72ADF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19420" windowHeight="10420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Planning DS" sheetId="16" r:id="rId1"/>
@@ -23,10 +22,13 @@
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Cycles MPSI IPT'!$A$3:$B$7</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Semanier MPSI IPT 2019-2020'!$A$18:$H$20</definedName>
   </definedNames>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,15 +36,12 @@
         <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="362">
   <si>
     <t>Cours</t>
   </si>
@@ -1136,13 +1135,19 @@
   </si>
   <si>
     <t>complexite/COM-008;complexite/COM-009;complexite/COM-010;complexite/COM-011</t>
+  </si>
+  <si>
+    <t>tableaux/percolation</t>
+  </si>
+  <si>
+    <t>Tableau, complexité et tracé de fonctions</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2512,6 +2517,69 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="1" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2530,12 +2598,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2552,63 +2614,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3287,13 +3292,13 @@
     <cellStyle name="Lien hypertexte visité" xfId="651" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="653" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000087020000}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000088020000}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000089020000}"/>
-    <cellStyle name="Normal 4" xfId="4" xr:uid="{00000000-0005-0000-0000-00008A020000}"/>
-    <cellStyle name="Normal 4 2" xfId="5" xr:uid="{00000000-0005-0000-0000-00008B020000}"/>
-    <cellStyle name="Normal 4 3" xfId="6" xr:uid="{00000000-0005-0000-0000-00008C020000}"/>
-    <cellStyle name="Normal 5" xfId="7" xr:uid="{00000000-0005-0000-0000-00008D020000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2 2" xfId="2"/>
+    <cellStyle name="Normal 3" xfId="3"/>
+    <cellStyle name="Normal 4" xfId="4"/>
+    <cellStyle name="Normal 4 2" xfId="5"/>
+    <cellStyle name="Normal 4 3" xfId="6"/>
+    <cellStyle name="Normal 5" xfId="7"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -3605,22 +3610,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="14.36328125" customWidth="1"/>
-    <col min="4" max="4" width="13.1796875" customWidth="1"/>
-    <col min="5" max="5" width="13.81640625" customWidth="1"/>
-    <col min="6" max="6" width="16.453125" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" customWidth="1"/>
+    <col min="6" max="6" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="13" thickBot="1">
+    <row r="1" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
@@ -3636,7 +3641,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="62">
+    <row r="2" spans="1:8" ht="48" x14ac:dyDescent="0.15">
       <c r="A2" s="96">
         <v>1</v>
       </c>
@@ -3650,7 +3655,7 @@
       <c r="E2" s="86"/>
       <c r="F2" s="86"/>
     </row>
-    <row r="3" spans="1:8" ht="87.5">
+    <row r="3" spans="1:8" ht="78" x14ac:dyDescent="0.15">
       <c r="A3" s="97"/>
       <c r="B3" s="3" t="s">
         <v>335</v>
@@ -3662,7 +3667,7 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="97"/>
       <c r="B4" s="3" t="s">
         <v>339</v>
@@ -3674,7 +3679,7 @@
       <c r="E4" s="42"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="97"/>
       <c r="B5" s="3" t="s">
         <v>336</v>
@@ -3686,7 +3691,7 @@
       <c r="E5" s="42"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:8" ht="50" customHeight="1" thickBot="1">
+    <row r="6" spans="1:8" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="98"/>
       <c r="B6" s="87" t="s">
         <v>337</v>
@@ -3698,7 +3703,7 @@
       <c r="E6" s="88"/>
       <c r="F6" s="88"/>
     </row>
-    <row r="7" spans="1:8" ht="62">
+    <row r="7" spans="1:8" ht="48" x14ac:dyDescent="0.15">
       <c r="A7" s="96">
         <v>2</v>
       </c>
@@ -3712,7 +3717,7 @@
       <c r="E7" s="86"/>
       <c r="F7" s="86"/>
     </row>
-    <row r="8" spans="1:8" ht="37.5">
+    <row r="8" spans="1:8" ht="39" x14ac:dyDescent="0.15">
       <c r="A8" s="97"/>
       <c r="B8" s="90" t="s">
         <v>335</v>
@@ -3724,7 +3729,7 @@
       <c r="E8" s="90"/>
       <c r="F8" s="90"/>
     </row>
-    <row r="9" spans="1:8" ht="25">
+    <row r="9" spans="1:8" ht="26" x14ac:dyDescent="0.15">
       <c r="A9" s="97"/>
       <c r="B9" s="90" t="s">
         <v>339</v>
@@ -3739,7 +3744,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="97"/>
       <c r="B10" s="90" t="s">
         <v>336</v>
@@ -3751,7 +3756,7 @@
       <c r="E10" s="42"/>
       <c r="F10" s="90"/>
     </row>
-    <row r="11" spans="1:8" ht="50" customHeight="1" thickBot="1">
+    <row r="11" spans="1:8" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="98"/>
       <c r="B11" s="91" t="s">
         <v>337</v>
@@ -3763,7 +3768,7 @@
       <c r="E11" s="88"/>
       <c r="F11" s="88"/>
     </row>
-    <row r="12" spans="1:8" ht="62">
+    <row r="12" spans="1:8" ht="48" x14ac:dyDescent="0.15">
       <c r="A12" s="96">
         <v>3</v>
       </c>
@@ -3777,7 +3782,7 @@
       <c r="E12" s="86"/>
       <c r="F12" s="86"/>
     </row>
-    <row r="13" spans="1:8" ht="25">
+    <row r="13" spans="1:8" ht="26" x14ac:dyDescent="0.15">
       <c r="A13" s="97"/>
       <c r="B13" s="93" t="s">
         <v>335</v>
@@ -3789,7 +3794,7 @@
       <c r="E13" s="93"/>
       <c r="F13" s="93"/>
     </row>
-    <row r="14" spans="1:8" ht="25">
+    <row r="14" spans="1:8" ht="26" x14ac:dyDescent="0.15">
       <c r="A14" s="97"/>
       <c r="B14" s="93" t="s">
         <v>339</v>
@@ -3804,7 +3809,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="97"/>
       <c r="B15" s="93" t="s">
         <v>336</v>
@@ -3816,7 +3821,7 @@
       <c r="E15" s="42"/>
       <c r="F15" s="93"/>
     </row>
-    <row r="16" spans="1:8" ht="50" customHeight="1" thickBot="1">
+    <row r="16" spans="1:8" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="98"/>
       <c r="B16" s="94" t="s">
         <v>337</v>
@@ -3828,7 +3833,7 @@
       <c r="E16" s="88"/>
       <c r="F16" s="88"/>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>279</v>
       </c>
@@ -3844,39 +3849,39 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:X53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J11" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView tabSelected="1" topLeftCell="I9" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="26" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="26" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="10.81640625" style="1"/>
-    <col min="4" max="4" width="20.36328125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="10.83203125" style="1"/>
+    <col min="4" max="4" width="20.33203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="37.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.6328125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="37.36328125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="5.453125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="37.36328125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="42.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="32.6328125" style="1" customWidth="1"/>
-    <col min="15" max="18" width="10.81640625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="41.36328125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="10.81640625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.81640625" style="1"/>
-    <col min="22" max="22" width="10.81640625" style="1" customWidth="1"/>
-    <col min="23" max="24" width="58.453125" style="74" customWidth="1"/>
-    <col min="25" max="16384" width="10.81640625" style="1"/>
+    <col min="6" max="6" width="37.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="37.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="37.33203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="42.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="32.6640625" style="1" customWidth="1"/>
+    <col min="15" max="18" width="10.83203125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="41.33203125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="10.83203125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.83203125" style="1"/>
+    <col min="22" max="22" width="10.83203125" style="1" customWidth="1"/>
+    <col min="23" max="24" width="58.5" style="74" customWidth="1"/>
+    <col min="25" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="26" customHeight="1">
+    <row r="1" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>19</v>
       </c>
@@ -3935,17 +3940,17 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="32" customHeight="1">
+    <row r="2" spans="1:24" ht="32" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="9">
         <v>43711</v>
       </c>
-      <c r="C2" s="107">
+      <c r="C2" s="126">
         <v>1</v>
       </c>
-      <c r="D2" s="110" t="s">
+      <c r="D2" s="129" t="s">
         <v>261</v>
       </c>
       <c r="E2" s="26">
@@ -3991,7 +3996,7 @@
       <c r="W2" s="75"/>
       <c r="X2" s="75"/>
     </row>
-    <row r="3" spans="1:24" ht="32" customHeight="1">
+    <row r="3" spans="1:24" ht="32" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -3999,8 +4004,8 @@
         <f>B2+7</f>
         <v>43718</v>
       </c>
-      <c r="C3" s="108"/>
-      <c r="D3" s="111"/>
+      <c r="C3" s="127"/>
+      <c r="D3" s="130"/>
       <c r="E3" s="26">
         <v>2</v>
       </c>
@@ -4043,7 +4048,7 @@
       <c r="W3" s="75"/>
       <c r="X3" s="75"/>
     </row>
-    <row r="4" spans="1:24" ht="56" customHeight="1">
+    <row r="4" spans="1:24" ht="56" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -4051,8 +4056,8 @@
         <f>B3+7</f>
         <v>43725</v>
       </c>
-      <c r="C4" s="108"/>
-      <c r="D4" s="111"/>
+      <c r="C4" s="127"/>
+      <c r="D4" s="130"/>
       <c r="E4" s="26">
         <v>2</v>
       </c>
@@ -4096,7 +4101,7 @@
       <c r="W4" s="75"/>
       <c r="X4" s="75"/>
     </row>
-    <row r="5" spans="1:24" ht="32" customHeight="1">
+    <row r="5" spans="1:24" ht="32" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -4104,8 +4109,8 @@
         <f t="shared" ref="B5:B8" si="0">B4+7</f>
         <v>43732</v>
       </c>
-      <c r="C5" s="108"/>
-      <c r="D5" s="111"/>
+      <c r="C5" s="127"/>
+      <c r="D5" s="130"/>
       <c r="E5" s="26">
         <v>3</v>
       </c>
@@ -4149,7 +4154,7 @@
       <c r="W5" s="75"/>
       <c r="X5" s="75"/>
     </row>
-    <row r="6" spans="1:24" ht="26" customHeight="1">
+    <row r="6" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -4157,8 +4162,8 @@
         <f>B5+7</f>
         <v>43739</v>
       </c>
-      <c r="C6" s="108"/>
-      <c r="D6" s="111"/>
+      <c r="C6" s="127"/>
+      <c r="D6" s="130"/>
       <c r="E6" s="26">
         <v>4</v>
       </c>
@@ -4204,7 +4209,7 @@
       <c r="W6" s="75"/>
       <c r="X6" s="75"/>
     </row>
-    <row r="7" spans="1:24" ht="26" customHeight="1">
+    <row r="7" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -4212,8 +4217,8 @@
         <f t="shared" si="0"/>
         <v>43746</v>
       </c>
-      <c r="C7" s="108"/>
-      <c r="D7" s="111"/>
+      <c r="C7" s="127"/>
+      <c r="D7" s="130"/>
       <c r="E7" s="26">
         <v>4</v>
       </c>
@@ -4253,7 +4258,7 @@
       <c r="W7" s="75"/>
       <c r="X7" s="75"/>
     </row>
-    <row r="8" spans="1:24" ht="26" customHeight="1">
+    <row r="8" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -4261,8 +4266,8 @@
         <f t="shared" si="0"/>
         <v>43753</v>
       </c>
-      <c r="C8" s="109"/>
-      <c r="D8" s="112"/>
+      <c r="C8" s="128"/>
+      <c r="D8" s="131"/>
       <c r="E8" s="26">
         <v>5</v>
       </c>
@@ -4308,25 +4313,25 @@
       <c r="W8" s="75"/>
       <c r="X8" s="75"/>
     </row>
-    <row r="9" spans="1:24" ht="26" customHeight="1">
-      <c r="A9" s="105" t="s">
+    <row r="9" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="106"/>
-      <c r="C9" s="106"/>
-      <c r="D9" s="106"/>
-      <c r="E9" s="106"/>
-      <c r="F9" s="106"/>
-      <c r="G9" s="106"/>
-      <c r="H9" s="106"/>
-      <c r="I9" s="106"/>
-      <c r="J9" s="106"/>
-      <c r="K9" s="106"/>
-      <c r="L9" s="106"/>
-      <c r="M9" s="106"/>
-      <c r="N9" s="106"/>
-      <c r="O9" s="106"/>
-      <c r="P9" s="106"/>
+      <c r="B9" s="102"/>
+      <c r="C9" s="102"/>
+      <c r="D9" s="102"/>
+      <c r="E9" s="102"/>
+      <c r="F9" s="102"/>
+      <c r="G9" s="102"/>
+      <c r="H9" s="102"/>
+      <c r="I9" s="102"/>
+      <c r="J9" s="102"/>
+      <c r="K9" s="102"/>
+      <c r="L9" s="102"/>
+      <c r="M9" s="102"/>
+      <c r="N9" s="102"/>
+      <c r="O9" s="102"/>
+      <c r="P9" s="102"/>
       <c r="Q9" s="4"/>
       <c r="R9" s="41"/>
       <c r="S9" s="32"/>
@@ -4334,7 +4339,7 @@
       <c r="W9" s="75"/>
       <c r="X9" s="75"/>
     </row>
-    <row r="10" spans="1:24" ht="26" customHeight="1">
+    <row r="10" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -4342,10 +4347,10 @@
         <f>B8+21</f>
         <v>43774</v>
       </c>
-      <c r="C10" s="107">
+      <c r="C10" s="126">
         <v>1</v>
       </c>
-      <c r="D10" s="110" t="s">
+      <c r="D10" s="129" t="s">
         <v>261</v>
       </c>
       <c r="E10" s="26">
@@ -4387,7 +4392,7 @@
       <c r="W10" s="75"/>
       <c r="X10" s="75"/>
     </row>
-    <row r="11" spans="1:24" ht="26" customHeight="1">
+    <row r="11" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -4395,8 +4400,8 @@
         <f t="shared" ref="B11:B16" si="1">B10+7</f>
         <v>43781</v>
       </c>
-      <c r="C11" s="108"/>
-      <c r="D11" s="111"/>
+      <c r="C11" s="127"/>
+      <c r="D11" s="130"/>
       <c r="E11" s="26">
         <v>6</v>
       </c>
@@ -4438,7 +4443,7 @@
       <c r="W11" s="75"/>
       <c r="X11" s="75"/>
     </row>
-    <row r="12" spans="1:24" ht="26" customHeight="1">
+    <row r="12" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -4446,8 +4451,8 @@
         <f t="shared" si="1"/>
         <v>43788</v>
       </c>
-      <c r="C12" s="108"/>
-      <c r="D12" s="111"/>
+      <c r="C12" s="127"/>
+      <c r="D12" s="130"/>
       <c r="E12" s="26">
         <v>6</v>
       </c>
@@ -4484,7 +4489,7 @@
       <c r="W12" s="75"/>
       <c r="X12" s="75"/>
     </row>
-    <row r="13" spans="1:24" ht="26" customHeight="1">
+    <row r="13" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -4492,8 +4497,8 @@
         <f t="shared" si="1"/>
         <v>43795</v>
       </c>
-      <c r="C13" s="108"/>
-      <c r="D13" s="111"/>
+      <c r="C13" s="127"/>
+      <c r="D13" s="130"/>
       <c r="E13" s="26">
         <v>7</v>
       </c>
@@ -4537,7 +4542,7 @@
       <c r="W13" s="75"/>
       <c r="X13" s="75"/>
     </row>
-    <row r="14" spans="1:24" ht="26" customHeight="1">
+    <row r="14" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -4545,8 +4550,8 @@
         <f t="shared" si="1"/>
         <v>43802</v>
       </c>
-      <c r="C14" s="108"/>
-      <c r="D14" s="111"/>
+      <c r="C14" s="127"/>
+      <c r="D14" s="130"/>
       <c r="E14" s="26">
         <v>7</v>
       </c>
@@ -4585,7 +4590,7 @@
       <c r="W14" s="75"/>
       <c r="X14" s="75"/>
     </row>
-    <row r="15" spans="1:24" ht="26" customHeight="1">
+    <row r="15" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -4593,8 +4598,8 @@
         <f t="shared" si="1"/>
         <v>43809</v>
       </c>
-      <c r="C15" s="108"/>
-      <c r="D15" s="111"/>
+      <c r="C15" s="127"/>
+      <c r="D15" s="130"/>
       <c r="E15" s="26">
         <v>8</v>
       </c>
@@ -4638,7 +4643,7 @@
       <c r="W15" s="75"/>
       <c r="X15" s="75"/>
     </row>
-    <row r="16" spans="1:24" ht="26" customHeight="1">
+    <row r="16" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -4646,8 +4651,8 @@
         <f t="shared" si="1"/>
         <v>43816</v>
       </c>
-      <c r="C16" s="109"/>
-      <c r="D16" s="112"/>
+      <c r="C16" s="128"/>
+      <c r="D16" s="131"/>
       <c r="E16" s="26">
         <v>8</v>
       </c>
@@ -4687,25 +4692,25 @@
       <c r="W16" s="75"/>
       <c r="X16" s="75"/>
     </row>
-    <row r="17" spans="1:24" ht="26" customHeight="1">
-      <c r="A17" s="105" t="s">
+    <row r="17" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="106"/>
-      <c r="C17" s="106"/>
-      <c r="D17" s="106"/>
-      <c r="E17" s="106"/>
-      <c r="F17" s="106"/>
-      <c r="G17" s="106"/>
-      <c r="H17" s="106"/>
-      <c r="I17" s="106"/>
-      <c r="J17" s="106"/>
-      <c r="K17" s="106"/>
-      <c r="L17" s="106"/>
-      <c r="M17" s="106"/>
-      <c r="N17" s="106"/>
-      <c r="O17" s="106"/>
-      <c r="P17" s="106"/>
+      <c r="B17" s="102"/>
+      <c r="C17" s="102"/>
+      <c r="D17" s="102"/>
+      <c r="E17" s="102"/>
+      <c r="F17" s="102"/>
+      <c r="G17" s="102"/>
+      <c r="H17" s="102"/>
+      <c r="I17" s="102"/>
+      <c r="J17" s="102"/>
+      <c r="K17" s="102"/>
+      <c r="L17" s="102"/>
+      <c r="M17" s="102"/>
+      <c r="N17" s="102"/>
+      <c r="O17" s="102"/>
+      <c r="P17" s="102"/>
       <c r="Q17" s="4"/>
       <c r="R17" s="41"/>
       <c r="S17" s="32"/>
@@ -4713,7 +4718,7 @@
       <c r="W17" s="75"/>
       <c r="X17" s="75"/>
     </row>
-    <row r="18" spans="1:24" ht="26" customHeight="1">
+    <row r="18" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -4721,10 +4726,10 @@
         <f>B16+21</f>
         <v>43837</v>
       </c>
-      <c r="C18" s="99">
+      <c r="C18" s="120">
         <v>2</v>
       </c>
-      <c r="D18" s="102" t="s">
+      <c r="D18" s="123" t="s">
         <v>184</v>
       </c>
       <c r="E18" s="28">
@@ -4770,7 +4775,7 @@
       <c r="W18" s="75"/>
       <c r="X18" s="75"/>
     </row>
-    <row r="19" spans="1:24" ht="26" customHeight="1">
+    <row r="19" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -4778,8 +4783,8 @@
         <f>B18+7</f>
         <v>43844</v>
       </c>
-      <c r="C19" s="100"/>
-      <c r="D19" s="103"/>
+      <c r="C19" s="121"/>
+      <c r="D19" s="124"/>
       <c r="E19" s="28">
         <v>1</v>
       </c>
@@ -4819,7 +4824,7 @@
       <c r="W19" s="75"/>
       <c r="X19" s="75"/>
     </row>
-    <row r="20" spans="1:24" ht="26" customHeight="1">
+    <row r="20" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -4827,8 +4832,8 @@
         <f t="shared" ref="B20:B40" si="2">B19+7</f>
         <v>43851</v>
       </c>
-      <c r="C20" s="100"/>
-      <c r="D20" s="103"/>
+      <c r="C20" s="121"/>
+      <c r="D20" s="124"/>
       <c r="E20" s="28">
         <v>2</v>
       </c>
@@ -4845,17 +4850,19 @@
         <v>9</v>
       </c>
       <c r="J20" s="13" t="s">
-        <v>37</v>
+        <v>361</v>
       </c>
       <c r="K20" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="L20" s="5"/>
+      <c r="L20" s="5" t="s">
+        <v>360</v>
+      </c>
       <c r="M20" s="73" t="s">
         <v>194</v>
       </c>
-      <c r="N20" s="73" t="s">
-        <v>270</v>
+      <c r="N20" s="27" t="s">
+        <v>273</v>
       </c>
       <c r="O20" s="3"/>
       <c r="P20" s="42"/>
@@ -4870,7 +4877,7 @@
       <c r="W20" s="75"/>
       <c r="X20" s="75"/>
     </row>
-    <row r="21" spans="1:24" ht="26" customHeight="1">
+    <row r="21" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -4878,8 +4885,8 @@
         <f>B20+7</f>
         <v>43858</v>
       </c>
-      <c r="C21" s="101"/>
-      <c r="D21" s="104"/>
+      <c r="C21" s="122"/>
+      <c r="D21" s="125"/>
       <c r="E21" s="28">
         <v>2</v>
       </c>
@@ -4919,7 +4926,7 @@
       <c r="W21" s="75"/>
       <c r="X21" s="75"/>
     </row>
-    <row r="22" spans="1:24" ht="26" customHeight="1">
+    <row r="22" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -4927,10 +4934,10 @@
         <f>B21+7</f>
         <v>43865</v>
       </c>
-      <c r="C22" s="118">
+      <c r="C22" s="106">
         <v>3</v>
       </c>
-      <c r="D22" s="115" t="s">
+      <c r="D22" s="103" t="s">
         <v>60</v>
       </c>
       <c r="E22" s="35">
@@ -4972,7 +4979,7 @@
       <c r="W22" s="75"/>
       <c r="X22" s="75"/>
     </row>
-    <row r="23" spans="1:24" ht="26" customHeight="1">
+    <row r="23" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -4980,8 +4987,8 @@
         <f>B22+7</f>
         <v>43872</v>
       </c>
-      <c r="C23" s="119"/>
-      <c r="D23" s="116"/>
+      <c r="C23" s="107"/>
+      <c r="D23" s="104"/>
       <c r="E23" s="35">
         <v>2</v>
       </c>
@@ -5020,7 +5027,7 @@
       </c>
       <c r="S23" s="33"/>
     </row>
-    <row r="24" spans="1:24" ht="26" customHeight="1">
+    <row r="24" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>19</v>
       </c>
@@ -5028,8 +5035,8 @@
         <f>B23+7</f>
         <v>43879</v>
       </c>
-      <c r="C24" s="120"/>
-      <c r="D24" s="117"/>
+      <c r="C24" s="108"/>
+      <c r="D24" s="105"/>
       <c r="E24" s="34">
         <v>2</v>
       </c>
@@ -5064,25 +5071,25 @@
       </c>
       <c r="S24" s="33"/>
     </row>
-    <row r="25" spans="1:24" ht="26" customHeight="1">
-      <c r="A25" s="105" t="s">
+    <row r="25" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="106"/>
-      <c r="C25" s="106"/>
-      <c r="D25" s="106"/>
-      <c r="E25" s="106"/>
-      <c r="F25" s="106"/>
-      <c r="G25" s="106"/>
-      <c r="H25" s="106"/>
-      <c r="I25" s="106"/>
-      <c r="J25" s="106"/>
-      <c r="K25" s="106"/>
-      <c r="L25" s="106"/>
-      <c r="M25" s="106"/>
-      <c r="N25" s="106"/>
-      <c r="O25" s="106"/>
-      <c r="P25" s="106"/>
+      <c r="B25" s="102"/>
+      <c r="C25" s="102"/>
+      <c r="D25" s="102"/>
+      <c r="E25" s="102"/>
+      <c r="F25" s="102"/>
+      <c r="G25" s="102"/>
+      <c r="H25" s="102"/>
+      <c r="I25" s="102"/>
+      <c r="J25" s="102"/>
+      <c r="K25" s="102"/>
+      <c r="L25" s="102"/>
+      <c r="M25" s="102"/>
+      <c r="N25" s="102"/>
+      <c r="O25" s="102"/>
+      <c r="P25" s="102"/>
       <c r="Q25" s="4"/>
       <c r="R25" s="50"/>
       <c r="S25" s="32"/>
@@ -5090,7 +5097,7 @@
       <c r="W25" s="75"/>
       <c r="X25" s="75"/>
     </row>
-    <row r="26" spans="1:24" ht="26" customHeight="1">
+    <row r="26" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>19</v>
       </c>
@@ -5098,10 +5105,10 @@
         <f>B24+21</f>
         <v>43900</v>
       </c>
-      <c r="C26" s="118">
+      <c r="C26" s="106">
         <v>3</v>
       </c>
-      <c r="D26" s="115" t="s">
+      <c r="D26" s="103" t="s">
         <v>60</v>
       </c>
       <c r="E26" s="29">
@@ -5143,7 +5150,7 @@
       <c r="W26" s="75"/>
       <c r="X26" s="75"/>
     </row>
-    <row r="27" spans="1:24" ht="26" customHeight="1">
+    <row r="27" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>20</v>
       </c>
@@ -5151,8 +5158,8 @@
         <f t="shared" si="2"/>
         <v>43907</v>
       </c>
-      <c r="C27" s="119"/>
-      <c r="D27" s="116"/>
+      <c r="C27" s="107"/>
+      <c r="D27" s="104"/>
       <c r="E27" s="35">
         <v>3</v>
       </c>
@@ -5189,7 +5196,7 @@
       <c r="W27" s="75"/>
       <c r="X27" s="75"/>
     </row>
-    <row r="28" spans="1:24" ht="26" customHeight="1">
+    <row r="28" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>21</v>
       </c>
@@ -5197,8 +5204,8 @@
         <f t="shared" si="2"/>
         <v>43914</v>
       </c>
-      <c r="C28" s="119"/>
-      <c r="D28" s="116"/>
+      <c r="C28" s="107"/>
+      <c r="D28" s="104"/>
       <c r="E28" s="29">
         <v>4</v>
       </c>
@@ -5238,7 +5245,7 @@
       <c r="W28" s="75"/>
       <c r="X28" s="75"/>
     </row>
-    <row r="29" spans="1:24" ht="26" customHeight="1">
+    <row r="29" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>22</v>
       </c>
@@ -5246,8 +5253,8 @@
         <f t="shared" si="2"/>
         <v>43921</v>
       </c>
-      <c r="C29" s="120"/>
-      <c r="D29" s="117"/>
+      <c r="C29" s="108"/>
+      <c r="D29" s="105"/>
       <c r="E29" s="35">
         <v>4</v>
       </c>
@@ -5285,7 +5292,7 @@
       <c r="W29" s="75"/>
       <c r="X29" s="75"/>
     </row>
-    <row r="30" spans="1:24" ht="26" customHeight="1">
+    <row r="30" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>23</v>
       </c>
@@ -5293,10 +5300,10 @@
         <f t="shared" si="2"/>
         <v>43928</v>
       </c>
-      <c r="C30" s="121">
+      <c r="C30" s="109">
         <v>4</v>
       </c>
-      <c r="D30" s="123" t="s">
+      <c r="D30" s="111" t="s">
         <v>43</v>
       </c>
       <c r="E30" s="30">
@@ -5340,7 +5347,7 @@
       <c r="W30" s="75"/>
       <c r="X30" s="75"/>
     </row>
-    <row r="31" spans="1:24" ht="26" customHeight="1">
+    <row r="31" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>24</v>
       </c>
@@ -5348,8 +5355,8 @@
         <f t="shared" si="2"/>
         <v>43935</v>
       </c>
-      <c r="C31" s="122"/>
-      <c r="D31" s="124"/>
+      <c r="C31" s="110"/>
+      <c r="D31" s="112"/>
       <c r="E31" s="30">
         <v>2</v>
       </c>
@@ -5389,25 +5396,25 @@
       <c r="W31" s="75"/>
       <c r="X31" s="75"/>
     </row>
-    <row r="32" spans="1:24" ht="26" customHeight="1">
-      <c r="A32" s="113" t="s">
+    <row r="32" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="99" t="s">
         <v>14</v>
       </c>
-      <c r="B32" s="114"/>
-      <c r="C32" s="114"/>
-      <c r="D32" s="114"/>
-      <c r="E32" s="114"/>
-      <c r="F32" s="114"/>
-      <c r="G32" s="114"/>
-      <c r="H32" s="114"/>
-      <c r="I32" s="114"/>
-      <c r="J32" s="114"/>
-      <c r="K32" s="114"/>
-      <c r="L32" s="114"/>
-      <c r="M32" s="114"/>
-      <c r="N32" s="114"/>
-      <c r="O32" s="114"/>
-      <c r="P32" s="114"/>
+      <c r="B32" s="100"/>
+      <c r="C32" s="100"/>
+      <c r="D32" s="100"/>
+      <c r="E32" s="100"/>
+      <c r="F32" s="100"/>
+      <c r="G32" s="100"/>
+      <c r="H32" s="100"/>
+      <c r="I32" s="100"/>
+      <c r="J32" s="100"/>
+      <c r="K32" s="100"/>
+      <c r="L32" s="100"/>
+      <c r="M32" s="100"/>
+      <c r="N32" s="100"/>
+      <c r="O32" s="100"/>
+      <c r="P32" s="100"/>
       <c r="Q32" s="47"/>
       <c r="R32" s="51"/>
       <c r="S32" s="32"/>
@@ -5415,7 +5422,7 @@
       <c r="W32" s="75"/>
       <c r="X32" s="75"/>
     </row>
-    <row r="33" spans="1:24" ht="26" customHeight="1">
+    <row r="33" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>25</v>
       </c>
@@ -5423,10 +5430,10 @@
         <f>B31+21</f>
         <v>43956</v>
       </c>
-      <c r="C33" s="121">
+      <c r="C33" s="109">
         <v>4</v>
       </c>
-      <c r="D33" s="123" t="s">
+      <c r="D33" s="111" t="s">
         <v>43</v>
       </c>
       <c r="E33" s="30">
@@ -5463,7 +5470,7 @@
       </c>
       <c r="S33" s="33"/>
     </row>
-    <row r="34" spans="1:24" ht="26" customHeight="1">
+    <row r="34" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>26</v>
       </c>
@@ -5471,8 +5478,8 @@
         <f t="shared" si="2"/>
         <v>43963</v>
       </c>
-      <c r="C34" s="126"/>
-      <c r="D34" s="125"/>
+      <c r="C34" s="114"/>
+      <c r="D34" s="113"/>
       <c r="E34" s="30">
         <v>3</v>
       </c>
@@ -5509,7 +5516,7 @@
       </c>
       <c r="S34" s="32"/>
     </row>
-    <row r="35" spans="1:24" ht="26" customHeight="1">
+    <row r="35" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <v>27</v>
       </c>
@@ -5517,8 +5524,8 @@
         <f t="shared" si="2"/>
         <v>43970</v>
       </c>
-      <c r="C35" s="122"/>
-      <c r="D35" s="124"/>
+      <c r="C35" s="110"/>
+      <c r="D35" s="112"/>
       <c r="E35" s="30">
         <v>4</v>
       </c>
@@ -5554,7 +5561,7 @@
       </c>
       <c r="S35" s="46"/>
     </row>
-    <row r="36" spans="1:24" ht="26" customHeight="1">
+    <row r="36" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>28</v>
       </c>
@@ -5562,10 +5569,10 @@
         <f t="shared" si="2"/>
         <v>43977</v>
       </c>
-      <c r="C36" s="129">
+      <c r="C36" s="117">
         <v>5</v>
       </c>
-      <c r="D36" s="127" t="s">
+      <c r="D36" s="115" t="s">
         <v>49</v>
       </c>
       <c r="E36" s="31">
@@ -5597,7 +5604,7 @@
       <c r="W36" s="75"/>
       <c r="X36" s="75"/>
     </row>
-    <row r="37" spans="1:24" ht="26" customHeight="1">
+    <row r="37" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
         <v>29</v>
       </c>
@@ -5605,8 +5612,8 @@
         <f t="shared" si="2"/>
         <v>43984</v>
       </c>
-      <c r="C37" s="130"/>
-      <c r="D37" s="128"/>
+      <c r="C37" s="118"/>
+      <c r="D37" s="116"/>
       <c r="E37" s="31">
         <v>1</v>
       </c>
@@ -5638,7 +5645,7 @@
       <c r="W37" s="75"/>
       <c r="X37" s="75"/>
     </row>
-    <row r="38" spans="1:24" ht="26" customHeight="1">
+    <row r="38" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>30</v>
       </c>
@@ -5646,8 +5653,8 @@
         <f t="shared" si="2"/>
         <v>43991</v>
       </c>
-      <c r="C38" s="130"/>
-      <c r="D38" s="128"/>
+      <c r="C38" s="118"/>
+      <c r="D38" s="116"/>
       <c r="E38" s="31">
         <v>1</v>
       </c>
@@ -5677,7 +5684,7 @@
       <c r="W38" s="75"/>
       <c r="X38" s="75"/>
     </row>
-    <row r="39" spans="1:24" ht="26" customHeight="1">
+    <row r="39" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
         <v>31</v>
       </c>
@@ -5685,8 +5692,8 @@
         <f t="shared" si="2"/>
         <v>43998</v>
       </c>
-      <c r="C39" s="130"/>
-      <c r="D39" s="128"/>
+      <c r="C39" s="118"/>
+      <c r="D39" s="116"/>
       <c r="E39" s="31">
         <v>1</v>
       </c>
@@ -5716,7 +5723,7 @@
       <c r="W39" s="75"/>
       <c r="X39" s="75"/>
     </row>
-    <row r="40" spans="1:24" ht="26" customHeight="1">
+    <row r="40" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>32</v>
       </c>
@@ -5724,8 +5731,8 @@
         <f t="shared" si="2"/>
         <v>44005</v>
       </c>
-      <c r="C40" s="131"/>
-      <c r="D40" s="128"/>
+      <c r="C40" s="119"/>
+      <c r="D40" s="116"/>
       <c r="E40" s="31">
         <v>1</v>
       </c>
@@ -5753,93 +5760,101 @@
       <c r="W40" s="75"/>
       <c r="X40" s="75"/>
     </row>
-    <row r="41" spans="1:24" ht="26" customHeight="1">
-      <c r="A41" s="113" t="s">
+    <row r="41" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="B41" s="114"/>
-      <c r="C41" s="114"/>
-      <c r="D41" s="114"/>
-      <c r="E41" s="114"/>
-      <c r="F41" s="114"/>
-      <c r="G41" s="114"/>
-      <c r="H41" s="114"/>
-      <c r="I41" s="114"/>
-      <c r="J41" s="114"/>
-      <c r="K41" s="114"/>
-      <c r="L41" s="114"/>
-      <c r="M41" s="114"/>
-      <c r="N41" s="114"/>
-      <c r="O41" s="114"/>
-      <c r="P41" s="114"/>
+      <c r="B41" s="100"/>
+      <c r="C41" s="100"/>
+      <c r="D41" s="100"/>
+      <c r="E41" s="100"/>
+      <c r="F41" s="100"/>
+      <c r="G41" s="100"/>
+      <c r="H41" s="100"/>
+      <c r="I41" s="100"/>
+      <c r="J41" s="100"/>
+      <c r="K41" s="100"/>
+      <c r="L41" s="100"/>
+      <c r="M41" s="100"/>
+      <c r="N41" s="100"/>
+      <c r="O41" s="100"/>
+      <c r="P41" s="100"/>
       <c r="Q41" s="47"/>
       <c r="R41" s="51"/>
       <c r="V41" s="70"/>
       <c r="W41" s="75"/>
       <c r="X41" s="75"/>
     </row>
-    <row r="42" spans="1:24" ht="26" customHeight="1">
+    <row r="42" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="V42" s="70"/>
       <c r="W42" s="75"/>
       <c r="X42" s="75"/>
     </row>
-    <row r="43" spans="1:24" ht="26" customHeight="1">
+    <row r="43" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="V43" s="70"/>
       <c r="W43" s="75"/>
       <c r="X43" s="75"/>
     </row>
-    <row r="44" spans="1:24" ht="26" customHeight="1">
+    <row r="44" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="V44" s="70"/>
       <c r="W44" s="75"/>
       <c r="X44" s="75"/>
     </row>
-    <row r="45" spans="1:24" ht="26" customHeight="1">
+    <row r="45" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="V45" s="70"/>
       <c r="W45" s="75"/>
       <c r="X45" s="75"/>
     </row>
-    <row r="46" spans="1:24" ht="26" customHeight="1">
+    <row r="46" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="V46" s="70"/>
       <c r="W46" s="75"/>
       <c r="X46" s="75"/>
     </row>
-    <row r="47" spans="1:24" ht="26" customHeight="1">
+    <row r="47" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="V47" s="70"/>
       <c r="W47" s="75"/>
       <c r="X47" s="75"/>
     </row>
-    <row r="48" spans="1:24" ht="26" customHeight="1">
+    <row r="48" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="V48" s="70"/>
       <c r="W48" s="75"/>
       <c r="X48" s="75"/>
     </row>
-    <row r="49" spans="22:24" ht="26" customHeight="1">
+    <row r="49" spans="22:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="V49" s="70"/>
       <c r="W49" s="75"/>
       <c r="X49" s="75"/>
     </row>
-    <row r="50" spans="22:24" ht="26" customHeight="1">
+    <row r="50" spans="22:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="V50" s="70"/>
       <c r="W50" s="75"/>
       <c r="X50" s="75"/>
     </row>
-    <row r="51" spans="22:24" ht="26" customHeight="1">
+    <row r="51" spans="22:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="V51" s="70"/>
       <c r="W51" s="75"/>
       <c r="X51" s="75"/>
     </row>
-    <row r="52" spans="22:24" ht="26" customHeight="1">
+    <row r="52" spans="22:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="V52" s="70"/>
       <c r="W52" s="75"/>
       <c r="X52" s="75"/>
     </row>
-    <row r="53" spans="22:24" ht="26" customHeight="1">
+    <row r="53" spans="22:24" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="V53" s="70"/>
       <c r="W53" s="75"/>
       <c r="X53" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="A9:P9"/>
+    <mergeCell ref="A17:P17"/>
+    <mergeCell ref="C2:C8"/>
+    <mergeCell ref="D2:D8"/>
+    <mergeCell ref="D10:D16"/>
+    <mergeCell ref="C10:C16"/>
     <mergeCell ref="A41:P41"/>
     <mergeCell ref="A32:P32"/>
     <mergeCell ref="A25:P25"/>
@@ -5853,14 +5868,6 @@
     <mergeCell ref="C33:C35"/>
     <mergeCell ref="D36:D40"/>
     <mergeCell ref="C36:C40"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="D18:D21"/>
-    <mergeCell ref="A9:P9"/>
-    <mergeCell ref="A17:P17"/>
-    <mergeCell ref="C2:C8"/>
-    <mergeCell ref="D2:D8"/>
-    <mergeCell ref="D10:D16"/>
-    <mergeCell ref="C10:C16"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5869,22 +5876,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" style="2"/>
-    <col min="2" max="2" width="70.453125" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="10.81640625" style="2"/>
+    <col min="1" max="1" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="70.5" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="21" customHeight="1"/>
-    <row r="2" spans="1:2" ht="31">
+    <row r="1" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="2" spans="1:2" ht="32" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
         <v>4</v>
       </c>
@@ -5892,7 +5899,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="38" customHeight="1">
+    <row r="3" spans="1:2" ht="38" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="10" t="s">
         <v>3</v>
       </c>
@@ -5900,7 +5907,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="38" customHeight="1">
+    <row r="4" spans="1:2" ht="38" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="22" t="s">
         <v>54</v>
       </c>
@@ -5908,7 +5915,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="38" customHeight="1">
+    <row r="5" spans="1:2" ht="38" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="23" t="s">
         <v>55</v>
       </c>
@@ -5916,7 +5923,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="38" customHeight="1">
+    <row r="6" spans="1:2" ht="38" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="24" t="s">
         <v>6</v>
       </c>
@@ -5924,7 +5931,7 @@
         <v>43</v>
       </c>
     </row>
-  